--- a/BIDMC/np_swab_results.xlsx
+++ b/BIDMC/np_swab_results.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="523">
   <si>
     <t>Date of test</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Link to stl and cad files</t>
   </si>
   <si>
-    <t>Test 1: Expert evaluation</t>
-  </si>
-  <si>
     <t>Test 2: Collection sufficiency</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t>BIDMC</t>
   </si>
   <si>
-    <t>img/Puritan/puritan_sterile_polyester_tipped_applicator_25-805_1PD.png</t>
-  </si>
-  <si>
     <t>Polyester tip</t>
   </si>
   <si>
@@ -114,18 +108,12 @@
     <t>Fisher polyester-tipped applicators 22363164</t>
   </si>
   <si>
-    <t>img/Fisher/fisher_polyester_tipped_applicators_22363164.png</t>
-  </si>
-  <si>
     <t>Fisher</t>
   </si>
   <si>
     <t>Puritan sterile foam tipped applicator 25-1506 1PF</t>
   </si>
   <si>
-    <t>img/Puritan/puritan_sterile_foam_tipped_applicator_25-1506_1PF.png</t>
-  </si>
-  <si>
     <t>Pass (but tip diameter large, would be difficult to use)</t>
   </si>
   <si>
@@ -135,9 +123,6 @@
     <t>Copan BD ESwab collection and transport system 220532</t>
   </si>
   <si>
-    <t>img/Copan_BD/copan_BD_ESwab_collection_and_transport_system_220532.png</t>
-  </si>
-  <si>
     <t>Copan ESwab 220245</t>
   </si>
   <si>
@@ -156,9 +141,6 @@
     <t>Jifei Material 2</t>
   </si>
   <si>
-    <t>img/FormLabs/honeydipper.png</t>
-  </si>
-  <si>
     <t>FormLabs (Craig Brody)</t>
   </si>
   <si>
@@ -168,15 +150,9 @@
     <t>Did not pass (material did not transfer to slide?)</t>
   </si>
   <si>
-    <t>img/FormLabs/bristles.png</t>
-  </si>
-  <si>
     <t>Harvard Army</t>
   </si>
   <si>
-    <t>img/Harvard_army/new_skin.png</t>
-  </si>
-  <si>
     <t>Army (Kit Parker)</t>
   </si>
   <si>
@@ -192,9 +168,6 @@
     <t>W1</t>
   </si>
   <si>
-    <t>img/Wyss/wyss_w1.png</t>
-  </si>
-  <si>
     <t>rayon, fiber, silicon glue, polycarbonate probe</t>
   </si>
   <si>
@@ -204,9 +177,6 @@
     <t>W2</t>
   </si>
   <si>
-    <t>img/Wyss/wyss_w2.png</t>
-  </si>
-  <si>
     <t>nylon fiber (0.75µm), silicon glue, polycarbonate probe</t>
   </si>
   <si>
@@ -219,9 +189,6 @@
     <t>W3</t>
   </si>
   <si>
-    <t>img/Wyss/wyss_w3.png</t>
-  </si>
-  <si>
     <t>rayon fiber, silicon glue, nylon probe</t>
   </si>
   <si>
@@ -231,45 +198,30 @@
     <t>W4</t>
   </si>
   <si>
-    <t>img/Wyss/wyss_w4.png</t>
-  </si>
-  <si>
     <t>rayon immfiber, silicon glue, commercial straw</t>
   </si>
   <si>
     <t>W5</t>
   </si>
   <si>
-    <t>img/Wyss/wyss_w5.png</t>
-  </si>
-  <si>
     <t>nylon fiber (0.75µm), nylon probe, silicon glue</t>
   </si>
   <si>
     <t>W6</t>
   </si>
   <si>
-    <t>img/Wyss/wyss_w6.png</t>
-  </si>
-  <si>
     <t>polycarbonate 3D-printed probe</t>
   </si>
   <si>
     <t>W7</t>
   </si>
   <si>
-    <t>img/Wyss/wyss_w7.png</t>
-  </si>
-  <si>
     <t>nylon 3D-printed probe</t>
   </si>
   <si>
     <t>W8</t>
   </si>
   <si>
-    <t>img/Wyss/wyss_w8.png</t>
-  </si>
-  <si>
     <t>VWR 1ul loop + pellon p45 fabric knot - Jenny</t>
   </si>
   <si>
@@ -291,9 +243,6 @@
     <t>(meth)acrylated urethane photopolymer</t>
   </si>
   <si>
-    <t>Formlabs Surgical Guide img/FormLabs/surgical_guide_technical_data_sheet_en.pdf</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -330,33 +279,21 @@
     <t>Formlabs - Dental LT clear (Bristle, Honey tips)</t>
   </si>
   <si>
-    <t>img/FormLabs/DentalLT.jpg</t>
-  </si>
-  <si>
     <t>Did not pass (tip needs to be more flexible - will abutt posterior nasopharynx, but flexibility of NP neck, handle/body still needs to be more smooth)</t>
   </si>
   <si>
     <t>Formlabs - Dental SG (Fern tip)</t>
   </si>
   <si>
-    <t>img/FormLabs/SG.jpg</t>
-  </si>
-  <si>
     <t>Formlabs - Grey Pro (Spiral, Honey, Bristle)</t>
   </si>
   <si>
-    <t>img/FormLabs/GreyPro.jpg</t>
-  </si>
-  <si>
     <t>Did not pass (material brittle, tip needs to be more flexible - will abutt posterior nasopharynx, but flexibility of NP neck, handle/body still needs to be more smooth)</t>
   </si>
   <si>
     <t>Formlabs - Durable (Fern, Honey, Bristle)</t>
   </si>
   <si>
-    <t>img/FormLabs/Durable.jpg</t>
-  </si>
-  <si>
     <t>Did Not Pass (Flexibility of tip appropriate, but neck for these designs is too elastic, difficult to pass middle turbinate, and folds in external nasal cavity)</t>
   </si>
   <si>
@@ -366,45 +303,30 @@
     <t>Formlabs Tough (Spiral, Bristle, Honey, Fern)</t>
   </si>
   <si>
-    <t>img/FormLabs/tough.jpg</t>
-  </si>
-  <si>
     <t>Did not pass (tip needs to be more flexible - will abutt posterior nasopharynx)</t>
   </si>
   <si>
     <t>Formlabs Dental Model (Honey, Bristle)</t>
   </si>
   <si>
-    <t>img/FormLabs/model.jpg</t>
-  </si>
-  <si>
     <t>Did not pass (tip needs to be more flexible - will abutt posterior nasopharynx, and material too brittle)</t>
   </si>
   <si>
     <t>Formlabs Tough 1500 (Spiral, Brittle)</t>
   </si>
   <si>
-    <t>img/FormLabs/tough1500.jpg</t>
-  </si>
-  <si>
     <t>Formlabs Tough - Tip 4 (Spiral, Bristle, Honey, Fern)</t>
   </si>
   <si>
     <t>Harvard Army Ultem</t>
   </si>
   <si>
-    <t>img/Harvard_army/ultem.jpg</t>
-  </si>
-  <si>
     <t>Did not pass (material too brittle, tip inflexible</t>
   </si>
   <si>
     <t>Harvard Army Onyx</t>
   </si>
   <si>
-    <t>img/Harvard_army/onyx.jpg</t>
-  </si>
-  <si>
     <t>Did not pass (tip too inflexible)</t>
   </si>
   <si>
@@ -420,9 +342,6 @@
     <t>Rings w/ medium spacing distance</t>
   </si>
   <si>
-    <t>img/USF/USF1-1.jpg</t>
-  </si>
-  <si>
     <t>HP (Rick Fulop; ricfulop@desktopmetal.com)</t>
   </si>
   <si>
@@ -435,9 +354,6 @@
     <t>Rings w/ low spacing distance</t>
   </si>
   <si>
-    <t>img/USF/USF1-2.jpg</t>
-  </si>
-  <si>
     <t>Did not pass (tip is too sharp but stiff/brittle, but body design (flexibility of neck and stiffness of handle is appropriate). There is a fine powder on these materials that we are concerned could be health hazard if aspirated</t>
   </si>
   <si>
@@ -447,9 +363,6 @@
     <t>Rounded tip w/ protrusions</t>
   </si>
   <si>
-    <t>img/USF/USF1-3.jpg</t>
-  </si>
-  <si>
     <t>Did not pass (tip is too sharp and stiff, but body design (flexibility of neck and stiffness of handle is appropriate). There is a fine powder on these materials that we are concerned could be health hazard if aspirated</t>
   </si>
   <si>
@@ -459,9 +372,6 @@
     <t>Screw; finely threaded</t>
   </si>
   <si>
-    <t>img/USF/USF1-4.jpg</t>
-  </si>
-  <si>
     <t>Did not pass (tip is too sharp and stiff/brittle, but body design (flexibility of neck and stiffness of handle is appropriate). There is a fine powder on these materials that we are concerned could be health hazard if aspirated</t>
   </si>
   <si>
@@ -471,9 +381,6 @@
     <t>Screw; medium thread</t>
   </si>
   <si>
-    <t>img/USF/USF1-5.jpg</t>
-  </si>
-  <si>
     <t>Did not pass (tip is too sharp but we like the spring and how flexible it is, but body design (flexibility of neck and stiffness of handle is appropriate). There is a fine powder on these materials that we are concerned could be health hazard if aspirated</t>
   </si>
   <si>
@@ -483,9 +390,6 @@
     <t>Screw;large thread</t>
   </si>
   <si>
-    <t>img/USF/USF1-6.jpg</t>
-  </si>
-  <si>
     <t>HP_H</t>
   </si>
   <si>
@@ -493,9 +397,6 @@
   </si>
   <si>
     <t>March 23,2020</t>
-  </si>
-  <si>
-    <t>img/HP/HPH.jpg</t>
   </si>
   <si>
     <t>HP (LihuA Zhao; Zhao, Lihua &lt;lihua.zhao@hp.com)</t>
@@ -517,24 +418,12 @@
     <t>HP swabs without holes</t>
   </si>
   <si>
-    <t>img/HP/HPNP.jpg</t>
-  </si>
-  <si>
-    <t>Sending HP_NH to UW virology for PCR this afternoon I think a rinse/elution step is needed for the sample collection test since many of these designs shouldn't be expected to transfer well to a slide but can still elute into the VTM-Jenny</t>
-  </si>
-  <si>
     <t>C_1</t>
   </si>
   <si>
     <t>Carbon 3D bag 1</t>
   </si>
   <si>
-    <t>img/Carbon/C1.jpg</t>
-  </si>
-  <si>
-    <t>Carbon 3D (Ramy Arnaout; rarnaout@bidmc.harvard.edu)</t>
-  </si>
-  <si>
     <t>Pass (good stiffness of handle, and flexible tip), tapered more flexible neck would be better</t>
   </si>
   <si>
@@ -544,9 +433,6 @@
     <t>Carbon 3D bag 2</t>
   </si>
   <si>
-    <t>img/Carbon/C2.jpg</t>
-  </si>
-  <si>
     <t>Pass (good stiffness of material, and flexible tip), tapered more flexible neck would be better</t>
   </si>
   <si>
@@ -715,9 +601,6 @@
     <t>Foam Swab. Pt: HT1171B</t>
   </si>
   <si>
-    <t>Img/Foamtec/FT_1</t>
-  </si>
-  <si>
     <t>Foamtec International; Michael Strauss</t>
   </si>
   <si>
@@ -751,9 +634,6 @@
     <t>PCA 2000. 10 minutes. 100%</t>
   </si>
   <si>
-    <t>Enviriontec. Al Siblani</t>
-  </si>
-  <si>
     <t>EV_2</t>
   </si>
   <si>
@@ -776,15 +656,6 @@
   </si>
   <si>
     <t>2x20seconds w/nitrogen</t>
-  </si>
-  <si>
-    <t>Img/Foamtec/FT_2</t>
-  </si>
-  <si>
-    <t>Img/Foamtec/FT_3</t>
-  </si>
-  <si>
-    <t>Img/Foamtec/FT_4</t>
   </si>
   <si>
     <t>Jifei "Carbon" (internal ID, *not* Carbon3D the company)</t>
@@ -800,66 +671,12 @@
 Hardik Kabaria &lt;hardik@carbon3d.com)</t>
   </si>
   <si>
-    <t>img/Gorelik/P0.jpg</t>
-  </si>
-  <si>
-    <t>img/Gorelik/P1.jpg</t>
-  </si>
-  <si>
-    <t>img/Gorelik/P2.jpg</t>
-  </si>
-  <si>
-    <t>img/Gorelik/P3.jpg</t>
-  </si>
-  <si>
-    <t>img/Gorelik/P4.jpg</t>
-  </si>
-  <si>
-    <t>img/Gorelik/P5.jpg</t>
-  </si>
-  <si>
-    <t>img/Gorelik/P6.jpg</t>
-  </si>
-  <si>
-    <t>img/Gorelik/P7.jpg</t>
-  </si>
-  <si>
-    <t>img/OPT_industries/J_1.jpg</t>
-  </si>
-  <si>
-    <t>img/USF/USF_2_1.jpg</t>
-  </si>
-  <si>
-    <t>img/USF/USF_2_2.jpg</t>
-  </si>
-  <si>
-    <t>img/Baker/B_1</t>
-  </si>
-  <si>
-    <t>img/Seriano/S_1</t>
-  </si>
-  <si>
-    <t>img/Seriano/S_2</t>
-  </si>
-  <si>
     <t>Did not pass (tip is too sharp, but very flexible, perhaps too flexible, S1 may be better, and body design is appopriate)</t>
   </si>
   <si>
-    <t>img/Seriano/S_3</t>
-  </si>
-  <si>
     <t>Did not pass (tip is too sharp, and body design is appopriate)</t>
   </si>
   <si>
-    <t>img/Seriano/S_4</t>
-  </si>
-  <si>
-    <t>img/Seriano/S_5</t>
-  </si>
-  <si>
-    <t>img/Seriano/S_6</t>
-  </si>
-  <si>
     <t>Did not pass (not many cells collected)</t>
   </si>
   <si>
@@ -869,12 +686,6 @@
     <t>(not tested, only one swab which was tested for PCR)</t>
   </si>
   <si>
-    <t>(In testing)</t>
-  </si>
-  <si>
-    <t>(In-testing)</t>
-  </si>
-  <si>
     <t>DOWEL. For material testing</t>
   </si>
   <si>
@@ -1043,47 +854,752 @@
     <t>PDMS [sugar on nylon]</t>
   </si>
   <si>
-    <t>img/Wyss/W_2_1</t>
-  </si>
-  <si>
-    <t>img/Wyss/W_2_2</t>
-  </si>
-  <si>
-    <t>img/Wyss/W_2_3</t>
-  </si>
-  <si>
-    <t>img/Wyss/W_2_4</t>
-  </si>
-  <si>
-    <t>img/Wyss/W_2_5</t>
-  </si>
-  <si>
-    <t>img/Wyss/W_2_6</t>
-  </si>
-  <si>
-    <t>img/Wyss/W_2_7</t>
-  </si>
-  <si>
-    <t>img/Wyss/W_2_8</t>
-  </si>
-  <si>
-    <t>img/Wyss/W_2_9</t>
-  </si>
-  <si>
-    <t>img/Wyss/W_2_10</t>
-  </si>
-  <si>
-    <t>img/Wyss/W_2_11</t>
-  </si>
-  <si>
-    <t>img/Wyss/W_2_12</t>
+    <t>Test 1: Expert evaluation by 2 ID physicians</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/Puritan/puritan_sterile_polyester_tipped_applicator_25-805_1PD.png</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/Fisher/fisher_polyester_tipped_applicators_22363164.png</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/Puritan/puritan_sterile_foam_tipped_applicator_25-1506_1PF.png</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/Copan_BD/copan_BD_ESwab_collection_and_transport_system_220532.png</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/FormLabs/honeydipper.png</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/FormLabs/surgical_guide_technical_data_sheet_en.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/FormLabs/bristles.png</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/FormLabs/DentalLT.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/FormLabs/SG.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/FormLabs/GreyPro.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/FormLabs/Durable.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/FormLabs/tough.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/FormLabs/model.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/FormLabs/tough1500.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/Harvard_army/new_skin.png</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/Harvard_army/ultem.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/Harvard_army/onyx.JPG</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/Wyss/wyss_w1.png</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/Wyss/wyss_w2.png</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/Wyss/wyss_w3.png</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/Wyss/wyss_w4.png</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/Wyss/wyss_w5.png</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/Wyss/wyss_w6.png</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/Wyss/wyss_w7.png</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/Wyss/wyss_w8.png</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/USF/USF1-1.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/USF/USF1-2.JPG</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/USF/USF1-3.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/USF/USF1-4.JPG</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/USF/USF1-5.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/USF/USF1-6.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/HP/HPH.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/HP/HPNP.jpg</t>
+  </si>
+  <si>
+    <t>passed</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/Carbon/C1.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/Carbon/C2.JPG</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/Gorelik/P0.JPG</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/Gorelik/P1.JPG</t>
+  </si>
+  <si>
+    <t>Did not pass (tip too sharp, appropriately flexible, but would make tip end less jagged)</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/Gorelik/P2.JPG</t>
+  </si>
+  <si>
+    <t>Did not pass (tip too sharp but more appropriately flexible, but would make tip end less jagged)</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/Gorelik/P3.JPG</t>
+  </si>
+  <si>
+    <t>Pass - tip is softer/flexible, and stiffness of neck and elasticity of material appropriate)</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/Gorelik/P4.JPG</t>
+  </si>
+  <si>
+    <t>Did not pass (tip too sharp/stiff, body design appropriate)</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/Gorelik/P5.JPG</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/Gorelik/P6.JPG</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/Gorelik/P7.JPG</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/OPT_industries/J_1.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/USF/USF_2_1.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/USF/USF_2_2.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/Baker/B_1.JPG</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/Seriano/S_1.JPG</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/Seriano/S_2.JPG</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/Seriano/S_3.JPG</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/Seriano/S_4.JPG</t>
+  </si>
+  <si>
+    <t>Did not pass (tip is too sharp, and body design is appopriate, best design of the S-series in terms of head softness)</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/Seriano/S_5.JPG</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/Seriano/S_6.JPG</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/Img/Foamtec/FT_1.JPG</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/Img/Foamtec/FT_2.JPG</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/Img/Foamtec/FT_3.JPG</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/Img/Foamtec/FT_4.JPG</t>
+  </si>
+  <si>
+    <t>EnvisionTEC. Al Siblani. asiblani@envisiontec.com</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/Wyss/W_2_1.JPG</t>
+  </si>
+  <si>
+    <t>Did not pass (body design is appropriate, but tip/neck is too flexible and seems would not easily pass beyond external nares, seems non-uniform &amp; wasn't sure if there would be scale-up reproducibility issues)</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/Wyss/W_2_2.JPG</t>
+  </si>
+  <si>
+    <t>Pass (body design is appropriate, the tip end material seems very absorbent which we like, but the tip would ideally be more flexible, tip seems non-uniform &amp; wasn't sure if there would be scale-up reproducibility issues)</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/Wyss/W_2_3.JPG</t>
+  </si>
+  <si>
+    <t>Did not pass (tip sharp and inflexible but body design is appropriate, tip seems non-uniform &amp; wasn't sure if there would be scale-up reproducibility issues)</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/Wyss/W_2_4.JPG</t>
+  </si>
+  <si>
+    <t>Pass (tip is flexible and body design is appropriate)</t>
+  </si>
+  <si>
+    <t>Did not do cheek swab, uncured glue</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/Wyss/W_2_5.JPG</t>
+  </si>
+  <si>
+    <t>Pass (tip is flexible and body design is appropriate, tip seems non-uniform &amp; wasn't sure if there would be scale-up reproducibility issues, also seems stikcy)</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/Wyss/W_2_6.JPG</t>
+  </si>
+  <si>
+    <t>Did not pass (tip is sharp and inflexible but body design is appropriate, tip seems non-uniform &amp; wasn't sure if there would be scale-up reproducibility issues)</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/Wyss/W_2_7.JPG</t>
+  </si>
+  <si>
+    <t>Pass (tip would ideally be more flexible but body design is appropriate, tip seems non-uniform &amp; wasn't sure if there would be scale-up reproducibility issues)</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/Wyss/W_2_8.JPG</t>
+  </si>
+  <si>
+    <t>Pass (tip ideally would be more flexible, but design is appopriate, tip seems non-uniform &amp; wasn't sure if there would be scale-up reproducibility issues)</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/Wyss/W_2_9.JPG</t>
+  </si>
+  <si>
+    <t>Pass (tip is flexible and body design is appropriate, tip seems non-uniform &amp; wasn't sure if there would be scale-up reproducibility issues)</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/Wyss/W_2_10.JPG</t>
+  </si>
+  <si>
+    <t>Pass (tip is more flexible which we like but body design is appropriate, tip seems non-uniform &amp; wasn't sure if there would be scale-up reproducibility issues)</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/Wyss/W_2_11.JPG</t>
+  </si>
+  <si>
+    <t>Did not pass (too sharp and tip too inflexible)</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/Wyss/W_2_12.JPG</t>
+  </si>
+  <si>
+    <t>Did not pass (tip/neck are too flexible we feel like it would get caught in the external nares and not pass deeper well)</t>
+  </si>
+  <si>
+    <t>EV_2_1</t>
+  </si>
+  <si>
+    <t>3cm rods (for material testing)</t>
+  </si>
+  <si>
+    <t>C 29C</t>
+  </si>
+  <si>
+    <t>C_3</t>
+  </si>
+  <si>
+    <t>4mm voro</t>
+  </si>
+  <si>
+    <t>March 26th, 2020</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/Carbon/C_3.JPG</t>
+  </si>
+  <si>
+    <t>keysplint Soft Clear</t>
+  </si>
+  <si>
+    <t>dreve PCU 90 N2 15 min</t>
+  </si>
+  <si>
+    <t>Carbon3D. Keshav Swarup</t>
+  </si>
+  <si>
+    <t>Did not pass (tip head too firm, would create a neck for more flexibility at the end, and would put breakpoint from tip head end at least 7-10cm from the end.</t>
+  </si>
+  <si>
+    <t>*pass (presumably same material as C!)</t>
+  </si>
+  <si>
+    <t>C_4</t>
+  </si>
+  <si>
+    <t>3mm voro</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/Carbon/C_4.JPG</t>
+  </si>
+  <si>
+    <t>Did not pass (tip head too firm, would create a neck for more flexibility at the end, and would put breakpoint from tip head end at least 7-10cm from the end).</t>
+  </si>
+  <si>
+    <t>C_5</t>
+  </si>
+  <si>
+    <t>USF</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/Carbon/C_5.JPG</t>
+  </si>
+  <si>
+    <t>Did not pass (tip head too sharp and stiff although bristeled head may perform better ultmately for specimen capture. Body design is good)</t>
+  </si>
+  <si>
+    <t>Did not pass</t>
+  </si>
+  <si>
+    <t>C_6</t>
+  </si>
+  <si>
+    <t>long bulb</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/Carbon/C_6.JPG</t>
+  </si>
+  <si>
+    <t>Pass (unique design, and may be preferable to others given logner head/more absorption, and flexibility of entire head while maintaining shape well after deformation)</t>
+  </si>
+  <si>
+    <t>**likely a good design, the head is longer and flexible and probably can pass deeper as well as pickup more material</t>
+  </si>
+  <si>
+    <t>C_7</t>
+  </si>
+  <si>
+    <t>3mm 1.5mm neck</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/Carbon/C_7.JPG</t>
+  </si>
+  <si>
+    <t>Pass (body design std Copan, tip soft enough)</t>
+  </si>
+  <si>
+    <t>HP_FiT</t>
+  </si>
+  <si>
+    <t>finely threaded black swab</t>
+  </si>
+  <si>
+    <t>March 27th, 2020</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/HP/HP_Fit.JPG</t>
+  </si>
+  <si>
+    <t>580 platform</t>
+  </si>
+  <si>
+    <t>HP. Isabel Sanz (isabel.sanz-ananos@hp.com)</t>
+  </si>
+  <si>
+    <t>Did not pass (tip head is too frim)</t>
+  </si>
+  <si>
+    <t>Did not pass. Very few cells collected</t>
+  </si>
+  <si>
+    <t>HP_nub</t>
+  </si>
+  <si>
+    <t>fine nubs on black swab</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/HP/HP_nub.JPG</t>
+  </si>
+  <si>
+    <t>HP_WT</t>
+  </si>
+  <si>
+    <t>black swab with wide threads</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/HP/HP_WT.JPG</t>
+  </si>
+  <si>
+    <t>Did not pass. No cells collected</t>
+  </si>
+  <si>
+    <t>HP_WS</t>
+  </si>
+  <si>
+    <t>wide screw tiped black swab</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/HP/HP_WS.JPG</t>
+  </si>
+  <si>
+    <t>Pass (ideally tip point would be less sharp, although material is much preferable in this verison than prior HP designs)</t>
+  </si>
+  <si>
+    <t>HP_FS</t>
+  </si>
+  <si>
+    <t>fine spring tiped black swab</t>
+  </si>
+  <si>
+    <t>https://github.com/HMS-RIC/Covid19-NP-Swab/tree/master/img/HP/HP_FS.JPG</t>
+  </si>
+  <si>
+    <t>DId not pass (tip head is too flexible, we are concerned could get caught in external nares, and unable to reach posteiror nasopharynx due to such high flexibility)</t>
+  </si>
+  <si>
+    <t>C_2_1</t>
+  </si>
+  <si>
+    <t>long hexagon tip with neck</t>
+  </si>
+  <si>
+    <t>/img/Carbon/C_2_1.JPG</t>
+  </si>
+  <si>
+    <t>Keysplint Soft Clear</t>
+  </si>
+  <si>
+    <t>Dreve PCU 90 N2 20 minutes</t>
+  </si>
+  <si>
+    <t>Pass (but tip point should be less sharp, although material is much preferable in this verison than prior HP designs)</t>
+  </si>
+  <si>
+    <t>HA_2_Onyx</t>
+  </si>
+  <si>
+    <t>black swab with square wave pattern</t>
+  </si>
+  <si>
+    <t>Daniel Davis</t>
+  </si>
+  <si>
+    <t>Did not pass (tip too sharp)</t>
+  </si>
+  <si>
+    <t>HA_V13</t>
+  </si>
+  <si>
+    <t>yelow swab w/ bulb</t>
+  </si>
+  <si>
+    <t>PEI</t>
+  </si>
+  <si>
+    <t>Did not pass (sharp points at breakoff points)</t>
+  </si>
+  <si>
+    <t>HA_2_P</t>
+  </si>
+  <si>
+    <t>yellow with square wave</t>
+  </si>
+  <si>
+    <t>HA_D5</t>
+  </si>
+  <si>
+    <t>#5 Dymax md-1405-T-ur-4r-sc</t>
+  </si>
+  <si>
+    <t>Did not pass (would have a flexible neck to allow further bending in the posterior nasopharynx)</t>
+  </si>
+  <si>
+    <t>HA_D6</t>
+  </si>
+  <si>
+    <t>#6 Dymax md 215-CTH-SV01-WR-SC</t>
+  </si>
+  <si>
+    <t>HA_D7</t>
+  </si>
+  <si>
+    <t>#7 Dymax md 1072-m</t>
+  </si>
+  <si>
+    <t>Did not test, only one rec'd</t>
+  </si>
+  <si>
+    <t>HA_D8</t>
+  </si>
+  <si>
+    <t>#8 Dymax 1120-m-ur</t>
+  </si>
+  <si>
+    <t>HA_D9</t>
+  </si>
+  <si>
+    <t>#9 3M Super 77</t>
+  </si>
+  <si>
+    <t>HA_D10</t>
+  </si>
+  <si>
+    <t>#10 water based vinyl acetate emulsion, cured 160C</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>EV_3_1</t>
+  </si>
+  <si>
+    <t>Envision One printed Swab Model Version 11</t>
+  </si>
+  <si>
+    <t>March 30th, 2020</t>
+  </si>
+  <si>
+    <t>/img/EnvisionTec/EV_3_1.JPG</t>
+  </si>
+  <si>
+    <t>Material E Guide</t>
+  </si>
+  <si>
+    <t>IPA wash 2x Cured 10 min PCA 2000 Code, Rose-Print -2</t>
+  </si>
+  <si>
+    <t>Did not pass - tip seems sharp and ideally should be more flexible, but body design seems appropriate</t>
+  </si>
+  <si>
+    <t>EV_3_2</t>
+  </si>
+  <si>
+    <t>Envision One printed Swab Model Version 11--altered break point</t>
+  </si>
+  <si>
+    <t>/img/EnvisionTec/EV_3_2.JPG</t>
+  </si>
+  <si>
+    <t>Pass but the tip is somewhat brittle/stiff, would be better to be slightly more flexible and would be concerned about possible breaking in the nasopharynx</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>MF_1</t>
+  </si>
+  <si>
+    <t>black swab with floc</t>
+  </si>
+  <si>
+    <t>/img/MarkForged/MF_1</t>
+  </si>
+  <si>
+    <t>Nylon reinforced with carbon fiber</t>
+  </si>
+  <si>
+    <t>Markforged. Dan Eiref.daniel.eiref@markforged.com</t>
+  </si>
+  <si>
+    <t>Did not pass - body design is appropriatley flexible and stiff but tip diameter head seems large and would be difficult to pass to posterior nasopharynx</t>
+  </si>
+  <si>
+    <t>T_S</t>
+  </si>
+  <si>
+    <t>gray swab with blunted screw</t>
+  </si>
+  <si>
+    <t>/img/Tooker/T_S.JPG</t>
+  </si>
+  <si>
+    <t>?HP</t>
+  </si>
+  <si>
+    <t>Angela Tooker</t>
+  </si>
+  <si>
+    <t>Did not pass, tip sides are sharp, although tip end seems appropriatley blunted, material seems somewhat powdery and unfinished</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>T_BS</t>
+  </si>
+  <si>
+    <t>gray swab with bluned spring</t>
+  </si>
+  <si>
+    <t>/img/Tooker/T_BS.JPG</t>
+  </si>
+  <si>
+    <t>Did not pass, tip sides are sharp, although tip end seems appropriatley blunted and flexible, material seems somewhat powdery and unfinished</t>
+  </si>
+  <si>
+    <t>T_SC</t>
+  </si>
+  <si>
+    <t>gray swab with multiple square cavities</t>
+  </si>
+  <si>
+    <t>/img/Tooker/T_SC.JPG</t>
+  </si>
+  <si>
+    <t>Did not pass, tip sides are more smooth but still overall tip head seems sharp although appropriatley blunted, material seems somewhat powdery and unfinished</t>
+  </si>
+  <si>
+    <t>MF_2</t>
+  </si>
+  <si>
+    <t>White swab with flocked loop</t>
+  </si>
+  <si>
+    <t>/img/Markforged/MF_2.JPG</t>
+  </si>
+  <si>
+    <t>medical grade nylon with flocked tip</t>
+  </si>
+  <si>
+    <t>Markforged. Tom Allen;Greg Mark</t>
+  </si>
+  <si>
+    <t>Pass - body design appropriately flexible and stiff, but would need a breakpoint</t>
+  </si>
+  <si>
+    <t>J_2</t>
+  </si>
+  <si>
+    <t>Reinforced swab with larger distal tip diameter</t>
+  </si>
+  <si>
+    <t>/img/OPT_industries/J_2.JPG</t>
+  </si>
+  <si>
+    <t>meth(acrylated urethane photopolymer</t>
+  </si>
+  <si>
+    <t>Did not pass - body design is too flexible, needs to be stiffer in order to appropriately maintain shape to pass to posterior nasopharynx, also material seems tacky/sticky to touch, design of tip seems absorbent and appropriatley flexible</t>
+  </si>
+  <si>
+    <t>J_3</t>
+  </si>
+  <si>
+    <t>Reinforced swab with mesh tip</t>
+  </si>
+  <si>
+    <t>MARch 30th, 2020</t>
+  </si>
+  <si>
+    <t>/img/OPT_industries/J_3.JPG</t>
+  </si>
+  <si>
+    <t>TS_F_6</t>
+  </si>
+  <si>
+    <t>foam swab, 6inch</t>
+  </si>
+  <si>
+    <t>/img/Teknipure/TS_F_6.JPG</t>
+  </si>
+  <si>
+    <t>Teknipure. Chris Heiland</t>
+  </si>
+  <si>
+    <t>Did not pass - tip diameter head on the larger side as well as body design would preferably have a narrow-diameter neck ~3.5cm which will be easier to manipulate and pass through to the posterior nasopharynx</t>
+  </si>
+  <si>
+    <t>TS_MW_6</t>
+  </si>
+  <si>
+    <t>/img/Teknipure/TS_MW_6.JPG</t>
+  </si>
+  <si>
+    <t>TS_FMD_6</t>
+  </si>
+  <si>
+    <t>/img/Teknipure/TS_FMD_6.JPG</t>
+  </si>
+  <si>
+    <t>TS_FMD6</t>
+  </si>
+  <si>
+    <t>TS_P_6</t>
+  </si>
+  <si>
+    <t>/img/Teknipure/TS_P_6.JPG</t>
+  </si>
+  <si>
+    <t>E_3_3</t>
+  </si>
+  <si>
+    <t>EV swab with ?altered tip head</t>
+  </si>
+  <si>
+    <t>/img/EnvisionTec/E_3_3</t>
+  </si>
+  <si>
+    <t>BE_1465.10</t>
+  </si>
+  <si>
+    <t>foam swab, LTO1465</t>
+  </si>
+  <si>
+    <t>/img/Berkshire Engineered Clean/BE_1465.10.JPG</t>
+  </si>
+  <si>
+    <t>LTO1465.10</t>
+  </si>
+  <si>
+    <t>Berkshire Engineered clean.</t>
+  </si>
+  <si>
+    <t>O_2A</t>
+  </si>
+  <si>
+    <t>Origin.IO swab design 2A</t>
+  </si>
+  <si>
+    <t>/img/Origin/O_2A.JPG</t>
+  </si>
+  <si>
+    <t>Origin. Stuart Steinbock (stuart@origin.io)</t>
+  </si>
+  <si>
+    <t>Pass - but tip head is large in diameter, and ideally would be more softer/flexible, would likely be very uncomfortable to pass into posterior nasopharynx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1132,11 +1648,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Roboto"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1203,7 +1714,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1239,10 +1750,14 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1551,7 +2066,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1562,10 +2077,10 @@
   <dimension ref="A1:AA1026"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B170" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E98" sqref="E98"/>
+      <selection pane="bottomRight" activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -1586,10 +2101,10 @@
   <sheetData>
     <row r="1" spans="1:27" ht="51.75" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1613,16 +2128,16 @@
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="N1" s="3"/>
       <c r="O1" s="4"/>
@@ -1641,36 +2156,36 @@
     </row>
     <row r="2" spans="1:27" ht="90.95" customHeight="1" thickBot="1">
       <c r="A2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -1688,37 +2203,37 @@
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
     </row>
-    <row r="3" spans="1:27" ht="26.25" thickBot="1">
+    <row r="3" spans="1:27" ht="63.75" thickBot="1">
       <c r="A3" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="7">
         <v>43912</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
@@ -1737,37 +2252,37 @@
       <c r="Z3" s="6"/>
       <c r="AA3" s="6"/>
     </row>
-    <row r="4" spans="1:27" ht="26.25" thickBot="1">
+    <row r="4" spans="1:27" ht="48" thickBot="1">
       <c r="A4" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="7">
         <v>43912</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="G4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
@@ -1786,38 +2301,38 @@
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
     </row>
-    <row r="5" spans="1:27" ht="39" thickBot="1">
+    <row r="5" spans="1:27" ht="63.75" thickBot="1">
       <c r="A5" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="7">
         <v>43912</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>33</v>
+        <v>20</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>279</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="J5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="L5" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M5" s="6"/>
       <c r="N5" s="8"/>
@@ -1837,33 +2352,33 @@
     </row>
     <row r="6" spans="1:27" ht="44.1" customHeight="1" thickBot="1">
       <c r="A6" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="7">
         <v>43912</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>37</v>
+        <v>20</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="K6" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
@@ -1884,32 +2399,32 @@
     </row>
     <row r="7" spans="1:27" ht="16.5" thickBot="1">
       <c r="A7" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="7">
         <v>43912</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="8"/>
@@ -1929,34 +2444,34 @@
     </row>
     <row r="8" spans="1:27" ht="26.25" thickBot="1">
       <c r="A8" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="7">
         <v>43912</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="J8" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="8"/>
@@ -1976,30 +2491,30 @@
     </row>
     <row r="9" spans="1:27" ht="39" thickBot="1">
       <c r="A9" s="6" t="s">
-        <v>254</v>
+        <v>211</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="7">
         <v>43912</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="8"/>
@@ -2019,34 +2534,34 @@
     </row>
     <row r="10" spans="1:27" ht="39" thickBot="1">
       <c r="A10" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="7">
         <v>43912</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="8"/>
@@ -2066,28 +2581,28 @@
     </row>
     <row r="11" spans="1:27" ht="51.75" thickBot="1">
       <c r="A11" s="6" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="8"/>
@@ -2134,34 +2649,34 @@
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
     </row>
-    <row r="13" spans="1:27" ht="39" thickBot="1">
+    <row r="13" spans="1:27" ht="39.75" thickBot="1">
       <c r="A13" s="6" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="7">
         <v>43912</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>44</v>
+        <v>20</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>281</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="8"/>
@@ -2179,34 +2694,34 @@
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
     </row>
-    <row r="14" spans="1:27" ht="39" thickBot="1">
+    <row r="14" spans="1:27" ht="39.75" thickBot="1">
       <c r="A14" s="6" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="7">
         <v>43912</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>89</v>
+        <v>20</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>282</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M14" s="6"/>
       <c r="N14" s="8"/>
@@ -2224,34 +2739,34 @@
       <c r="Z14" s="6"/>
       <c r="AA14" s="6"/>
     </row>
-    <row r="15" spans="1:27" ht="39" thickBot="1">
+    <row r="15" spans="1:27" ht="48" thickBot="1">
       <c r="A15" s="6" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="7">
         <v>43912</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>48</v>
+        <v>20</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>283</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M15" s="6"/>
       <c r="N15" s="8"/>
@@ -2269,28 +2784,28 @@
       <c r="Z15" s="6"/>
       <c r="AA15" s="6"/>
     </row>
-    <row r="16" spans="1:27" ht="77.25" thickBot="1">
+    <row r="16" spans="1:27" ht="78" thickBot="1">
       <c r="A16" s="6" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="7">
         <v>43912</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>102</v>
+        <v>20</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>284</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
@@ -2310,31 +2825,31 @@
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
     </row>
-    <row r="17" spans="1:27" ht="77.25" thickBot="1">
+    <row r="17" spans="1:27" ht="78" thickBot="1">
       <c r="A17" s="6" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="7">
         <v>43912</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>105</v>
+        <v>20</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>285</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -2353,28 +2868,28 @@
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
     </row>
-    <row r="18" spans="1:27" ht="90" thickBot="1">
+    <row r="18" spans="1:27" ht="90.75" thickBot="1">
       <c r="A18" s="6" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="7">
         <v>43912</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>107</v>
+        <v>20</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>286</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
@@ -2394,37 +2909,37 @@
       <c r="Z18" s="6"/>
       <c r="AA18" s="6"/>
     </row>
-    <row r="19" spans="1:27" ht="102.75" thickBot="1">
+    <row r="19" spans="1:27" ht="103.5" thickBot="1">
       <c r="A19" s="6" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="7">
         <v>43912</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>110</v>
+        <v>20</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>287</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>279</v>
+        <v>218</v>
       </c>
       <c r="N19" s="8"/>
       <c r="O19" s="6"/>
@@ -2441,28 +2956,28 @@
       <c r="Z19" s="6"/>
       <c r="AA19" s="6"/>
     </row>
-    <row r="20" spans="1:27" ht="39" thickBot="1">
+    <row r="20" spans="1:27" ht="48" thickBot="1">
       <c r="A20" s="6" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="7">
         <v>43913</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>114</v>
+        <v>20</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>288</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
@@ -2482,28 +2997,28 @@
       <c r="Z20" s="6"/>
       <c r="AA20" s="6"/>
     </row>
-    <row r="21" spans="1:27" ht="51.75" thickBot="1">
+    <row r="21" spans="1:27" ht="52.5" thickBot="1">
       <c r="A21" s="6" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="7">
         <v>43914</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>117</v>
+        <v>20</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>289</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
@@ -2523,28 +3038,28 @@
       <c r="Z21" s="6"/>
       <c r="AA21" s="6"/>
     </row>
-    <row r="22" spans="1:27" ht="39" thickBot="1">
+    <row r="22" spans="1:27" ht="48" thickBot="1">
       <c r="A22" s="6" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="7">
         <v>43915</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>120</v>
+        <v>20</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>290</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
@@ -2564,28 +3079,28 @@
       <c r="Z22" s="6"/>
       <c r="AA22" s="6"/>
     </row>
-    <row r="23" spans="1:27" ht="39" thickBot="1">
+    <row r="23" spans="1:27" ht="48" thickBot="1">
       <c r="A23" s="6" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="7">
         <v>43916</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>114</v>
+        <v>20</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>288</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
@@ -2605,35 +3120,35 @@
       <c r="Z23" s="6"/>
       <c r="AA23" s="6"/>
     </row>
-    <row r="24" spans="1:27" ht="51.75" thickBot="1">
+    <row r="24" spans="1:27" ht="52.5" thickBot="1">
       <c r="A24" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="7">
         <v>43912</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>50</v>
+        <v>20</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>291</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="N24" s="8"/>
       <c r="O24" s="6"/>
@@ -2650,26 +3165,26 @@
       <c r="Z24" s="6"/>
       <c r="AA24" s="6"/>
     </row>
-    <row r="25" spans="1:27" ht="26.25" thickBot="1">
+    <row r="25" spans="1:27" ht="48" thickBot="1">
       <c r="A25" s="6" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="7">
         <v>43913</v>
       </c>
       <c r="D25" s="6"/>
-      <c r="E25" s="6" t="s">
-        <v>123</v>
+      <c r="E25" s="10" t="s">
+        <v>292</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
@@ -2689,26 +3204,26 @@
       <c r="Z25" s="6"/>
       <c r="AA25" s="6"/>
     </row>
-    <row r="26" spans="1:27" ht="26.25" thickBot="1">
+    <row r="26" spans="1:27" ht="48" thickBot="1">
       <c r="A26" s="6" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="7">
         <v>43913</v>
       </c>
       <c r="D26" s="6"/>
-      <c r="E26" s="9" t="s">
-        <v>126</v>
+      <c r="E26" s="14" t="s">
+        <v>293</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="6" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
@@ -2730,7 +3245,7 @@
     </row>
     <row r="27" spans="1:27" ht="39" thickBot="1">
       <c r="A27" s="6" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="7">
@@ -2741,17 +3256,17 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>280</v>
+        <v>219</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M27" s="6"/>
       <c r="N27" s="8"/>
@@ -2769,33 +3284,33 @@
       <c r="Z27" s="6"/>
       <c r="AA27" s="6"/>
     </row>
-    <row r="28" spans="1:27" ht="51.75" thickBot="1">
+    <row r="28" spans="1:27" ht="52.5" thickBot="1">
       <c r="A28" s="6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="7">
         <v>43912</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>56</v>
+        <v>20</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>294</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="I28" s="6"/>
       <c r="J28" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
@@ -2814,33 +3329,33 @@
       <c r="Z28" s="6"/>
       <c r="AA28" s="6"/>
     </row>
-    <row r="29" spans="1:27" ht="51.75" thickBot="1">
+    <row r="29" spans="1:27" ht="52.5" thickBot="1">
       <c r="A29" s="6" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="7">
         <v>43912</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>60</v>
+        <v>20</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>295</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
@@ -2859,33 +3374,33 @@
       <c r="Z29" s="6"/>
       <c r="AA29" s="6"/>
     </row>
-    <row r="30" spans="1:27" ht="51.75" thickBot="1">
+    <row r="30" spans="1:27" ht="52.5" thickBot="1">
       <c r="A30" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="7">
         <v>43912</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>65</v>
+        <v>20</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>296</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
@@ -2904,33 +3419,33 @@
       <c r="Z30" s="6"/>
       <c r="AA30" s="6"/>
     </row>
-    <row r="31" spans="1:27" ht="51.75" thickBot="1">
+    <row r="31" spans="1:27" ht="52.5" thickBot="1">
       <c r="A31" s="6" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="7">
         <v>43912</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>69</v>
+        <v>20</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>297</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
@@ -2949,33 +3464,33 @@
       <c r="Z31" s="6"/>
       <c r="AA31" s="6"/>
     </row>
-    <row r="32" spans="1:27" ht="51.75" thickBot="1">
+    <row r="32" spans="1:27" ht="52.5" thickBot="1">
       <c r="A32" s="6" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="7">
         <v>43912</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>72</v>
+        <v>20</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>298</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
@@ -2994,33 +3509,33 @@
       <c r="Z32" s="6"/>
       <c r="AA32" s="6"/>
     </row>
-    <row r="33" spans="1:27" ht="51.75" thickBot="1">
+    <row r="33" spans="1:27" ht="52.5" thickBot="1">
       <c r="A33" s="6" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="7">
         <v>43912</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>75</v>
+        <v>20</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>299</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
@@ -3039,33 +3554,33 @@
       <c r="Z33" s="6"/>
       <c r="AA33" s="6"/>
     </row>
-    <row r="34" spans="1:27" ht="51.75" thickBot="1">
+    <row r="34" spans="1:27" ht="52.5" thickBot="1">
       <c r="A34" s="6" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="7">
         <v>43912</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>78</v>
+        <v>20</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>300</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
@@ -3084,33 +3599,33 @@
       <c r="Z34" s="6"/>
       <c r="AA34" s="6"/>
     </row>
-    <row r="35" spans="1:27" ht="51.75" thickBot="1">
+    <row r="35" spans="1:27" ht="52.5" thickBot="1">
       <c r="A35" s="6" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="7">
         <v>43912</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>81</v>
+        <v>20</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
@@ -3131,33 +3646,33 @@
     </row>
     <row r="36" spans="1:27" ht="65.25" thickBot="1">
       <c r="A36" s="6" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="7">
         <v>43912</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="I36" s="6"/>
       <c r="J36" s="6" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
@@ -3265,34 +3780,34 @@
     </row>
     <row r="40" spans="1:27" ht="128.25" thickBot="1">
       <c r="A40" s="8" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="C40" s="11">
         <v>43913</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>132</v>
+        <v>20</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>302</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="6" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
@@ -3312,27 +3827,27 @@
     </row>
     <row r="41" spans="1:27" ht="115.5" thickBot="1">
       <c r="A41" s="8" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
-      <c r="E41" s="9" t="s">
-        <v>137</v>
+      <c r="E41" s="14" t="s">
+        <v>303</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="6" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
@@ -3353,27 +3868,27 @@
     </row>
     <row r="42" spans="1:27" ht="115.5" thickBot="1">
       <c r="A42" s="8" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
-      <c r="E42" s="9" t="s">
-        <v>141</v>
+      <c r="E42" s="14" t="s">
+        <v>304</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="6" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
@@ -3394,27 +3909,27 @@
     </row>
     <row r="43" spans="1:27" ht="115.5" thickBot="1">
       <c r="A43" s="8" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
-      <c r="E43" s="9" t="s">
-        <v>145</v>
+      <c r="E43" s="14" t="s">
+        <v>305</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="6" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
@@ -3435,27 +3950,27 @@
     </row>
     <row r="44" spans="1:27" ht="141" thickBot="1">
       <c r="A44" s="8" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
-      <c r="E44" s="8" t="s">
-        <v>149</v>
+      <c r="E44" s="15" t="s">
+        <v>306</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="6" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
@@ -3476,29 +3991,29 @@
     </row>
     <row r="45" spans="1:27" ht="141" thickBot="1">
       <c r="A45" s="8" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C45" s="11">
         <v>43913</v>
       </c>
       <c r="D45" s="8"/>
-      <c r="E45" s="8" t="s">
-        <v>153</v>
+      <c r="E45" s="15" t="s">
+        <v>307</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="6" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
@@ -3606,35 +4121,35 @@
     </row>
     <row r="49" spans="1:27" ht="332.25" thickBot="1">
       <c r="A49" s="8" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>157</v>
+        <v>20</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>308</v>
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="L49" s="8"/>
       <c r="M49" s="8" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="N49" s="8"/>
       <c r="O49" s="6"/>
@@ -3651,39 +4166,39 @@
       <c r="Z49" s="6"/>
       <c r="AA49" s="6"/>
     </row>
-    <row r="50" spans="1:27" ht="281.25" thickBot="1">
+    <row r="50" spans="1:27" ht="192" thickBot="1">
       <c r="A50" s="8" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="C50" s="11">
         <v>43913</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>164</v>
+        <v>20</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>309</v>
       </c>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M50" s="8" t="s">
-        <v>165</v>
+        <v>310</v>
       </c>
       <c r="N50" s="8"/>
       <c r="O50" s="6"/>
@@ -3760,34 +4275,34 @@
     </row>
     <row r="53" spans="1:27" ht="64.5" thickBot="1">
       <c r="A53" s="8" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="C53" s="11">
         <v>43913</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>168</v>
+        <v>20</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>311</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M53" s="8"/>
       <c r="N53" s="8"/>
@@ -3805,33 +4320,33 @@
       <c r="Z53" s="6"/>
       <c r="AA53" s="6"/>
     </row>
-    <row r="54" spans="1:27" ht="51.75" thickBot="1">
+    <row r="54" spans="1:27" ht="64.5" thickBot="1">
       <c r="A54" s="8" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="C54" s="11">
         <v>43913</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>173</v>
+        <v>20</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>312</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
-      <c r="H54" s="12" t="s">
-        <v>169</v>
+      <c r="H54" s="8" t="s">
+        <v>214</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="K54" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L54" s="8"/>
       <c r="M54" s="8"/>
@@ -3910,32 +4425,34 @@
     </row>
     <row r="57" spans="1:27" ht="64.5" thickBot="1">
       <c r="A57" s="8" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="C57" s="11">
         <v>43913</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>258</v>
+        <v>20</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>313</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="G57" s="8"/>
       <c r="H57" s="8" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="K57" s="8"/>
+        <v>141</v>
+      </c>
+      <c r="K57" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="L57" s="8"/>
       <c r="M57" s="8"/>
       <c r="N57" s="8"/>
@@ -3955,32 +4472,34 @@
     </row>
     <row r="58" spans="1:27" ht="64.5" thickBot="1">
       <c r="A58" s="8" t="s">
-        <v>180</v>
+        <v>142</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>181</v>
+        <v>143</v>
       </c>
       <c r="C58" s="11">
         <v>43913</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>259</v>
+        <v>20</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>314</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="G58" s="8"/>
       <c r="H58" s="8" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="K58" s="8"/>
+        <v>315</v>
+      </c>
+      <c r="K58" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="L58" s="8"/>
       <c r="M58" s="8"/>
       <c r="N58" s="8"/>
@@ -4000,36 +4519,36 @@
     </row>
     <row r="59" spans="1:27" ht="64.5" thickBot="1">
       <c r="A59" s="8" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="C59" s="11">
         <v>43913</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>260</v>
+        <v>20</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>316</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="G59" s="8"/>
       <c r="H59" s="8" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8" t="s">
-        <v>182</v>
+        <v>317</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M59" s="8"/>
       <c r="N59" s="8"/>
@@ -4049,33 +4568,33 @@
     </row>
     <row r="60" spans="1:27" ht="64.5" thickBot="1">
       <c r="A60" s="8" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="C60" s="11">
         <v>43913</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>261</v>
+        <v>20</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>318</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="G60" s="8"/>
       <c r="H60" s="8" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8" t="s">
-        <v>179</v>
+        <v>319</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L60" s="8"/>
       <c r="M60" s="8"/>
@@ -4096,32 +4615,34 @@
     </row>
     <row r="61" spans="1:27" ht="64.5" thickBot="1">
       <c r="A61" s="8" t="s">
-        <v>187</v>
+        <v>149</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="C61" s="11">
         <v>43913</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>262</v>
+        <v>20</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>320</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="G61" s="8"/>
       <c r="H61" s="8" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="K61" s="8"/>
+        <v>321</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="L61" s="8"/>
       <c r="M61" s="8"/>
       <c r="N61" s="8"/>
@@ -4141,33 +4662,33 @@
     </row>
     <row r="62" spans="1:27" ht="64.5" thickBot="1">
       <c r="A62" s="8" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="C62" s="11">
         <v>43913</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>263</v>
+        <v>20</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>322</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="G62" s="8"/>
       <c r="H62" s="8" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L62" s="8"/>
       <c r="M62" s="8"/>
@@ -4188,33 +4709,33 @@
     </row>
     <row r="63" spans="1:27" ht="64.5" thickBot="1">
       <c r="A63" s="8" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="C63" s="11">
         <v>43913</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>264</v>
+        <v>20</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>323</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="G63" s="8"/>
       <c r="H63" s="8" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L63" s="8"/>
       <c r="M63" s="8"/>
@@ -4235,30 +4756,30 @@
     </row>
     <row r="64" spans="1:27" ht="64.5" thickBot="1">
       <c r="A64" s="8" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="C64" s="11">
         <v>43913</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>265</v>
+        <v>20</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>324</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="G64" s="8"/>
       <c r="H64" s="8" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8" t="s">
-        <v>195</v>
+        <v>157</v>
       </c>
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
@@ -4336,38 +4857,38 @@
       <c r="Z66" s="6"/>
       <c r="AA66" s="6"/>
     </row>
-    <row r="67" spans="1:27" ht="26.25" thickBot="1">
+    <row r="67" spans="1:27" ht="48" thickBot="1">
       <c r="A67" s="8" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>197</v>
+        <v>159</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>266</v>
+        <v>20</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>325</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="G67" s="8"/>
-      <c r="H67" s="13" t="s">
-        <v>200</v>
+      <c r="H67" s="12" t="s">
+        <v>162</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8" t="s">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="M67" s="8"/>
       <c r="N67" s="8"/>
@@ -4416,34 +4937,34 @@
     </row>
     <row r="69" spans="1:27" ht="64.5" thickBot="1">
       <c r="A69" s="8" t="s">
-        <v>202</v>
+        <v>164</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>203</v>
+        <v>165</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>267</v>
+        <v>20</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>326</v>
       </c>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c r="H69" s="6" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8" t="s">
-        <v>204</v>
+        <v>166</v>
       </c>
       <c r="K69" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>281</v>
+        <v>31</v>
       </c>
       <c r="M69" s="8"/>
       <c r="N69" s="8"/>
@@ -4461,33 +4982,33 @@
       <c r="Z69" s="6"/>
       <c r="AA69" s="6"/>
     </row>
-    <row r="70" spans="1:27" ht="64.5" thickBot="1">
+    <row r="70" spans="1:27" ht="65.25" thickBot="1">
       <c r="A70" s="8" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>268</v>
+        <v>327</v>
       </c>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="6" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L70" s="8"/>
       <c r="M70" s="8"/>
@@ -4566,34 +5087,34 @@
     </row>
     <row r="73" spans="1:27" ht="51.75" thickBot="1">
       <c r="A73" s="8" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>269</v>
+        <v>20</v>
+      </c>
+      <c r="E73" s="15" t="s">
+        <v>328</v>
       </c>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c r="H73" s="8" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>281</v>
+        <v>31</v>
       </c>
       <c r="M73" s="8"/>
       <c r="N73" s="8"/>
@@ -4671,34 +5192,34 @@
     </row>
     <row r="76" spans="1:27" ht="51.75" thickBot="1">
       <c r="A76" s="8" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>270</v>
+        <v>20</v>
+      </c>
+      <c r="E76" s="15" t="s">
+        <v>329</v>
       </c>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c r="H76" s="8" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L76" s="8" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="M76" s="8"/>
       <c r="N76" s="8"/>
@@ -4718,31 +5239,31 @@
     </row>
     <row r="77" spans="1:27" ht="64.5" thickBot="1">
       <c r="A77" s="8" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>271</v>
+        <v>20</v>
+      </c>
+      <c r="E77" s="15" t="s">
+        <v>330</v>
       </c>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c r="H77" s="8" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8" t="s">
-        <v>272</v>
+        <v>215</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L77" s="8"/>
       <c r="M77" s="8"/>
@@ -4763,31 +5284,31 @@
     </row>
     <row r="78" spans="1:27" ht="39" thickBot="1">
       <c r="A78" s="8" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>273</v>
+        <v>20</v>
+      </c>
+      <c r="E78" s="15" t="s">
+        <v>331</v>
       </c>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c r="H78" s="8" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8" t="s">
-        <v>274</v>
+        <v>216</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L78" s="8"/>
       <c r="M78" s="8"/>
@@ -4806,33 +5327,33 @@
       <c r="Z78" s="6"/>
       <c r="AA78" s="6"/>
     </row>
-    <row r="79" spans="1:27" ht="51.75" thickBot="1">
+    <row r="79" spans="1:27" ht="64.5" thickBot="1">
       <c r="A79" s="8" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>275</v>
+        <v>20</v>
+      </c>
+      <c r="E79" s="15" t="s">
+        <v>332</v>
       </c>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c r="H79" s="8" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8" t="s">
-        <v>274</v>
+        <v>333</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L79" s="8"/>
       <c r="M79" s="8"/>
@@ -4853,31 +5374,31 @@
     </row>
     <row r="80" spans="1:27" ht="39" thickBot="1">
       <c r="A80" s="8" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>276</v>
+        <v>20</v>
+      </c>
+      <c r="E80" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c r="H80" s="8" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8" t="s">
-        <v>274</v>
+        <v>216</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L80" s="8"/>
       <c r="M80" s="8"/>
@@ -4896,31 +5417,31 @@
       <c r="Z80" s="6"/>
       <c r="AA80" s="6"/>
     </row>
-    <row r="81" spans="1:27" ht="26.25" thickBot="1">
+    <row r="81" spans="1:27" ht="32.25" thickBot="1">
       <c r="A81" s="8" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>277</v>
+        <v>20</v>
+      </c>
+      <c r="E81" s="15" t="s">
+        <v>335</v>
       </c>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c r="H81" s="8" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L81" s="8"/>
       <c r="M81" s="8"/>
@@ -4999,31 +5520,31 @@
     </row>
     <row r="84" spans="1:27" ht="51.75" thickBot="1">
       <c r="A84" s="8" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>230</v>
+        <v>20</v>
+      </c>
+      <c r="E84" s="15" t="s">
+        <v>336</v>
       </c>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c r="H84" s="8" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="K84" s="8" t="s">
-        <v>278</v>
+        <v>217</v>
       </c>
       <c r="L84" s="8"/>
       <c r="M84" s="8"/>
@@ -5044,31 +5565,31 @@
     </row>
     <row r="85" spans="1:27" ht="51.75" thickBot="1">
       <c r="A85" s="8" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>251</v>
+        <v>20</v>
+      </c>
+      <c r="E85" s="15" t="s">
+        <v>337</v>
       </c>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c r="H85" s="8" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="K85" s="8" t="s">
-        <v>278</v>
+        <v>217</v>
       </c>
       <c r="L85" s="8"/>
       <c r="M85" s="8"/>
@@ -5089,31 +5610,31 @@
     </row>
     <row r="86" spans="1:27" ht="51.75" thickBot="1">
       <c r="A86" s="8" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>252</v>
+        <v>20</v>
+      </c>
+      <c r="E86" s="15" t="s">
+        <v>338</v>
       </c>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c r="H86" s="8" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="K86" s="8" t="s">
-        <v>278</v>
+        <v>217</v>
       </c>
       <c r="L86" s="8"/>
       <c r="M86" s="8"/>
@@ -5134,31 +5655,31 @@
     </row>
     <row r="87" spans="1:27" ht="51.75" thickBot="1">
       <c r="A87" s="8" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>253</v>
+        <v>20</v>
+      </c>
+      <c r="E87" s="15" t="s">
+        <v>339</v>
       </c>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c r="H87" s="8" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="K87" s="8" t="s">
-        <v>278</v>
+        <v>217</v>
       </c>
       <c r="L87" s="8"/>
       <c r="M87" s="8"/>
@@ -5235,32 +5756,32 @@
       <c r="Z89" s="6"/>
       <c r="AA89" s="6"/>
     </row>
-    <row r="90" spans="1:27" ht="39" thickBot="1">
+    <row r="90" spans="1:27" ht="51.75" thickBot="1">
       <c r="A90" s="8" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>283</v>
+        <v>220</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E90" s="8"/>
       <c r="F90" s="8" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="G90" s="8"/>
       <c r="H90" s="8" t="s">
-        <v>242</v>
+        <v>340</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="8" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="M90" s="8"/>
       <c r="N90" s="8"/>
@@ -5278,28 +5799,28 @@
       <c r="Z90" s="6"/>
       <c r="AA90" s="6"/>
     </row>
-    <row r="91" spans="1:27" ht="39" thickBot="1">
+    <row r="91" spans="1:27" ht="51.75" thickBot="1">
       <c r="A91" s="8" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>283</v>
+        <v>220</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E91" s="8"/>
       <c r="F91" s="8" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>242</v>
+        <v>340</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
@@ -5321,28 +5842,28 @@
       <c r="Z91" s="6"/>
       <c r="AA91" s="6"/>
     </row>
-    <row r="92" spans="1:27" ht="39" thickBot="1">
+    <row r="92" spans="1:27" ht="51.75" thickBot="1">
       <c r="A92" s="8" t="s">
-        <v>246</v>
+        <v>206</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>283</v>
+        <v>220</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E92" s="8"/>
       <c r="F92" s="8" t="s">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>242</v>
+        <v>340</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
@@ -5364,28 +5885,28 @@
       <c r="Z92" s="6"/>
       <c r="AA92" s="6"/>
     </row>
-    <row r="93" spans="1:27" ht="39" thickBot="1">
+    <row r="93" spans="1:27" ht="51.75" thickBot="1">
       <c r="A93" s="8" t="s">
-        <v>249</v>
+        <v>209</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>283</v>
+        <v>220</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E93" s="8"/>
       <c r="F93" s="8" t="s">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>242</v>
+        <v>340</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
@@ -5467,30 +5988,30 @@
     </row>
     <row r="96" spans="1:27" ht="51.75" thickBot="1">
       <c r="A96" s="8" t="s">
-        <v>284</v>
+        <v>221</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>285</v>
+        <v>222</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>286</v>
+        <v>223</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E96" s="8"/>
       <c r="F96" s="8" t="s">
-        <v>287</v>
+        <v>224</v>
       </c>
       <c r="G96" s="8"/>
       <c r="H96" s="8" t="s">
-        <v>288</v>
+        <v>225</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="8" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="M96" s="8"/>
       <c r="N96" s="8"/>
@@ -5510,30 +6031,30 @@
     </row>
     <row r="97" spans="1:27" ht="51.75" thickBot="1">
       <c r="A97" s="8" t="s">
-        <v>289</v>
+        <v>226</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>290</v>
+        <v>227</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>291</v>
+        <v>228</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E97" s="8"/>
       <c r="F97" s="8" t="s">
-        <v>292</v>
+        <v>229</v>
       </c>
       <c r="G97" s="8"/>
       <c r="H97" s="8" t="s">
-        <v>293</v>
+        <v>230</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="8" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="M97" s="8"/>
       <c r="N97" s="8"/>
@@ -5553,30 +6074,30 @@
     </row>
     <row r="98" spans="1:27" ht="51.75" thickBot="1">
       <c r="A98" s="8" t="s">
-        <v>294</v>
+        <v>231</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>290</v>
+        <v>227</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>286</v>
+        <v>223</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E98" s="8"/>
       <c r="F98" s="8" t="s">
-        <v>295</v>
+        <v>232</v>
       </c>
       <c r="G98" s="8"/>
       <c r="H98" s="8" t="s">
-        <v>296</v>
+        <v>233</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="8" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="M98" s="8"/>
       <c r="N98" s="8"/>
@@ -5596,24 +6117,24 @@
     </row>
     <row r="99" spans="1:27" ht="51.75" thickBot="1">
       <c r="A99" s="8" t="s">
-        <v>297</v>
+        <v>234</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>298</v>
+        <v>235</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>286</v>
+        <v>223</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E99" s="8"/>
       <c r="F99" s="8" t="s">
-        <v>299</v>
+        <v>236</v>
       </c>
       <c r="G99" s="8"/>
       <c r="H99" s="8" t="s">
-        <v>300</v>
+        <v>237</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
@@ -5637,24 +6158,24 @@
     </row>
     <row r="100" spans="1:27" ht="51.75" thickBot="1">
       <c r="A100" s="8" t="s">
-        <v>301</v>
+        <v>238</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>298</v>
+        <v>235</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>286</v>
+        <v>223</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E100" s="8"/>
       <c r="F100" s="8" t="s">
-        <v>302</v>
+        <v>239</v>
       </c>
       <c r="G100" s="8"/>
       <c r="H100" s="8" t="s">
-        <v>300</v>
+        <v>237</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
@@ -5676,32 +6197,36 @@
       <c r="Z100" s="6"/>
       <c r="AA100" s="6"/>
     </row>
-    <row r="101" spans="1:27" ht="77.25" thickBot="1">
+    <row r="101" spans="1:27" ht="115.5" thickBot="1">
       <c r="A101" s="8" t="s">
-        <v>303</v>
+        <v>240</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>304</v>
+        <v>241</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>286</v>
+        <v>223</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>339</v>
+        <v>20</v>
+      </c>
+      <c r="E101" s="15" t="s">
+        <v>341</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>305</v>
+        <v>242</v>
       </c>
       <c r="G101" s="8"/>
       <c r="H101" s="8" t="s">
-        <v>306</v>
+        <v>243</v>
       </c>
       <c r="I101" s="8"/>
-      <c r="J101" s="8"/>
-      <c r="K101" s="8"/>
+      <c r="J101" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="K101" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="L101" s="8"/>
       <c r="M101" s="8"/>
       <c r="N101" s="8"/>
@@ -5719,32 +6244,36 @@
       <c r="Z101" s="6"/>
       <c r="AA101" s="6"/>
     </row>
-    <row r="102" spans="1:27" ht="77.25" thickBot="1">
+    <row r="102" spans="1:27" ht="115.5" thickBot="1">
       <c r="A102" s="8" t="s">
-        <v>307</v>
+        <v>244</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>308</v>
+        <v>245</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>286</v>
+        <v>223</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E102" s="8" t="s">
-        <v>340</v>
+        <v>20</v>
+      </c>
+      <c r="E102" s="15" t="s">
+        <v>343</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>309</v>
+        <v>246</v>
       </c>
       <c r="G102" s="8"/>
       <c r="H102" s="8" t="s">
-        <v>306</v>
+        <v>243</v>
       </c>
       <c r="I102" s="8"/>
-      <c r="J102" s="8"/>
-      <c r="K102" s="8"/>
+      <c r="J102" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="K102" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="L102" s="8"/>
       <c r="M102" s="8"/>
       <c r="N102" s="8"/>
@@ -5762,32 +6291,36 @@
       <c r="Z102" s="6"/>
       <c r="AA102" s="6"/>
     </row>
-    <row r="103" spans="1:27" ht="51.75" thickBot="1">
+    <row r="103" spans="1:27" ht="77.25" thickBot="1">
       <c r="A103" s="8" t="s">
-        <v>310</v>
+        <v>247</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>311</v>
+        <v>248</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>286</v>
+        <v>223</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E103" s="8" t="s">
-        <v>341</v>
+        <v>20</v>
+      </c>
+      <c r="E103" s="15" t="s">
+        <v>345</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>312</v>
+        <v>249</v>
       </c>
       <c r="G103" s="8"/>
       <c r="H103" s="8" t="s">
-        <v>306</v>
+        <v>243</v>
       </c>
       <c r="I103" s="8"/>
-      <c r="J103" s="8"/>
-      <c r="K103" s="8"/>
+      <c r="J103" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="K103" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="L103" s="8"/>
       <c r="M103" s="8"/>
       <c r="N103" s="8"/>
@@ -5807,30 +6340,34 @@
     </row>
     <row r="104" spans="1:27" ht="51.75" thickBot="1">
       <c r="A104" s="8" t="s">
-        <v>313</v>
+        <v>250</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>314</v>
+        <v>251</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>286</v>
+        <v>223</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>342</v>
+        <v>20</v>
+      </c>
+      <c r="E104" s="15" t="s">
+        <v>347</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>315</v>
+        <v>252</v>
       </c>
       <c r="G104" s="8"/>
       <c r="H104" s="8" t="s">
-        <v>306</v>
+        <v>243</v>
       </c>
       <c r="I104" s="8"/>
-      <c r="J104" s="8"/>
-      <c r="K104" s="8"/>
+      <c r="J104" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="K104" s="8" t="s">
+        <v>349</v>
+      </c>
       <c r="L104" s="8"/>
       <c r="M104" s="8"/>
       <c r="N104" s="8"/>
@@ -5848,32 +6385,36 @@
       <c r="Z104" s="6"/>
       <c r="AA104" s="6"/>
     </row>
-    <row r="105" spans="1:27" ht="64.5" thickBot="1">
+    <row r="105" spans="1:27" ht="77.25" thickBot="1">
       <c r="A105" s="8" t="s">
-        <v>316</v>
+        <v>253</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>317</v>
+        <v>254</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>286</v>
+        <v>223</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E105" s="8" t="s">
-        <v>343</v>
+        <v>20</v>
+      </c>
+      <c r="E105" s="15" t="s">
+        <v>350</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>318</v>
+        <v>255</v>
       </c>
       <c r="G105" s="8"/>
       <c r="H105" s="8" t="s">
-        <v>306</v>
+        <v>243</v>
       </c>
       <c r="I105" s="8"/>
-      <c r="J105" s="8"/>
-      <c r="K105" s="8"/>
+      <c r="J105" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="K105" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="L105" s="8"/>
       <c r="M105" s="8"/>
       <c r="N105" s="8"/>
@@ -5891,32 +6432,36 @@
       <c r="Z105" s="6"/>
       <c r="AA105" s="6"/>
     </row>
-    <row r="106" spans="1:27" ht="64.5" thickBot="1">
+    <row r="106" spans="1:27" ht="90" thickBot="1">
       <c r="A106" s="8" t="s">
-        <v>319</v>
+        <v>256</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>320</v>
+        <v>257</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>286</v>
+        <v>223</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>344</v>
+        <v>20</v>
+      </c>
+      <c r="E106" s="15" t="s">
+        <v>352</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>321</v>
+        <v>258</v>
       </c>
       <c r="G106" s="8"/>
       <c r="H106" s="8" t="s">
-        <v>306</v>
+        <v>243</v>
       </c>
       <c r="I106" s="8"/>
-      <c r="J106" s="8"/>
-      <c r="K106" s="8"/>
+      <c r="J106" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="K106" s="8" t="s">
+        <v>349</v>
+      </c>
       <c r="L106" s="8"/>
       <c r="M106" s="8"/>
       <c r="N106" s="8"/>
@@ -5934,32 +6479,36 @@
       <c r="Z106" s="6"/>
       <c r="AA106" s="6"/>
     </row>
-    <row r="107" spans="1:27" ht="51.75" thickBot="1">
+    <row r="107" spans="1:27" ht="90" thickBot="1">
       <c r="A107" s="8" t="s">
-        <v>322</v>
+        <v>259</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>323</v>
+        <v>260</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>286</v>
+        <v>223</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>345</v>
+        <v>20</v>
+      </c>
+      <c r="E107" s="15" t="s">
+        <v>354</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>324</v>
+        <v>261</v>
       </c>
       <c r="G107" s="8"/>
       <c r="H107" s="8" t="s">
-        <v>306</v>
+        <v>243</v>
       </c>
       <c r="I107" s="8"/>
-      <c r="J107" s="8"/>
-      <c r="K107" s="8"/>
+      <c r="J107" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="K107" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="L107" s="8"/>
       <c r="M107" s="8"/>
       <c r="N107" s="8"/>
@@ -5977,32 +6526,36 @@
       <c r="Z107" s="6"/>
       <c r="AA107" s="6"/>
     </row>
-    <row r="108" spans="1:27" ht="51.75" thickBot="1">
+    <row r="108" spans="1:27" ht="77.25" thickBot="1">
       <c r="A108" s="8" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>323</v>
+        <v>260</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>286</v>
+        <v>223</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>346</v>
+        <v>20</v>
+      </c>
+      <c r="E108" s="15" t="s">
+        <v>356</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>326</v>
+        <v>263</v>
       </c>
       <c r="G108" s="8"/>
       <c r="H108" s="8" t="s">
-        <v>306</v>
+        <v>243</v>
       </c>
       <c r="I108" s="8"/>
-      <c r="J108" s="8"/>
-      <c r="K108" s="8"/>
+      <c r="J108" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="K108" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="L108" s="8"/>
       <c r="M108" s="8"/>
       <c r="N108" s="8"/>
@@ -6020,32 +6573,36 @@
       <c r="Z108" s="6"/>
       <c r="AA108" s="6"/>
     </row>
-    <row r="109" spans="1:27" ht="51.75" thickBot="1">
+    <row r="109" spans="1:27" ht="77.25" thickBot="1">
       <c r="A109" s="8" t="s">
-        <v>327</v>
+        <v>264</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>328</v>
+        <v>265</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>286</v>
+        <v>223</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E109" s="8" t="s">
-        <v>347</v>
+        <v>20</v>
+      </c>
+      <c r="E109" s="15" t="s">
+        <v>358</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>329</v>
+        <v>266</v>
       </c>
       <c r="G109" s="8"/>
       <c r="H109" s="8" t="s">
-        <v>306</v>
+        <v>243</v>
       </c>
       <c r="I109" s="8"/>
-      <c r="J109" s="8"/>
-      <c r="K109" s="8"/>
+      <c r="J109" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="K109" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="L109" s="8"/>
       <c r="M109" s="8"/>
       <c r="N109" s="8"/>
@@ -6063,32 +6620,36 @@
       <c r="Z109" s="6"/>
       <c r="AA109" s="6"/>
     </row>
-    <row r="110" spans="1:27" ht="51.75" thickBot="1">
+    <row r="110" spans="1:27" ht="90" thickBot="1">
       <c r="A110" s="8" t="s">
-        <v>330</v>
+        <v>267</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>323</v>
+        <v>260</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>331</v>
+        <v>268</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>348</v>
+        <v>20</v>
+      </c>
+      <c r="E110" s="15" t="s">
+        <v>360</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>332</v>
+        <v>269</v>
       </c>
       <c r="G110" s="8"/>
       <c r="H110" s="8" t="s">
-        <v>306</v>
+        <v>243</v>
       </c>
       <c r="I110" s="8"/>
-      <c r="J110" s="8"/>
-      <c r="K110" s="8"/>
+      <c r="J110" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="K110" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="L110" s="8"/>
       <c r="M110" s="8"/>
       <c r="N110" s="8"/>
@@ -6108,30 +6669,34 @@
     </row>
     <row r="111" spans="1:27" ht="51.75" thickBot="1">
       <c r="A111" s="8" t="s">
-        <v>333</v>
+        <v>270</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>334</v>
+        <v>271</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>286</v>
+        <v>223</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E111" s="8" t="s">
-        <v>349</v>
+        <v>20</v>
+      </c>
+      <c r="E111" s="15" t="s">
+        <v>362</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>335</v>
+        <v>272</v>
       </c>
       <c r="G111" s="8"/>
       <c r="H111" s="8" t="s">
-        <v>306</v>
+        <v>243</v>
       </c>
       <c r="I111" s="8"/>
-      <c r="J111" s="8"/>
-      <c r="K111" s="8"/>
+      <c r="J111" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="K111" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="L111" s="8"/>
       <c r="M111" s="8"/>
       <c r="N111" s="8"/>
@@ -6149,34 +6714,38 @@
       <c r="Z111" s="6"/>
       <c r="AA111" s="6"/>
     </row>
-    <row r="112" spans="1:27" ht="51.75" thickBot="1">
+    <row r="112" spans="1:27" ht="64.5" thickBot="1">
       <c r="A112" s="8" t="s">
-        <v>336</v>
+        <v>273</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>337</v>
+        <v>274</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>286</v>
+        <v>223</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E112" s="8" t="s">
-        <v>350</v>
+        <v>20</v>
+      </c>
+      <c r="E112" s="15" t="s">
+        <v>364</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>338</v>
+        <v>275</v>
       </c>
       <c r="G112" s="8"/>
       <c r="H112" s="8" t="s">
-        <v>306</v>
+        <v>243</v>
       </c>
       <c r="I112" s="8"/>
-      <c r="J112" s="8"/>
-      <c r="K112" s="8"/>
+      <c r="J112" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="K112" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="L112" s="8" t="s">
-        <v>281</v>
+        <v>31</v>
       </c>
       <c r="M112" s="8"/>
       <c r="N112" s="8"/>
@@ -6252,15 +6821,23 @@
       <c r="Z114" s="6"/>
       <c r="AA114" s="6"/>
     </row>
-    <row r="115" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A115" s="8"/>
-      <c r="B115" s="8"/>
+    <row r="115" spans="1:27" ht="39" thickBot="1">
+      <c r="A115" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>367</v>
+      </c>
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
-      <c r="F115" s="8"/>
+      <c r="F115" s="8" t="s">
+        <v>368</v>
+      </c>
       <c r="G115" s="8"/>
-      <c r="H115" s="8"/>
+      <c r="H115" s="16" t="s">
+        <v>340</v>
+      </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
@@ -6339,19 +6916,41 @@
       <c r="Z117" s="6"/>
       <c r="AA117" s="6"/>
     </row>
-    <row r="118" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A118" s="8"/>
-      <c r="B118" s="8"/>
-      <c r="C118" s="8"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="8"/>
-      <c r="F118" s="8"/>
-      <c r="G118" s="8"/>
-      <c r="H118" s="8"/>
+    <row r="118" spans="1:27" ht="90" thickBot="1">
+      <c r="A118" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E118" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="G118" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="H118" s="8" t="s">
+        <v>375</v>
+      </c>
       <c r="I118" s="8"/>
-      <c r="J118" s="8"/>
-      <c r="K118" s="8"/>
-      <c r="L118" s="8"/>
+      <c r="J118" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="K118" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L118" s="8" t="s">
+        <v>377</v>
+      </c>
       <c r="M118" s="8"/>
       <c r="N118" s="8"/>
       <c r="O118" s="6"/>
@@ -6368,19 +6967,41 @@
       <c r="Z118" s="6"/>
       <c r="AA118" s="6"/>
     </row>
-    <row r="119" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A119" s="8"/>
-      <c r="B119" s="8"/>
-      <c r="C119" s="8"/>
-      <c r="D119" s="8"/>
-      <c r="E119" s="8"/>
-      <c r="F119" s="8"/>
-      <c r="G119" s="8"/>
-      <c r="H119" s="8"/>
+    <row r="119" spans="1:27" ht="90" thickBot="1">
+      <c r="A119" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E119" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="G119" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="H119" s="8" t="s">
+        <v>375</v>
+      </c>
       <c r="I119" s="8"/>
-      <c r="J119" s="8"/>
-      <c r="K119" s="8"/>
-      <c r="L119" s="8"/>
+      <c r="J119" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="K119" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L119" s="8" t="s">
+        <v>377</v>
+      </c>
       <c r="M119" s="8"/>
       <c r="N119" s="8"/>
       <c r="O119" s="6"/>
@@ -6397,19 +7018,41 @@
       <c r="Z119" s="6"/>
       <c r="AA119" s="6"/>
     </row>
-    <row r="120" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A120" s="8"/>
-      <c r="B120" s="8"/>
-      <c r="C120" s="8"/>
-      <c r="D120" s="8"/>
-      <c r="E120" s="8"/>
-      <c r="F120" s="8"/>
-      <c r="G120" s="8"/>
-      <c r="H120" s="8"/>
+    <row r="120" spans="1:27" ht="77.25" thickBot="1">
+      <c r="A120" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E120" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="G120" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="H120" s="8" t="s">
+        <v>375</v>
+      </c>
       <c r="I120" s="8"/>
-      <c r="J120" s="8"/>
-      <c r="K120" s="8"/>
-      <c r="L120" s="8"/>
+      <c r="J120" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="K120" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="L120" s="8" t="s">
+        <v>377</v>
+      </c>
       <c r="M120" s="8"/>
       <c r="N120" s="8"/>
       <c r="O120" s="6"/>
@@ -6426,20 +7069,44 @@
       <c r="Z120" s="6"/>
       <c r="AA120" s="6"/>
     </row>
-    <row r="121" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A121" s="8"/>
-      <c r="B121" s="8"/>
-      <c r="C121" s="8"/>
-      <c r="D121" s="8"/>
-      <c r="E121" s="8"/>
-      <c r="F121" s="8"/>
-      <c r="G121" s="8"/>
-      <c r="H121" s="8"/>
+    <row r="121" spans="1:27" ht="128.25" thickBot="1">
+      <c r="A121" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E121" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="G121" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="H121" s="8" t="s">
+        <v>375</v>
+      </c>
       <c r="I121" s="8"/>
-      <c r="J121" s="8"/>
-      <c r="K121" s="8"/>
-      <c r="L121" s="8"/>
-      <c r="M121" s="8"/>
+      <c r="J121" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="K121" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L121" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="M121" s="8" t="s">
+        <v>391</v>
+      </c>
       <c r="N121" s="8"/>
       <c r="O121" s="6"/>
       <c r="P121" s="6"/>
@@ -6455,19 +7122,41 @@
       <c r="Z121" s="6"/>
       <c r="AA121" s="6"/>
     </row>
-    <row r="122" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A122" s="8"/>
-      <c r="B122" s="8"/>
-      <c r="C122" s="8"/>
-      <c r="D122" s="8"/>
-      <c r="E122" s="8"/>
-      <c r="F122" s="8"/>
-      <c r="G122" s="8"/>
-      <c r="H122" s="8"/>
+    <row r="122" spans="1:27" ht="64.5" thickBot="1">
+      <c r="A122" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E122" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="G122" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="H122" s="8" t="s">
+        <v>375</v>
+      </c>
       <c r="I122" s="8"/>
-      <c r="J122" s="8"/>
-      <c r="K122" s="8"/>
-      <c r="L122" s="8"/>
+      <c r="J122" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="K122" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L122" s="8" t="s">
+        <v>377</v>
+      </c>
       <c r="M122" s="8"/>
       <c r="N122" s="8"/>
       <c r="O122" s="6"/>
@@ -6542,18 +7231,38 @@
       <c r="Z124" s="6"/>
       <c r="AA124" s="6"/>
     </row>
-    <row r="125" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A125" s="8"/>
-      <c r="B125" s="8"/>
-      <c r="C125" s="8"/>
-      <c r="D125" s="8"/>
-      <c r="E125" s="8"/>
-      <c r="F125" s="8"/>
-      <c r="G125" s="8"/>
-      <c r="H125" s="8"/>
+    <row r="125" spans="1:27" ht="64.5" thickBot="1">
+      <c r="A125" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E125" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G125" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="H125" s="8" t="s">
+        <v>401</v>
+      </c>
       <c r="I125" s="8"/>
-      <c r="J125" s="8"/>
-      <c r="K125" s="8"/>
+      <c r="J125" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="K125" s="8" t="s">
+        <v>403</v>
+      </c>
       <c r="L125" s="8"/>
       <c r="M125" s="8"/>
       <c r="N125" s="8"/>
@@ -6571,18 +7280,38 @@
       <c r="Z125" s="6"/>
       <c r="AA125" s="6"/>
     </row>
-    <row r="126" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A126" s="8"/>
-      <c r="B126" s="8"/>
-      <c r="C126" s="8"/>
-      <c r="D126" s="8"/>
-      <c r="E126" s="8"/>
-      <c r="F126" s="8"/>
-      <c r="G126" s="8"/>
-      <c r="H126" s="8"/>
+    <row r="126" spans="1:27" ht="64.5" thickBot="1">
+      <c r="A126" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E126" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G126" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="H126" s="8" t="s">
+        <v>401</v>
+      </c>
       <c r="I126" s="8"/>
-      <c r="J126" s="8"/>
-      <c r="K126" s="8"/>
+      <c r="J126" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="K126" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="L126" s="8"/>
       <c r="M126" s="8"/>
       <c r="N126" s="8"/>
@@ -6600,18 +7329,38 @@
       <c r="Z126" s="6"/>
       <c r="AA126" s="6"/>
     </row>
-    <row r="127" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A127" s="8"/>
-      <c r="B127" s="8"/>
-      <c r="C127" s="8"/>
-      <c r="D127" s="8"/>
-      <c r="E127" s="8"/>
-      <c r="F127" s="8"/>
-      <c r="G127" s="8"/>
-      <c r="H127" s="8"/>
+    <row r="127" spans="1:27" ht="64.5" thickBot="1">
+      <c r="A127" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E127" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="F127" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G127" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="H127" s="8" t="s">
+        <v>401</v>
+      </c>
       <c r="I127" s="8"/>
-      <c r="J127" s="8"/>
-      <c r="K127" s="8"/>
+      <c r="J127" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="K127" s="8" t="s">
+        <v>410</v>
+      </c>
       <c r="L127" s="8"/>
       <c r="M127" s="8"/>
       <c r="N127" s="8"/>
@@ -6629,18 +7378,38 @@
       <c r="Z127" s="6"/>
       <c r="AA127" s="6"/>
     </row>
-    <row r="128" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A128" s="8"/>
-      <c r="B128" s="8"/>
-      <c r="C128" s="8"/>
-      <c r="D128" s="8"/>
-      <c r="E128" s="8"/>
-      <c r="F128" s="8"/>
-      <c r="G128" s="8"/>
-      <c r="H128" s="8"/>
+    <row r="128" spans="1:27" ht="64.5" thickBot="1">
+      <c r="A128" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E128" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="F128" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G128" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="H128" s="8" t="s">
+        <v>401</v>
+      </c>
       <c r="I128" s="8"/>
-      <c r="J128" s="8"/>
-      <c r="K128" s="8"/>
+      <c r="J128" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="K128" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="L128" s="8"/>
       <c r="M128" s="8"/>
       <c r="N128" s="8"/>
@@ -6658,18 +7427,38 @@
       <c r="Z128" s="6"/>
       <c r="AA128" s="6"/>
     </row>
-    <row r="129" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A129" s="8"/>
-      <c r="B129" s="8"/>
-      <c r="C129" s="8"/>
-      <c r="D129" s="8"/>
-      <c r="E129" s="8"/>
-      <c r="F129" s="8"/>
-      <c r="G129" s="8"/>
-      <c r="H129" s="8"/>
+    <row r="129" spans="1:27" ht="90" thickBot="1">
+      <c r="A129" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E129" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G129" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="H129" s="8" t="s">
+        <v>401</v>
+      </c>
       <c r="I129" s="8"/>
-      <c r="J129" s="8"/>
-      <c r="K129" s="8"/>
+      <c r="J129" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="K129" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="L129" s="8"/>
       <c r="M129" s="8"/>
       <c r="N129" s="8"/>
@@ -6745,18 +7534,38 @@
       <c r="Z131" s="6"/>
       <c r="AA131" s="6"/>
     </row>
-    <row r="132" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A132" s="8"/>
-      <c r="B132" s="8"/>
-      <c r="C132" s="8"/>
-      <c r="D132" s="8"/>
-      <c r="E132" s="8"/>
-      <c r="F132" s="8"/>
-      <c r="G132" s="8"/>
-      <c r="H132" s="8"/>
+    <row r="132" spans="1:27" ht="64.5" thickBot="1">
+      <c r="A132" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="G132" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="H132" s="8" t="s">
+        <v>214</v>
+      </c>
       <c r="I132" s="8"/>
-      <c r="J132" s="8"/>
-      <c r="K132" s="8"/>
+      <c r="J132" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="K132" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="L132" s="8"/>
       <c r="M132" s="8"/>
       <c r="N132" s="8"/>
@@ -6832,17 +7641,29 @@
       <c r="Z134" s="6"/>
       <c r="AA134" s="6"/>
     </row>
-    <row r="135" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A135" s="8"/>
-      <c r="B135" s="8"/>
-      <c r="C135" s="8"/>
-      <c r="D135" s="8"/>
+    <row r="135" spans="1:27" ht="39" thickBot="1">
+      <c r="A135" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
-      <c r="H135" s="8"/>
+      <c r="H135" s="8" t="s">
+        <v>427</v>
+      </c>
       <c r="I135" s="8"/>
-      <c r="J135" s="8"/>
+      <c r="J135" s="8" t="s">
+        <v>428</v>
+      </c>
       <c r="K135" s="8"/>
       <c r="L135" s="8"/>
       <c r="M135" s="8"/>
@@ -6861,17 +7682,31 @@
       <c r="Z135" s="6"/>
       <c r="AA135" s="6"/>
     </row>
-    <row r="136" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A136" s="8"/>
-      <c r="B136" s="8"/>
-      <c r="C136" s="8"/>
-      <c r="D136" s="8"/>
+    <row r="136" spans="1:27" ht="26.25" thickBot="1">
+      <c r="A136" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E136" s="8"/>
-      <c r="F136" s="8"/>
+      <c r="F136" s="8" t="s">
+        <v>431</v>
+      </c>
       <c r="G136" s="8"/>
-      <c r="H136" s="8"/>
+      <c r="H136" s="8" t="s">
+        <v>427</v>
+      </c>
       <c r="I136" s="8"/>
-      <c r="J136" s="8"/>
+      <c r="J136" s="8" t="s">
+        <v>432</v>
+      </c>
       <c r="K136" s="8"/>
       <c r="L136" s="8"/>
       <c r="M136" s="8"/>
@@ -6890,17 +7725,31 @@
       <c r="Z136" s="6"/>
       <c r="AA136" s="6"/>
     </row>
-    <row r="137" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A137" s="8"/>
-      <c r="B137" s="8"/>
-      <c r="C137" s="8"/>
-      <c r="D137" s="8"/>
+    <row r="137" spans="1:27" ht="26.25" thickBot="1">
+      <c r="A137" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E137" s="8"/>
-      <c r="F137" s="8"/>
+      <c r="F137" s="8" t="s">
+        <v>431</v>
+      </c>
       <c r="G137" s="8"/>
-      <c r="H137" s="8"/>
+      <c r="H137" s="8" t="s">
+        <v>427</v>
+      </c>
       <c r="I137" s="8"/>
-      <c r="J137" s="8"/>
+      <c r="J137" s="8" t="s">
+        <v>432</v>
+      </c>
       <c r="K137" s="8"/>
       <c r="L137" s="8"/>
       <c r="M137" s="8"/>
@@ -6919,17 +7768,31 @@
       <c r="Z137" s="6"/>
       <c r="AA137" s="6"/>
     </row>
-    <row r="138" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A138" s="8"/>
-      <c r="B138" s="8"/>
-      <c r="C138" s="8"/>
-      <c r="D138" s="8"/>
+    <row r="138" spans="1:27" ht="51.75" thickBot="1">
+      <c r="A138" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E138" s="8"/>
-      <c r="F138" s="8"/>
+      <c r="F138" s="8" t="s">
+        <v>431</v>
+      </c>
       <c r="G138" s="8"/>
-      <c r="H138" s="8"/>
+      <c r="H138" s="8" t="s">
+        <v>427</v>
+      </c>
       <c r="I138" s="8"/>
-      <c r="J138" s="8"/>
+      <c r="J138" s="8" t="s">
+        <v>437</v>
+      </c>
       <c r="K138" s="8"/>
       <c r="L138" s="8"/>
       <c r="M138" s="8"/>
@@ -6948,17 +7811,31 @@
       <c r="Z138" s="6"/>
       <c r="AA138" s="6"/>
     </row>
-    <row r="139" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A139" s="8"/>
-      <c r="B139" s="8"/>
-      <c r="C139" s="8"/>
-      <c r="D139" s="8"/>
+    <row r="139" spans="1:27" ht="51.75" thickBot="1">
+      <c r="A139" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E139" s="8"/>
-      <c r="F139" s="8"/>
+      <c r="F139" s="8" t="s">
+        <v>431</v>
+      </c>
       <c r="G139" s="8"/>
-      <c r="H139" s="8"/>
+      <c r="H139" s="8" t="s">
+        <v>427</v>
+      </c>
       <c r="I139" s="8"/>
-      <c r="J139" s="8"/>
+      <c r="J139" s="8" t="s">
+        <v>437</v>
+      </c>
       <c r="K139" s="8"/>
       <c r="L139" s="8"/>
       <c r="M139" s="8"/>
@@ -6977,18 +7854,34 @@
       <c r="Z139" s="6"/>
       <c r="AA139" s="6"/>
     </row>
-    <row r="140" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A140" s="8"/>
-      <c r="B140" s="8"/>
-      <c r="C140" s="8"/>
-      <c r="D140" s="8"/>
+    <row r="140" spans="1:27" ht="51.75" thickBot="1">
+      <c r="A140" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
+      <c r="F140" s="8" t="s">
+        <v>431</v>
+      </c>
       <c r="G140" s="8"/>
-      <c r="H140" s="8"/>
+      <c r="H140" s="8" t="s">
+        <v>427</v>
+      </c>
       <c r="I140" s="8"/>
-      <c r="J140" s="8"/>
-      <c r="K140" s="8"/>
+      <c r="J140" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="K140" s="8" t="s">
+        <v>442</v>
+      </c>
       <c r="L140" s="8"/>
       <c r="M140" s="8"/>
       <c r="N140" s="8"/>
@@ -7006,18 +7899,34 @@
       <c r="Z140" s="6"/>
       <c r="AA140" s="6"/>
     </row>
-    <row r="141" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A141" s="8"/>
-      <c r="B141" s="8"/>
-      <c r="C141" s="8"/>
-      <c r="D141" s="8"/>
+    <row r="141" spans="1:27" ht="51.75" thickBot="1">
+      <c r="A141" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E141" s="8"/>
-      <c r="F141" s="8"/>
+      <c r="F141" s="8" t="s">
+        <v>431</v>
+      </c>
       <c r="G141" s="8"/>
-      <c r="H141" s="8"/>
+      <c r="H141" s="8" t="s">
+        <v>427</v>
+      </c>
       <c r="I141" s="8"/>
-      <c r="J141" s="8"/>
-      <c r="K141" s="8"/>
+      <c r="J141" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="K141" s="8" t="s">
+        <v>442</v>
+      </c>
       <c r="L141" s="8"/>
       <c r="M141" s="8"/>
       <c r="N141" s="8"/>
@@ -7035,18 +7944,34 @@
       <c r="Z141" s="6"/>
       <c r="AA141" s="6"/>
     </row>
-    <row r="142" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A142" s="8"/>
-      <c r="B142" s="8"/>
-      <c r="C142" s="8"/>
-      <c r="D142" s="8"/>
+    <row r="142" spans="1:27" ht="51.75" thickBot="1">
+      <c r="A142" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E142" s="8"/>
-      <c r="F142" s="8"/>
+      <c r="F142" s="8" t="s">
+        <v>431</v>
+      </c>
       <c r="G142" s="8"/>
-      <c r="H142" s="8"/>
+      <c r="H142" s="8" t="s">
+        <v>427</v>
+      </c>
       <c r="I142" s="8"/>
-      <c r="J142" s="8"/>
-      <c r="K142" s="8"/>
+      <c r="J142" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="K142" s="8" t="s">
+        <v>442</v>
+      </c>
       <c r="L142" s="8"/>
       <c r="M142" s="8"/>
       <c r="N142" s="8"/>
@@ -7064,17 +7989,31 @@
       <c r="Z142" s="6"/>
       <c r="AA142" s="6"/>
     </row>
-    <row r="143" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A143" s="8"/>
-      <c r="B143" s="8"/>
-      <c r="C143" s="8"/>
-      <c r="D143" s="8"/>
+    <row r="143" spans="1:27" ht="64.5" thickBot="1">
+      <c r="A143" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E143" s="8"/>
-      <c r="F143" s="8"/>
+      <c r="F143" s="8" t="s">
+        <v>449</v>
+      </c>
       <c r="G143" s="8"/>
-      <c r="H143" s="8"/>
+      <c r="H143" s="8" t="s">
+        <v>427</v>
+      </c>
       <c r="I143" s="8"/>
-      <c r="J143" s="8"/>
+      <c r="J143" s="8" t="s">
+        <v>437</v>
+      </c>
       <c r="K143" s="8"/>
       <c r="L143" s="8"/>
       <c r="M143" s="8"/>
@@ -7151,18 +8090,38 @@
       <c r="Z145" s="6"/>
       <c r="AA145" s="6"/>
     </row>
-    <row r="146" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A146" s="8"/>
-      <c r="B146" s="8"/>
-      <c r="C146" s="8"/>
-      <c r="D146" s="8"/>
-      <c r="E146" s="8"/>
-      <c r="F146" s="8"/>
-      <c r="G146" s="8"/>
-      <c r="H146" s="8"/>
+    <row r="146" spans="1:27" ht="51.75" thickBot="1">
+      <c r="A146" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E146" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="F146" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="G146" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="H146" s="16" t="s">
+        <v>340</v>
+      </c>
       <c r="I146" s="8"/>
-      <c r="J146" s="8"/>
-      <c r="K146" s="8"/>
+      <c r="J146" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="K146" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="L146" s="8"/>
       <c r="M146" s="8"/>
       <c r="N146" s="8"/>
@@ -7180,18 +8139,36 @@
       <c r="Z146" s="6"/>
       <c r="AA146" s="6"/>
     </row>
-    <row r="147" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A147" s="8"/>
-      <c r="B147" s="8"/>
+    <row r="147" spans="1:27" ht="90" thickBot="1">
+      <c r="A147" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>458</v>
+      </c>
       <c r="C147" s="8"/>
-      <c r="D147" s="8"/>
-      <c r="E147" s="8"/>
-      <c r="F147" s="8"/>
-      <c r="G147" s="8"/>
-      <c r="H147" s="8"/>
+      <c r="D147" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E147" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="G147" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="H147" s="16" t="s">
+        <v>340</v>
+      </c>
       <c r="I147" s="8"/>
-      <c r="J147" s="8"/>
-      <c r="K147" s="8"/>
+      <c r="J147" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="K147" s="8" t="s">
+        <v>461</v>
+      </c>
       <c r="L147" s="8"/>
       <c r="M147" s="8"/>
       <c r="N147" s="8"/>
@@ -7267,18 +8244,36 @@
       <c r="Z149" s="6"/>
       <c r="AA149" s="6"/>
     </row>
-    <row r="150" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A150" s="8"/>
-      <c r="B150" s="8"/>
-      <c r="C150" s="8"/>
-      <c r="D150" s="8"/>
-      <c r="E150" s="8"/>
-      <c r="F150" s="8"/>
+    <row r="150" spans="1:27" ht="77.25" thickBot="1">
+      <c r="A150" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E150" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="F150" s="8" t="s">
+        <v>465</v>
+      </c>
       <c r="G150" s="8"/>
-      <c r="H150" s="8"/>
+      <c r="H150" s="8" t="s">
+        <v>466</v>
+      </c>
       <c r="I150" s="8"/>
-      <c r="J150" s="8"/>
-      <c r="K150" s="8"/>
+      <c r="J150" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="K150" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="L150" s="8"/>
       <c r="M150" s="8"/>
       <c r="N150" s="8"/>
@@ -7354,18 +8349,36 @@
       <c r="Z152" s="6"/>
       <c r="AA152" s="6"/>
     </row>
-    <row r="153" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A153" s="8"/>
-      <c r="B153" s="8"/>
-      <c r="C153" s="8"/>
-      <c r="D153" s="8"/>
-      <c r="E153" s="8"/>
-      <c r="F153" s="8"/>
+    <row r="153" spans="1:27" ht="77.25" thickBot="1">
+      <c r="A153" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E153" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="F153" s="8" t="s">
+        <v>471</v>
+      </c>
       <c r="G153" s="8"/>
-      <c r="H153" s="8"/>
+      <c r="H153" s="8" t="s">
+        <v>472</v>
+      </c>
       <c r="I153" s="8"/>
-      <c r="J153" s="8"/>
-      <c r="K153" s="8"/>
+      <c r="J153" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="K153" s="8" t="s">
+        <v>474</v>
+      </c>
       <c r="L153" s="8"/>
       <c r="M153" s="8"/>
       <c r="N153" s="8"/>
@@ -7383,18 +8396,36 @@
       <c r="Z153" s="6"/>
       <c r="AA153" s="6"/>
     </row>
-    <row r="154" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A154" s="8"/>
-      <c r="B154" s="8"/>
-      <c r="C154" s="8"/>
-      <c r="D154" s="8"/>
-      <c r="E154" s="8"/>
-      <c r="F154" s="8"/>
+    <row r="154" spans="1:27" ht="77.25" thickBot="1">
+      <c r="A154" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E154" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="F154" s="8" t="s">
+        <v>471</v>
+      </c>
       <c r="G154" s="8"/>
-      <c r="H154" s="8"/>
+      <c r="H154" s="8" t="s">
+        <v>472</v>
+      </c>
       <c r="I154" s="8"/>
-      <c r="J154" s="8"/>
-      <c r="K154" s="8"/>
+      <c r="J154" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="K154" s="8" t="s">
+        <v>474</v>
+      </c>
       <c r="L154" s="8"/>
       <c r="M154" s="8"/>
       <c r="N154" s="8"/>
@@ -7412,18 +8443,36 @@
       <c r="Z154" s="6"/>
       <c r="AA154" s="6"/>
     </row>
-    <row r="155" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A155" s="8"/>
-      <c r="B155" s="8"/>
-      <c r="C155" s="8"/>
-      <c r="D155" s="8"/>
-      <c r="E155" s="8"/>
-      <c r="F155" s="8"/>
+    <row r="155" spans="1:27" ht="90" thickBot="1">
+      <c r="A155" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E155" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="F155" s="8" t="s">
+        <v>471</v>
+      </c>
       <c r="G155" s="8"/>
-      <c r="H155" s="8"/>
+      <c r="H155" s="8" t="s">
+        <v>472</v>
+      </c>
       <c r="I155" s="8"/>
-      <c r="J155" s="8"/>
-      <c r="K155" s="8"/>
+      <c r="J155" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="K155" s="8" t="s">
+        <v>386</v>
+      </c>
       <c r="L155" s="8"/>
       <c r="M155" s="8"/>
       <c r="N155" s="8"/>
@@ -7499,18 +8548,36 @@
       <c r="Z157" s="6"/>
       <c r="AA157" s="6"/>
     </row>
-    <row r="158" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A158" s="8"/>
-      <c r="B158" s="8"/>
-      <c r="C158" s="8"/>
-      <c r="D158" s="8"/>
-      <c r="E158" s="8"/>
-      <c r="F158" s="8"/>
+    <row r="158" spans="1:27" ht="51.75" thickBot="1">
+      <c r="A158" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="D158" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E158" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="F158" s="8" t="s">
+        <v>486</v>
+      </c>
       <c r="G158" s="8"/>
-      <c r="H158" s="8"/>
+      <c r="H158" s="8" t="s">
+        <v>487</v>
+      </c>
       <c r="I158" s="8"/>
-      <c r="J158" s="8"/>
-      <c r="K158" s="8"/>
+      <c r="J158" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="K158" s="8" t="s">
+        <v>474</v>
+      </c>
       <c r="L158" s="8"/>
       <c r="M158" s="8"/>
       <c r="N158" s="8"/>
@@ -7586,18 +8653,36 @@
       <c r="Z160" s="6"/>
       <c r="AA160" s="6"/>
     </row>
-    <row r="161" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A161" s="8"/>
-      <c r="B161" s="8"/>
-      <c r="C161" s="8"/>
-      <c r="D161" s="8"/>
-      <c r="E161" s="8"/>
-      <c r="F161" s="8"/>
+    <row r="161" spans="1:27" ht="128.25" thickBot="1">
+      <c r="A161" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E161" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="F161" s="8" t="s">
+        <v>492</v>
+      </c>
       <c r="G161" s="8"/>
-      <c r="H161" s="8"/>
+      <c r="H161" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="I161" s="8"/>
-      <c r="J161" s="8"/>
-      <c r="K161" s="8"/>
+      <c r="J161" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="K161" s="8" t="s">
+        <v>474</v>
+      </c>
       <c r="L161" s="8"/>
       <c r="M161" s="8"/>
       <c r="N161" s="8"/>
@@ -7615,18 +8700,36 @@
       <c r="Z161" s="6"/>
       <c r="AA161" s="6"/>
     </row>
-    <row r="162" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A162" s="8"/>
-      <c r="B162" s="8"/>
-      <c r="C162" s="8"/>
-      <c r="D162" s="8"/>
-      <c r="E162" s="8"/>
-      <c r="F162" s="8"/>
+    <row r="162" spans="1:27" ht="128.25" thickBot="1">
+      <c r="A162" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E162" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="F162" s="8" t="s">
+        <v>492</v>
+      </c>
       <c r="G162" s="8"/>
-      <c r="H162" s="8"/>
+      <c r="H162" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="I162" s="8"/>
-      <c r="J162" s="8"/>
-      <c r="K162" s="8"/>
+      <c r="J162" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="K162" s="8" t="s">
+        <v>474</v>
+      </c>
       <c r="L162" s="8"/>
       <c r="M162" s="8"/>
       <c r="N162" s="8"/>
@@ -7702,18 +8805,36 @@
       <c r="Z164" s="6"/>
       <c r="AA164" s="6"/>
     </row>
-    <row r="165" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A165" s="8"/>
-      <c r="B165" s="8"/>
-      <c r="C165" s="8"/>
-      <c r="D165" s="8"/>
-      <c r="E165" s="8"/>
-      <c r="F165" s="8"/>
+    <row r="165" spans="1:27" ht="115.5" thickBot="1">
+      <c r="A165" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E165" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F165" s="8" t="s">
+        <v>498</v>
+      </c>
       <c r="G165" s="8"/>
-      <c r="H165" s="8"/>
+      <c r="H165" s="8" t="s">
+        <v>501</v>
+      </c>
       <c r="I165" s="8"/>
-      <c r="J165" s="8"/>
-      <c r="K165" s="8"/>
+      <c r="J165" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="K165" s="8" t="s">
+        <v>474</v>
+      </c>
       <c r="L165" s="8"/>
       <c r="M165" s="8"/>
       <c r="N165" s="8"/>
@@ -7731,18 +8852,36 @@
       <c r="Z165" s="6"/>
       <c r="AA165" s="6"/>
     </row>
-    <row r="166" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A166" s="8"/>
-      <c r="B166" s="8"/>
-      <c r="C166" s="8"/>
-      <c r="D166" s="8"/>
-      <c r="E166" s="8"/>
-      <c r="F166" s="8"/>
+    <row r="166" spans="1:27" ht="115.5" thickBot="1">
+      <c r="A166" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="D166" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E166" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="F166" s="8" t="s">
+        <v>503</v>
+      </c>
       <c r="G166" s="8"/>
-      <c r="H166" s="8"/>
+      <c r="H166" s="8" t="s">
+        <v>501</v>
+      </c>
       <c r="I166" s="8"/>
-      <c r="J166" s="8"/>
-      <c r="K166" s="8"/>
+      <c r="J166" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="K166" s="8" t="s">
+        <v>474</v>
+      </c>
       <c r="L166" s="8"/>
       <c r="M166" s="8"/>
       <c r="N166" s="8"/>
@@ -7760,18 +8899,36 @@
       <c r="Z166" s="6"/>
       <c r="AA166" s="6"/>
     </row>
-    <row r="167" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A167" s="8"/>
-      <c r="B167" s="8"/>
-      <c r="C167" s="8"/>
-      <c r="D167" s="8"/>
-      <c r="E167" s="8"/>
-      <c r="F167" s="8"/>
+    <row r="167" spans="1:27" ht="115.5" thickBot="1">
+      <c r="A167" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E167" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="F167" s="8" t="s">
+        <v>507</v>
+      </c>
       <c r="G167" s="8"/>
-      <c r="H167" s="8"/>
+      <c r="H167" s="8" t="s">
+        <v>501</v>
+      </c>
       <c r="I167" s="8"/>
-      <c r="J167" s="8"/>
-      <c r="K167" s="8"/>
+      <c r="J167" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="K167" s="8" t="s">
+        <v>386</v>
+      </c>
       <c r="L167" s="8"/>
       <c r="M167" s="8"/>
       <c r="N167" s="8"/>
@@ -7789,18 +8946,36 @@
       <c r="Z167" s="6"/>
       <c r="AA167" s="6"/>
     </row>
-    <row r="168" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A168" s="8"/>
-      <c r="B168" s="8"/>
-      <c r="C168" s="8"/>
-      <c r="D168" s="8"/>
-      <c r="E168" s="8"/>
-      <c r="F168" s="8"/>
+    <row r="168" spans="1:27" ht="115.5" thickBot="1">
+      <c r="A168" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="D168" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E168" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="F168" s="8" t="s">
+        <v>508</v>
+      </c>
       <c r="G168" s="8"/>
-      <c r="H168" s="8"/>
+      <c r="H168" s="8" t="s">
+        <v>501</v>
+      </c>
       <c r="I168" s="8"/>
-      <c r="J168" s="8"/>
-      <c r="K168" s="8"/>
+      <c r="J168" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="K168" s="8" t="s">
+        <v>386</v>
+      </c>
       <c r="L168" s="8"/>
       <c r="M168" s="8"/>
       <c r="N168" s="8"/>
@@ -7847,18 +9022,36 @@
       <c r="Z169" s="6"/>
       <c r="AA169" s="6"/>
     </row>
-    <row r="170" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A170" s="8"/>
-      <c r="B170" s="8"/>
-      <c r="C170" s="8"/>
-      <c r="D170" s="8"/>
-      <c r="E170" s="8"/>
-      <c r="F170" s="8"/>
+    <row r="170" spans="1:27" ht="90" thickBot="1">
+      <c r="A170" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="D170" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E170" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="F170" s="8" t="s">
+        <v>454</v>
+      </c>
       <c r="G170" s="8"/>
-      <c r="H170" s="8"/>
+      <c r="H170" s="16" t="s">
+        <v>340</v>
+      </c>
       <c r="I170" s="8"/>
-      <c r="J170" s="8"/>
-      <c r="K170" s="8"/>
+      <c r="J170" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="K170" s="8" t="s">
+        <v>474</v>
+      </c>
       <c r="L170" s="8"/>
       <c r="M170" s="8"/>
       <c r="N170" s="8"/>
@@ -7934,18 +9127,36 @@
       <c r="Z172" s="6"/>
       <c r="AA172" s="6"/>
     </row>
-    <row r="173" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A173" s="8"/>
-      <c r="B173" s="8"/>
-      <c r="C173" s="8"/>
-      <c r="D173" s="8"/>
-      <c r="E173" s="8"/>
-      <c r="F173" s="8"/>
+    <row r="173" spans="1:27" ht="115.5" thickBot="1">
+      <c r="A173" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="D173" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E173" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="F173" s="8" t="s">
+        <v>516</v>
+      </c>
       <c r="G173" s="8"/>
-      <c r="H173" s="8"/>
+      <c r="H173" s="8" t="s">
+        <v>517</v>
+      </c>
       <c r="I173" s="8"/>
-      <c r="J173" s="8"/>
-      <c r="K173" s="8"/>
+      <c r="J173" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="K173" s="8" t="s">
+        <v>386</v>
+      </c>
       <c r="L173" s="8"/>
       <c r="M173" s="8"/>
       <c r="N173" s="8"/>
@@ -8021,18 +9232,36 @@
       <c r="Z175" s="6"/>
       <c r="AA175" s="6"/>
     </row>
-    <row r="176" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A176" s="8"/>
-      <c r="B176" s="8"/>
-      <c r="C176" s="8"/>
-      <c r="D176" s="8"/>
-      <c r="E176" s="8"/>
-      <c r="F176" s="8"/>
+    <row r="176" spans="1:27" ht="90" thickBot="1">
+      <c r="A176" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="D176" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E176" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="F176" s="8" t="s">
+        <v>449</v>
+      </c>
       <c r="G176" s="8"/>
-      <c r="H176" s="8"/>
+      <c r="H176" s="8" t="s">
+        <v>521</v>
+      </c>
       <c r="I176" s="8"/>
-      <c r="J176" s="8"/>
-      <c r="K176" s="8"/>
+      <c r="J176" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="K176" s="8" t="s">
+        <v>474</v>
+      </c>
       <c r="L176" s="8"/>
       <c r="M176" s="8"/>
       <c r="N176" s="8"/>
@@ -32702,10 +33931,90 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E36" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
+    <hyperlink ref="E5" r:id="rId3"/>
+    <hyperlink ref="E6" r:id="rId4"/>
+    <hyperlink ref="E13" r:id="rId5"/>
+    <hyperlink ref="E14" r:id="rId6"/>
+    <hyperlink ref="E15" r:id="rId7"/>
+    <hyperlink ref="E16" r:id="rId8"/>
+    <hyperlink ref="E17" r:id="rId9"/>
+    <hyperlink ref="E18" r:id="rId10"/>
+    <hyperlink ref="E19" r:id="rId11"/>
+    <hyperlink ref="E20" r:id="rId12"/>
+    <hyperlink ref="E21" r:id="rId13"/>
+    <hyperlink ref="E22" r:id="rId14"/>
+    <hyperlink ref="E23" r:id="rId15"/>
+    <hyperlink ref="E24" r:id="rId16"/>
+    <hyperlink ref="E25" r:id="rId17"/>
+    <hyperlink ref="E26" r:id="rId18"/>
+    <hyperlink ref="E28" r:id="rId19"/>
+    <hyperlink ref="E29" r:id="rId20"/>
+    <hyperlink ref="E30" r:id="rId21"/>
+    <hyperlink ref="E31" r:id="rId22"/>
+    <hyperlink ref="E32" r:id="rId23"/>
+    <hyperlink ref="E33" r:id="rId24"/>
+    <hyperlink ref="E34" r:id="rId25"/>
+    <hyperlink ref="E35" r:id="rId26"/>
+    <hyperlink ref="E36" r:id="rId27"/>
+    <hyperlink ref="E40" r:id="rId28"/>
+    <hyperlink ref="E41" r:id="rId29"/>
+    <hyperlink ref="E42" r:id="rId30"/>
+    <hyperlink ref="E43" r:id="rId31"/>
+    <hyperlink ref="E44" r:id="rId32"/>
+    <hyperlink ref="E45" r:id="rId33"/>
+    <hyperlink ref="E49" r:id="rId34"/>
+    <hyperlink ref="E50" r:id="rId35"/>
+    <hyperlink ref="E53" r:id="rId36"/>
+    <hyperlink ref="E54" r:id="rId37"/>
+    <hyperlink ref="E57" r:id="rId38"/>
+    <hyperlink ref="E58" r:id="rId39"/>
+    <hyperlink ref="E59" r:id="rId40"/>
+    <hyperlink ref="E60" r:id="rId41"/>
+    <hyperlink ref="E61" r:id="rId42"/>
+    <hyperlink ref="E62" r:id="rId43"/>
+    <hyperlink ref="E63" r:id="rId44"/>
+    <hyperlink ref="E64" r:id="rId45"/>
+    <hyperlink ref="E67" r:id="rId46"/>
+    <hyperlink ref="E69" r:id="rId47"/>
+    <hyperlink ref="E70" r:id="rId48"/>
+    <hyperlink ref="E73" r:id="rId49"/>
+    <hyperlink ref="E76" r:id="rId50"/>
+    <hyperlink ref="E77" r:id="rId51"/>
+    <hyperlink ref="E78" r:id="rId52"/>
+    <hyperlink ref="E79" r:id="rId53"/>
+    <hyperlink ref="E80" r:id="rId54"/>
+    <hyperlink ref="E81" r:id="rId55"/>
+    <hyperlink ref="E84" r:id="rId56"/>
+    <hyperlink ref="E85" r:id="rId57"/>
+    <hyperlink ref="E86" r:id="rId58"/>
+    <hyperlink ref="E87" r:id="rId59"/>
+    <hyperlink ref="E101" r:id="rId60"/>
+    <hyperlink ref="E102" r:id="rId61"/>
+    <hyperlink ref="E103" r:id="rId62"/>
+    <hyperlink ref="E104" r:id="rId63"/>
+    <hyperlink ref="E105" r:id="rId64"/>
+    <hyperlink ref="E106" r:id="rId65"/>
+    <hyperlink ref="E107" r:id="rId66"/>
+    <hyperlink ref="E108" r:id="rId67"/>
+    <hyperlink ref="E109" r:id="rId68"/>
+    <hyperlink ref="E110" r:id="rId69"/>
+    <hyperlink ref="E111" r:id="rId70"/>
+    <hyperlink ref="E112" r:id="rId71"/>
+    <hyperlink ref="E118" r:id="rId72"/>
+    <hyperlink ref="E119" r:id="rId73"/>
+    <hyperlink ref="E120" r:id="rId74"/>
+    <hyperlink ref="E121" r:id="rId75"/>
+    <hyperlink ref="E122" r:id="rId76"/>
+    <hyperlink ref="E125" r:id="rId77"/>
+    <hyperlink ref="E126" r:id="rId78"/>
+    <hyperlink ref="E127" r:id="rId79"/>
+    <hyperlink ref="E128" r:id="rId80"/>
+    <hyperlink ref="E129" r:id="rId81"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId82"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/BIDMC/np_swab_results.xlsx
+++ b/BIDMC/np_swab_results.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="567">
   <si>
     <t>Date of test</t>
   </si>
@@ -1593,6 +1593,139 @@
   </si>
   <si>
     <t>Pass - but tip head is large in diameter, and ideally would be more softer/flexible, would likely be very uncomfortable to pass into posterior nasopharynx</t>
+  </si>
+  <si>
+    <t>off for testing</t>
+  </si>
+  <si>
+    <t>Off for testing</t>
+  </si>
+  <si>
+    <t>Carbon 3D (
+Hardik Kabaria &lt;hardik@carbon3d.com)</t>
+  </si>
+  <si>
+    <t>O_2A_1</t>
+  </si>
+  <si>
+    <t>Origin.IO swab desing with hexagonal mesh</t>
+  </si>
+  <si>
+    <t>March 31st, 2020</t>
+  </si>
+  <si>
+    <t>/img/Origin/O_2A_1.jpg</t>
+  </si>
+  <si>
+    <t>Pass but tip head on 2A_2 preferbale</t>
+  </si>
+  <si>
+    <t>O_2A_2</t>
+  </si>
+  <si>
+    <t>Origin.IO swab desing with small hexagonal mesh</t>
+  </si>
+  <si>
+    <t>/img/Origin/O_2A_2.jpg</t>
+  </si>
+  <si>
+    <t>Pass (body design is appropriate, and tip head is softer)</t>
+  </si>
+  <si>
+    <t>SB-71-4582</t>
+  </si>
+  <si>
+    <t>injection molded w/ foam sock</t>
+  </si>
+  <si>
+    <t>3/31/2020,</t>
+  </si>
+  <si>
+    <t>/img/superbrush/SB-71-4592.jpg</t>
+  </si>
+  <si>
+    <t>71-4582</t>
+  </si>
+  <si>
+    <t>Johan Sunryd jsunryd@superbrush.com</t>
+  </si>
+  <si>
+    <t>Did not pass (body design would ideally have a more flexible neck as in design 52-1005 so that swab can be pushed into posterior nasopharynx)</t>
+  </si>
+  <si>
+    <t>SB_52-1005</t>
+  </si>
+  <si>
+    <t>injection molded w/foam sock</t>
+  </si>
+  <si>
+    <t>/img/superbrush/SB_52-1005.jpg</t>
+  </si>
+  <si>
+    <t>52-1005</t>
+  </si>
+  <si>
+    <t>Pass (tip head with appropriate diameter and body design is appropriate, body design needs an easier breakpoint however (preferably ~7cm from end of tip head)</t>
+  </si>
+  <si>
+    <t>C_3_1</t>
+  </si>
+  <si>
+    <t>100 non sterile, single packed swabs</t>
+  </si>
+  <si>
+    <t>/img/Carbon/C_3_1.jpg</t>
+  </si>
+  <si>
+    <t>Hardik Kabaria hardik@carbon3d.com</t>
+  </si>
+  <si>
+    <t>J_2_2</t>
+  </si>
+  <si>
+    <t>Jiffei no.2</t>
+  </si>
+  <si>
+    <t>/img/Opt_industries/J_2_2.JPG</t>
+  </si>
+  <si>
+    <t>Did not pass- material is too brittle/flexible, and easily breaks. Material also feels rough</t>
+  </si>
+  <si>
+    <t>J_2_3</t>
+  </si>
+  <si>
+    <t>Jiffei no.3</t>
+  </si>
+  <si>
+    <t>/img/Opt_industries/J_2_3.JPG</t>
+  </si>
+  <si>
+    <t>Did not pass- material is brittle although more stiff and somewhat rough</t>
+  </si>
+  <si>
+    <t>J_2_4</t>
+  </si>
+  <si>
+    <t>Jiffei no.4</t>
+  </si>
+  <si>
+    <t>/img/Opt_industries/J_2_4.JPG</t>
+  </si>
+  <si>
+    <t>Did not pass - appropriate body design and stiffness, but material is still brittle, and somewhat rough</t>
+  </si>
+  <si>
+    <t>J_2_5</t>
+  </si>
+  <si>
+    <t>Jiffei no.5</t>
+  </si>
+  <si>
+    <t>/img/Opt_industries/J_2_5.JPG</t>
+  </si>
+  <si>
+    <t>Did not pass - appropriate body design and stiffness, but material is still brittle and somewhat rough</t>
   </si>
 </sst>
 </file>
@@ -1714,7 +1847,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1758,6 +1891,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2066,7 +2202,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2077,10 +2213,10 @@
   <dimension ref="A1:AA1026"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B170" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B173" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D96" sqref="D96"/>
+      <selection pane="bottomRight" activeCell="D176" sqref="D176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -2139,7 +2275,7 @@
       <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="3"/>
+      <c r="N1" s="2"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -5825,7 +5961,9 @@
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
-      <c r="L91" s="8"/>
+      <c r="L91" s="8" t="s">
+        <v>523</v>
+      </c>
       <c r="M91" s="8"/>
       <c r="N91" s="8"/>
       <c r="O91" s="6"/>
@@ -5868,7 +6006,9 @@
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
-      <c r="L92" s="8"/>
+      <c r="L92" s="8" t="s">
+        <v>523</v>
+      </c>
       <c r="M92" s="8"/>
       <c r="N92" s="8"/>
       <c r="O92" s="6"/>
@@ -5911,7 +6051,9 @@
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
-      <c r="L93" s="8"/>
+      <c r="L93" s="8" t="s">
+        <v>523</v>
+      </c>
       <c r="M93" s="8"/>
       <c r="N93" s="8"/>
       <c r="O93" s="6"/>
@@ -6841,7 +6983,9 @@
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
-      <c r="L115" s="8"/>
+      <c r="L115" s="8" t="s">
+        <v>524</v>
+      </c>
       <c r="M115" s="8"/>
       <c r="N115" s="8"/>
       <c r="O115" s="6"/>
@@ -7410,7 +7554,9 @@
       <c r="K128" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L128" s="8"/>
+      <c r="L128" s="8" t="s">
+        <v>523</v>
+      </c>
       <c r="M128" s="8"/>
       <c r="N128" s="8"/>
       <c r="O128" s="6"/>
@@ -7557,7 +7703,7 @@
         <v>423</v>
       </c>
       <c r="H132" s="8" t="s">
-        <v>214</v>
+        <v>525</v>
       </c>
       <c r="I132" s="8"/>
       <c r="J132" s="8" t="s">
@@ -9337,18 +9483,36 @@
       <c r="Z178" s="6"/>
       <c r="AA178" s="6"/>
     </row>
-    <row r="179" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A179" s="8"/>
-      <c r="B179" s="8"/>
-      <c r="C179" s="8"/>
-      <c r="D179" s="8"/>
-      <c r="E179" s="8"/>
-      <c r="F179" s="8"/>
+    <row r="179" spans="1:27" ht="64.5" thickBot="1">
+      <c r="A179" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="D179" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E179" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="F179" s="8" t="s">
+        <v>449</v>
+      </c>
       <c r="G179" s="8"/>
-      <c r="H179" s="8"/>
+      <c r="H179" s="8" t="s">
+        <v>521</v>
+      </c>
       <c r="I179" s="8"/>
-      <c r="J179" s="8"/>
-      <c r="K179" s="8"/>
+      <c r="J179" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="K179" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="L179" s="8"/>
       <c r="M179" s="8"/>
       <c r="N179" s="8"/>
@@ -9366,18 +9530,36 @@
       <c r="Z179" s="6"/>
       <c r="AA179" s="6"/>
     </row>
-    <row r="180" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A180" s="8"/>
-      <c r="B180" s="8"/>
-      <c r="C180" s="8"/>
-      <c r="D180" s="8"/>
-      <c r="E180" s="8"/>
-      <c r="F180" s="8"/>
+    <row r="180" spans="1:27" ht="64.5" thickBot="1">
+      <c r="A180" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="D180" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E180" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="F180" s="8" t="s">
+        <v>449</v>
+      </c>
       <c r="G180" s="8"/>
-      <c r="H180" s="8"/>
+      <c r="H180" s="8" t="s">
+        <v>521</v>
+      </c>
       <c r="I180" s="8"/>
-      <c r="J180" s="8"/>
-      <c r="K180" s="8"/>
+      <c r="J180" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="K180" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="L180" s="8"/>
       <c r="M180" s="8"/>
       <c r="N180" s="8"/>
@@ -9453,18 +9635,36 @@
       <c r="Z182" s="6"/>
       <c r="AA182" s="6"/>
     </row>
-    <row r="183" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A183" s="8"/>
-      <c r="B183" s="8"/>
-      <c r="C183" s="8"/>
-      <c r="D183" s="8"/>
-      <c r="E183" s="8"/>
-      <c r="F183" s="8"/>
+    <row r="183" spans="1:27" ht="77.25" thickBot="1">
+      <c r="A183" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="D183" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E183" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="F183" s="8" t="s">
+        <v>539</v>
+      </c>
       <c r="G183" s="8"/>
-      <c r="H183" s="8"/>
+      <c r="H183" s="12" t="s">
+        <v>540</v>
+      </c>
       <c r="I183" s="8"/>
-      <c r="J183" s="8"/>
-      <c r="K183" s="8"/>
+      <c r="J183" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="K183" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="L183" s="8"/>
       <c r="M183" s="8"/>
       <c r="N183" s="8"/>
@@ -9482,18 +9682,36 @@
       <c r="Z183" s="6"/>
       <c r="AA183" s="6"/>
     </row>
-    <row r="184" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A184" s="8"/>
-      <c r="B184" s="8"/>
-      <c r="C184" s="8"/>
-      <c r="D184" s="8"/>
-      <c r="E184" s="8"/>
-      <c r="F184" s="8"/>
+    <row r="184" spans="1:27" ht="90" thickBot="1">
+      <c r="A184" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="C184" s="17">
+        <v>43921</v>
+      </c>
+      <c r="D184" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E184" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="F184" s="8" t="s">
+        <v>545</v>
+      </c>
       <c r="G184" s="8"/>
-      <c r="H184" s="8"/>
+      <c r="H184" s="8" t="s">
+        <v>540</v>
+      </c>
       <c r="I184" s="8"/>
-      <c r="J184" s="8"/>
-      <c r="K184" s="8"/>
+      <c r="J184" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="K184" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="L184" s="8"/>
       <c r="M184" s="8"/>
       <c r="N184" s="8"/>
@@ -9569,15 +9787,31 @@
       <c r="Z186" s="6"/>
       <c r="AA186" s="6"/>
     </row>
-    <row r="187" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A187" s="8"/>
-      <c r="B187" s="8"/>
-      <c r="C187" s="8"/>
-      <c r="D187" s="8"/>
-      <c r="E187" s="8"/>
-      <c r="F187" s="8"/>
-      <c r="G187" s="8"/>
-      <c r="H187" s="8"/>
+    <row r="187" spans="1:27" ht="64.5" thickBot="1">
+      <c r="A187" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="C187" s="17">
+        <v>43921</v>
+      </c>
+      <c r="D187" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E187" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="F187" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="G187" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="H187" s="8" t="s">
+        <v>550</v>
+      </c>
       <c r="I187" s="8"/>
       <c r="J187" s="8"/>
       <c r="K187" s="8"/>
@@ -9656,17 +9890,35 @@
       <c r="Z189" s="6"/>
       <c r="AA189" s="6"/>
     </row>
-    <row r="190" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A190" s="8"/>
-      <c r="B190" s="8"/>
-      <c r="C190" s="8"/>
-      <c r="D190" s="8"/>
-      <c r="E190" s="8"/>
-      <c r="F190" s="8"/>
-      <c r="G190" s="8"/>
-      <c r="H190" s="8"/>
+    <row r="190" spans="1:27" ht="51.75" thickBot="1">
+      <c r="A190" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="C190" s="17">
+        <v>43921</v>
+      </c>
+      <c r="D190" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E190" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="F190" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="G190" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="H190" s="12" t="s">
+        <v>162</v>
+      </c>
       <c r="I190" s="8"/>
-      <c r="J190" s="8"/>
+      <c r="J190" s="8" t="s">
+        <v>554</v>
+      </c>
       <c r="K190" s="8"/>
       <c r="L190" s="8"/>
       <c r="M190" s="8"/>
@@ -9685,17 +9937,35 @@
       <c r="Z190" s="6"/>
       <c r="AA190" s="6"/>
     </row>
-    <row r="191" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A191" s="8"/>
-      <c r="B191" s="8"/>
-      <c r="C191" s="8"/>
-      <c r="D191" s="8"/>
-      <c r="E191" s="8"/>
-      <c r="F191" s="8"/>
-      <c r="G191" s="8"/>
-      <c r="H191" s="8"/>
+    <row r="191" spans="1:27" ht="39" thickBot="1">
+      <c r="A191" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="C191" s="17">
+        <v>43921</v>
+      </c>
+      <c r="D191" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E191" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="F191" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="G191" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="H191" s="12" t="s">
+        <v>162</v>
+      </c>
       <c r="I191" s="8"/>
-      <c r="J191" s="8"/>
+      <c r="J191" s="8" t="s">
+        <v>558</v>
+      </c>
       <c r="K191" s="8"/>
       <c r="L191" s="8"/>
       <c r="M191" s="8"/>
@@ -9714,17 +9984,35 @@
       <c r="Z191" s="6"/>
       <c r="AA191" s="6"/>
     </row>
-    <row r="192" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A192" s="8"/>
-      <c r="B192" s="8"/>
-      <c r="C192" s="8"/>
-      <c r="D192" s="8"/>
-      <c r="E192" s="8"/>
-      <c r="F192" s="8"/>
-      <c r="G192" s="8"/>
-      <c r="H192" s="8"/>
+    <row r="192" spans="1:27" ht="51.75" thickBot="1">
+      <c r="A192" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="C192" s="17">
+        <v>43921</v>
+      </c>
+      <c r="D192" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E192" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="F192" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="G192" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="H192" s="12" t="s">
+        <v>162</v>
+      </c>
       <c r="I192" s="8"/>
-      <c r="J192" s="8"/>
+      <c r="J192" s="8" t="s">
+        <v>562</v>
+      </c>
       <c r="K192" s="8"/>
       <c r="L192" s="8"/>
       <c r="M192" s="8"/>
@@ -9743,17 +10031,35 @@
       <c r="Z192" s="6"/>
       <c r="AA192" s="6"/>
     </row>
-    <row r="193" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A193" s="8"/>
-      <c r="B193" s="8"/>
-      <c r="C193" s="8"/>
-      <c r="D193" s="8"/>
-      <c r="E193" s="8"/>
-      <c r="F193" s="8"/>
-      <c r="G193" s="8"/>
-      <c r="H193" s="8"/>
+    <row r="193" spans="1:27" ht="51.75" thickBot="1">
+      <c r="A193" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="C193" s="17">
+        <v>43921</v>
+      </c>
+      <c r="D193" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E193" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="F193" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="G193" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="H193" s="12" t="s">
+        <v>162</v>
+      </c>
       <c r="I193" s="8"/>
-      <c r="J193" s="8"/>
+      <c r="J193" s="8" t="s">
+        <v>566</v>
+      </c>
       <c r="K193" s="8"/>
       <c r="L193" s="8"/>
       <c r="M193" s="8"/>

--- a/BIDMC/np_swab_results.xlsx
+++ b/BIDMC/np_swab_results.xlsx
@@ -2213,7 +2213,7 @@
   <dimension ref="A1:AA1026"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B173" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B122" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D176" sqref="D176"/>

--- a/BIDMC/np_swab_results.xlsx
+++ b/BIDMC/np_swab_results.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="618">
   <si>
     <t>Date of test</t>
   </si>
@@ -1307,9 +1307,6 @@
     <t>off for testing</t>
   </si>
   <si>
-    <t>Off for testing</t>
-  </si>
-  <si>
     <t>Carbon 3D (
 Hardik Kabaria &lt;hardik@carbon3d.com)</t>
   </si>
@@ -1828,6 +1825,60 @@
   </si>
   <si>
     <t>HP_WS Autoclaved 2020-03-31</t>
+  </si>
+  <si>
+    <t>(presume pass if same material as USF1_1)</t>
+  </si>
+  <si>
+    <t>(same material as O_2A)</t>
+  </si>
+  <si>
+    <t>(same as HP_ws)</t>
+  </si>
+  <si>
+    <t>HP_Spring_Polished_1</t>
+  </si>
+  <si>
+    <t>HP_Spring_Polished with modified breakoff point</t>
+  </si>
+  <si>
+    <t>HP_Spiral_Polished_1</t>
+  </si>
+  <si>
+    <t>HP_Spiral_Polished with modified breakoff point</t>
+  </si>
+  <si>
+    <t>MF_2_Br</t>
+  </si>
+  <si>
+    <t>MF_2 with breakoff point</t>
+  </si>
+  <si>
+    <t>Medical nylon</t>
+  </si>
+  <si>
+    <t>WIM-001</t>
+  </si>
+  <si>
+    <t>Wyss swab w/ rings</t>
+  </si>
+  <si>
+    <t>Polypropylene</t>
+  </si>
+  <si>
+    <t>Richard Novak. Richard.Novak@wyss.harvard.edu</t>
+  </si>
+  <si>
+    <t>Pass - appropriate body design, and tip head appropriately flexible and stiff. Body design should be smoother (some support attachments points too sharp) and breakpoint should be easier</t>
+  </si>
+  <si>
+    <t>WIM-002</t>
+  </si>
+  <si>
+    <t>nylon</t>
+  </si>
+  <si>
+    <t>Pass - but tip head preferable from 001. Body design should be smoother (some support attachments points too sharp) and breakpoint should be easier</t>
   </si>
 </sst>
 </file>
@@ -2304,7 +2355,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2315,7 +2366,7 @@
   <dimension ref="A1:AB1026"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B206" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" sqref="A1:AB1026"/>
@@ -2375,7 +2426,7 @@
         <v>8</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>9</v>
@@ -2457,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>21</v>
@@ -2507,7 +2558,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>21</v>
@@ -2557,7 +2608,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
@@ -2607,7 +2658,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6" t="s">
@@ -2913,7 +2964,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -2959,7 +3010,7 @@
         <v>20</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -3005,7 +3056,7 @@
         <v>20</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -3051,7 +3102,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -3093,7 +3144,7 @@
         <v>20</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -3137,7 +3188,7 @@
         <v>20</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -3179,7 +3230,7 @@
         <v>20</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -3227,7 +3278,7 @@
         <v>20</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -3269,7 +3320,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -3311,7 +3362,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -3353,7 +3404,7 @@
         <v>20</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -3395,7 +3446,7 @@
         <v>20</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -3439,7 +3490,7 @@
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -3479,7 +3530,7 @@
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -3563,7 +3614,7 @@
         <v>20</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>48</v>
@@ -3611,7 +3662,7 @@
         <v>20</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>51</v>
@@ -3657,7 +3708,7 @@
         <v>20</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>55</v>
@@ -3703,7 +3754,7 @@
         <v>20</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>58</v>
@@ -3749,7 +3800,7 @@
         <v>20</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>60</v>
@@ -3795,7 +3846,7 @@
         <v>20</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>62</v>
@@ -3841,7 +3892,7 @@
         <v>20</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>64</v>
@@ -3887,7 +3938,7 @@
         <v>20</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>51</v>
@@ -3933,7 +3984,7 @@
         <v>67</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>68</v>
@@ -4073,7 +4124,7 @@
         <v>20</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
@@ -4117,7 +4168,7 @@
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="14" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
@@ -4131,7 +4182,9 @@
       <c r="K41" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L41" s="8"/>
+      <c r="L41" s="8" t="s">
+        <v>600</v>
+      </c>
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
       <c r="O41" s="8"/>
@@ -4159,7 +4212,7 @@
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="14" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
@@ -4173,7 +4226,9 @@
       <c r="K42" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L42" s="8"/>
+      <c r="L42" s="8" t="s">
+        <v>600</v>
+      </c>
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>
@@ -4201,7 +4256,7 @@
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="14" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
@@ -4215,7 +4270,9 @@
       <c r="K43" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L43" s="8"/>
+      <c r="L43" s="8" t="s">
+        <v>600</v>
+      </c>
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
       <c r="O43" s="8"/>
@@ -4243,7 +4300,7 @@
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="15" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
@@ -4257,7 +4314,9 @@
       <c r="K44" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L44" s="8"/>
+      <c r="L44" s="8" t="s">
+        <v>600</v>
+      </c>
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
@@ -4287,7 +4346,7 @@
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
@@ -4301,7 +4360,9 @@
       <c r="K45" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L45" s="8"/>
+      <c r="L45" s="8" t="s">
+        <v>600</v>
+      </c>
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
@@ -4423,7 +4484,7 @@
         <v>20</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
@@ -4471,7 +4532,7 @@
         <v>20</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
@@ -4581,7 +4642,7 @@
         <v>20</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
@@ -4629,7 +4690,7 @@
         <v>20</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
@@ -4735,7 +4796,7 @@
         <v>20</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F57" s="8" t="s">
         <v>138</v>
@@ -4783,7 +4844,7 @@
         <v>20</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F58" s="8" t="s">
         <v>138</v>
@@ -4831,7 +4892,7 @@
         <v>20</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F59" s="8" t="s">
         <v>138</v>
@@ -4881,7 +4942,7 @@
         <v>20</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F60" s="8" t="s">
         <v>138</v>
@@ -4929,7 +4990,7 @@
         <v>20</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F61" s="8" t="s">
         <v>138</v>
@@ -4977,7 +5038,7 @@
         <v>20</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F62" s="8" t="s">
         <v>138</v>
@@ -5025,7 +5086,7 @@
         <v>20</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F63" s="8" t="s">
         <v>138</v>
@@ -5073,7 +5134,7 @@
         <v>20</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F64" s="8" t="s">
         <v>138</v>
@@ -5179,7 +5240,7 @@
         <v>20</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F67" s="8" t="s">
         <v>160</v>
@@ -5259,7 +5320,7 @@
         <v>20</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
@@ -5307,7 +5368,7 @@
         <v>20</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
@@ -5413,7 +5474,7 @@
         <v>20</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
@@ -5521,7 +5582,7 @@
         <v>20</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
@@ -5536,7 +5597,7 @@
         <v>31</v>
       </c>
       <c r="L76" s="8" t="s">
-        <v>276</v>
+        <v>31</v>
       </c>
       <c r="M76" s="8"/>
       <c r="N76" s="8"/>
@@ -5569,7 +5630,7 @@
         <v>20</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
@@ -5615,7 +5676,7 @@
         <v>20</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
@@ -5661,7 +5722,7 @@
         <v>20</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
@@ -5707,7 +5768,7 @@
         <v>20</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
@@ -5753,7 +5814,7 @@
         <v>20</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
@@ -5857,7 +5918,7 @@
         <v>20</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
@@ -5903,7 +5964,7 @@
         <v>20</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
@@ -5949,7 +6010,7 @@
         <v>20</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
@@ -5995,7 +6056,7 @@
         <v>20</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
@@ -6485,7 +6546,9 @@
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
-      <c r="L99" s="8"/>
+      <c r="L99" s="8" t="s">
+        <v>276</v>
+      </c>
       <c r="M99" s="8"/>
       <c r="N99" s="8"/>
       <c r="O99" s="8"/>
@@ -6559,7 +6622,7 @@
         <v>20</v>
       </c>
       <c r="E101" s="15" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F101" s="8" t="s">
         <v>241</v>
@@ -6607,7 +6670,7 @@
         <v>20</v>
       </c>
       <c r="E102" s="15" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F102" s="8" t="s">
         <v>245</v>
@@ -6655,7 +6718,7 @@
         <v>20</v>
       </c>
       <c r="E103" s="15" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F103" s="8" t="s">
         <v>248</v>
@@ -6703,7 +6766,7 @@
         <v>20</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F104" s="8" t="s">
         <v>251</v>
@@ -6751,7 +6814,7 @@
         <v>20</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F105" s="8" t="s">
         <v>254</v>
@@ -6799,7 +6862,7 @@
         <v>20</v>
       </c>
       <c r="E106" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F106" s="8" t="s">
         <v>257</v>
@@ -6847,7 +6910,7 @@
         <v>20</v>
       </c>
       <c r="E107" s="15" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F107" s="8" t="s">
         <v>260</v>
@@ -6895,7 +6958,7 @@
         <v>20</v>
       </c>
       <c r="E108" s="15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F108" s="8" t="s">
         <v>262</v>
@@ -6943,7 +7006,7 @@
         <v>20</v>
       </c>
       <c r="E109" s="15" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F109" s="8" t="s">
         <v>265</v>
@@ -6991,7 +7054,7 @@
         <v>20</v>
       </c>
       <c r="E110" s="15" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F110" s="8" t="s">
         <v>268</v>
@@ -7039,7 +7102,7 @@
         <v>20</v>
       </c>
       <c r="E111" s="15" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F111" s="8" t="s">
         <v>271</v>
@@ -7087,7 +7150,7 @@
         <v>20</v>
       </c>
       <c r="E112" s="15" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F112" s="8" t="s">
         <v>274</v>
@@ -7193,7 +7256,7 @@
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
       <c r="E115" s="10" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F115" s="8" t="s">
         <v>298</v>
@@ -7206,7 +7269,7 @@
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="8" t="s">
-        <v>427</v>
+        <v>276</v>
       </c>
       <c r="M115" s="8"/>
       <c r="N115" s="8"/>
@@ -7299,7 +7362,7 @@
         <v>20</v>
       </c>
       <c r="E118" s="15" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F118" s="8" t="s">
         <v>302</v>
@@ -7351,7 +7414,7 @@
         <v>20</v>
       </c>
       <c r="E119" s="15" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F119" s="8" t="s">
         <v>302</v>
@@ -7403,7 +7466,7 @@
         <v>20</v>
       </c>
       <c r="E120" s="15" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F120" s="8" t="s">
         <v>302</v>
@@ -7455,7 +7518,7 @@
         <v>20</v>
       </c>
       <c r="E121" s="15" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F121" s="8" t="s">
         <v>302</v>
@@ -7509,7 +7572,7 @@
         <v>20</v>
       </c>
       <c r="E122" s="15" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F122" s="8" t="s">
         <v>302</v>
@@ -7621,7 +7684,7 @@
         <v>20</v>
       </c>
       <c r="E125" s="15" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F125" s="8" t="s">
         <v>138</v>
@@ -7671,7 +7734,7 @@
         <v>20</v>
       </c>
       <c r="E126" s="15" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F126" s="8" t="s">
         <v>138</v>
@@ -7721,7 +7784,7 @@
         <v>20</v>
       </c>
       <c r="E127" s="15" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F127" s="8" t="s">
         <v>138</v>
@@ -7771,7 +7834,7 @@
         <v>20</v>
       </c>
       <c r="E128" s="15" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F128" s="8" t="s">
         <v>138</v>
@@ -7794,7 +7857,7 @@
       </c>
       <c r="M128" s="8"/>
       <c r="N128" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="O128" s="8"/>
       <c r="P128" s="6"/>
@@ -7825,7 +7888,7 @@
         <v>20</v>
       </c>
       <c r="E129" s="15" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F129" s="8" t="s">
         <v>138</v>
@@ -7935,7 +7998,7 @@
         <v>20</v>
       </c>
       <c r="E132" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F132" s="8" t="s">
         <v>341</v>
@@ -7944,7 +8007,7 @@
         <v>342</v>
       </c>
       <c r="H132" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I132" s="8"/>
       <c r="J132" s="8" t="s">
@@ -8045,7 +8108,7 @@
         <v>20</v>
       </c>
       <c r="E135" s="15" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
@@ -8089,7 +8152,7 @@
         <v>20</v>
       </c>
       <c r="E136" s="15" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F136" s="8" t="s">
         <v>350</v>
@@ -8135,7 +8198,7 @@
         <v>20</v>
       </c>
       <c r="E137" s="15" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F137" s="8" t="s">
         <v>350</v>
@@ -8181,7 +8244,7 @@
         <v>20</v>
       </c>
       <c r="E138" s="15" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F138" s="8" t="s">
         <v>350</v>
@@ -8195,7 +8258,9 @@
         <v>356</v>
       </c>
       <c r="K138" s="8"/>
-      <c r="L138" s="8"/>
+      <c r="L138" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="M138" s="8"/>
       <c r="N138" s="8"/>
       <c r="O138" s="8"/>
@@ -8227,7 +8292,7 @@
         <v>20</v>
       </c>
       <c r="E139" s="15" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F139" s="8" t="s">
         <v>350</v>
@@ -8273,7 +8338,7 @@
         <v>20</v>
       </c>
       <c r="E140" s="15" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F140" s="8" t="s">
         <v>350</v>
@@ -8321,7 +8386,7 @@
         <v>20</v>
       </c>
       <c r="E141" s="15" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F141" s="8" t="s">
         <v>350</v>
@@ -8369,7 +8434,7 @@
         <v>20</v>
       </c>
       <c r="E142" s="15" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F142" s="8" t="s">
         <v>350</v>
@@ -8419,7 +8484,7 @@
         <v>20</v>
       </c>
       <c r="E143" s="15" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F143" s="8" t="s">
         <v>368</v>
@@ -8527,7 +8592,7 @@
         <v>20</v>
       </c>
       <c r="E146" s="15" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F146" s="8" t="s">
         <v>372</v>
@@ -8548,7 +8613,7 @@
       <c r="L146" s="8"/>
       <c r="M146" s="8"/>
       <c r="N146" s="8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O146" s="8"/>
       <c r="P146" s="6"/>
@@ -8577,7 +8642,7 @@
         <v>20</v>
       </c>
       <c r="E147" s="14" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F147" s="8" t="s">
         <v>372</v>
@@ -8687,7 +8752,7 @@
         <v>20</v>
       </c>
       <c r="E150" s="15" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F150" s="8" t="s">
         <v>381</v>
@@ -8795,7 +8860,7 @@
         <v>20</v>
       </c>
       <c r="E153" s="15" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F153" s="8" t="s">
         <v>386</v>
@@ -8843,7 +8908,7 @@
         <v>20</v>
       </c>
       <c r="E154" s="14" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F154" s="8" t="s">
         <v>386</v>
@@ -8891,7 +8956,7 @@
         <v>20</v>
       </c>
       <c r="E155" s="14" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F155" s="8" t="s">
         <v>386</v>
@@ -9001,7 +9066,7 @@
         <v>20</v>
       </c>
       <c r="E158" s="15" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F158" s="8" t="s">
         <v>398</v>
@@ -9017,7 +9082,9 @@
       <c r="K158" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="L158" s="8"/>
+      <c r="L158" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="M158" s="8"/>
       <c r="N158" s="8"/>
       <c r="O158" s="8"/>
@@ -9109,7 +9176,7 @@
         <v>20</v>
       </c>
       <c r="E161" s="15" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F161" s="8" t="s">
         <v>403</v>
@@ -9157,7 +9224,7 @@
         <v>20</v>
       </c>
       <c r="E162" s="15" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F162" s="8" t="s">
         <v>403</v>
@@ -9265,7 +9332,7 @@
         <v>20</v>
       </c>
       <c r="E165" s="15" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F165" s="8" t="s">
         <v>408</v>
@@ -9281,7 +9348,9 @@
       <c r="K165" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="L165" s="8"/>
+      <c r="L165" s="8" t="s">
+        <v>389</v>
+      </c>
       <c r="M165" s="8"/>
       <c r="N165" s="8"/>
       <c r="O165" s="8"/>
@@ -9313,7 +9382,7 @@
         <v>20</v>
       </c>
       <c r="E166" s="15" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F166" s="8" t="s">
         <v>412</v>
@@ -9361,7 +9430,7 @@
         <v>20</v>
       </c>
       <c r="E167" s="15" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F167" s="8" t="s">
         <v>414</v>
@@ -9409,7 +9478,7 @@
         <v>20</v>
       </c>
       <c r="E168" s="15" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F168" s="8" t="s">
         <v>415</v>
@@ -9487,7 +9556,7 @@
         <v>20</v>
       </c>
       <c r="E170" s="15" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F170" s="8" t="s">
         <v>372</v>
@@ -9595,7 +9664,7 @@
         <v>20</v>
       </c>
       <c r="E173" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F173" s="8" t="s">
         <v>420</v>
@@ -9703,7 +9772,7 @@
         <v>20</v>
       </c>
       <c r="E176" s="15" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F176" s="8" t="s">
         <v>368</v>
@@ -9719,7 +9788,9 @@
       <c r="K176" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="L176" s="8"/>
+      <c r="L176" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="M176" s="8"/>
       <c r="N176" s="8"/>
       <c r="O176" s="8"/>
@@ -9799,19 +9870,19 @@
     </row>
     <row r="179" spans="1:28" ht="115.5" thickBot="1">
       <c r="A179" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="B179" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="B179" s="8" t="s">
+      <c r="C179" s="8" t="s">
         <v>430</v>
-      </c>
-      <c r="C179" s="8" t="s">
-        <v>431</v>
       </c>
       <c r="D179" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E179" s="15" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F179" s="8" t="s">
         <v>368</v>
@@ -9822,15 +9893,17 @@
       </c>
       <c r="I179" s="8"/>
       <c r="J179" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K179" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L179" s="8"/>
+      <c r="L179" s="8" t="s">
+        <v>601</v>
+      </c>
       <c r="M179" s="8"/>
       <c r="N179" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="O179" s="8"/>
       <c r="P179" s="6"/>
@@ -9849,19 +9922,19 @@
     </row>
     <row r="180" spans="1:28" ht="64.5" thickBot="1">
       <c r="A180" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="B180" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="B180" s="8" t="s">
-        <v>434</v>
-      </c>
       <c r="C180" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D180" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E180" s="15" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F180" s="8" t="s">
         <v>368</v>
@@ -9872,12 +9945,14 @@
       </c>
       <c r="I180" s="8"/>
       <c r="J180" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K180" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L180" s="8"/>
+      <c r="L180" s="8" t="s">
+        <v>601</v>
+      </c>
       <c r="M180" s="8"/>
       <c r="N180" s="8"/>
       <c r="O180" s="8"/>
@@ -9957,30 +10032,30 @@
     </row>
     <row r="183" spans="1:28" ht="77.25" thickBot="1">
       <c r="A183" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="B183" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="B183" s="8" t="s">
+      <c r="C183" s="8" t="s">
         <v>437</v>
-      </c>
-      <c r="C183" s="8" t="s">
-        <v>438</v>
       </c>
       <c r="D183" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E183" s="15" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F183" s="8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G183" s="8"/>
       <c r="H183" s="12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I183" s="8"/>
       <c r="J183" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K183" s="8" t="s">
         <v>31</v>
@@ -10005,10 +10080,10 @@
     </row>
     <row r="184" spans="1:28" ht="90" thickBot="1">
       <c r="A184" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="B184" s="8" t="s">
         <v>442</v>
-      </c>
-      <c r="B184" s="8" t="s">
-        <v>443</v>
       </c>
       <c r="C184" s="17">
         <v>43921</v>
@@ -10017,18 +10092,18 @@
         <v>20</v>
       </c>
       <c r="E184" s="15" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F184" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G184" s="8"/>
       <c r="H184" s="8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I184" s="8"/>
       <c r="J184" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K184" s="8" t="s">
         <v>31</v>
@@ -10113,10 +10188,10 @@
     </row>
     <row r="187" spans="1:28" ht="77.25" thickBot="1">
       <c r="A187" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="B187" s="8" t="s">
         <v>446</v>
-      </c>
-      <c r="B187" s="8" t="s">
-        <v>447</v>
       </c>
       <c r="C187" s="17">
         <v>43921</v>
@@ -10125,7 +10200,7 @@
         <v>20</v>
       </c>
       <c r="E187" s="15" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F187" s="8" t="s">
         <v>341</v>
@@ -10134,7 +10209,7 @@
         <v>342</v>
       </c>
       <c r="H187" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I187" s="8"/>
       <c r="J187" s="8"/>
@@ -10142,7 +10217,7 @@
       <c r="L187" s="8"/>
       <c r="M187" s="8"/>
       <c r="N187" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="O187" s="8"/>
       <c r="P187" s="6"/>
@@ -10221,10 +10296,10 @@
     </row>
     <row r="190" spans="1:28" ht="51.75" thickBot="1">
       <c r="A190" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="B190" s="8" t="s">
         <v>449</v>
-      </c>
-      <c r="B190" s="8" t="s">
-        <v>450</v>
       </c>
       <c r="C190" s="17">
         <v>43921</v>
@@ -10233,7 +10308,7 @@
         <v>20</v>
       </c>
       <c r="E190" s="15" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F190" s="8" t="s">
         <v>403</v>
@@ -10246,7 +10321,7 @@
       </c>
       <c r="I190" s="8"/>
       <c r="J190" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K190" s="8"/>
       <c r="L190" s="8"/>
@@ -10269,10 +10344,10 @@
     </row>
     <row r="191" spans="1:28" ht="48" thickBot="1">
       <c r="A191" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="B191" s="8" t="s">
         <v>452</v>
-      </c>
-      <c r="B191" s="8" t="s">
-        <v>453</v>
       </c>
       <c r="C191" s="17">
         <v>43921</v>
@@ -10281,7 +10356,7 @@
         <v>20</v>
       </c>
       <c r="E191" s="15" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F191" s="8" t="s">
         <v>403</v>
@@ -10294,7 +10369,7 @@
       </c>
       <c r="I191" s="8"/>
       <c r="J191" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K191" s="8"/>
       <c r="L191" s="8"/>
@@ -10317,10 +10392,10 @@
     </row>
     <row r="192" spans="1:28" ht="51.75" thickBot="1">
       <c r="A192" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="B192" s="8" t="s">
         <v>455</v>
-      </c>
-      <c r="B192" s="8" t="s">
-        <v>456</v>
       </c>
       <c r="C192" s="17">
         <v>43921</v>
@@ -10329,7 +10404,7 @@
         <v>20</v>
       </c>
       <c r="E192" s="15" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F192" s="8" t="s">
         <v>403</v>
@@ -10342,7 +10417,7 @@
       </c>
       <c r="I192" s="8"/>
       <c r="J192" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K192" s="8"/>
       <c r="L192" s="8"/>
@@ -10365,10 +10440,10 @@
     </row>
     <row r="193" spans="1:28" ht="51.75" thickBot="1">
       <c r="A193" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="B193" s="8" t="s">
         <v>458</v>
-      </c>
-      <c r="B193" s="8" t="s">
-        <v>459</v>
       </c>
       <c r="C193" s="17">
         <v>43921</v>
@@ -10377,7 +10452,7 @@
         <v>20</v>
       </c>
       <c r="E193" s="15" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F193" s="8" t="s">
         <v>403</v>
@@ -10390,7 +10465,7 @@
       </c>
       <c r="I193" s="8"/>
       <c r="J193" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K193" s="8"/>
       <c r="L193" s="8"/>
@@ -10473,10 +10548,10 @@
     </row>
     <row r="196" spans="1:28" ht="64.5" thickBot="1">
       <c r="A196" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="B196" s="8" t="s">
         <v>582</v>
-      </c>
-      <c r="B196" s="8" t="s">
-        <v>583</v>
       </c>
       <c r="C196" s="17">
         <v>43922</v>
@@ -10485,7 +10560,7 @@
         <v>20</v>
       </c>
       <c r="E196" s="15" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F196" s="8" t="s">
         <v>138</v>
@@ -10498,10 +10573,12 @@
       </c>
       <c r="I196" s="8"/>
       <c r="J196" s="8" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="K196" s="8"/>
-      <c r="L196" s="8"/>
+      <c r="L196" s="8" t="s">
+        <v>602</v>
+      </c>
       <c r="M196" s="8"/>
       <c r="N196" s="8"/>
       <c r="O196" s="8"/>
@@ -10521,10 +10598,10 @@
     </row>
     <row r="197" spans="1:28" ht="64.5" thickBot="1">
       <c r="A197" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="B197" s="8" t="s">
         <v>586</v>
-      </c>
-      <c r="B197" s="8" t="s">
-        <v>587</v>
       </c>
       <c r="C197" s="17">
         <v>43922</v>
@@ -10533,7 +10610,7 @@
         <v>20</v>
       </c>
       <c r="E197" s="15" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F197" s="8" t="s">
         <v>138</v>
@@ -10546,10 +10623,12 @@
       </c>
       <c r="I197" s="8"/>
       <c r="J197" s="8" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="K197" s="8"/>
-      <c r="L197" s="8"/>
+      <c r="L197" s="8" t="s">
+        <v>602</v>
+      </c>
       <c r="M197" s="8"/>
       <c r="N197" s="8"/>
       <c r="O197" s="8"/>
@@ -10569,10 +10648,10 @@
     </row>
     <row r="198" spans="1:28" ht="64.5" thickBot="1">
       <c r="A198" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="B198" s="8" t="s">
         <v>589</v>
-      </c>
-      <c r="B198" s="8" t="s">
-        <v>590</v>
       </c>
       <c r="C198" s="17">
         <v>43922</v>
@@ -10581,7 +10660,7 @@
         <v>20</v>
       </c>
       <c r="E198" s="15" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F198" s="8" t="s">
         <v>138</v>
@@ -10599,7 +10678,9 @@
       <c r="K198" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L198" s="8"/>
+      <c r="L198" s="8" t="s">
+        <v>602</v>
+      </c>
       <c r="M198" s="8"/>
       <c r="N198" s="8"/>
       <c r="O198" s="8"/>
@@ -10619,10 +10700,10 @@
     </row>
     <row r="199" spans="1:28" ht="64.5" thickBot="1">
       <c r="A199" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="B199" s="8" t="s">
         <v>592</v>
-      </c>
-      <c r="B199" s="8" t="s">
-        <v>593</v>
       </c>
       <c r="C199" s="17">
         <v>43922</v>
@@ -10631,7 +10712,7 @@
         <v>20</v>
       </c>
       <c r="E199" s="15" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F199" s="8" t="s">
         <v>138</v>
@@ -10649,7 +10730,9 @@
       <c r="K199" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L199" s="8"/>
+      <c r="L199" s="8" t="s">
+        <v>602</v>
+      </c>
       <c r="M199" s="8"/>
       <c r="N199" s="8"/>
       <c r="O199" s="8"/>
@@ -10729,10 +10812,10 @@
     </row>
     <row r="202" spans="1:28" ht="51.75" thickBot="1">
       <c r="A202" s="8" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C202" s="17">
         <v>43922</v>
@@ -10745,7 +10828,7 @@
         <v>372</v>
       </c>
       <c r="G202" s="8" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H202" s="8"/>
       <c r="I202" s="8"/>
@@ -10753,7 +10836,7 @@
       <c r="K202" s="8"/>
       <c r="L202" s="8"/>
       <c r="M202" s="8" t="s">
-        <v>35</v>
+        <v>389</v>
       </c>
       <c r="N202" s="8"/>
       <c r="O202" s="8"/>
@@ -10773,10 +10856,10 @@
     </row>
     <row r="203" spans="1:28" ht="39" thickBot="1">
       <c r="A203" s="8" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C203" s="17">
         <v>43922</v>
@@ -10789,7 +10872,7 @@
         <v>368</v>
       </c>
       <c r="G203" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H203" s="8"/>
       <c r="I203" s="8"/>
@@ -10797,7 +10880,7 @@
       <c r="K203" s="8"/>
       <c r="L203" s="8"/>
       <c r="M203" s="8" t="s">
-        <v>35</v>
+        <v>389</v>
       </c>
       <c r="N203" s="8"/>
       <c r="O203" s="8"/>
@@ -10817,10 +10900,10 @@
     </row>
     <row r="204" spans="1:28" ht="39" thickBot="1">
       <c r="A204" s="8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C204" s="17">
         <v>43922</v>
@@ -10841,7 +10924,7 @@
       <c r="K204" s="8"/>
       <c r="L204" s="8"/>
       <c r="M204" s="8" t="s">
-        <v>35</v>
+        <v>389</v>
       </c>
       <c r="N204" s="8"/>
       <c r="O204" s="8"/>
@@ -10861,10 +10944,10 @@
     </row>
     <row r="205" spans="1:28" ht="39" thickBot="1">
       <c r="A205" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C205" s="17">
         <v>43922</v>
@@ -10883,9 +10966,11 @@
       <c r="I205" s="8"/>
       <c r="J205" s="8"/>
       <c r="K205" s="8"/>
-      <c r="L205" s="8"/>
+      <c r="L205" s="8" t="s">
+        <v>602</v>
+      </c>
       <c r="M205" s="8" t="s">
-        <v>35</v>
+        <v>389</v>
       </c>
       <c r="N205" s="8"/>
       <c r="O205" s="8"/>
@@ -10963,14 +11048,26 @@
       <c r="AA207" s="6"/>
       <c r="AB207" s="6"/>
     </row>
-    <row r="208" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A208" s="8"/>
-      <c r="B208" s="8"/>
-      <c r="C208" s="8"/>
-      <c r="D208" s="8"/>
+    <row r="208" spans="1:28" ht="64.5" thickBot="1">
+      <c r="A208" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="B208" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="C208" s="17">
+        <v>43923</v>
+      </c>
+      <c r="D208" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E208" s="8"/>
-      <c r="F208" s="8"/>
-      <c r="G208" s="8"/>
+      <c r="F208" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G208" s="8" t="s">
+        <v>324</v>
+      </c>
       <c r="H208" s="8"/>
       <c r="I208" s="8"/>
       <c r="J208" s="8"/>
@@ -10993,14 +11090,26 @@
       <c r="AA208" s="6"/>
       <c r="AB208" s="6"/>
     </row>
-    <row r="209" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A209" s="8"/>
-      <c r="B209" s="8"/>
-      <c r="C209" s="8"/>
-      <c r="D209" s="8"/>
+    <row r="209" spans="1:28" ht="64.5" thickBot="1">
+      <c r="A209" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="B209" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="C209" s="17">
+        <v>43923</v>
+      </c>
+      <c r="D209" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E209" s="8"/>
-      <c r="F209" s="8"/>
-      <c r="G209" s="8"/>
+      <c r="F209" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G209" s="8" t="s">
+        <v>324</v>
+      </c>
       <c r="H209" s="8"/>
       <c r="I209" s="8"/>
       <c r="J209" s="8"/>
@@ -11083,14 +11192,26 @@
       <c r="AA211" s="6"/>
       <c r="AB211" s="6"/>
     </row>
-    <row r="212" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A212" s="8"/>
-      <c r="B212" s="8"/>
-      <c r="C212" s="8"/>
-      <c r="D212" s="8"/>
+    <row r="212" spans="1:28" ht="39" thickBot="1">
+      <c r="A212" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="B212" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="C212" s="17">
+        <v>43923</v>
+      </c>
+      <c r="D212" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E212" s="8"/>
-      <c r="F212" s="8"/>
-      <c r="G212" s="8"/>
+      <c r="F212" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="G212" s="8" t="s">
+        <v>399</v>
+      </c>
       <c r="H212" s="8"/>
       <c r="I212" s="8"/>
       <c r="J212" s="8"/>
@@ -11173,17 +11294,31 @@
       <c r="AA214" s="6"/>
       <c r="AB214" s="6"/>
     </row>
-    <row r="215" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A215" s="8"/>
-      <c r="B215" s="8"/>
-      <c r="C215" s="8"/>
-      <c r="D215" s="8"/>
+    <row r="215" spans="1:28" ht="115.5" thickBot="1">
+      <c r="A215" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="B215" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="C215" s="17">
+        <v>43923</v>
+      </c>
+      <c r="D215" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E215" s="8"/>
-      <c r="F215" s="8"/>
+      <c r="F215" s="8" t="s">
+        <v>612</v>
+      </c>
       <c r="G215" s="8"/>
-      <c r="H215" s="8"/>
+      <c r="H215" s="8" t="s">
+        <v>613</v>
+      </c>
       <c r="I215" s="8"/>
-      <c r="J215" s="8"/>
+      <c r="J215" s="8" t="s">
+        <v>614</v>
+      </c>
       <c r="K215" s="8"/>
       <c r="L215" s="8"/>
       <c r="M215" s="8"/>
@@ -11203,17 +11338,31 @@
       <c r="AA215" s="6"/>
       <c r="AB215" s="6"/>
     </row>
-    <row r="216" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A216" s="8"/>
-      <c r="B216" s="8"/>
-      <c r="C216" s="8"/>
-      <c r="D216" s="8"/>
+    <row r="216" spans="1:28" ht="90" thickBot="1">
+      <c r="A216" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="B216" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="C216" s="17">
+        <v>43923</v>
+      </c>
+      <c r="D216" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E216" s="8"/>
-      <c r="F216" s="8"/>
+      <c r="F216" s="8" t="s">
+        <v>616</v>
+      </c>
       <c r="G216" s="8"/>
-      <c r="H216" s="8"/>
+      <c r="H216" s="8" t="s">
+        <v>613</v>
+      </c>
       <c r="I216" s="8"/>
-      <c r="J216" s="8"/>
+      <c r="J216" s="8" t="s">
+        <v>617</v>
+      </c>
       <c r="K216" s="8"/>
       <c r="L216" s="8"/>
       <c r="M216" s="8"/>

--- a/BIDMC/np_swab_results.xlsx
+++ b/BIDMC/np_swab_results.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="629">
   <si>
     <t>Date of test</t>
   </si>
@@ -1407,9 +1407,6 @@
     <t>Did not pass - appropriate body design and stiffness, but material is still brittle and somewhat rough</t>
   </si>
   <si>
-    <t>Test 4: Status 3 days post autoclave</t>
-  </si>
-  <si>
     <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Puritan/puritan_sterile_polyester_tipped_applicator_25-805_1PD.png</t>
   </si>
   <si>
@@ -1869,16 +1866,52 @@
     <t>Richard Novak. Richard.Novak@wyss.harvard.edu</t>
   </si>
   <si>
-    <t>Pass - appropriate body design, and tip head appropriately flexible and stiff. Body design should be smoother (some support attachments points too sharp) and breakpoint should be easier</t>
-  </si>
-  <si>
     <t>WIM-002</t>
   </si>
   <si>
     <t>nylon</t>
   </si>
   <si>
-    <t>Pass - but tip head preferable from 001. Body design should be smoother (some support attachments points too sharp) and breakpoint should be easier</t>
+    <t>Test 4: 24hrs Post autoclave. Bend test</t>
+  </si>
+  <si>
+    <t>Pass - Evaluator 1: appropriate body design, and tip head appropriately flexible and stiff. Body design should be smoother (some support attachments points too sharp) and breakpoint should be easier. Evaluator 2: tip is sharp and inflexible</t>
+  </si>
+  <si>
+    <t>Pass. Much less material than WIM-002.</t>
+  </si>
+  <si>
+    <t>Pass - Evaluator 1: but tip head preferable from 001. Body design should be smoother (some support attachments points too sharp) and breakpoint should be easier. Evaluator 2: tip is sharp and inflexible</t>
+  </si>
+  <si>
+    <t>Pass, but not much material.</t>
+  </si>
+  <si>
+    <t>O_2A_2_1</t>
+  </si>
+  <si>
+    <t>O_2A_2 tip on O_2A_1 neck</t>
+  </si>
+  <si>
+    <t>O_2A_2_2</t>
+  </si>
+  <si>
+    <t>O_2A_2_2 new tip for smoothness</t>
+  </si>
+  <si>
+    <t>EV_2_2</t>
+  </si>
+  <si>
+    <t>Envisiontec autoclaved swab</t>
+  </si>
+  <si>
+    <t>Material E Guide Soft</t>
+  </si>
+  <si>
+    <t>IPA wash. Cured 15 min 60 PCA 2000, Rose-Print-S. Sterilized 270F in an M11 Ultraclave</t>
+  </si>
+  <si>
+    <t>Pass-edges of tip are sharp</t>
   </si>
 </sst>
 </file>
@@ -2355,7 +2388,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2366,7 +2399,7 @@
   <dimension ref="A1:AB1026"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B206" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B213" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" sqref="A1:AB1026"/>
@@ -2426,7 +2459,7 @@
         <v>8</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>460</v>
+        <v>615</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>9</v>
@@ -2508,7 +2541,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>21</v>
@@ -2558,7 +2591,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>21</v>
@@ -2608,7 +2641,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
@@ -2658,7 +2691,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6" t="s">
@@ -2964,7 +2997,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -3010,7 +3043,7 @@
         <v>20</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -3056,7 +3089,7 @@
         <v>20</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -3102,7 +3135,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -3144,7 +3177,7 @@
         <v>20</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -3188,7 +3221,7 @@
         <v>20</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -3230,7 +3263,7 @@
         <v>20</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -3278,7 +3311,7 @@
         <v>20</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -3320,7 +3353,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -3362,7 +3395,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -3404,7 +3437,7 @@
         <v>20</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -3446,7 +3479,7 @@
         <v>20</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -3490,7 +3523,7 @@
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -3530,7 +3563,7 @@
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -3614,7 +3647,7 @@
         <v>20</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>48</v>
@@ -3662,7 +3695,7 @@
         <v>20</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>51</v>
@@ -3708,7 +3741,7 @@
         <v>20</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>55</v>
@@ -3754,7 +3787,7 @@
         <v>20</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>58</v>
@@ -3800,7 +3833,7 @@
         <v>20</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>60</v>
@@ -3846,7 +3879,7 @@
         <v>20</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>62</v>
@@ -3892,7 +3925,7 @@
         <v>20</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>64</v>
@@ -3938,7 +3971,7 @@
         <v>20</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>51</v>
@@ -3984,7 +4017,7 @@
         <v>67</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>68</v>
@@ -4124,7 +4157,7 @@
         <v>20</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
@@ -4168,7 +4201,7 @@
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="14" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
@@ -4183,7 +4216,7 @@
         <v>31</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
@@ -4212,7 +4245,7 @@
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="14" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
@@ -4227,7 +4260,7 @@
         <v>31</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
@@ -4256,7 +4289,7 @@
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="14" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
@@ -4271,7 +4304,7 @@
         <v>31</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
@@ -4300,7 +4333,7 @@
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
@@ -4315,7 +4348,7 @@
         <v>31</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
@@ -4346,7 +4379,7 @@
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="15" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
@@ -4361,7 +4394,7 @@
         <v>31</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
@@ -4484,7 +4517,7 @@
         <v>20</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
@@ -4532,7 +4565,7 @@
         <v>20</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
@@ -4642,7 +4675,7 @@
         <v>20</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
@@ -4690,7 +4723,7 @@
         <v>20</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
@@ -4796,7 +4829,7 @@
         <v>20</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F57" s="8" t="s">
         <v>138</v>
@@ -4844,7 +4877,7 @@
         <v>20</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F58" s="8" t="s">
         <v>138</v>
@@ -4892,7 +4925,7 @@
         <v>20</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F59" s="8" t="s">
         <v>138</v>
@@ -4942,7 +4975,7 @@
         <v>20</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F60" s="8" t="s">
         <v>138</v>
@@ -4990,7 +5023,7 @@
         <v>20</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F61" s="8" t="s">
         <v>138</v>
@@ -5038,7 +5071,7 @@
         <v>20</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F62" s="8" t="s">
         <v>138</v>
@@ -5086,7 +5119,7 @@
         <v>20</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F63" s="8" t="s">
         <v>138</v>
@@ -5134,7 +5167,7 @@
         <v>20</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F64" s="8" t="s">
         <v>138</v>
@@ -5240,7 +5273,7 @@
         <v>20</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F67" s="8" t="s">
         <v>160</v>
@@ -5320,7 +5353,7 @@
         <v>20</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
@@ -5368,7 +5401,7 @@
         <v>20</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
@@ -5474,7 +5507,7 @@
         <v>20</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
@@ -5582,7 +5615,7 @@
         <v>20</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
@@ -5630,7 +5663,7 @@
         <v>20</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
@@ -5676,7 +5709,7 @@
         <v>20</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
@@ -5722,7 +5755,7 @@
         <v>20</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
@@ -5768,7 +5801,7 @@
         <v>20</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
@@ -5814,7 +5847,7 @@
         <v>20</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
@@ -5918,7 +5951,7 @@
         <v>20</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
@@ -5964,7 +5997,7 @@
         <v>20</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
@@ -6010,7 +6043,7 @@
         <v>20</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
@@ -6056,7 +6089,7 @@
         <v>20</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
@@ -6622,7 +6655,7 @@
         <v>20</v>
       </c>
       <c r="E101" s="15" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F101" s="8" t="s">
         <v>241</v>
@@ -6670,7 +6703,7 @@
         <v>20</v>
       </c>
       <c r="E102" s="15" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F102" s="8" t="s">
         <v>245</v>
@@ -6718,7 +6751,7 @@
         <v>20</v>
       </c>
       <c r="E103" s="15" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F103" s="8" t="s">
         <v>248</v>
@@ -6766,7 +6799,7 @@
         <v>20</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F104" s="8" t="s">
         <v>251</v>
@@ -6814,7 +6847,7 @@
         <v>20</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F105" s="8" t="s">
         <v>254</v>
@@ -6862,7 +6895,7 @@
         <v>20</v>
       </c>
       <c r="E106" s="15" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F106" s="8" t="s">
         <v>257</v>
@@ -6910,7 +6943,7 @@
         <v>20</v>
       </c>
       <c r="E107" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F107" s="8" t="s">
         <v>260</v>
@@ -6958,7 +6991,7 @@
         <v>20</v>
       </c>
       <c r="E108" s="15" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F108" s="8" t="s">
         <v>262</v>
@@ -7006,7 +7039,7 @@
         <v>20</v>
       </c>
       <c r="E109" s="15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F109" s="8" t="s">
         <v>265</v>
@@ -7054,7 +7087,7 @@
         <v>20</v>
       </c>
       <c r="E110" s="15" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F110" s="8" t="s">
         <v>268</v>
@@ -7102,7 +7135,7 @@
         <v>20</v>
       </c>
       <c r="E111" s="15" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F111" s="8" t="s">
         <v>271</v>
@@ -7150,7 +7183,7 @@
         <v>20</v>
       </c>
       <c r="E112" s="15" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F112" s="8" t="s">
         <v>274</v>
@@ -7256,7 +7289,7 @@
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
       <c r="E115" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F115" s="8" t="s">
         <v>298</v>
@@ -7362,7 +7395,7 @@
         <v>20</v>
       </c>
       <c r="E118" s="15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F118" s="8" t="s">
         <v>302</v>
@@ -7414,7 +7447,7 @@
         <v>20</v>
       </c>
       <c r="E119" s="15" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F119" s="8" t="s">
         <v>302</v>
@@ -7466,7 +7499,7 @@
         <v>20</v>
       </c>
       <c r="E120" s="15" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F120" s="8" t="s">
         <v>302</v>
@@ -7518,7 +7551,7 @@
         <v>20</v>
       </c>
       <c r="E121" s="15" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F121" s="8" t="s">
         <v>302</v>
@@ -7572,7 +7605,7 @@
         <v>20</v>
       </c>
       <c r="E122" s="15" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F122" s="8" t="s">
         <v>302</v>
@@ -7684,7 +7717,7 @@
         <v>20</v>
       </c>
       <c r="E125" s="15" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F125" s="8" t="s">
         <v>138</v>
@@ -7734,7 +7767,7 @@
         <v>20</v>
       </c>
       <c r="E126" s="15" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F126" s="8" t="s">
         <v>138</v>
@@ -7784,7 +7817,7 @@
         <v>20</v>
       </c>
       <c r="E127" s="15" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F127" s="8" t="s">
         <v>138</v>
@@ -7834,7 +7867,7 @@
         <v>20</v>
       </c>
       <c r="E128" s="15" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F128" s="8" t="s">
         <v>138</v>
@@ -7857,7 +7890,7 @@
       </c>
       <c r="M128" s="8"/>
       <c r="N128" s="8" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="O128" s="8"/>
       <c r="P128" s="6"/>
@@ -7888,7 +7921,7 @@
         <v>20</v>
       </c>
       <c r="E129" s="15" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F129" s="8" t="s">
         <v>138</v>
@@ -7998,7 +8031,7 @@
         <v>20</v>
       </c>
       <c r="E132" s="15" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F132" s="8" t="s">
         <v>341</v>
@@ -8108,7 +8141,7 @@
         <v>20</v>
       </c>
       <c r="E135" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
@@ -8152,7 +8185,7 @@
         <v>20</v>
       </c>
       <c r="E136" s="15" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F136" s="8" t="s">
         <v>350</v>
@@ -8198,7 +8231,7 @@
         <v>20</v>
       </c>
       <c r="E137" s="15" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F137" s="8" t="s">
         <v>350</v>
@@ -8244,7 +8277,7 @@
         <v>20</v>
       </c>
       <c r="E138" s="15" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F138" s="8" t="s">
         <v>350</v>
@@ -8292,7 +8325,7 @@
         <v>20</v>
       </c>
       <c r="E139" s="15" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F139" s="8" t="s">
         <v>350</v>
@@ -8338,7 +8371,7 @@
         <v>20</v>
       </c>
       <c r="E140" s="15" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F140" s="8" t="s">
         <v>350</v>
@@ -8386,7 +8419,7 @@
         <v>20</v>
       </c>
       <c r="E141" s="15" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F141" s="8" t="s">
         <v>350</v>
@@ -8434,7 +8467,7 @@
         <v>20</v>
       </c>
       <c r="E142" s="15" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F142" s="8" t="s">
         <v>350</v>
@@ -8484,7 +8517,7 @@
         <v>20</v>
       </c>
       <c r="E143" s="15" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F143" s="8" t="s">
         <v>368</v>
@@ -8592,7 +8625,7 @@
         <v>20</v>
       </c>
       <c r="E146" s="15" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F146" s="8" t="s">
         <v>372</v>
@@ -8613,7 +8646,7 @@
       <c r="L146" s="8"/>
       <c r="M146" s="8"/>
       <c r="N146" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="O146" s="8"/>
       <c r="P146" s="6"/>
@@ -8642,7 +8675,7 @@
         <v>20</v>
       </c>
       <c r="E147" s="14" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F147" s="8" t="s">
         <v>372</v>
@@ -8752,7 +8785,7 @@
         <v>20</v>
       </c>
       <c r="E150" s="15" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F150" s="8" t="s">
         <v>381</v>
@@ -8860,7 +8893,7 @@
         <v>20</v>
       </c>
       <c r="E153" s="15" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F153" s="8" t="s">
         <v>386</v>
@@ -8908,7 +8941,7 @@
         <v>20</v>
       </c>
       <c r="E154" s="14" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F154" s="8" t="s">
         <v>386</v>
@@ -8956,7 +8989,7 @@
         <v>20</v>
       </c>
       <c r="E155" s="14" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F155" s="8" t="s">
         <v>386</v>
@@ -9066,7 +9099,7 @@
         <v>20</v>
       </c>
       <c r="E158" s="15" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F158" s="8" t="s">
         <v>398</v>
@@ -9176,7 +9209,7 @@
         <v>20</v>
       </c>
       <c r="E161" s="15" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F161" s="8" t="s">
         <v>403</v>
@@ -9224,7 +9257,7 @@
         <v>20</v>
       </c>
       <c r="E162" s="15" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F162" s="8" t="s">
         <v>403</v>
@@ -9332,7 +9365,7 @@
         <v>20</v>
       </c>
       <c r="E165" s="15" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F165" s="8" t="s">
         <v>408</v>
@@ -9382,7 +9415,7 @@
         <v>20</v>
       </c>
       <c r="E166" s="15" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F166" s="8" t="s">
         <v>412</v>
@@ -9430,7 +9463,7 @@
         <v>20</v>
       </c>
       <c r="E167" s="15" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F167" s="8" t="s">
         <v>414</v>
@@ -9478,7 +9511,7 @@
         <v>20</v>
       </c>
       <c r="E168" s="15" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F168" s="8" t="s">
         <v>415</v>
@@ -9556,7 +9589,7 @@
         <v>20</v>
       </c>
       <c r="E170" s="15" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F170" s="8" t="s">
         <v>372</v>
@@ -9664,7 +9697,7 @@
         <v>20</v>
       </c>
       <c r="E173" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F173" s="8" t="s">
         <v>420</v>
@@ -9772,7 +9805,7 @@
         <v>20</v>
       </c>
       <c r="E176" s="15" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F176" s="8" t="s">
         <v>368</v>
@@ -9882,7 +9915,7 @@
         <v>20</v>
       </c>
       <c r="E179" s="15" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F179" s="8" t="s">
         <v>368</v>
@@ -9899,11 +9932,11 @@
         <v>31</v>
       </c>
       <c r="L179" s="8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M179" s="8"/>
       <c r="N179" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="O179" s="8"/>
       <c r="P179" s="6"/>
@@ -9934,7 +9967,7 @@
         <v>20</v>
       </c>
       <c r="E180" s="15" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F180" s="8" t="s">
         <v>368</v>
@@ -9951,7 +9984,7 @@
         <v>31</v>
       </c>
       <c r="L180" s="8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M180" s="8"/>
       <c r="N180" s="8"/>
@@ -10044,7 +10077,7 @@
         <v>20</v>
       </c>
       <c r="E183" s="15" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F183" s="8" t="s">
         <v>438</v>
@@ -10092,7 +10125,7 @@
         <v>20</v>
       </c>
       <c r="E184" s="15" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F184" s="8" t="s">
         <v>443</v>
@@ -10200,7 +10233,7 @@
         <v>20</v>
       </c>
       <c r="E187" s="15" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F187" s="8" t="s">
         <v>341</v>
@@ -10217,7 +10250,7 @@
       <c r="L187" s="8"/>
       <c r="M187" s="8"/>
       <c r="N187" s="8" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="O187" s="8"/>
       <c r="P187" s="6"/>
@@ -10308,7 +10341,7 @@
         <v>20</v>
       </c>
       <c r="E190" s="15" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F190" s="8" t="s">
         <v>403</v>
@@ -10356,7 +10389,7 @@
         <v>20</v>
       </c>
       <c r="E191" s="15" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F191" s="8" t="s">
         <v>403</v>
@@ -10404,7 +10437,7 @@
         <v>20</v>
       </c>
       <c r="E192" s="15" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F192" s="8" t="s">
         <v>403</v>
@@ -10452,7 +10485,7 @@
         <v>20</v>
       </c>
       <c r="E193" s="15" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F193" s="8" t="s">
         <v>403</v>
@@ -10548,10 +10581,10 @@
     </row>
     <row r="196" spans="1:28" ht="64.5" thickBot="1">
       <c r="A196" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="B196" s="8" t="s">
         <v>581</v>
-      </c>
-      <c r="B196" s="8" t="s">
-        <v>582</v>
       </c>
       <c r="C196" s="17">
         <v>43922</v>
@@ -10560,7 +10593,7 @@
         <v>20</v>
       </c>
       <c r="E196" s="15" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F196" s="8" t="s">
         <v>138</v>
@@ -10573,11 +10606,11 @@
       </c>
       <c r="I196" s="8"/>
       <c r="J196" s="8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="K196" s="8"/>
       <c r="L196" s="8" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="M196" s="8"/>
       <c r="N196" s="8"/>
@@ -10598,10 +10631,10 @@
     </row>
     <row r="197" spans="1:28" ht="64.5" thickBot="1">
       <c r="A197" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="B197" s="8" t="s">
         <v>585</v>
-      </c>
-      <c r="B197" s="8" t="s">
-        <v>586</v>
       </c>
       <c r="C197" s="17">
         <v>43922</v>
@@ -10610,7 +10643,7 @@
         <v>20</v>
       </c>
       <c r="E197" s="15" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F197" s="8" t="s">
         <v>138</v>
@@ -10623,11 +10656,11 @@
       </c>
       <c r="I197" s="8"/>
       <c r="J197" s="8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="K197" s="8"/>
       <c r="L197" s="8" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="M197" s="8"/>
       <c r="N197" s="8"/>
@@ -10648,10 +10681,10 @@
     </row>
     <row r="198" spans="1:28" ht="64.5" thickBot="1">
       <c r="A198" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="B198" s="8" t="s">
         <v>588</v>
-      </c>
-      <c r="B198" s="8" t="s">
-        <v>589</v>
       </c>
       <c r="C198" s="17">
         <v>43922</v>
@@ -10660,7 +10693,7 @@
         <v>20</v>
       </c>
       <c r="E198" s="15" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F198" s="8" t="s">
         <v>138</v>
@@ -10679,7 +10712,7 @@
         <v>31</v>
       </c>
       <c r="L198" s="8" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="M198" s="8"/>
       <c r="N198" s="8"/>
@@ -10700,10 +10733,10 @@
     </row>
     <row r="199" spans="1:28" ht="64.5" thickBot="1">
       <c r="A199" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="B199" s="8" t="s">
         <v>591</v>
-      </c>
-      <c r="B199" s="8" t="s">
-        <v>592</v>
       </c>
       <c r="C199" s="17">
         <v>43922</v>
@@ -10712,7 +10745,7 @@
         <v>20</v>
       </c>
       <c r="E199" s="15" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F199" s="8" t="s">
         <v>138</v>
@@ -10731,7 +10764,7 @@
         <v>31</v>
       </c>
       <c r="L199" s="8" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="M199" s="8"/>
       <c r="N199" s="8"/>
@@ -10812,10 +10845,10 @@
     </row>
     <row r="202" spans="1:28" ht="51.75" thickBot="1">
       <c r="A202" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C202" s="17">
         <v>43922</v>
@@ -10828,7 +10861,7 @@
         <v>372</v>
       </c>
       <c r="G202" s="8" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H202" s="8"/>
       <c r="I202" s="8"/>
@@ -10856,10 +10889,10 @@
     </row>
     <row r="203" spans="1:28" ht="39" thickBot="1">
       <c r="A203" s="8" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C203" s="17">
         <v>43922</v>
@@ -10872,7 +10905,7 @@
         <v>368</v>
       </c>
       <c r="G203" s="8" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H203" s="8"/>
       <c r="I203" s="8"/>
@@ -10900,10 +10933,10 @@
     </row>
     <row r="204" spans="1:28" ht="39" thickBot="1">
       <c r="A204" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C204" s="17">
         <v>43922</v>
@@ -10944,10 +10977,10 @@
     </row>
     <row r="205" spans="1:28" ht="39" thickBot="1">
       <c r="A205" s="8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C205" s="17">
         <v>43922</v>
@@ -10967,7 +11000,7 @@
       <c r="J205" s="8"/>
       <c r="K205" s="8"/>
       <c r="L205" s="8" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="M205" s="8" t="s">
         <v>389</v>
@@ -11050,10 +11083,10 @@
     </row>
     <row r="208" spans="1:28" ht="64.5" thickBot="1">
       <c r="A208" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="B208" s="8" t="s">
         <v>603</v>
-      </c>
-      <c r="B208" s="8" t="s">
-        <v>604</v>
       </c>
       <c r="C208" s="17">
         <v>43923</v>
@@ -11092,10 +11125,10 @@
     </row>
     <row r="209" spans="1:28" ht="64.5" thickBot="1">
       <c r="A209" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="B209" s="8" t="s">
         <v>605</v>
-      </c>
-      <c r="B209" s="8" t="s">
-        <v>606</v>
       </c>
       <c r="C209" s="17">
         <v>43923</v>
@@ -11194,10 +11227,10 @@
     </row>
     <row r="212" spans="1:28" ht="39" thickBot="1">
       <c r="A212" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="B212" s="8" t="s">
         <v>607</v>
-      </c>
-      <c r="B212" s="8" t="s">
-        <v>608</v>
       </c>
       <c r="C212" s="17">
         <v>43923</v>
@@ -11207,7 +11240,7 @@
       </c>
       <c r="E212" s="8"/>
       <c r="F212" s="8" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G212" s="8" t="s">
         <v>399</v>
@@ -11217,7 +11250,9 @@
       <c r="J212" s="8"/>
       <c r="K212" s="8"/>
       <c r="L212" s="8"/>
-      <c r="M212" s="8"/>
+      <c r="M212" s="8" t="s">
+        <v>276</v>
+      </c>
       <c r="N212" s="8"/>
       <c r="O212" s="8"/>
       <c r="P212" s="6"/>
@@ -11294,12 +11329,12 @@
       <c r="AA214" s="6"/>
       <c r="AB214" s="6"/>
     </row>
-    <row r="215" spans="1:28" ht="115.5" thickBot="1">
+    <row r="215" spans="1:28" ht="141" thickBot="1">
       <c r="A215" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="B215" s="8" t="s">
         <v>610</v>
-      </c>
-      <c r="B215" s="8" t="s">
-        <v>611</v>
       </c>
       <c r="C215" s="17">
         <v>43923</v>
@@ -11309,17 +11344,19 @@
       </c>
       <c r="E215" s="8"/>
       <c r="F215" s="8" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G215" s="8"/>
       <c r="H215" s="8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I215" s="8"/>
       <c r="J215" s="8" t="s">
-        <v>614</v>
-      </c>
-      <c r="K215" s="8"/>
+        <v>616</v>
+      </c>
+      <c r="K215" s="8" t="s">
+        <v>617</v>
+      </c>
       <c r="L215" s="8"/>
       <c r="M215" s="8"/>
       <c r="N215" s="8"/>
@@ -11338,12 +11375,12 @@
       <c r="AA215" s="6"/>
       <c r="AB215" s="6"/>
     </row>
-    <row r="216" spans="1:28" ht="90" thickBot="1">
+    <row r="216" spans="1:28" ht="115.5" thickBot="1">
       <c r="A216" s="8" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C216" s="17">
         <v>43923</v>
@@ -11353,17 +11390,19 @@
       </c>
       <c r="E216" s="8"/>
       <c r="F216" s="8" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G216" s="8"/>
       <c r="H216" s="8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I216" s="8"/>
       <c r="J216" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="K216" s="8"/>
+        <v>618</v>
+      </c>
+      <c r="K216" s="8" t="s">
+        <v>619</v>
+      </c>
       <c r="L216" s="8"/>
       <c r="M216" s="8"/>
       <c r="N216" s="8"/>
@@ -11442,18 +11481,32 @@
       <c r="AA218" s="6"/>
       <c r="AB218" s="6"/>
     </row>
-    <row r="219" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A219" s="8"/>
-      <c r="B219" s="8"/>
-      <c r="C219" s="8"/>
-      <c r="D219" s="8"/>
+    <row r="219" spans="1:28" ht="39" thickBot="1">
+      <c r="A219" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="B219" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="C219" s="17">
+        <v>43924</v>
+      </c>
+      <c r="D219" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E219" s="8"/>
-      <c r="F219" s="8"/>
-      <c r="G219" s="8"/>
+      <c r="F219" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="G219" s="8" t="s">
+        <v>368</v>
+      </c>
       <c r="H219" s="8"/>
       <c r="I219" s="8"/>
       <c r="J219" s="8"/>
-      <c r="K219" s="8"/>
+      <c r="K219" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="L219" s="8"/>
       <c r="M219" s="8"/>
       <c r="N219" s="8"/>
@@ -11472,20 +11525,36 @@
       <c r="AA219" s="6"/>
       <c r="AB219" s="6"/>
     </row>
-    <row r="220" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A220" s="8"/>
-      <c r="B220" s="8"/>
-      <c r="C220" s="8"/>
-      <c r="D220" s="8"/>
+    <row r="220" spans="1:28" ht="39" thickBot="1">
+      <c r="A220" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="B220" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="C220" s="17">
+        <v>43924</v>
+      </c>
+      <c r="D220" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E220" s="8"/>
-      <c r="F220" s="8"/>
-      <c r="G220" s="8"/>
+      <c r="F220" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="G220" s="8" t="s">
+        <v>368</v>
+      </c>
       <c r="H220" s="8"/>
       <c r="I220" s="8"/>
       <c r="J220" s="8"/>
-      <c r="K220" s="8"/>
+      <c r="K220" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="L220" s="8"/>
-      <c r="M220" s="8"/>
+      <c r="M220" s="8" t="s">
+        <v>389</v>
+      </c>
       <c r="N220" s="8"/>
       <c r="O220" s="8"/>
       <c r="P220" s="6"/>
@@ -11562,18 +11631,36 @@
       <c r="AA222" s="6"/>
       <c r="AB222" s="6"/>
     </row>
-    <row r="223" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A223" s="8"/>
-      <c r="B223" s="8"/>
-      <c r="C223" s="8"/>
-      <c r="D223" s="8"/>
+    <row r="223" spans="1:28" ht="51.75" thickBot="1">
+      <c r="A223" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="B223" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="C223" s="17">
+        <v>43924</v>
+      </c>
+      <c r="D223" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E223" s="8"/>
-      <c r="F223" s="8"/>
-      <c r="G223" s="8"/>
-      <c r="H223" s="8"/>
+      <c r="F223" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="G223" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="H223" s="8" t="s">
+        <v>282</v>
+      </c>
       <c r="I223" s="8"/>
-      <c r="J223" s="8"/>
-      <c r="K223" s="8"/>
+      <c r="J223" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="K223" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="L223" s="8"/>
       <c r="M223" s="8"/>
       <c r="N223" s="8"/>

--- a/BIDMC/np_swab_results.xlsx
+++ b/BIDMC/np_swab_results.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="651">
   <si>
     <t>Date of test</t>
   </si>
@@ -1428,33 +1428,9 @@
     <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/FormLabs/bristles.png</t>
   </si>
   <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/FormLabs/DentalLT.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/FormLabs/SG.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/FormLabs/GreyPro.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/FormLabs/Durable.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/FormLabs/tough.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/FormLabs/model.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/FormLabs/tough1500.jpg</t>
-  </si>
-  <si>
     <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Harvard_army/new_skin.png</t>
   </si>
   <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Harvard_army/ultem.jpg</t>
-  </si>
-  <si>
     <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Harvard_army/onyx.JPG</t>
   </si>
   <si>
@@ -1482,36 +1458,15 @@
     <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Wyss/wyss_w8.png</t>
   </si>
   <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Jenny/DIYswab</t>
-  </si>
-  <si>
     <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/USF/USF1-1.jpg</t>
   </si>
   <si>
     <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/USF/USF1-2.JPG</t>
   </si>
   <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/USF/USF1-3.jpg</t>
-  </si>
-  <si>
     <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/USF/USF1-4.JPG</t>
   </si>
   <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/USF/USF1-5.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/USF/USF1-6.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/HP/HPH.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/HP/HPNP.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Carbon/C1.jpg</t>
-  </si>
-  <si>
     <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Carbon/C2.JPG</t>
   </si>
   <si>
@@ -1539,15 +1494,6 @@
     <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Gorelik/P7.JPG</t>
   </si>
   <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/OPT_industries/J_1.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/USF/USF_2_1.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/USF/USF_2_2.jpg</t>
-  </si>
-  <si>
     <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Baker/B_1.JPG</t>
   </si>
   <si>
@@ -1557,9 +1503,6 @@
     <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Seriano/S_2.JPG</t>
   </si>
   <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Seriano/S_3.JPG</t>
-  </si>
-  <si>
     <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Seriano/S_4.JPG</t>
   </si>
   <si>
@@ -1569,93 +1512,12 @@
     <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Seriano/S_6.JPG</t>
   </si>
   <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/Img/Foamtec/FT_1.JPG</t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/Img/Foamtec/FT_2.JPG</t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/Img/Foamtec/FT_3.JPG</t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC//Img/Foamtec/FT_4.JPG</t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Wyss/W_2_1.JPG</t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Wyss/W_2_2.JPG</t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Wyss/W_2_3.JPG</t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Wyss/W_2_4.JPG</t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Wyss/W_2_5.JPG</t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Wyss/W_2_6.JPG</t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Wyss/W_2_7.JPG</t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Wyss/W_2_8.JPG</t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Wyss/W_2_9.JPG</t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Wyss/W_2_10.JPG</t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Wyss/W_2_11.JPG</t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Wyss/W_2_12.JPG</t>
-  </si>
-  <si>
     <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Envisiontec/EV_2_1.jpg</t>
   </si>
   <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Carbon/C_3.JPG</t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Carbon/C_4.JPG</t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Carbon/C_5.JPG</t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Carbon/C_6.JPG</t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Carbon/C_7.JPG</t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/HP/HP_Fit.JPG</t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/HP/HP_nub.JPG</t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/HP/HP_WT.JPG</t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/HP/HP_WS.JPG</t>
-  </si>
-  <si>
     <t>*post-autoclave the material feels and performs the same</t>
   </si>
   <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/HP/HP_FS.JPG</t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Carbon/C_2_1.JPG</t>
-  </si>
-  <si>
     <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Harvard_army/HA_2_Onyx.jpg</t>
   </si>
   <si>
@@ -1692,48 +1554,12 @@
     <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/EnvisionTec/EV_3_2.jpg</t>
   </si>
   <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/MarkForged/MF_1</t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Tooker/T_S.JPG</t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Tooker/T_BS.JPG</t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Tooker/T_SC.JPG</t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img//Markforged/MF_2.JPG</t>
-  </si>
-  <si>
     <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/OPT_industries/J_2.JPG</t>
   </si>
   <si>
     <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/OPT_industries/J_3.JPG</t>
   </si>
   <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Teknipure/TS_F_6.JPG</t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Teknipure/TS_MW_6.JPG</t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Teknipure/TS_FMD_6.JPG</t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Teknipure/TS_P_6.JPG</t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/EnvisionTec/E_3_3</t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Berkshire Engineered Clean/BE_1465.10.JPG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Origin/O_2A.JPG </t>
-  </si>
-  <si>
     <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Origin/O_2A_1.jpg</t>
   </si>
   <si>
@@ -1743,12 +1569,6 @@
     <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Origin/O_2A_2.jpg</t>
   </si>
   <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/superbrush/SB-71-4592.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/superbrush/SB_52-1005.jpg</t>
-  </si>
-  <si>
     <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Carbon/C_3_1.jpg</t>
   </si>
   <si>
@@ -1912,6 +1732,252 @@
   </si>
   <si>
     <t>Pass-edges of tip are sharp</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/FormLabs/DentalLT.JPG</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/FormLabs/SG.JPG</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/FormLabs/GreyPro.JPG</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/FormLabs/Durable.JPG</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/FormLabs/tough.JPG</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/FormLabs/model.JPG</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/FormLabs/tough1500.JPG</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Harvard_army/ultem.JPG</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Jenny/DIYswab/</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/USF/USF1-3.JPG</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/USF/USF1-5.JPG</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/USF/USF1-6.JPG</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/HP/HPH.JPG</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/HP/HPNP.JPG</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Carbon/C1.JPG</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/OPT_industries/J_1.JPG</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/USF/USF_2_1.JPG</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/USF/USF_2_2.JPG</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Seriano/S_3.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Foamtec/FT_1.JPG</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Foamtec/FT_2.JPG</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Foamtec/FT_3.JPG</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC//img/Foamtec/FT_4.JPG</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Wyss/W_2_1.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Wyss/W_2_2.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Wyss/W_2_3.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Wyss/W_2_4.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Wyss/W_2_5.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Wyss/W_2_6.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Wyss/W_2_7.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Wyss/W_2_8.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Wyss/W_2_9.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Wyss/W_2_10.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Wyss/W_2_11.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Wyss/W_2_12.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Carbon/C_3.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Carbon/C_4.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Carbon/C_5.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Carbon/C_6.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Carbon/C_7.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/HP/HP_Fit.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/HP/HP_nub.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/HP/HP_WT.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/HP/HP_WS.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/HP/HP_FS.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Carbon/C_2_1.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/EnvisionTec/EV_3_1.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Markforged/MF_1.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Tooker/T_S.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Tooker/T_BS.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Tooker/T_SC.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img//Markforged/MF_2.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Teknipure/TS_F_6.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Teknipure/TS_MW_6.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Teknipure/TS_FMD_6.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Teknipure/TS_P_6.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/EnvisionTec/EV_3_3.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Berkshire_Engineered_Clean/BE_1465.10.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Origin/O_2A.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/SuperBrush/SB_71_4582.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/SuperBrush/SB_52_1005.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Origin/O_2A_1.JPG </t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Carbon/C_3_1.JPG</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/HP/HP_Spring_Polished_1.JPG</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/HP/HP_Spiral_Polished_1.JPG</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Markforged/MF_2_Br.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Wyss/WIM_001.JPG</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Wyss/WIM_002.JPG</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Origin/O_2A_2_1.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Origin/O_2A_2_1.JPG</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/EnvisionTec/EV_2_2.JPG</t>
+  </si>
+  <si>
+    <t>EV_2_3</t>
+  </si>
+  <si>
+    <t>Envisiontec autoclaved swab with new head</t>
+  </si>
+  <si>
+    <t>HP_WS_DG</t>
+  </si>
+  <si>
+    <t>HP_WS with hemisphere tip on a dark gray swab</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/HP/HP_WS_DG.JPG</t>
+  </si>
+  <si>
+    <t>Pass - rounded tip makes the swab much more comfortable, the finish seems a little rough and powdery. Acid-vapor-wash treatment seems to resolve this issue</t>
+  </si>
+  <si>
+    <t>MF_2_Br2</t>
+  </si>
+  <si>
+    <t>Markforged swab with new breakpoint placement</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/MF_2_Br2.jpg</t>
+  </si>
+  <si>
+    <t>medical nylon</t>
+  </si>
+  <si>
+    <t>DId not pass - breakpoint at neck is too brittle and may fracture during procedure with sharp end, ideally would be cylinder, not square as sometimes swabs will be rotated to get more material. Evaluator 2: too much break point variability/polarity</t>
   </si>
 </sst>
 </file>
@@ -2388,7 +2454,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2459,7 +2525,7 @@
         <v>8</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>615</v>
+        <v>555</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>9</v>
@@ -3135,7 +3201,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>467</v>
+        <v>569</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -3177,7 +3243,7 @@
         <v>20</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>468</v>
+        <v>570</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -3221,7 +3287,7 @@
         <v>20</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>469</v>
+        <v>571</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -3263,7 +3329,7 @@
         <v>20</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>470</v>
+        <v>572</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -3311,7 +3377,7 @@
         <v>20</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>471</v>
+        <v>573</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -3353,7 +3419,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>472</v>
+        <v>574</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -3395,7 +3461,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>473</v>
+        <v>575</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -3437,7 +3503,7 @@
         <v>20</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>471</v>
+        <v>573</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -3479,7 +3545,7 @@
         <v>20</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -3523,7 +3589,7 @@
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="10" t="s">
-        <v>475</v>
+        <v>576</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -3563,7 +3629,7 @@
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="14" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -3647,7 +3713,7 @@
         <v>20</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>48</v>
@@ -3695,7 +3761,7 @@
         <v>20</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>51</v>
@@ -3741,7 +3807,7 @@
         <v>20</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>55</v>
@@ -3787,7 +3853,7 @@
         <v>20</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>58</v>
@@ -3833,7 +3899,7 @@
         <v>20</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>60</v>
@@ -3879,7 +3945,7 @@
         <v>20</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>62</v>
@@ -3925,7 +3991,7 @@
         <v>20</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>64</v>
@@ -3971,7 +4037,7 @@
         <v>20</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>51</v>
@@ -4017,7 +4083,7 @@
         <v>67</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>485</v>
+        <v>577</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>68</v>
@@ -4157,7 +4223,7 @@
         <v>20</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
@@ -4201,7 +4267,7 @@
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="14" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
@@ -4216,7 +4282,7 @@
         <v>31</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>599</v>
+        <v>539</v>
       </c>
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
@@ -4245,7 +4311,7 @@
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="14" t="s">
-        <v>488</v>
+        <v>578</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
@@ -4260,7 +4326,7 @@
         <v>31</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>599</v>
+        <v>539</v>
       </c>
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
@@ -4289,7 +4355,7 @@
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="14" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
@@ -4304,7 +4370,7 @@
         <v>31</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>599</v>
+        <v>539</v>
       </c>
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
@@ -4333,7 +4399,7 @@
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="15" t="s">
-        <v>490</v>
+        <v>579</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
@@ -4348,7 +4414,7 @@
         <v>31</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>599</v>
+        <v>539</v>
       </c>
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
@@ -4379,7 +4445,7 @@
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="15" t="s">
-        <v>491</v>
+        <v>580</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
@@ -4394,7 +4460,7 @@
         <v>31</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>599</v>
+        <v>539</v>
       </c>
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
@@ -4517,7 +4583,7 @@
         <v>20</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>492</v>
+        <v>581</v>
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
@@ -4565,7 +4631,7 @@
         <v>20</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>493</v>
+        <v>582</v>
       </c>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
@@ -4675,7 +4741,7 @@
         <v>20</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>494</v>
+        <v>583</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
@@ -4723,7 +4789,7 @@
         <v>20</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
@@ -4829,7 +4895,7 @@
         <v>20</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="F57" s="8" t="s">
         <v>138</v>
@@ -4877,7 +4943,7 @@
         <v>20</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="F58" s="8" t="s">
         <v>138</v>
@@ -4925,7 +4991,7 @@
         <v>20</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="F59" s="8" t="s">
         <v>138</v>
@@ -4975,7 +5041,7 @@
         <v>20</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="F60" s="8" t="s">
         <v>138</v>
@@ -5023,7 +5089,7 @@
         <v>20</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="F61" s="8" t="s">
         <v>138</v>
@@ -5071,7 +5137,7 @@
         <v>20</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="F62" s="8" t="s">
         <v>138</v>
@@ -5119,7 +5185,7 @@
         <v>20</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="F63" s="8" t="s">
         <v>138</v>
@@ -5167,7 +5233,7 @@
         <v>20</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="F64" s="8" t="s">
         <v>138</v>
@@ -5273,7 +5339,7 @@
         <v>20</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>504</v>
+        <v>584</v>
       </c>
       <c r="F67" s="8" t="s">
         <v>160</v>
@@ -5353,7 +5419,7 @@
         <v>20</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>505</v>
+        <v>585</v>
       </c>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
@@ -5401,7 +5467,7 @@
         <v>20</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>506</v>
+        <v>586</v>
       </c>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
@@ -5507,7 +5573,7 @@
         <v>20</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>507</v>
+        <v>489</v>
       </c>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
@@ -5615,7 +5681,7 @@
         <v>20</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>508</v>
+        <v>490</v>
       </c>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
@@ -5663,7 +5729,7 @@
         <v>20</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
@@ -5709,7 +5775,7 @@
         <v>20</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>510</v>
+        <v>587</v>
       </c>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
@@ -5755,7 +5821,7 @@
         <v>20</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>511</v>
+        <v>492</v>
       </c>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
@@ -5801,7 +5867,7 @@
         <v>20</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
@@ -5847,7 +5913,7 @@
         <v>20</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>513</v>
+        <v>494</v>
       </c>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
@@ -5951,7 +6017,7 @@
         <v>20</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>514</v>
+        <v>588</v>
       </c>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
@@ -5997,7 +6063,7 @@
         <v>20</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>515</v>
+        <v>589</v>
       </c>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
@@ -6043,7 +6109,7 @@
         <v>20</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>516</v>
+        <v>590</v>
       </c>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
@@ -6089,7 +6155,7 @@
         <v>20</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>517</v>
+        <v>591</v>
       </c>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
@@ -6655,7 +6721,7 @@
         <v>20</v>
       </c>
       <c r="E101" s="15" t="s">
-        <v>518</v>
+        <v>592</v>
       </c>
       <c r="F101" s="8" t="s">
         <v>241</v>
@@ -6703,7 +6769,7 @@
         <v>20</v>
       </c>
       <c r="E102" s="15" t="s">
-        <v>519</v>
+        <v>593</v>
       </c>
       <c r="F102" s="8" t="s">
         <v>245</v>
@@ -6751,7 +6817,7 @@
         <v>20</v>
       </c>
       <c r="E103" s="15" t="s">
-        <v>520</v>
+        <v>594</v>
       </c>
       <c r="F103" s="8" t="s">
         <v>248</v>
@@ -6799,7 +6865,7 @@
         <v>20</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>521</v>
+        <v>595</v>
       </c>
       <c r="F104" s="8" t="s">
         <v>251</v>
@@ -6847,7 +6913,7 @@
         <v>20</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>522</v>
+        <v>596</v>
       </c>
       <c r="F105" s="8" t="s">
         <v>254</v>
@@ -6895,7 +6961,7 @@
         <v>20</v>
       </c>
       <c r="E106" s="15" t="s">
-        <v>523</v>
+        <v>597</v>
       </c>
       <c r="F106" s="8" t="s">
         <v>257</v>
@@ -6943,7 +7009,7 @@
         <v>20</v>
       </c>
       <c r="E107" s="15" t="s">
-        <v>524</v>
+        <v>598</v>
       </c>
       <c r="F107" s="8" t="s">
         <v>260</v>
@@ -6991,7 +7057,7 @@
         <v>20</v>
       </c>
       <c r="E108" s="15" t="s">
-        <v>525</v>
+        <v>599</v>
       </c>
       <c r="F108" s="8" t="s">
         <v>262</v>
@@ -7039,7 +7105,7 @@
         <v>20</v>
       </c>
       <c r="E109" s="15" t="s">
-        <v>526</v>
+        <v>600</v>
       </c>
       <c r="F109" s="8" t="s">
         <v>265</v>
@@ -7087,7 +7153,7 @@
         <v>20</v>
       </c>
       <c r="E110" s="15" t="s">
-        <v>527</v>
+        <v>601</v>
       </c>
       <c r="F110" s="8" t="s">
         <v>268</v>
@@ -7135,7 +7201,7 @@
         <v>20</v>
       </c>
       <c r="E111" s="15" t="s">
-        <v>528</v>
+        <v>602</v>
       </c>
       <c r="F111" s="8" t="s">
         <v>271</v>
@@ -7183,7 +7249,7 @@
         <v>20</v>
       </c>
       <c r="E112" s="15" t="s">
-        <v>529</v>
+        <v>603</v>
       </c>
       <c r="F112" s="8" t="s">
         <v>274</v>
@@ -7289,7 +7355,7 @@
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
       <c r="E115" s="10" t="s">
-        <v>530</v>
+        <v>495</v>
       </c>
       <c r="F115" s="8" t="s">
         <v>298</v>
@@ -7395,7 +7461,7 @@
         <v>20</v>
       </c>
       <c r="E118" s="15" t="s">
-        <v>531</v>
+        <v>604</v>
       </c>
       <c r="F118" s="8" t="s">
         <v>302</v>
@@ -7447,7 +7513,7 @@
         <v>20</v>
       </c>
       <c r="E119" s="15" t="s">
-        <v>532</v>
+        <v>605</v>
       </c>
       <c r="F119" s="8" t="s">
         <v>302</v>
@@ -7499,7 +7565,7 @@
         <v>20</v>
       </c>
       <c r="E120" s="15" t="s">
-        <v>533</v>
+        <v>606</v>
       </c>
       <c r="F120" s="8" t="s">
         <v>302</v>
@@ -7551,7 +7617,7 @@
         <v>20</v>
       </c>
       <c r="E121" s="15" t="s">
-        <v>534</v>
+        <v>607</v>
       </c>
       <c r="F121" s="8" t="s">
         <v>302</v>
@@ -7605,7 +7671,7 @@
         <v>20</v>
       </c>
       <c r="E122" s="15" t="s">
-        <v>535</v>
+        <v>608</v>
       </c>
       <c r="F122" s="8" t="s">
         <v>302</v>
@@ -7717,7 +7783,7 @@
         <v>20</v>
       </c>
       <c r="E125" s="15" t="s">
-        <v>536</v>
+        <v>609</v>
       </c>
       <c r="F125" s="8" t="s">
         <v>138</v>
@@ -7767,7 +7833,7 @@
         <v>20</v>
       </c>
       <c r="E126" s="15" t="s">
-        <v>537</v>
+        <v>610</v>
       </c>
       <c r="F126" s="8" t="s">
         <v>138</v>
@@ -7817,7 +7883,7 @@
         <v>20</v>
       </c>
       <c r="E127" s="15" t="s">
-        <v>538</v>
+        <v>611</v>
       </c>
       <c r="F127" s="8" t="s">
         <v>138</v>
@@ -7867,7 +7933,7 @@
         <v>20</v>
       </c>
       <c r="E128" s="15" t="s">
-        <v>539</v>
+        <v>612</v>
       </c>
       <c r="F128" s="8" t="s">
         <v>138</v>
@@ -7890,7 +7956,7 @@
       </c>
       <c r="M128" s="8"/>
       <c r="N128" s="8" t="s">
-        <v>540</v>
+        <v>496</v>
       </c>
       <c r="O128" s="8"/>
       <c r="P128" s="6"/>
@@ -7921,7 +7987,7 @@
         <v>20</v>
       </c>
       <c r="E129" s="15" t="s">
-        <v>541</v>
+        <v>613</v>
       </c>
       <c r="F129" s="8" t="s">
         <v>138</v>
@@ -8031,7 +8097,7 @@
         <v>20</v>
       </c>
       <c r="E132" s="15" t="s">
-        <v>542</v>
+        <v>614</v>
       </c>
       <c r="F132" s="8" t="s">
         <v>341</v>
@@ -8141,7 +8207,7 @@
         <v>20</v>
       </c>
       <c r="E135" s="15" t="s">
-        <v>543</v>
+        <v>497</v>
       </c>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
@@ -8185,7 +8251,7 @@
         <v>20</v>
       </c>
       <c r="E136" s="15" t="s">
-        <v>544</v>
+        <v>498</v>
       </c>
       <c r="F136" s="8" t="s">
         <v>350</v>
@@ -8231,7 +8297,7 @@
         <v>20</v>
       </c>
       <c r="E137" s="15" t="s">
-        <v>545</v>
+        <v>499</v>
       </c>
       <c r="F137" s="8" t="s">
         <v>350</v>
@@ -8277,7 +8343,7 @@
         <v>20</v>
       </c>
       <c r="E138" s="15" t="s">
-        <v>546</v>
+        <v>500</v>
       </c>
       <c r="F138" s="8" t="s">
         <v>350</v>
@@ -8325,7 +8391,7 @@
         <v>20</v>
       </c>
       <c r="E139" s="15" t="s">
-        <v>547</v>
+        <v>501</v>
       </c>
       <c r="F139" s="8" t="s">
         <v>350</v>
@@ -8371,7 +8437,7 @@
         <v>20</v>
       </c>
       <c r="E140" s="15" t="s">
-        <v>548</v>
+        <v>502</v>
       </c>
       <c r="F140" s="8" t="s">
         <v>350</v>
@@ -8419,7 +8485,7 @@
         <v>20</v>
       </c>
       <c r="E141" s="15" t="s">
-        <v>549</v>
+        <v>503</v>
       </c>
       <c r="F141" s="8" t="s">
         <v>350</v>
@@ -8467,7 +8533,7 @@
         <v>20</v>
       </c>
       <c r="E142" s="15" t="s">
-        <v>550</v>
+        <v>504</v>
       </c>
       <c r="F142" s="8" t="s">
         <v>350</v>
@@ -8517,7 +8583,7 @@
         <v>20</v>
       </c>
       <c r="E143" s="15" t="s">
-        <v>551</v>
+        <v>505</v>
       </c>
       <c r="F143" s="8" t="s">
         <v>368</v>
@@ -8625,7 +8691,7 @@
         <v>20</v>
       </c>
       <c r="E146" s="15" t="s">
-        <v>552</v>
+        <v>615</v>
       </c>
       <c r="F146" s="8" t="s">
         <v>372</v>
@@ -8646,7 +8712,7 @@
       <c r="L146" s="8"/>
       <c r="M146" s="8"/>
       <c r="N146" s="8" t="s">
-        <v>553</v>
+        <v>507</v>
       </c>
       <c r="O146" s="8"/>
       <c r="P146" s="6"/>
@@ -8675,7 +8741,7 @@
         <v>20</v>
       </c>
       <c r="E147" s="14" t="s">
-        <v>554</v>
+        <v>508</v>
       </c>
       <c r="F147" s="8" t="s">
         <v>372</v>
@@ -8785,7 +8851,7 @@
         <v>20</v>
       </c>
       <c r="E150" s="15" t="s">
-        <v>555</v>
+        <v>616</v>
       </c>
       <c r="F150" s="8" t="s">
         <v>381</v>
@@ -8893,7 +8959,7 @@
         <v>20</v>
       </c>
       <c r="E153" s="15" t="s">
-        <v>556</v>
+        <v>617</v>
       </c>
       <c r="F153" s="8" t="s">
         <v>386</v>
@@ -8941,7 +9007,7 @@
         <v>20</v>
       </c>
       <c r="E154" s="14" t="s">
-        <v>557</v>
+        <v>618</v>
       </c>
       <c r="F154" s="8" t="s">
         <v>386</v>
@@ -8989,7 +9055,7 @@
         <v>20</v>
       </c>
       <c r="E155" s="14" t="s">
-        <v>558</v>
+        <v>619</v>
       </c>
       <c r="F155" s="8" t="s">
         <v>386</v>
@@ -9099,7 +9165,7 @@
         <v>20</v>
       </c>
       <c r="E158" s="15" t="s">
-        <v>559</v>
+        <v>620</v>
       </c>
       <c r="F158" s="8" t="s">
         <v>398</v>
@@ -9209,7 +9275,7 @@
         <v>20</v>
       </c>
       <c r="E161" s="15" t="s">
-        <v>560</v>
+        <v>509</v>
       </c>
       <c r="F161" s="8" t="s">
         <v>403</v>
@@ -9257,7 +9323,7 @@
         <v>20</v>
       </c>
       <c r="E162" s="15" t="s">
-        <v>561</v>
+        <v>510</v>
       </c>
       <c r="F162" s="8" t="s">
         <v>403</v>
@@ -9365,7 +9431,7 @@
         <v>20</v>
       </c>
       <c r="E165" s="15" t="s">
-        <v>562</v>
+        <v>621</v>
       </c>
       <c r="F165" s="8" t="s">
         <v>408</v>
@@ -9415,7 +9481,7 @@
         <v>20</v>
       </c>
       <c r="E166" s="15" t="s">
-        <v>563</v>
+        <v>622</v>
       </c>
       <c r="F166" s="8" t="s">
         <v>412</v>
@@ -9463,7 +9529,7 @@
         <v>20</v>
       </c>
       <c r="E167" s="15" t="s">
-        <v>564</v>
+        <v>623</v>
       </c>
       <c r="F167" s="8" t="s">
         <v>414</v>
@@ -9511,7 +9577,7 @@
         <v>20</v>
       </c>
       <c r="E168" s="15" t="s">
-        <v>565</v>
+        <v>624</v>
       </c>
       <c r="F168" s="8" t="s">
         <v>415</v>
@@ -9589,7 +9655,7 @@
         <v>20</v>
       </c>
       <c r="E170" s="15" t="s">
-        <v>566</v>
+        <v>625</v>
       </c>
       <c r="F170" s="8" t="s">
         <v>372</v>
@@ -9696,8 +9762,8 @@
       <c r="D173" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E173" s="8" t="s">
-        <v>567</v>
+      <c r="E173" s="15" t="s">
+        <v>626</v>
       </c>
       <c r="F173" s="8" t="s">
         <v>420</v>
@@ -9805,7 +9871,7 @@
         <v>20</v>
       </c>
       <c r="E176" s="15" t="s">
-        <v>568</v>
+        <v>627</v>
       </c>
       <c r="F176" s="8" t="s">
         <v>368</v>
@@ -9915,7 +9981,7 @@
         <v>20</v>
       </c>
       <c r="E179" s="15" t="s">
-        <v>569</v>
+        <v>511</v>
       </c>
       <c r="F179" s="8" t="s">
         <v>368</v>
@@ -9932,11 +9998,11 @@
         <v>31</v>
       </c>
       <c r="L179" s="8" t="s">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="M179" s="8"/>
       <c r="N179" s="8" t="s">
-        <v>570</v>
+        <v>512</v>
       </c>
       <c r="O179" s="8"/>
       <c r="P179" s="6"/>
@@ -9967,7 +10033,7 @@
         <v>20</v>
       </c>
       <c r="E180" s="15" t="s">
-        <v>571</v>
+        <v>513</v>
       </c>
       <c r="F180" s="8" t="s">
         <v>368</v>
@@ -9984,7 +10050,7 @@
         <v>31</v>
       </c>
       <c r="L180" s="8" t="s">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="M180" s="8"/>
       <c r="N180" s="8"/>
@@ -10077,7 +10143,7 @@
         <v>20</v>
       </c>
       <c r="E183" s="15" t="s">
-        <v>572</v>
+        <v>628</v>
       </c>
       <c r="F183" s="8" t="s">
         <v>438</v>
@@ -10125,7 +10191,7 @@
         <v>20</v>
       </c>
       <c r="E184" s="15" t="s">
-        <v>573</v>
+        <v>629</v>
       </c>
       <c r="F184" s="8" t="s">
         <v>443</v>
@@ -10233,7 +10299,7 @@
         <v>20</v>
       </c>
       <c r="E187" s="15" t="s">
-        <v>574</v>
+        <v>514</v>
       </c>
       <c r="F187" s="8" t="s">
         <v>341</v>
@@ -10250,7 +10316,7 @@
       <c r="L187" s="8"/>
       <c r="M187" s="8"/>
       <c r="N187" s="8" t="s">
-        <v>575</v>
+        <v>515</v>
       </c>
       <c r="O187" s="8"/>
       <c r="P187" s="6"/>
@@ -10341,7 +10407,7 @@
         <v>20</v>
       </c>
       <c r="E190" s="15" t="s">
-        <v>576</v>
+        <v>516</v>
       </c>
       <c r="F190" s="8" t="s">
         <v>403</v>
@@ -10389,7 +10455,7 @@
         <v>20</v>
       </c>
       <c r="E191" s="15" t="s">
-        <v>577</v>
+        <v>517</v>
       </c>
       <c r="F191" s="8" t="s">
         <v>403</v>
@@ -10437,7 +10503,7 @@
         <v>20</v>
       </c>
       <c r="E192" s="15" t="s">
-        <v>578</v>
+        <v>518</v>
       </c>
       <c r="F192" s="8" t="s">
         <v>403</v>
@@ -10485,7 +10551,7 @@
         <v>20</v>
       </c>
       <c r="E193" s="15" t="s">
-        <v>579</v>
+        <v>519</v>
       </c>
       <c r="F193" s="8" t="s">
         <v>403</v>
@@ -10581,10 +10647,10 @@
     </row>
     <row r="196" spans="1:28" ht="64.5" thickBot="1">
       <c r="A196" s="8" t="s">
-        <v>580</v>
+        <v>520</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>581</v>
+        <v>521</v>
       </c>
       <c r="C196" s="17">
         <v>43922</v>
@@ -10593,7 +10659,7 @@
         <v>20</v>
       </c>
       <c r="E196" s="15" t="s">
-        <v>582</v>
+        <v>522</v>
       </c>
       <c r="F196" s="8" t="s">
         <v>138</v>
@@ -10606,11 +10672,11 @@
       </c>
       <c r="I196" s="8"/>
       <c r="J196" s="8" t="s">
-        <v>583</v>
+        <v>523</v>
       </c>
       <c r="K196" s="8"/>
       <c r="L196" s="8" t="s">
-        <v>601</v>
+        <v>541</v>
       </c>
       <c r="M196" s="8"/>
       <c r="N196" s="8"/>
@@ -10631,10 +10697,10 @@
     </row>
     <row r="197" spans="1:28" ht="64.5" thickBot="1">
       <c r="A197" s="8" t="s">
-        <v>584</v>
+        <v>524</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>585</v>
+        <v>525</v>
       </c>
       <c r="C197" s="17">
         <v>43922</v>
@@ -10643,7 +10709,7 @@
         <v>20</v>
       </c>
       <c r="E197" s="15" t="s">
-        <v>586</v>
+        <v>526</v>
       </c>
       <c r="F197" s="8" t="s">
         <v>138</v>
@@ -10656,11 +10722,11 @@
       </c>
       <c r="I197" s="8"/>
       <c r="J197" s="8" t="s">
-        <v>583</v>
+        <v>523</v>
       </c>
       <c r="K197" s="8"/>
       <c r="L197" s="8" t="s">
-        <v>601</v>
+        <v>541</v>
       </c>
       <c r="M197" s="8"/>
       <c r="N197" s="8"/>
@@ -10681,10 +10747,10 @@
     </row>
     <row r="198" spans="1:28" ht="64.5" thickBot="1">
       <c r="A198" s="8" t="s">
-        <v>587</v>
+        <v>527</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>588</v>
+        <v>528</v>
       </c>
       <c r="C198" s="17">
         <v>43922</v>
@@ -10693,7 +10759,7 @@
         <v>20</v>
       </c>
       <c r="E198" s="15" t="s">
-        <v>589</v>
+        <v>529</v>
       </c>
       <c r="F198" s="8" t="s">
         <v>138</v>
@@ -10712,7 +10778,7 @@
         <v>31</v>
       </c>
       <c r="L198" s="8" t="s">
-        <v>601</v>
+        <v>541</v>
       </c>
       <c r="M198" s="8"/>
       <c r="N198" s="8"/>
@@ -10733,10 +10799,10 @@
     </row>
     <row r="199" spans="1:28" ht="64.5" thickBot="1">
       <c r="A199" s="8" t="s">
-        <v>590</v>
+        <v>530</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>591</v>
+        <v>531</v>
       </c>
       <c r="C199" s="17">
         <v>43922</v>
@@ -10745,7 +10811,7 @@
         <v>20</v>
       </c>
       <c r="E199" s="15" t="s">
-        <v>592</v>
+        <v>532</v>
       </c>
       <c r="F199" s="8" t="s">
         <v>138</v>
@@ -10764,7 +10830,7 @@
         <v>31</v>
       </c>
       <c r="L199" s="8" t="s">
-        <v>601</v>
+        <v>541</v>
       </c>
       <c r="M199" s="8"/>
       <c r="N199" s="8"/>
@@ -10845,10 +10911,10 @@
     </row>
     <row r="202" spans="1:28" ht="51.75" thickBot="1">
       <c r="A202" s="8" t="s">
-        <v>593</v>
+        <v>533</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>593</v>
+        <v>533</v>
       </c>
       <c r="C202" s="17">
         <v>43922</v>
@@ -10856,12 +10922,14 @@
       <c r="D202" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E202" s="8"/>
+      <c r="E202" s="14" t="s">
+        <v>506</v>
+      </c>
       <c r="F202" s="8" t="s">
         <v>372</v>
       </c>
       <c r="G202" s="8" t="s">
-        <v>594</v>
+        <v>534</v>
       </c>
       <c r="H202" s="8"/>
       <c r="I202" s="8"/>
@@ -10887,12 +10955,12 @@
       <c r="AA202" s="6"/>
       <c r="AB202" s="6"/>
     </row>
-    <row r="203" spans="1:28" ht="39" thickBot="1">
+    <row r="203" spans="1:28" ht="48" thickBot="1">
       <c r="A203" s="8" t="s">
-        <v>595</v>
+        <v>535</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>595</v>
+        <v>535</v>
       </c>
       <c r="C203" s="17">
         <v>43922</v>
@@ -10900,12 +10968,14 @@
       <c r="D203" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E203" s="8"/>
+      <c r="E203" s="14" t="s">
+        <v>630</v>
+      </c>
       <c r="F203" s="8" t="s">
         <v>368</v>
       </c>
       <c r="G203" s="8" t="s">
-        <v>596</v>
+        <v>536</v>
       </c>
       <c r="H203" s="8"/>
       <c r="I203" s="8"/>
@@ -10933,10 +11003,10 @@
     </row>
     <row r="204" spans="1:28" ht="39" thickBot="1">
       <c r="A204" s="8" t="s">
-        <v>597</v>
+        <v>537</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>597</v>
+        <v>537</v>
       </c>
       <c r="C204" s="17">
         <v>43922</v>
@@ -10944,7 +11014,9 @@
       <c r="D204" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E204" s="8"/>
+      <c r="E204" s="14" t="s">
+        <v>631</v>
+      </c>
       <c r="F204" s="8" t="s">
         <v>341</v>
       </c>
@@ -10977,10 +11049,10 @@
     </row>
     <row r="205" spans="1:28" ht="39" thickBot="1">
       <c r="A205" s="8" t="s">
-        <v>598</v>
+        <v>538</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>598</v>
+        <v>538</v>
       </c>
       <c r="C205" s="17">
         <v>43922</v>
@@ -10988,7 +11060,9 @@
       <c r="D205" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E205" s="8"/>
+      <c r="E205" s="14" t="s">
+        <v>612</v>
+      </c>
       <c r="F205" s="8" t="s">
         <v>138</v>
       </c>
@@ -11000,7 +11074,7 @@
       <c r="J205" s="8"/>
       <c r="K205" s="8"/>
       <c r="L205" s="8" t="s">
-        <v>601</v>
+        <v>541</v>
       </c>
       <c r="M205" s="8" t="s">
         <v>389</v>
@@ -11083,10 +11157,10 @@
     </row>
     <row r="208" spans="1:28" ht="64.5" thickBot="1">
       <c r="A208" s="8" t="s">
-        <v>602</v>
+        <v>542</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>603</v>
+        <v>543</v>
       </c>
       <c r="C208" s="17">
         <v>43923</v>
@@ -11094,7 +11168,9 @@
       <c r="D208" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E208" s="8"/>
+      <c r="E208" s="14" t="s">
+        <v>632</v>
+      </c>
       <c r="F208" s="8" t="s">
         <v>138</v>
       </c>
@@ -11125,10 +11201,10 @@
     </row>
     <row r="209" spans="1:28" ht="64.5" thickBot="1">
       <c r="A209" s="8" t="s">
-        <v>604</v>
+        <v>544</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>605</v>
+        <v>545</v>
       </c>
       <c r="C209" s="17">
         <v>43923</v>
@@ -11136,7 +11212,9 @@
       <c r="D209" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E209" s="8"/>
+      <c r="E209" s="14" t="s">
+        <v>633</v>
+      </c>
       <c r="F209" s="8" t="s">
         <v>138</v>
       </c>
@@ -11225,12 +11303,12 @@
       <c r="AA211" s="6"/>
       <c r="AB211" s="6"/>
     </row>
-    <row r="212" spans="1:28" ht="39" thickBot="1">
+    <row r="212" spans="1:28" ht="48" thickBot="1">
       <c r="A212" s="8" t="s">
-        <v>606</v>
+        <v>546</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>607</v>
+        <v>547</v>
       </c>
       <c r="C212" s="17">
         <v>43923</v>
@@ -11238,9 +11316,11 @@
       <c r="D212" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E212" s="8"/>
+      <c r="E212" s="15" t="s">
+        <v>634</v>
+      </c>
       <c r="F212" s="8" t="s">
-        <v>608</v>
+        <v>548</v>
       </c>
       <c r="G212" s="8" t="s">
         <v>399</v>
@@ -11331,10 +11411,10 @@
     </row>
     <row r="215" spans="1:28" ht="141" thickBot="1">
       <c r="A215" s="8" t="s">
-        <v>609</v>
+        <v>549</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>610</v>
+        <v>550</v>
       </c>
       <c r="C215" s="17">
         <v>43923</v>
@@ -11342,20 +11422,22 @@
       <c r="D215" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E215" s="8"/>
+      <c r="E215" s="14" t="s">
+        <v>635</v>
+      </c>
       <c r="F215" s="8" t="s">
-        <v>611</v>
+        <v>551</v>
       </c>
       <c r="G215" s="8"/>
       <c r="H215" s="8" t="s">
-        <v>612</v>
+        <v>552</v>
       </c>
       <c r="I215" s="8"/>
       <c r="J215" s="8" t="s">
-        <v>616</v>
+        <v>556</v>
       </c>
       <c r="K215" s="8" t="s">
-        <v>617</v>
+        <v>557</v>
       </c>
       <c r="L215" s="8"/>
       <c r="M215" s="8"/>
@@ -11377,10 +11459,10 @@
     </row>
     <row r="216" spans="1:28" ht="115.5" thickBot="1">
       <c r="A216" s="8" t="s">
-        <v>613</v>
+        <v>553</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>610</v>
+        <v>550</v>
       </c>
       <c r="C216" s="17">
         <v>43923</v>
@@ -11388,20 +11470,22 @@
       <c r="D216" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E216" s="8"/>
+      <c r="E216" s="15" t="s">
+        <v>636</v>
+      </c>
       <c r="F216" s="8" t="s">
-        <v>614</v>
+        <v>554</v>
       </c>
       <c r="G216" s="8"/>
       <c r="H216" s="8" t="s">
-        <v>612</v>
+        <v>552</v>
       </c>
       <c r="I216" s="8"/>
       <c r="J216" s="8" t="s">
-        <v>618</v>
+        <v>558</v>
       </c>
       <c r="K216" s="8" t="s">
-        <v>619</v>
+        <v>559</v>
       </c>
       <c r="L216" s="8"/>
       <c r="M216" s="8"/>
@@ -11481,12 +11565,12 @@
       <c r="AA218" s="6"/>
       <c r="AB218" s="6"/>
     </row>
-    <row r="219" spans="1:28" ht="39" thickBot="1">
+    <row r="219" spans="1:28" ht="48" thickBot="1">
       <c r="A219" s="8" t="s">
-        <v>620</v>
+        <v>560</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>621</v>
+        <v>561</v>
       </c>
       <c r="C219" s="17">
         <v>43924</v>
@@ -11494,7 +11578,9 @@
       <c r="D219" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E219" s="8"/>
+      <c r="E219" s="15" t="s">
+        <v>637</v>
+      </c>
       <c r="F219" s="8" t="s">
         <v>368</v>
       </c>
@@ -11525,12 +11611,12 @@
       <c r="AA219" s="6"/>
       <c r="AB219" s="6"/>
     </row>
-    <row r="220" spans="1:28" ht="39" thickBot="1">
+    <row r="220" spans="1:28" ht="48" thickBot="1">
       <c r="A220" s="8" t="s">
-        <v>622</v>
+        <v>562</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>623</v>
+        <v>563</v>
       </c>
       <c r="C220" s="17">
         <v>43924</v>
@@ -11538,7 +11624,9 @@
       <c r="D220" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E220" s="8"/>
+      <c r="E220" s="14" t="s">
+        <v>638</v>
+      </c>
       <c r="F220" s="8" t="s">
         <v>368</v>
       </c>
@@ -11633,10 +11721,10 @@
     </row>
     <row r="223" spans="1:28" ht="51.75" thickBot="1">
       <c r="A223" s="8" t="s">
-        <v>624</v>
+        <v>564</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>625</v>
+        <v>565</v>
       </c>
       <c r="C223" s="17">
         <v>43924</v>
@@ -11644,19 +11732,21 @@
       <c r="D223" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E223" s="8"/>
+      <c r="E223" s="14" t="s">
+        <v>639</v>
+      </c>
       <c r="F223" s="8" t="s">
-        <v>626</v>
+        <v>566</v>
       </c>
       <c r="G223" s="8" t="s">
-        <v>627</v>
+        <v>567</v>
       </c>
       <c r="H223" s="8" t="s">
         <v>282</v>
       </c>
       <c r="I223" s="8"/>
       <c r="J223" s="8" t="s">
-        <v>628</v>
+        <v>568</v>
       </c>
       <c r="K223" s="8" t="s">
         <v>31</v>
@@ -11739,15 +11829,31 @@
       <c r="AA225" s="6"/>
       <c r="AB225" s="6"/>
     </row>
-    <row r="226" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A226" s="8"/>
-      <c r="B226" s="8"/>
-      <c r="C226" s="8"/>
-      <c r="D226" s="8"/>
-      <c r="E226" s="8"/>
-      <c r="F226" s="8"/>
-      <c r="G226" s="8"/>
-      <c r="H226" s="8"/>
+    <row r="226" spans="1:28" ht="51.75" thickBot="1">
+      <c r="A226" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="B226" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="C226" s="17">
+        <v>43926</v>
+      </c>
+      <c r="D226" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E226" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="F226" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="G226" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="H226" s="8" t="s">
+        <v>282</v>
+      </c>
       <c r="I226" s="8"/>
       <c r="J226" s="8"/>
       <c r="K226" s="8"/>
@@ -11829,17 +11935,35 @@
       <c r="AA228" s="6"/>
       <c r="AB228" s="6"/>
     </row>
-    <row r="229" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A229" s="8"/>
-      <c r="B229" s="8"/>
-      <c r="C229" s="8"/>
-      <c r="D229" s="8"/>
-      <c r="E229" s="8"/>
-      <c r="F229" s="8"/>
-      <c r="G229" s="8"/>
-      <c r="H229" s="8"/>
+    <row r="229" spans="1:28" ht="90" thickBot="1">
+      <c r="A229" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="B229" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="C229" s="17">
+        <v>43927</v>
+      </c>
+      <c r="D229" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E229" s="14" t="s">
+        <v>644</v>
+      </c>
+      <c r="F229" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G229" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="H229" s="8" t="s">
+        <v>124</v>
+      </c>
       <c r="I229" s="8"/>
-      <c r="J229" s="8"/>
+      <c r="J229" s="8" t="s">
+        <v>645</v>
+      </c>
       <c r="K229" s="8"/>
       <c r="L229" s="8"/>
       <c r="M229" s="8"/>
@@ -11919,17 +12043,33 @@
       <c r="AA231" s="6"/>
       <c r="AB231" s="6"/>
     </row>
-    <row r="232" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A232" s="8"/>
-      <c r="B232" s="8"/>
-      <c r="C232" s="8"/>
-      <c r="D232" s="8"/>
-      <c r="E232" s="8"/>
-      <c r="F232" s="8"/>
-      <c r="G232" s="8"/>
-      <c r="H232" s="8"/>
+    <row r="232" spans="1:28" ht="141" thickBot="1">
+      <c r="A232" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="B232" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="C232" s="17">
+        <v>43927</v>
+      </c>
+      <c r="D232" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E232" s="14" t="s">
+        <v>648</v>
+      </c>
+      <c r="F232" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="G232" s="6"/>
+      <c r="H232" s="8" t="s">
+        <v>382</v>
+      </c>
       <c r="I232" s="8"/>
-      <c r="J232" s="8"/>
+      <c r="J232" s="8" t="s">
+        <v>650</v>
+      </c>
       <c r="K232" s="8"/>
       <c r="L232" s="8"/>
       <c r="M232" s="8"/>
@@ -35829,7 +35969,7 @@
     <hyperlink ref="E84" r:id="rId56"/>
     <hyperlink ref="E85" r:id="rId57"/>
     <hyperlink ref="E86" r:id="rId58"/>
-    <hyperlink ref="E87" r:id="rId59" display="https://github.com/rarnaout/Covidswab/tree/master/BIDMC/Img/Foamtec/FT_4.JPG"/>
+    <hyperlink ref="E87" r:id="rId59" display="https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Foamtec/FT_4.JPG"/>
     <hyperlink ref="E101" r:id="rId60"/>
     <hyperlink ref="E102" r:id="rId61"/>
     <hyperlink ref="E103" r:id="rId62"/>
@@ -35869,7 +36009,7 @@
     <hyperlink ref="E153" r:id="rId96"/>
     <hyperlink ref="E154" r:id="rId97"/>
     <hyperlink ref="E155" r:id="rId98"/>
-    <hyperlink ref="E158" r:id="rId99" display="https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Markforged/MF_2.JPG"/>
+    <hyperlink ref="E158" r:id="rId99" display="https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Markforged/MF_2.jpg"/>
     <hyperlink ref="E161" r:id="rId100"/>
     <hyperlink ref="E162" r:id="rId101"/>
     <hyperlink ref="E165" r:id="rId102"/>
@@ -35877,23 +36017,39 @@
     <hyperlink ref="E167" r:id="rId104"/>
     <hyperlink ref="E168" r:id="rId105"/>
     <hyperlink ref="E170" r:id="rId106"/>
-    <hyperlink ref="E176" r:id="rId107" display="https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Origin/O_2A.JPG"/>
-    <hyperlink ref="E179" r:id="rId108"/>
-    <hyperlink ref="E180" r:id="rId109"/>
-    <hyperlink ref="E183" r:id="rId110"/>
-    <hyperlink ref="E184" r:id="rId111"/>
-    <hyperlink ref="E187" r:id="rId112"/>
-    <hyperlink ref="E190" r:id="rId113"/>
-    <hyperlink ref="E191" r:id="rId114"/>
-    <hyperlink ref="E192" r:id="rId115"/>
-    <hyperlink ref="E193" r:id="rId116"/>
-    <hyperlink ref="E196" r:id="rId117"/>
-    <hyperlink ref="E197" r:id="rId118"/>
-    <hyperlink ref="E198" r:id="rId119"/>
-    <hyperlink ref="E199" r:id="rId120"/>
+    <hyperlink ref="E173" r:id="rId107"/>
+    <hyperlink ref="E176" r:id="rId108"/>
+    <hyperlink ref="E179" r:id="rId109"/>
+    <hyperlink ref="E180" r:id="rId110"/>
+    <hyperlink ref="E183" r:id="rId111"/>
+    <hyperlink ref="E184" r:id="rId112"/>
+    <hyperlink ref="E187" r:id="rId113"/>
+    <hyperlink ref="E190" r:id="rId114"/>
+    <hyperlink ref="E191" r:id="rId115"/>
+    <hyperlink ref="E192" r:id="rId116"/>
+    <hyperlink ref="E193" r:id="rId117"/>
+    <hyperlink ref="E196" r:id="rId118"/>
+    <hyperlink ref="E197" r:id="rId119"/>
+    <hyperlink ref="E198" r:id="rId120"/>
+    <hyperlink ref="E199" r:id="rId121"/>
+    <hyperlink ref="E202" r:id="rId122"/>
+    <hyperlink ref="E203" r:id="rId123" display="https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Origin/O_2A_1.JPG"/>
+    <hyperlink ref="E204" r:id="rId124"/>
+    <hyperlink ref="E205" r:id="rId125"/>
+    <hyperlink ref="E208" r:id="rId126"/>
+    <hyperlink ref="E209" r:id="rId127"/>
+    <hyperlink ref="E212" r:id="rId128"/>
+    <hyperlink ref="E215" r:id="rId129"/>
+    <hyperlink ref="E216" r:id="rId130"/>
+    <hyperlink ref="E219" r:id="rId131"/>
+    <hyperlink ref="E220" r:id="rId132"/>
+    <hyperlink ref="E223" r:id="rId133"/>
+    <hyperlink ref="E226" r:id="rId134"/>
+    <hyperlink ref="E229" r:id="rId135"/>
+    <hyperlink ref="E232" r:id="rId136"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId121"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId137"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/BIDMC/np_swab_results.xlsx
+++ b/BIDMC/np_swab_results.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="671">
   <si>
     <t>Date of test</t>
   </si>
@@ -1978,6 +1978,66 @@
   </si>
   <si>
     <t>DId not pass - breakpoint at neck is too brittle and may fracture during procedure with sharp end, ideally would be cylinder, not square as sometimes swabs will be rotated to get more material. Evaluator 2: too much break point variability/polarity</t>
+  </si>
+  <si>
+    <t>HP_Spring_Polished_2</t>
+  </si>
+  <si>
+    <t>HP_WS with hemisphere tip on a black swab w/new breakpoint</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/HP/HP_Spring_Polshed_2.jpg</t>
+  </si>
+  <si>
+    <t>580 Platform</t>
+  </si>
+  <si>
+    <t>HP_WS_DG_V</t>
+  </si>
+  <si>
+    <t>HP_WS_DG with vapor polish</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/HP/HP_WS_DG_V.jpg</t>
+  </si>
+  <si>
+    <t>PA11</t>
+  </si>
+  <si>
+    <t>Same design as HP_WS. Did not test</t>
+  </si>
+  <si>
+    <t>WIM-003</t>
+  </si>
+  <si>
+    <t>polypropylene variant with textured tip</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Wys/WIM_003.jpg</t>
+  </si>
+  <si>
+    <t>polypropylene variant</t>
+  </si>
+  <si>
+    <t>Richard Novak Richard.Novak@wyss.harvard.edu</t>
+  </si>
+  <si>
+    <t>WIM-004</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Wyss/WIM_004.jpg</t>
+  </si>
+  <si>
+    <t>polpropylene variant (differs from WIM-003)</t>
+  </si>
+  <si>
+    <t>MR_CLN</t>
+  </si>
+  <si>
+    <t>mass produced, sterile, flocked swab</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Miraclean/MR_CLN.jpg</t>
   </si>
 </sst>
 </file>
@@ -2099,7 +2159,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2146,6 +2206,7 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2454,7 +2515,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2465,10 +2526,10 @@
   <dimension ref="A1:AB1026"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B213" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B156" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:AB1026"/>
+      <selection pane="bottomRight" sqref="A1:AB945"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -3021,19 +3082,35 @@
       <c r="AA11" s="6"/>
       <c r="AB11" s="6"/>
     </row>
-    <row r="12" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A12" s="6"/>
+    <row r="12" spans="1:28" ht="39.75" thickBot="1">
+      <c r="A12" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="C12" s="7">
+        <v>43912</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>464</v>
+      </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="H12" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
+      <c r="J12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="8"/>
@@ -3053,7 +3130,7 @@
     </row>
     <row r="13" spans="1:28" ht="39.75" thickBot="1">
       <c r="A13" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="7">
@@ -3063,7 +3140,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -3075,7 +3152,7 @@
         <v>40</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>31</v>
@@ -3097,9 +3174,9 @@
       <c r="AA13" s="6"/>
       <c r="AB13" s="6"/>
     </row>
-    <row r="14" spans="1:28" ht="39.75" thickBot="1">
+    <row r="14" spans="1:28" ht="48" thickBot="1">
       <c r="A14" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="7">
@@ -3108,8 +3185,8 @@
       <c r="D14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>465</v>
+      <c r="E14" s="10" t="s">
+        <v>466</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -3143,9 +3220,9 @@
       <c r="AA14" s="6"/>
       <c r="AB14" s="6"/>
     </row>
-    <row r="15" spans="1:28" ht="48" thickBot="1">
+    <row r="15" spans="1:28" ht="78" thickBot="1">
       <c r="A15" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="7">
@@ -3155,7 +3232,7 @@
         <v>20</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>466</v>
+        <v>569</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -3164,14 +3241,10 @@
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>31</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="8"/>
@@ -3191,7 +3264,7 @@
     </row>
     <row r="16" spans="1:28" ht="78" thickBot="1">
       <c r="A16" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="7">
@@ -3201,7 +3274,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -3212,7 +3285,9 @@
       <c r="J16" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="K16" s="6"/>
+      <c r="K16" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
@@ -3231,9 +3306,9 @@
       <c r="AA16" s="6"/>
       <c r="AB16" s="6"/>
     </row>
-    <row r="17" spans="1:28" ht="78" thickBot="1">
+    <row r="17" spans="1:28" ht="90.75" thickBot="1">
       <c r="A17" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="7">
@@ -3243,7 +3318,7 @@
         <v>20</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -3252,11 +3327,9 @@
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>31</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
@@ -3275,9 +3348,9 @@
       <c r="AA17" s="6"/>
       <c r="AB17" s="6"/>
     </row>
-    <row r="18" spans="1:28" ht="90.75" thickBot="1">
+    <row r="18" spans="1:28" ht="103.5" thickBot="1">
       <c r="A18" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="7">
@@ -3287,7 +3360,7 @@
         <v>20</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -3296,12 +3369,18 @@
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
+        <v>89</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
+      <c r="N18" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="O18" s="8"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
@@ -3317,19 +3396,19 @@
       <c r="AA18" s="6"/>
       <c r="AB18" s="6"/>
     </row>
-    <row r="19" spans="1:28" ht="103.5" thickBot="1">
+    <row r="19" spans="1:28" ht="48" thickBot="1">
       <c r="A19" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="7">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -3338,18 +3417,12 @@
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>31</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="6" t="s">
-        <v>217</v>
-      </c>
+      <c r="N19" s="6"/>
       <c r="O19" s="8"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
@@ -3365,19 +3438,19 @@
       <c r="AA19" s="6"/>
       <c r="AB19" s="6"/>
     </row>
-    <row r="20" spans="1:28" ht="48" thickBot="1">
+    <row r="20" spans="1:28" ht="52.5" thickBot="1">
       <c r="A20" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="7">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -3386,7 +3459,7 @@
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
@@ -3407,19 +3480,19 @@
       <c r="AA20" s="6"/>
       <c r="AB20" s="6"/>
     </row>
-    <row r="21" spans="1:28" ht="52.5" thickBot="1">
+    <row r="21" spans="1:28" ht="48" thickBot="1">
       <c r="A21" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="7">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -3428,7 +3501,7 @@
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
@@ -3451,17 +3524,17 @@
     </row>
     <row r="22" spans="1:28" ht="48" thickBot="1">
       <c r="A22" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="7">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -3491,33 +3564,37 @@
       <c r="AA22" s="6"/>
       <c r="AB22" s="6"/>
     </row>
-    <row r="23" spans="1:28" ht="48" thickBot="1">
+    <row r="23" spans="1:28" ht="52.5" thickBot="1">
       <c r="A23" s="6" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="7">
-        <v>43916</v>
+        <v>43912</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>573</v>
+        <v>467</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K23" s="6"/>
+        <v>44</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
+      <c r="N23" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="O23" s="8"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
@@ -3533,19 +3610,17 @@
       <c r="AA23" s="6"/>
       <c r="AB23" s="6"/>
     </row>
-    <row r="24" spans="1:28" ht="52.5" thickBot="1">
+    <row r="24" spans="1:28" ht="48" thickBot="1">
       <c r="A24" s="6" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="7">
-        <v>43912</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>20</v>
-      </c>
+        <v>43913</v>
+      </c>
+      <c r="D24" s="6"/>
       <c r="E24" s="10" t="s">
-        <v>467</v>
+        <v>576</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -3554,16 +3629,12 @@
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>45</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
-      <c r="N24" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="N24" s="6"/>
       <c r="O24" s="8"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
@@ -3581,15 +3652,15 @@
     </row>
     <row r="25" spans="1:28" ht="48" thickBot="1">
       <c r="A25" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="7">
         <v>43913</v>
       </c>
       <c r="D25" s="6"/>
-      <c r="E25" s="10" t="s">
-        <v>576</v>
+      <c r="E25" s="14" t="s">
+        <v>468</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -3598,7 +3669,7 @@
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
@@ -3619,18 +3690,16 @@
       <c r="AA25" s="6"/>
       <c r="AB25" s="6"/>
     </row>
-    <row r="26" spans="1:28" ht="48" thickBot="1">
+    <row r="26" spans="1:28" ht="39" thickBot="1">
       <c r="A26" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="7">
         <v>43913</v>
       </c>
       <c r="D26" s="6"/>
-      <c r="E26" s="14" t="s">
-        <v>468</v>
-      </c>
+      <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6" t="s">
@@ -3638,10 +3707,14 @@
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
       <c r="O26" s="8"/>
@@ -3659,27 +3732,33 @@
       <c r="AA26" s="6"/>
       <c r="AB26" s="6"/>
     </row>
-    <row r="27" spans="1:28" ht="39" thickBot="1">
+    <row r="27" spans="1:28" ht="52.5" thickBot="1">
       <c r="A27" s="6" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="7">
-        <v>43913</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+        <v>43912</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="6" t="s">
         <v>31</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>218</v>
+        <v>31</v>
       </c>
       <c r="L27" s="6" t="s">
         <v>31</v>
@@ -3703,7 +3782,7 @@
     </row>
     <row r="28" spans="1:28" ht="52.5" thickBot="1">
       <c r="A28" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="7">
@@ -3713,10 +3792,10 @@
         <v>20</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6" t="s">
@@ -3724,14 +3803,12 @@
       </c>
       <c r="I28" s="6"/>
       <c r="J28" s="6" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>31</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28" s="8"/>
@@ -3751,7 +3828,7 @@
     </row>
     <row r="29" spans="1:28" ht="52.5" thickBot="1">
       <c r="A29" s="6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="7">
@@ -3761,10 +3838,10 @@
         <v>20</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6" t="s">
@@ -3772,10 +3849,10 @@
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="6" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
@@ -3797,7 +3874,7 @@
     </row>
     <row r="30" spans="1:28" ht="52.5" thickBot="1">
       <c r="A30" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="7">
@@ -3807,10 +3884,10 @@
         <v>20</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6" t="s">
@@ -3818,10 +3895,10 @@
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K30" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
@@ -3843,7 +3920,7 @@
     </row>
     <row r="31" spans="1:28" ht="52.5" thickBot="1">
       <c r="A31" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="7">
@@ -3853,10 +3930,10 @@
         <v>20</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6" t="s">
@@ -3864,7 +3941,7 @@
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>31</v>
@@ -3889,7 +3966,7 @@
     </row>
     <row r="32" spans="1:28" ht="52.5" thickBot="1">
       <c r="A32" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="7">
@@ -3899,10 +3976,10 @@
         <v>20</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6" t="s">
@@ -3935,7 +4012,7 @@
     </row>
     <row r="33" spans="1:28" ht="52.5" thickBot="1">
       <c r="A33" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="7">
@@ -3945,10 +4022,10 @@
         <v>20</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6" t="s">
@@ -3981,7 +4058,7 @@
     </row>
     <row r="34" spans="1:28" ht="52.5" thickBot="1">
       <c r="A34" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="7">
@@ -3991,10 +4068,10 @@
         <v>20</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6" t="s">
@@ -4025,33 +4102,35 @@
       <c r="AA34" s="6"/>
       <c r="AB34" s="6"/>
     </row>
-    <row r="35" spans="1:28" ht="52.5" thickBot="1">
+    <row r="35" spans="1:28" ht="65.25" thickBot="1">
       <c r="A35" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="7">
         <v>43912</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>476</v>
+        <v>577</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G35" s="6"/>
+        <v>68</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="H35" s="6" t="s">
-        <v>49</v>
+        <v>212</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="6" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
@@ -4071,39 +4150,39 @@
       <c r="AA35" s="6"/>
       <c r="AB35" s="6"/>
     </row>
-    <row r="36" spans="1:28" ht="65.25" thickBot="1">
-      <c r="A36" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="7">
-        <v>43912</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>577</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>69</v>
-      </c>
+    <row r="36" spans="1:28" ht="128.25" thickBot="1">
+      <c r="A36" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="11">
+        <v>43913</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
       <c r="H36" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
+        <v>105</v>
+      </c>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
       <c r="O36" s="8"/>
       <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
@@ -4119,21 +4198,35 @@
       <c r="AA36" s="6"/>
       <c r="AB36" s="6"/>
     </row>
-    <row r="37" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
+    <row r="37" spans="1:28" ht="115.5" thickBot="1">
+      <c r="A37" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
       <c r="O37" s="8"/>
       <c r="P37" s="6"/>
       <c r="Q37" s="6"/>
@@ -4149,21 +4242,35 @@
       <c r="AA37" s="6"/>
       <c r="AB37" s="6"/>
     </row>
-    <row r="38" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
+    <row r="38" spans="1:28" ht="115.5" thickBot="1">
+      <c r="A38" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
       <c r="O38" s="8"/>
       <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
@@ -4179,21 +4286,35 @@
       <c r="AA38" s="6"/>
       <c r="AB38" s="6"/>
     </row>
-    <row r="39" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
+    <row r="39" spans="1:28" ht="115.5" thickBot="1">
+      <c r="A39" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
       <c r="O39" s="8"/>
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
@@ -4209,21 +4330,17 @@
       <c r="AA39" s="6"/>
       <c r="AB39" s="6"/>
     </row>
-    <row r="40" spans="1:28" ht="128.25" thickBot="1">
+    <row r="40" spans="1:28" ht="141" thickBot="1">
       <c r="A40" s="8" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C40" s="11">
-        <v>43913</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>20</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
       <c r="E40" s="15" t="s">
-        <v>477</v>
+        <v>579</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
@@ -4232,13 +4349,13 @@
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="K40" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>31</v>
+        <v>539</v>
       </c>
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
@@ -4257,17 +4374,19 @@
       <c r="AA40" s="6"/>
       <c r="AB40" s="6"/>
     </row>
-    <row r="41" spans="1:28" ht="115.5" thickBot="1">
+    <row r="41" spans="1:28" ht="141" thickBot="1">
       <c r="A41" s="8" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C41" s="8"/>
+        <v>120</v>
+      </c>
+      <c r="C41" s="11">
+        <v>43913</v>
+      </c>
       <c r="D41" s="8"/>
-      <c r="E41" s="14" t="s">
-        <v>478</v>
+      <c r="E41" s="15" t="s">
+        <v>580</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
@@ -4276,7 +4395,7 @@
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="K41" s="8" t="s">
         <v>31</v>
@@ -4301,35 +4420,39 @@
       <c r="AA41" s="6"/>
       <c r="AB41" s="6"/>
     </row>
-    <row r="42" spans="1:28" ht="115.5" thickBot="1">
+    <row r="42" spans="1:28" ht="332.25" thickBot="1">
       <c r="A42" s="8" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="14" t="s">
-        <v>578</v>
+        <v>122</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>581</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
-      <c r="H42" s="6" t="s">
-        <v>105</v>
+      <c r="H42" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L42" s="8" t="s">
-        <v>539</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="L42" s="8"/>
       <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
+      <c r="N42" s="8" t="s">
+        <v>127</v>
+      </c>
       <c r="O42" s="8"/>
       <c r="P42" s="6"/>
       <c r="Q42" s="6"/>
@@ -4345,35 +4468,41 @@
       <c r="AA42" s="6"/>
       <c r="AB42" s="6"/>
     </row>
-    <row r="43" spans="1:28" ht="115.5" thickBot="1">
+    <row r="43" spans="1:28" ht="192" thickBot="1">
       <c r="A43" s="8" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
+        <v>129</v>
+      </c>
+      <c r="C43" s="11">
+        <v>43913</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E43" s="14" t="s">
-        <v>479</v>
+        <v>582</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="6" t="s">
-        <v>105</v>
+      <c r="H43" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="K43" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="L43" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L43" s="8" t="s">
-        <v>539</v>
-      </c>
       <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
+      <c r="N43" s="8" t="s">
+        <v>276</v>
+      </c>
       <c r="O43" s="8"/>
       <c r="P43" s="6"/>
       <c r="Q43" s="6"/>
@@ -4389,32 +4518,36 @@
       <c r="AA43" s="6"/>
       <c r="AB43" s="6"/>
     </row>
-    <row r="44" spans="1:28" ht="141" thickBot="1">
+    <row r="44" spans="1:28" ht="64.5" thickBot="1">
       <c r="A44" s="8" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
+        <v>131</v>
+      </c>
+      <c r="C44" s="11">
+        <v>43913</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E44" s="15" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
-      <c r="H44" s="6" t="s">
-        <v>105</v>
+      <c r="H44" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="K44" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>539</v>
+        <v>31</v>
       </c>
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
@@ -4433,35 +4566,35 @@
       <c r="AA44" s="6"/>
       <c r="AB44" s="6"/>
     </row>
-    <row r="45" spans="1:28" ht="141" thickBot="1">
+    <row r="45" spans="1:28" ht="64.5" thickBot="1">
       <c r="A45" s="8" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="C45" s="11">
         <v>43913</v>
       </c>
-      <c r="D45" s="8"/>
-      <c r="E45" s="15" t="s">
-        <v>580</v>
+      <c r="D45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>480</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="6" t="s">
-        <v>105</v>
+      <c r="H45" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="K45" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L45" s="8" t="s">
-        <v>539</v>
-      </c>
+      <c r="L45" s="8"/>
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
@@ -4479,18 +4612,36 @@
       <c r="AA45" s="6"/>
       <c r="AB45" s="6"/>
     </row>
-    <row r="46" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
+    <row r="46" spans="1:28" ht="64.5" thickBot="1">
+      <c r="A46" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" s="11">
+        <v>43913</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
+      <c r="H46" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
+      <c r="J46" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
@@ -4509,18 +4660,36 @@
       <c r="AA46" s="6"/>
       <c r="AB46" s="6"/>
     </row>
-    <row r="47" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
+    <row r="47" spans="1:28" ht="64.5" thickBot="1">
+      <c r="A47" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C47" s="11">
+        <v>43913</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
+      <c r="H47" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
+      <c r="J47" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
@@ -4539,19 +4708,39 @@
       <c r="AA47" s="6"/>
       <c r="AB47" s="6"/>
     </row>
-    <row r="48" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
+    <row r="48" spans="1:28" ht="64.5" thickBot="1">
+      <c r="A48" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C48" s="11">
+        <v>43913</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
+      <c r="H48" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
+      <c r="J48" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
@@ -4569,39 +4758,39 @@
       <c r="AA48" s="6"/>
       <c r="AB48" s="6"/>
     </row>
-    <row r="49" spans="1:28" ht="332.25" thickBot="1">
+    <row r="49" spans="1:28" ht="64.5" thickBot="1">
       <c r="A49" s="8" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>123</v>
+        <v>147</v>
+      </c>
+      <c r="C49" s="11">
+        <v>43913</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E49" s="15" t="s">
-        <v>581</v>
-      </c>
-      <c r="F49" s="8"/>
+      <c r="E49" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="G49" s="8"/>
       <c r="H49" s="8" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8" t="s">
-        <v>125</v>
+        <v>279</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
-      <c r="N49" s="8" t="s">
-        <v>127</v>
-      </c>
+      <c r="N49" s="8"/>
       <c r="O49" s="8"/>
       <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
@@ -4617,12 +4806,12 @@
       <c r="AA49" s="6"/>
       <c r="AB49" s="6"/>
     </row>
-    <row r="50" spans="1:28" ht="192" thickBot="1">
+    <row r="50" spans="1:28" ht="64.5" thickBot="1">
       <c r="A50" s="8" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="C50" s="11">
         <v>43913</v>
@@ -4631,27 +4820,25 @@
         <v>20</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>582</v>
-      </c>
-      <c r="F50" s="8"/>
+        <v>485</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="G50" s="8"/>
       <c r="H50" s="8" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8" t="s">
-        <v>125</v>
+        <v>280</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="L50" s="8" t="s">
         <v>31</v>
       </c>
+      <c r="L50" s="8"/>
       <c r="M50" s="8"/>
-      <c r="N50" s="8" t="s">
-        <v>276</v>
-      </c>
+      <c r="N50" s="8"/>
       <c r="O50" s="8"/>
       <c r="P50" s="6"/>
       <c r="Q50" s="6"/>
@@ -4667,18 +4854,36 @@
       <c r="AA50" s="6"/>
       <c r="AB50" s="6"/>
     </row>
-    <row r="51" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
+    <row r="51" spans="1:28" ht="64.5" thickBot="1">
+      <c r="A51" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" s="11">
+        <v>43913</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
+      <c r="H51" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
+      <c r="J51" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="L51" s="8"/>
       <c r="M51" s="8"/>
       <c r="N51" s="8"/>
@@ -4697,18 +4902,36 @@
       <c r="AA51" s="6"/>
       <c r="AB51" s="6"/>
     </row>
-    <row r="52" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
+    <row r="52" spans="1:28" ht="64.5" thickBot="1">
+      <c r="A52" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" s="11">
+        <v>43913</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
+      <c r="H52" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
+      <c r="J52" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="L52" s="8"/>
       <c r="M52" s="8"/>
       <c r="N52" s="8"/>
@@ -4729,10 +4952,10 @@
     </row>
     <row r="53" spans="1:28" ht="64.5" thickBot="1">
       <c r="A53" s="8" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="C53" s="11">
         <v>43913</v>
@@ -4740,24 +4963,22 @@
       <c r="D53" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E53" s="15" t="s">
-        <v>583</v>
-      </c>
-      <c r="F53" s="8"/>
+      <c r="E53" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="G53" s="8"/>
       <c r="H53" s="8" t="s">
-        <v>213</v>
+        <v>139</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="K53" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L53" s="8" t="s">
-        <v>31</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
       <c r="M53" s="8"/>
       <c r="N53" s="8"/>
       <c r="O53" s="8"/>
@@ -4775,35 +4996,39 @@
       <c r="AA53" s="6"/>
       <c r="AB53" s="6"/>
     </row>
-    <row r="54" spans="1:28" ht="64.5" thickBot="1">
+    <row r="54" spans="1:28" ht="48" thickBot="1">
       <c r="A54" s="8" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C54" s="11">
-        <v>43913</v>
+        <v>158</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E54" s="14" t="s">
-        <v>480</v>
-      </c>
-      <c r="F54" s="8"/>
+      <c r="E54" s="15" t="s">
+        <v>584</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>160</v>
+      </c>
       <c r="G54" s="8"/>
-      <c r="H54" s="8" t="s">
-        <v>213</v>
+      <c r="H54" s="12" t="s">
+        <v>161</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="K54" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L54" s="8"/>
+      <c r="L54" s="8" t="s">
+        <v>276</v>
+      </c>
       <c r="M54" s="8"/>
       <c r="N54" s="8"/>
       <c r="O54" s="8"/>
@@ -4821,19 +5046,37 @@
       <c r="AA54" s="6"/>
       <c r="AB54" s="6"/>
     </row>
-    <row r="55" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
+    <row r="55" spans="1:28" ht="64.5" thickBot="1">
+      <c r="A55" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>585</v>
+      </c>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
+      <c r="H55" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
+      <c r="J55" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="K55" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L55" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="M55" s="8"/>
       <c r="N55" s="8"/>
       <c r="O55" s="8"/>
@@ -4851,18 +5094,34 @@
       <c r="AA55" s="6"/>
       <c r="AB55" s="6"/>
     </row>
-    <row r="56" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
+    <row r="56" spans="1:28" ht="65.25" thickBot="1">
+      <c r="A56" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>586</v>
+      </c>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
+      <c r="H56" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
+      <c r="J56" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="K56" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="L56" s="8"/>
       <c r="M56" s="8"/>
       <c r="N56" s="8"/>
@@ -4881,37 +5140,37 @@
       <c r="AA56" s="6"/>
       <c r="AB56" s="6"/>
     </row>
-    <row r="57" spans="1:28" ht="64.5" thickBot="1">
+    <row r="57" spans="1:28" ht="51.75" thickBot="1">
       <c r="A57" s="8" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C57" s="11">
-        <v>43913</v>
+        <v>171</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>481</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>138</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="K57" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L57" s="8"/>
+      <c r="L57" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="M57" s="8"/>
       <c r="N57" s="8"/>
       <c r="O57" s="8"/>
@@ -4929,37 +5188,37 @@
       <c r="AA57" s="6"/>
       <c r="AB57" s="6"/>
     </row>
-    <row r="58" spans="1:28" ht="64.5" thickBot="1">
+    <row r="58" spans="1:28" ht="51.75" thickBot="1">
       <c r="A58" s="8" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C58" s="11">
-        <v>43913</v>
+        <v>175</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E58" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>138</v>
-      </c>
+      <c r="E58" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8" t="s">
-        <v>277</v>
+        <v>177</v>
       </c>
       <c r="K58" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L58" s="8"/>
+      <c r="L58" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="M58" s="8"/>
       <c r="N58" s="8"/>
       <c r="O58" s="8"/>
@@ -4979,37 +5238,33 @@
     </row>
     <row r="59" spans="1:28" ht="64.5" thickBot="1">
       <c r="A59" s="8" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C59" s="11">
-        <v>43913</v>
+        <v>179</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="14" t="s">
-        <v>483</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>138</v>
-      </c>
+      <c r="E59" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="8" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8" t="s">
-        <v>278</v>
+        <v>214</v>
       </c>
       <c r="K59" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L59" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="L59" s="8"/>
       <c r="M59" s="8"/>
       <c r="N59" s="8"/>
       <c r="O59" s="8"/>
@@ -5027,32 +5282,30 @@
       <c r="AA59" s="6"/>
       <c r="AB59" s="6"/>
     </row>
-    <row r="60" spans="1:28" ht="64.5" thickBot="1">
+    <row r="60" spans="1:28" ht="39" thickBot="1">
       <c r="A60" s="8" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C60" s="11">
-        <v>43913</v>
+        <v>182</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E60" s="14" t="s">
-        <v>484</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>138</v>
-      </c>
+      <c r="E60" s="15" t="s">
+        <v>587</v>
+      </c>
+      <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8" t="s">
-        <v>279</v>
+        <v>215</v>
       </c>
       <c r="K60" s="8" t="s">
         <v>31</v>
@@ -5077,30 +5330,28 @@
     </row>
     <row r="61" spans="1:28" ht="64.5" thickBot="1">
       <c r="A61" s="8" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C61" s="11">
-        <v>43913</v>
+        <v>184</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E61" s="14" t="s">
-        <v>485</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>138</v>
-      </c>
+      <c r="E61" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="8" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K61" s="8" t="s">
         <v>31</v>
@@ -5123,32 +5374,30 @@
       <c r="AA61" s="6"/>
       <c r="AB61" s="6"/>
     </row>
-    <row r="62" spans="1:28" ht="64.5" thickBot="1">
+    <row r="62" spans="1:28" ht="39" thickBot="1">
       <c r="A62" s="8" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C62" s="11">
-        <v>43913</v>
+        <v>186</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E62" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>138</v>
-      </c>
+      <c r="E62" s="15" t="s">
+        <v>493</v>
+      </c>
+      <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8" t="s">
-        <v>143</v>
+        <v>215</v>
       </c>
       <c r="K62" s="8" t="s">
         <v>31</v>
@@ -5171,33 +5420,29 @@
       <c r="AA62" s="6"/>
       <c r="AB62" s="6"/>
     </row>
-    <row r="63" spans="1:28" ht="64.5" thickBot="1">
+    <row r="63" spans="1:28" ht="32.25" thickBot="1">
       <c r="A63" s="8" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C63" s="11">
-        <v>43913</v>
+        <v>188</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E63" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>138</v>
-      </c>
+      <c r="E63" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="8" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="I63" s="8"/>
-      <c r="J63" s="8" t="s">
-        <v>143</v>
-      </c>
+      <c r="J63" s="8"/>
       <c r="K63" s="8" t="s">
         <v>31</v>
       </c>
@@ -5219,34 +5464,34 @@
       <c r="AA63" s="6"/>
       <c r="AB63" s="6"/>
     </row>
-    <row r="64" spans="1:28" ht="64.5" thickBot="1">
+    <row r="64" spans="1:28" ht="51.75" thickBot="1">
       <c r="A64" s="8" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C64" s="11">
-        <v>43913</v>
+        <v>190</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E64" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>138</v>
-      </c>
+      <c r="E64" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8" t="s">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="K64" s="8"/>
+        <v>192</v>
+      </c>
+      <c r="K64" s="8" t="s">
+        <v>216</v>
+      </c>
       <c r="L64" s="8"/>
       <c r="M64" s="8"/>
       <c r="N64" s="8"/>
@@ -5265,18 +5510,34 @@
       <c r="AA64" s="6"/>
       <c r="AB64" s="6"/>
     </row>
-    <row r="65" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
+    <row r="65" spans="1:28" ht="51.75" thickBot="1">
+      <c r="A65" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>589</v>
+      </c>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
+      <c r="H65" s="8" t="s">
+        <v>191</v>
+      </c>
       <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
+      <c r="J65" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="K65" s="8" t="s">
+        <v>216</v>
+      </c>
       <c r="L65" s="8"/>
       <c r="M65" s="8"/>
       <c r="N65" s="8"/>
@@ -5295,18 +5556,34 @@
       <c r="AA65" s="6"/>
       <c r="AB65" s="6"/>
     </row>
-    <row r="66" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
+    <row r="66" spans="1:28" ht="51.75" thickBot="1">
+      <c r="A66" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>590</v>
+      </c>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
+      <c r="H66" s="8" t="s">
+        <v>191</v>
+      </c>
       <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
+      <c r="J66" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="K66" s="8" t="s">
+        <v>216</v>
+      </c>
       <c r="L66" s="8"/>
       <c r="M66" s="8"/>
       <c r="N66" s="8"/>
@@ -5325,12 +5602,12 @@
       <c r="AA66" s="6"/>
       <c r="AB66" s="6"/>
     </row>
-    <row r="67" spans="1:28" ht="48" thickBot="1">
+    <row r="67" spans="1:28" ht="51.75" thickBot="1">
       <c r="A67" s="8" t="s">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>159</v>
@@ -5339,25 +5616,21 @@
         <v>20</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>584</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>160</v>
-      </c>
+        <v>591</v>
+      </c>
+      <c r="F67" s="8"/>
       <c r="G67" s="8"/>
-      <c r="H67" s="12" t="s">
-        <v>161</v>
+      <c r="H67" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8" t="s">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L67" s="8" t="s">
-        <v>276</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="L67" s="8"/>
       <c r="M67" s="8"/>
       <c r="N67" s="8"/>
       <c r="O67" s="8"/>
@@ -5375,19 +5648,33 @@
       <c r="AA67" s="6"/>
       <c r="AB67" s="6"/>
     </row>
-    <row r="68" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A68" s="8"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
+    <row r="68" spans="1:28" ht="51.75" thickBot="1">
+      <c r="A68" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
+      <c r="F68" s="8" t="s">
+        <v>201</v>
+      </c>
       <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
+      <c r="H68" s="8" t="s">
+        <v>282</v>
+      </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
-      <c r="L68" s="8"/>
+      <c r="L68" s="8" t="s">
+        <v>276</v>
+      </c>
       <c r="M68" s="8"/>
       <c r="N68" s="8"/>
       <c r="O68" s="8"/>
@@ -5405,12 +5692,12 @@
       <c r="AA68" s="6"/>
       <c r="AB68" s="6"/>
     </row>
-    <row r="69" spans="1:28" ht="64.5" thickBot="1">
+    <row r="69" spans="1:28" ht="51.75" thickBot="1">
       <c r="A69" s="8" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>164</v>
+        <v>219</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>159</v>
@@ -5418,23 +5705,21 @@
       <c r="D69" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E69" s="15" t="s">
-        <v>585</v>
-      </c>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="6" t="s">
-        <v>105</v>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>282</v>
       </c>
       <c r="I69" s="8"/>
-      <c r="J69" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="K69" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
       <c r="L69" s="8" t="s">
-        <v>31</v>
+        <v>426</v>
       </c>
       <c r="M69" s="8"/>
       <c r="N69" s="8"/>
@@ -5453,35 +5738,35 @@
       <c r="AA69" s="6"/>
       <c r="AB69" s="6"/>
     </row>
-    <row r="70" spans="1:28" ht="65.25" thickBot="1">
+    <row r="70" spans="1:28" ht="51.75" thickBot="1">
       <c r="A70" s="8" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E70" s="14" t="s">
-        <v>586</v>
-      </c>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="6" t="s">
-        <v>105</v>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>282</v>
       </c>
       <c r="I70" s="8"/>
-      <c r="J70" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="K70" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8" t="s">
+        <v>426</v>
+      </c>
       <c r="M70" s="8"/>
       <c r="N70" s="8"/>
       <c r="O70" s="8"/>
@@ -5499,19 +5784,35 @@
       <c r="AA70" s="6"/>
       <c r="AB70" s="6"/>
     </row>
-    <row r="71" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
+    <row r="71" spans="1:28" ht="51.75" thickBot="1">
+      <c r="A71" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
+      <c r="F71" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>282</v>
+      </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
-      <c r="L71" s="8"/>
+      <c r="L71" s="8" t="s">
+        <v>426</v>
+      </c>
       <c r="M71" s="8"/>
       <c r="N71" s="8"/>
       <c r="O71" s="8"/>
@@ -5529,19 +5830,33 @@
       <c r="AA71" s="6"/>
       <c r="AB71" s="6"/>
     </row>
-    <row r="72" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A72" s="8"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
+    <row r="72" spans="1:28" ht="51.75" thickBot="1">
+      <c r="A72" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
+      <c r="F72" s="8" t="s">
+        <v>223</v>
+      </c>
       <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
+      <c r="H72" s="8" t="s">
+        <v>224</v>
+      </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
-      <c r="L72" s="8"/>
+      <c r="L72" s="8" t="s">
+        <v>276</v>
+      </c>
       <c r="M72" s="8"/>
       <c r="N72" s="8"/>
       <c r="O72" s="8"/>
@@ -5561,34 +5876,30 @@
     </row>
     <row r="73" spans="1:28" ht="51.75" thickBot="1">
       <c r="A73" s="8" t="s">
-        <v>170</v>
+        <v>225</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>171</v>
+        <v>226</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>159</v>
+        <v>227</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E73" s="15" t="s">
-        <v>489</v>
-      </c>
-      <c r="F73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="G73" s="8"/>
       <c r="H73" s="8" t="s">
-        <v>172</v>
+        <v>229</v>
       </c>
       <c r="I73" s="8"/>
-      <c r="J73" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="K73" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
       <c r="L73" s="8" t="s">
-        <v>31</v>
+        <v>276</v>
       </c>
       <c r="M73" s="8"/>
       <c r="N73" s="8"/>
@@ -5607,19 +5918,33 @@
       <c r="AA73" s="6"/>
       <c r="AB73" s="6"/>
     </row>
-    <row r="74" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A74" s="8"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
+    <row r="74" spans="1:28" ht="51.75" thickBot="1">
+      <c r="A74" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
+      <c r="F74" s="8" t="s">
+        <v>231</v>
+      </c>
       <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
+      <c r="H74" s="8" t="s">
+        <v>232</v>
+      </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
+      <c r="L74" s="8" t="s">
+        <v>276</v>
+      </c>
       <c r="M74" s="8"/>
       <c r="N74" s="8"/>
       <c r="O74" s="8"/>
@@ -5637,19 +5962,33 @@
       <c r="AA74" s="6"/>
       <c r="AB74" s="6"/>
     </row>
-    <row r="75" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A75" s="8"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
+    <row r="75" spans="1:28" ht="51.75" thickBot="1">
+      <c r="A75" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
+      <c r="F75" s="8" t="s">
+        <v>235</v>
+      </c>
       <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
+      <c r="H75" s="8" t="s">
+        <v>236</v>
+      </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
+      <c r="L75" s="8" t="s">
+        <v>276</v>
+      </c>
       <c r="M75" s="8"/>
       <c r="N75" s="8"/>
       <c r="O75" s="8"/>
@@ -5669,35 +6008,29 @@
     </row>
     <row r="76" spans="1:28" ht="51.75" thickBot="1">
       <c r="A76" s="8" t="s">
-        <v>174</v>
+        <v>237</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>175</v>
+        <v>234</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>159</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E76" s="15" t="s">
-        <v>490</v>
-      </c>
-      <c r="F76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8" t="s">
+        <v>238</v>
+      </c>
       <c r="G76" s="8"/>
       <c r="H76" s="8" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="I76" s="8"/>
-      <c r="J76" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="K76" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L76" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
       <c r="M76" s="8"/>
       <c r="N76" s="8"/>
       <c r="O76" s="8"/>
@@ -5715,30 +6048,32 @@
       <c r="AA76" s="6"/>
       <c r="AB76" s="6"/>
     </row>
-    <row r="77" spans="1:28" ht="64.5" thickBot="1">
+    <row r="77" spans="1:28" ht="115.5" thickBot="1">
       <c r="A77" s="8" t="s">
-        <v>178</v>
+        <v>239</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>179</v>
+        <v>240</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>180</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>491</v>
-      </c>
-      <c r="F77" s="8"/>
+        <v>592</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>241</v>
+      </c>
       <c r="G77" s="8"/>
       <c r="H77" s="8" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8" t="s">
-        <v>214</v>
+        <v>283</v>
       </c>
       <c r="K77" s="8" t="s">
         <v>31</v>
@@ -5761,30 +6096,32 @@
       <c r="AA77" s="6"/>
       <c r="AB77" s="6"/>
     </row>
-    <row r="78" spans="1:28" ht="39" thickBot="1">
+    <row r="78" spans="1:28" ht="115.5" thickBot="1">
       <c r="A78" s="8" t="s">
-        <v>181</v>
+        <v>243</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>182</v>
+        <v>244</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>180</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>587</v>
-      </c>
-      <c r="F78" s="8"/>
+        <v>593</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="G78" s="8"/>
       <c r="H78" s="8" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8" t="s">
-        <v>215</v>
+        <v>284</v>
       </c>
       <c r="K78" s="8" t="s">
         <v>31</v>
@@ -5807,30 +6144,32 @@
       <c r="AA78" s="6"/>
       <c r="AB78" s="6"/>
     </row>
-    <row r="79" spans="1:28" ht="64.5" thickBot="1">
+    <row r="79" spans="1:28" ht="77.25" thickBot="1">
       <c r="A79" s="8" t="s">
-        <v>183</v>
+        <v>246</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>184</v>
+        <v>247</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>180</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>492</v>
-      </c>
-      <c r="F79" s="8"/>
+        <v>594</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>248</v>
+      </c>
       <c r="G79" s="8"/>
       <c r="H79" s="8" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K79" s="8" t="s">
         <v>31</v>
@@ -5853,33 +6192,35 @@
       <c r="AA79" s="6"/>
       <c r="AB79" s="6"/>
     </row>
-    <row r="80" spans="1:28" ht="39" thickBot="1">
+    <row r="80" spans="1:28" ht="51.75" thickBot="1">
       <c r="A80" s="8" t="s">
-        <v>185</v>
+        <v>249</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>186</v>
+        <v>250</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>180</v>
+        <v>222</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>493</v>
-      </c>
-      <c r="F80" s="8"/>
+        <v>595</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>251</v>
+      </c>
       <c r="G80" s="8"/>
       <c r="H80" s="8" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8" t="s">
-        <v>215</v>
+        <v>286</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>31</v>
+        <v>287</v>
       </c>
       <c r="L80" s="8"/>
       <c r="M80" s="8"/>
@@ -5899,29 +6240,33 @@
       <c r="AA80" s="6"/>
       <c r="AB80" s="6"/>
     </row>
-    <row r="81" spans="1:28" ht="32.25" thickBot="1">
+    <row r="81" spans="1:28" ht="77.25" thickBot="1">
       <c r="A81" s="8" t="s">
-        <v>187</v>
+        <v>252</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>188</v>
+        <v>253</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>180</v>
+        <v>222</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>494</v>
-      </c>
-      <c r="F81" s="8"/>
+        <v>596</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>254</v>
+      </c>
       <c r="G81" s="8"/>
       <c r="H81" s="8" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="I81" s="8"/>
-      <c r="J81" s="8"/>
+      <c r="J81" s="8" t="s">
+        <v>288</v>
+      </c>
       <c r="K81" s="8" t="s">
         <v>31</v>
       </c>
@@ -5943,18 +6288,36 @@
       <c r="AA81" s="6"/>
       <c r="AB81" s="6"/>
     </row>
-    <row r="82" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A82" s="8"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
+    <row r="82" spans="1:28" ht="90" thickBot="1">
+      <c r="A82" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E82" s="15" t="s">
+        <v>597</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>257</v>
+      </c>
       <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
+      <c r="H82" s="8" t="s">
+        <v>242</v>
+      </c>
       <c r="I82" s="8"/>
-      <c r="J82" s="8"/>
-      <c r="K82" s="8"/>
+      <c r="J82" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="K82" s="8" t="s">
+        <v>287</v>
+      </c>
       <c r="L82" s="8"/>
       <c r="M82" s="8"/>
       <c r="N82" s="8"/>
@@ -5973,18 +6336,36 @@
       <c r="AA82" s="6"/>
       <c r="AB82" s="6"/>
     </row>
-    <row r="83" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A83" s="8"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
+    <row r="83" spans="1:28" ht="90" thickBot="1">
+      <c r="A83" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E83" s="15" t="s">
+        <v>598</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>260</v>
+      </c>
       <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
+      <c r="H83" s="8" t="s">
+        <v>242</v>
+      </c>
       <c r="I83" s="8"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="8"/>
+      <c r="J83" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="K83" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="L83" s="8"/>
       <c r="M83" s="8"/>
       <c r="N83" s="8"/>
@@ -6003,33 +6384,35 @@
       <c r="AA83" s="6"/>
       <c r="AB83" s="6"/>
     </row>
-    <row r="84" spans="1:28" ht="51.75" thickBot="1">
+    <row r="84" spans="1:28" ht="77.25" thickBot="1">
       <c r="A84" s="8" t="s">
-        <v>189</v>
+        <v>261</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>190</v>
+        <v>259</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>159</v>
+        <v>222</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>588</v>
-      </c>
-      <c r="F84" s="8"/>
+        <v>599</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>262</v>
+      </c>
       <c r="G84" s="8"/>
       <c r="H84" s="8" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8" t="s">
-        <v>192</v>
+        <v>291</v>
       </c>
       <c r="K84" s="8" t="s">
-        <v>216</v>
+        <v>31</v>
       </c>
       <c r="L84" s="8"/>
       <c r="M84" s="8"/>
@@ -6049,33 +6432,35 @@
       <c r="AA84" s="6"/>
       <c r="AB84" s="6"/>
     </row>
-    <row r="85" spans="1:28" ht="51.75" thickBot="1">
+    <row r="85" spans="1:28" ht="77.25" thickBot="1">
       <c r="A85" s="8" t="s">
-        <v>193</v>
+        <v>263</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>194</v>
+        <v>264</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>159</v>
+        <v>222</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>589</v>
-      </c>
-      <c r="F85" s="8"/>
+        <v>600</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>265</v>
+      </c>
       <c r="G85" s="8"/>
       <c r="H85" s="8" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8" t="s">
-        <v>192</v>
+        <v>292</v>
       </c>
       <c r="K85" s="8" t="s">
-        <v>216</v>
+        <v>31</v>
       </c>
       <c r="L85" s="8"/>
       <c r="M85" s="8"/>
@@ -6095,33 +6480,35 @@
       <c r="AA85" s="6"/>
       <c r="AB85" s="6"/>
     </row>
-    <row r="86" spans="1:28" ht="51.75" thickBot="1">
+    <row r="86" spans="1:28" ht="90" thickBot="1">
       <c r="A86" s="8" t="s">
-        <v>195</v>
+        <v>266</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>196</v>
+        <v>259</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>159</v>
+        <v>267</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>590</v>
-      </c>
-      <c r="F86" s="8"/>
+        <v>601</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>268</v>
+      </c>
       <c r="G86" s="8"/>
       <c r="H86" s="8" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8" t="s">
-        <v>192</v>
+        <v>293</v>
       </c>
       <c r="K86" s="8" t="s">
-        <v>216</v>
+        <v>31</v>
       </c>
       <c r="L86" s="8"/>
       <c r="M86" s="8"/>
@@ -6143,31 +6530,33 @@
     </row>
     <row r="87" spans="1:28" ht="51.75" thickBot="1">
       <c r="A87" s="8" t="s">
-        <v>197</v>
+        <v>269</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>198</v>
+        <v>270</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>159</v>
+        <v>222</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>591</v>
-      </c>
-      <c r="F87" s="8"/>
+        <v>602</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>271</v>
+      </c>
       <c r="G87" s="8"/>
       <c r="H87" s="8" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8" t="s">
-        <v>199</v>
+        <v>294</v>
       </c>
       <c r="K87" s="8" t="s">
-        <v>216</v>
+        <v>31</v>
       </c>
       <c r="L87" s="8"/>
       <c r="M87" s="8"/>
@@ -6187,19 +6576,39 @@
       <c r="AA87" s="6"/>
       <c r="AB87" s="6"/>
     </row>
-    <row r="88" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A88" s="8"/>
-      <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
+    <row r="88" spans="1:28" ht="64.5" thickBot="1">
+      <c r="A88" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E88" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>274</v>
+      </c>
       <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
+      <c r="H88" s="8" t="s">
+        <v>242</v>
+      </c>
       <c r="I88" s="8"/>
-      <c r="J88" s="8"/>
-      <c r="K88" s="8"/>
-      <c r="L88" s="8"/>
+      <c r="J88" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="K88" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L88" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="M88" s="8"/>
       <c r="N88" s="8"/>
       <c r="O88" s="8"/>
@@ -6217,19 +6626,31 @@
       <c r="AA88" s="6"/>
       <c r="AB88" s="6"/>
     </row>
-    <row r="89" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A89" s="8"/>
-      <c r="B89" s="8"/>
+    <row r="89" spans="1:28" ht="48" thickBot="1">
+      <c r="A89" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>297</v>
+      </c>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
+      <c r="E89" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>298</v>
+      </c>
       <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
+      <c r="H89" s="16" t="s">
+        <v>282</v>
+      </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
-      <c r="L89" s="8"/>
+      <c r="L89" s="8" t="s">
+        <v>276</v>
+      </c>
       <c r="M89" s="8"/>
       <c r="N89" s="8"/>
       <c r="O89" s="8"/>
@@ -6247,32 +6668,40 @@
       <c r="AA89" s="6"/>
       <c r="AB89" s="6"/>
     </row>
-    <row r="90" spans="1:28" ht="51.75" thickBot="1">
+    <row r="90" spans="1:28" ht="90" thickBot="1">
       <c r="A90" s="8" t="s">
-        <v>200</v>
+        <v>299</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>219</v>
+        <v>300</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>159</v>
+        <v>301</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E90" s="8"/>
+      <c r="E90" s="15" t="s">
+        <v>604</v>
+      </c>
       <c r="F90" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="G90" s="8"/>
+        <v>302</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>303</v>
+      </c>
       <c r="H90" s="8" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="I90" s="8"/>
-      <c r="J90" s="8"/>
-      <c r="K90" s="8"/>
+      <c r="J90" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="K90" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="L90" s="8" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="M90" s="8"/>
       <c r="N90" s="8"/>
@@ -6291,34 +6720,40 @@
       <c r="AA90" s="6"/>
       <c r="AB90" s="6"/>
     </row>
-    <row r="91" spans="1:28" ht="51.75" thickBot="1">
+    <row r="91" spans="1:28" ht="90" thickBot="1">
       <c r="A91" s="8" t="s">
-        <v>202</v>
+        <v>307</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>219</v>
+        <v>308</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>159</v>
+        <v>301</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E91" s="8"/>
+      <c r="E91" s="15" t="s">
+        <v>605</v>
+      </c>
       <c r="F91" s="8" t="s">
-        <v>203</v>
+        <v>302</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>204</v>
+        <v>303</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="I91" s="8"/>
-      <c r="J91" s="8"/>
-      <c r="K91" s="8"/>
+      <c r="J91" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="K91" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="L91" s="8" t="s">
-        <v>426</v>
+        <v>306</v>
       </c>
       <c r="M91" s="8"/>
       <c r="N91" s="8"/>
@@ -6337,34 +6772,40 @@
       <c r="AA91" s="6"/>
       <c r="AB91" s="6"/>
     </row>
-    <row r="92" spans="1:28" ht="51.75" thickBot="1">
+    <row r="92" spans="1:28" ht="77.25" thickBot="1">
       <c r="A92" s="8" t="s">
-        <v>205</v>
+        <v>310</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>219</v>
+        <v>311</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>159</v>
+        <v>301</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E92" s="8"/>
+      <c r="E92" s="15" t="s">
+        <v>606</v>
+      </c>
       <c r="F92" s="8" t="s">
-        <v>206</v>
+        <v>302</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>207</v>
+        <v>303</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="I92" s="8"/>
-      <c r="J92" s="8"/>
-      <c r="K92" s="8"/>
+      <c r="J92" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="K92" s="8" t="s">
+        <v>313</v>
+      </c>
       <c r="L92" s="8" t="s">
-        <v>426</v>
+        <v>306</v>
       </c>
       <c r="M92" s="8"/>
       <c r="N92" s="8"/>
@@ -6383,37 +6824,45 @@
       <c r="AA92" s="6"/>
       <c r="AB92" s="6"/>
     </row>
-    <row r="93" spans="1:28" ht="51.75" thickBot="1">
+    <row r="93" spans="1:28" ht="128.25" thickBot="1">
       <c r="A93" s="8" t="s">
-        <v>208</v>
+        <v>314</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>219</v>
+        <v>315</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>159</v>
+        <v>301</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E93" s="8"/>
+      <c r="E93" s="15" t="s">
+        <v>607</v>
+      </c>
       <c r="F93" s="8" t="s">
-        <v>206</v>
+        <v>302</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>209</v>
+        <v>303</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="I93" s="8"/>
-      <c r="J93" s="8"/>
-      <c r="K93" s="8"/>
+      <c r="J93" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="K93" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="L93" s="8" t="s">
-        <v>426</v>
+        <v>306</v>
       </c>
       <c r="M93" s="8"/>
-      <c r="N93" s="8"/>
+      <c r="N93" s="8" t="s">
+        <v>317</v>
+      </c>
       <c r="O93" s="8"/>
       <c r="P93" s="6"/>
       <c r="Q93" s="6"/>
@@ -6429,19 +6878,41 @@
       <c r="AA93" s="6"/>
       <c r="AB93" s="6"/>
     </row>
-    <row r="94" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A94" s="8"/>
-      <c r="B94" s="8"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
+    <row r="94" spans="1:28" ht="64.5" thickBot="1">
+      <c r="A94" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E94" s="15" t="s">
+        <v>608</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="G94" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="H94" s="8" t="s">
+        <v>304</v>
+      </c>
       <c r="I94" s="8"/>
-      <c r="J94" s="8"/>
-      <c r="K94" s="8"/>
-      <c r="L94" s="8"/>
+      <c r="J94" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="K94" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L94" s="8" t="s">
+        <v>306</v>
+      </c>
       <c r="M94" s="8"/>
       <c r="N94" s="8"/>
       <c r="O94" s="8"/>
@@ -6459,18 +6930,38 @@
       <c r="AA94" s="6"/>
       <c r="AB94" s="6"/>
     </row>
-    <row r="95" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A95" s="8"/>
-      <c r="B95" s="8"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
+    <row r="95" spans="1:28" ht="64.5" thickBot="1">
+      <c r="A95" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E95" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="H95" s="8" t="s">
+        <v>325</v>
+      </c>
       <c r="I95" s="8"/>
-      <c r="J95" s="8"/>
-      <c r="K95" s="8"/>
+      <c r="J95" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="K95" s="8" t="s">
+        <v>327</v>
+      </c>
       <c r="L95" s="8"/>
       <c r="M95" s="8"/>
       <c r="N95" s="8"/>
@@ -6489,33 +6980,39 @@
       <c r="AA95" s="6"/>
       <c r="AB95" s="6"/>
     </row>
-    <row r="96" spans="1:28" ht="51.75" thickBot="1">
+    <row r="96" spans="1:28" ht="64.5" thickBot="1">
       <c r="A96" s="8" t="s">
-        <v>220</v>
+        <v>328</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>221</v>
+        <v>329</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>222</v>
+        <v>323</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E96" s="8"/>
+      <c r="E96" s="15" t="s">
+        <v>610</v>
+      </c>
       <c r="F96" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="G96" s="8"/>
+        <v>138</v>
+      </c>
+      <c r="G96" s="8" t="s">
+        <v>324</v>
+      </c>
       <c r="H96" s="8" t="s">
-        <v>224</v>
+        <v>325</v>
       </c>
       <c r="I96" s="8"/>
-      <c r="J96" s="8"/>
-      <c r="K96" s="8"/>
-      <c r="L96" s="8" t="s">
-        <v>276</v>
-      </c>
+      <c r="J96" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="K96" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L96" s="8"/>
       <c r="M96" s="8"/>
       <c r="N96" s="8"/>
       <c r="O96" s="8"/>
@@ -6533,33 +7030,39 @@
       <c r="AA96" s="6"/>
       <c r="AB96" s="6"/>
     </row>
-    <row r="97" spans="1:28" ht="51.75" thickBot="1">
+    <row r="97" spans="1:28" ht="64.5" thickBot="1">
       <c r="A97" s="8" t="s">
-        <v>225</v>
+        <v>330</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>226</v>
+        <v>331</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>227</v>
+        <v>323</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E97" s="8"/>
+      <c r="E97" s="15" t="s">
+        <v>611</v>
+      </c>
       <c r="F97" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="G97" s="8"/>
+        <v>138</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>324</v>
+      </c>
       <c r="H97" s="8" t="s">
-        <v>229</v>
+        <v>325</v>
       </c>
       <c r="I97" s="8"/>
-      <c r="J97" s="8"/>
-      <c r="K97" s="8"/>
-      <c r="L97" s="8" t="s">
-        <v>276</v>
-      </c>
+      <c r="J97" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="K97" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="L97" s="8"/>
       <c r="M97" s="8"/>
       <c r="N97" s="8"/>
       <c r="O97" s="8"/>
@@ -6577,35 +7080,45 @@
       <c r="AA97" s="6"/>
       <c r="AB97" s="6"/>
     </row>
-    <row r="98" spans="1:28" ht="51.75" thickBot="1">
+    <row r="98" spans="1:28" ht="64.5" thickBot="1">
       <c r="A98" s="8" t="s">
-        <v>230</v>
+        <v>333</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>226</v>
+        <v>334</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>222</v>
+        <v>323</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E98" s="8"/>
+      <c r="E98" s="15" t="s">
+        <v>612</v>
+      </c>
       <c r="F98" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="G98" s="8"/>
+        <v>138</v>
+      </c>
+      <c r="G98" s="8" t="s">
+        <v>324</v>
+      </c>
       <c r="H98" s="8" t="s">
-        <v>232</v>
+        <v>325</v>
       </c>
       <c r="I98" s="8"/>
-      <c r="J98" s="8"/>
-      <c r="K98" s="8"/>
+      <c r="J98" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="K98" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="L98" s="8" t="s">
-        <v>276</v>
+        <v>31</v>
       </c>
       <c r="M98" s="8"/>
-      <c r="N98" s="8"/>
+      <c r="N98" s="8" t="s">
+        <v>496</v>
+      </c>
       <c r="O98" s="8"/>
       <c r="P98" s="6"/>
       <c r="Q98" s="6"/>
@@ -6621,33 +7134,39 @@
       <c r="AA98" s="6"/>
       <c r="AB98" s="6"/>
     </row>
-    <row r="99" spans="1:28" ht="51.75" thickBot="1">
+    <row r="99" spans="1:28" ht="90" thickBot="1">
       <c r="A99" s="8" t="s">
-        <v>233</v>
+        <v>336</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>234</v>
+        <v>337</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>222</v>
+        <v>323</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E99" s="8"/>
+      <c r="E99" s="15" t="s">
+        <v>613</v>
+      </c>
       <c r="F99" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="G99" s="8"/>
+        <v>138</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>324</v>
+      </c>
       <c r="H99" s="8" t="s">
-        <v>236</v>
+        <v>325</v>
       </c>
       <c r="I99" s="8"/>
-      <c r="J99" s="8"/>
-      <c r="K99" s="8"/>
-      <c r="L99" s="8" t="s">
-        <v>276</v>
-      </c>
+      <c r="J99" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="K99" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L99" s="8"/>
       <c r="M99" s="8"/>
       <c r="N99" s="8"/>
       <c r="O99" s="8"/>
@@ -6665,30 +7184,38 @@
       <c r="AA99" s="6"/>
       <c r="AB99" s="6"/>
     </row>
-    <row r="100" spans="1:28" ht="51.75" thickBot="1">
+    <row r="100" spans="1:28" ht="64.5" thickBot="1">
       <c r="A100" s="8" t="s">
-        <v>237</v>
+        <v>339</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>234</v>
+        <v>340</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>222</v>
+        <v>323</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E100" s="8"/>
+      <c r="E100" s="15" t="s">
+        <v>614</v>
+      </c>
       <c r="F100" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="G100" s="8"/>
+        <v>341</v>
+      </c>
+      <c r="G100" s="8" t="s">
+        <v>342</v>
+      </c>
       <c r="H100" s="8" t="s">
-        <v>236</v>
+        <v>427</v>
       </c>
       <c r="I100" s="8"/>
-      <c r="J100" s="8"/>
-      <c r="K100" s="8"/>
+      <c r="J100" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="K100" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="L100" s="8"/>
       <c r="M100" s="8"/>
       <c r="N100" s="8"/>
@@ -6707,36 +7234,32 @@
       <c r="AA100" s="6"/>
       <c r="AB100" s="6"/>
     </row>
-    <row r="101" spans="1:28" ht="115.5" thickBot="1">
+    <row r="101" spans="1:28" ht="48" thickBot="1">
       <c r="A101" s="8" t="s">
-        <v>239</v>
+        <v>344</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>240</v>
+        <v>345</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>222</v>
+        <v>323</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E101" s="15" t="s">
-        <v>592</v>
-      </c>
-      <c r="F101" s="8" t="s">
-        <v>241</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c r="H101" s="8" t="s">
-        <v>242</v>
+        <v>346</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="K101" s="8" t="s">
-        <v>31</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="K101" s="8"/>
       <c r="L101" s="8"/>
       <c r="M101" s="8"/>
       <c r="N101" s="8"/>
@@ -6755,36 +7278,34 @@
       <c r="AA101" s="6"/>
       <c r="AB101" s="6"/>
     </row>
-    <row r="102" spans="1:28" ht="115.5" thickBot="1">
+    <row r="102" spans="1:28" ht="48" thickBot="1">
       <c r="A102" s="8" t="s">
-        <v>243</v>
+        <v>348</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>244</v>
+        <v>349</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>222</v>
+        <v>323</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E102" s="15" t="s">
-        <v>593</v>
+        <v>498</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>245</v>
+        <v>350</v>
       </c>
       <c r="G102" s="8"/>
       <c r="H102" s="8" t="s">
-        <v>242</v>
+        <v>346</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="K102" s="8" t="s">
-        <v>31</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="K102" s="8"/>
       <c r="L102" s="8"/>
       <c r="M102" s="8"/>
       <c r="N102" s="8"/>
@@ -6803,36 +7324,34 @@
       <c r="AA102" s="6"/>
       <c r="AB102" s="6"/>
     </row>
-    <row r="103" spans="1:28" ht="77.25" thickBot="1">
+    <row r="103" spans="1:28" ht="48" thickBot="1">
       <c r="A103" s="8" t="s">
-        <v>246</v>
+        <v>352</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>247</v>
+        <v>353</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>222</v>
+        <v>323</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E103" s="15" t="s">
-        <v>594</v>
+        <v>499</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>248</v>
+        <v>350</v>
       </c>
       <c r="G103" s="8"/>
       <c r="H103" s="8" t="s">
-        <v>242</v>
+        <v>346</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="K103" s="8" t="s">
-        <v>31</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="K103" s="8"/>
       <c r="L103" s="8"/>
       <c r="M103" s="8"/>
       <c r="N103" s="8"/>
@@ -6853,35 +7372,35 @@
     </row>
     <row r="104" spans="1:28" ht="51.75" thickBot="1">
       <c r="A104" s="8" t="s">
-        <v>249</v>
+        <v>354</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>250</v>
+        <v>355</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>222</v>
+        <v>323</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>595</v>
+        <v>500</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>251</v>
+        <v>350</v>
       </c>
       <c r="G104" s="8"/>
       <c r="H104" s="8" t="s">
-        <v>242</v>
+        <v>346</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="K104" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="L104" s="8"/>
+        <v>356</v>
+      </c>
+      <c r="K104" s="8"/>
+      <c r="L104" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="M104" s="8"/>
       <c r="N104" s="8"/>
       <c r="O104" s="8"/>
@@ -6899,36 +7418,34 @@
       <c r="AA104" s="6"/>
       <c r="AB104" s="6"/>
     </row>
-    <row r="105" spans="1:28" ht="77.25" thickBot="1">
+    <row r="105" spans="1:28" ht="51.75" thickBot="1">
       <c r="A105" s="8" t="s">
-        <v>252</v>
+        <v>357</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>253</v>
+        <v>358</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>222</v>
+        <v>323</v>
       </c>
       <c r="D105" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>596</v>
+        <v>501</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>254</v>
+        <v>350</v>
       </c>
       <c r="G105" s="8"/>
       <c r="H105" s="8" t="s">
-        <v>242</v>
+        <v>346</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="K105" s="8" t="s">
-        <v>31</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="K105" s="8"/>
       <c r="L105" s="8"/>
       <c r="M105" s="8"/>
       <c r="N105" s="8"/>
@@ -6947,35 +7464,35 @@
       <c r="AA105" s="6"/>
       <c r="AB105" s="6"/>
     </row>
-    <row r="106" spans="1:28" ht="90" thickBot="1">
+    <row r="106" spans="1:28" ht="51.75" thickBot="1">
       <c r="A106" s="8" t="s">
-        <v>255</v>
+        <v>359</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>256</v>
+        <v>360</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>222</v>
+        <v>323</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E106" s="15" t="s">
-        <v>597</v>
+        <v>502</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>257</v>
+        <v>350</v>
       </c>
       <c r="G106" s="8"/>
       <c r="H106" s="8" t="s">
-        <v>242</v>
+        <v>346</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8" t="s">
-        <v>289</v>
+        <v>356</v>
       </c>
       <c r="K106" s="8" t="s">
-        <v>287</v>
+        <v>361</v>
       </c>
       <c r="L106" s="8"/>
       <c r="M106" s="8"/>
@@ -6995,35 +7512,35 @@
       <c r="AA106" s="6"/>
       <c r="AB106" s="6"/>
     </row>
-    <row r="107" spans="1:28" ht="90" thickBot="1">
+    <row r="107" spans="1:28" ht="51.75" thickBot="1">
       <c r="A107" s="8" t="s">
-        <v>258</v>
+        <v>362</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>259</v>
+        <v>363</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>222</v>
+        <v>323</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E107" s="15" t="s">
-        <v>598</v>
+        <v>503</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="G107" s="8"/>
       <c r="H107" s="8" t="s">
-        <v>242</v>
+        <v>346</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8" t="s">
-        <v>290</v>
+        <v>356</v>
       </c>
       <c r="K107" s="8" t="s">
-        <v>31</v>
+        <v>361</v>
       </c>
       <c r="L107" s="8"/>
       <c r="M107" s="8"/>
@@ -7043,37 +7560,39 @@
       <c r="AA107" s="6"/>
       <c r="AB107" s="6"/>
     </row>
-    <row r="108" spans="1:28" ht="77.25" thickBot="1">
+    <row r="108" spans="1:28" ht="51.75" thickBot="1">
       <c r="A108" s="8" t="s">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>259</v>
+        <v>365</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>222</v>
+        <v>323</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E108" s="15" t="s">
-        <v>599</v>
+        <v>504</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>262</v>
+        <v>350</v>
       </c>
       <c r="G108" s="8"/>
       <c r="H108" s="8" t="s">
-        <v>242</v>
+        <v>346</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8" t="s">
-        <v>291</v>
+        <v>356</v>
       </c>
       <c r="K108" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="L108" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L108" s="8"/>
       <c r="M108" s="8"/>
       <c r="N108" s="8"/>
       <c r="O108" s="8"/>
@@ -7091,37 +7610,37 @@
       <c r="AA108" s="6"/>
       <c r="AB108" s="6"/>
     </row>
-    <row r="109" spans="1:28" ht="77.25" thickBot="1">
+    <row r="109" spans="1:28" ht="64.5" thickBot="1">
       <c r="A109" s="8" t="s">
-        <v>263</v>
+        <v>366</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>264</v>
+        <v>367</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>222</v>
+        <v>323</v>
       </c>
       <c r="D109" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E109" s="15" t="s">
-        <v>600</v>
+        <v>505</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>265</v>
+        <v>368</v>
       </c>
       <c r="G109" s="8"/>
       <c r="H109" s="8" t="s">
-        <v>242</v>
+        <v>346</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="K109" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="K109" s="8"/>
+      <c r="L109" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L109" s="8"/>
       <c r="M109" s="8"/>
       <c r="N109" s="8"/>
       <c r="O109" s="8"/>
@@ -7139,39 +7658,43 @@
       <c r="AA109" s="6"/>
       <c r="AB109" s="6"/>
     </row>
-    <row r="110" spans="1:28" ht="90" thickBot="1">
+    <row r="110" spans="1:28" ht="102.75" thickBot="1">
       <c r="A110" s="8" t="s">
-        <v>266</v>
+        <v>369</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>259</v>
+        <v>370</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>267</v>
+        <v>371</v>
       </c>
       <c r="D110" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E110" s="15" t="s">
-        <v>601</v>
+        <v>615</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="G110" s="8"/>
-      <c r="H110" s="8" t="s">
-        <v>242</v>
+        <v>372</v>
+      </c>
+      <c r="G110" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="H110" s="16" t="s">
+        <v>282</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8" t="s">
-        <v>293</v>
+        <v>374</v>
       </c>
       <c r="K110" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L110" s="8"/>
       <c r="M110" s="8"/>
-      <c r="N110" s="8"/>
+      <c r="N110" s="8" t="s">
+        <v>507</v>
+      </c>
       <c r="O110" s="8"/>
       <c r="P110" s="6"/>
       <c r="Q110" s="6"/>
@@ -7187,35 +7710,35 @@
       <c r="AA110" s="6"/>
       <c r="AB110" s="6"/>
     </row>
-    <row r="111" spans="1:28" ht="51.75" thickBot="1">
+    <row r="111" spans="1:28" ht="90" thickBot="1">
       <c r="A111" s="8" t="s">
-        <v>269</v>
+        <v>375</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>222</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="C111" s="8"/>
       <c r="D111" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E111" s="15" t="s">
-        <v>602</v>
+      <c r="E111" s="14" t="s">
+        <v>508</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="G111" s="8"/>
-      <c r="H111" s="8" t="s">
-        <v>242</v>
+        <v>372</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="H111" s="16" t="s">
+        <v>282</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8" t="s">
-        <v>294</v>
+        <v>377</v>
       </c>
       <c r="K111" s="8" t="s">
-        <v>31</v>
+        <v>378</v>
       </c>
       <c r="L111" s="8"/>
       <c r="M111" s="8"/>
@@ -7235,39 +7758,37 @@
       <c r="AA111" s="6"/>
       <c r="AB111" s="6"/>
     </row>
-    <row r="112" spans="1:28" ht="64.5" thickBot="1">
+    <row r="112" spans="1:28" ht="77.25" thickBot="1">
       <c r="A112" s="8" t="s">
-        <v>272</v>
+        <v>379</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>273</v>
+        <v>380</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>222</v>
+        <v>371</v>
       </c>
       <c r="D112" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E112" s="15" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>274</v>
+        <v>381</v>
       </c>
       <c r="G112" s="8"/>
       <c r="H112" s="8" t="s">
-        <v>242</v>
+        <v>382</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8" t="s">
-        <v>295</v>
+        <v>383</v>
       </c>
       <c r="K112" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L112" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="L112" s="8"/>
       <c r="M112" s="8"/>
       <c r="N112" s="8"/>
       <c r="O112" s="8"/>
@@ -7285,18 +7806,36 @@
       <c r="AA112" s="6"/>
       <c r="AB112" s="6"/>
     </row>
-    <row r="113" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A113" s="8"/>
-      <c r="B113" s="8"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8"/>
+    <row r="113" spans="1:28" ht="77.25" thickBot="1">
+      <c r="A113" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E113" s="15" t="s">
+        <v>617</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>386</v>
+      </c>
       <c r="G113" s="8"/>
-      <c r="H113" s="8"/>
+      <c r="H113" s="8" t="s">
+        <v>387</v>
+      </c>
       <c r="I113" s="8"/>
-      <c r="J113" s="8"/>
-      <c r="K113" s="8"/>
+      <c r="J113" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="K113" s="8" t="s">
+        <v>389</v>
+      </c>
       <c r="L113" s="8"/>
       <c r="M113" s="8"/>
       <c r="N113" s="8"/>
@@ -7315,18 +7854,36 @@
       <c r="AA113" s="6"/>
       <c r="AB113" s="6"/>
     </row>
-    <row r="114" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A114" s="8"/>
-      <c r="B114" s="8"/>
-      <c r="C114" s="8"/>
-      <c r="D114" s="8"/>
-      <c r="E114" s="8"/>
-      <c r="F114" s="8"/>
+    <row r="114" spans="1:28" ht="77.25" thickBot="1">
+      <c r="A114" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E114" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>386</v>
+      </c>
       <c r="G114" s="8"/>
-      <c r="H114" s="8"/>
+      <c r="H114" s="8" t="s">
+        <v>387</v>
+      </c>
       <c r="I114" s="8"/>
-      <c r="J114" s="8"/>
-      <c r="K114" s="8"/>
+      <c r="J114" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="K114" s="8" t="s">
+        <v>389</v>
+      </c>
       <c r="L114" s="8"/>
       <c r="M114" s="8"/>
       <c r="N114" s="8"/>
@@ -7345,30 +7902,38 @@
       <c r="AA114" s="6"/>
       <c r="AB114" s="6"/>
     </row>
-    <row r="115" spans="1:28" ht="48" thickBot="1">
+    <row r="115" spans="1:28" ht="90" thickBot="1">
       <c r="A115" s="8" t="s">
-        <v>296</v>
+        <v>393</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="C115" s="8"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="10" t="s">
-        <v>495</v>
+        <v>394</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E115" s="14" t="s">
+        <v>619</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>298</v>
+        <v>386</v>
       </c>
       <c r="G115" s="8"/>
-      <c r="H115" s="16" t="s">
-        <v>282</v>
+      <c r="H115" s="8" t="s">
+        <v>387</v>
       </c>
       <c r="I115" s="8"/>
-      <c r="J115" s="8"/>
-      <c r="K115" s="8"/>
+      <c r="J115" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="K115" s="8" t="s">
+        <v>313</v>
+      </c>
       <c r="L115" s="8" t="s">
-        <v>276</v>
+        <v>31</v>
       </c>
       <c r="M115" s="8"/>
       <c r="N115" s="8"/>
@@ -7387,19 +7952,39 @@
       <c r="AA115" s="6"/>
       <c r="AB115" s="6"/>
     </row>
-    <row r="116" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A116" s="8"/>
-      <c r="B116" s="8"/>
-      <c r="C116" s="8"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="8"/>
-      <c r="F116" s="8"/>
+    <row r="116" spans="1:28" ht="51.75" thickBot="1">
+      <c r="A116" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E116" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>398</v>
+      </c>
       <c r="G116" s="8"/>
-      <c r="H116" s="8"/>
+      <c r="H116" s="8" t="s">
+        <v>399</v>
+      </c>
       <c r="I116" s="8"/>
-      <c r="J116" s="8"/>
-      <c r="K116" s="8"/>
-      <c r="L116" s="8"/>
+      <c r="J116" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="K116" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="L116" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="M116" s="8"/>
       <c r="N116" s="8"/>
       <c r="O116" s="8"/>
@@ -7417,18 +8002,36 @@
       <c r="AA116" s="6"/>
       <c r="AB116" s="6"/>
     </row>
-    <row r="117" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A117" s="8"/>
-      <c r="B117" s="8"/>
-      <c r="C117" s="8"/>
-      <c r="D117" s="8"/>
-      <c r="E117" s="8"/>
-      <c r="F117" s="8"/>
+    <row r="117" spans="1:28" ht="128.25" thickBot="1">
+      <c r="A117" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E117" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>403</v>
+      </c>
       <c r="G117" s="8"/>
-      <c r="H117" s="8"/>
+      <c r="H117" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="I117" s="8"/>
-      <c r="J117" s="8"/>
-      <c r="K117" s="8"/>
+      <c r="J117" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="K117" s="8" t="s">
+        <v>389</v>
+      </c>
       <c r="L117" s="8"/>
       <c r="M117" s="8"/>
       <c r="N117" s="8"/>
@@ -7447,41 +8050,37 @@
       <c r="AA117" s="6"/>
       <c r="AB117" s="6"/>
     </row>
-    <row r="118" spans="1:28" ht="90" thickBot="1">
+    <row r="118" spans="1:28" ht="128.25" thickBot="1">
       <c r="A118" s="8" t="s">
-        <v>299</v>
+        <v>405</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>300</v>
+        <v>406</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>301</v>
+        <v>407</v>
       </c>
       <c r="D118" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E118" s="15" t="s">
-        <v>604</v>
+        <v>510</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="G118" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="H118" s="8" t="s">
-        <v>304</v>
+        <v>403</v>
+      </c>
+      <c r="G118" s="8"/>
+      <c r="H118" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8" t="s">
-        <v>305</v>
+        <v>404</v>
       </c>
       <c r="K118" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L118" s="8" t="s">
-        <v>306</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="L118" s="8"/>
       <c r="M118" s="8"/>
       <c r="N118" s="8"/>
       <c r="O118" s="8"/>
@@ -7499,40 +8098,38 @@
       <c r="AA118" s="6"/>
       <c r="AB118" s="6"/>
     </row>
-    <row r="119" spans="1:28" ht="90" thickBot="1">
+    <row r="119" spans="1:28" ht="115.5" thickBot="1">
       <c r="A119" s="8" t="s">
-        <v>307</v>
+        <v>408</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>308</v>
+        <v>409</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>301</v>
+        <v>371</v>
       </c>
       <c r="D119" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E119" s="15" t="s">
-        <v>605</v>
+        <v>621</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="G119" s="8" t="s">
-        <v>303</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="G119" s="8"/>
       <c r="H119" s="8" t="s">
-        <v>304</v>
+        <v>410</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8" t="s">
-        <v>309</v>
+        <v>411</v>
       </c>
       <c r="K119" s="8" t="s">
-        <v>31</v>
+        <v>389</v>
       </c>
       <c r="L119" s="8" t="s">
-        <v>306</v>
+        <v>389</v>
       </c>
       <c r="M119" s="8"/>
       <c r="N119" s="8"/>
@@ -7551,41 +8148,37 @@
       <c r="AA119" s="6"/>
       <c r="AB119" s="6"/>
     </row>
-    <row r="120" spans="1:28" ht="77.25" thickBot="1">
+    <row r="120" spans="1:28" ht="115.5" thickBot="1">
       <c r="A120" s="8" t="s">
-        <v>310</v>
+        <v>412</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>311</v>
+        <v>409</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>301</v>
+        <v>371</v>
       </c>
       <c r="D120" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E120" s="15" t="s">
-        <v>606</v>
+        <v>622</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="G120" s="8" t="s">
-        <v>303</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="G120" s="8"/>
       <c r="H120" s="8" t="s">
-        <v>304</v>
+        <v>410</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8" t="s">
-        <v>312</v>
+        <v>411</v>
       </c>
       <c r="K120" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="L120" s="8" t="s">
-        <v>306</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="L120" s="8"/>
       <c r="M120" s="8"/>
       <c r="N120" s="8"/>
       <c r="O120" s="8"/>
@@ -7603,45 +8196,39 @@
       <c r="AA120" s="6"/>
       <c r="AB120" s="6"/>
     </row>
-    <row r="121" spans="1:28" ht="128.25" thickBot="1">
+    <row r="121" spans="1:28" ht="115.5" thickBot="1">
       <c r="A121" s="8" t="s">
-        <v>314</v>
+        <v>413</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>315</v>
+        <v>409</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>301</v>
+        <v>371</v>
       </c>
       <c r="D121" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E121" s="15" t="s">
-        <v>607</v>
+        <v>623</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="G121" s="8" t="s">
-        <v>303</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="G121" s="8"/>
       <c r="H121" s="8" t="s">
-        <v>304</v>
+        <v>410</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8" t="s">
-        <v>316</v>
+        <v>411</v>
       </c>
       <c r="K121" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L121" s="8" t="s">
-        <v>306</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="L121" s="8"/>
       <c r="M121" s="8"/>
-      <c r="N121" s="8" t="s">
-        <v>317</v>
-      </c>
+      <c r="N121" s="8"/>
       <c r="O121" s="8"/>
       <c r="P121" s="6"/>
       <c r="Q121" s="6"/>
@@ -7657,41 +8244,37 @@
       <c r="AA121" s="6"/>
       <c r="AB121" s="6"/>
     </row>
-    <row r="122" spans="1:28" ht="64.5" thickBot="1">
+    <row r="122" spans="1:28" ht="115.5" thickBot="1">
       <c r="A122" s="8" t="s">
-        <v>318</v>
+        <v>415</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>319</v>
+        <v>409</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>301</v>
+        <v>371</v>
       </c>
       <c r="D122" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E122" s="15" t="s">
-        <v>608</v>
+        <v>624</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="G122" s="8" t="s">
-        <v>303</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="G122" s="8"/>
       <c r="H122" s="8" t="s">
-        <v>304</v>
+        <v>410</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8" t="s">
-        <v>320</v>
+        <v>411</v>
       </c>
       <c r="K122" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L122" s="8" t="s">
-        <v>306</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="L122" s="8"/>
       <c r="M122" s="8"/>
       <c r="N122" s="8"/>
       <c r="O122" s="8"/>
@@ -7709,18 +8292,36 @@
       <c r="AA122" s="6"/>
       <c r="AB122" s="6"/>
     </row>
-    <row r="123" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A123" s="8"/>
-      <c r="B123" s="8"/>
-      <c r="C123" s="8"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="8"/>
-      <c r="F123" s="8"/>
+    <row r="123" spans="1:28" ht="90" thickBot="1">
+      <c r="A123" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E123" s="15" t="s">
+        <v>625</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>372</v>
+      </c>
       <c r="G123" s="8"/>
-      <c r="H123" s="8"/>
+      <c r="H123" s="16" t="s">
+        <v>282</v>
+      </c>
       <c r="I123" s="8"/>
-      <c r="J123" s="8"/>
-      <c r="K123" s="8"/>
+      <c r="J123" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="K123" s="8" t="s">
+        <v>389</v>
+      </c>
       <c r="L123" s="8"/>
       <c r="M123" s="8"/>
       <c r="N123" s="8"/>
@@ -7739,18 +8340,36 @@
       <c r="AA123" s="6"/>
       <c r="AB123" s="6"/>
     </row>
-    <row r="124" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A124" s="8"/>
-      <c r="B124" s="8"/>
-      <c r="C124" s="8"/>
-      <c r="D124" s="8"/>
-      <c r="E124" s="8"/>
-      <c r="F124" s="8"/>
+    <row r="124" spans="1:28" ht="115.5" thickBot="1">
+      <c r="A124" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E124" s="15" t="s">
+        <v>626</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>420</v>
+      </c>
       <c r="G124" s="8"/>
-      <c r="H124" s="8"/>
+      <c r="H124" s="8" t="s">
+        <v>421</v>
+      </c>
       <c r="I124" s="8"/>
-      <c r="J124" s="8"/>
-      <c r="K124" s="8"/>
+      <c r="J124" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="K124" s="8" t="s">
+        <v>313</v>
+      </c>
       <c r="L124" s="8"/>
       <c r="M124" s="8"/>
       <c r="N124" s="8"/>
@@ -7769,39 +8388,39 @@
       <c r="AA124" s="6"/>
       <c r="AB124" s="6"/>
     </row>
-    <row r="125" spans="1:28" ht="64.5" thickBot="1">
+    <row r="125" spans="1:28" ht="90" thickBot="1">
       <c r="A125" s="8" t="s">
-        <v>321</v>
+        <v>422</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>322</v>
+        <v>423</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>323</v>
+        <v>371</v>
       </c>
       <c r="D125" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E125" s="15" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G125" s="8" t="s">
-        <v>324</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="G125" s="8"/>
       <c r="H125" s="8" t="s">
-        <v>325</v>
+        <v>424</v>
       </c>
       <c r="I125" s="8"/>
       <c r="J125" s="8" t="s">
-        <v>326</v>
+        <v>425</v>
       </c>
       <c r="K125" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="L125" s="8"/>
+        <v>389</v>
+      </c>
+      <c r="L125" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="M125" s="8"/>
       <c r="N125" s="8"/>
       <c r="O125" s="8"/>
@@ -7819,41 +8438,43 @@
       <c r="AA125" s="6"/>
       <c r="AB125" s="6"/>
     </row>
-    <row r="126" spans="1:28" ht="64.5" thickBot="1">
+    <row r="126" spans="1:28" ht="115.5" thickBot="1">
       <c r="A126" s="8" t="s">
-        <v>328</v>
+        <v>428</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>329</v>
+        <v>429</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>323</v>
+        <v>430</v>
       </c>
       <c r="D126" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E126" s="15" t="s">
-        <v>610</v>
+        <v>511</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G126" s="8" t="s">
-        <v>324</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="G126" s="8"/>
       <c r="H126" s="8" t="s">
-        <v>325</v>
+        <v>424</v>
       </c>
       <c r="I126" s="8"/>
       <c r="J126" s="8" t="s">
-        <v>326</v>
+        <v>431</v>
       </c>
       <c r="K126" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L126" s="8"/>
+      <c r="L126" s="8" t="s">
+        <v>540</v>
+      </c>
       <c r="M126" s="8"/>
-      <c r="N126" s="8"/>
+      <c r="N126" s="8" t="s">
+        <v>512</v>
+      </c>
       <c r="O126" s="8"/>
       <c r="P126" s="6"/>
       <c r="Q126" s="6"/>
@@ -7871,37 +8492,37 @@
     </row>
     <row r="127" spans="1:28" ht="64.5" thickBot="1">
       <c r="A127" s="8" t="s">
-        <v>330</v>
+        <v>432</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>331</v>
+        <v>433</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>323</v>
+        <v>430</v>
       </c>
       <c r="D127" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E127" s="15" t="s">
-        <v>611</v>
+        <v>513</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G127" s="8" t="s">
-        <v>324</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="G127" s="8"/>
       <c r="H127" s="8" t="s">
-        <v>325</v>
+        <v>424</v>
       </c>
       <c r="I127" s="8"/>
       <c r="J127" s="8" t="s">
-        <v>326</v>
+        <v>434</v>
       </c>
       <c r="K127" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="L127" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="L127" s="8" t="s">
+        <v>540</v>
+      </c>
       <c r="M127" s="8"/>
       <c r="N127" s="8"/>
       <c r="O127" s="8"/>
@@ -7919,45 +8540,39 @@
       <c r="AA127" s="6"/>
       <c r="AB127" s="6"/>
     </row>
-    <row r="128" spans="1:28" ht="64.5" thickBot="1">
+    <row r="128" spans="1:28" ht="77.25" thickBot="1">
       <c r="A128" s="8" t="s">
-        <v>333</v>
+        <v>435</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>334</v>
+        <v>436</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>323</v>
+        <v>437</v>
       </c>
       <c r="D128" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E128" s="15" t="s">
-        <v>612</v>
+        <v>628</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G128" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="H128" s="8" t="s">
-        <v>325</v>
+        <v>438</v>
+      </c>
+      <c r="G128" s="8"/>
+      <c r="H128" s="12" t="s">
+        <v>439</v>
       </c>
       <c r="I128" s="8"/>
-      <c r="J128" s="8" t="s">
-        <v>335</v>
+      <c r="J128" s="6" t="s">
+        <v>440</v>
       </c>
       <c r="K128" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L128" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="L128" s="8"/>
       <c r="M128" s="8"/>
-      <c r="N128" s="8" t="s">
-        <v>496</v>
-      </c>
+      <c r="N128" s="8"/>
       <c r="O128" s="8"/>
       <c r="P128" s="6"/>
       <c r="Q128" s="6"/>
@@ -7975,32 +8590,30 @@
     </row>
     <row r="129" spans="1:28" ht="90" thickBot="1">
       <c r="A129" s="8" t="s">
-        <v>336</v>
+        <v>441</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="C129" s="8" t="s">
-        <v>323</v>
+        <v>442</v>
+      </c>
+      <c r="C129" s="17">
+        <v>43921</v>
       </c>
       <c r="D129" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E129" s="15" t="s">
-        <v>613</v>
+        <v>629</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G129" s="8" t="s">
-        <v>324</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="G129" s="8"/>
       <c r="H129" s="8" t="s">
-        <v>325</v>
+        <v>439</v>
       </c>
       <c r="I129" s="8"/>
       <c r="J129" s="8" t="s">
-        <v>338</v>
+        <v>444</v>
       </c>
       <c r="K129" s="8" t="s">
         <v>31</v>
@@ -8023,21 +8636,39 @@
       <c r="AA129" s="6"/>
       <c r="AB129" s="6"/>
     </row>
-    <row r="130" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A130" s="8"/>
-      <c r="B130" s="8"/>
-      <c r="C130" s="8"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="8"/>
-      <c r="F130" s="8"/>
-      <c r="G130" s="8"/>
-      <c r="H130" s="8"/>
+    <row r="130" spans="1:28" ht="77.25" thickBot="1">
+      <c r="A130" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="C130" s="17">
+        <v>43921</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E130" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="F130" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="G130" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="H130" s="8" t="s">
+        <v>447</v>
+      </c>
       <c r="I130" s="8"/>
       <c r="J130" s="8"/>
       <c r="K130" s="8"/>
       <c r="L130" s="8"/>
       <c r="M130" s="8"/>
-      <c r="N130" s="8"/>
+      <c r="N130" s="8" t="s">
+        <v>515</v>
+      </c>
       <c r="O130" s="8"/>
       <c r="P130" s="6"/>
       <c r="Q130" s="6"/>
@@ -8053,17 +8684,35 @@
       <c r="AA130" s="6"/>
       <c r="AB130" s="6"/>
     </row>
-    <row r="131" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A131" s="8"/>
-      <c r="B131" s="8"/>
-      <c r="C131" s="8"/>
-      <c r="D131" s="8"/>
-      <c r="E131" s="8"/>
-      <c r="F131" s="8"/>
-      <c r="G131" s="8"/>
-      <c r="H131" s="8"/>
+    <row r="131" spans="1:28" ht="51.75" thickBot="1">
+      <c r="A131" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="C131" s="17">
+        <v>43921</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E131" s="15" t="s">
+        <v>516</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="G131" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="H131" s="12" t="s">
+        <v>161</v>
+      </c>
       <c r="I131" s="8"/>
-      <c r="J131" s="8"/>
+      <c r="J131" s="8" t="s">
+        <v>450</v>
+      </c>
       <c r="K131" s="8"/>
       <c r="L131" s="8"/>
       <c r="M131" s="8"/>
@@ -8083,38 +8732,36 @@
       <c r="AA131" s="6"/>
       <c r="AB131" s="6"/>
     </row>
-    <row r="132" spans="1:28" ht="64.5" thickBot="1">
+    <row r="132" spans="1:28" ht="48" thickBot="1">
       <c r="A132" s="8" t="s">
-        <v>339</v>
+        <v>451</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>323</v>
+        <v>452</v>
+      </c>
+      <c r="C132" s="17">
+        <v>43921</v>
       </c>
       <c r="D132" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E132" s="15" t="s">
-        <v>614</v>
+        <v>517</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>341</v>
+        <v>403</v>
       </c>
       <c r="G132" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="H132" s="8" t="s">
-        <v>427</v>
+        <v>368</v>
+      </c>
+      <c r="H132" s="12" t="s">
+        <v>161</v>
       </c>
       <c r="I132" s="8"/>
       <c r="J132" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="K132" s="8" t="s">
-        <v>31</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="K132" s="8"/>
       <c r="L132" s="8"/>
       <c r="M132" s="8"/>
       <c r="N132" s="8"/>
@@ -8133,17 +8780,35 @@
       <c r="AA132" s="6"/>
       <c r="AB132" s="6"/>
     </row>
-    <row r="133" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A133" s="8"/>
-      <c r="B133" s="8"/>
-      <c r="C133" s="8"/>
-      <c r="D133" s="8"/>
-      <c r="E133" s="8"/>
-      <c r="F133" s="8"/>
-      <c r="G133" s="8"/>
-      <c r="H133" s="8"/>
+    <row r="133" spans="1:28" ht="51.75" thickBot="1">
+      <c r="A133" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="C133" s="17">
+        <v>43921</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E133" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="G133" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="H133" s="12" t="s">
+        <v>161</v>
+      </c>
       <c r="I133" s="8"/>
-      <c r="J133" s="8"/>
+      <c r="J133" s="8" t="s">
+        <v>456</v>
+      </c>
       <c r="K133" s="8"/>
       <c r="L133" s="8"/>
       <c r="M133" s="8"/>
@@ -8163,17 +8828,35 @@
       <c r="AA133" s="6"/>
       <c r="AB133" s="6"/>
     </row>
-    <row r="134" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A134" s="8"/>
-      <c r="B134" s="8"/>
-      <c r="C134" s="8"/>
-      <c r="D134" s="8"/>
-      <c r="E134" s="8"/>
-      <c r="F134" s="8"/>
-      <c r="G134" s="8"/>
-      <c r="H134" s="8"/>
+    <row r="134" spans="1:28" ht="51.75" thickBot="1">
+      <c r="A134" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="C134" s="17">
+        <v>43921</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E134" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="G134" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="H134" s="12" t="s">
+        <v>161</v>
+      </c>
       <c r="I134" s="8"/>
-      <c r="J134" s="8"/>
+      <c r="J134" s="8" t="s">
+        <v>459</v>
+      </c>
       <c r="K134" s="8"/>
       <c r="L134" s="8"/>
       <c r="M134" s="8"/>
@@ -8193,33 +8876,39 @@
       <c r="AA134" s="6"/>
       <c r="AB134" s="6"/>
     </row>
-    <row r="135" spans="1:28" ht="48" thickBot="1">
+    <row r="135" spans="1:28" ht="64.5" thickBot="1">
       <c r="A135" s="8" t="s">
-        <v>344</v>
+        <v>520</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>323</v>
+        <v>521</v>
+      </c>
+      <c r="C135" s="17">
+        <v>43922</v>
       </c>
       <c r="D135" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E135" s="15" t="s">
-        <v>497</v>
-      </c>
-      <c r="F135" s="8"/>
-      <c r="G135" s="8"/>
+        <v>522</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G135" s="8" t="s">
+        <v>324</v>
+      </c>
       <c r="H135" s="8" t="s">
-        <v>346</v>
+        <v>124</v>
       </c>
       <c r="I135" s="8"/>
       <c r="J135" s="8" t="s">
-        <v>347</v>
+        <v>523</v>
       </c>
       <c r="K135" s="8"/>
-      <c r="L135" s="8"/>
+      <c r="L135" s="8" t="s">
+        <v>541</v>
+      </c>
       <c r="M135" s="8"/>
       <c r="N135" s="8"/>
       <c r="O135" s="8"/>
@@ -8237,35 +8926,39 @@
       <c r="AA135" s="6"/>
       <c r="AB135" s="6"/>
     </row>
-    <row r="136" spans="1:28" ht="48" thickBot="1">
+    <row r="136" spans="1:28" ht="64.5" thickBot="1">
       <c r="A136" s="8" t="s">
-        <v>348</v>
+        <v>524</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>323</v>
+        <v>525</v>
+      </c>
+      <c r="C136" s="17">
+        <v>43922</v>
       </c>
       <c r="D136" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E136" s="15" t="s">
-        <v>498</v>
+        <v>526</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="G136" s="8"/>
+        <v>138</v>
+      </c>
+      <c r="G136" s="8" t="s">
+        <v>324</v>
+      </c>
       <c r="H136" s="8" t="s">
-        <v>346</v>
+        <v>124</v>
       </c>
       <c r="I136" s="8"/>
       <c r="J136" s="8" t="s">
-        <v>351</v>
+        <v>523</v>
       </c>
       <c r="K136" s="8"/>
-      <c r="L136" s="8"/>
+      <c r="L136" s="8" t="s">
+        <v>541</v>
+      </c>
       <c r="M136" s="8"/>
       <c r="N136" s="8"/>
       <c r="O136" s="8"/>
@@ -8283,35 +8976,41 @@
       <c r="AA136" s="6"/>
       <c r="AB136" s="6"/>
     </row>
-    <row r="137" spans="1:28" ht="48" thickBot="1">
+    <row r="137" spans="1:28" ht="64.5" thickBot="1">
       <c r="A137" s="8" t="s">
-        <v>352</v>
+        <v>527</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>323</v>
+        <v>528</v>
+      </c>
+      <c r="C137" s="17">
+        <v>43922</v>
       </c>
       <c r="D137" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E137" s="15" t="s">
-        <v>499</v>
+        <v>529</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="G137" s="8"/>
+        <v>138</v>
+      </c>
+      <c r="G137" s="8" t="s">
+        <v>324</v>
+      </c>
       <c r="H137" s="8" t="s">
-        <v>346</v>
+        <v>124</v>
       </c>
       <c r="I137" s="8"/>
       <c r="J137" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="K137" s="8"/>
-      <c r="L137" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="K137" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L137" s="8" t="s">
+        <v>541</v>
+      </c>
       <c r="M137" s="8"/>
       <c r="N137" s="8"/>
       <c r="O137" s="8"/>
@@ -8329,36 +9028,40 @@
       <c r="AA137" s="6"/>
       <c r="AB137" s="6"/>
     </row>
-    <row r="138" spans="1:28" ht="51.75" thickBot="1">
+    <row r="138" spans="1:28" ht="64.5" thickBot="1">
       <c r="A138" s="8" t="s">
-        <v>354</v>
+        <v>530</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>323</v>
+        <v>531</v>
+      </c>
+      <c r="C138" s="17">
+        <v>43922</v>
       </c>
       <c r="D138" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E138" s="15" t="s">
-        <v>500</v>
+        <v>532</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="G138" s="8"/>
+        <v>138</v>
+      </c>
+      <c r="G138" s="8" t="s">
+        <v>324</v>
+      </c>
       <c r="H138" s="8" t="s">
-        <v>346</v>
+        <v>124</v>
       </c>
       <c r="I138" s="8"/>
       <c r="J138" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="K138" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="K138" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="L138" s="8" t="s">
-        <v>31</v>
+        <v>541</v>
       </c>
       <c r="M138" s="8"/>
       <c r="N138" s="8"/>
@@ -8379,34 +9082,34 @@
     </row>
     <row r="139" spans="1:28" ht="51.75" thickBot="1">
       <c r="A139" s="8" t="s">
-        <v>357</v>
+        <v>533</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>323</v>
+        <v>533</v>
+      </c>
+      <c r="C139" s="17">
+        <v>43922</v>
       </c>
       <c r="D139" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E139" s="15" t="s">
-        <v>501</v>
+      <c r="E139" s="14" t="s">
+        <v>506</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="G139" s="8"/>
-      <c r="H139" s="8" t="s">
-        <v>346</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="G139" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="H139" s="8"/>
       <c r="I139" s="8"/>
-      <c r="J139" s="8" t="s">
-        <v>356</v>
-      </c>
+      <c r="J139" s="8"/>
       <c r="K139" s="8"/>
       <c r="L139" s="8"/>
-      <c r="M139" s="8"/>
+      <c r="M139" s="8" t="s">
+        <v>389</v>
+      </c>
       <c r="N139" s="8"/>
       <c r="O139" s="8"/>
       <c r="P139" s="6"/>
@@ -8423,38 +9126,36 @@
       <c r="AA139" s="6"/>
       <c r="AB139" s="6"/>
     </row>
-    <row r="140" spans="1:28" ht="51.75" thickBot="1">
+    <row r="140" spans="1:28" ht="48" thickBot="1">
       <c r="A140" s="8" t="s">
-        <v>359</v>
+        <v>535</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>323</v>
+        <v>535</v>
+      </c>
+      <c r="C140" s="17">
+        <v>43922</v>
       </c>
       <c r="D140" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E140" s="15" t="s">
-        <v>502</v>
+      <c r="E140" s="14" t="s">
+        <v>630</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="G140" s="8"/>
-      <c r="H140" s="8" t="s">
-        <v>346</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="G140" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="H140" s="8"/>
       <c r="I140" s="8"/>
-      <c r="J140" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="K140" s="8" t="s">
-        <v>361</v>
-      </c>
+      <c r="J140" s="8"/>
+      <c r="K140" s="8"/>
       <c r="L140" s="8"/>
-      <c r="M140" s="8"/>
+      <c r="M140" s="8" t="s">
+        <v>389</v>
+      </c>
       <c r="N140" s="8"/>
       <c r="O140" s="8"/>
       <c r="P140" s="6"/>
@@ -8471,38 +9172,36 @@
       <c r="AA140" s="6"/>
       <c r="AB140" s="6"/>
     </row>
-    <row r="141" spans="1:28" ht="51.75" thickBot="1">
+    <row r="141" spans="1:28" ht="39" thickBot="1">
       <c r="A141" s="8" t="s">
-        <v>362</v>
+        <v>537</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>323</v>
+        <v>537</v>
+      </c>
+      <c r="C141" s="17">
+        <v>43922</v>
       </c>
       <c r="D141" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E141" s="15" t="s">
-        <v>503</v>
+      <c r="E141" s="14" t="s">
+        <v>631</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="G141" s="8"/>
-      <c r="H141" s="8" t="s">
-        <v>346</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="G141" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="H141" s="8"/>
       <c r="I141" s="8"/>
-      <c r="J141" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="K141" s="8" t="s">
-        <v>361</v>
-      </c>
+      <c r="J141" s="8"/>
+      <c r="K141" s="8"/>
       <c r="L141" s="8"/>
-      <c r="M141" s="8"/>
+      <c r="M141" s="8" t="s">
+        <v>389</v>
+      </c>
       <c r="N141" s="8"/>
       <c r="O141" s="8"/>
       <c r="P141" s="6"/>
@@ -8519,40 +9218,38 @@
       <c r="AA141" s="6"/>
       <c r="AB141" s="6"/>
     </row>
-    <row r="142" spans="1:28" ht="51.75" thickBot="1">
+    <row r="142" spans="1:28" ht="39" thickBot="1">
       <c r="A142" s="8" t="s">
-        <v>364</v>
+        <v>538</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>323</v>
+        <v>538</v>
+      </c>
+      <c r="C142" s="17">
+        <v>43922</v>
       </c>
       <c r="D142" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E142" s="15" t="s">
-        <v>504</v>
+      <c r="E142" s="14" t="s">
+        <v>612</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="G142" s="8"/>
-      <c r="H142" s="8" t="s">
-        <v>346</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G142" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="H142" s="8"/>
       <c r="I142" s="8"/>
-      <c r="J142" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="K142" s="8" t="s">
-        <v>361</v>
-      </c>
+      <c r="J142" s="8"/>
+      <c r="K142" s="8"/>
       <c r="L142" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="M142" s="8"/>
+        <v>541</v>
+      </c>
+      <c r="M142" s="8" t="s">
+        <v>389</v>
+      </c>
       <c r="N142" s="8"/>
       <c r="O142" s="8"/>
       <c r="P142" s="6"/>
@@ -8571,35 +9268,31 @@
     </row>
     <row r="143" spans="1:28" ht="64.5" thickBot="1">
       <c r="A143" s="8" t="s">
-        <v>366</v>
+        <v>542</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>323</v>
+        <v>543</v>
+      </c>
+      <c r="C143" s="17">
+        <v>43923</v>
       </c>
       <c r="D143" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E143" s="15" t="s">
-        <v>505</v>
+      <c r="E143" s="14" t="s">
+        <v>632</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="G143" s="8"/>
-      <c r="H143" s="8" t="s">
-        <v>346</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G143" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="H143" s="8"/>
       <c r="I143" s="8"/>
-      <c r="J143" s="8" t="s">
-        <v>356</v>
-      </c>
+      <c r="J143" s="8"/>
       <c r="K143" s="8"/>
-      <c r="L143" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="L143" s="8"/>
       <c r="M143" s="8"/>
       <c r="N143" s="8"/>
       <c r="O143" s="8"/>
@@ -8617,14 +9310,28 @@
       <c r="AA143" s="6"/>
       <c r="AB143" s="6"/>
     </row>
-    <row r="144" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A144" s="8"/>
-      <c r="B144" s="8"/>
-      <c r="C144" s="8"/>
-      <c r="D144" s="8"/>
-      <c r="E144" s="8"/>
-      <c r="F144" s="8"/>
-      <c r="G144" s="8"/>
+    <row r="144" spans="1:28" ht="64.5" thickBot="1">
+      <c r="A144" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="C144" s="17">
+        <v>43923</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E144" s="14" t="s">
+        <v>633</v>
+      </c>
+      <c r="F144" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G144" s="8" t="s">
+        <v>324</v>
+      </c>
       <c r="H144" s="8"/>
       <c r="I144" s="8"/>
       <c r="J144" s="8"/>
@@ -8647,20 +9354,36 @@
       <c r="AA144" s="6"/>
       <c r="AB144" s="6"/>
     </row>
-    <row r="145" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A145" s="8"/>
-      <c r="B145" s="8"/>
-      <c r="C145" s="8"/>
-      <c r="D145" s="8"/>
-      <c r="E145" s="8"/>
-      <c r="F145" s="8"/>
-      <c r="G145" s="8"/>
+    <row r="145" spans="1:28" ht="48" thickBot="1">
+      <c r="A145" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="C145" s="17">
+        <v>43923</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E145" s="15" t="s">
+        <v>634</v>
+      </c>
+      <c r="F145" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="G145" s="8" t="s">
+        <v>399</v>
+      </c>
       <c r="H145" s="8"/>
       <c r="I145" s="8"/>
       <c r="J145" s="8"/>
       <c r="K145" s="8"/>
       <c r="L145" s="8"/>
-      <c r="M145" s="8"/>
+      <c r="M145" s="8" t="s">
+        <v>276</v>
+      </c>
       <c r="N145" s="8"/>
       <c r="O145" s="8"/>
       <c r="P145" s="6"/>
@@ -8677,43 +9400,39 @@
       <c r="AA145" s="6"/>
       <c r="AB145" s="6"/>
     </row>
-    <row r="146" spans="1:28" ht="102.75" thickBot="1">
+    <row r="146" spans="1:28" ht="141" thickBot="1">
       <c r="A146" s="8" t="s">
-        <v>369</v>
+        <v>549</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>371</v>
+        <v>550</v>
+      </c>
+      <c r="C146" s="17">
+        <v>43923</v>
       </c>
       <c r="D146" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E146" s="15" t="s">
-        <v>615</v>
+      <c r="E146" s="14" t="s">
+        <v>635</v>
       </c>
       <c r="F146" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="G146" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="H146" s="16" t="s">
-        <v>282</v>
+        <v>551</v>
+      </c>
+      <c r="G146" s="8"/>
+      <c r="H146" s="8" t="s">
+        <v>552</v>
       </c>
       <c r="I146" s="8"/>
       <c r="J146" s="8" t="s">
-        <v>374</v>
+        <v>556</v>
       </c>
       <c r="K146" s="8" t="s">
-        <v>31</v>
+        <v>557</v>
       </c>
       <c r="L146" s="8"/>
       <c r="M146" s="8"/>
-      <c r="N146" s="8" t="s">
-        <v>507</v>
-      </c>
+      <c r="N146" s="8"/>
       <c r="O146" s="8"/>
       <c r="P146" s="6"/>
       <c r="Q146" s="6"/>
@@ -8729,35 +9448,35 @@
       <c r="AA146" s="6"/>
       <c r="AB146" s="6"/>
     </row>
-    <row r="147" spans="1:28" ht="90" thickBot="1">
+    <row r="147" spans="1:28" ht="115.5" thickBot="1">
       <c r="A147" s="8" t="s">
-        <v>375</v>
+        <v>553</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="C147" s="8"/>
+        <v>550</v>
+      </c>
+      <c r="C147" s="17">
+        <v>43923</v>
+      </c>
       <c r="D147" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E147" s="14" t="s">
-        <v>508</v>
+      <c r="E147" s="15" t="s">
+        <v>636</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="G147" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="H147" s="16" t="s">
-        <v>282</v>
+        <v>554</v>
+      </c>
+      <c r="G147" s="8"/>
+      <c r="H147" s="8" t="s">
+        <v>552</v>
       </c>
       <c r="I147" s="8"/>
       <c r="J147" s="8" t="s">
-        <v>377</v>
+        <v>558</v>
       </c>
       <c r="K147" s="8" t="s">
-        <v>378</v>
+        <v>559</v>
       </c>
       <c r="L147" s="8"/>
       <c r="M147" s="8"/>
@@ -8777,18 +9496,34 @@
       <c r="AA147" s="6"/>
       <c r="AB147" s="6"/>
     </row>
-    <row r="148" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A148" s="8"/>
-      <c r="B148" s="8"/>
-      <c r="C148" s="8"/>
-      <c r="D148" s="8"/>
-      <c r="E148" s="8"/>
-      <c r="F148" s="8"/>
-      <c r="G148" s="8"/>
+    <row r="148" spans="1:28" ht="48" thickBot="1">
+      <c r="A148" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="C148" s="17">
+        <v>43924</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E148" s="15" t="s">
+        <v>637</v>
+      </c>
+      <c r="F148" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="G148" s="8" t="s">
+        <v>368</v>
+      </c>
       <c r="H148" s="8"/>
       <c r="I148" s="8"/>
       <c r="J148" s="8"/>
-      <c r="K148" s="8"/>
+      <c r="K148" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="L148" s="8"/>
       <c r="M148" s="8"/>
       <c r="N148" s="8"/>
@@ -8807,20 +9542,38 @@
       <c r="AA148" s="6"/>
       <c r="AB148" s="6"/>
     </row>
-    <row r="149" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A149" s="8"/>
-      <c r="B149" s="8"/>
-      <c r="C149" s="8"/>
-      <c r="D149" s="8"/>
-      <c r="E149" s="8"/>
-      <c r="F149" s="8"/>
-      <c r="G149" s="8"/>
+    <row r="149" spans="1:28" ht="48" thickBot="1">
+      <c r="A149" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="C149" s="17">
+        <v>43924</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E149" s="14" t="s">
+        <v>638</v>
+      </c>
+      <c r="F149" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="G149" s="8" t="s">
+        <v>368</v>
+      </c>
       <c r="H149" s="8"/>
       <c r="I149" s="8"/>
       <c r="J149" s="8"/>
-      <c r="K149" s="8"/>
+      <c r="K149" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="L149" s="8"/>
-      <c r="M149" s="8"/>
+      <c r="M149" s="8" t="s">
+        <v>389</v>
+      </c>
       <c r="N149" s="8"/>
       <c r="O149" s="8"/>
       <c r="P149" s="6"/>
@@ -8837,32 +9590,34 @@
       <c r="AA149" s="6"/>
       <c r="AB149" s="6"/>
     </row>
-    <row r="150" spans="1:28" ht="77.25" thickBot="1">
+    <row r="150" spans="1:28" ht="51.75" thickBot="1">
       <c r="A150" s="8" t="s">
-        <v>379</v>
+        <v>564</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="C150" s="8" t="s">
-        <v>371</v>
+        <v>565</v>
+      </c>
+      <c r="C150" s="17">
+        <v>43924</v>
       </c>
       <c r="D150" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E150" s="15" t="s">
-        <v>616</v>
+      <c r="E150" s="14" t="s">
+        <v>639</v>
       </c>
       <c r="F150" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="G150" s="8"/>
+        <v>566</v>
+      </c>
+      <c r="G150" s="8" t="s">
+        <v>567</v>
+      </c>
       <c r="H150" s="8" t="s">
-        <v>382</v>
+        <v>282</v>
       </c>
       <c r="I150" s="8"/>
       <c r="J150" s="8" t="s">
-        <v>383</v>
+        <v>568</v>
       </c>
       <c r="K150" s="8" t="s">
         <v>31</v>
@@ -8885,15 +9640,31 @@
       <c r="AA150" s="6"/>
       <c r="AB150" s="6"/>
     </row>
-    <row r="151" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A151" s="8"/>
-      <c r="B151" s="8"/>
-      <c r="C151" s="8"/>
-      <c r="D151" s="8"/>
-      <c r="E151" s="8"/>
-      <c r="F151" s="8"/>
-      <c r="G151" s="8"/>
-      <c r="H151" s="8"/>
+    <row r="151" spans="1:28" ht="51.75" thickBot="1">
+      <c r="A151" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="C151" s="17">
+        <v>43926</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E151" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="F151" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="G151" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="H151" s="8" t="s">
+        <v>282</v>
+      </c>
       <c r="I151" s="8"/>
       <c r="J151" s="8"/>
       <c r="K151" s="8"/>
@@ -8915,18 +9686,38 @@
       <c r="AA151" s="6"/>
       <c r="AB151" s="6"/>
     </row>
-    <row r="152" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A152" s="8"/>
-      <c r="B152" s="8"/>
-      <c r="C152" s="8"/>
-      <c r="D152" s="8"/>
-      <c r="E152" s="8"/>
-      <c r="F152" s="8"/>
-      <c r="G152" s="8"/>
-      <c r="H152" s="8"/>
+    <row r="152" spans="1:28" ht="90" thickBot="1">
+      <c r="A152" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="C152" s="17">
+        <v>43927</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E152" s="14" t="s">
+        <v>644</v>
+      </c>
+      <c r="F152" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G152" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="H152" s="8" t="s">
+        <v>124</v>
+      </c>
       <c r="I152" s="8"/>
-      <c r="J152" s="8"/>
-      <c r="K152" s="8"/>
+      <c r="J152" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="K152" s="8" t="s">
+        <v>378</v>
+      </c>
       <c r="L152" s="8"/>
       <c r="M152" s="8"/>
       <c r="N152" s="8"/>
@@ -8945,36 +9736,34 @@
       <c r="AA152" s="6"/>
       <c r="AB152" s="6"/>
     </row>
-    <row r="153" spans="1:28" ht="77.25" thickBot="1">
+    <row r="153" spans="1:28" ht="141" thickBot="1">
       <c r="A153" s="8" t="s">
-        <v>384</v>
+        <v>646</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="C153" s="8" t="s">
-        <v>371</v>
+        <v>647</v>
+      </c>
+      <c r="C153" s="17">
+        <v>43927</v>
       </c>
       <c r="D153" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E153" s="15" t="s">
-        <v>617</v>
+      <c r="E153" s="14" t="s">
+        <v>648</v>
       </c>
       <c r="F153" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="G153" s="8"/>
+        <v>649</v>
+      </c>
+      <c r="G153" s="6"/>
       <c r="H153" s="8" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="I153" s="8"/>
       <c r="J153" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="K153" s="8" t="s">
-        <v>389</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="K153" s="8"/>
       <c r="L153" s="8"/>
       <c r="M153" s="8"/>
       <c r="N153" s="8"/>
@@ -8995,33 +9784,35 @@
     </row>
     <row r="154" spans="1:28" ht="77.25" thickBot="1">
       <c r="A154" s="8" t="s">
-        <v>390</v>
+        <v>651</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="C154" s="8" t="s">
-        <v>371</v>
+        <v>652</v>
+      </c>
+      <c r="C154" s="17">
+        <v>43928</v>
       </c>
       <c r="D154" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E154" s="14" t="s">
-        <v>618</v>
+        <v>653</v>
       </c>
       <c r="F154" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="G154" s="8"/>
+        <v>138</v>
+      </c>
+      <c r="G154" s="8" t="s">
+        <v>654</v>
+      </c>
       <c r="H154" s="8" t="s">
-        <v>387</v>
+        <v>124</v>
       </c>
       <c r="I154" s="8"/>
       <c r="J154" s="8" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="K154" s="8" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="L154" s="8"/>
       <c r="M154" s="8"/>
@@ -9041,38 +9832,40 @@
       <c r="AA154" s="6"/>
       <c r="AB154" s="6"/>
     </row>
-    <row r="155" spans="1:28" ht="90" thickBot="1">
+    <row r="155" spans="1:28" ht="64.5" thickBot="1">
       <c r="A155" s="8" t="s">
-        <v>393</v>
+        <v>655</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="C155" s="8" t="s">
-        <v>371</v>
+        <v>656</v>
+      </c>
+      <c r="C155" s="17">
+        <v>43929</v>
       </c>
       <c r="D155" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E155" s="14" t="s">
-        <v>619</v>
+        <v>657</v>
       </c>
       <c r="F155" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="G155" s="8"/>
+        <v>658</v>
+      </c>
+      <c r="G155" s="8" t="s">
+        <v>324</v>
+      </c>
       <c r="H155" s="8" t="s">
-        <v>387</v>
+        <v>124</v>
       </c>
       <c r="I155" s="8"/>
       <c r="J155" s="8" t="s">
-        <v>395</v>
+        <v>659</v>
       </c>
       <c r="K155" s="8" t="s">
-        <v>313</v>
+        <v>659</v>
       </c>
       <c r="L155" s="8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M155" s="8"/>
       <c r="N155" s="8"/>
@@ -9091,15 +9884,29 @@
       <c r="AA155" s="6"/>
       <c r="AB155" s="6"/>
     </row>
-    <row r="156" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A156" s="8"/>
-      <c r="B156" s="8"/>
-      <c r="C156" s="8"/>
-      <c r="D156" s="8"/>
-      <c r="E156" s="8"/>
-      <c r="F156" s="8"/>
+    <row r="156" spans="1:28" ht="39" thickBot="1">
+      <c r="A156" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="C156" s="17">
+        <v>43929</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E156" s="14" t="s">
+        <v>662</v>
+      </c>
+      <c r="F156" s="8" t="s">
+        <v>663</v>
+      </c>
       <c r="G156" s="8"/>
-      <c r="H156" s="8"/>
+      <c r="H156" s="18" t="s">
+        <v>664</v>
+      </c>
       <c r="I156" s="8"/>
       <c r="J156" s="8"/>
       <c r="K156" s="8"/>
@@ -9121,15 +9928,29 @@
       <c r="AA156" s="6"/>
       <c r="AB156" s="6"/>
     </row>
-    <row r="157" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A157" s="8"/>
-      <c r="B157" s="8"/>
-      <c r="C157" s="8"/>
-      <c r="D157" s="8"/>
-      <c r="E157" s="8"/>
-      <c r="F157" s="8"/>
+    <row r="157" spans="1:28" ht="48" thickBot="1">
+      <c r="A157" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="C157" s="17">
+        <v>43929</v>
+      </c>
+      <c r="D157" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E157" s="14" t="s">
+        <v>666</v>
+      </c>
+      <c r="F157" s="8" t="s">
+        <v>667</v>
+      </c>
       <c r="G157" s="8"/>
-      <c r="H157" s="8"/>
+      <c r="H157" s="18" t="s">
+        <v>664</v>
+      </c>
       <c r="I157" s="8"/>
       <c r="J157" s="8"/>
       <c r="K157" s="8"/>
@@ -9153,37 +9974,33 @@
     </row>
     <row r="158" spans="1:28" ht="51.75" thickBot="1">
       <c r="A158" s="8" t="s">
-        <v>396</v>
+        <v>668</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="C158" s="8" t="s">
-        <v>371</v>
+        <v>669</v>
+      </c>
+      <c r="C158" s="17">
+        <v>43929</v>
       </c>
       <c r="D158" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E158" s="15" t="s">
-        <v>620</v>
+      <c r="E158" s="14" t="s">
+        <v>670</v>
       </c>
       <c r="F158" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="G158" s="8"/>
+        <v>368</v>
+      </c>
+      <c r="G158" s="8" t="s">
+        <v>368</v>
+      </c>
       <c r="H158" s="8" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="I158" s="8"/>
-      <c r="J158" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="K158" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="L158" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="J158" s="8"/>
+      <c r="K158" s="8"/>
+      <c r="L158" s="8"/>
       <c r="M158" s="8"/>
       <c r="N158" s="8"/>
       <c r="O158" s="8"/>
@@ -9261,36 +10078,18 @@
       <c r="AA160" s="6"/>
       <c r="AB160" s="6"/>
     </row>
-    <row r="161" spans="1:28" ht="128.25" thickBot="1">
-      <c r="A161" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="B161" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="C161" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="D161" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E161" s="15" t="s">
-        <v>509</v>
-      </c>
-      <c r="F161" s="8" t="s">
-        <v>403</v>
-      </c>
+    <row r="161" spans="1:28" ht="16.5" thickBot="1">
+      <c r="A161" s="8"/>
+      <c r="B161" s="8"/>
+      <c r="C161" s="8"/>
+      <c r="D161" s="8"/>
+      <c r="E161" s="8"/>
+      <c r="F161" s="8"/>
       <c r="G161" s="8"/>
-      <c r="H161" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="H161" s="8"/>
       <c r="I161" s="8"/>
-      <c r="J161" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="K161" s="8" t="s">
-        <v>389</v>
-      </c>
+      <c r="J161" s="8"/>
+      <c r="K161" s="8"/>
       <c r="L161" s="8"/>
       <c r="M161" s="8"/>
       <c r="N161" s="8"/>
@@ -9309,36 +10108,18 @@
       <c r="AA161" s="6"/>
       <c r="AB161" s="6"/>
     </row>
-    <row r="162" spans="1:28" ht="128.25" thickBot="1">
-      <c r="A162" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="B162" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="C162" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="D162" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E162" s="15" t="s">
-        <v>510</v>
-      </c>
-      <c r="F162" s="8" t="s">
-        <v>403</v>
-      </c>
+    <row r="162" spans="1:28" ht="16.5" thickBot="1">
+      <c r="A162" s="8"/>
+      <c r="B162" s="8"/>
+      <c r="C162" s="8"/>
+      <c r="D162" s="8"/>
+      <c r="E162" s="8"/>
+      <c r="F162" s="8"/>
       <c r="G162" s="8"/>
-      <c r="H162" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="H162" s="8"/>
       <c r="I162" s="8"/>
-      <c r="J162" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="K162" s="8" t="s">
-        <v>389</v>
-      </c>
+      <c r="J162" s="8"/>
+      <c r="K162" s="8"/>
       <c r="L162" s="8"/>
       <c r="M162" s="8"/>
       <c r="N162" s="8"/>
@@ -9417,39 +10198,19 @@
       <c r="AA164" s="6"/>
       <c r="AB164" s="6"/>
     </row>
-    <row r="165" spans="1:28" ht="115.5" thickBot="1">
-      <c r="A165" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="B165" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="C165" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="D165" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E165" s="15" t="s">
-        <v>621</v>
-      </c>
-      <c r="F165" s="8" t="s">
-        <v>408</v>
-      </c>
+    <row r="165" spans="1:28" ht="16.5" thickBot="1">
+      <c r="A165" s="8"/>
+      <c r="B165" s="8"/>
+      <c r="C165" s="8"/>
+      <c r="D165" s="8"/>
+      <c r="E165" s="8"/>
+      <c r="F165" s="8"/>
       <c r="G165" s="8"/>
-      <c r="H165" s="8" t="s">
-        <v>410</v>
-      </c>
+      <c r="H165" s="8"/>
       <c r="I165" s="8"/>
-      <c r="J165" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="K165" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="L165" s="8" t="s">
-        <v>389</v>
-      </c>
+      <c r="J165" s="8"/>
+      <c r="K165" s="8"/>
+      <c r="L165" s="8"/>
       <c r="M165" s="8"/>
       <c r="N165" s="8"/>
       <c r="O165" s="8"/>
@@ -9467,36 +10228,18 @@
       <c r="AA165" s="6"/>
       <c r="AB165" s="6"/>
     </row>
-    <row r="166" spans="1:28" ht="115.5" thickBot="1">
-      <c r="A166" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="B166" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="C166" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="D166" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E166" s="15" t="s">
-        <v>622</v>
-      </c>
-      <c r="F166" s="8" t="s">
-        <v>412</v>
-      </c>
+    <row r="166" spans="1:28" ht="16.5" thickBot="1">
+      <c r="A166" s="8"/>
+      <c r="B166" s="8"/>
+      <c r="C166" s="8"/>
+      <c r="D166" s="8"/>
+      <c r="E166" s="8"/>
+      <c r="F166" s="8"/>
       <c r="G166" s="8"/>
-      <c r="H166" s="8" t="s">
-        <v>410</v>
-      </c>
+      <c r="H166" s="8"/>
       <c r="I166" s="8"/>
-      <c r="J166" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="K166" s="8" t="s">
-        <v>389</v>
-      </c>
+      <c r="J166" s="8"/>
+      <c r="K166" s="8"/>
       <c r="L166" s="8"/>
       <c r="M166" s="8"/>
       <c r="N166" s="8"/>
@@ -9515,36 +10258,18 @@
       <c r="AA166" s="6"/>
       <c r="AB166" s="6"/>
     </row>
-    <row r="167" spans="1:28" ht="115.5" thickBot="1">
-      <c r="A167" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="B167" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="C167" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="D167" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E167" s="15" t="s">
-        <v>623</v>
-      </c>
-      <c r="F167" s="8" t="s">
-        <v>414</v>
-      </c>
+    <row r="167" spans="1:28" ht="16.5" thickBot="1">
+      <c r="A167" s="8"/>
+      <c r="B167" s="8"/>
+      <c r="C167" s="8"/>
+      <c r="D167" s="8"/>
+      <c r="E167" s="8"/>
+      <c r="F167" s="8"/>
       <c r="G167" s="8"/>
-      <c r="H167" s="8" t="s">
-        <v>410</v>
-      </c>
+      <c r="H167" s="8"/>
       <c r="I167" s="8"/>
-      <c r="J167" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="K167" s="8" t="s">
-        <v>313</v>
-      </c>
+      <c r="J167" s="8"/>
+      <c r="K167" s="8"/>
       <c r="L167" s="8"/>
       <c r="M167" s="8"/>
       <c r="N167" s="8"/>
@@ -9563,36 +10288,18 @@
       <c r="AA167" s="6"/>
       <c r="AB167" s="6"/>
     </row>
-    <row r="168" spans="1:28" ht="115.5" thickBot="1">
-      <c r="A168" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="B168" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="C168" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="D168" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E168" s="15" t="s">
-        <v>624</v>
-      </c>
-      <c r="F168" s="8" t="s">
-        <v>415</v>
-      </c>
+    <row r="168" spans="1:28" ht="16.5" thickBot="1">
+      <c r="A168" s="8"/>
+      <c r="B168" s="8"/>
+      <c r="C168" s="8"/>
+      <c r="D168" s="8"/>
+      <c r="E168" s="8"/>
+      <c r="F168" s="8"/>
       <c r="G168" s="8"/>
-      <c r="H168" s="8" t="s">
-        <v>410</v>
-      </c>
+      <c r="H168" s="8"/>
       <c r="I168" s="8"/>
-      <c r="J168" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="K168" s="8" t="s">
-        <v>313</v>
-      </c>
+      <c r="J168" s="8"/>
+      <c r="K168" s="8"/>
       <c r="L168" s="8"/>
       <c r="M168" s="8"/>
       <c r="N168" s="8"/>
@@ -9641,36 +10348,18 @@
       <c r="AA169" s="6"/>
       <c r="AB169" s="6"/>
     </row>
-    <row r="170" spans="1:28" ht="90" thickBot="1">
-      <c r="A170" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="B170" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="C170" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="D170" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E170" s="15" t="s">
-        <v>625</v>
-      </c>
-      <c r="F170" s="8" t="s">
-        <v>372</v>
-      </c>
+    <row r="170" spans="1:28" ht="16.5" thickBot="1">
+      <c r="A170" s="8"/>
+      <c r="B170" s="8"/>
+      <c r="C170" s="8"/>
+      <c r="D170" s="8"/>
+      <c r="E170" s="8"/>
+      <c r="F170" s="8"/>
       <c r="G170" s="8"/>
-      <c r="H170" s="16" t="s">
-        <v>282</v>
-      </c>
+      <c r="H170" s="8"/>
       <c r="I170" s="8"/>
-      <c r="J170" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="K170" s="8" t="s">
-        <v>389</v>
-      </c>
+      <c r="J170" s="8"/>
+      <c r="K170" s="8"/>
       <c r="L170" s="8"/>
       <c r="M170" s="8"/>
       <c r="N170" s="8"/>
@@ -9749,36 +10438,18 @@
       <c r="AA172" s="6"/>
       <c r="AB172" s="6"/>
     </row>
-    <row r="173" spans="1:28" ht="115.5" thickBot="1">
-      <c r="A173" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="B173" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="C173" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="D173" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E173" s="15" t="s">
-        <v>626</v>
-      </c>
-      <c r="F173" s="8" t="s">
-        <v>420</v>
-      </c>
+    <row r="173" spans="1:28" ht="16.5" thickBot="1">
+      <c r="A173" s="8"/>
+      <c r="B173" s="8"/>
+      <c r="C173" s="8"/>
+      <c r="D173" s="8"/>
+      <c r="E173" s="8"/>
+      <c r="F173" s="8"/>
       <c r="G173" s="8"/>
-      <c r="H173" s="8" t="s">
-        <v>421</v>
-      </c>
+      <c r="H173" s="8"/>
       <c r="I173" s="8"/>
-      <c r="J173" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="K173" s="8" t="s">
-        <v>313</v>
-      </c>
+      <c r="J173" s="8"/>
+      <c r="K173" s="8"/>
       <c r="L173" s="8"/>
       <c r="M173" s="8"/>
       <c r="N173" s="8"/>
@@ -9857,39 +10528,19 @@
       <c r="AA175" s="6"/>
       <c r="AB175" s="6"/>
     </row>
-    <row r="176" spans="1:28" ht="90" thickBot="1">
-      <c r="A176" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="B176" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="C176" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="D176" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E176" s="15" t="s">
-        <v>627</v>
-      </c>
-      <c r="F176" s="8" t="s">
-        <v>368</v>
-      </c>
+    <row r="176" spans="1:28" ht="16.5" thickBot="1">
+      <c r="A176" s="8"/>
+      <c r="B176" s="8"/>
+      <c r="C176" s="8"/>
+      <c r="D176" s="8"/>
+      <c r="E176" s="8"/>
+      <c r="F176" s="8"/>
       <c r="G176" s="8"/>
-      <c r="H176" s="8" t="s">
-        <v>424</v>
-      </c>
+      <c r="H176" s="8"/>
       <c r="I176" s="8"/>
-      <c r="J176" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="K176" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="L176" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="J176" s="8"/>
+      <c r="K176" s="8"/>
+      <c r="L176" s="8"/>
       <c r="M176" s="8"/>
       <c r="N176" s="8"/>
       <c r="O176" s="8"/>
@@ -9967,43 +10618,21 @@
       <c r="AA178" s="6"/>
       <c r="AB178" s="6"/>
     </row>
-    <row r="179" spans="1:28" ht="115.5" thickBot="1">
-      <c r="A179" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="B179" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="C179" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="D179" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E179" s="15" t="s">
-        <v>511</v>
-      </c>
-      <c r="F179" s="8" t="s">
-        <v>368</v>
-      </c>
+    <row r="179" spans="1:28" ht="16.5" thickBot="1">
+      <c r="A179" s="8"/>
+      <c r="B179" s="8"/>
+      <c r="C179" s="8"/>
+      <c r="D179" s="8"/>
+      <c r="E179" s="8"/>
+      <c r="F179" s="8"/>
       <c r="G179" s="8"/>
-      <c r="H179" s="8" t="s">
-        <v>424</v>
-      </c>
+      <c r="H179" s="8"/>
       <c r="I179" s="8"/>
-      <c r="J179" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="K179" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L179" s="8" t="s">
-        <v>540</v>
-      </c>
+      <c r="J179" s="8"/>
+      <c r="K179" s="8"/>
+      <c r="L179" s="8"/>
       <c r="M179" s="8"/>
-      <c r="N179" s="8" t="s">
-        <v>512</v>
-      </c>
+      <c r="N179" s="8"/>
       <c r="O179" s="8"/>
       <c r="P179" s="6"/>
       <c r="Q179" s="6"/>
@@ -10019,39 +10648,19 @@
       <c r="AA179" s="6"/>
       <c r="AB179" s="6"/>
     </row>
-    <row r="180" spans="1:28" ht="64.5" thickBot="1">
-      <c r="A180" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="B180" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="C180" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="D180" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E180" s="15" t="s">
-        <v>513</v>
-      </c>
-      <c r="F180" s="8" t="s">
-        <v>368</v>
-      </c>
+    <row r="180" spans="1:28" ht="16.5" thickBot="1">
+      <c r="A180" s="8"/>
+      <c r="B180" s="8"/>
+      <c r="C180" s="8"/>
+      <c r="D180" s="8"/>
+      <c r="E180" s="8"/>
+      <c r="F180" s="8"/>
       <c r="G180" s="8"/>
-      <c r="H180" s="8" t="s">
-        <v>424</v>
-      </c>
+      <c r="H180" s="8"/>
       <c r="I180" s="8"/>
-      <c r="J180" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="K180" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L180" s="8" t="s">
-        <v>540</v>
-      </c>
+      <c r="J180" s="8"/>
+      <c r="K180" s="8"/>
+      <c r="L180" s="8"/>
       <c r="M180" s="8"/>
       <c r="N180" s="8"/>
       <c r="O180" s="8"/>
@@ -10129,36 +10738,18 @@
       <c r="AA182" s="6"/>
       <c r="AB182" s="6"/>
     </row>
-    <row r="183" spans="1:28" ht="77.25" thickBot="1">
-      <c r="A183" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="B183" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="C183" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="D183" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E183" s="15" t="s">
-        <v>628</v>
-      </c>
-      <c r="F183" s="8" t="s">
-        <v>438</v>
-      </c>
+    <row r="183" spans="1:28" ht="16.5" thickBot="1">
+      <c r="A183" s="8"/>
+      <c r="B183" s="8"/>
+      <c r="C183" s="8"/>
+      <c r="D183" s="8"/>
+      <c r="E183" s="8"/>
+      <c r="F183" s="8"/>
       <c r="G183" s="8"/>
-      <c r="H183" s="12" t="s">
-        <v>439</v>
-      </c>
+      <c r="H183" s="8"/>
       <c r="I183" s="8"/>
-      <c r="J183" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="K183" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="J183" s="8"/>
+      <c r="K183" s="8"/>
       <c r="L183" s="8"/>
       <c r="M183" s="8"/>
       <c r="N183" s="8"/>
@@ -10177,36 +10768,18 @@
       <c r="AA183" s="6"/>
       <c r="AB183" s="6"/>
     </row>
-    <row r="184" spans="1:28" ht="90" thickBot="1">
-      <c r="A184" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="B184" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="C184" s="17">
-        <v>43921</v>
-      </c>
-      <c r="D184" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E184" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="F184" s="8" t="s">
-        <v>443</v>
-      </c>
+    <row r="184" spans="1:28" ht="16.5" thickBot="1">
+      <c r="A184" s="8"/>
+      <c r="B184" s="8"/>
+      <c r="C184" s="8"/>
+      <c r="D184" s="8"/>
+      <c r="E184" s="8"/>
+      <c r="F184" s="8"/>
       <c r="G184" s="8"/>
-      <c r="H184" s="8" t="s">
-        <v>439</v>
-      </c>
+      <c r="H184" s="8"/>
       <c r="I184" s="8"/>
-      <c r="J184" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="K184" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="J184" s="8"/>
+      <c r="K184" s="8"/>
       <c r="L184" s="8"/>
       <c r="M184" s="8"/>
       <c r="N184" s="8"/>
@@ -10285,39 +10858,21 @@
       <c r="AA186" s="6"/>
       <c r="AB186" s="6"/>
     </row>
-    <row r="187" spans="1:28" ht="77.25" thickBot="1">
-      <c r="A187" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="B187" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="C187" s="17">
-        <v>43921</v>
-      </c>
-      <c r="D187" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E187" s="15" t="s">
-        <v>514</v>
-      </c>
-      <c r="F187" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="G187" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="H187" s="8" t="s">
-        <v>447</v>
-      </c>
+    <row r="187" spans="1:28" ht="16.5" thickBot="1">
+      <c r="A187" s="8"/>
+      <c r="B187" s="8"/>
+      <c r="C187" s="8"/>
+      <c r="D187" s="8"/>
+      <c r="E187" s="8"/>
+      <c r="F187" s="8"/>
+      <c r="G187" s="8"/>
+      <c r="H187" s="8"/>
       <c r="I187" s="8"/>
       <c r="J187" s="8"/>
       <c r="K187" s="8"/>
       <c r="L187" s="8"/>
       <c r="M187" s="8"/>
-      <c r="N187" s="8" t="s">
-        <v>515</v>
-      </c>
+      <c r="N187" s="8"/>
       <c r="O187" s="8"/>
       <c r="P187" s="6"/>
       <c r="Q187" s="6"/>
@@ -10393,35 +10948,17 @@
       <c r="AA189" s="6"/>
       <c r="AB189" s="6"/>
     </row>
-    <row r="190" spans="1:28" ht="51.75" thickBot="1">
-      <c r="A190" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="B190" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="C190" s="17">
-        <v>43921</v>
-      </c>
-      <c r="D190" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E190" s="15" t="s">
-        <v>516</v>
-      </c>
-      <c r="F190" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="G190" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="H190" s="12" t="s">
-        <v>161</v>
-      </c>
+    <row r="190" spans="1:28" ht="16.5" thickBot="1">
+      <c r="A190" s="8"/>
+      <c r="B190" s="8"/>
+      <c r="C190" s="8"/>
+      <c r="D190" s="8"/>
+      <c r="E190" s="8"/>
+      <c r="F190" s="8"/>
+      <c r="G190" s="8"/>
+      <c r="H190" s="8"/>
       <c r="I190" s="8"/>
-      <c r="J190" s="8" t="s">
-        <v>450</v>
-      </c>
+      <c r="J190" s="8"/>
       <c r="K190" s="8"/>
       <c r="L190" s="8"/>
       <c r="M190" s="8"/>
@@ -10441,35 +10978,17 @@
       <c r="AA190" s="6"/>
       <c r="AB190" s="6"/>
     </row>
-    <row r="191" spans="1:28" ht="48" thickBot="1">
-      <c r="A191" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="B191" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="C191" s="17">
-        <v>43921</v>
-      </c>
-      <c r="D191" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E191" s="15" t="s">
-        <v>517</v>
-      </c>
-      <c r="F191" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="G191" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="H191" s="12" t="s">
-        <v>161</v>
-      </c>
+    <row r="191" spans="1:28" ht="16.5" thickBot="1">
+      <c r="A191" s="8"/>
+      <c r="B191" s="8"/>
+      <c r="C191" s="8"/>
+      <c r="D191" s="8"/>
+      <c r="E191" s="8"/>
+      <c r="F191" s="8"/>
+      <c r="G191" s="8"/>
+      <c r="H191" s="8"/>
       <c r="I191" s="8"/>
-      <c r="J191" s="8" t="s">
-        <v>453</v>
-      </c>
+      <c r="J191" s="8"/>
       <c r="K191" s="8"/>
       <c r="L191" s="8"/>
       <c r="M191" s="8"/>
@@ -10489,35 +11008,17 @@
       <c r="AA191" s="6"/>
       <c r="AB191" s="6"/>
     </row>
-    <row r="192" spans="1:28" ht="51.75" thickBot="1">
-      <c r="A192" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="B192" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="C192" s="17">
-        <v>43921</v>
-      </c>
-      <c r="D192" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E192" s="15" t="s">
-        <v>518</v>
-      </c>
-      <c r="F192" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="G192" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="H192" s="12" t="s">
-        <v>161</v>
-      </c>
+    <row r="192" spans="1:28" ht="16.5" thickBot="1">
+      <c r="A192" s="8"/>
+      <c r="B192" s="8"/>
+      <c r="C192" s="8"/>
+      <c r="D192" s="8"/>
+      <c r="E192" s="8"/>
+      <c r="F192" s="8"/>
+      <c r="G192" s="8"/>
+      <c r="H192" s="8"/>
       <c r="I192" s="8"/>
-      <c r="J192" s="8" t="s">
-        <v>456</v>
-      </c>
+      <c r="J192" s="8"/>
       <c r="K192" s="8"/>
       <c r="L192" s="8"/>
       <c r="M192" s="8"/>
@@ -10537,35 +11038,17 @@
       <c r="AA192" s="6"/>
       <c r="AB192" s="6"/>
     </row>
-    <row r="193" spans="1:28" ht="51.75" thickBot="1">
-      <c r="A193" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="B193" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="C193" s="17">
-        <v>43921</v>
-      </c>
-      <c r="D193" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E193" s="15" t="s">
-        <v>519</v>
-      </c>
-      <c r="F193" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="G193" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="H193" s="12" t="s">
-        <v>161</v>
-      </c>
+    <row r="193" spans="1:28" ht="16.5" thickBot="1">
+      <c r="A193" s="8"/>
+      <c r="B193" s="8"/>
+      <c r="C193" s="8"/>
+      <c r="D193" s="8"/>
+      <c r="E193" s="8"/>
+      <c r="F193" s="8"/>
+      <c r="G193" s="8"/>
+      <c r="H193" s="8"/>
       <c r="I193" s="8"/>
-      <c r="J193" s="8" t="s">
-        <v>459</v>
-      </c>
+      <c r="J193" s="8"/>
       <c r="K193" s="8"/>
       <c r="L193" s="8"/>
       <c r="M193" s="8"/>
@@ -10645,39 +11128,19 @@
       <c r="AA195" s="6"/>
       <c r="AB195" s="6"/>
     </row>
-    <row r="196" spans="1:28" ht="64.5" thickBot="1">
-      <c r="A196" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="B196" s="8" t="s">
-        <v>521</v>
-      </c>
-      <c r="C196" s="17">
-        <v>43922</v>
-      </c>
-      <c r="D196" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E196" s="15" t="s">
-        <v>522</v>
-      </c>
-      <c r="F196" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G196" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="H196" s="8" t="s">
-        <v>124</v>
-      </c>
+    <row r="196" spans="1:28" ht="16.5" thickBot="1">
+      <c r="A196" s="8"/>
+      <c r="B196" s="8"/>
+      <c r="C196" s="8"/>
+      <c r="D196" s="8"/>
+      <c r="E196" s="8"/>
+      <c r="F196" s="8"/>
+      <c r="G196" s="8"/>
+      <c r="H196" s="8"/>
       <c r="I196" s="8"/>
-      <c r="J196" s="8" t="s">
-        <v>523</v>
-      </c>
+      <c r="J196" s="8"/>
       <c r="K196" s="8"/>
-      <c r="L196" s="8" t="s">
-        <v>541</v>
-      </c>
+      <c r="L196" s="8"/>
       <c r="M196" s="8"/>
       <c r="N196" s="8"/>
       <c r="O196" s="8"/>
@@ -10695,39 +11158,19 @@
       <c r="AA196" s="6"/>
       <c r="AB196" s="6"/>
     </row>
-    <row r="197" spans="1:28" ht="64.5" thickBot="1">
-      <c r="A197" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="B197" s="8" t="s">
-        <v>525</v>
-      </c>
-      <c r="C197" s="17">
-        <v>43922</v>
-      </c>
-      <c r="D197" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E197" s="15" t="s">
-        <v>526</v>
-      </c>
-      <c r="F197" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G197" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="H197" s="8" t="s">
-        <v>124</v>
-      </c>
+    <row r="197" spans="1:28" ht="16.5" thickBot="1">
+      <c r="A197" s="8"/>
+      <c r="B197" s="8"/>
+      <c r="C197" s="8"/>
+      <c r="D197" s="8"/>
+      <c r="E197" s="8"/>
+      <c r="F197" s="8"/>
+      <c r="G197" s="8"/>
+      <c r="H197" s="8"/>
       <c r="I197" s="8"/>
-      <c r="J197" s="8" t="s">
-        <v>523</v>
-      </c>
+      <c r="J197" s="8"/>
       <c r="K197" s="8"/>
-      <c r="L197" s="8" t="s">
-        <v>541</v>
-      </c>
+      <c r="L197" s="8"/>
       <c r="M197" s="8"/>
       <c r="N197" s="8"/>
       <c r="O197" s="8"/>
@@ -10745,41 +11188,19 @@
       <c r="AA197" s="6"/>
       <c r="AB197" s="6"/>
     </row>
-    <row r="198" spans="1:28" ht="64.5" thickBot="1">
-      <c r="A198" s="8" t="s">
-        <v>527</v>
-      </c>
-      <c r="B198" s="8" t="s">
-        <v>528</v>
-      </c>
-      <c r="C198" s="17">
-        <v>43922</v>
-      </c>
-      <c r="D198" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E198" s="15" t="s">
-        <v>529</v>
-      </c>
-      <c r="F198" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G198" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="H198" s="8" t="s">
-        <v>124</v>
-      </c>
+    <row r="198" spans="1:28" ht="16.5" thickBot="1">
+      <c r="A198" s="8"/>
+      <c r="B198" s="8"/>
+      <c r="C198" s="8"/>
+      <c r="D198" s="8"/>
+      <c r="E198" s="8"/>
+      <c r="F198" s="8"/>
+      <c r="G198" s="8"/>
+      <c r="H198" s="8"/>
       <c r="I198" s="8"/>
-      <c r="J198" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K198" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L198" s="8" t="s">
-        <v>541</v>
-      </c>
+      <c r="J198" s="8"/>
+      <c r="K198" s="8"/>
+      <c r="L198" s="8"/>
       <c r="M198" s="8"/>
       <c r="N198" s="8"/>
       <c r="O198" s="8"/>
@@ -10797,41 +11218,19 @@
       <c r="AA198" s="6"/>
       <c r="AB198" s="6"/>
     </row>
-    <row r="199" spans="1:28" ht="64.5" thickBot="1">
-      <c r="A199" s="8" t="s">
-        <v>530</v>
-      </c>
-      <c r="B199" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="C199" s="17">
-        <v>43922</v>
-      </c>
-      <c r="D199" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E199" s="15" t="s">
-        <v>532</v>
-      </c>
-      <c r="F199" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G199" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="H199" s="8" t="s">
-        <v>124</v>
-      </c>
+    <row r="199" spans="1:28" ht="16.5" thickBot="1">
+      <c r="A199" s="8"/>
+      <c r="B199" s="8"/>
+      <c r="C199" s="8"/>
+      <c r="D199" s="8"/>
+      <c r="E199" s="8"/>
+      <c r="F199" s="8"/>
+      <c r="G199" s="8"/>
+      <c r="H199" s="8"/>
       <c r="I199" s="8"/>
-      <c r="J199" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K199" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L199" s="8" t="s">
-        <v>541</v>
-      </c>
+      <c r="J199" s="8"/>
+      <c r="K199" s="8"/>
+      <c r="L199" s="8"/>
       <c r="M199" s="8"/>
       <c r="N199" s="8"/>
       <c r="O199" s="8"/>
@@ -10909,36 +11308,20 @@
       <c r="AA201" s="6"/>
       <c r="AB201" s="6"/>
     </row>
-    <row r="202" spans="1:28" ht="51.75" thickBot="1">
-      <c r="A202" s="8" t="s">
-        <v>533</v>
-      </c>
-      <c r="B202" s="8" t="s">
-        <v>533</v>
-      </c>
-      <c r="C202" s="17">
-        <v>43922</v>
-      </c>
-      <c r="D202" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E202" s="14" t="s">
-        <v>506</v>
-      </c>
-      <c r="F202" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="G202" s="8" t="s">
-        <v>534</v>
-      </c>
+    <row r="202" spans="1:28" ht="16.5" thickBot="1">
+      <c r="A202" s="8"/>
+      <c r="B202" s="8"/>
+      <c r="C202" s="8"/>
+      <c r="D202" s="8"/>
+      <c r="E202" s="8"/>
+      <c r="F202" s="8"/>
+      <c r="G202" s="8"/>
       <c r="H202" s="8"/>
       <c r="I202" s="8"/>
       <c r="J202" s="8"/>
       <c r="K202" s="8"/>
       <c r="L202" s="8"/>
-      <c r="M202" s="8" t="s">
-        <v>389</v>
-      </c>
+      <c r="M202" s="8"/>
       <c r="N202" s="8"/>
       <c r="O202" s="8"/>
       <c r="P202" s="6"/>
@@ -10955,36 +11338,20 @@
       <c r="AA202" s="6"/>
       <c r="AB202" s="6"/>
     </row>
-    <row r="203" spans="1:28" ht="48" thickBot="1">
-      <c r="A203" s="8" t="s">
-        <v>535</v>
-      </c>
-      <c r="B203" s="8" t="s">
-        <v>535</v>
-      </c>
-      <c r="C203" s="17">
-        <v>43922</v>
-      </c>
-      <c r="D203" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E203" s="14" t="s">
-        <v>630</v>
-      </c>
-      <c r="F203" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="G203" s="8" t="s">
-        <v>536</v>
-      </c>
+    <row r="203" spans="1:28" ht="16.5" thickBot="1">
+      <c r="A203" s="8"/>
+      <c r="B203" s="8"/>
+      <c r="C203" s="8"/>
+      <c r="D203" s="8"/>
+      <c r="E203" s="8"/>
+      <c r="F203" s="8"/>
+      <c r="G203" s="8"/>
       <c r="H203" s="8"/>
       <c r="I203" s="8"/>
       <c r="J203" s="8"/>
       <c r="K203" s="8"/>
       <c r="L203" s="8"/>
-      <c r="M203" s="8" t="s">
-        <v>389</v>
-      </c>
+      <c r="M203" s="8"/>
       <c r="N203" s="8"/>
       <c r="O203" s="8"/>
       <c r="P203" s="6"/>
@@ -11001,36 +11368,20 @@
       <c r="AA203" s="6"/>
       <c r="AB203" s="6"/>
     </row>
-    <row r="204" spans="1:28" ht="39" thickBot="1">
-      <c r="A204" s="8" t="s">
-        <v>537</v>
-      </c>
-      <c r="B204" s="8" t="s">
-        <v>537</v>
-      </c>
-      <c r="C204" s="17">
-        <v>43922</v>
-      </c>
-      <c r="D204" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E204" s="14" t="s">
-        <v>631</v>
-      </c>
-      <c r="F204" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="G204" s="8" t="s">
-        <v>342</v>
-      </c>
+    <row r="204" spans="1:28" ht="16.5" thickBot="1">
+      <c r="A204" s="8"/>
+      <c r="B204" s="8"/>
+      <c r="C204" s="8"/>
+      <c r="D204" s="8"/>
+      <c r="E204" s="8"/>
+      <c r="F204" s="8"/>
+      <c r="G204" s="8"/>
       <c r="H204" s="8"/>
       <c r="I204" s="8"/>
       <c r="J204" s="8"/>
       <c r="K204" s="8"/>
       <c r="L204" s="8"/>
-      <c r="M204" s="8" t="s">
-        <v>389</v>
-      </c>
+      <c r="M204" s="8"/>
       <c r="N204" s="8"/>
       <c r="O204" s="8"/>
       <c r="P204" s="6"/>
@@ -11047,38 +11398,20 @@
       <c r="AA204" s="6"/>
       <c r="AB204" s="6"/>
     </row>
-    <row r="205" spans="1:28" ht="39" thickBot="1">
-      <c r="A205" s="8" t="s">
-        <v>538</v>
-      </c>
-      <c r="B205" s="8" t="s">
-        <v>538</v>
-      </c>
-      <c r="C205" s="17">
-        <v>43922</v>
-      </c>
-      <c r="D205" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E205" s="14" t="s">
-        <v>612</v>
-      </c>
-      <c r="F205" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G205" s="8" t="s">
-        <v>324</v>
-      </c>
+    <row r="205" spans="1:28" ht="16.5" thickBot="1">
+      <c r="A205" s="8"/>
+      <c r="B205" s="8"/>
+      <c r="C205" s="8"/>
+      <c r="D205" s="8"/>
+      <c r="E205" s="8"/>
+      <c r="F205" s="8"/>
+      <c r="G205" s="8"/>
       <c r="H205" s="8"/>
       <c r="I205" s="8"/>
       <c r="J205" s="8"/>
       <c r="K205" s="8"/>
-      <c r="L205" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="M205" s="8" t="s">
-        <v>389</v>
-      </c>
+      <c r="L205" s="8"/>
+      <c r="M205" s="8"/>
       <c r="N205" s="8"/>
       <c r="O205" s="8"/>
       <c r="P205" s="6"/>
@@ -11155,28 +11488,14 @@
       <c r="AA207" s="6"/>
       <c r="AB207" s="6"/>
     </row>
-    <row r="208" spans="1:28" ht="64.5" thickBot="1">
-      <c r="A208" s="8" t="s">
-        <v>542</v>
-      </c>
-      <c r="B208" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="C208" s="17">
-        <v>43923</v>
-      </c>
-      <c r="D208" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E208" s="14" t="s">
-        <v>632</v>
-      </c>
-      <c r="F208" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G208" s="8" t="s">
-        <v>324</v>
-      </c>
+    <row r="208" spans="1:28" ht="16.5" thickBot="1">
+      <c r="A208" s="8"/>
+      <c r="B208" s="8"/>
+      <c r="C208" s="8"/>
+      <c r="D208" s="8"/>
+      <c r="E208" s="8"/>
+      <c r="F208" s="8"/>
+      <c r="G208" s="8"/>
       <c r="H208" s="8"/>
       <c r="I208" s="8"/>
       <c r="J208" s="8"/>
@@ -11199,28 +11518,14 @@
       <c r="AA208" s="6"/>
       <c r="AB208" s="6"/>
     </row>
-    <row r="209" spans="1:28" ht="64.5" thickBot="1">
-      <c r="A209" s="8" t="s">
-        <v>544</v>
-      </c>
-      <c r="B209" s="8" t="s">
-        <v>545</v>
-      </c>
-      <c r="C209" s="17">
-        <v>43923</v>
-      </c>
-      <c r="D209" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E209" s="14" t="s">
-        <v>633</v>
-      </c>
-      <c r="F209" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G209" s="8" t="s">
-        <v>324</v>
-      </c>
+    <row r="209" spans="1:28" ht="16.5" thickBot="1">
+      <c r="A209" s="8"/>
+      <c r="B209" s="8"/>
+      <c r="C209" s="8"/>
+      <c r="D209" s="8"/>
+      <c r="E209" s="8"/>
+      <c r="F209" s="8"/>
+      <c r="G209" s="8"/>
       <c r="H209" s="8"/>
       <c r="I209" s="8"/>
       <c r="J209" s="8"/>
@@ -11303,36 +11608,20 @@
       <c r="AA211" s="6"/>
       <c r="AB211" s="6"/>
     </row>
-    <row r="212" spans="1:28" ht="48" thickBot="1">
-      <c r="A212" s="8" t="s">
-        <v>546</v>
-      </c>
-      <c r="B212" s="8" t="s">
-        <v>547</v>
-      </c>
-      <c r="C212" s="17">
-        <v>43923</v>
-      </c>
-      <c r="D212" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E212" s="15" t="s">
-        <v>634</v>
-      </c>
-      <c r="F212" s="8" t="s">
-        <v>548</v>
-      </c>
-      <c r="G212" s="8" t="s">
-        <v>399</v>
-      </c>
+    <row r="212" spans="1:28" ht="16.5" thickBot="1">
+      <c r="A212" s="8"/>
+      <c r="B212" s="8"/>
+      <c r="C212" s="8"/>
+      <c r="D212" s="8"/>
+      <c r="E212" s="8"/>
+      <c r="F212" s="8"/>
+      <c r="G212" s="8"/>
       <c r="H212" s="8"/>
       <c r="I212" s="8"/>
       <c r="J212" s="8"/>
       <c r="K212" s="8"/>
       <c r="L212" s="8"/>
-      <c r="M212" s="8" t="s">
-        <v>276</v>
-      </c>
+      <c r="M212" s="8"/>
       <c r="N212" s="8"/>
       <c r="O212" s="8"/>
       <c r="P212" s="6"/>
@@ -11409,36 +11698,18 @@
       <c r="AA214" s="6"/>
       <c r="AB214" s="6"/>
     </row>
-    <row r="215" spans="1:28" ht="141" thickBot="1">
-      <c r="A215" s="8" t="s">
-        <v>549</v>
-      </c>
-      <c r="B215" s="8" t="s">
-        <v>550</v>
-      </c>
-      <c r="C215" s="17">
-        <v>43923</v>
-      </c>
-      <c r="D215" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E215" s="14" t="s">
-        <v>635</v>
-      </c>
-      <c r="F215" s="8" t="s">
-        <v>551</v>
-      </c>
+    <row r="215" spans="1:28" ht="16.5" thickBot="1">
+      <c r="A215" s="8"/>
+      <c r="B215" s="8"/>
+      <c r="C215" s="8"/>
+      <c r="D215" s="8"/>
+      <c r="E215" s="8"/>
+      <c r="F215" s="8"/>
       <c r="G215" s="8"/>
-      <c r="H215" s="8" t="s">
-        <v>552</v>
-      </c>
+      <c r="H215" s="8"/>
       <c r="I215" s="8"/>
-      <c r="J215" s="8" t="s">
-        <v>556</v>
-      </c>
-      <c r="K215" s="8" t="s">
-        <v>557</v>
-      </c>
+      <c r="J215" s="8"/>
+      <c r="K215" s="8"/>
       <c r="L215" s="8"/>
       <c r="M215" s="8"/>
       <c r="N215" s="8"/>
@@ -11457,36 +11728,18 @@
       <c r="AA215" s="6"/>
       <c r="AB215" s="6"/>
     </row>
-    <row r="216" spans="1:28" ht="115.5" thickBot="1">
-      <c r="A216" s="8" t="s">
-        <v>553</v>
-      </c>
-      <c r="B216" s="8" t="s">
-        <v>550</v>
-      </c>
-      <c r="C216" s="17">
-        <v>43923</v>
-      </c>
-      <c r="D216" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E216" s="15" t="s">
-        <v>636</v>
-      </c>
-      <c r="F216" s="8" t="s">
-        <v>554</v>
-      </c>
+    <row r="216" spans="1:28" ht="16.5" thickBot="1">
+      <c r="A216" s="8"/>
+      <c r="B216" s="8"/>
+      <c r="C216" s="8"/>
+      <c r="D216" s="8"/>
+      <c r="E216" s="8"/>
+      <c r="F216" s="8"/>
       <c r="G216" s="8"/>
-      <c r="H216" s="8" t="s">
-        <v>552</v>
-      </c>
+      <c r="H216" s="8"/>
       <c r="I216" s="8"/>
-      <c r="J216" s="8" t="s">
-        <v>558</v>
-      </c>
-      <c r="K216" s="8" t="s">
-        <v>559</v>
-      </c>
+      <c r="J216" s="8"/>
+      <c r="K216" s="8"/>
       <c r="L216" s="8"/>
       <c r="M216" s="8"/>
       <c r="N216" s="8"/>
@@ -11565,34 +11818,18 @@
       <c r="AA218" s="6"/>
       <c r="AB218" s="6"/>
     </row>
-    <row r="219" spans="1:28" ht="48" thickBot="1">
-      <c r="A219" s="8" t="s">
-        <v>560</v>
-      </c>
-      <c r="B219" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="C219" s="17">
-        <v>43924</v>
-      </c>
-      <c r="D219" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E219" s="15" t="s">
-        <v>637</v>
-      </c>
-      <c r="F219" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="G219" s="8" t="s">
-        <v>368</v>
-      </c>
+    <row r="219" spans="1:28" ht="16.5" thickBot="1">
+      <c r="A219" s="8"/>
+      <c r="B219" s="8"/>
+      <c r="C219" s="8"/>
+      <c r="D219" s="8"/>
+      <c r="E219" s="8"/>
+      <c r="F219" s="8"/>
+      <c r="G219" s="8"/>
       <c r="H219" s="8"/>
       <c r="I219" s="8"/>
       <c r="J219" s="8"/>
-      <c r="K219" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="K219" s="8"/>
       <c r="L219" s="8"/>
       <c r="M219" s="8"/>
       <c r="N219" s="8"/>
@@ -11611,38 +11848,20 @@
       <c r="AA219" s="6"/>
       <c r="AB219" s="6"/>
     </row>
-    <row r="220" spans="1:28" ht="48" thickBot="1">
-      <c r="A220" s="8" t="s">
-        <v>562</v>
-      </c>
-      <c r="B220" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="C220" s="17">
-        <v>43924</v>
-      </c>
-      <c r="D220" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E220" s="14" t="s">
-        <v>638</v>
-      </c>
-      <c r="F220" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="G220" s="8" t="s">
-        <v>368</v>
-      </c>
+    <row r="220" spans="1:28" ht="16.5" thickBot="1">
+      <c r="A220" s="8"/>
+      <c r="B220" s="8"/>
+      <c r="C220" s="8"/>
+      <c r="D220" s="8"/>
+      <c r="E220" s="8"/>
+      <c r="F220" s="8"/>
+      <c r="G220" s="8"/>
       <c r="H220" s="8"/>
       <c r="I220" s="8"/>
       <c r="J220" s="8"/>
-      <c r="K220" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="K220" s="8"/>
       <c r="L220" s="8"/>
-      <c r="M220" s="8" t="s">
-        <v>389</v>
-      </c>
+      <c r="M220" s="8"/>
       <c r="N220" s="8"/>
       <c r="O220" s="8"/>
       <c r="P220" s="6"/>
@@ -11719,38 +11938,18 @@
       <c r="AA222" s="6"/>
       <c r="AB222" s="6"/>
     </row>
-    <row r="223" spans="1:28" ht="51.75" thickBot="1">
-      <c r="A223" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="B223" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="C223" s="17">
-        <v>43924</v>
-      </c>
-      <c r="D223" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E223" s="14" t="s">
-        <v>639</v>
-      </c>
-      <c r="F223" s="8" t="s">
-        <v>566</v>
-      </c>
-      <c r="G223" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="H223" s="8" t="s">
-        <v>282</v>
-      </c>
+    <row r="223" spans="1:28" ht="16.5" thickBot="1">
+      <c r="A223" s="8"/>
+      <c r="B223" s="8"/>
+      <c r="C223" s="8"/>
+      <c r="D223" s="8"/>
+      <c r="E223" s="8"/>
+      <c r="F223" s="8"/>
+      <c r="G223" s="8"/>
+      <c r="H223" s="8"/>
       <c r="I223" s="8"/>
-      <c r="J223" s="8" t="s">
-        <v>568</v>
-      </c>
-      <c r="K223" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="J223" s="8"/>
+      <c r="K223" s="8"/>
       <c r="L223" s="8"/>
       <c r="M223" s="8"/>
       <c r="N223" s="8"/>
@@ -11829,31 +12028,15 @@
       <c r="AA225" s="6"/>
       <c r="AB225" s="6"/>
     </row>
-    <row r="226" spans="1:28" ht="51.75" thickBot="1">
-      <c r="A226" s="8" t="s">
-        <v>640</v>
-      </c>
-      <c r="B226" s="8" t="s">
-        <v>641</v>
-      </c>
-      <c r="C226" s="17">
-        <v>43926</v>
-      </c>
-      <c r="D226" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E226" s="14" t="s">
-        <v>625</v>
-      </c>
-      <c r="F226" s="8" t="s">
-        <v>566</v>
-      </c>
-      <c r="G226" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="H226" s="8" t="s">
-        <v>282</v>
-      </c>
+    <row r="226" spans="1:28" ht="16.5" thickBot="1">
+      <c r="A226" s="8"/>
+      <c r="B226" s="8"/>
+      <c r="C226" s="8"/>
+      <c r="D226" s="8"/>
+      <c r="E226" s="8"/>
+      <c r="F226" s="8"/>
+      <c r="G226" s="8"/>
+      <c r="H226" s="8"/>
       <c r="I226" s="8"/>
       <c r="J226" s="8"/>
       <c r="K226" s="8"/>
@@ -11935,35 +12118,17 @@
       <c r="AA228" s="6"/>
       <c r="AB228" s="6"/>
     </row>
-    <row r="229" spans="1:28" ht="90" thickBot="1">
-      <c r="A229" s="8" t="s">
-        <v>642</v>
-      </c>
-      <c r="B229" s="8" t="s">
-        <v>643</v>
-      </c>
-      <c r="C229" s="17">
-        <v>43927</v>
-      </c>
-      <c r="D229" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E229" s="14" t="s">
-        <v>644</v>
-      </c>
-      <c r="F229" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G229" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="H229" s="8" t="s">
-        <v>124</v>
-      </c>
+    <row r="229" spans="1:28" ht="16.5" thickBot="1">
+      <c r="A229" s="8"/>
+      <c r="B229" s="8"/>
+      <c r="C229" s="8"/>
+      <c r="D229" s="8"/>
+      <c r="E229" s="8"/>
+      <c r="F229" s="8"/>
+      <c r="G229" s="8"/>
+      <c r="H229" s="8"/>
       <c r="I229" s="8"/>
-      <c r="J229" s="8" t="s">
-        <v>645</v>
-      </c>
+      <c r="J229" s="8"/>
       <c r="K229" s="8"/>
       <c r="L229" s="8"/>
       <c r="M229" s="8"/>
@@ -12043,33 +12208,17 @@
       <c r="AA231" s="6"/>
       <c r="AB231" s="6"/>
     </row>
-    <row r="232" spans="1:28" ht="141" thickBot="1">
-      <c r="A232" s="8" t="s">
-        <v>646</v>
-      </c>
-      <c r="B232" s="8" t="s">
-        <v>647</v>
-      </c>
-      <c r="C232" s="17">
-        <v>43927</v>
-      </c>
-      <c r="D232" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E232" s="14" t="s">
-        <v>648</v>
-      </c>
-      <c r="F232" s="8" t="s">
-        <v>649</v>
-      </c>
-      <c r="G232" s="6"/>
-      <c r="H232" s="8" t="s">
-        <v>382</v>
-      </c>
+    <row r="232" spans="1:28" ht="16.5" thickBot="1">
+      <c r="A232" s="8"/>
+      <c r="B232" s="8"/>
+      <c r="C232" s="8"/>
+      <c r="D232" s="8"/>
+      <c r="E232" s="8"/>
+      <c r="F232" s="8"/>
+      <c r="G232" s="8"/>
+      <c r="H232" s="8"/>
       <c r="I232" s="8"/>
-      <c r="J232" s="8" t="s">
-        <v>650</v>
-      </c>
+      <c r="J232" s="8"/>
       <c r="K232" s="8"/>
       <c r="L232" s="8"/>
       <c r="M232" s="8"/>
@@ -35915,141 +36064,146 @@
     <hyperlink ref="E4" r:id="rId2"/>
     <hyperlink ref="E5" r:id="rId3"/>
     <hyperlink ref="E6" r:id="rId4"/>
-    <hyperlink ref="E13" r:id="rId5"/>
-    <hyperlink ref="E14" r:id="rId6"/>
-    <hyperlink ref="E15" r:id="rId7"/>
-    <hyperlink ref="E16" r:id="rId8"/>
-    <hyperlink ref="E17" r:id="rId9"/>
-    <hyperlink ref="E18" r:id="rId10"/>
-    <hyperlink ref="E19" r:id="rId11"/>
-    <hyperlink ref="E20" r:id="rId12"/>
-    <hyperlink ref="E21" r:id="rId13"/>
-    <hyperlink ref="E22" r:id="rId14"/>
-    <hyperlink ref="E23" r:id="rId15"/>
-    <hyperlink ref="E24" r:id="rId16"/>
-    <hyperlink ref="E25" r:id="rId17"/>
-    <hyperlink ref="E26" r:id="rId18"/>
-    <hyperlink ref="E28" r:id="rId19"/>
-    <hyperlink ref="E29" r:id="rId20"/>
-    <hyperlink ref="E30" r:id="rId21"/>
-    <hyperlink ref="E31" r:id="rId22"/>
-    <hyperlink ref="E32" r:id="rId23"/>
-    <hyperlink ref="E33" r:id="rId24"/>
-    <hyperlink ref="E34" r:id="rId25"/>
-    <hyperlink ref="E35" r:id="rId26"/>
-    <hyperlink ref="E36" r:id="rId27"/>
-    <hyperlink ref="E40" r:id="rId28"/>
-    <hyperlink ref="E41" r:id="rId29"/>
-    <hyperlink ref="E42" r:id="rId30"/>
-    <hyperlink ref="E43" r:id="rId31"/>
-    <hyperlink ref="E44" r:id="rId32"/>
-    <hyperlink ref="E45" r:id="rId33"/>
-    <hyperlink ref="E49" r:id="rId34"/>
-    <hyperlink ref="E50" r:id="rId35"/>
-    <hyperlink ref="E53" r:id="rId36"/>
-    <hyperlink ref="E54" r:id="rId37"/>
-    <hyperlink ref="E57" r:id="rId38"/>
-    <hyperlink ref="E58" r:id="rId39"/>
-    <hyperlink ref="E59" r:id="rId40"/>
-    <hyperlink ref="E60" r:id="rId41"/>
-    <hyperlink ref="E61" r:id="rId42"/>
-    <hyperlink ref="E62" r:id="rId43"/>
-    <hyperlink ref="E63" r:id="rId44"/>
-    <hyperlink ref="E64" r:id="rId45"/>
-    <hyperlink ref="E67" r:id="rId46"/>
-    <hyperlink ref="E69" r:id="rId47"/>
-    <hyperlink ref="E70" r:id="rId48"/>
-    <hyperlink ref="E73" r:id="rId49"/>
-    <hyperlink ref="E76" r:id="rId50"/>
-    <hyperlink ref="E77" r:id="rId51"/>
-    <hyperlink ref="E78" r:id="rId52"/>
-    <hyperlink ref="E79" r:id="rId53"/>
-    <hyperlink ref="E80" r:id="rId54"/>
-    <hyperlink ref="E81" r:id="rId55"/>
-    <hyperlink ref="E84" r:id="rId56"/>
-    <hyperlink ref="E85" r:id="rId57"/>
-    <hyperlink ref="E86" r:id="rId58"/>
-    <hyperlink ref="E87" r:id="rId59" display="https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Foamtec/FT_4.JPG"/>
-    <hyperlink ref="E101" r:id="rId60"/>
-    <hyperlink ref="E102" r:id="rId61"/>
-    <hyperlink ref="E103" r:id="rId62"/>
-    <hyperlink ref="E104" r:id="rId63"/>
-    <hyperlink ref="E105" r:id="rId64"/>
-    <hyperlink ref="E106" r:id="rId65"/>
-    <hyperlink ref="E107" r:id="rId66"/>
-    <hyperlink ref="E108" r:id="rId67"/>
-    <hyperlink ref="E109" r:id="rId68"/>
-    <hyperlink ref="E110" r:id="rId69"/>
-    <hyperlink ref="E111" r:id="rId70"/>
-    <hyperlink ref="E112" r:id="rId71"/>
-    <hyperlink ref="E115" r:id="rId72"/>
-    <hyperlink ref="E118" r:id="rId73"/>
-    <hyperlink ref="E119" r:id="rId74"/>
-    <hyperlink ref="E120" r:id="rId75"/>
-    <hyperlink ref="E121" r:id="rId76"/>
-    <hyperlink ref="E122" r:id="rId77"/>
-    <hyperlink ref="E125" r:id="rId78"/>
-    <hyperlink ref="E126" r:id="rId79"/>
-    <hyperlink ref="E127" r:id="rId80"/>
-    <hyperlink ref="E128" r:id="rId81"/>
-    <hyperlink ref="E129" r:id="rId82"/>
-    <hyperlink ref="E132" r:id="rId83"/>
-    <hyperlink ref="E135" r:id="rId84"/>
-    <hyperlink ref="E136" r:id="rId85"/>
-    <hyperlink ref="E137" r:id="rId86"/>
-    <hyperlink ref="E138" r:id="rId87"/>
-    <hyperlink ref="E139" r:id="rId88"/>
-    <hyperlink ref="E140" r:id="rId89"/>
-    <hyperlink ref="E141" r:id="rId90"/>
-    <hyperlink ref="E142" r:id="rId91"/>
-    <hyperlink ref="E143" r:id="rId92"/>
-    <hyperlink ref="E146" r:id="rId93"/>
-    <hyperlink ref="E147" r:id="rId94"/>
-    <hyperlink ref="E150" r:id="rId95"/>
-    <hyperlink ref="E153" r:id="rId96"/>
-    <hyperlink ref="E154" r:id="rId97"/>
-    <hyperlink ref="E155" r:id="rId98"/>
-    <hyperlink ref="E158" r:id="rId99" display="https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Markforged/MF_2.jpg"/>
-    <hyperlink ref="E161" r:id="rId100"/>
-    <hyperlink ref="E162" r:id="rId101"/>
-    <hyperlink ref="E165" r:id="rId102"/>
-    <hyperlink ref="E166" r:id="rId103"/>
-    <hyperlink ref="E167" r:id="rId104"/>
-    <hyperlink ref="E168" r:id="rId105"/>
-    <hyperlink ref="E170" r:id="rId106"/>
-    <hyperlink ref="E173" r:id="rId107"/>
-    <hyperlink ref="E176" r:id="rId108"/>
-    <hyperlink ref="E179" r:id="rId109"/>
-    <hyperlink ref="E180" r:id="rId110"/>
-    <hyperlink ref="E183" r:id="rId111"/>
-    <hyperlink ref="E184" r:id="rId112"/>
-    <hyperlink ref="E187" r:id="rId113"/>
-    <hyperlink ref="E190" r:id="rId114"/>
-    <hyperlink ref="E191" r:id="rId115"/>
-    <hyperlink ref="E192" r:id="rId116"/>
-    <hyperlink ref="E193" r:id="rId117"/>
-    <hyperlink ref="E196" r:id="rId118"/>
-    <hyperlink ref="E197" r:id="rId119"/>
-    <hyperlink ref="E198" r:id="rId120"/>
-    <hyperlink ref="E199" r:id="rId121"/>
-    <hyperlink ref="E202" r:id="rId122"/>
-    <hyperlink ref="E203" r:id="rId123" display="https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Origin/O_2A_1.JPG"/>
-    <hyperlink ref="E204" r:id="rId124"/>
-    <hyperlink ref="E205" r:id="rId125"/>
-    <hyperlink ref="E208" r:id="rId126"/>
-    <hyperlink ref="E209" r:id="rId127"/>
-    <hyperlink ref="E212" r:id="rId128"/>
-    <hyperlink ref="E215" r:id="rId129"/>
-    <hyperlink ref="E216" r:id="rId130"/>
-    <hyperlink ref="E219" r:id="rId131"/>
-    <hyperlink ref="E220" r:id="rId132"/>
-    <hyperlink ref="E223" r:id="rId133"/>
-    <hyperlink ref="E226" r:id="rId134"/>
-    <hyperlink ref="E229" r:id="rId135"/>
-    <hyperlink ref="E232" r:id="rId136"/>
+    <hyperlink ref="E12" r:id="rId5"/>
+    <hyperlink ref="E13" r:id="rId6"/>
+    <hyperlink ref="E14" r:id="rId7"/>
+    <hyperlink ref="E15" r:id="rId8"/>
+    <hyperlink ref="E16" r:id="rId9"/>
+    <hyperlink ref="E17" r:id="rId10"/>
+    <hyperlink ref="E18" r:id="rId11"/>
+    <hyperlink ref="E19" r:id="rId12"/>
+    <hyperlink ref="E20" r:id="rId13"/>
+    <hyperlink ref="E21" r:id="rId14"/>
+    <hyperlink ref="E22" r:id="rId15"/>
+    <hyperlink ref="E23" r:id="rId16"/>
+    <hyperlink ref="E24" r:id="rId17"/>
+    <hyperlink ref="E25" r:id="rId18"/>
+    <hyperlink ref="E27" r:id="rId19"/>
+    <hyperlink ref="E28" r:id="rId20"/>
+    <hyperlink ref="E29" r:id="rId21"/>
+    <hyperlink ref="E30" r:id="rId22"/>
+    <hyperlink ref="E31" r:id="rId23"/>
+    <hyperlink ref="E32" r:id="rId24"/>
+    <hyperlink ref="E33" r:id="rId25"/>
+    <hyperlink ref="E34" r:id="rId26"/>
+    <hyperlink ref="E35" r:id="rId27"/>
+    <hyperlink ref="E36" r:id="rId28"/>
+    <hyperlink ref="E37" r:id="rId29"/>
+    <hyperlink ref="E38" r:id="rId30"/>
+    <hyperlink ref="E39" r:id="rId31"/>
+    <hyperlink ref="E40" r:id="rId32"/>
+    <hyperlink ref="E41" r:id="rId33"/>
+    <hyperlink ref="E42" r:id="rId34"/>
+    <hyperlink ref="E43" r:id="rId35"/>
+    <hyperlink ref="E44" r:id="rId36"/>
+    <hyperlink ref="E45" r:id="rId37"/>
+    <hyperlink ref="E46" r:id="rId38"/>
+    <hyperlink ref="E47" r:id="rId39"/>
+    <hyperlink ref="E48" r:id="rId40"/>
+    <hyperlink ref="E49" r:id="rId41"/>
+    <hyperlink ref="E50" r:id="rId42"/>
+    <hyperlink ref="E51" r:id="rId43"/>
+    <hyperlink ref="E52" r:id="rId44"/>
+    <hyperlink ref="E53" r:id="rId45"/>
+    <hyperlink ref="E54" r:id="rId46"/>
+    <hyperlink ref="E55" r:id="rId47"/>
+    <hyperlink ref="E56" r:id="rId48"/>
+    <hyperlink ref="E57" r:id="rId49"/>
+    <hyperlink ref="E58" r:id="rId50"/>
+    <hyperlink ref="E59" r:id="rId51"/>
+    <hyperlink ref="E60" r:id="rId52"/>
+    <hyperlink ref="E61" r:id="rId53"/>
+    <hyperlink ref="E62" r:id="rId54"/>
+    <hyperlink ref="E63" r:id="rId55"/>
+    <hyperlink ref="E64" r:id="rId56"/>
+    <hyperlink ref="E65" r:id="rId57"/>
+    <hyperlink ref="E66" r:id="rId58"/>
+    <hyperlink ref="E67" r:id="rId59" display="https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Foamtec/FT_4.JPG"/>
+    <hyperlink ref="E77" r:id="rId60"/>
+    <hyperlink ref="E78" r:id="rId61"/>
+    <hyperlink ref="E79" r:id="rId62"/>
+    <hyperlink ref="E80" r:id="rId63"/>
+    <hyperlink ref="E81" r:id="rId64"/>
+    <hyperlink ref="E82" r:id="rId65"/>
+    <hyperlink ref="E83" r:id="rId66"/>
+    <hyperlink ref="E84" r:id="rId67"/>
+    <hyperlink ref="E85" r:id="rId68"/>
+    <hyperlink ref="E86" r:id="rId69"/>
+    <hyperlink ref="E87" r:id="rId70"/>
+    <hyperlink ref="E88" r:id="rId71"/>
+    <hyperlink ref="E89" r:id="rId72"/>
+    <hyperlink ref="E90" r:id="rId73"/>
+    <hyperlink ref="E91" r:id="rId74"/>
+    <hyperlink ref="E92" r:id="rId75"/>
+    <hyperlink ref="E93" r:id="rId76"/>
+    <hyperlink ref="E94" r:id="rId77"/>
+    <hyperlink ref="E95" r:id="rId78"/>
+    <hyperlink ref="E96" r:id="rId79"/>
+    <hyperlink ref="E97" r:id="rId80"/>
+    <hyperlink ref="E98" r:id="rId81"/>
+    <hyperlink ref="E99" r:id="rId82"/>
+    <hyperlink ref="E100" r:id="rId83"/>
+    <hyperlink ref="E101" r:id="rId84"/>
+    <hyperlink ref="E102" r:id="rId85"/>
+    <hyperlink ref="E103" r:id="rId86"/>
+    <hyperlink ref="E104" r:id="rId87"/>
+    <hyperlink ref="E105" r:id="rId88"/>
+    <hyperlink ref="E106" r:id="rId89"/>
+    <hyperlink ref="E107" r:id="rId90"/>
+    <hyperlink ref="E108" r:id="rId91"/>
+    <hyperlink ref="E109" r:id="rId92"/>
+    <hyperlink ref="E110" r:id="rId93"/>
+    <hyperlink ref="E111" r:id="rId94"/>
+    <hyperlink ref="E112" r:id="rId95"/>
+    <hyperlink ref="E113" r:id="rId96"/>
+    <hyperlink ref="E114" r:id="rId97"/>
+    <hyperlink ref="E115" r:id="rId98"/>
+    <hyperlink ref="E116" r:id="rId99" display="https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Markforged/MF_2.jpg"/>
+    <hyperlink ref="E117" r:id="rId100"/>
+    <hyperlink ref="E118" r:id="rId101"/>
+    <hyperlink ref="E119" r:id="rId102"/>
+    <hyperlink ref="E120" r:id="rId103"/>
+    <hyperlink ref="E121" r:id="rId104"/>
+    <hyperlink ref="E122" r:id="rId105"/>
+    <hyperlink ref="E123" r:id="rId106"/>
+    <hyperlink ref="E124" r:id="rId107"/>
+    <hyperlink ref="E125" r:id="rId108"/>
+    <hyperlink ref="E126" r:id="rId109"/>
+    <hyperlink ref="E127" r:id="rId110"/>
+    <hyperlink ref="E128" r:id="rId111"/>
+    <hyperlink ref="E129" r:id="rId112"/>
+    <hyperlink ref="E130" r:id="rId113"/>
+    <hyperlink ref="E131" r:id="rId114"/>
+    <hyperlink ref="E132" r:id="rId115"/>
+    <hyperlink ref="E133" r:id="rId116"/>
+    <hyperlink ref="E134" r:id="rId117"/>
+    <hyperlink ref="E135" r:id="rId118"/>
+    <hyperlink ref="E136" r:id="rId119"/>
+    <hyperlink ref="E137" r:id="rId120"/>
+    <hyperlink ref="E138" r:id="rId121"/>
+    <hyperlink ref="E139" r:id="rId122"/>
+    <hyperlink ref="E140" r:id="rId123" display="https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Origin/O_2A_1.JPG"/>
+    <hyperlink ref="E141" r:id="rId124"/>
+    <hyperlink ref="E142" r:id="rId125"/>
+    <hyperlink ref="E143" r:id="rId126"/>
+    <hyperlink ref="E144" r:id="rId127"/>
+    <hyperlink ref="E145" r:id="rId128"/>
+    <hyperlink ref="E146" r:id="rId129"/>
+    <hyperlink ref="E147" r:id="rId130"/>
+    <hyperlink ref="E148" r:id="rId131"/>
+    <hyperlink ref="E149" r:id="rId132"/>
+    <hyperlink ref="E150" r:id="rId133"/>
+    <hyperlink ref="E151" r:id="rId134"/>
+    <hyperlink ref="E152" r:id="rId135"/>
+    <hyperlink ref="E153" r:id="rId136"/>
+    <hyperlink ref="E154" r:id="rId137"/>
+    <hyperlink ref="E155" r:id="rId138"/>
+    <hyperlink ref="E156" r:id="rId139"/>
+    <hyperlink ref="E157" r:id="rId140"/>
+    <hyperlink ref="E158" r:id="rId141"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId137"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId142"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/BIDMC/np_swab_results.xlsx
+++ b/BIDMC/np_swab_results.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="686">
   <si>
     <t>Date of test</t>
   </si>
@@ -2038,6 +2038,51 @@
   </si>
   <si>
     <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Miraclean/MR_CLN.jpg</t>
+  </si>
+  <si>
+    <t>Pass (Note-npt as much cellular material as others)</t>
+  </si>
+  <si>
+    <t>HP_Rev8_unpolished</t>
+  </si>
+  <si>
+    <t>HP_Rev8 no vapor polish</t>
+  </si>
+  <si>
+    <t>HP_Rev8</t>
+  </si>
+  <si>
+    <t>HP WS with central strut. Thicker neck</t>
+  </si>
+  <si>
+    <t>HP_Rev9_Unpolished</t>
+  </si>
+  <si>
+    <t>HP Rev9 no vapor polish</t>
+  </si>
+  <si>
+    <t>HP_Rev9</t>
+  </si>
+  <si>
+    <t>HPWS with central strut. Thinner neck</t>
+  </si>
+  <si>
+    <t>C_H_V4</t>
+  </si>
+  <si>
+    <t>Carbon Helix V4</t>
+  </si>
+  <si>
+    <t>C_H_V4S</t>
+  </si>
+  <si>
+    <t>Carbon Helix V4S</t>
+  </si>
+  <si>
+    <t>C_35V3</t>
+  </si>
+  <si>
+    <t>Carbon 35v3. Full topen</t>
   </si>
 </sst>
 </file>
@@ -2159,7 +2204,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2207,6 +2252,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2515,7 +2563,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2526,10 +2574,10 @@
   <dimension ref="A1:AB1026"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B156" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B161" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:AB945"/>
+      <selection pane="bottomRight" sqref="A1:AB947"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -9909,7 +9957,9 @@
       </c>
       <c r="I156" s="8"/>
       <c r="J156" s="8"/>
-      <c r="K156" s="8"/>
+      <c r="K156" s="8" t="s">
+        <v>671</v>
+      </c>
       <c r="L156" s="8"/>
       <c r="M156" s="8"/>
       <c r="N156" s="8"/>
@@ -9953,7 +10003,9 @@
       </c>
       <c r="I157" s="8"/>
       <c r="J157" s="8"/>
-      <c r="K157" s="8"/>
+      <c r="K157" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="L157" s="8"/>
       <c r="M157" s="8"/>
       <c r="N157" s="8"/>
@@ -10018,12 +10070,16 @@
       <c r="AA158" s="6"/>
       <c r="AB158" s="6"/>
     </row>
-    <row r="159" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A159" s="8"/>
-      <c r="B159" s="8"/>
+    <row r="159" spans="1:28" ht="26.25" thickBot="1">
+      <c r="A159" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>673</v>
+      </c>
       <c r="C159" s="8"/>
       <c r="D159" s="8"/>
-      <c r="E159" s="8"/>
+      <c r="E159" s="19"/>
       <c r="F159" s="8"/>
       <c r="G159" s="8"/>
       <c r="H159" s="8"/>
@@ -10048,18 +10104,32 @@
       <c r="AA159" s="6"/>
       <c r="AB159" s="6"/>
     </row>
-    <row r="160" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A160" s="8"/>
-      <c r="B160" s="8"/>
-      <c r="C160" s="8"/>
-      <c r="D160" s="8"/>
+    <row r="160" spans="1:28" ht="64.5" thickBot="1">
+      <c r="A160" s="8" t="s">
+        <v>674</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="C160" s="17">
+        <v>43934</v>
+      </c>
+      <c r="D160" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E160" s="8"/>
       <c r="F160" s="8"/>
       <c r="G160" s="8"/>
-      <c r="H160" s="8"/>
+      <c r="H160" s="8" t="s">
+        <v>124</v>
+      </c>
       <c r="I160" s="8"/>
-      <c r="J160" s="8"/>
-      <c r="K160" s="8"/>
+      <c r="J160" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K160" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="L160" s="8"/>
       <c r="M160" s="8"/>
       <c r="N160" s="8"/>
@@ -10078,9 +10148,13 @@
       <c r="AA160" s="6"/>
       <c r="AB160" s="6"/>
     </row>
-    <row r="161" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A161" s="8"/>
-      <c r="B161" s="8"/>
+    <row r="161" spans="1:28" ht="26.25" thickBot="1">
+      <c r="A161" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>677</v>
+      </c>
       <c r="C161" s="8"/>
       <c r="D161" s="8"/>
       <c r="E161" s="8"/>
@@ -10108,18 +10182,32 @@
       <c r="AA161" s="6"/>
       <c r="AB161" s="6"/>
     </row>
-    <row r="162" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A162" s="8"/>
-      <c r="B162" s="8"/>
-      <c r="C162" s="8"/>
-      <c r="D162" s="8"/>
+    <row r="162" spans="1:28" ht="64.5" thickBot="1">
+      <c r="A162" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="C162" s="17">
+        <v>43934</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E162" s="8"/>
       <c r="F162" s="8"/>
       <c r="G162" s="8"/>
-      <c r="H162" s="8"/>
+      <c r="H162" s="8" t="s">
+        <v>124</v>
+      </c>
       <c r="I162" s="8"/>
-      <c r="J162" s="8"/>
-      <c r="K162" s="8"/>
+      <c r="J162" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K162" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="L162" s="8"/>
       <c r="M162" s="8"/>
       <c r="N162" s="8"/>
@@ -10138,15 +10226,29 @@
       <c r="AA162" s="6"/>
       <c r="AB162" s="6"/>
     </row>
-    <row r="163" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A163" s="8"/>
-      <c r="B163" s="8"/>
-      <c r="C163" s="8"/>
-      <c r="D163" s="8"/>
+    <row r="163" spans="1:28" ht="39" thickBot="1">
+      <c r="A163" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="C163" s="17">
+        <v>43934</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E163" s="8"/>
-      <c r="F163" s="8"/>
-      <c r="G163" s="8"/>
-      <c r="H163" s="8"/>
+      <c r="F163" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="G163" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="H163" s="8" t="s">
+        <v>304</v>
+      </c>
       <c r="I163" s="8"/>
       <c r="J163" s="8"/>
       <c r="K163" s="8"/>
@@ -10168,15 +10270,29 @@
       <c r="AA163" s="6"/>
       <c r="AB163" s="6"/>
     </row>
-    <row r="164" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A164" s="8"/>
-      <c r="B164" s="8"/>
-      <c r="C164" s="8"/>
-      <c r="D164" s="8"/>
+    <row r="164" spans="1:28" ht="39" thickBot="1">
+      <c r="A164" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="C164" s="17">
+        <v>43934</v>
+      </c>
+      <c r="D164" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E164" s="8"/>
-      <c r="F164" s="8"/>
-      <c r="G164" s="8"/>
-      <c r="H164" s="8"/>
+      <c r="F164" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="G164" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="H164" s="8" t="s">
+        <v>304</v>
+      </c>
       <c r="I164" s="8"/>
       <c r="J164" s="8"/>
       <c r="K164" s="8"/>
@@ -10198,15 +10314,29 @@
       <c r="AA164" s="6"/>
       <c r="AB164" s="6"/>
     </row>
-    <row r="165" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A165" s="8"/>
-      <c r="B165" s="8"/>
-      <c r="C165" s="8"/>
-      <c r="D165" s="8"/>
+    <row r="165" spans="1:28" ht="39" thickBot="1">
+      <c r="A165" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="C165" s="17">
+        <v>43934</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E165" s="8"/>
-      <c r="F165" s="8"/>
-      <c r="G165" s="8"/>
-      <c r="H165" s="8"/>
+      <c r="F165" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="G165" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="H165" s="8" t="s">
+        <v>304</v>
+      </c>
       <c r="I165" s="8"/>
       <c r="J165" s="8"/>
       <c r="K165" s="8"/>

--- a/BIDMC/np_swab_results.xlsx
+++ b/BIDMC/np_swab_results.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="690">
   <si>
     <t>Date of test</t>
   </si>
@@ -1545,9 +1545,6 @@
     <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Harvard_army/HA_D10.jpg</t>
   </si>
   <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/EnvisionTec/EV_3_1.JPG</t>
-  </si>
-  <si>
     <t>material seems similar post-autoclave, but is still sharp and somewhat brittle</t>
   </si>
   <si>
@@ -1575,18 +1572,6 @@
     <t>*post-autoclave, this material feels and performs similraly</t>
   </si>
   <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Opt_industries/J_2_2.JPG</t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Opt_industries/J_2_3.JPG</t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Opt_industries/J_2_4.JPG</t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Opt_industries/J_2_5.JPG</t>
-  </si>
-  <si>
     <t>HP_Spring_gray</t>
   </si>
   <si>
@@ -1605,27 +1590,18 @@
     <t>HP gray spiral design with hemisphere tip</t>
   </si>
   <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/HP/HP_Spiral_design.jpg</t>
-  </si>
-  <si>
     <t>HP_spring_polished</t>
   </si>
   <si>
     <t>HP black spring design with cylinder cap</t>
   </si>
   <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/HP/HP_spring_polished.jpg</t>
-  </si>
-  <si>
     <t>HP_spiral_polished</t>
   </si>
   <si>
     <t>HP black spiral design with hemisphere cap</t>
   </si>
   <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/HP_spiral_polished.jpg</t>
-  </si>
-  <si>
     <t>EV_3_1 Autoclaved 2020-03-31</t>
   </si>
   <si>
@@ -1917,36 +1893,12 @@
     <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/SuperBrush/SB_52_1005.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Origin/O_2A_1.JPG </t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Carbon/C_3_1.JPG</t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/HP/HP_Spring_Polished_1.JPG</t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/HP/HP_Spiral_Polished_1.JPG</t>
-  </si>
-  <si>
     <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Markforged/MF_2_Br.jpg</t>
   </si>
   <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Wyss/WIM_001.JPG</t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Wyss/WIM_002.JPG</t>
-  </si>
-  <si>
     <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Origin/O_2A_2_1.jpg</t>
   </si>
   <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Origin/O_2A_2_1.JPG</t>
-  </si>
-  <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/EnvisionTec/EV_2_2.JPG</t>
-  </si>
-  <si>
     <t>EV_2_3</t>
   </si>
   <si>
@@ -1959,9 +1911,6 @@
     <t>HP_WS with hemisphere tip on a dark gray swab</t>
   </si>
   <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/HP/HP_WS_DG.JPG</t>
-  </si>
-  <si>
     <t>Pass - rounded tip makes the swab much more comfortable, the finish seems a little rough and powdery. Acid-vapor-wash treatment seems to resolve this issue</t>
   </si>
   <si>
@@ -1971,9 +1920,6 @@
     <t>Markforged swab with new breakpoint placement</t>
   </si>
   <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/MF_2_Br2.jpg</t>
-  </si>
-  <si>
     <t>medical nylon</t>
   </si>
   <si>
@@ -1986,9 +1932,6 @@
     <t>HP_WS with hemisphere tip on a black swab w/new breakpoint</t>
   </si>
   <si>
-    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/HP/HP_Spring_Polshed_2.jpg</t>
-  </si>
-  <si>
     <t>580 Platform</t>
   </si>
   <si>
@@ -2083,6 +2026,75 @@
   </si>
   <si>
     <t>Carbon 35v3. Full topen</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/OPT_industries/J_2_2.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/OPT_industries/J_2_3.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/OPT_industries/J_2_4.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/OPT_industries/J_2_5.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/HP/HP_Spiral_Design.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/HP/HP_Spring_Polished.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/HP/HP_Spiral_Polished.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/HP/HP_Spring_Polished_1.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/HP/HP_Spiral_Polished_1.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Wyss/WIM_001.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Wyss/WIM_002.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/EnvisionTec/EV_2_2.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/HP/HP_WS_DG.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Markforged/MF_2_Br2.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/HP/HP_Spring_Polished_2.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/HP/HP_Rev8_unpolished.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/HP/HP_Rev8.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/HP/HP_Rev9_Unpolished.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/HP_Rev9.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Carbon/C_H_V4.jpg</t>
+  </si>
+  <si>
+    <t>Did Not Pass-- tip (and edges) are too sharp</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Carbon/C_H_V4S.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Carbon/C_35V3.jpg</t>
   </si>
 </sst>
 </file>
@@ -2252,9 +2264,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2563,7 +2573,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2577,7 +2587,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B161" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:AB947"/>
+      <selection pane="bottomRight" activeCell="E173" sqref="E173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -2634,7 +2644,7 @@
         <v>8</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>9</v>
@@ -3280,7 +3290,7 @@
         <v>20</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -3322,7 +3332,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -3366,7 +3376,7 @@
         <v>20</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -3408,7 +3418,7 @@
         <v>20</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -3456,7 +3466,7 @@
         <v>20</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -3498,7 +3508,7 @@
         <v>20</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -3540,7 +3550,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -3582,7 +3592,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -3668,7 +3678,7 @@
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="10" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -4162,7 +4172,7 @@
         <v>67</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>68</v>
@@ -4271,7 +4281,7 @@
         <v>31</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
@@ -4300,7 +4310,7 @@
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="14" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
@@ -4315,7 +4325,7 @@
         <v>31</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
@@ -4359,7 +4369,7 @@
         <v>31</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
@@ -4388,7 +4398,7 @@
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="15" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
@@ -4403,7 +4413,7 @@
         <v>31</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
@@ -4434,7 +4444,7 @@
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="15" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
@@ -4449,7 +4459,7 @@
         <v>31</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
@@ -4482,7 +4492,7 @@
         <v>20</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
@@ -4530,7 +4540,7 @@
         <v>20</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
@@ -4580,7 +4590,7 @@
         <v>20</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
@@ -5058,7 +5068,7 @@
         <v>20</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>160</v>
@@ -5108,7 +5118,7 @@
         <v>20</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
@@ -5156,7 +5166,7 @@
         <v>20</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
@@ -5344,7 +5354,7 @@
         <v>20</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
@@ -5526,7 +5536,7 @@
         <v>20</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
@@ -5572,7 +5582,7 @@
         <v>20</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
@@ -5618,7 +5628,7 @@
         <v>20</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
@@ -5664,7 +5674,7 @@
         <v>20</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
@@ -6110,7 +6120,7 @@
         <v>20</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="F77" s="8" t="s">
         <v>241</v>
@@ -6158,7 +6168,7 @@
         <v>20</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="F78" s="8" t="s">
         <v>245</v>
@@ -6206,7 +6216,7 @@
         <v>20</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="F79" s="8" t="s">
         <v>248</v>
@@ -6254,7 +6264,7 @@
         <v>20</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="F80" s="8" t="s">
         <v>251</v>
@@ -6302,7 +6312,7 @@
         <v>20</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="F81" s="8" t="s">
         <v>254</v>
@@ -6350,7 +6360,7 @@
         <v>20</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F82" s="8" t="s">
         <v>257</v>
@@ -6398,7 +6408,7 @@
         <v>20</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="F83" s="8" t="s">
         <v>260</v>
@@ -6446,7 +6456,7 @@
         <v>20</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="F84" s="8" t="s">
         <v>262</v>
@@ -6494,7 +6504,7 @@
         <v>20</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="F85" s="8" t="s">
         <v>265</v>
@@ -6542,7 +6552,7 @@
         <v>20</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="F86" s="8" t="s">
         <v>268</v>
@@ -6590,7 +6600,7 @@
         <v>20</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="F87" s="8" t="s">
         <v>271</v>
@@ -6638,7 +6648,7 @@
         <v>20</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="F88" s="8" t="s">
         <v>274</v>
@@ -6730,7 +6740,7 @@
         <v>20</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="F90" s="8" t="s">
         <v>302</v>
@@ -6782,7 +6792,7 @@
         <v>20</v>
       </c>
       <c r="E91" s="15" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="F91" s="8" t="s">
         <v>302</v>
@@ -6834,7 +6844,7 @@
         <v>20</v>
       </c>
       <c r="E92" s="15" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="F92" s="8" t="s">
         <v>302</v>
@@ -6886,7 +6896,7 @@
         <v>20</v>
       </c>
       <c r="E93" s="15" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="F93" s="8" t="s">
         <v>302</v>
@@ -6940,7 +6950,7 @@
         <v>20</v>
       </c>
       <c r="E94" s="15" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="F94" s="8" t="s">
         <v>302</v>
@@ -6992,7 +7002,7 @@
         <v>20</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="F95" s="8" t="s">
         <v>138</v>
@@ -7042,7 +7052,7 @@
         <v>20</v>
       </c>
       <c r="E96" s="15" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="F96" s="8" t="s">
         <v>138</v>
@@ -7092,7 +7102,7 @@
         <v>20</v>
       </c>
       <c r="E97" s="15" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="F97" s="8" t="s">
         <v>138</v>
@@ -7142,7 +7152,7 @@
         <v>20</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="F98" s="8" t="s">
         <v>138</v>
@@ -7196,7 +7206,7 @@
         <v>20</v>
       </c>
       <c r="E99" s="15" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="F99" s="8" t="s">
         <v>138</v>
@@ -7246,7 +7256,7 @@
         <v>20</v>
       </c>
       <c r="E100" s="15" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="F100" s="8" t="s">
         <v>341</v>
@@ -7720,7 +7730,7 @@
         <v>20</v>
       </c>
       <c r="E110" s="15" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="F110" s="8" t="s">
         <v>372</v>
@@ -7741,7 +7751,7 @@
       <c r="L110" s="8"/>
       <c r="M110" s="8"/>
       <c r="N110" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O110" s="8"/>
       <c r="P110" s="6"/>
@@ -7770,7 +7780,7 @@
         <v>20</v>
       </c>
       <c r="E111" s="14" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F111" s="8" t="s">
         <v>372</v>
@@ -7820,7 +7830,7 @@
         <v>20</v>
       </c>
       <c r="E112" s="15" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="F112" s="8" t="s">
         <v>381</v>
@@ -7868,7 +7878,7 @@
         <v>20</v>
       </c>
       <c r="E113" s="15" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="F113" s="8" t="s">
         <v>386</v>
@@ -7916,7 +7926,7 @@
         <v>20</v>
       </c>
       <c r="E114" s="14" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="F114" s="8" t="s">
         <v>386</v>
@@ -7964,7 +7974,7 @@
         <v>20</v>
       </c>
       <c r="E115" s="14" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="F115" s="8" t="s">
         <v>386</v>
@@ -8014,7 +8024,7 @@
         <v>20</v>
       </c>
       <c r="E116" s="15" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="F116" s="8" t="s">
         <v>398</v>
@@ -8064,7 +8074,7 @@
         <v>20</v>
       </c>
       <c r="E117" s="15" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F117" s="8" t="s">
         <v>403</v>
@@ -8112,7 +8122,7 @@
         <v>20</v>
       </c>
       <c r="E118" s="15" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F118" s="8" t="s">
         <v>403</v>
@@ -8160,7 +8170,7 @@
         <v>20</v>
       </c>
       <c r="E119" s="15" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="F119" s="8" t="s">
         <v>408</v>
@@ -8210,7 +8220,7 @@
         <v>20</v>
       </c>
       <c r="E120" s="15" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="F120" s="8" t="s">
         <v>412</v>
@@ -8258,7 +8268,7 @@
         <v>20</v>
       </c>
       <c r="E121" s="15" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="F121" s="8" t="s">
         <v>414</v>
@@ -8306,7 +8316,7 @@
         <v>20</v>
       </c>
       <c r="E122" s="15" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="F122" s="8" t="s">
         <v>415</v>
@@ -8354,7 +8364,7 @@
         <v>20</v>
       </c>
       <c r="E123" s="15" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="F123" s="8" t="s">
         <v>372</v>
@@ -8402,7 +8412,7 @@
         <v>20</v>
       </c>
       <c r="E124" s="15" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="F124" s="8" t="s">
         <v>420</v>
@@ -8450,7 +8460,7 @@
         <v>20</v>
       </c>
       <c r="E125" s="15" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="F125" s="8" t="s">
         <v>368</v>
@@ -8500,7 +8510,7 @@
         <v>20</v>
       </c>
       <c r="E126" s="15" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F126" s="8" t="s">
         <v>368</v>
@@ -8517,11 +8527,11 @@
         <v>31</v>
       </c>
       <c r="L126" s="8" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="M126" s="8"/>
       <c r="N126" s="8" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="O126" s="8"/>
       <c r="P126" s="6"/>
@@ -8552,7 +8562,7 @@
         <v>20</v>
       </c>
       <c r="E127" s="15" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F127" s="8" t="s">
         <v>368</v>
@@ -8569,7 +8579,7 @@
         <v>31</v>
       </c>
       <c r="L127" s="8" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="M127" s="8"/>
       <c r="N127" s="8"/>
@@ -8602,7 +8612,7 @@
         <v>20</v>
       </c>
       <c r="E128" s="15" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="F128" s="8" t="s">
         <v>438</v>
@@ -8650,7 +8660,7 @@
         <v>20</v>
       </c>
       <c r="E129" s="15" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="F129" s="8" t="s">
         <v>443</v>
@@ -8698,7 +8708,7 @@
         <v>20</v>
       </c>
       <c r="E130" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F130" s="8" t="s">
         <v>341</v>
@@ -8715,7 +8725,7 @@
       <c r="L130" s="8"/>
       <c r="M130" s="8"/>
       <c r="N130" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="O130" s="8"/>
       <c r="P130" s="6"/>
@@ -8746,7 +8756,7 @@
         <v>20</v>
       </c>
       <c r="E131" s="15" t="s">
-        <v>516</v>
+        <v>667</v>
       </c>
       <c r="F131" s="8" t="s">
         <v>403</v>
@@ -8794,7 +8804,7 @@
         <v>20</v>
       </c>
       <c r="E132" s="15" t="s">
-        <v>517</v>
+        <v>668</v>
       </c>
       <c r="F132" s="8" t="s">
         <v>403</v>
@@ -8842,7 +8852,7 @@
         <v>20</v>
       </c>
       <c r="E133" s="15" t="s">
-        <v>518</v>
+        <v>669</v>
       </c>
       <c r="F133" s="8" t="s">
         <v>403</v>
@@ -8890,7 +8900,7 @@
         <v>20</v>
       </c>
       <c r="E134" s="15" t="s">
-        <v>519</v>
+        <v>670</v>
       </c>
       <c r="F134" s="8" t="s">
         <v>403</v>
@@ -8926,10 +8936,10 @@
     </row>
     <row r="135" spans="1:28" ht="64.5" thickBot="1">
       <c r="A135" s="8" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C135" s="17">
         <v>43922</v>
@@ -8938,7 +8948,7 @@
         <v>20</v>
       </c>
       <c r="E135" s="15" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="F135" s="8" t="s">
         <v>138</v>
@@ -8951,11 +8961,11 @@
       </c>
       <c r="I135" s="8"/>
       <c r="J135" s="8" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="K135" s="8"/>
       <c r="L135" s="8" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="M135" s="8"/>
       <c r="N135" s="8"/>
@@ -8976,10 +8986,10 @@
     </row>
     <row r="136" spans="1:28" ht="64.5" thickBot="1">
       <c r="A136" s="8" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C136" s="17">
         <v>43922</v>
@@ -8988,7 +8998,7 @@
         <v>20</v>
       </c>
       <c r="E136" s="15" t="s">
-        <v>526</v>
+        <v>671</v>
       </c>
       <c r="F136" s="8" t="s">
         <v>138</v>
@@ -9001,11 +9011,11 @@
       </c>
       <c r="I136" s="8"/>
       <c r="J136" s="8" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="K136" s="8"/>
       <c r="L136" s="8" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="M136" s="8"/>
       <c r="N136" s="8"/>
@@ -9026,10 +9036,10 @@
     </row>
     <row r="137" spans="1:28" ht="64.5" thickBot="1">
       <c r="A137" s="8" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="C137" s="17">
         <v>43922</v>
@@ -9038,7 +9048,7 @@
         <v>20</v>
       </c>
       <c r="E137" s="15" t="s">
-        <v>529</v>
+        <v>672</v>
       </c>
       <c r="F137" s="8" t="s">
         <v>138</v>
@@ -9057,7 +9067,7 @@
         <v>31</v>
       </c>
       <c r="L137" s="8" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="M137" s="8"/>
       <c r="N137" s="8"/>
@@ -9078,10 +9088,10 @@
     </row>
     <row r="138" spans="1:28" ht="64.5" thickBot="1">
       <c r="A138" s="8" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="C138" s="17">
         <v>43922</v>
@@ -9090,7 +9100,7 @@
         <v>20</v>
       </c>
       <c r="E138" s="15" t="s">
-        <v>532</v>
+        <v>673</v>
       </c>
       <c r="F138" s="8" t="s">
         <v>138</v>
@@ -9109,7 +9119,7 @@
         <v>31</v>
       </c>
       <c r="L138" s="8" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="M138" s="8"/>
       <c r="N138" s="8"/>
@@ -9130,10 +9140,10 @@
     </row>
     <row r="139" spans="1:28" ht="51.75" thickBot="1">
       <c r="A139" s="8" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="C139" s="17">
         <v>43922</v>
@@ -9142,13 +9152,13 @@
         <v>20</v>
       </c>
       <c r="E139" s="14" t="s">
-        <v>506</v>
+        <v>607</v>
       </c>
       <c r="F139" s="8" t="s">
         <v>372</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="H139" s="8"/>
       <c r="I139" s="8"/>
@@ -9176,10 +9186,10 @@
     </row>
     <row r="140" spans="1:28" ht="48" thickBot="1">
       <c r="A140" s="8" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="C140" s="17">
         <v>43922</v>
@@ -9188,13 +9198,13 @@
         <v>20</v>
       </c>
       <c r="E140" s="14" t="s">
-        <v>630</v>
+        <v>510</v>
       </c>
       <c r="F140" s="8" t="s">
         <v>368</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="H140" s="8"/>
       <c r="I140" s="8"/>
@@ -9222,10 +9232,10 @@
     </row>
     <row r="141" spans="1:28" ht="39" thickBot="1">
       <c r="A141" s="8" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="C141" s="17">
         <v>43922</v>
@@ -9234,7 +9244,7 @@
         <v>20</v>
       </c>
       <c r="E141" s="14" t="s">
-        <v>631</v>
+        <v>513</v>
       </c>
       <c r="F141" s="8" t="s">
         <v>341</v>
@@ -9268,10 +9278,10 @@
     </row>
     <row r="142" spans="1:28" ht="39" thickBot="1">
       <c r="A142" s="8" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="C142" s="17">
         <v>43922</v>
@@ -9280,7 +9290,7 @@
         <v>20</v>
       </c>
       <c r="E142" s="14" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="F142" s="8" t="s">
         <v>138</v>
@@ -9293,7 +9303,7 @@
       <c r="J142" s="8"/>
       <c r="K142" s="8"/>
       <c r="L142" s="8" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="M142" s="8" t="s">
         <v>389</v>
@@ -9316,10 +9326,10 @@
     </row>
     <row r="143" spans="1:28" ht="64.5" thickBot="1">
       <c r="A143" s="8" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="C143" s="17">
         <v>43923</v>
@@ -9328,7 +9338,7 @@
         <v>20</v>
       </c>
       <c r="E143" s="14" t="s">
-        <v>632</v>
+        <v>674</v>
       </c>
       <c r="F143" s="8" t="s">
         <v>138</v>
@@ -9360,10 +9370,10 @@
     </row>
     <row r="144" spans="1:28" ht="64.5" thickBot="1">
       <c r="A144" s="8" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="C144" s="17">
         <v>43923</v>
@@ -9372,7 +9382,7 @@
         <v>20</v>
       </c>
       <c r="E144" s="14" t="s">
-        <v>633</v>
+        <v>675</v>
       </c>
       <c r="F144" s="8" t="s">
         <v>138</v>
@@ -9404,10 +9414,10 @@
     </row>
     <row r="145" spans="1:28" ht="48" thickBot="1">
       <c r="A145" s="8" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="C145" s="17">
         <v>43923</v>
@@ -9416,10 +9426,10 @@
         <v>20</v>
       </c>
       <c r="E145" s="15" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="F145" s="8" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="G145" s="8" t="s">
         <v>399</v>
@@ -9450,10 +9460,10 @@
     </row>
     <row r="146" spans="1:28" ht="141" thickBot="1">
       <c r="A146" s="8" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="C146" s="17">
         <v>43923</v>
@@ -9462,21 +9472,21 @@
         <v>20</v>
       </c>
       <c r="E146" s="14" t="s">
-        <v>635</v>
+        <v>676</v>
       </c>
       <c r="F146" s="8" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="G146" s="8"/>
       <c r="H146" s="8" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="I146" s="8"/>
       <c r="J146" s="8" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="K146" s="8" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="L146" s="8"/>
       <c r="M146" s="8"/>
@@ -9498,10 +9508,10 @@
     </row>
     <row r="147" spans="1:28" ht="115.5" thickBot="1">
       <c r="A147" s="8" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="C147" s="17">
         <v>43923</v>
@@ -9510,21 +9520,21 @@
         <v>20</v>
       </c>
       <c r="E147" s="15" t="s">
-        <v>636</v>
+        <v>677</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="G147" s="8"/>
       <c r="H147" s="8" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="I147" s="8"/>
       <c r="J147" s="8" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="K147" s="8" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="L147" s="8"/>
       <c r="M147" s="8"/>
@@ -9546,10 +9556,10 @@
     </row>
     <row r="148" spans="1:28" ht="48" thickBot="1">
       <c r="A148" s="8" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="C148" s="17">
         <v>43924</v>
@@ -9558,7 +9568,7 @@
         <v>20</v>
       </c>
       <c r="E148" s="15" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="F148" s="8" t="s">
         <v>368</v>
@@ -9592,10 +9602,10 @@
     </row>
     <row r="149" spans="1:28" ht="48" thickBot="1">
       <c r="A149" s="8" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="C149" s="17">
         <v>43924</v>
@@ -9604,7 +9614,7 @@
         <v>20</v>
       </c>
       <c r="E149" s="14" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
       <c r="F149" s="8" t="s">
         <v>368</v>
@@ -9640,10 +9650,10 @@
     </row>
     <row r="150" spans="1:28" ht="51.75" thickBot="1">
       <c r="A150" s="8" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="C150" s="17">
         <v>43924</v>
@@ -9652,20 +9662,20 @@
         <v>20</v>
       </c>
       <c r="E150" s="14" t="s">
-        <v>639</v>
+        <v>678</v>
       </c>
       <c r="F150" s="8" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="G150" s="8" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="H150" s="8" t="s">
         <v>282</v>
       </c>
       <c r="I150" s="8"/>
       <c r="J150" s="8" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="K150" s="8" t="s">
         <v>31</v>
@@ -9690,10 +9700,10 @@
     </row>
     <row r="151" spans="1:28" ht="51.75" thickBot="1">
       <c r="A151" s="8" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="C151" s="17">
         <v>43926</v>
@@ -9702,13 +9712,13 @@
         <v>20</v>
       </c>
       <c r="E151" s="14" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="F151" s="8" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="G151" s="8" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="H151" s="8" t="s">
         <v>282</v>
@@ -9736,10 +9746,10 @@
     </row>
     <row r="152" spans="1:28" ht="90" thickBot="1">
       <c r="A152" s="8" t="s">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="C152" s="17">
         <v>43927</v>
@@ -9748,7 +9758,7 @@
         <v>20</v>
       </c>
       <c r="E152" s="14" t="s">
-        <v>644</v>
+        <v>679</v>
       </c>
       <c r="F152" s="8" t="s">
         <v>138</v>
@@ -9761,7 +9771,7 @@
       </c>
       <c r="I152" s="8"/>
       <c r="J152" s="8" t="s">
-        <v>645</v>
+        <v>628</v>
       </c>
       <c r="K152" s="8" t="s">
         <v>378</v>
@@ -9786,10 +9796,10 @@
     </row>
     <row r="153" spans="1:28" ht="141" thickBot="1">
       <c r="A153" s="8" t="s">
-        <v>646</v>
+        <v>629</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>647</v>
+        <v>630</v>
       </c>
       <c r="C153" s="17">
         <v>43927</v>
@@ -9798,10 +9808,10 @@
         <v>20</v>
       </c>
       <c r="E153" s="14" t="s">
-        <v>648</v>
+        <v>680</v>
       </c>
       <c r="F153" s="8" t="s">
-        <v>649</v>
+        <v>631</v>
       </c>
       <c r="G153" s="6"/>
       <c r="H153" s="8" t="s">
@@ -9809,7 +9819,7 @@
       </c>
       <c r="I153" s="8"/>
       <c r="J153" s="8" t="s">
-        <v>650</v>
+        <v>632</v>
       </c>
       <c r="K153" s="8"/>
       <c r="L153" s="8"/>
@@ -9832,10 +9842,10 @@
     </row>
     <row r="154" spans="1:28" ht="77.25" thickBot="1">
       <c r="A154" s="8" t="s">
-        <v>651</v>
+        <v>633</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>652</v>
+        <v>634</v>
       </c>
       <c r="C154" s="17">
         <v>43928</v>
@@ -9844,13 +9854,13 @@
         <v>20</v>
       </c>
       <c r="E154" s="14" t="s">
-        <v>653</v>
+        <v>681</v>
       </c>
       <c r="F154" s="8" t="s">
         <v>138</v>
       </c>
       <c r="G154" s="8" t="s">
-        <v>654</v>
+        <v>635</v>
       </c>
       <c r="H154" s="8" t="s">
         <v>124</v>
@@ -9882,10 +9892,10 @@
     </row>
     <row r="155" spans="1:28" ht="64.5" thickBot="1">
       <c r="A155" s="8" t="s">
-        <v>655</v>
+        <v>636</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>656</v>
+        <v>637</v>
       </c>
       <c r="C155" s="17">
         <v>43929</v>
@@ -9894,10 +9904,10 @@
         <v>20</v>
       </c>
       <c r="E155" s="14" t="s">
-        <v>657</v>
+        <v>638</v>
       </c>
       <c r="F155" s="8" t="s">
-        <v>658</v>
+        <v>639</v>
       </c>
       <c r="G155" s="8" t="s">
         <v>324</v>
@@ -9907,10 +9917,10 @@
       </c>
       <c r="I155" s="8"/>
       <c r="J155" s="8" t="s">
-        <v>659</v>
+        <v>640</v>
       </c>
       <c r="K155" s="8" t="s">
-        <v>659</v>
+        <v>640</v>
       </c>
       <c r="L155" s="8" t="s">
         <v>35</v>
@@ -9934,10 +9944,10 @@
     </row>
     <row r="156" spans="1:28" ht="39" thickBot="1">
       <c r="A156" s="8" t="s">
-        <v>660</v>
+        <v>641</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>661</v>
+        <v>642</v>
       </c>
       <c r="C156" s="17">
         <v>43929</v>
@@ -9946,19 +9956,19 @@
         <v>20</v>
       </c>
       <c r="E156" s="14" t="s">
-        <v>662</v>
+        <v>643</v>
       </c>
       <c r="F156" s="8" t="s">
-        <v>663</v>
+        <v>644</v>
       </c>
       <c r="G156" s="8"/>
       <c r="H156" s="18" t="s">
-        <v>664</v>
+        <v>645</v>
       </c>
       <c r="I156" s="8"/>
       <c r="J156" s="8"/>
       <c r="K156" s="8" t="s">
-        <v>671</v>
+        <v>652</v>
       </c>
       <c r="L156" s="8"/>
       <c r="M156" s="8"/>
@@ -9980,10 +9990,10 @@
     </row>
     <row r="157" spans="1:28" ht="48" thickBot="1">
       <c r="A157" s="8" t="s">
-        <v>665</v>
+        <v>646</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>661</v>
+        <v>642</v>
       </c>
       <c r="C157" s="17">
         <v>43929</v>
@@ -9992,14 +10002,14 @@
         <v>20</v>
       </c>
       <c r="E157" s="14" t="s">
-        <v>666</v>
+        <v>647</v>
       </c>
       <c r="F157" s="8" t="s">
-        <v>667</v>
+        <v>648</v>
       </c>
       <c r="G157" s="8"/>
       <c r="H157" s="18" t="s">
-        <v>664</v>
+        <v>645</v>
       </c>
       <c r="I157" s="8"/>
       <c r="J157" s="8"/>
@@ -10026,10 +10036,10 @@
     </row>
     <row r="158" spans="1:28" ht="51.75" thickBot="1">
       <c r="A158" s="8" t="s">
-        <v>668</v>
+        <v>649</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>669</v>
+        <v>650</v>
       </c>
       <c r="C158" s="17">
         <v>43929</v>
@@ -10038,7 +10048,7 @@
         <v>20</v>
       </c>
       <c r="E158" s="14" t="s">
-        <v>670</v>
+        <v>651</v>
       </c>
       <c r="F158" s="8" t="s">
         <v>368</v>
@@ -10072,14 +10082,16 @@
     </row>
     <row r="159" spans="1:28" ht="26.25" thickBot="1">
       <c r="A159" s="8" t="s">
-        <v>672</v>
+        <v>653</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>673</v>
+        <v>654</v>
       </c>
       <c r="C159" s="8"/>
       <c r="D159" s="8"/>
-      <c r="E159" s="19"/>
+      <c r="E159" s="19" t="s">
+        <v>682</v>
+      </c>
       <c r="F159" s="8"/>
       <c r="G159" s="8"/>
       <c r="H159" s="8"/>
@@ -10106,10 +10118,10 @@
     </row>
     <row r="160" spans="1:28" ht="64.5" thickBot="1">
       <c r="A160" s="8" t="s">
-        <v>674</v>
+        <v>655</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>675</v>
+        <v>656</v>
       </c>
       <c r="C160" s="17">
         <v>43934</v>
@@ -10117,7 +10129,9 @@
       <c r="D160" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E160" s="8"/>
+      <c r="E160" s="14" t="s">
+        <v>683</v>
+      </c>
       <c r="F160" s="8"/>
       <c r="G160" s="8"/>
       <c r="H160" s="8" t="s">
@@ -10150,14 +10164,16 @@
     </row>
     <row r="161" spans="1:28" ht="26.25" thickBot="1">
       <c r="A161" s="8" t="s">
-        <v>676</v>
+        <v>657</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>677</v>
+        <v>658</v>
       </c>
       <c r="C161" s="8"/>
       <c r="D161" s="8"/>
-      <c r="E161" s="8"/>
+      <c r="E161" s="19" t="s">
+        <v>684</v>
+      </c>
       <c r="F161" s="8"/>
       <c r="G161" s="8"/>
       <c r="H161" s="8"/>
@@ -10184,10 +10200,10 @@
     </row>
     <row r="162" spans="1:28" ht="64.5" thickBot="1">
       <c r="A162" s="8" t="s">
-        <v>678</v>
+        <v>659</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>679</v>
+        <v>660</v>
       </c>
       <c r="C162" s="17">
         <v>43934</v>
@@ -10195,7 +10211,9 @@
       <c r="D162" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E162" s="8"/>
+      <c r="E162" s="14" t="s">
+        <v>685</v>
+      </c>
       <c r="F162" s="8"/>
       <c r="G162" s="8"/>
       <c r="H162" s="8" t="s">
@@ -10226,12 +10244,12 @@
       <c r="AA162" s="6"/>
       <c r="AB162" s="6"/>
     </row>
-    <row r="163" spans="1:28" ht="39" thickBot="1">
+    <row r="163" spans="1:28" ht="48" thickBot="1">
       <c r="A163" s="8" t="s">
-        <v>680</v>
+        <v>661</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>681</v>
+        <v>662</v>
       </c>
       <c r="C163" s="17">
         <v>43934</v>
@@ -10239,7 +10257,9 @@
       <c r="D163" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E163" s="8"/>
+      <c r="E163" s="14" t="s">
+        <v>686</v>
+      </c>
       <c r="F163" s="8" t="s">
         <v>341</v>
       </c>
@@ -10250,7 +10270,9 @@
         <v>304</v>
       </c>
       <c r="I163" s="8"/>
-      <c r="J163" s="8"/>
+      <c r="J163" s="8" t="s">
+        <v>687</v>
+      </c>
       <c r="K163" s="8"/>
       <c r="L163" s="8"/>
       <c r="M163" s="8"/>
@@ -10270,12 +10292,12 @@
       <c r="AA163" s="6"/>
       <c r="AB163" s="6"/>
     </row>
-    <row r="164" spans="1:28" ht="39" thickBot="1">
+    <row r="164" spans="1:28" ht="48" thickBot="1">
       <c r="A164" s="8" t="s">
-        <v>682</v>
+        <v>663</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>683</v>
+        <v>664</v>
       </c>
       <c r="C164" s="17">
         <v>43934</v>
@@ -10283,7 +10305,9 @@
       <c r="D164" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E164" s="8"/>
+      <c r="E164" s="14" t="s">
+        <v>688</v>
+      </c>
       <c r="F164" s="8" t="s">
         <v>341</v>
       </c>
@@ -10294,7 +10318,9 @@
         <v>304</v>
       </c>
       <c r="I164" s="8"/>
-      <c r="J164" s="8"/>
+      <c r="J164" s="8" t="s">
+        <v>687</v>
+      </c>
       <c r="K164" s="8"/>
       <c r="L164" s="8"/>
       <c r="M164" s="8"/>
@@ -10314,12 +10340,12 @@
       <c r="AA164" s="6"/>
       <c r="AB164" s="6"/>
     </row>
-    <row r="165" spans="1:28" ht="39" thickBot="1">
+    <row r="165" spans="1:28" ht="48" thickBot="1">
       <c r="A165" s="8" t="s">
-        <v>684</v>
+        <v>665</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>685</v>
+        <v>666</v>
       </c>
       <c r="C165" s="17">
         <v>43934</v>
@@ -10327,7 +10353,9 @@
       <c r="D165" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E165" s="8"/>
+      <c r="E165" s="14" t="s">
+        <v>689</v>
+      </c>
       <c r="F165" s="8" t="s">
         <v>341</v>
       </c>
@@ -10338,7 +10366,9 @@
         <v>304</v>
       </c>
       <c r="I165" s="8"/>
-      <c r="J165" s="8"/>
+      <c r="J165" s="8" t="s">
+        <v>687</v>
+      </c>
       <c r="K165" s="8"/>
       <c r="L165" s="8"/>
       <c r="M165" s="8"/>
@@ -36312,7 +36342,7 @@
     <hyperlink ref="E137" r:id="rId120"/>
     <hyperlink ref="E138" r:id="rId121"/>
     <hyperlink ref="E139" r:id="rId122"/>
-    <hyperlink ref="E140" r:id="rId123" display="https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Origin/O_2A_1.JPG"/>
+    <hyperlink ref="E140" r:id="rId123"/>
     <hyperlink ref="E141" r:id="rId124"/>
     <hyperlink ref="E142" r:id="rId125"/>
     <hyperlink ref="E143" r:id="rId126"/>
@@ -36331,9 +36361,16 @@
     <hyperlink ref="E156" r:id="rId139"/>
     <hyperlink ref="E157" r:id="rId140"/>
     <hyperlink ref="E158" r:id="rId141"/>
+    <hyperlink ref="E159" r:id="rId142"/>
+    <hyperlink ref="E160" r:id="rId143"/>
+    <hyperlink ref="E161" r:id="rId144"/>
+    <hyperlink ref="E162" r:id="rId145"/>
+    <hyperlink ref="E163" r:id="rId146"/>
+    <hyperlink ref="E164" r:id="rId147"/>
+    <hyperlink ref="E165" r:id="rId148"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId142"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId149"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/BIDMC/np_swab_results.xlsx
+++ b/BIDMC/np_swab_results.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="720">
   <si>
     <t>Date of test</t>
   </si>
@@ -821,9 +821,6 @@
     <t>Nylon FIber/Crystal Clear</t>
   </si>
   <si>
-    <t>3M_7 Nylong fiber/ crystal clear textured head on a nylon swab</t>
-  </si>
-  <si>
     <t>W_2_10</t>
   </si>
   <si>
@@ -2095,6 +2092,99 @@
   </si>
   <si>
     <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Carbon/C_35V3.jpg</t>
+  </si>
+  <si>
+    <t>3M_7 Nylon fiber/ crystal clear textured head on a nylon swab</t>
+  </si>
+  <si>
+    <t>3DPT_06_pla</t>
+  </si>
+  <si>
+    <t>white pla swab with grooved tip</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/3DPrintingtech/3DPT_06_PLA.jpg</t>
+  </si>
+  <si>
+    <t>pla</t>
+  </si>
+  <si>
+    <t>Josh Stover. &lt;josh@3dprintingtech.com&gt;</t>
+  </si>
+  <si>
+    <t>fail-sharp tip. Can catch on anatomy when pulling out</t>
+  </si>
+  <si>
+    <t>3DPT_02_pla</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/3DPrintingtech/3DPT_02_PLA.jpg</t>
+  </si>
+  <si>
+    <t>3DPT_04_pla</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/3DPrintingtech/3DPT_04_PLA.jpg</t>
+  </si>
+  <si>
+    <t>3DPT_01_pla</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/3DPrintingtech/3DPT_01_PLA.jpg</t>
+  </si>
+  <si>
+    <t>3DPT_03_pla</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/3DPrintingtech/3DPT_03_PLA.jpg</t>
+  </si>
+  <si>
+    <t>3DPT_01_PA12</t>
+  </si>
+  <si>
+    <t>white PA12 swab with honeycomb tip</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/3DPrintingtech/3DPT_01_PA12.jpg</t>
+  </si>
+  <si>
+    <t>pa12</t>
+  </si>
+  <si>
+    <t>fail-neck is too flexible. Material is chalky and leaves residue upon handling. Tip is a little sharp, but not too bad</t>
+  </si>
+  <si>
+    <t>3DPT_02_PA12</t>
+  </si>
+  <si>
+    <t>white PA12 swab with tight honeycomb tip</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/3DPrintingtech/3DPT_02_PA12.jpg</t>
+  </si>
+  <si>
+    <t>fail-neck is too flexible. Material is chalky and leaves residue upon handling. Tip is too sharp</t>
+  </si>
+  <si>
+    <t>3DPT_03_PA12</t>
+  </si>
+  <si>
+    <t>white PA12 swab with course honeycomb tip</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/3DPrintingtech/3DPT_03_PA12.jpg</t>
+  </si>
+  <si>
+    <t>fail-neck is too flexible. Material is is chalky and leaves residue upon handling. Tip is too sharp</t>
+  </si>
+  <si>
+    <t>3DPT_04_PA12</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/3DPrintingtech/3DPT_04_PA12.jpg</t>
+  </si>
+  <si>
+    <t>fail- neck is too flexible. Matieral is chalkiy and leaves residue upon handling. Tip is the least sharp</t>
   </si>
 </sst>
 </file>
@@ -2573,7 +2663,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2584,10 +2674,10 @@
   <dimension ref="A1:AB1026"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B161" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B174" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E173" sqref="E173"/>
+      <selection pane="bottomRight" activeCell="F178" sqref="F178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -2635,7 +2725,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>7</v>
@@ -2644,7 +2734,7 @@
         <v>8</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>9</v>
@@ -2726,7 +2816,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>21</v>
@@ -2776,7 +2866,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>21</v>
@@ -2826,7 +2916,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
@@ -2876,7 +2966,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6" t="s">
@@ -3152,7 +3242,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -3198,7 +3288,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -3244,7 +3334,7 @@
         <v>20</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -3290,7 +3380,7 @@
         <v>20</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -3332,7 +3422,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -3376,7 +3466,7 @@
         <v>20</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -3418,7 +3508,7 @@
         <v>20</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -3466,7 +3556,7 @@
         <v>20</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -3508,7 +3598,7 @@
         <v>20</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -3550,7 +3640,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -3592,7 +3682,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -3634,7 +3724,7 @@
         <v>20</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -3678,7 +3768,7 @@
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="10" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -3718,7 +3808,7 @@
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="14" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -3802,7 +3892,7 @@
         <v>20</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>48</v>
@@ -3850,7 +3940,7 @@
         <v>20</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>51</v>
@@ -3896,7 +3986,7 @@
         <v>20</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>55</v>
@@ -3942,7 +4032,7 @@
         <v>20</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>58</v>
@@ -3988,7 +4078,7 @@
         <v>20</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>60</v>
@@ -4034,7 +4124,7 @@
         <v>20</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>62</v>
@@ -4080,7 +4170,7 @@
         <v>20</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>64</v>
@@ -4126,7 +4216,7 @@
         <v>20</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>51</v>
@@ -4172,7 +4262,7 @@
         <v>67</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>68</v>
@@ -4222,7 +4312,7 @@
         <v>20</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
@@ -4266,7 +4356,7 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
@@ -4281,7 +4371,7 @@
         <v>31</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
@@ -4310,7 +4400,7 @@
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="14" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
@@ -4325,7 +4415,7 @@
         <v>31</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
@@ -4354,7 +4444,7 @@
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="14" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
@@ -4369,7 +4459,7 @@
         <v>31</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
@@ -4398,7 +4488,7 @@
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="15" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
@@ -4413,7 +4503,7 @@
         <v>31</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
@@ -4444,7 +4534,7 @@
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="15" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
@@ -4459,7 +4549,7 @@
         <v>31</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
@@ -4492,7 +4582,7 @@
         <v>20</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
@@ -4540,7 +4630,7 @@
         <v>20</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
@@ -4559,7 +4649,7 @@
       </c>
       <c r="M43" s="8"/>
       <c r="N43" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O43" s="8"/>
       <c r="P43" s="6"/>
@@ -4590,7 +4680,7 @@
         <v>20</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
@@ -4638,7 +4728,7 @@
         <v>20</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
@@ -4684,7 +4774,7 @@
         <v>20</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>138</v>
@@ -4732,7 +4822,7 @@
         <v>20</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>138</v>
@@ -4743,7 +4833,7 @@
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K47" s="8" t="s">
         <v>31</v>
@@ -4780,7 +4870,7 @@
         <v>20</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>138</v>
@@ -4791,7 +4881,7 @@
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K48" s="8" t="s">
         <v>31</v>
@@ -4830,7 +4920,7 @@
         <v>20</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>138</v>
@@ -4841,7 +4931,7 @@
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K49" s="8" t="s">
         <v>31</v>
@@ -4878,7 +4968,7 @@
         <v>20</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>138</v>
@@ -4889,7 +4979,7 @@
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K50" s="8" t="s">
         <v>31</v>
@@ -4926,7 +5016,7 @@
         <v>20</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>138</v>
@@ -4974,7 +5064,7 @@
         <v>20</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>138</v>
@@ -5022,7 +5112,7 @@
         <v>20</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>138</v>
@@ -5068,7 +5158,7 @@
         <v>20</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>160</v>
@@ -5085,7 +5175,7 @@
         <v>31</v>
       </c>
       <c r="L54" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M54" s="8"/>
       <c r="N54" s="8"/>
@@ -5118,7 +5208,7 @@
         <v>20</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
@@ -5166,7 +5256,7 @@
         <v>20</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
@@ -5212,7 +5302,7 @@
         <v>20</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
@@ -5260,7 +5350,7 @@
         <v>20</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
@@ -5308,7 +5398,7 @@
         <v>20</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
@@ -5354,7 +5444,7 @@
         <v>20</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
@@ -5400,7 +5490,7 @@
         <v>20</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
@@ -5409,7 +5499,7 @@
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K61" s="8" t="s">
         <v>31</v>
@@ -5446,7 +5536,7 @@
         <v>20</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
@@ -5492,7 +5582,7 @@
         <v>20</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
@@ -5536,7 +5626,7 @@
         <v>20</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
@@ -5582,7 +5672,7 @@
         <v>20</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
@@ -5628,7 +5718,7 @@
         <v>20</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
@@ -5674,7 +5764,7 @@
         <v>20</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
@@ -5725,13 +5815,13 @@
       </c>
       <c r="G68" s="8"/>
       <c r="H68" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M68" s="8"/>
       <c r="N68" s="8"/>
@@ -5771,13 +5861,13 @@
         <v>204</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M69" s="8"/>
       <c r="N69" s="8"/>
@@ -5817,13 +5907,13 @@
         <v>207</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M70" s="8"/>
       <c r="N70" s="8"/>
@@ -5863,13 +5953,13 @@
         <v>209</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M71" s="8"/>
       <c r="N71" s="8"/>
@@ -5913,7 +6003,7 @@
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M72" s="8"/>
       <c r="N72" s="8"/>
@@ -5957,7 +6047,7 @@
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M73" s="8"/>
       <c r="N73" s="8"/>
@@ -6001,7 +6091,7 @@
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M74" s="8"/>
       <c r="N74" s="8"/>
@@ -6045,7 +6135,7 @@
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M75" s="8"/>
       <c r="N75" s="8"/>
@@ -6120,7 +6210,7 @@
         <v>20</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F77" s="8" t="s">
         <v>241</v>
@@ -6131,7 +6221,7 @@
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K77" s="8" t="s">
         <v>31</v>
@@ -6168,7 +6258,7 @@
         <v>20</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F78" s="8" t="s">
         <v>245</v>
@@ -6179,7 +6269,7 @@
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K78" s="8" t="s">
         <v>31</v>
@@ -6216,7 +6306,7 @@
         <v>20</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F79" s="8" t="s">
         <v>248</v>
@@ -6227,7 +6317,7 @@
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K79" s="8" t="s">
         <v>31</v>
@@ -6264,7 +6354,7 @@
         <v>20</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F80" s="8" t="s">
         <v>251</v>
@@ -6275,10 +6365,10 @@
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="K80" s="8" t="s">
         <v>286</v>
-      </c>
-      <c r="K80" s="8" t="s">
-        <v>287</v>
       </c>
       <c r="L80" s="8"/>
       <c r="M80" s="8"/>
@@ -6312,7 +6402,7 @@
         <v>20</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F81" s="8" t="s">
         <v>254</v>
@@ -6323,7 +6413,7 @@
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K81" s="8" t="s">
         <v>31</v>
@@ -6360,7 +6450,7 @@
         <v>20</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F82" s="8" t="s">
         <v>257</v>
@@ -6371,10 +6461,10 @@
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L82" s="8"/>
       <c r="M82" s="8"/>
@@ -6408,7 +6498,7 @@
         <v>20</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F83" s="8" t="s">
         <v>260</v>
@@ -6419,7 +6509,7 @@
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K83" s="8" t="s">
         <v>31</v>
@@ -6456,7 +6546,7 @@
         <v>20</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F84" s="8" t="s">
         <v>262</v>
@@ -6467,7 +6557,7 @@
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K84" s="8" t="s">
         <v>31</v>
@@ -6504,10 +6594,10 @@
         <v>20</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>265</v>
+        <v>689</v>
       </c>
       <c r="G85" s="8"/>
       <c r="H85" s="8" t="s">
@@ -6515,7 +6605,7 @@
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K85" s="8" t="s">
         <v>31</v>
@@ -6540,22 +6630,22 @@
     </row>
     <row r="86" spans="1:28" ht="90" thickBot="1">
       <c r="A86" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>259</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G86" s="8"/>
       <c r="H86" s="8" t="s">
@@ -6563,7 +6653,7 @@
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K86" s="8" t="s">
         <v>31</v>
@@ -6588,10 +6678,10 @@
     </row>
     <row r="87" spans="1:28" ht="51.75" thickBot="1">
       <c r="A87" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B87" s="8" t="s">
         <v>269</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>270</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>222</v>
@@ -6600,10 +6690,10 @@
         <v>20</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G87" s="8"/>
       <c r="H87" s="8" t="s">
@@ -6611,7 +6701,7 @@
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K87" s="8" t="s">
         <v>31</v>
@@ -6636,10 +6726,10 @@
     </row>
     <row r="88" spans="1:28" ht="64.5" thickBot="1">
       <c r="A88" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B88" s="8" t="s">
         <v>272</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>273</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>222</v>
@@ -6648,10 +6738,10 @@
         <v>20</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G88" s="8"/>
       <c r="H88" s="8" t="s">
@@ -6659,7 +6749,7 @@
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K88" s="8" t="s">
         <v>31</v>
@@ -6686,28 +6776,28 @@
     </row>
     <row r="89" spans="1:28" ht="48" thickBot="1">
       <c r="A89" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="B89" s="8" t="s">
         <v>296</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>297</v>
       </c>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
       <c r="E89" s="10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G89" s="8"/>
       <c r="H89" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M89" s="8"/>
       <c r="N89" s="8"/>
@@ -6728,38 +6818,38 @@
     </row>
     <row r="90" spans="1:28" ht="90" thickBot="1">
       <c r="A90" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B90" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="C90" s="8" t="s">
         <v>300</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>301</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F90" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="G90" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="G90" s="9" t="s">
+      <c r="H90" s="8" t="s">
         <v>303</v>
-      </c>
-      <c r="H90" s="8" t="s">
-        <v>304</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K90" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L90" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M90" s="8"/>
       <c r="N90" s="8"/>
@@ -6780,38 +6870,38 @@
     </row>
     <row r="91" spans="1:28" ht="90" thickBot="1">
       <c r="A91" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B91" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="B91" s="8" t="s">
-        <v>308</v>
-      </c>
       <c r="C91" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E91" s="15" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F91" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="G91" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="G91" s="8" t="s">
+      <c r="H91" s="8" t="s">
         <v>303</v>
-      </c>
-      <c r="H91" s="8" t="s">
-        <v>304</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K91" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L91" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M91" s="8"/>
       <c r="N91" s="8"/>
@@ -6832,38 +6922,38 @@
     </row>
     <row r="92" spans="1:28" ht="77.25" thickBot="1">
       <c r="A92" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B92" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="B92" s="8" t="s">
-        <v>311</v>
-      </c>
       <c r="C92" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E92" s="15" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F92" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="G92" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="G92" s="8" t="s">
+      <c r="H92" s="8" t="s">
         <v>303</v>
-      </c>
-      <c r="H92" s="8" t="s">
-        <v>304</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="K92" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="K92" s="8" t="s">
-        <v>313</v>
-      </c>
       <c r="L92" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M92" s="8"/>
       <c r="N92" s="8"/>
@@ -6884,42 +6974,42 @@
     </row>
     <row r="93" spans="1:28" ht="128.25" thickBot="1">
       <c r="A93" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="B93" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="B93" s="8" t="s">
-        <v>315</v>
-      </c>
       <c r="C93" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E93" s="15" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F93" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="G93" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="G93" s="8" t="s">
+      <c r="H93" s="8" t="s">
         <v>303</v>
-      </c>
-      <c r="H93" s="8" t="s">
-        <v>304</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K93" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L93" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M93" s="8"/>
       <c r="N93" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O93" s="8"/>
       <c r="P93" s="6"/>
@@ -6938,38 +7028,38 @@
     </row>
     <row r="94" spans="1:28" ht="64.5" thickBot="1">
       <c r="A94" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="B94" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="B94" s="8" t="s">
-        <v>319</v>
-      </c>
       <c r="C94" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E94" s="15" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F94" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="G94" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="G94" s="8" t="s">
+      <c r="H94" s="8" t="s">
         <v>303</v>
-      </c>
-      <c r="H94" s="8" t="s">
-        <v>304</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K94" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L94" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M94" s="8"/>
       <c r="N94" s="8"/>
@@ -6990,35 +7080,35 @@
     </row>
     <row r="95" spans="1:28" ht="64.5" thickBot="1">
       <c r="A95" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="B95" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="C95" s="8" t="s">
         <v>322</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>323</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F95" s="8" t="s">
         <v>138</v>
       </c>
       <c r="G95" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="H95" s="8" t="s">
         <v>324</v>
-      </c>
-      <c r="H95" s="8" t="s">
-        <v>325</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="K95" s="8" t="s">
         <v>326</v>
-      </c>
-      <c r="K95" s="8" t="s">
-        <v>327</v>
       </c>
       <c r="L95" s="8"/>
       <c r="M95" s="8"/>
@@ -7040,32 +7130,32 @@
     </row>
     <row r="96" spans="1:28" ht="64.5" thickBot="1">
       <c r="A96" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="B96" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="B96" s="8" t="s">
-        <v>329</v>
-      </c>
       <c r="C96" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E96" s="15" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F96" s="8" t="s">
         <v>138</v>
       </c>
       <c r="G96" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="H96" s="8" t="s">
         <v>324</v>
-      </c>
-      <c r="H96" s="8" t="s">
-        <v>325</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K96" s="8" t="s">
         <v>31</v>
@@ -7090,35 +7180,35 @@
     </row>
     <row r="97" spans="1:28" ht="64.5" thickBot="1">
       <c r="A97" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="B97" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="B97" s="8" t="s">
-        <v>331</v>
-      </c>
       <c r="C97" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E97" s="15" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F97" s="8" t="s">
         <v>138</v>
       </c>
       <c r="G97" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="H97" s="8" t="s">
         <v>324</v>
-      </c>
-      <c r="H97" s="8" t="s">
-        <v>325</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K97" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L97" s="8"/>
       <c r="M97" s="8"/>
@@ -7140,32 +7230,32 @@
     </row>
     <row r="98" spans="1:28" ht="64.5" thickBot="1">
       <c r="A98" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B98" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="B98" s="8" t="s">
-        <v>334</v>
-      </c>
       <c r="C98" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F98" s="8" t="s">
         <v>138</v>
       </c>
       <c r="G98" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="H98" s="8" t="s">
         <v>324</v>
-      </c>
-      <c r="H98" s="8" t="s">
-        <v>325</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K98" s="8" t="s">
         <v>31</v>
@@ -7175,7 +7265,7 @@
       </c>
       <c r="M98" s="8"/>
       <c r="N98" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="O98" s="8"/>
       <c r="P98" s="6"/>
@@ -7194,32 +7284,32 @@
     </row>
     <row r="99" spans="1:28" ht="90" thickBot="1">
       <c r="A99" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B99" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="B99" s="8" t="s">
-        <v>337</v>
-      </c>
       <c r="C99" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E99" s="15" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F99" s="8" t="s">
         <v>138</v>
       </c>
       <c r="G99" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="H99" s="8" t="s">
         <v>324</v>
-      </c>
-      <c r="H99" s="8" t="s">
-        <v>325</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K99" s="8" t="s">
         <v>31</v>
@@ -7244,32 +7334,32 @@
     </row>
     <row r="100" spans="1:28" ht="64.5" thickBot="1">
       <c r="A100" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="B100" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="B100" s="8" t="s">
-        <v>340</v>
-      </c>
       <c r="C100" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E100" s="15" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F100" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="G100" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="G100" s="8" t="s">
-        <v>342</v>
-      </c>
       <c r="H100" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K100" s="8" t="s">
         <v>31</v>
@@ -7294,28 +7384,28 @@
     </row>
     <row r="101" spans="1:28" ht="48" thickBot="1">
       <c r="A101" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="B101" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="B101" s="8" t="s">
-        <v>345</v>
-      </c>
       <c r="C101" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E101" s="15" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c r="H101" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K101" s="8"/>
       <c r="L101" s="8"/>
@@ -7338,30 +7428,30 @@
     </row>
     <row r="102" spans="1:28" ht="48" thickBot="1">
       <c r="A102" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="B102" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="B102" s="8" t="s">
-        <v>349</v>
-      </c>
       <c r="C102" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E102" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G102" s="8"/>
       <c r="H102" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K102" s="8"/>
       <c r="L102" s="8"/>
@@ -7384,30 +7474,30 @@
     </row>
     <row r="103" spans="1:28" ht="48" thickBot="1">
       <c r="A103" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="B103" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="B103" s="8" t="s">
-        <v>353</v>
-      </c>
       <c r="C103" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E103" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G103" s="8"/>
       <c r="H103" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K103" s="8"/>
       <c r="L103" s="8"/>
@@ -7430,30 +7520,30 @@
     </row>
     <row r="104" spans="1:28" ht="51.75" thickBot="1">
       <c r="A104" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="B104" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="B104" s="8" t="s">
-        <v>355</v>
-      </c>
       <c r="C104" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G104" s="8"/>
       <c r="H104" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K104" s="8"/>
       <c r="L104" s="8" t="s">
@@ -7478,30 +7568,30 @@
     </row>
     <row r="105" spans="1:28" ht="51.75" thickBot="1">
       <c r="A105" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="B105" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="B105" s="8" t="s">
-        <v>358</v>
-      </c>
       <c r="C105" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D105" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G105" s="8"/>
       <c r="H105" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K105" s="8"/>
       <c r="L105" s="8"/>
@@ -7524,33 +7614,33 @@
     </row>
     <row r="106" spans="1:28" ht="51.75" thickBot="1">
       <c r="A106" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="B106" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="B106" s="8" t="s">
-        <v>360</v>
-      </c>
       <c r="C106" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E106" s="15" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G106" s="8"/>
       <c r="H106" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K106" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L106" s="8"/>
       <c r="M106" s="8"/>
@@ -7572,33 +7662,33 @@
     </row>
     <row r="107" spans="1:28" ht="51.75" thickBot="1">
       <c r="A107" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="B107" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B107" s="8" t="s">
-        <v>363</v>
-      </c>
       <c r="C107" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E107" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G107" s="8"/>
       <c r="H107" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K107" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L107" s="8"/>
       <c r="M107" s="8"/>
@@ -7620,33 +7710,33 @@
     </row>
     <row r="108" spans="1:28" ht="51.75" thickBot="1">
       <c r="A108" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="B108" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="B108" s="8" t="s">
-        <v>365</v>
-      </c>
       <c r="C108" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E108" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G108" s="8"/>
       <c r="H108" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K108" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L108" s="8" t="s">
         <v>31</v>
@@ -7670,30 +7760,30 @@
     </row>
     <row r="109" spans="1:28" ht="64.5" thickBot="1">
       <c r="A109" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="B109" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="B109" s="8" t="s">
-        <v>367</v>
-      </c>
       <c r="C109" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D109" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E109" s="15" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G109" s="8"/>
       <c r="H109" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K109" s="8"/>
       <c r="L109" s="8" t="s">
@@ -7718,32 +7808,32 @@
     </row>
     <row r="110" spans="1:28" ht="102.75" thickBot="1">
       <c r="A110" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="B110" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="C110" s="8" t="s">
         <v>370</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>371</v>
       </c>
       <c r="D110" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E110" s="15" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F110" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="G110" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="G110" s="8" t="s">
-        <v>373</v>
-      </c>
       <c r="H110" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K110" s="8" t="s">
         <v>31</v>
@@ -7751,7 +7841,7 @@
       <c r="L110" s="8"/>
       <c r="M110" s="8"/>
       <c r="N110" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="O110" s="8"/>
       <c r="P110" s="6"/>
@@ -7770,33 +7860,33 @@
     </row>
     <row r="111" spans="1:28" ht="90" thickBot="1">
       <c r="A111" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="B111" s="8" t="s">
         <v>375</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>376</v>
       </c>
       <c r="C111" s="8"/>
       <c r="D111" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E111" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F111" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="G111" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="G111" s="8" t="s">
-        <v>373</v>
-      </c>
       <c r="H111" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="K111" s="8" t="s">
         <v>377</v>
-      </c>
-      <c r="K111" s="8" t="s">
-        <v>378</v>
       </c>
       <c r="L111" s="8"/>
       <c r="M111" s="8"/>
@@ -7818,30 +7908,30 @@
     </row>
     <row r="112" spans="1:28" ht="77.25" thickBot="1">
       <c r="A112" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B112" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="B112" s="8" t="s">
-        <v>380</v>
-      </c>
       <c r="C112" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D112" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E112" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G112" s="8"/>
       <c r="H112" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K112" s="8" t="s">
         <v>31</v>
@@ -7866,33 +7956,33 @@
     </row>
     <row r="113" spans="1:28" ht="77.25" thickBot="1">
       <c r="A113" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="B113" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="B113" s="8" t="s">
-        <v>385</v>
-      </c>
       <c r="C113" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D113" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E113" s="15" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G113" s="8"/>
       <c r="H113" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="K113" s="8" t="s">
         <v>388</v>
-      </c>
-      <c r="K113" s="8" t="s">
-        <v>389</v>
       </c>
       <c r="L113" s="8"/>
       <c r="M113" s="8"/>
@@ -7914,33 +8004,33 @@
     </row>
     <row r="114" spans="1:28" ht="77.25" thickBot="1">
       <c r="A114" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="B114" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="B114" s="8" t="s">
-        <v>391</v>
-      </c>
       <c r="C114" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D114" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E114" s="14" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G114" s="8"/>
       <c r="H114" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K114" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L114" s="8"/>
       <c r="M114" s="8"/>
@@ -7962,33 +8052,33 @@
     </row>
     <row r="115" spans="1:28" ht="90" thickBot="1">
       <c r="A115" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="B115" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="B115" s="8" t="s">
-        <v>394</v>
-      </c>
       <c r="C115" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D115" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E115" s="14" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G115" s="8"/>
       <c r="H115" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K115" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L115" s="8" t="s">
         <v>31</v>
@@ -8012,33 +8102,33 @@
     </row>
     <row r="116" spans="1:28" ht="51.75" thickBot="1">
       <c r="A116" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="B116" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="B116" s="8" t="s">
-        <v>397</v>
-      </c>
       <c r="C116" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D116" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E116" s="15" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G116" s="8"/>
       <c r="H116" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K116" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L116" s="8" t="s">
         <v>31</v>
@@ -8062,22 +8152,22 @@
     </row>
     <row r="117" spans="1:28" ht="128.25" thickBot="1">
       <c r="A117" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="B117" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="B117" s="8" t="s">
-        <v>402</v>
-      </c>
       <c r="C117" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D117" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E117" s="15" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G117" s="8"/>
       <c r="H117" s="6" t="s">
@@ -8085,10 +8175,10 @@
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K117" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L117" s="8"/>
       <c r="M117" s="8"/>
@@ -8110,22 +8200,22 @@
     </row>
     <row r="118" spans="1:28" ht="128.25" thickBot="1">
       <c r="A118" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B118" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="B118" s="8" t="s">
+      <c r="C118" s="8" t="s">
         <v>406</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>407</v>
       </c>
       <c r="D118" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E118" s="15" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G118" s="8"/>
       <c r="H118" s="6" t="s">
@@ -8133,10 +8223,10 @@
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K118" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L118" s="8"/>
       <c r="M118" s="8"/>
@@ -8158,36 +8248,36 @@
     </row>
     <row r="119" spans="1:28" ht="115.5" thickBot="1">
       <c r="A119" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="B119" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="B119" s="8" t="s">
-        <v>409</v>
-      </c>
       <c r="C119" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D119" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E119" s="15" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G119" s="8"/>
       <c r="H119" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K119" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L119" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M119" s="8"/>
       <c r="N119" s="8"/>
@@ -8208,33 +8298,33 @@
     </row>
     <row r="120" spans="1:28" ht="115.5" thickBot="1">
       <c r="A120" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D120" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E120" s="15" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G120" s="8"/>
       <c r="H120" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K120" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L120" s="8"/>
       <c r="M120" s="8"/>
@@ -8256,33 +8346,33 @@
     </row>
     <row r="121" spans="1:28" ht="115.5" thickBot="1">
       <c r="A121" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D121" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E121" s="15" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G121" s="8"/>
       <c r="H121" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K121" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L121" s="8"/>
       <c r="M121" s="8"/>
@@ -8304,33 +8394,33 @@
     </row>
     <row r="122" spans="1:28" ht="115.5" thickBot="1">
       <c r="A122" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D122" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E122" s="15" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G122" s="8"/>
       <c r="H122" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K122" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L122" s="8"/>
       <c r="M122" s="8"/>
@@ -8352,33 +8442,33 @@
     </row>
     <row r="123" spans="1:28" ht="90" thickBot="1">
       <c r="A123" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="B123" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="B123" s="8" t="s">
-        <v>417</v>
-      </c>
       <c r="C123" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D123" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E123" s="15" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G123" s="8"/>
       <c r="H123" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K123" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L123" s="8"/>
       <c r="M123" s="8"/>
@@ -8400,33 +8490,33 @@
     </row>
     <row r="124" spans="1:28" ht="115.5" thickBot="1">
       <c r="A124" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="B124" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="B124" s="8" t="s">
-        <v>419</v>
-      </c>
       <c r="C124" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D124" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E124" s="15" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G124" s="8"/>
       <c r="H124" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I124" s="8"/>
       <c r="J124" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K124" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L124" s="8"/>
       <c r="M124" s="8"/>
@@ -8448,33 +8538,33 @@
     </row>
     <row r="125" spans="1:28" ht="90" thickBot="1">
       <c r="A125" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="B125" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="B125" s="8" t="s">
-        <v>423</v>
-      </c>
       <c r="C125" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D125" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E125" s="15" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G125" s="8"/>
       <c r="H125" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I125" s="8"/>
       <c r="J125" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K125" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L125" s="8" t="s">
         <v>31</v>
@@ -8498,40 +8588,40 @@
     </row>
     <row r="126" spans="1:28" ht="115.5" thickBot="1">
       <c r="A126" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="B126" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="B126" s="8" t="s">
+      <c r="C126" s="8" t="s">
         <v>429</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>430</v>
       </c>
       <c r="D126" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E126" s="15" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G126" s="8"/>
       <c r="H126" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I126" s="8"/>
       <c r="J126" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K126" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L126" s="8" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="M126" s="8"/>
       <c r="N126" s="8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="O126" s="8"/>
       <c r="P126" s="6"/>
@@ -8550,36 +8640,36 @@
     </row>
     <row r="127" spans="1:28" ht="64.5" thickBot="1">
       <c r="A127" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="B127" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="B127" s="8" t="s">
-        <v>433</v>
-      </c>
       <c r="C127" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D127" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E127" s="15" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G127" s="8"/>
       <c r="H127" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I127" s="8"/>
       <c r="J127" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K127" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L127" s="8" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="M127" s="8"/>
       <c r="N127" s="8"/>
@@ -8600,30 +8690,30 @@
     </row>
     <row r="128" spans="1:28" ht="77.25" thickBot="1">
       <c r="A128" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="B128" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="B128" s="8" t="s">
+      <c r="C128" s="8" t="s">
         <v>436</v>
-      </c>
-      <c r="C128" s="8" t="s">
-        <v>437</v>
       </c>
       <c r="D128" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E128" s="15" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G128" s="8"/>
       <c r="H128" s="12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I128" s="8"/>
       <c r="J128" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K128" s="8" t="s">
         <v>31</v>
@@ -8648,10 +8738,10 @@
     </row>
     <row r="129" spans="1:28" ht="90" thickBot="1">
       <c r="A129" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="B129" s="8" t="s">
         <v>441</v>
-      </c>
-      <c r="B129" s="8" t="s">
-        <v>442</v>
       </c>
       <c r="C129" s="17">
         <v>43921</v>
@@ -8660,18 +8750,18 @@
         <v>20</v>
       </c>
       <c r="E129" s="15" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G129" s="8"/>
       <c r="H129" s="8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I129" s="8"/>
       <c r="J129" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K129" s="8" t="s">
         <v>31</v>
@@ -8696,10 +8786,10 @@
     </row>
     <row r="130" spans="1:28" ht="77.25" thickBot="1">
       <c r="A130" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="B130" s="8" t="s">
         <v>445</v>
-      </c>
-      <c r="B130" s="8" t="s">
-        <v>446</v>
       </c>
       <c r="C130" s="17">
         <v>43921</v>
@@ -8708,16 +8798,16 @@
         <v>20</v>
       </c>
       <c r="E130" s="15" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F130" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="G130" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="G130" s="8" t="s">
-        <v>342</v>
-      </c>
       <c r="H130" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I130" s="8"/>
       <c r="J130" s="8"/>
@@ -8725,7 +8815,7 @@
       <c r="L130" s="8"/>
       <c r="M130" s="8"/>
       <c r="N130" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="O130" s="8"/>
       <c r="P130" s="6"/>
@@ -8744,10 +8834,10 @@
     </row>
     <row r="131" spans="1:28" ht="51.75" thickBot="1">
       <c r="A131" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="B131" s="8" t="s">
         <v>448</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>449</v>
       </c>
       <c r="C131" s="17">
         <v>43921</v>
@@ -8756,20 +8846,20 @@
         <v>20</v>
       </c>
       <c r="E131" s="15" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G131" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H131" s="12" t="s">
         <v>161</v>
       </c>
       <c r="I131" s="8"/>
       <c r="J131" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K131" s="8"/>
       <c r="L131" s="8"/>
@@ -8792,10 +8882,10 @@
     </row>
     <row r="132" spans="1:28" ht="48" thickBot="1">
       <c r="A132" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B132" s="8" t="s">
         <v>451</v>
-      </c>
-      <c r="B132" s="8" t="s">
-        <v>452</v>
       </c>
       <c r="C132" s="17">
         <v>43921</v>
@@ -8804,20 +8894,20 @@
         <v>20</v>
       </c>
       <c r="E132" s="15" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G132" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H132" s="12" t="s">
         <v>161</v>
       </c>
       <c r="I132" s="8"/>
       <c r="J132" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K132" s="8"/>
       <c r="L132" s="8"/>
@@ -8840,10 +8930,10 @@
     </row>
     <row r="133" spans="1:28" ht="51.75" thickBot="1">
       <c r="A133" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="B133" s="8" t="s">
         <v>454</v>
-      </c>
-      <c r="B133" s="8" t="s">
-        <v>455</v>
       </c>
       <c r="C133" s="17">
         <v>43921</v>
@@ -8852,20 +8942,20 @@
         <v>20</v>
       </c>
       <c r="E133" s="15" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G133" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H133" s="12" t="s">
         <v>161</v>
       </c>
       <c r="I133" s="8"/>
       <c r="J133" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K133" s="8"/>
       <c r="L133" s="8"/>
@@ -8888,10 +8978,10 @@
     </row>
     <row r="134" spans="1:28" ht="51.75" thickBot="1">
       <c r="A134" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="B134" s="8" t="s">
         <v>457</v>
-      </c>
-      <c r="B134" s="8" t="s">
-        <v>458</v>
       </c>
       <c r="C134" s="17">
         <v>43921</v>
@@ -8900,20 +8990,20 @@
         <v>20</v>
       </c>
       <c r="E134" s="15" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G134" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H134" s="12" t="s">
         <v>161</v>
       </c>
       <c r="I134" s="8"/>
       <c r="J134" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K134" s="8"/>
       <c r="L134" s="8"/>
@@ -8936,10 +9026,10 @@
     </row>
     <row r="135" spans="1:28" ht="64.5" thickBot="1">
       <c r="A135" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="B135" s="8" t="s">
         <v>515</v>
-      </c>
-      <c r="B135" s="8" t="s">
-        <v>516</v>
       </c>
       <c r="C135" s="17">
         <v>43922</v>
@@ -8948,24 +9038,24 @@
         <v>20</v>
       </c>
       <c r="E135" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F135" s="8" t="s">
         <v>138</v>
       </c>
       <c r="G135" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H135" s="8" t="s">
         <v>124</v>
       </c>
       <c r="I135" s="8"/>
       <c r="J135" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K135" s="8"/>
       <c r="L135" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="M135" s="8"/>
       <c r="N135" s="8"/>
@@ -8986,10 +9076,10 @@
     </row>
     <row r="136" spans="1:28" ht="64.5" thickBot="1">
       <c r="A136" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="B136" s="8" t="s">
         <v>519</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>520</v>
       </c>
       <c r="C136" s="17">
         <v>43922</v>
@@ -8998,24 +9088,24 @@
         <v>20</v>
       </c>
       <c r="E136" s="15" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F136" s="8" t="s">
         <v>138</v>
       </c>
       <c r="G136" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H136" s="8" t="s">
         <v>124</v>
       </c>
       <c r="I136" s="8"/>
       <c r="J136" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K136" s="8"/>
       <c r="L136" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="M136" s="8"/>
       <c r="N136" s="8"/>
@@ -9036,10 +9126,10 @@
     </row>
     <row r="137" spans="1:28" ht="64.5" thickBot="1">
       <c r="A137" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="B137" s="8" t="s">
         <v>521</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>522</v>
       </c>
       <c r="C137" s="17">
         <v>43922</v>
@@ -9048,13 +9138,13 @@
         <v>20</v>
       </c>
       <c r="E137" s="15" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F137" s="8" t="s">
         <v>138</v>
       </c>
       <c r="G137" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H137" s="8" t="s">
         <v>124</v>
@@ -9067,7 +9157,7 @@
         <v>31</v>
       </c>
       <c r="L137" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="M137" s="8"/>
       <c r="N137" s="8"/>
@@ -9088,10 +9178,10 @@
     </row>
     <row r="138" spans="1:28" ht="64.5" thickBot="1">
       <c r="A138" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="B138" s="8" t="s">
         <v>523</v>
-      </c>
-      <c r="B138" s="8" t="s">
-        <v>524</v>
       </c>
       <c r="C138" s="17">
         <v>43922</v>
@@ -9100,13 +9190,13 @@
         <v>20</v>
       </c>
       <c r="E138" s="15" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F138" s="8" t="s">
         <v>138</v>
       </c>
       <c r="G138" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H138" s="8" t="s">
         <v>124</v>
@@ -9119,7 +9209,7 @@
         <v>31</v>
       </c>
       <c r="L138" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="M138" s="8"/>
       <c r="N138" s="8"/>
@@ -9140,10 +9230,10 @@
     </row>
     <row r="139" spans="1:28" ht="51.75" thickBot="1">
       <c r="A139" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C139" s="17">
         <v>43922</v>
@@ -9152,13 +9242,13 @@
         <v>20</v>
       </c>
       <c r="E139" s="14" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H139" s="8"/>
       <c r="I139" s="8"/>
@@ -9166,7 +9256,7 @@
       <c r="K139" s="8"/>
       <c r="L139" s="8"/>
       <c r="M139" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N139" s="8"/>
       <c r="O139" s="8"/>
@@ -9186,10 +9276,10 @@
     </row>
     <row r="140" spans="1:28" ht="48" thickBot="1">
       <c r="A140" s="8" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C140" s="17">
         <v>43922</v>
@@ -9198,13 +9288,13 @@
         <v>20</v>
       </c>
       <c r="E140" s="14" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H140" s="8"/>
       <c r="I140" s="8"/>
@@ -9212,7 +9302,7 @@
       <c r="K140" s="8"/>
       <c r="L140" s="8"/>
       <c r="M140" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N140" s="8"/>
       <c r="O140" s="8"/>
@@ -9232,10 +9322,10 @@
     </row>
     <row r="141" spans="1:28" ht="39" thickBot="1">
       <c r="A141" s="8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C141" s="17">
         <v>43922</v>
@@ -9244,13 +9334,13 @@
         <v>20</v>
       </c>
       <c r="E141" s="14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F141" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="G141" s="8" t="s">
         <v>341</v>
-      </c>
-      <c r="G141" s="8" t="s">
-        <v>342</v>
       </c>
       <c r="H141" s="8"/>
       <c r="I141" s="8"/>
@@ -9258,7 +9348,7 @@
       <c r="K141" s="8"/>
       <c r="L141" s="8"/>
       <c r="M141" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N141" s="8"/>
       <c r="O141" s="8"/>
@@ -9278,10 +9368,10 @@
     </row>
     <row r="142" spans="1:28" ht="39" thickBot="1">
       <c r="A142" s="8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C142" s="17">
         <v>43922</v>
@@ -9290,23 +9380,23 @@
         <v>20</v>
       </c>
       <c r="E142" s="14" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F142" s="8" t="s">
         <v>138</v>
       </c>
       <c r="G142" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H142" s="8"/>
       <c r="I142" s="8"/>
       <c r="J142" s="8"/>
       <c r="K142" s="8"/>
       <c r="L142" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="M142" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N142" s="8"/>
       <c r="O142" s="8"/>
@@ -9326,10 +9416,10 @@
     </row>
     <row r="143" spans="1:28" ht="64.5" thickBot="1">
       <c r="A143" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="B143" s="8" t="s">
         <v>534</v>
-      </c>
-      <c r="B143" s="8" t="s">
-        <v>535</v>
       </c>
       <c r="C143" s="17">
         <v>43923</v>
@@ -9338,13 +9428,13 @@
         <v>20</v>
       </c>
       <c r="E143" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F143" s="8" t="s">
         <v>138</v>
       </c>
       <c r="G143" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H143" s="8"/>
       <c r="I143" s="8"/>
@@ -9370,10 +9460,10 @@
     </row>
     <row r="144" spans="1:28" ht="64.5" thickBot="1">
       <c r="A144" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="B144" s="8" t="s">
         <v>536</v>
-      </c>
-      <c r="B144" s="8" t="s">
-        <v>537</v>
       </c>
       <c r="C144" s="17">
         <v>43923</v>
@@ -9382,13 +9472,13 @@
         <v>20</v>
       </c>
       <c r="E144" s="14" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F144" s="8" t="s">
         <v>138</v>
       </c>
       <c r="G144" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H144" s="8"/>
       <c r="I144" s="8"/>
@@ -9414,10 +9504,10 @@
     </row>
     <row r="145" spans="1:28" ht="48" thickBot="1">
       <c r="A145" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="B145" s="8" t="s">
         <v>538</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>539</v>
       </c>
       <c r="C145" s="17">
         <v>43923</v>
@@ -9426,13 +9516,13 @@
         <v>20</v>
       </c>
       <c r="E145" s="15" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F145" s="8" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G145" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H145" s="8"/>
       <c r="I145" s="8"/>
@@ -9440,7 +9530,7 @@
       <c r="K145" s="8"/>
       <c r="L145" s="8"/>
       <c r="M145" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N145" s="8"/>
       <c r="O145" s="8"/>
@@ -9460,10 +9550,10 @@
     </row>
     <row r="146" spans="1:28" ht="141" thickBot="1">
       <c r="A146" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="B146" s="8" t="s">
         <v>541</v>
-      </c>
-      <c r="B146" s="8" t="s">
-        <v>542</v>
       </c>
       <c r="C146" s="17">
         <v>43923</v>
@@ -9472,21 +9562,21 @@
         <v>20</v>
       </c>
       <c r="E146" s="14" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F146" s="8" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G146" s="8"/>
       <c r="H146" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I146" s="8"/>
       <c r="J146" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="K146" s="8" t="s">
         <v>548</v>
-      </c>
-      <c r="K146" s="8" t="s">
-        <v>549</v>
       </c>
       <c r="L146" s="8"/>
       <c r="M146" s="8"/>
@@ -9508,10 +9598,10 @@
     </row>
     <row r="147" spans="1:28" ht="115.5" thickBot="1">
       <c r="A147" s="8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C147" s="17">
         <v>43923</v>
@@ -9520,21 +9610,21 @@
         <v>20</v>
       </c>
       <c r="E147" s="15" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G147" s="8"/>
       <c r="H147" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I147" s="8"/>
       <c r="J147" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="K147" s="8" t="s">
         <v>550</v>
-      </c>
-      <c r="K147" s="8" t="s">
-        <v>551</v>
       </c>
       <c r="L147" s="8"/>
       <c r="M147" s="8"/>
@@ -9556,10 +9646,10 @@
     </row>
     <row r="148" spans="1:28" ht="48" thickBot="1">
       <c r="A148" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="B148" s="8" t="s">
         <v>552</v>
-      </c>
-      <c r="B148" s="8" t="s">
-        <v>553</v>
       </c>
       <c r="C148" s="17">
         <v>43924</v>
@@ -9568,13 +9658,13 @@
         <v>20</v>
       </c>
       <c r="E148" s="15" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G148" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H148" s="8"/>
       <c r="I148" s="8"/>
@@ -9602,10 +9692,10 @@
     </row>
     <row r="149" spans="1:28" ht="48" thickBot="1">
       <c r="A149" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="B149" s="8" t="s">
         <v>554</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>555</v>
       </c>
       <c r="C149" s="17">
         <v>43924</v>
@@ -9614,13 +9704,13 @@
         <v>20</v>
       </c>
       <c r="E149" s="14" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G149" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H149" s="8"/>
       <c r="I149" s="8"/>
@@ -9630,7 +9720,7 @@
       </c>
       <c r="L149" s="8"/>
       <c r="M149" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N149" s="8"/>
       <c r="O149" s="8"/>
@@ -9650,10 +9740,10 @@
     </row>
     <row r="150" spans="1:28" ht="51.75" thickBot="1">
       <c r="A150" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="B150" s="8" t="s">
         <v>556</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>557</v>
       </c>
       <c r="C150" s="17">
         <v>43924</v>
@@ -9662,20 +9752,20 @@
         <v>20</v>
       </c>
       <c r="E150" s="14" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F150" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="G150" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="G150" s="8" t="s">
-        <v>559</v>
-      </c>
       <c r="H150" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I150" s="8"/>
       <c r="J150" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K150" s="8" t="s">
         <v>31</v>
@@ -9700,10 +9790,10 @@
     </row>
     <row r="151" spans="1:28" ht="51.75" thickBot="1">
       <c r="A151" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="B151" s="8" t="s">
         <v>624</v>
-      </c>
-      <c r="B151" s="8" t="s">
-        <v>625</v>
       </c>
       <c r="C151" s="17">
         <v>43926</v>
@@ -9712,16 +9802,16 @@
         <v>20</v>
       </c>
       <c r="E151" s="14" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F151" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="G151" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="G151" s="8" t="s">
-        <v>559</v>
-      </c>
       <c r="H151" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I151" s="8"/>
       <c r="J151" s="8"/>
@@ -9746,10 +9836,10 @@
     </row>
     <row r="152" spans="1:28" ht="90" thickBot="1">
       <c r="A152" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="B152" s="8" t="s">
         <v>626</v>
-      </c>
-      <c r="B152" s="8" t="s">
-        <v>627</v>
       </c>
       <c r="C152" s="17">
         <v>43927</v>
@@ -9758,23 +9848,23 @@
         <v>20</v>
       </c>
       <c r="E152" s="14" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F152" s="8" t="s">
         <v>138</v>
       </c>
       <c r="G152" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H152" s="8" t="s">
         <v>124</v>
       </c>
       <c r="I152" s="8"/>
       <c r="J152" s="8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K152" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L152" s="8"/>
       <c r="M152" s="8"/>
@@ -9796,10 +9886,10 @@
     </row>
     <row r="153" spans="1:28" ht="141" thickBot="1">
       <c r="A153" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="B153" s="8" t="s">
         <v>629</v>
-      </c>
-      <c r="B153" s="8" t="s">
-        <v>630</v>
       </c>
       <c r="C153" s="17">
         <v>43927</v>
@@ -9808,18 +9898,18 @@
         <v>20</v>
       </c>
       <c r="E153" s="14" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F153" s="8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G153" s="6"/>
       <c r="H153" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I153" s="8"/>
       <c r="J153" s="8" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="K153" s="8"/>
       <c r="L153" s="8"/>
@@ -9842,10 +9932,10 @@
     </row>
     <row r="154" spans="1:28" ht="77.25" thickBot="1">
       <c r="A154" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="B154" s="8" t="s">
         <v>633</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>634</v>
       </c>
       <c r="C154" s="17">
         <v>43928</v>
@@ -9854,23 +9944,23 @@
         <v>20</v>
       </c>
       <c r="E154" s="14" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F154" s="8" t="s">
         <v>138</v>
       </c>
       <c r="G154" s="8" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H154" s="8" t="s">
         <v>124</v>
       </c>
       <c r="I154" s="8"/>
       <c r="J154" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K154" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L154" s="8"/>
       <c r="M154" s="8"/>
@@ -9892,10 +9982,10 @@
     </row>
     <row r="155" spans="1:28" ht="64.5" thickBot="1">
       <c r="A155" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="B155" s="8" t="s">
         <v>636</v>
-      </c>
-      <c r="B155" s="8" t="s">
-        <v>637</v>
       </c>
       <c r="C155" s="17">
         <v>43929</v>
@@ -9904,26 +9994,26 @@
         <v>20</v>
       </c>
       <c r="E155" s="14" t="s">
+        <v>637</v>
+      </c>
+      <c r="F155" s="8" t="s">
         <v>638</v>
       </c>
-      <c r="F155" s="8" t="s">
-        <v>639</v>
-      </c>
       <c r="G155" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H155" s="8" t="s">
         <v>124</v>
       </c>
       <c r="I155" s="8"/>
       <c r="J155" s="8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="K155" s="8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="L155" s="8" t="s">
-        <v>35</v>
+        <v>377</v>
       </c>
       <c r="M155" s="8"/>
       <c r="N155" s="8"/>
@@ -9944,10 +10034,10 @@
     </row>
     <row r="156" spans="1:28" ht="39" thickBot="1">
       <c r="A156" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="B156" s="8" t="s">
         <v>641</v>
-      </c>
-      <c r="B156" s="8" t="s">
-        <v>642</v>
       </c>
       <c r="C156" s="17">
         <v>43929</v>
@@ -9956,21 +10046,23 @@
         <v>20</v>
       </c>
       <c r="E156" s="14" t="s">
+        <v>642</v>
+      </c>
+      <c r="F156" s="8" t="s">
         <v>643</v>
-      </c>
-      <c r="F156" s="8" t="s">
-        <v>644</v>
       </c>
       <c r="G156" s="8"/>
       <c r="H156" s="18" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I156" s="8"/>
       <c r="J156" s="8"/>
       <c r="K156" s="8" t="s">
-        <v>652</v>
-      </c>
-      <c r="L156" s="8"/>
+        <v>651</v>
+      </c>
+      <c r="L156" s="8" t="s">
+        <v>377</v>
+      </c>
       <c r="M156" s="8"/>
       <c r="N156" s="8"/>
       <c r="O156" s="8"/>
@@ -9990,10 +10082,10 @@
     </row>
     <row r="157" spans="1:28" ht="48" thickBot="1">
       <c r="A157" s="8" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C157" s="17">
         <v>43929</v>
@@ -10002,21 +10094,23 @@
         <v>20</v>
       </c>
       <c r="E157" s="14" t="s">
+        <v>646</v>
+      </c>
+      <c r="F157" s="8" t="s">
         <v>647</v>
-      </c>
-      <c r="F157" s="8" t="s">
-        <v>648</v>
       </c>
       <c r="G157" s="8"/>
       <c r="H157" s="18" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I157" s="8"/>
       <c r="J157" s="8"/>
       <c r="K157" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L157" s="8"/>
+      <c r="L157" s="8" t="s">
+        <v>377</v>
+      </c>
       <c r="M157" s="8"/>
       <c r="N157" s="8"/>
       <c r="O157" s="8"/>
@@ -10036,10 +10130,10 @@
     </row>
     <row r="158" spans="1:28" ht="51.75" thickBot="1">
       <c r="A158" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="B158" s="8" t="s">
         <v>649</v>
-      </c>
-      <c r="B158" s="8" t="s">
-        <v>650</v>
       </c>
       <c r="C158" s="17">
         <v>43929</v>
@@ -10048,21 +10142,23 @@
         <v>20</v>
       </c>
       <c r="E158" s="14" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F158" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G158" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H158" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I158" s="8"/>
       <c r="J158" s="8"/>
       <c r="K158" s="8"/>
-      <c r="L158" s="8"/>
+      <c r="L158" s="8" t="s">
+        <v>377</v>
+      </c>
       <c r="M158" s="8"/>
       <c r="N158" s="8"/>
       <c r="O158" s="8"/>
@@ -10082,15 +10178,15 @@
     </row>
     <row r="159" spans="1:28" ht="26.25" thickBot="1">
       <c r="A159" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="B159" s="8" t="s">
         <v>653</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>654</v>
       </c>
       <c r="C159" s="8"/>
       <c r="D159" s="8"/>
       <c r="E159" s="19" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F159" s="8"/>
       <c r="G159" s="8"/>
@@ -10118,10 +10214,10 @@
     </row>
     <row r="160" spans="1:28" ht="64.5" thickBot="1">
       <c r="A160" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="B160" s="8" t="s">
         <v>655</v>
-      </c>
-      <c r="B160" s="8" t="s">
-        <v>656</v>
       </c>
       <c r="C160" s="17">
         <v>43934</v>
@@ -10130,7 +10226,7 @@
         <v>20</v>
       </c>
       <c r="E160" s="14" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F160" s="8"/>
       <c r="G160" s="8"/>
@@ -10164,15 +10260,15 @@
     </row>
     <row r="161" spans="1:28" ht="26.25" thickBot="1">
       <c r="A161" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="B161" s="8" t="s">
         <v>657</v>
-      </c>
-      <c r="B161" s="8" t="s">
-        <v>658</v>
       </c>
       <c r="C161" s="8"/>
       <c r="D161" s="8"/>
       <c r="E161" s="19" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F161" s="8"/>
       <c r="G161" s="8"/>
@@ -10200,10 +10296,10 @@
     </row>
     <row r="162" spans="1:28" ht="64.5" thickBot="1">
       <c r="A162" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="B162" s="8" t="s">
         <v>659</v>
-      </c>
-      <c r="B162" s="8" t="s">
-        <v>660</v>
       </c>
       <c r="C162" s="17">
         <v>43934</v>
@@ -10212,7 +10308,7 @@
         <v>20</v>
       </c>
       <c r="E162" s="14" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F162" s="8"/>
       <c r="G162" s="8"/>
@@ -10246,10 +10342,10 @@
     </row>
     <row r="163" spans="1:28" ht="48" thickBot="1">
       <c r="A163" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="B163" s="8" t="s">
         <v>661</v>
-      </c>
-      <c r="B163" s="8" t="s">
-        <v>662</v>
       </c>
       <c r="C163" s="17">
         <v>43934</v>
@@ -10258,20 +10354,20 @@
         <v>20</v>
       </c>
       <c r="E163" s="14" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F163" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="G163" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="G163" s="8" t="s">
-        <v>342</v>
-      </c>
       <c r="H163" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I163" s="8"/>
       <c r="J163" s="8" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K163" s="8"/>
       <c r="L163" s="8"/>
@@ -10294,10 +10390,10 @@
     </row>
     <row r="164" spans="1:28" ht="48" thickBot="1">
       <c r="A164" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="B164" s="8" t="s">
         <v>663</v>
-      </c>
-      <c r="B164" s="8" t="s">
-        <v>664</v>
       </c>
       <c r="C164" s="17">
         <v>43934</v>
@@ -10306,20 +10402,20 @@
         <v>20</v>
       </c>
       <c r="E164" s="14" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F164" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="G164" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="G164" s="8" t="s">
-        <v>342</v>
-      </c>
       <c r="H164" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I164" s="8"/>
       <c r="J164" s="8" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K164" s="8"/>
       <c r="L164" s="8"/>
@@ -10342,10 +10438,10 @@
     </row>
     <row r="165" spans="1:28" ht="48" thickBot="1">
       <c r="A165" s="8" t="s">
+        <v>664</v>
+      </c>
+      <c r="B165" s="8" t="s">
         <v>665</v>
-      </c>
-      <c r="B165" s="8" t="s">
-        <v>666</v>
       </c>
       <c r="C165" s="17">
         <v>43934</v>
@@ -10354,20 +10450,20 @@
         <v>20</v>
       </c>
       <c r="E165" s="14" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F165" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="G165" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="G165" s="8" t="s">
-        <v>342</v>
-      </c>
       <c r="H165" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I165" s="8"/>
       <c r="J165" s="8" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K165" s="8"/>
       <c r="L165" s="8"/>
@@ -10388,17 +10484,33 @@
       <c r="AA165" s="6"/>
       <c r="AB165" s="6"/>
     </row>
-    <row r="166" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A166" s="8"/>
-      <c r="B166" s="8"/>
-      <c r="C166" s="8"/>
-      <c r="D166" s="8"/>
-      <c r="E166" s="8"/>
-      <c r="F166" s="8"/>
+    <row r="166" spans="1:28" ht="51.75" thickBot="1">
+      <c r="A166" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="C166" s="17">
+        <v>43937</v>
+      </c>
+      <c r="D166" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E166" s="15" t="s">
+        <v>692</v>
+      </c>
+      <c r="F166" s="8" t="s">
+        <v>693</v>
+      </c>
       <c r="G166" s="8"/>
-      <c r="H166" s="8"/>
+      <c r="H166" s="8" t="s">
+        <v>694</v>
+      </c>
       <c r="I166" s="8"/>
-      <c r="J166" s="8"/>
+      <c r="J166" s="8" t="s">
+        <v>695</v>
+      </c>
       <c r="K166" s="8"/>
       <c r="L166" s="8"/>
       <c r="M166" s="8"/>
@@ -10418,17 +10530,33 @@
       <c r="AA166" s="6"/>
       <c r="AB166" s="6"/>
     </row>
-    <row r="167" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A167" s="8"/>
-      <c r="B167" s="8"/>
-      <c r="C167" s="8"/>
-      <c r="D167" s="8"/>
-      <c r="E167" s="8"/>
-      <c r="F167" s="8"/>
+    <row r="167" spans="1:28" ht="51.75" thickBot="1">
+      <c r="A167" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="C167" s="17">
+        <v>43937</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E167" s="14" t="s">
+        <v>697</v>
+      </c>
+      <c r="F167" s="8" t="s">
+        <v>693</v>
+      </c>
       <c r="G167" s="8"/>
-      <c r="H167" s="8"/>
+      <c r="H167" s="8" t="s">
+        <v>694</v>
+      </c>
       <c r="I167" s="8"/>
-      <c r="J167" s="8"/>
+      <c r="J167" s="8" t="s">
+        <v>695</v>
+      </c>
       <c r="K167" s="8"/>
       <c r="L167" s="8"/>
       <c r="M167" s="8"/>
@@ -10448,17 +10576,33 @@
       <c r="AA167" s="6"/>
       <c r="AB167" s="6"/>
     </row>
-    <row r="168" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A168" s="8"/>
-      <c r="B168" s="8"/>
-      <c r="C168" s="8"/>
-      <c r="D168" s="8"/>
-      <c r="E168" s="8"/>
-      <c r="F168" s="8"/>
+    <row r="168" spans="1:28" ht="51.75" thickBot="1">
+      <c r="A168" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="C168" s="17">
+        <v>43937</v>
+      </c>
+      <c r="D168" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E168" s="14" t="s">
+        <v>699</v>
+      </c>
+      <c r="F168" s="8" t="s">
+        <v>693</v>
+      </c>
       <c r="G168" s="8"/>
-      <c r="H168" s="8"/>
+      <c r="H168" s="8" t="s">
+        <v>694</v>
+      </c>
       <c r="I168" s="8"/>
-      <c r="J168" s="8"/>
+      <c r="J168" s="8" t="s">
+        <v>695</v>
+      </c>
       <c r="K168" s="8"/>
       <c r="L168" s="8"/>
       <c r="M168" s="8"/>
@@ -10478,17 +10622,33 @@
       <c r="AA168" s="6"/>
       <c r="AB168" s="6"/>
     </row>
-    <row r="169" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A169" s="8"/>
-      <c r="B169" s="8"/>
-      <c r="C169" s="8"/>
-      <c r="D169" s="8"/>
-      <c r="E169" s="8"/>
-      <c r="F169" s="8"/>
+    <row r="169" spans="1:28" ht="51.75" thickBot="1">
+      <c r="A169" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="C169" s="17">
+        <v>43937</v>
+      </c>
+      <c r="D169" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E169" s="14" t="s">
+        <v>701</v>
+      </c>
+      <c r="F169" s="8" t="s">
+        <v>693</v>
+      </c>
       <c r="G169" s="8"/>
-      <c r="H169" s="8"/>
+      <c r="H169" s="8" t="s">
+        <v>694</v>
+      </c>
       <c r="I169" s="8"/>
-      <c r="J169" s="8"/>
+      <c r="J169" s="8" t="s">
+        <v>695</v>
+      </c>
       <c r="K169" s="8"/>
       <c r="L169" s="8"/>
       <c r="M169" s="8"/>
@@ -10508,17 +10668,33 @@
       <c r="AA169" s="6"/>
       <c r="AB169" s="6"/>
     </row>
-    <row r="170" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A170" s="8"/>
-      <c r="B170" s="8"/>
-      <c r="C170" s="8"/>
-      <c r="D170" s="8"/>
-      <c r="E170" s="8"/>
-      <c r="F170" s="8"/>
+    <row r="170" spans="1:28" ht="51.75" thickBot="1">
+      <c r="A170" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="C170" s="17">
+        <v>43937</v>
+      </c>
+      <c r="D170" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E170" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="F170" s="8" t="s">
+        <v>693</v>
+      </c>
       <c r="G170" s="8"/>
-      <c r="H170" s="8"/>
+      <c r="H170" s="8" t="s">
+        <v>694</v>
+      </c>
       <c r="I170" s="8"/>
-      <c r="J170" s="8"/>
+      <c r="J170" s="8" t="s">
+        <v>695</v>
+      </c>
       <c r="K170" s="8"/>
       <c r="L170" s="8"/>
       <c r="M170" s="8"/>
@@ -10538,17 +10714,33 @@
       <c r="AA170" s="6"/>
       <c r="AB170" s="6"/>
     </row>
-    <row r="171" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A171" s="8"/>
-      <c r="B171" s="8"/>
-      <c r="C171" s="8"/>
-      <c r="D171" s="8"/>
-      <c r="E171" s="8"/>
-      <c r="F171" s="8"/>
+    <row r="171" spans="1:28" ht="64.5" thickBot="1">
+      <c r="A171" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="C171" s="17">
+        <v>43937</v>
+      </c>
+      <c r="D171" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E171" s="14" t="s">
+        <v>706</v>
+      </c>
+      <c r="F171" s="8" t="s">
+        <v>707</v>
+      </c>
       <c r="G171" s="8"/>
-      <c r="H171" s="8"/>
+      <c r="H171" s="8" t="s">
+        <v>694</v>
+      </c>
       <c r="I171" s="8"/>
-      <c r="J171" s="8"/>
+      <c r="J171" s="8" t="s">
+        <v>708</v>
+      </c>
       <c r="K171" s="8"/>
       <c r="L171" s="8"/>
       <c r="M171" s="8"/>
@@ -10568,17 +10760,33 @@
       <c r="AA171" s="6"/>
       <c r="AB171" s="6"/>
     </row>
-    <row r="172" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A172" s="8"/>
-      <c r="B172" s="8"/>
-      <c r="C172" s="8"/>
-      <c r="D172" s="8"/>
-      <c r="E172" s="8"/>
-      <c r="F172" s="8"/>
+    <row r="172" spans="1:28" ht="64.5" thickBot="1">
+      <c r="A172" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="C172" s="17">
+        <v>43937</v>
+      </c>
+      <c r="D172" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E172" s="14" t="s">
+        <v>711</v>
+      </c>
+      <c r="F172" s="8" t="s">
+        <v>707</v>
+      </c>
       <c r="G172" s="8"/>
-      <c r="H172" s="8"/>
+      <c r="H172" s="8" t="s">
+        <v>694</v>
+      </c>
       <c r="I172" s="8"/>
-      <c r="J172" s="8"/>
+      <c r="J172" s="8" t="s">
+        <v>712</v>
+      </c>
       <c r="K172" s="8"/>
       <c r="L172" s="8"/>
       <c r="M172" s="8"/>
@@ -10598,17 +10806,33 @@
       <c r="AA172" s="6"/>
       <c r="AB172" s="6"/>
     </row>
-    <row r="173" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A173" s="8"/>
-      <c r="B173" s="8"/>
-      <c r="C173" s="8"/>
-      <c r="D173" s="8"/>
-      <c r="E173" s="8"/>
-      <c r="F173" s="8"/>
+    <row r="173" spans="1:28" ht="64.5" thickBot="1">
+      <c r="A173" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="C173" s="17">
+        <v>43937</v>
+      </c>
+      <c r="D173" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E173" s="15" t="s">
+        <v>715</v>
+      </c>
+      <c r="F173" s="8" t="s">
+        <v>707</v>
+      </c>
       <c r="G173" s="8"/>
-      <c r="H173" s="8"/>
+      <c r="H173" s="8" t="s">
+        <v>694</v>
+      </c>
       <c r="I173" s="8"/>
-      <c r="J173" s="8"/>
+      <c r="J173" s="8" t="s">
+        <v>716</v>
+      </c>
       <c r="K173" s="8"/>
       <c r="L173" s="8"/>
       <c r="M173" s="8"/>
@@ -10628,17 +10852,33 @@
       <c r="AA173" s="6"/>
       <c r="AB173" s="6"/>
     </row>
-    <row r="174" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A174" s="8"/>
-      <c r="B174" s="8"/>
-      <c r="C174" s="8"/>
-      <c r="D174" s="8"/>
-      <c r="E174" s="8"/>
-      <c r="F174" s="8"/>
+    <row r="174" spans="1:28" ht="64.5" thickBot="1">
+      <c r="A174" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="C174" s="17">
+        <v>43937</v>
+      </c>
+      <c r="D174" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E174" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="F174" s="8" t="s">
+        <v>707</v>
+      </c>
       <c r="G174" s="8"/>
-      <c r="H174" s="8"/>
+      <c r="H174" s="8" t="s">
+        <v>694</v>
+      </c>
       <c r="I174" s="8"/>
-      <c r="J174" s="8"/>
+      <c r="J174" s="8" t="s">
+        <v>719</v>
+      </c>
       <c r="K174" s="8"/>
       <c r="L174" s="8"/>
       <c r="M174" s="8"/>
@@ -36368,9 +36608,18 @@
     <hyperlink ref="E163" r:id="rId146"/>
     <hyperlink ref="E164" r:id="rId147"/>
     <hyperlink ref="E165" r:id="rId148"/>
+    <hyperlink ref="E166" r:id="rId149"/>
+    <hyperlink ref="E167" r:id="rId150"/>
+    <hyperlink ref="E168" r:id="rId151"/>
+    <hyperlink ref="E169" r:id="rId152"/>
+    <hyperlink ref="E170" r:id="rId153"/>
+    <hyperlink ref="E171" r:id="rId154"/>
+    <hyperlink ref="E172" r:id="rId155"/>
+    <hyperlink ref="E173" r:id="rId156"/>
+    <hyperlink ref="E174" r:id="rId157"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId149"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId158"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/BIDMC/np_swab_results.xlsx
+++ b/BIDMC/np_swab_results.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="732">
   <si>
     <t>Date of test</t>
   </si>
@@ -2185,6 +2185,42 @@
   </si>
   <si>
     <t>fail- neck is too flexible. Matieral is chalkiy and leaves residue upon handling. Tip is the least sharp</t>
+  </si>
+  <si>
+    <t>FA_8</t>
+  </si>
+  <si>
+    <t>Fathom spiral with 8 rotations</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Fathom/FA_8.jpg</t>
+  </si>
+  <si>
+    <t>nylon 12</t>
+  </si>
+  <si>
+    <t>phone: 510-281-9000</t>
+  </si>
+  <si>
+    <t>FA_9</t>
+  </si>
+  <si>
+    <t>Fathom spiral with 9 rotations</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Fathom/FA_9.jpg</t>
+  </si>
+  <si>
+    <t>FA_10</t>
+  </si>
+  <si>
+    <t>Fathom spiral with 10 rotations</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Fathom/FA_10.jpg</t>
+  </si>
+  <si>
+    <t>nylong 12</t>
   </si>
 </sst>
 </file>
@@ -2663,7 +2699,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2677,7 +2713,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B174" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F178" sqref="F178"/>
+      <selection pane="bottomRight" activeCell="D185" sqref="D185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -10898,17 +10934,33 @@
       <c r="AA174" s="6"/>
       <c r="AB174" s="6"/>
     </row>
-    <row r="175" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A175" s="8"/>
-      <c r="B175" s="8"/>
-      <c r="C175" s="8"/>
-      <c r="D175" s="8"/>
-      <c r="E175" s="8"/>
-      <c r="F175" s="8"/>
+    <row r="175" spans="1:28" ht="39" thickBot="1">
+      <c r="A175" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="C175" s="17">
+        <v>43938</v>
+      </c>
+      <c r="D175" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E175" s="14" t="s">
+        <v>722</v>
+      </c>
+      <c r="F175" s="8" t="s">
+        <v>723</v>
+      </c>
       <c r="G175" s="8"/>
-      <c r="H175" s="8"/>
+      <c r="H175" s="8" t="s">
+        <v>724</v>
+      </c>
       <c r="I175" s="8"/>
-      <c r="J175" s="8"/>
+      <c r="J175" s="8" t="s">
+        <v>377</v>
+      </c>
       <c r="K175" s="8"/>
       <c r="L175" s="8"/>
       <c r="M175" s="8"/>
@@ -10928,17 +10980,33 @@
       <c r="AA175" s="6"/>
       <c r="AB175" s="6"/>
     </row>
-    <row r="176" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A176" s="8"/>
-      <c r="B176" s="8"/>
-      <c r="C176" s="8"/>
-      <c r="D176" s="8"/>
-      <c r="E176" s="8"/>
-      <c r="F176" s="8"/>
+    <row r="176" spans="1:28" ht="39" thickBot="1">
+      <c r="A176" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="C176" s="17">
+        <v>43938</v>
+      </c>
+      <c r="D176" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E176" s="14" t="s">
+        <v>727</v>
+      </c>
+      <c r="F176" s="8" t="s">
+        <v>723</v>
+      </c>
       <c r="G176" s="8"/>
-      <c r="H176" s="8"/>
+      <c r="H176" s="8" t="s">
+        <v>724</v>
+      </c>
       <c r="I176" s="8"/>
-      <c r="J176" s="8"/>
+      <c r="J176" s="8" t="s">
+        <v>377</v>
+      </c>
       <c r="K176" s="8"/>
       <c r="L176" s="8"/>
       <c r="M176" s="8"/>
@@ -10958,17 +11026,31 @@
       <c r="AA176" s="6"/>
       <c r="AB176" s="6"/>
     </row>
-    <row r="177" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A177" s="8"/>
-      <c r="B177" s="8"/>
+    <row r="177" spans="1:28" ht="39" thickBot="1">
+      <c r="A177" s="8" t="s">
+        <v>728</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>729</v>
+      </c>
       <c r="C177" s="8"/>
-      <c r="D177" s="8"/>
-      <c r="E177" s="8"/>
-      <c r="F177" s="8"/>
+      <c r="D177" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E177" s="14" t="s">
+        <v>730</v>
+      </c>
+      <c r="F177" s="8" t="s">
+        <v>731</v>
+      </c>
       <c r="G177" s="8"/>
-      <c r="H177" s="8"/>
+      <c r="H177" s="8" t="s">
+        <v>724</v>
+      </c>
       <c r="I177" s="8"/>
-      <c r="J177" s="8"/>
+      <c r="J177" s="8" t="s">
+        <v>377</v>
+      </c>
       <c r="K177" s="8"/>
       <c r="L177" s="8"/>
       <c r="M177" s="8"/>
@@ -36617,9 +36699,12 @@
     <hyperlink ref="E172" r:id="rId155"/>
     <hyperlink ref="E173" r:id="rId156"/>
     <hyperlink ref="E174" r:id="rId157"/>
+    <hyperlink ref="E175" r:id="rId158"/>
+    <hyperlink ref="E176" r:id="rId159"/>
+    <hyperlink ref="E177" r:id="rId160"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId158"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId161"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/BIDMC/np_swab_results.xlsx
+++ b/BIDMC/np_swab_results.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="775">
   <si>
     <t>Date of test</t>
   </si>
@@ -2221,6 +2221,135 @@
   </si>
   <si>
     <t>nylong 12</t>
+  </si>
+  <si>
+    <t>Did not pass. Less sharp</t>
+  </si>
+  <si>
+    <t>pass. sharp</t>
+  </si>
+  <si>
+    <t>Did not pass. Sharp</t>
+  </si>
+  <si>
+    <t>did not test-powder material</t>
+  </si>
+  <si>
+    <t>did not test- residue</t>
+  </si>
+  <si>
+    <t>J_3_1</t>
+  </si>
+  <si>
+    <t>resin 'flock' tip</t>
+  </si>
+  <si>
+    <t>fail-I think, it doesn't bend back to shape, I thinj will have trouble getting to posterior NP. Smells Odd.</t>
+  </si>
+  <si>
+    <t>did not test- smells</t>
+  </si>
+  <si>
+    <t>C_V3_20v9.1</t>
+  </si>
+  <si>
+    <t>carbon swab with z-axis struts</t>
+  </si>
+  <si>
+    <t>pass. Tip seems softer, although other swabs may still be more comfortable</t>
+  </si>
+  <si>
+    <t>C_Hv5_35v9</t>
+  </si>
+  <si>
+    <t>carbon swab with sinusoidal center strut</t>
+  </si>
+  <si>
+    <t>pass. Softer, narrower tip, may still not be favorite but better imo</t>
+  </si>
+  <si>
+    <t>C_V3_15v1</t>
+  </si>
+  <si>
+    <t>carbon swab with short tip</t>
+  </si>
+  <si>
+    <t>pass. Seems [/more]similar to envision or the others &amp; the tip is softer</t>
+  </si>
+  <si>
+    <t>PCTW</t>
+  </si>
+  <si>
+    <t>puritan sterile cotton tipped applicator w/wood handle. ref 25-826 5WC</t>
+  </si>
+  <si>
+    <t>cotton and wood</t>
+  </si>
+  <si>
+    <t>PCT</t>
+  </si>
+  <si>
+    <t>puritan cotton swab with plastic handle. ref 25-806 1PC</t>
+  </si>
+  <si>
+    <t>cotton and plastic</t>
+  </si>
+  <si>
+    <t>FPR</t>
+  </si>
+  <si>
+    <t>fisher polyester-tipped applicators</t>
+  </si>
+  <si>
+    <t>polyester</t>
+  </si>
+  <si>
+    <t>3DS_NP4</t>
+  </si>
+  <si>
+    <t>resin print tip with tight hex mesh</t>
+  </si>
+  <si>
+    <t>resin</t>
+  </si>
+  <si>
+    <t>Patrick Dunne. Patrick.Dunne@3dsystems.com</t>
+  </si>
+  <si>
+    <t>3DS_NP3</t>
+  </si>
+  <si>
+    <t>3DS_NP2</t>
+  </si>
+  <si>
+    <t>resin print tip with tight helical mesh</t>
+  </si>
+  <si>
+    <t>3DS_NP1</t>
+  </si>
+  <si>
+    <t>resin print with tight mesh</t>
+  </si>
+  <si>
+    <t>J_3_2</t>
+  </si>
+  <si>
+    <t>did not test. residue</t>
+  </si>
+  <si>
+    <t>3DPT_LN</t>
+  </si>
+  <si>
+    <t>white swab with large nubbed tip</t>
+  </si>
+  <si>
+    <t>did not test. resiude</t>
+  </si>
+  <si>
+    <t>3DPT_SN</t>
+  </si>
+  <si>
+    <t>white swab with small nubbed tip</t>
   </si>
 </sst>
 </file>
@@ -2699,7 +2828,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2710,10 +2839,10 @@
   <dimension ref="A1:AB1026"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B174" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B186" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D185" sqref="D185"/>
+      <selection pane="bottomRight" activeCell="E190" sqref="E190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -10548,7 +10677,9 @@
         <v>695</v>
       </c>
       <c r="K166" s="8"/>
-      <c r="L166" s="8"/>
+      <c r="L166" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="M166" s="8"/>
       <c r="N166" s="8"/>
       <c r="O166" s="8"/>
@@ -10593,7 +10724,9 @@
       <c r="J167" s="8" t="s">
         <v>695</v>
       </c>
-      <c r="K167" s="8"/>
+      <c r="K167" s="8" t="s">
+        <v>732</v>
+      </c>
       <c r="L167" s="8"/>
       <c r="M167" s="8"/>
       <c r="N167" s="8"/>
@@ -10639,7 +10772,9 @@
       <c r="J168" s="8" t="s">
         <v>695</v>
       </c>
-      <c r="K168" s="8"/>
+      <c r="K168" s="8" t="s">
+        <v>733</v>
+      </c>
       <c r="L168" s="8"/>
       <c r="M168" s="8"/>
       <c r="N168" s="8"/>
@@ -10685,7 +10820,9 @@
       <c r="J169" s="8" t="s">
         <v>695</v>
       </c>
-      <c r="K169" s="8"/>
+      <c r="K169" s="8" t="s">
+        <v>734</v>
+      </c>
       <c r="L169" s="8"/>
       <c r="M169" s="8"/>
       <c r="N169" s="8"/>
@@ -10731,7 +10868,9 @@
       <c r="J170" s="8" t="s">
         <v>695</v>
       </c>
-      <c r="K170" s="8"/>
+      <c r="K170" s="8" t="s">
+        <v>733</v>
+      </c>
       <c r="L170" s="8"/>
       <c r="M170" s="8"/>
       <c r="N170" s="8"/>
@@ -10777,7 +10916,9 @@
       <c r="J171" s="8" t="s">
         <v>708</v>
       </c>
-      <c r="K171" s="8"/>
+      <c r="K171" s="8" t="s">
+        <v>735</v>
+      </c>
       <c r="L171" s="8"/>
       <c r="M171" s="8"/>
       <c r="N171" s="8"/>
@@ -10823,7 +10964,9 @@
       <c r="J172" s="8" t="s">
         <v>712</v>
       </c>
-      <c r="K172" s="8"/>
+      <c r="K172" s="8" t="s">
+        <v>735</v>
+      </c>
       <c r="L172" s="8"/>
       <c r="M172" s="8"/>
       <c r="N172" s="8"/>
@@ -10869,7 +11012,9 @@
       <c r="J173" s="8" t="s">
         <v>716</v>
       </c>
-      <c r="K173" s="8"/>
+      <c r="K173" s="8" t="s">
+        <v>735</v>
+      </c>
       <c r="L173" s="8"/>
       <c r="M173" s="8"/>
       <c r="N173" s="8"/>
@@ -10915,7 +11060,9 @@
       <c r="J174" s="8" t="s">
         <v>719</v>
       </c>
-      <c r="K174" s="8"/>
+      <c r="K174" s="8" t="s">
+        <v>735</v>
+      </c>
       <c r="L174" s="8"/>
       <c r="M174" s="8"/>
       <c r="N174" s="8"/>
@@ -10961,7 +11108,9 @@
       <c r="J175" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="K175" s="8"/>
+      <c r="K175" s="8" t="s">
+        <v>736</v>
+      </c>
       <c r="L175" s="8"/>
       <c r="M175" s="8"/>
       <c r="N175" s="8"/>
@@ -11007,7 +11156,9 @@
       <c r="J176" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="K176" s="8"/>
+      <c r="K176" s="8" t="s">
+        <v>736</v>
+      </c>
       <c r="L176" s="8"/>
       <c r="M176" s="8"/>
       <c r="N176" s="8"/>
@@ -11033,7 +11184,9 @@
       <c r="B177" s="8" t="s">
         <v>729</v>
       </c>
-      <c r="C177" s="8"/>
+      <c r="C177" s="17">
+        <v>43938</v>
+      </c>
       <c r="D177" s="8" t="s">
         <v>20</v>
       </c>
@@ -11051,7 +11204,9 @@
       <c r="J177" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="K177" s="8"/>
+      <c r="K177" s="8" t="s">
+        <v>736</v>
+      </c>
       <c r="L177" s="8"/>
       <c r="M177" s="8"/>
       <c r="N177" s="8"/>
@@ -11070,18 +11225,34 @@
       <c r="AA177" s="6"/>
       <c r="AB177" s="6"/>
     </row>
-    <row r="178" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A178" s="8"/>
-      <c r="B178" s="8"/>
-      <c r="C178" s="8"/>
-      <c r="D178" s="8"/>
+    <row r="178" spans="1:28" ht="51.75" thickBot="1">
+      <c r="A178" s="8" t="s">
+        <v>737</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="C178" s="17">
+        <v>43941</v>
+      </c>
+      <c r="D178" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E178" s="8"/>
-      <c r="F178" s="8"/>
+      <c r="F178" s="8" t="s">
+        <v>402</v>
+      </c>
       <c r="G178" s="8"/>
-      <c r="H178" s="8"/>
+      <c r="H178" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="I178" s="8"/>
-      <c r="J178" s="8"/>
-      <c r="K178" s="8"/>
+      <c r="J178" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="K178" s="8" t="s">
+        <v>740</v>
+      </c>
       <c r="L178" s="8"/>
       <c r="M178" s="8"/>
       <c r="N178" s="8"/>
@@ -11100,18 +11271,34 @@
       <c r="AA178" s="6"/>
       <c r="AB178" s="6"/>
     </row>
-    <row r="179" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A179" s="8"/>
-      <c r="B179" s="8"/>
-      <c r="C179" s="8"/>
-      <c r="D179" s="8"/>
+    <row r="179" spans="1:28" ht="64.5" thickBot="1">
+      <c r="A179" s="8" t="s">
+        <v>741</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>742</v>
+      </c>
+      <c r="C179" s="17">
+        <v>43941</v>
+      </c>
+      <c r="D179" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E179" s="8"/>
-      <c r="F179" s="8"/>
+      <c r="F179" s="8" t="s">
+        <v>301</v>
+      </c>
       <c r="G179" s="8"/>
-      <c r="H179" s="8"/>
+      <c r="H179" s="8" t="s">
+        <v>213</v>
+      </c>
       <c r="I179" s="8"/>
-      <c r="J179" s="8"/>
-      <c r="K179" s="8"/>
+      <c r="J179" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="K179" s="8" t="s">
+        <v>377</v>
+      </c>
       <c r="L179" s="8"/>
       <c r="M179" s="8"/>
       <c r="N179" s="8"/>
@@ -11130,18 +11317,34 @@
       <c r="AA179" s="6"/>
       <c r="AB179" s="6"/>
     </row>
-    <row r="180" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A180" s="8"/>
-      <c r="B180" s="8"/>
-      <c r="C180" s="8"/>
-      <c r="D180" s="8"/>
+    <row r="180" spans="1:28" ht="64.5" thickBot="1">
+      <c r="A180" s="8" t="s">
+        <v>744</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="C180" s="17">
+        <v>43941</v>
+      </c>
+      <c r="D180" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E180" s="8"/>
-      <c r="F180" s="8"/>
+      <c r="F180" s="8" t="s">
+        <v>301</v>
+      </c>
       <c r="G180" s="8"/>
-      <c r="H180" s="8"/>
+      <c r="H180" s="8" t="s">
+        <v>213</v>
+      </c>
       <c r="I180" s="8"/>
-      <c r="J180" s="8"/>
-      <c r="K180" s="8"/>
+      <c r="J180" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="K180" s="8" t="s">
+        <v>377</v>
+      </c>
       <c r="L180" s="8"/>
       <c r="M180" s="8"/>
       <c r="N180" s="8"/>
@@ -11160,18 +11363,34 @@
       <c r="AA180" s="6"/>
       <c r="AB180" s="6"/>
     </row>
-    <row r="181" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A181" s="8"/>
-      <c r="B181" s="8"/>
-      <c r="C181" s="8"/>
-      <c r="D181" s="8"/>
+    <row r="181" spans="1:28" ht="64.5" thickBot="1">
+      <c r="A181" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="C181" s="17">
+        <v>43941</v>
+      </c>
+      <c r="D181" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E181" s="8"/>
-      <c r="F181" s="8"/>
+      <c r="F181" s="8" t="s">
+        <v>301</v>
+      </c>
       <c r="G181" s="8"/>
-      <c r="H181" s="8"/>
+      <c r="H181" s="8" t="s">
+        <v>213</v>
+      </c>
       <c r="I181" s="8"/>
-      <c r="J181" s="8"/>
-      <c r="K181" s="8"/>
+      <c r="J181" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="K181" s="8" t="s">
+        <v>377</v>
+      </c>
       <c r="L181" s="8"/>
       <c r="M181" s="8"/>
       <c r="N181" s="8"/>
@@ -11190,19 +11409,31 @@
       <c r="AA181" s="6"/>
       <c r="AB181" s="6"/>
     </row>
-    <row r="182" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A182" s="8"/>
-      <c r="B182" s="8"/>
-      <c r="C182" s="8"/>
-      <c r="D182" s="8"/>
+    <row r="182" spans="1:28" ht="90" thickBot="1">
+      <c r="A182" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="C182" s="17">
+        <v>43941</v>
+      </c>
+      <c r="D182" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E182" s="8"/>
-      <c r="F182" s="8"/>
+      <c r="F182" s="8" t="s">
+        <v>752</v>
+      </c>
       <c r="G182" s="8"/>
       <c r="H182" s="8"/>
       <c r="I182" s="8"/>
       <c r="J182" s="8"/>
       <c r="K182" s="8"/>
-      <c r="L182" s="8"/>
+      <c r="L182" s="8" t="s">
+        <v>367</v>
+      </c>
       <c r="M182" s="8"/>
       <c r="N182" s="8"/>
       <c r="O182" s="8"/>
@@ -11220,19 +11451,31 @@
       <c r="AA182" s="6"/>
       <c r="AB182" s="6"/>
     </row>
-    <row r="183" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A183" s="8"/>
-      <c r="B183" s="8"/>
-      <c r="C183" s="8"/>
-      <c r="D183" s="8"/>
+    <row r="183" spans="1:28" ht="64.5" thickBot="1">
+      <c r="A183" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="C183" s="17">
+        <v>43941</v>
+      </c>
+      <c r="D183" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E183" s="8"/>
-      <c r="F183" s="8"/>
+      <c r="F183" s="8" t="s">
+        <v>755</v>
+      </c>
       <c r="G183" s="8"/>
       <c r="H183" s="8"/>
       <c r="I183" s="8"/>
       <c r="J183" s="8"/>
       <c r="K183" s="8"/>
-      <c r="L183" s="8"/>
+      <c r="L183" s="8" t="s">
+        <v>367</v>
+      </c>
       <c r="M183" s="8"/>
       <c r="N183" s="8"/>
       <c r="O183" s="8"/>
@@ -11250,19 +11493,31 @@
       <c r="AA183" s="6"/>
       <c r="AB183" s="6"/>
     </row>
-    <row r="184" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A184" s="8"/>
-      <c r="B184" s="8"/>
-      <c r="C184" s="8"/>
-      <c r="D184" s="8"/>
+    <row r="184" spans="1:28" ht="51.75" thickBot="1">
+      <c r="A184" s="8" t="s">
+        <v>756</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="C184" s="17">
+        <v>43941</v>
+      </c>
+      <c r="D184" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E184" s="8"/>
-      <c r="F184" s="8"/>
+      <c r="F184" s="8" t="s">
+        <v>758</v>
+      </c>
       <c r="G184" s="8"/>
       <c r="H184" s="8"/>
       <c r="I184" s="8"/>
       <c r="J184" s="8"/>
       <c r="K184" s="8"/>
-      <c r="L184" s="8"/>
+      <c r="L184" s="8" t="s">
+        <v>367</v>
+      </c>
       <c r="M184" s="8"/>
       <c r="N184" s="8"/>
       <c r="O184" s="8"/>
@@ -11280,18 +11535,32 @@
       <c r="AA184" s="6"/>
       <c r="AB184" s="6"/>
     </row>
-    <row r="185" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A185" s="8"/>
-      <c r="B185" s="8"/>
-      <c r="C185" s="8"/>
-      <c r="D185" s="8"/>
+    <row r="185" spans="1:28" ht="64.5" thickBot="1">
+      <c r="A185" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="C185" s="17">
+        <v>43942</v>
+      </c>
+      <c r="D185" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E185" s="8"/>
-      <c r="F185" s="8"/>
+      <c r="F185" s="8" t="s">
+        <v>761</v>
+      </c>
       <c r="G185" s="8"/>
-      <c r="H185" s="8"/>
+      <c r="H185" s="8" t="s">
+        <v>762</v>
+      </c>
       <c r="I185" s="8"/>
       <c r="J185" s="8"/>
-      <c r="K185" s="8"/>
+      <c r="K185" s="8" t="s">
+        <v>377</v>
+      </c>
       <c r="L185" s="8"/>
       <c r="M185" s="8"/>
       <c r="N185" s="8"/>
@@ -11310,18 +11579,32 @@
       <c r="AA185" s="6"/>
       <c r="AB185" s="6"/>
     </row>
-    <row r="186" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A186" s="8"/>
-      <c r="B186" s="8"/>
-      <c r="C186" s="8"/>
-      <c r="D186" s="8"/>
+    <row r="186" spans="1:28" ht="64.5" thickBot="1">
+      <c r="A186" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="C186" s="17">
+        <v>43942</v>
+      </c>
+      <c r="D186" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E186" s="8"/>
-      <c r="F186" s="8"/>
+      <c r="F186" s="8" t="s">
+        <v>761</v>
+      </c>
       <c r="G186" s="8"/>
-      <c r="H186" s="8"/>
+      <c r="H186" s="8" t="s">
+        <v>762</v>
+      </c>
       <c r="I186" s="8"/>
       <c r="J186" s="8"/>
-      <c r="K186" s="8"/>
+      <c r="K186" s="8" t="s">
+        <v>312</v>
+      </c>
       <c r="L186" s="8"/>
       <c r="M186" s="8"/>
       <c r="N186" s="8"/>
@@ -11340,18 +11623,32 @@
       <c r="AA186" s="6"/>
       <c r="AB186" s="6"/>
     </row>
-    <row r="187" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A187" s="8"/>
-      <c r="B187" s="8"/>
-      <c r="C187" s="8"/>
-      <c r="D187" s="8"/>
+    <row r="187" spans="1:28" ht="64.5" thickBot="1">
+      <c r="A187" s="8" t="s">
+        <v>764</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>765</v>
+      </c>
+      <c r="C187" s="17">
+        <v>43942</v>
+      </c>
+      <c r="D187" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E187" s="8"/>
-      <c r="F187" s="8"/>
+      <c r="F187" s="8" t="s">
+        <v>761</v>
+      </c>
       <c r="G187" s="8"/>
-      <c r="H187" s="8"/>
+      <c r="H187" s="8" t="s">
+        <v>762</v>
+      </c>
       <c r="I187" s="8"/>
       <c r="J187" s="8"/>
-      <c r="K187" s="8"/>
+      <c r="K187" s="8" t="s">
+        <v>377</v>
+      </c>
       <c r="L187" s="8"/>
       <c r="M187" s="8"/>
       <c r="N187" s="8"/>
@@ -11370,18 +11667,32 @@
       <c r="AA187" s="6"/>
       <c r="AB187" s="6"/>
     </row>
-    <row r="188" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A188" s="8"/>
-      <c r="B188" s="8"/>
-      <c r="C188" s="8"/>
-      <c r="D188" s="8"/>
+    <row r="188" spans="1:28" ht="64.5" thickBot="1">
+      <c r="A188" s="8" t="s">
+        <v>766</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="C188" s="17">
+        <v>43942</v>
+      </c>
+      <c r="D188" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E188" s="8"/>
-      <c r="F188" s="8"/>
+      <c r="F188" s="8" t="s">
+        <v>761</v>
+      </c>
       <c r="G188" s="8"/>
-      <c r="H188" s="8"/>
+      <c r="H188" s="8" t="s">
+        <v>762</v>
+      </c>
       <c r="I188" s="8"/>
       <c r="J188" s="8"/>
-      <c r="K188" s="8"/>
+      <c r="K188" s="8" t="s">
+        <v>377</v>
+      </c>
       <c r="L188" s="8"/>
       <c r="M188" s="8"/>
       <c r="N188" s="8"/>
@@ -11400,18 +11711,32 @@
       <c r="AA188" s="6"/>
       <c r="AB188" s="6"/>
     </row>
-    <row r="189" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A189" s="8"/>
-      <c r="B189" s="8"/>
-      <c r="C189" s="8"/>
-      <c r="D189" s="8"/>
+    <row r="189" spans="1:28" ht="39" thickBot="1">
+      <c r="A189" s="8" t="s">
+        <v>768</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>737</v>
+      </c>
+      <c r="C189" s="17">
+        <v>43942</v>
+      </c>
+      <c r="D189" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E189" s="8"/>
-      <c r="F189" s="8"/>
+      <c r="F189" s="8" t="s">
+        <v>402</v>
+      </c>
       <c r="G189" s="8"/>
-      <c r="H189" s="8"/>
+      <c r="H189" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="I189" s="8"/>
       <c r="J189" s="8"/>
-      <c r="K189" s="8"/>
+      <c r="K189" s="8" t="s">
+        <v>769</v>
+      </c>
       <c r="L189" s="8"/>
       <c r="M189" s="8"/>
       <c r="N189" s="8"/>
@@ -11430,18 +11755,32 @@
       <c r="AA189" s="6"/>
       <c r="AB189" s="6"/>
     </row>
-    <row r="190" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A190" s="8"/>
-      <c r="B190" s="8"/>
-      <c r="C190" s="8"/>
-      <c r="D190" s="8"/>
+    <row r="190" spans="1:28" ht="51.75" thickBot="1">
+      <c r="A190" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>771</v>
+      </c>
+      <c r="C190" s="17">
+        <v>43943</v>
+      </c>
+      <c r="D190" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E190" s="8"/>
-      <c r="F190" s="8"/>
+      <c r="F190" s="8" t="s">
+        <v>367</v>
+      </c>
       <c r="G190" s="8"/>
-      <c r="H190" s="8"/>
+      <c r="H190" s="8" t="s">
+        <v>694</v>
+      </c>
       <c r="I190" s="8"/>
       <c r="J190" s="8"/>
-      <c r="K190" s="8"/>
+      <c r="K190" s="8" t="s">
+        <v>772</v>
+      </c>
       <c r="L190" s="8"/>
       <c r="M190" s="8"/>
       <c r="N190" s="8"/>
@@ -11460,18 +11799,32 @@
       <c r="AA190" s="6"/>
       <c r="AB190" s="6"/>
     </row>
-    <row r="191" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A191" s="8"/>
-      <c r="B191" s="8"/>
-      <c r="C191" s="8"/>
-      <c r="D191" s="8"/>
+    <row r="191" spans="1:28" ht="51.75" thickBot="1">
+      <c r="A191" s="8" t="s">
+        <v>773</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>774</v>
+      </c>
+      <c r="C191" s="17">
+        <v>43943</v>
+      </c>
+      <c r="D191" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E191" s="8"/>
-      <c r="F191" s="8"/>
+      <c r="F191" s="8" t="s">
+        <v>367</v>
+      </c>
       <c r="G191" s="8"/>
-      <c r="H191" s="8"/>
+      <c r="H191" s="8" t="s">
+        <v>694</v>
+      </c>
       <c r="I191" s="8"/>
       <c r="J191" s="8"/>
-      <c r="K191" s="8"/>
+      <c r="K191" s="8" t="s">
+        <v>769</v>
+      </c>
       <c r="L191" s="8"/>
       <c r="M191" s="8"/>
       <c r="N191" s="8"/>

--- a/BIDMC/np_swab_results.xlsx
+++ b/BIDMC/np_swab_results.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="794">
   <si>
     <t>Date of test</t>
   </si>
@@ -2350,13 +2350,70 @@
   </si>
   <si>
     <t>white swab with small nubbed tip</t>
+  </si>
+  <si>
+    <t>post autoclave: Nothing wrong post autoclave.</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/OPT_industries/J_3_1.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Carbon/C_v3_20V91.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Carbon/C_Hv5_35v9.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Carbon/C_v3_15v1.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Puritan/PCTW.jpg</t>
+  </si>
+  <si>
+    <t>AN-pass</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Puritan/PCT.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Fisher/FPR.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/3D Systems/3DS_NP2.jpg</t>
+  </si>
+  <si>
+    <t>Fail--tip too large. Brittle</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/3D Systems/3DS_NP3.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/3D Systems/3DS_NP1.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/OPT_industries/J_3_2.jpg</t>
+  </si>
+  <si>
+    <t>fail. Will crumble in anterior nares.</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/3DPrintingtech/3DPT_LN.jpg</t>
+  </si>
+  <si>
+    <t>body is nice. Tip is too sharp and rigid</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/3DPrintingtech/3DPT_SN.jpg</t>
+  </si>
+  <si>
+    <t>Fail. TIp is too sharp and rigid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2411,6 +2468,11 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2471,7 +2533,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2520,6 +2582,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2828,7 +2893,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2842,7 +2907,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B186" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E190" sqref="E190"/>
+      <selection pane="bottomRight" activeCell="B188" sqref="B188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -11081,7 +11146,7 @@
       <c r="AA174" s="6"/>
       <c r="AB174" s="6"/>
     </row>
-    <row r="175" spans="1:28" ht="39" thickBot="1">
+    <row r="175" spans="1:28" ht="64.5" thickBot="1">
       <c r="A175" s="8" t="s">
         <v>720</v>
       </c>
@@ -11113,7 +11178,9 @@
       </c>
       <c r="L175" s="8"/>
       <c r="M175" s="8"/>
-      <c r="N175" s="8"/>
+      <c r="N175" s="8" t="s">
+        <v>775</v>
+      </c>
       <c r="O175" s="8"/>
       <c r="P175" s="6"/>
       <c r="Q175" s="6"/>
@@ -11238,7 +11305,9 @@
       <c r="D178" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E178" s="8"/>
+      <c r="E178" s="14" t="s">
+        <v>776</v>
+      </c>
       <c r="F178" s="8" t="s">
         <v>402</v>
       </c>
@@ -11284,7 +11353,9 @@
       <c r="D179" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E179" s="8"/>
+      <c r="E179" s="14" t="s">
+        <v>777</v>
+      </c>
       <c r="F179" s="8" t="s">
         <v>301</v>
       </c>
@@ -11330,7 +11401,9 @@
       <c r="D180" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E180" s="8"/>
+      <c r="E180" s="14" t="s">
+        <v>778</v>
+      </c>
       <c r="F180" s="8" t="s">
         <v>301</v>
       </c>
@@ -11376,7 +11449,9 @@
       <c r="D181" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E181" s="8"/>
+      <c r="E181" s="14" t="s">
+        <v>779</v>
+      </c>
       <c r="F181" s="8" t="s">
         <v>301</v>
       </c>
@@ -11422,14 +11497,18 @@
       <c r="D182" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E182" s="8"/>
+      <c r="E182" s="14" t="s">
+        <v>780</v>
+      </c>
       <c r="F182" s="8" t="s">
         <v>752</v>
       </c>
       <c r="G182" s="8"/>
       <c r="H182" s="8"/>
       <c r="I182" s="8"/>
-      <c r="J182" s="8"/>
+      <c r="J182" s="8" t="s">
+        <v>781</v>
+      </c>
       <c r="K182" s="8"/>
       <c r="L182" s="8" t="s">
         <v>367</v>
@@ -11464,14 +11543,18 @@
       <c r="D183" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E183" s="8"/>
+      <c r="E183" s="14" t="s">
+        <v>782</v>
+      </c>
       <c r="F183" s="8" t="s">
         <v>755</v>
       </c>
       <c r="G183" s="8"/>
       <c r="H183" s="8"/>
       <c r="I183" s="8"/>
-      <c r="J183" s="8"/>
+      <c r="J183" s="8" t="s">
+        <v>781</v>
+      </c>
       <c r="K183" s="8"/>
       <c r="L183" s="8" t="s">
         <v>367</v>
@@ -11506,14 +11589,18 @@
       <c r="D184" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E184" s="8"/>
+      <c r="E184" s="14" t="s">
+        <v>783</v>
+      </c>
       <c r="F184" s="8" t="s">
         <v>758</v>
       </c>
       <c r="G184" s="8"/>
       <c r="H184" s="8"/>
       <c r="I184" s="8"/>
-      <c r="J184" s="8"/>
+      <c r="J184" s="8" t="s">
+        <v>781</v>
+      </c>
       <c r="K184" s="8"/>
       <c r="L184" s="8" t="s">
         <v>367</v>
@@ -11548,7 +11635,9 @@
       <c r="D185" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E185" s="8"/>
+      <c r="E185" s="20" t="s">
+        <v>784</v>
+      </c>
       <c r="F185" s="8" t="s">
         <v>761</v>
       </c>
@@ -11557,7 +11646,9 @@
         <v>762</v>
       </c>
       <c r="I185" s="8"/>
-      <c r="J185" s="8"/>
+      <c r="J185" s="8" t="s">
+        <v>785</v>
+      </c>
       <c r="K185" s="8" t="s">
         <v>377</v>
       </c>
@@ -11592,7 +11683,9 @@
       <c r="D186" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E186" s="8"/>
+      <c r="E186" s="20" t="s">
+        <v>786</v>
+      </c>
       <c r="F186" s="8" t="s">
         <v>761</v>
       </c>
@@ -11601,7 +11694,9 @@
         <v>762</v>
       </c>
       <c r="I186" s="8"/>
-      <c r="J186" s="8"/>
+      <c r="J186" s="8" t="s">
+        <v>785</v>
+      </c>
       <c r="K186" s="8" t="s">
         <v>312</v>
       </c>
@@ -11636,7 +11731,9 @@
       <c r="D187" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E187" s="8"/>
+      <c r="E187" s="20" t="s">
+        <v>784</v>
+      </c>
       <c r="F187" s="8" t="s">
         <v>761</v>
       </c>
@@ -11645,7 +11742,9 @@
         <v>762</v>
       </c>
       <c r="I187" s="8"/>
-      <c r="J187" s="8"/>
+      <c r="J187" s="8" t="s">
+        <v>785</v>
+      </c>
       <c r="K187" s="8" t="s">
         <v>377</v>
       </c>
@@ -11680,7 +11779,9 @@
       <c r="D188" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E188" s="8"/>
+      <c r="E188" s="20" t="s">
+        <v>787</v>
+      </c>
       <c r="F188" s="8" t="s">
         <v>761</v>
       </c>
@@ -11689,7 +11790,9 @@
         <v>762</v>
       </c>
       <c r="I188" s="8"/>
-      <c r="J188" s="8"/>
+      <c r="J188" s="8" t="s">
+        <v>785</v>
+      </c>
       <c r="K188" s="8" t="s">
         <v>377</v>
       </c>
@@ -11711,7 +11814,7 @@
       <c r="AA188" s="6"/>
       <c r="AB188" s="6"/>
     </row>
-    <row r="189" spans="1:28" ht="39" thickBot="1">
+    <row r="189" spans="1:28" ht="48" thickBot="1">
       <c r="A189" s="8" t="s">
         <v>768</v>
       </c>
@@ -11724,7 +11827,9 @@
       <c r="D189" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E189" s="8"/>
+      <c r="E189" s="14" t="s">
+        <v>788</v>
+      </c>
       <c r="F189" s="8" t="s">
         <v>402</v>
       </c>
@@ -11733,7 +11838,9 @@
         <v>37</v>
       </c>
       <c r="I189" s="8"/>
-      <c r="J189" s="8"/>
+      <c r="J189" s="8" t="s">
+        <v>789</v>
+      </c>
       <c r="K189" s="8" t="s">
         <v>769</v>
       </c>
@@ -11768,7 +11875,9 @@
       <c r="D190" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E190" s="8"/>
+      <c r="E190" s="14" t="s">
+        <v>790</v>
+      </c>
       <c r="F190" s="8" t="s">
         <v>367</v>
       </c>
@@ -11777,7 +11886,9 @@
         <v>694</v>
       </c>
       <c r="I190" s="8"/>
-      <c r="J190" s="8"/>
+      <c r="J190" s="8" t="s">
+        <v>791</v>
+      </c>
       <c r="K190" s="8" t="s">
         <v>772</v>
       </c>
@@ -11812,7 +11923,9 @@
       <c r="D191" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E191" s="8"/>
+      <c r="E191" s="14" t="s">
+        <v>792</v>
+      </c>
       <c r="F191" s="8" t="s">
         <v>367</v>
       </c>
@@ -11821,7 +11934,9 @@
         <v>694</v>
       </c>
       <c r="I191" s="8"/>
-      <c r="J191" s="8"/>
+      <c r="J191" s="8" t="s">
+        <v>793</v>
+      </c>
       <c r="K191" s="8" t="s">
         <v>769</v>
       </c>
@@ -37055,9 +37170,19 @@
     <hyperlink ref="E175" r:id="rId158"/>
     <hyperlink ref="E176" r:id="rId159"/>
     <hyperlink ref="E177" r:id="rId160"/>
+    <hyperlink ref="E178" r:id="rId161"/>
+    <hyperlink ref="E179" r:id="rId162"/>
+    <hyperlink ref="E180" r:id="rId163"/>
+    <hyperlink ref="E181" r:id="rId164"/>
+    <hyperlink ref="E182" r:id="rId165"/>
+    <hyperlink ref="E183" r:id="rId166"/>
+    <hyperlink ref="E184" r:id="rId167"/>
+    <hyperlink ref="E189" r:id="rId168"/>
+    <hyperlink ref="E190" r:id="rId169"/>
+    <hyperlink ref="E191" r:id="rId170"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId161"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId171"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/BIDMC/np_swab_results.xlsx
+++ b/BIDMC/np_swab_results.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="24240" windowHeight="13740"/>
@@ -10,19 +10,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="816">
   <si>
     <t>Date of test</t>
   </si>
@@ -2407,6 +2399,72 @@
   </si>
   <si>
     <t>Fail. TIp is too sharp and rigid</t>
+  </si>
+  <si>
+    <t>J_3_1 with coating</t>
+  </si>
+  <si>
+    <t>J_3_3</t>
+  </si>
+  <si>
+    <t>swab with modified bulb</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/OPT_industries/J_3_3.jpg</t>
+  </si>
+  <si>
+    <t>fail--too flexible and smells weird</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>3DS_NP2_1</t>
+  </si>
+  <si>
+    <t>swab with helical tip, central strut, and rounded tip</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/3D Systems/3DS_NP2_1.jpg</t>
+  </si>
+  <si>
+    <t>Flx-20-CLR</t>
+  </si>
+  <si>
+    <t>pass if tip diameter is smaller</t>
+  </si>
+  <si>
+    <t>3DS_1.5</t>
+  </si>
+  <si>
+    <t>swab tips with a tight helical structure, with rounded tip</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/3D Systems/3DS_1.5.jpg</t>
+  </si>
+  <si>
+    <t>3DS_1.9</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/3D Systems/3DS_1.9.jpg</t>
+  </si>
+  <si>
+    <t>3DS_1.7</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/3D Systems/3DS_1.7.jpg</t>
+  </si>
+  <si>
+    <t>3DS_MH1_CLR</t>
+  </si>
+  <si>
+    <t>cylider for material testing</t>
+  </si>
+  <si>
+    <t>MHI-CLR</t>
+  </si>
+  <si>
+    <t>pending</t>
   </si>
 </sst>
 </file>
@@ -2593,14 +2651,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2893,7 +2943,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2904,10 +2954,10 @@
   <dimension ref="A1:AB1026"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B186" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B195" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B188" sqref="B188"/>
+      <selection pane="bottomRight" sqref="A1:AB948"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -11819,7 +11869,7 @@
         <v>768</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>737</v>
+        <v>794</v>
       </c>
       <c r="C189" s="17">
         <v>43942</v>
@@ -11958,18 +12008,36 @@
       <c r="AA191" s="6"/>
       <c r="AB191" s="6"/>
     </row>
-    <row r="192" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A192" s="8"/>
-      <c r="B192" s="8"/>
-      <c r="C192" s="8"/>
-      <c r="D192" s="8"/>
-      <c r="E192" s="8"/>
-      <c r="F192" s="8"/>
+    <row r="192" spans="1:28" ht="48" thickBot="1">
+      <c r="A192" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>796</v>
+      </c>
+      <c r="C192" s="17">
+        <v>43944</v>
+      </c>
+      <c r="D192" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E192" s="14" t="s">
+        <v>797</v>
+      </c>
+      <c r="F192" s="8" t="s">
+        <v>402</v>
+      </c>
       <c r="G192" s="8"/>
-      <c r="H192" s="8"/>
+      <c r="H192" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="I192" s="8"/>
-      <c r="J192" s="8"/>
-      <c r="K192" s="8"/>
+      <c r="J192" s="8" t="s">
+        <v>798</v>
+      </c>
+      <c r="K192" s="8" t="s">
+        <v>799</v>
+      </c>
       <c r="L192" s="8"/>
       <c r="M192" s="8"/>
       <c r="N192" s="8"/>
@@ -11988,17 +12056,33 @@
       <c r="AA192" s="6"/>
       <c r="AB192" s="6"/>
     </row>
-    <row r="193" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A193" s="8"/>
-      <c r="B193" s="8"/>
-      <c r="C193" s="8"/>
-      <c r="D193" s="8"/>
-      <c r="E193" s="8"/>
-      <c r="F193" s="8"/>
+    <row r="193" spans="1:28" ht="64.5" thickBot="1">
+      <c r="A193" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>801</v>
+      </c>
+      <c r="C193" s="17">
+        <v>43944</v>
+      </c>
+      <c r="D193" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E193" s="20" t="s">
+        <v>802</v>
+      </c>
+      <c r="F193" s="8" t="s">
+        <v>803</v>
+      </c>
       <c r="G193" s="8"/>
-      <c r="H193" s="8"/>
+      <c r="H193" s="8" t="s">
+        <v>762</v>
+      </c>
       <c r="I193" s="8"/>
-      <c r="J193" s="8"/>
+      <c r="J193" s="8" t="s">
+        <v>804</v>
+      </c>
       <c r="K193" s="8"/>
       <c r="L193" s="8"/>
       <c r="M193" s="8"/>
@@ -12018,17 +12102,33 @@
       <c r="AA193" s="6"/>
       <c r="AB193" s="6"/>
     </row>
-    <row r="194" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A194" s="8"/>
-      <c r="B194" s="8"/>
-      <c r="C194" s="8"/>
-      <c r="D194" s="8"/>
-      <c r="E194" s="8"/>
-      <c r="F194" s="8"/>
+    <row r="194" spans="1:28" ht="77.25" thickBot="1">
+      <c r="A194" s="8" t="s">
+        <v>805</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>806</v>
+      </c>
+      <c r="C194" s="17">
+        <v>43944</v>
+      </c>
+      <c r="D194" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E194" s="20" t="s">
+        <v>807</v>
+      </c>
+      <c r="F194" s="8" t="s">
+        <v>803</v>
+      </c>
       <c r="G194" s="8"/>
-      <c r="H194" s="8"/>
+      <c r="H194" s="8" t="s">
+        <v>762</v>
+      </c>
       <c r="I194" s="8"/>
-      <c r="J194" s="8"/>
+      <c r="J194" s="8" t="s">
+        <v>804</v>
+      </c>
       <c r="K194" s="8"/>
       <c r="L194" s="8"/>
       <c r="M194" s="8"/>
@@ -12048,17 +12148,33 @@
       <c r="AA194" s="6"/>
       <c r="AB194" s="6"/>
     </row>
-    <row r="195" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A195" s="8"/>
-      <c r="B195" s="8"/>
-      <c r="C195" s="8"/>
-      <c r="D195" s="8"/>
-      <c r="E195" s="8"/>
-      <c r="F195" s="8"/>
+    <row r="195" spans="1:28" ht="77.25" thickBot="1">
+      <c r="A195" s="8" t="s">
+        <v>808</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>806</v>
+      </c>
+      <c r="C195" s="17">
+        <v>43944</v>
+      </c>
+      <c r="D195" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E195" s="20" t="s">
+        <v>809</v>
+      </c>
+      <c r="F195" s="8" t="s">
+        <v>803</v>
+      </c>
       <c r="G195" s="8"/>
-      <c r="H195" s="8"/>
+      <c r="H195" s="8" t="s">
+        <v>762</v>
+      </c>
       <c r="I195" s="8"/>
-      <c r="J195" s="8"/>
+      <c r="J195" s="8" t="s">
+        <v>804</v>
+      </c>
       <c r="K195" s="8"/>
       <c r="L195" s="8"/>
       <c r="M195" s="8"/>
@@ -12078,17 +12194,33 @@
       <c r="AA195" s="6"/>
       <c r="AB195" s="6"/>
     </row>
-    <row r="196" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A196" s="8"/>
-      <c r="B196" s="8"/>
-      <c r="C196" s="8"/>
-      <c r="D196" s="8"/>
-      <c r="E196" s="8"/>
-      <c r="F196" s="8"/>
+    <row r="196" spans="1:28" ht="77.25" thickBot="1">
+      <c r="A196" s="8" t="s">
+        <v>810</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>806</v>
+      </c>
+      <c r="C196" s="17">
+        <v>43944</v>
+      </c>
+      <c r="D196" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E196" s="8" t="s">
+        <v>811</v>
+      </c>
+      <c r="F196" s="8" t="s">
+        <v>803</v>
+      </c>
       <c r="G196" s="8"/>
-      <c r="H196" s="8"/>
+      <c r="H196" s="8" t="s">
+        <v>762</v>
+      </c>
       <c r="I196" s="8"/>
-      <c r="J196" s="8"/>
+      <c r="J196" s="8" t="s">
+        <v>804</v>
+      </c>
       <c r="K196" s="8"/>
       <c r="L196" s="8"/>
       <c r="M196" s="8"/>
@@ -12108,19 +12240,33 @@
       <c r="AA196" s="6"/>
       <c r="AB196" s="6"/>
     </row>
-    <row r="197" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A197" s="8"/>
-      <c r="B197" s="8"/>
-      <c r="C197" s="8"/>
-      <c r="D197" s="8"/>
+    <row r="197" spans="1:28" ht="64.5" thickBot="1">
+      <c r="A197" s="8" t="s">
+        <v>812</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>813</v>
+      </c>
+      <c r="C197" s="17">
+        <v>43945</v>
+      </c>
+      <c r="D197" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E197" s="8"/>
-      <c r="F197" s="8"/>
+      <c r="F197" s="8" t="s">
+        <v>814</v>
+      </c>
       <c r="G197" s="8"/>
-      <c r="H197" s="8"/>
+      <c r="H197" s="8" t="s">
+        <v>762</v>
+      </c>
       <c r="I197" s="8"/>
       <c r="J197" s="8"/>
       <c r="K197" s="8"/>
-      <c r="L197" s="8"/>
+      <c r="L197" s="8" t="s">
+        <v>815</v>
+      </c>
       <c r="M197" s="8"/>
       <c r="N197" s="8"/>
       <c r="O197" s="8"/>
@@ -37180,13 +37326,9 @@
     <hyperlink ref="E189" r:id="rId168"/>
     <hyperlink ref="E190" r:id="rId169"/>
     <hyperlink ref="E191" r:id="rId170"/>
+    <hyperlink ref="E192" r:id="rId171"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId171"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId172"/>
 </worksheet>
 </file>
--- a/BIDMC/np_swab_results.xlsx
+++ b/BIDMC/np_swab_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="818">
   <si>
     <t>Date of test</t>
   </si>
@@ -2465,6 +2465,12 @@
   </si>
   <si>
     <t>pending</t>
+  </si>
+  <si>
+    <t>C_HV5V9</t>
+  </si>
+  <si>
+    <t>pass- a little "cheesegrater"</t>
   </si>
 </sst>
 </file>
@@ -2591,7 +2597,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2642,6 +2648,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2943,7 +2952,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2954,10 +2963,10 @@
   <dimension ref="A1:AB1026"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B195" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B192" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:AB948"/>
+      <selection pane="bottomRight" activeCell="E199" sqref="E199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -12284,17 +12293,31 @@
       <c r="AA197" s="6"/>
       <c r="AB197" s="6"/>
     </row>
-    <row r="198" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A198" s="8"/>
-      <c r="B198" s="8"/>
-      <c r="C198" s="8"/>
-      <c r="D198" s="8"/>
+    <row r="198" spans="1:28" ht="64.5" thickBot="1">
+      <c r="A198" s="8" t="s">
+        <v>816</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="C198" s="21">
+        <v>43948</v>
+      </c>
+      <c r="D198" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E198" s="8"/>
-      <c r="F198" s="8"/>
+      <c r="F198" s="8" t="s">
+        <v>301</v>
+      </c>
       <c r="G198" s="8"/>
-      <c r="H198" s="8"/>
+      <c r="H198" s="8" t="s">
+        <v>213</v>
+      </c>
       <c r="I198" s="8"/>
-      <c r="J198" s="8"/>
+      <c r="J198" s="8" t="s">
+        <v>817</v>
+      </c>
       <c r="K198" s="8"/>
       <c r="L198" s="8"/>
       <c r="M198" s="8"/>

--- a/BIDMC/np_swab_results.xlsx
+++ b/BIDMC/np_swab_results.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="823">
   <si>
     <t>Date of test</t>
   </si>
@@ -2471,6 +2471,21 @@
   </si>
   <si>
     <t>pass- a little "cheesegrater"</t>
+  </si>
+  <si>
+    <t>3DS_SLS_N</t>
+  </si>
+  <si>
+    <t>nylon swab with grooved tip</t>
+  </si>
+  <si>
+    <t>nylon-12</t>
+  </si>
+  <si>
+    <t>Evan.Kuester@3dsystems.com,Zachary.Wilczynski@3DSystems.Com</t>
+  </si>
+  <si>
+    <t>pass--head is too large, but otherwise good</t>
   </si>
 </sst>
 </file>
@@ -2952,7 +2967,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2963,10 +2978,10 @@
   <dimension ref="A1:AB1026"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B192" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K198" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E199" sqref="E199"/>
+      <selection pane="bottomRight" activeCell="C206" sqref="C206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -12318,7 +12333,9 @@
       <c r="J198" s="8" t="s">
         <v>817</v>
       </c>
-      <c r="K198" s="8"/>
+      <c r="K198" s="8" t="s">
+        <v>377</v>
+      </c>
       <c r="L198" s="8"/>
       <c r="M198" s="8"/>
       <c r="N198" s="8"/>
@@ -12337,19 +12354,37 @@
       <c r="AA198" s="6"/>
       <c r="AB198" s="6"/>
     </row>
-    <row r="199" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A199" s="8"/>
-      <c r="B199" s="8"/>
-      <c r="C199" s="8"/>
-      <c r="D199" s="8"/>
+    <row r="199" spans="1:28" ht="39" thickBot="1">
+      <c r="A199" s="8" t="s">
+        <v>818</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>819</v>
+      </c>
+      <c r="C199" s="17">
+        <v>43949</v>
+      </c>
+      <c r="D199" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E199" s="8"/>
-      <c r="F199" s="8"/>
+      <c r="F199" s="8" t="s">
+        <v>820</v>
+      </c>
       <c r="G199" s="8"/>
-      <c r="H199" s="8"/>
+      <c r="H199" s="12" t="s">
+        <v>821</v>
+      </c>
       <c r="I199" s="8"/>
-      <c r="J199" s="8"/>
-      <c r="K199" s="8"/>
-      <c r="L199" s="8"/>
+      <c r="J199" s="8" t="s">
+        <v>822</v>
+      </c>
+      <c r="K199" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="L199" s="8" t="s">
+        <v>815</v>
+      </c>
       <c r="M199" s="8"/>
       <c r="N199" s="8"/>
       <c r="O199" s="8"/>

--- a/BIDMC/np_swab_results.xlsx
+++ b/BIDMC/np_swab_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="826">
   <si>
     <t>Date of test</t>
   </si>
@@ -2486,6 +2486,15 @@
   </si>
   <si>
     <t>pass--head is too large, but otherwise good</t>
+  </si>
+  <si>
+    <t>J_3_4</t>
+  </si>
+  <si>
+    <t>swab with stiffer neck &amp; bulb</t>
+  </si>
+  <si>
+    <t>fail - still somewhat tacky to touch and unpleasant odor, but body design/neck strength appropriate, would try to make breakpoint more brittle</t>
   </si>
 </sst>
 </file>
@@ -2967,7 +2976,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2978,10 +2987,10 @@
   <dimension ref="A1:AB1026"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K198" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B198" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C206" sqref="C206"/>
+      <selection pane="bottomRight" activeCell="E204" sqref="E204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -12402,17 +12411,29 @@
       <c r="AA199" s="6"/>
       <c r="AB199" s="6"/>
     </row>
-    <row r="200" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A200" s="8"/>
-      <c r="B200" s="8"/>
-      <c r="C200" s="8"/>
-      <c r="D200" s="8"/>
+    <row r="200" spans="1:28" ht="90" thickBot="1">
+      <c r="A200" s="8" t="s">
+        <v>823</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>824</v>
+      </c>
+      <c r="C200" s="17">
+        <v>43950</v>
+      </c>
+      <c r="D200" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E200" s="8"/>
       <c r="F200" s="8"/>
       <c r="G200" s="8"/>
-      <c r="H200" s="8"/>
+      <c r="H200" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="I200" s="8"/>
-      <c r="J200" s="8"/>
+      <c r="J200" s="8" t="s">
+        <v>825</v>
+      </c>
       <c r="K200" s="8"/>
       <c r="L200" s="8"/>
       <c r="M200" s="8"/>

--- a/BIDMC/np_swab_results.xlsx
+++ b/BIDMC/np_swab_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="834">
   <si>
     <t>Date of test</t>
   </si>
@@ -2464,9 +2464,6 @@
     <t>MHI-CLR</t>
   </si>
   <si>
-    <t>pending</t>
-  </si>
-  <si>
     <t>C_HV5V9</t>
   </si>
   <si>
@@ -2495,6 +2492,33 @@
   </si>
   <si>
     <t>fail - still somewhat tacky to touch and unpleasant odor, but body design/neck strength appropriate, would try to make breakpoint more brittle</t>
+  </si>
+  <si>
+    <t>3DS_SG/MED-AMB</t>
+  </si>
+  <si>
+    <t>cylinder for material testing</t>
+  </si>
+  <si>
+    <t>SG/MED-AMB</t>
+  </si>
+  <si>
+    <t>*Need to run</t>
+  </si>
+  <si>
+    <t>3DS_NP2_FLX-20-CLR</t>
+  </si>
+  <si>
+    <t>pass - neck may still be a little to flexible, but otherwise good</t>
+  </si>
+  <si>
+    <t>(pass presumably same material as 187 &amp; 197)</t>
+  </si>
+  <si>
+    <t>3DS_NP2_MH1-CLR</t>
+  </si>
+  <si>
+    <t>fail - neck is too flexible, would likely not be able to reach posterior NP &amp; fold in anterior nares</t>
   </si>
 </sst>
 </file>
@@ -2976,7 +3000,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2990,7 +3014,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B198" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E204" sqref="E204"/>
+      <selection pane="bottomRight" activeCell="D201" sqref="D201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -12298,7 +12322,7 @@
       <c r="J197" s="8"/>
       <c r="K197" s="8"/>
       <c r="L197" s="8" t="s">
-        <v>815</v>
+        <v>377</v>
       </c>
       <c r="M197" s="8"/>
       <c r="N197" s="8"/>
@@ -12319,33 +12343,31 @@
     </row>
     <row r="198" spans="1:28" ht="64.5" thickBot="1">
       <c r="A198" s="8" t="s">
-        <v>816</v>
+        <v>825</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>745</v>
-      </c>
-      <c r="C198" s="21">
-        <v>43948</v>
+        <v>826</v>
+      </c>
+      <c r="C198" s="17">
+        <v>43945</v>
       </c>
       <c r="D198" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E198" s="8"/>
       <c r="F198" s="8" t="s">
-        <v>301</v>
+        <v>827</v>
       </c>
       <c r="G198" s="8"/>
       <c r="H198" s="8" t="s">
-        <v>213</v>
+        <v>762</v>
       </c>
       <c r="I198" s="8"/>
-      <c r="J198" s="8" t="s">
-        <v>817</v>
-      </c>
-      <c r="K198" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="L198" s="8"/>
+      <c r="J198" s="8"/>
+      <c r="K198" s="8"/>
+      <c r="L198" s="8" t="s">
+        <v>828</v>
+      </c>
       <c r="M198" s="8"/>
       <c r="N198" s="8"/>
       <c r="O198" s="8"/>
@@ -12363,37 +12385,35 @@
       <c r="AA198" s="6"/>
       <c r="AB198" s="6"/>
     </row>
-    <row r="199" spans="1:28" ht="39" thickBot="1">
+    <row r="199" spans="1:28" ht="64.5" thickBot="1">
       <c r="A199" s="8" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>819</v>
-      </c>
-      <c r="C199" s="17">
-        <v>43949</v>
+        <v>745</v>
+      </c>
+      <c r="C199" s="21">
+        <v>43948</v>
       </c>
       <c r="D199" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E199" s="8"/>
       <c r="F199" s="8" t="s">
-        <v>820</v>
+        <v>301</v>
       </c>
       <c r="G199" s="8"/>
-      <c r="H199" s="12" t="s">
-        <v>821</v>
+      <c r="H199" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="I199" s="8"/>
       <c r="J199" s="8" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="K199" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="L199" s="8" t="s">
-        <v>815</v>
-      </c>
+      <c r="L199" s="8"/>
       <c r="M199" s="8"/>
       <c r="N199" s="8"/>
       <c r="O199" s="8"/>
@@ -12411,31 +12431,37 @@
       <c r="AA199" s="6"/>
       <c r="AB199" s="6"/>
     </row>
-    <row r="200" spans="1:28" ht="90" thickBot="1">
+    <row r="200" spans="1:28" ht="39" thickBot="1">
       <c r="A200" s="8" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="C200" s="17">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="D200" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E200" s="8"/>
-      <c r="F200" s="8"/>
+      <c r="F200" s="8" t="s">
+        <v>819</v>
+      </c>
       <c r="G200" s="8"/>
-      <c r="H200" s="6" t="s">
-        <v>37</v>
+      <c r="H200" s="12" t="s">
+        <v>820</v>
       </c>
       <c r="I200" s="8"/>
       <c r="J200" s="8" t="s">
-        <v>825</v>
-      </c>
-      <c r="K200" s="8"/>
-      <c r="L200" s="8"/>
+        <v>821</v>
+      </c>
+      <c r="K200" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="L200" s="8" t="s">
+        <v>377</v>
+      </c>
       <c r="M200" s="8"/>
       <c r="N200" s="8"/>
       <c r="O200" s="8"/>
@@ -12453,18 +12479,32 @@
       <c r="AA200" s="6"/>
       <c r="AB200" s="6"/>
     </row>
-    <row r="201" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A201" s="8"/>
-      <c r="B201" s="8"/>
-      <c r="C201" s="8"/>
-      <c r="D201" s="8"/>
+    <row r="201" spans="1:28" ht="90" thickBot="1">
+      <c r="A201" s="8" t="s">
+        <v>822</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>823</v>
+      </c>
+      <c r="C201" s="17">
+        <v>43950</v>
+      </c>
+      <c r="D201" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E201" s="8"/>
       <c r="F201" s="8"/>
       <c r="G201" s="8"/>
-      <c r="H201" s="8"/>
+      <c r="H201" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="I201" s="8"/>
-      <c r="J201" s="8"/>
-      <c r="K201" s="8"/>
+      <c r="J201" s="8" t="s">
+        <v>824</v>
+      </c>
+      <c r="K201" s="8" t="s">
+        <v>377</v>
+      </c>
       <c r="L201" s="8"/>
       <c r="M201" s="8"/>
       <c r="N201" s="8"/>
@@ -12483,19 +12523,33 @@
       <c r="AA201" s="6"/>
       <c r="AB201" s="6"/>
     </row>
-    <row r="202" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A202" s="8"/>
+    <row r="202" spans="1:28" ht="64.5" thickBot="1">
+      <c r="A202" s="8" t="s">
+        <v>829</v>
+      </c>
       <c r="B202" s="8"/>
-      <c r="C202" s="8"/>
-      <c r="D202" s="8"/>
+      <c r="C202" s="17">
+        <v>43952</v>
+      </c>
+      <c r="D202" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E202" s="8"/>
       <c r="F202" s="8"/>
       <c r="G202" s="8"/>
-      <c r="H202" s="8"/>
+      <c r="H202" s="8" t="s">
+        <v>762</v>
+      </c>
       <c r="I202" s="8"/>
-      <c r="J202" s="8"/>
-      <c r="K202" s="8"/>
-      <c r="L202" s="8"/>
+      <c r="J202" s="8" t="s">
+        <v>830</v>
+      </c>
+      <c r="K202" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="L202" s="8" t="s">
+        <v>831</v>
+      </c>
       <c r="M202" s="8"/>
       <c r="N202" s="8"/>
       <c r="O202" s="8"/>
@@ -12513,19 +12567,33 @@
       <c r="AA202" s="6"/>
       <c r="AB202" s="6"/>
     </row>
-    <row r="203" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A203" s="8"/>
+    <row r="203" spans="1:28" ht="64.5" thickBot="1">
+      <c r="A203" s="8" t="s">
+        <v>832</v>
+      </c>
       <c r="B203" s="8"/>
-      <c r="C203" s="8"/>
-      <c r="D203" s="8"/>
+      <c r="C203" s="17">
+        <v>43952</v>
+      </c>
+      <c r="D203" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E203" s="8"/>
       <c r="F203" s="8"/>
       <c r="G203" s="8"/>
-      <c r="H203" s="8"/>
+      <c r="H203" s="8" t="s">
+        <v>762</v>
+      </c>
       <c r="I203" s="8"/>
-      <c r="J203" s="8"/>
-      <c r="K203" s="8"/>
-      <c r="L203" s="8"/>
+      <c r="J203" s="8" t="s">
+        <v>833</v>
+      </c>
+      <c r="K203" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="L203" s="8" t="s">
+        <v>831</v>
+      </c>
       <c r="M203" s="8"/>
       <c r="N203" s="8"/>
       <c r="O203" s="8"/>

--- a/BIDMC/np_swab_results.xlsx
+++ b/BIDMC/np_swab_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="834">
   <si>
     <t>Date of test</t>
   </si>
@@ -3000,7 +3000,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3011,10 +3011,10 @@
   <dimension ref="A1:AB1026"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B198" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G195" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D201" sqref="D201"/>
+      <selection pane="bottomRight" activeCell="E207" sqref="E207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -11091,7 +11091,9 @@
       <c r="K171" s="8" t="s">
         <v>735</v>
       </c>
-      <c r="L171" s="8"/>
+      <c r="L171" s="8" t="s">
+        <v>377</v>
+      </c>
       <c r="M171" s="8"/>
       <c r="N171" s="8"/>
       <c r="O171" s="8"/>
@@ -12279,7 +12281,9 @@
         <v>804</v>
       </c>
       <c r="K196" s="8"/>
-      <c r="L196" s="8"/>
+      <c r="L196" s="8" t="s">
+        <v>377</v>
+      </c>
       <c r="M196" s="8"/>
       <c r="N196" s="8"/>
       <c r="O196" s="8"/>

--- a/BIDMC/np_swab_results.xlsx
+++ b/BIDMC/np_swab_results.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" calcMode="manual"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="864">
   <si>
     <t>Date of test</t>
   </si>
@@ -2223,9 +2223,6 @@
     <t>SG/MED-AMB</t>
   </si>
   <si>
-    <t>*Need to run</t>
-  </si>
-  <si>
     <t>3DS_NP2_FLX-20-CLR</t>
   </si>
   <si>
@@ -2589,6 +2586,30 @@
   </si>
   <si>
     <t>too brittle, but otherwise design looks appropriate</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/3D Systems/3DS_NP2_MH1_CLR.jpg</t>
+  </si>
+  <si>
+    <t>*pending</t>
+  </si>
+  <si>
+    <t>J_4_1</t>
+  </si>
+  <si>
+    <t>black swab</t>
+  </si>
+  <si>
+    <t>evaluator 1: pass, but a little messy. Evaluator 2: fail, material is sticky and too smelly</t>
+  </si>
+  <si>
+    <t>did not test- smelly</t>
+  </si>
+  <si>
+    <t>J_4_2</t>
+  </si>
+  <si>
+    <t>dark gray swab</t>
   </si>
 </sst>
 </file>
@@ -3077,7 +3098,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3088,7 +3109,7 @@
   <dimension ref="A1:AB1026"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G206" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
@@ -3253,7 +3274,7 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="22" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="O3" s="8"/>
       <c r="P3" s="6"/>
@@ -3305,7 +3326,7 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="22" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="O4" s="8"/>
       <c r="P4" s="6"/>
@@ -3357,7 +3378,7 @@
       </c>
       <c r="M5" s="6"/>
       <c r="N5" s="22" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="O5" s="8"/>
       <c r="P5" s="6"/>
@@ -3501,7 +3522,7 @@
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="22" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="O8" s="8"/>
       <c r="P8" s="6"/>
@@ -3683,7 +3704,7 @@
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="22" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="O12" s="8"/>
       <c r="P12" s="6"/>
@@ -3731,7 +3752,7 @@
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="22" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="O13" s="8"/>
       <c r="P13" s="6"/>
@@ -3779,7 +3800,7 @@
       </c>
       <c r="M14" s="6"/>
       <c r="N14" s="22" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="O14" s="8"/>
       <c r="P14" s="6"/>
@@ -3823,7 +3844,7 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="22" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="O15" s="8"/>
       <c r="P15" s="6"/>
@@ -3869,7 +3890,7 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="22" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="O16" s="8"/>
       <c r="P16" s="6"/>
@@ -3913,7 +3934,7 @@
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="22" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="O17" s="8"/>
       <c r="P17" s="6"/>
@@ -3951,7 +3972,7 @@
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>80</v>
@@ -3961,7 +3982,7 @@
       </c>
       <c r="M18" s="6"/>
       <c r="N18" s="6" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="O18" s="8"/>
       <c r="P18" s="6"/>
@@ -4005,7 +4026,7 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="22" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="O19" s="8"/>
       <c r="P19" s="6"/>
@@ -4049,7 +4070,7 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="22" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="O20" s="8"/>
       <c r="P20" s="6"/>
@@ -4093,7 +4114,7 @@
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="22" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="O21" s="8"/>
       <c r="P21" s="6"/>
@@ -4137,7 +4158,7 @@
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="22" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="O22" s="8"/>
       <c r="P22" s="6"/>
@@ -4183,7 +4204,7 @@
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="O23" s="8"/>
       <c r="P23" s="6"/>
@@ -4225,7 +4246,7 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="N24" s="22" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="O24" s="8"/>
       <c r="P24" s="6"/>
@@ -4267,7 +4288,7 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="20" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="O25" s="8"/>
       <c r="P25" s="6"/>
@@ -4405,7 +4426,7 @@
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="22" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="O28" s="8"/>
       <c r="P28" s="6"/>
@@ -4499,7 +4520,7 @@
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
       <c r="N30" s="22" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="O30" s="8"/>
       <c r="P30" s="6"/>
@@ -4733,7 +4754,7 @@
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
       <c r="N35" s="22" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="O35" s="8"/>
       <c r="P35" s="6"/>
@@ -4783,7 +4804,7 @@
       </c>
       <c r="M36" s="8"/>
       <c r="N36" s="22" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="O36" s="8"/>
       <c r="P36" s="6"/>
@@ -4829,7 +4850,7 @@
       </c>
       <c r="M37" s="8"/>
       <c r="N37" s="22" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="O37" s="8"/>
       <c r="P37" s="6"/>
@@ -4875,7 +4896,7 @@
       </c>
       <c r="M38" s="8"/>
       <c r="N38" s="22" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="O38" s="8"/>
       <c r="P38" s="6"/>
@@ -4921,7 +4942,7 @@
       </c>
       <c r="M39" s="8"/>
       <c r="N39" s="22" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="O39" s="8"/>
       <c r="P39" s="6"/>
@@ -4967,7 +4988,7 @@
       </c>
       <c r="M40" s="8"/>
       <c r="N40" s="22" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="O40" s="8"/>
       <c r="P40" s="6"/>
@@ -5015,7 +5036,7 @@
       </c>
       <c r="M41" s="8"/>
       <c r="N41" s="22" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="O41" s="8"/>
       <c r="P41" s="6"/>
@@ -5055,7 +5076,7 @@
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="K42" s="8" t="s">
         <v>105</v>
@@ -5063,7 +5084,7 @@
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
       <c r="N42" s="8" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="O42" s="8"/>
       <c r="P42" s="6"/>
@@ -5103,7 +5124,7 @@
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K43" s="8" t="s">
         <v>105</v>
@@ -5113,7 +5134,7 @@
       </c>
       <c r="M43" s="8"/>
       <c r="N43" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="O43" s="8"/>
       <c r="P43" s="6"/>
@@ -5163,7 +5184,7 @@
       </c>
       <c r="M44" s="8"/>
       <c r="N44" s="22" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="O44" s="8"/>
       <c r="P44" s="6"/>
@@ -5211,7 +5232,7 @@
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
       <c r="N45" s="22" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="O45" s="8"/>
       <c r="P45" s="6"/>
@@ -5261,7 +5282,7 @@
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
       <c r="N46" s="8" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="O46" s="8"/>
       <c r="P46" s="6"/>
@@ -5311,7 +5332,7 @@
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
       <c r="N47" s="22" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="O47" s="8"/>
       <c r="P47" s="6"/>
@@ -5363,7 +5384,7 @@
       </c>
       <c r="M48" s="8"/>
       <c r="N48" s="22" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="O48" s="8"/>
       <c r="P48" s="6"/>
@@ -5405,7 +5426,7 @@
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="K49" s="8" t="s">
         <v>29</v>
@@ -5413,7 +5434,7 @@
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
       <c r="N49" s="22" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="O49" s="8"/>
       <c r="P49" s="6"/>
@@ -5463,7 +5484,7 @@
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
       <c r="N50" s="22" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="O50" s="8"/>
       <c r="P50" s="6"/>
@@ -5513,7 +5534,7 @@
       <c r="L51" s="8"/>
       <c r="M51" s="8"/>
       <c r="N51" s="22" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="O51" s="8"/>
       <c r="P51" s="6"/>
@@ -5563,7 +5584,7 @@
       <c r="L52" s="8"/>
       <c r="M52" s="8"/>
       <c r="N52" s="22" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="O52" s="8"/>
       <c r="P52" s="6"/>
@@ -5709,7 +5730,7 @@
       </c>
       <c r="M55" s="8"/>
       <c r="N55" s="22" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="O55" s="8"/>
       <c r="P55" s="6"/>
@@ -5757,7 +5778,7 @@
       <c r="L56" s="8"/>
       <c r="M56" s="8"/>
       <c r="N56" s="22" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="O56" s="8"/>
       <c r="P56" s="6"/>
@@ -5807,7 +5828,7 @@
       </c>
       <c r="M57" s="8"/>
       <c r="N57" s="22" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="O57" s="8"/>
       <c r="P57" s="6"/>
@@ -5857,7 +5878,7 @@
       </c>
       <c r="M58" s="8"/>
       <c r="N58" s="22" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="O58" s="8"/>
       <c r="P58" s="6"/>
@@ -5905,7 +5926,7 @@
       <c r="L59" s="8"/>
       <c r="M59" s="8"/>
       <c r="N59" s="22" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="O59" s="8"/>
       <c r="P59" s="6"/>
@@ -5953,7 +5974,7 @@
       <c r="L60" s="8"/>
       <c r="M60" s="8"/>
       <c r="N60" s="22" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="O60" s="8"/>
       <c r="P60" s="6"/>
@@ -6001,7 +6022,7 @@
       <c r="L61" s="8"/>
       <c r="M61" s="8"/>
       <c r="N61" s="22" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="O61" s="8"/>
       <c r="P61" s="6"/>
@@ -6049,7 +6070,7 @@
       <c r="L62" s="8"/>
       <c r="M62" s="8"/>
       <c r="N62" s="22" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="O62" s="8"/>
       <c r="P62" s="6"/>
@@ -6141,7 +6162,7 @@
       <c r="L64" s="8"/>
       <c r="M64" s="8"/>
       <c r="N64" s="22" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="O64" s="8"/>
       <c r="P64" s="6"/>
@@ -6189,7 +6210,7 @@
       <c r="L65" s="8"/>
       <c r="M65" s="8"/>
       <c r="N65" s="22" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="O65" s="8"/>
       <c r="P65" s="6"/>
@@ -6237,7 +6258,7 @@
       <c r="L66" s="8"/>
       <c r="M66" s="8"/>
       <c r="N66" s="22" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="O66" s="8"/>
       <c r="P66" s="6"/>
@@ -6285,7 +6306,7 @@
       <c r="L67" s="8"/>
       <c r="M67" s="8"/>
       <c r="N67" s="22" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="O67" s="8"/>
       <c r="P67" s="6"/>
@@ -6735,7 +6756,7 @@
       <c r="L77" s="8"/>
       <c r="M77" s="8"/>
       <c r="N77" s="22" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="O77" s="8"/>
       <c r="P77" s="6"/>
@@ -6785,7 +6806,7 @@
       <c r="L78" s="8"/>
       <c r="M78" s="8"/>
       <c r="N78" s="22" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="O78" s="8"/>
       <c r="P78" s="6"/>
@@ -6835,7 +6856,7 @@
       <c r="L79" s="8"/>
       <c r="M79" s="8"/>
       <c r="N79" s="22" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="O79" s="8"/>
       <c r="P79" s="6"/>
@@ -6885,7 +6906,7 @@
       <c r="L80" s="8"/>
       <c r="M80" s="8"/>
       <c r="N80" s="22" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="O80" s="8"/>
       <c r="P80" s="6"/>
@@ -6935,7 +6956,7 @@
       <c r="L81" s="8"/>
       <c r="M81" s="8"/>
       <c r="N81" s="22" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="O81" s="8"/>
       <c r="P81" s="6"/>
@@ -6985,7 +7006,7 @@
       <c r="L82" s="8"/>
       <c r="M82" s="8"/>
       <c r="N82" s="22" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="O82" s="8"/>
       <c r="P82" s="6"/>
@@ -7035,7 +7056,7 @@
       <c r="L83" s="8"/>
       <c r="M83" s="8"/>
       <c r="N83" s="22" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="O83" s="8"/>
       <c r="P83" s="6"/>
@@ -7085,7 +7106,7 @@
       <c r="L84" s="8"/>
       <c r="M84" s="8"/>
       <c r="N84" s="22" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="O84" s="8"/>
       <c r="P84" s="6"/>
@@ -7135,7 +7156,7 @@
       <c r="L85" s="8"/>
       <c r="M85" s="8"/>
       <c r="N85" s="22" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="O85" s="8"/>
       <c r="P85" s="6"/>
@@ -7185,7 +7206,7 @@
       <c r="L86" s="8"/>
       <c r="M86" s="8"/>
       <c r="N86" s="8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="O86" s="8"/>
       <c r="P86" s="6"/>
@@ -7235,7 +7256,7 @@
       <c r="L87" s="8"/>
       <c r="M87" s="8"/>
       <c r="N87" s="22" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="O87" s="8"/>
       <c r="P87" s="6"/>
@@ -7287,7 +7308,7 @@
       </c>
       <c r="M88" s="8"/>
       <c r="N88" s="22" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="O88" s="8"/>
       <c r="P88" s="6"/>
@@ -7385,7 +7406,7 @@
       </c>
       <c r="M90" s="8"/>
       <c r="N90" s="22" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="O90" s="8"/>
       <c r="P90" s="6"/>
@@ -7439,7 +7460,7 @@
       </c>
       <c r="M91" s="8"/>
       <c r="N91" s="22" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="O91" s="8"/>
       <c r="P91" s="6"/>
@@ -7493,7 +7514,7 @@
       </c>
       <c r="M92" s="8"/>
       <c r="N92" s="22" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="O92" s="8"/>
       <c r="P92" s="6"/>
@@ -7547,7 +7568,7 @@
       </c>
       <c r="M93" s="8"/>
       <c r="N93" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="O93" s="8"/>
       <c r="P93" s="6"/>
@@ -7601,7 +7622,7 @@
       </c>
       <c r="M94" s="8"/>
       <c r="N94" s="22" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="O94" s="8"/>
       <c r="P94" s="6"/>
@@ -7653,7 +7674,7 @@
       <c r="L95" s="8"/>
       <c r="M95" s="8"/>
       <c r="N95" s="20" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="O95" s="8"/>
       <c r="P95" s="6"/>
@@ -7705,7 +7726,7 @@
       <c r="L96" s="8"/>
       <c r="M96" s="8"/>
       <c r="N96" s="20" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="O96" s="8"/>
       <c r="P96" s="6"/>
@@ -7809,7 +7830,7 @@
       </c>
       <c r="M98" s="8"/>
       <c r="N98" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="O98" s="8"/>
       <c r="P98" s="6"/>
@@ -7853,7 +7874,7 @@
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="K99" s="8" t="s">
         <v>29</v>
@@ -7861,7 +7882,7 @@
       <c r="L99" s="8"/>
       <c r="M99" s="8"/>
       <c r="N99" s="22" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="O99" s="8"/>
       <c r="P99" s="6"/>
@@ -7913,7 +7934,7 @@
       <c r="L100" s="8"/>
       <c r="M100" s="8"/>
       <c r="N100" s="22" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="O100" s="8"/>
       <c r="P100" s="6"/>
@@ -7959,7 +7980,7 @@
       <c r="L101" s="8"/>
       <c r="M101" s="8"/>
       <c r="N101" s="20" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="O101" s="8"/>
       <c r="P101" s="6"/>
@@ -8007,7 +8028,7 @@
       <c r="L102" s="8"/>
       <c r="M102" s="8"/>
       <c r="N102" s="22" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="O102" s="8"/>
       <c r="P102" s="6"/>
@@ -8055,7 +8076,7 @@
       <c r="L103" s="8"/>
       <c r="M103" s="8"/>
       <c r="N103" s="22" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="O103" s="8"/>
       <c r="P103" s="6"/>
@@ -8105,7 +8126,7 @@
       </c>
       <c r="M104" s="8"/>
       <c r="N104" s="22" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="O104" s="8"/>
       <c r="P104" s="6"/>
@@ -8153,7 +8174,7 @@
       <c r="L105" s="8"/>
       <c r="M105" s="8"/>
       <c r="N105" s="22" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="O105" s="8"/>
       <c r="P105" s="6"/>
@@ -8203,7 +8224,7 @@
       <c r="L106" s="8"/>
       <c r="M106" s="8"/>
       <c r="N106" s="22" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="O106" s="8"/>
       <c r="P106" s="6"/>
@@ -8253,7 +8274,7 @@
       <c r="L107" s="8"/>
       <c r="M107" s="8"/>
       <c r="N107" s="22" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="O107" s="8"/>
       <c r="P107" s="6"/>
@@ -8305,7 +8326,7 @@
       </c>
       <c r="M108" s="8"/>
       <c r="N108" s="22" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="O108" s="8"/>
       <c r="P108" s="6"/>
@@ -8355,7 +8376,7 @@
       </c>
       <c r="M109" s="8"/>
       <c r="N109" s="22" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="O109" s="8"/>
       <c r="P109" s="6"/>
@@ -8407,7 +8428,7 @@
       <c r="L110" s="8"/>
       <c r="M110" s="8"/>
       <c r="N110" s="8" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="O110" s="8"/>
       <c r="P110" s="6"/>
@@ -8457,7 +8478,7 @@
       <c r="L111" s="8"/>
       <c r="M111" s="8"/>
       <c r="N111" s="22" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="O111" s="8"/>
       <c r="P111" s="6"/>
@@ -8507,7 +8528,7 @@
       <c r="L112" s="8"/>
       <c r="M112" s="8"/>
       <c r="N112" s="22" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="O112" s="8"/>
       <c r="P112" s="6"/>
@@ -8557,7 +8578,7 @@
       <c r="L113" s="8"/>
       <c r="M113" s="8"/>
       <c r="N113" s="22" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="O113" s="8"/>
       <c r="P113" s="6"/>
@@ -8607,7 +8628,7 @@
       <c r="L114" s="8"/>
       <c r="M114" s="8"/>
       <c r="N114" s="22" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="O114" s="8"/>
       <c r="P114" s="6"/>
@@ -8659,7 +8680,7 @@
       </c>
       <c r="M115" s="8"/>
       <c r="N115" s="22" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="O115" s="8"/>
       <c r="P115" s="6"/>
@@ -8711,7 +8732,7 @@
       </c>
       <c r="M116" s="8"/>
       <c r="N116" s="22" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="O116" s="8"/>
       <c r="P116" s="6"/>
@@ -8761,7 +8782,7 @@
       <c r="L117" s="8"/>
       <c r="M117" s="8"/>
       <c r="N117" s="22" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="O117" s="8"/>
       <c r="P117" s="6"/>
@@ -8811,7 +8832,7 @@
       <c r="L118" s="8"/>
       <c r="M118" s="8"/>
       <c r="N118" s="22" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="O118" s="8"/>
       <c r="P118" s="6"/>
@@ -8863,7 +8884,7 @@
       </c>
       <c r="M119" s="8"/>
       <c r="N119" s="22" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O119" s="8"/>
       <c r="P119" s="6"/>
@@ -8913,7 +8934,7 @@
       <c r="L120" s="8"/>
       <c r="M120" s="8"/>
       <c r="N120" s="22" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O120" s="8"/>
       <c r="P120" s="6"/>
@@ -8963,7 +8984,7 @@
       <c r="L121" s="8"/>
       <c r="M121" s="8"/>
       <c r="N121" s="22" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O121" s="8"/>
       <c r="P121" s="6"/>
@@ -9013,7 +9034,7 @@
       <c r="L122" s="8"/>
       <c r="M122" s="8"/>
       <c r="N122" s="22" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O122" s="8"/>
       <c r="P122" s="6"/>
@@ -9063,7 +9084,7 @@
       <c r="L123" s="8"/>
       <c r="M123" s="8"/>
       <c r="N123" s="22" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="O123" s="8"/>
       <c r="P123" s="6"/>
@@ -9113,7 +9134,7 @@
       <c r="L124" s="8"/>
       <c r="M124" s="8"/>
       <c r="N124" s="22" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O124" s="8"/>
       <c r="P124" s="6"/>
@@ -9165,7 +9186,7 @@
       </c>
       <c r="M125" s="8"/>
       <c r="N125" s="22" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="O125" s="8"/>
       <c r="P125" s="6"/>
@@ -9217,7 +9238,7 @@
       </c>
       <c r="M126" s="8"/>
       <c r="N126" s="8" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="O126" s="8"/>
       <c r="P126" s="6"/>
@@ -9269,7 +9290,7 @@
       </c>
       <c r="M127" s="8"/>
       <c r="N127" s="22" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="O127" s="8"/>
       <c r="P127" s="6"/>
@@ -9319,7 +9340,7 @@
       <c r="L128" s="8"/>
       <c r="M128" s="8"/>
       <c r="N128" s="22" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="O128" s="8"/>
       <c r="P128" s="6"/>
@@ -9369,7 +9390,7 @@
       <c r="L129" s="8"/>
       <c r="M129" s="8"/>
       <c r="N129" s="22" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="O129" s="8"/>
       <c r="P129" s="6"/>
@@ -9515,7 +9536,7 @@
       <c r="L132" s="8"/>
       <c r="M132" s="8"/>
       <c r="N132" s="22" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="O132" s="8"/>
       <c r="P132" s="6"/>
@@ -9565,7 +9586,7 @@
       <c r="L133" s="8"/>
       <c r="M133" s="8"/>
       <c r="N133" s="22" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="O133" s="8"/>
       <c r="P133" s="6"/>
@@ -9615,7 +9636,7 @@
       <c r="L134" s="8"/>
       <c r="M134" s="8"/>
       <c r="N134" s="22" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="O134" s="8"/>
       <c r="P134" s="6"/>
@@ -9667,7 +9688,7 @@
       </c>
       <c r="M135" s="8"/>
       <c r="N135" s="22" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="O135" s="8"/>
       <c r="P135" s="6"/>
@@ -9719,7 +9740,7 @@
       </c>
       <c r="M136" s="8"/>
       <c r="N136" s="22" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="O136" s="8"/>
       <c r="P136" s="6"/>
@@ -10192,7 +10213,7 @@
       </c>
       <c r="L146" s="8"/>
       <c r="M146" s="22" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="N146" s="8"/>
       <c r="O146" s="8"/>
@@ -10242,7 +10263,7 @@
       </c>
       <c r="L147" s="8"/>
       <c r="M147" s="22" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="N147" s="8"/>
       <c r="O147" s="8"/>
@@ -10392,7 +10413,7 @@
       </c>
       <c r="L150" s="8"/>
       <c r="M150" s="22" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="N150" s="8"/>
       <c r="O150" s="8"/>
@@ -10492,7 +10513,7 @@
       </c>
       <c r="L152" s="8"/>
       <c r="M152" s="22" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="N152" s="8"/>
       <c r="O152" s="8"/>
@@ -10535,12 +10556,12 @@
       </c>
       <c r="I153" s="8"/>
       <c r="J153" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="K153" s="8"/>
       <c r="L153" s="8"/>
       <c r="M153" s="22" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="N153" s="8"/>
       <c r="O153" s="8"/>
@@ -10695,7 +10716,7 @@
       </c>
       <c r="M156" s="8"/>
       <c r="N156" s="8" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="O156" s="8"/>
       <c r="P156" s="6"/>
@@ -10747,7 +10768,7 @@
       </c>
       <c r="M157" s="8"/>
       <c r="N157" s="8" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="O157" s="8"/>
       <c r="P157" s="6"/>
@@ -11009,12 +11030,12 @@
       </c>
       <c r="I163" s="8"/>
       <c r="J163" s="8" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="K163" s="8"/>
       <c r="L163" s="8"/>
       <c r="M163" s="22" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="N163" s="8"/>
       <c r="O163" s="8"/>
@@ -11059,12 +11080,12 @@
       </c>
       <c r="I164" s="8"/>
       <c r="J164" s="8" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="K164" s="8"/>
       <c r="L164" s="8"/>
       <c r="M164" s="22" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="N164" s="8"/>
       <c r="O164" s="8"/>
@@ -11109,12 +11130,12 @@
       </c>
       <c r="I165" s="8"/>
       <c r="J165" s="8" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="K165" s="8"/>
       <c r="L165" s="8"/>
       <c r="M165" s="22" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="N165" s="8"/>
       <c r="O165" s="8"/>
@@ -11157,14 +11178,14 @@
       </c>
       <c r="I166" s="8"/>
       <c r="J166" s="8" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K166" s="8"/>
       <c r="L166" s="8" t="s">
         <v>33</v>
       </c>
       <c r="M166" s="22" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="N166" s="8"/>
       <c r="O166" s="8"/>
@@ -11207,14 +11228,14 @@
       </c>
       <c r="I167" s="8"/>
       <c r="J167" s="8" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K167" s="8" t="s">
         <v>639</v>
       </c>
       <c r="L167" s="8"/>
       <c r="M167" s="22" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="N167" s="8"/>
       <c r="O167" s="8"/>
@@ -12457,7 +12478,9 @@
       <c r="J193" s="8" t="s">
         <v>711</v>
       </c>
-      <c r="K193" s="8"/>
+      <c r="K193" s="8" t="s">
+        <v>310</v>
+      </c>
       <c r="L193" s="8"/>
       <c r="M193" s="8"/>
       <c r="N193" s="8"/>
@@ -12629,7 +12652,9 @@
       <c r="D197" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E197" s="8"/>
+      <c r="E197" s="20" t="s">
+        <v>856</v>
+      </c>
       <c r="F197" s="8" t="s">
         <v>721</v>
       </c>
@@ -12639,7 +12664,7 @@
       </c>
       <c r="I197" s="8"/>
       <c r="J197" s="8" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="K197" s="8"/>
       <c r="L197" s="8" t="s">
@@ -12685,11 +12710,11 @@
       </c>
       <c r="I198" s="8"/>
       <c r="J198" s="8" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="K198" s="8"/>
       <c r="L198" s="8" t="s">
-        <v>735</v>
+        <v>857</v>
       </c>
       <c r="M198" s="8"/>
       <c r="N198" s="8"/>
@@ -12848,7 +12873,7 @@
     </row>
     <row r="202" spans="1:28" ht="64.5" thickBot="1">
       <c r="A202" s="8" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B202" s="8"/>
       <c r="C202" s="17">
@@ -12865,13 +12890,13 @@
       </c>
       <c r="I202" s="8"/>
       <c r="J202" s="8" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="K202" s="8" t="s">
         <v>310</v>
       </c>
       <c r="L202" s="8" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="M202" s="8"/>
       <c r="N202" s="8"/>
@@ -12892,7 +12917,7 @@
     </row>
     <row r="203" spans="1:28" ht="64.5" thickBot="1">
       <c r="A203" s="8" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B203" s="8"/>
       <c r="C203" s="17">
@@ -12909,13 +12934,13 @@
       </c>
       <c r="I203" s="8"/>
       <c r="J203" s="8" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="K203" s="8" t="s">
         <v>310</v>
       </c>
       <c r="L203" s="8" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="M203" s="8"/>
       <c r="N203" s="8"/>
@@ -12936,10 +12961,10 @@
     </row>
     <row r="204" spans="1:28" ht="115.5" thickBot="1">
       <c r="A204" s="8" t="s">
+        <v>835</v>
+      </c>
+      <c r="B204" s="8" t="s">
         <v>836</v>
-      </c>
-      <c r="B204" s="8" t="s">
-        <v>837</v>
       </c>
       <c r="C204" s="17">
         <v>43956</v>
@@ -12957,13 +12982,13 @@
       </c>
       <c r="I204" s="8"/>
       <c r="J204" s="8" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="K204" s="8"/>
       <c r="L204" s="8"/>
       <c r="M204" s="8"/>
       <c r="N204" s="8" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="O204" s="8"/>
       <c r="P204" s="6"/>
@@ -12982,10 +13007,10 @@
     </row>
     <row r="205" spans="1:28" ht="102.75" thickBot="1">
       <c r="A205" s="8" t="s">
+        <v>839</v>
+      </c>
+      <c r="B205" s="8" t="s">
         <v>840</v>
-      </c>
-      <c r="B205" s="8" t="s">
-        <v>841</v>
       </c>
       <c r="C205" s="17">
         <v>43957</v>
@@ -12997,17 +13022,17 @@
       <c r="F205" s="8"/>
       <c r="G205" s="8"/>
       <c r="H205" s="8" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="I205" s="8"/>
       <c r="J205" s="8" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="K205" s="8"/>
       <c r="L205" s="8"/>
       <c r="M205" s="8"/>
       <c r="N205" s="8" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="O205" s="8"/>
       <c r="P205" s="6"/>
@@ -13026,10 +13051,10 @@
     </row>
     <row r="206" spans="1:28" ht="64.5" thickBot="1">
       <c r="A206" s="8" t="s">
+        <v>844</v>
+      </c>
+      <c r="B206" s="8" t="s">
         <v>845</v>
-      </c>
-      <c r="B206" s="8" t="s">
-        <v>846</v>
       </c>
       <c r="C206" s="17">
         <v>43957</v>
@@ -13041,17 +13066,19 @@
       <c r="F206" s="8"/>
       <c r="G206" s="8"/>
       <c r="H206" s="8" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="I206" s="8"/>
       <c r="J206" s="8" t="s">
-        <v>843</v>
-      </c>
-      <c r="K206" s="8"/>
+        <v>842</v>
+      </c>
+      <c r="K206" s="8" t="s">
+        <v>310</v>
+      </c>
       <c r="L206" s="8"/>
       <c r="M206" s="8"/>
       <c r="N206" s="8" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="O206" s="8"/>
       <c r="P206" s="6"/>
@@ -13070,10 +13097,10 @@
     </row>
     <row r="207" spans="1:28" ht="90" thickBot="1">
       <c r="A207" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="B207" s="8" t="s">
         <v>848</v>
-      </c>
-      <c r="B207" s="8" t="s">
-        <v>849</v>
       </c>
       <c r="C207" s="17">
         <v>43957</v>
@@ -13085,17 +13112,19 @@
       <c r="F207" s="8"/>
       <c r="G207" s="8"/>
       <c r="H207" s="8" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="I207" s="8"/>
       <c r="J207" s="8" t="s">
-        <v>843</v>
-      </c>
-      <c r="K207" s="8"/>
+        <v>842</v>
+      </c>
+      <c r="K207" s="8" t="s">
+        <v>310</v>
+      </c>
       <c r="L207" s="8"/>
       <c r="M207" s="8"/>
       <c r="N207" s="8" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O207" s="8"/>
       <c r="P207" s="6"/>
@@ -13114,10 +13143,10 @@
     </row>
     <row r="208" spans="1:28" ht="77.25" thickBot="1">
       <c r="A208" s="8" t="s">
+        <v>850</v>
+      </c>
+      <c r="B208" s="8" t="s">
         <v>851</v>
-      </c>
-      <c r="B208" s="8" t="s">
-        <v>852</v>
       </c>
       <c r="C208" s="17">
         <v>43957</v>
@@ -13129,17 +13158,19 @@
       <c r="F208" s="8"/>
       <c r="G208" s="8"/>
       <c r="H208" s="8" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="I208" s="8"/>
       <c r="J208" s="8" t="s">
-        <v>843</v>
-      </c>
-      <c r="K208" s="8"/>
+        <v>842</v>
+      </c>
+      <c r="K208" s="8" t="s">
+        <v>310</v>
+      </c>
       <c r="L208" s="8"/>
       <c r="M208" s="8"/>
       <c r="N208" s="8" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="O208" s="8"/>
       <c r="P208" s="6"/>
@@ -13158,10 +13189,10 @@
     </row>
     <row r="209" spans="1:28" ht="51.75" thickBot="1">
       <c r="A209" s="8" t="s">
+        <v>853</v>
+      </c>
+      <c r="B209" s="8" t="s">
         <v>854</v>
-      </c>
-      <c r="B209" s="8" t="s">
-        <v>855</v>
       </c>
       <c r="C209" s="8"/>
       <c r="D209" s="8"/>
@@ -13171,13 +13202,17 @@
       <c r="H209" s="8"/>
       <c r="I209" s="8"/>
       <c r="J209" s="8" t="s">
-        <v>843</v>
-      </c>
-      <c r="K209" s="8"/>
-      <c r="L209" s="8"/>
+        <v>842</v>
+      </c>
+      <c r="K209" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="L209" s="8" t="s">
+        <v>857</v>
+      </c>
       <c r="M209" s="8"/>
       <c r="N209" s="8" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="O209" s="8"/>
       <c r="P209" s="6"/>
@@ -13194,18 +13229,34 @@
       <c r="AA209" s="6"/>
       <c r="AB209" s="6"/>
     </row>
-    <row r="210" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A210" s="8"/>
-      <c r="B210" s="8"/>
-      <c r="C210" s="8"/>
-      <c r="D210" s="8"/>
+    <row r="210" spans="1:28" ht="51.75" thickBot="1">
+      <c r="A210" s="8" t="s">
+        <v>858</v>
+      </c>
+      <c r="B210" s="8" t="s">
+        <v>859</v>
+      </c>
+      <c r="C210" s="17">
+        <v>43958</v>
+      </c>
+      <c r="D210" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E210" s="8"/>
-      <c r="F210" s="8"/>
+      <c r="F210" s="8" t="s">
+        <v>330</v>
+      </c>
       <c r="G210" s="8"/>
-      <c r="H210" s="8"/>
+      <c r="H210" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="I210" s="8"/>
-      <c r="J210" s="8"/>
-      <c r="K210" s="8"/>
+      <c r="J210" s="8" t="s">
+        <v>860</v>
+      </c>
+      <c r="K210" s="8" t="s">
+        <v>861</v>
+      </c>
       <c r="L210" s="8"/>
       <c r="M210" s="8"/>
       <c r="N210" s="8"/>
@@ -13224,18 +13275,30 @@
       <c r="AA210" s="6"/>
       <c r="AB210" s="6"/>
     </row>
-    <row r="211" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A211" s="8"/>
-      <c r="B211" s="8"/>
-      <c r="C211" s="8"/>
-      <c r="D211" s="8"/>
+    <row r="211" spans="1:28" ht="39" thickBot="1">
+      <c r="A211" s="8" t="s">
+        <v>862</v>
+      </c>
+      <c r="B211" s="8" t="s">
+        <v>863</v>
+      </c>
+      <c r="C211" s="17">
+        <v>43959</v>
+      </c>
+      <c r="D211" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E211" s="8"/>
       <c r="F211" s="8"/>
       <c r="G211" s="8"/>
-      <c r="H211" s="8"/>
+      <c r="H211" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="I211" s="8"/>
       <c r="J211" s="8"/>
-      <c r="K211" s="8"/>
+      <c r="K211" s="8" t="s">
+        <v>861</v>
+      </c>
       <c r="L211" s="8"/>
       <c r="M211" s="8"/>
       <c r="N211" s="8"/>

--- a/BIDMC/np_swab_results.xlsx
+++ b/BIDMC/np_swab_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="886">
   <si>
     <t>Date of test</t>
   </si>
@@ -2610,6 +2610,72 @@
   </si>
   <si>
     <t>dark gray swab</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/blob/master/BIDMC/img/Carbon/C_HV5V9.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/3D Systems/3DS_SLS_N.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/3D Systems/3DS_NP2_FLX_20_CLR.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/OPT_industries/J_4_0.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/FormLabs/FL_LT_Form2_hex_mtx.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/FormLabs/FL_LT_form2_Frankenswab.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/FormLabs/FL_LT_USF_Swabs.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/FormLabs/FL_SG_Frankenswab.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Intrepid_1/Int_1.jpg</t>
+  </si>
+  <si>
+    <t>*pending. Need to confirm (only saw positive on Abbott)</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/OPT_industries/J_4_1.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/OPT_industries/J_4_2.jpg</t>
+  </si>
+  <si>
+    <t>INT_2</t>
+  </si>
+  <si>
+    <t>same design, more flexible resin</t>
+  </si>
+  <si>
+    <t>Intrepid Automation</t>
+  </si>
+  <si>
+    <t>pass-a bit sticky?</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>J_4_3</t>
+  </si>
+  <si>
+    <t>dark grey swab with x5 wash cylces</t>
+  </si>
+  <si>
+    <t>https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/OPT_industries/J_4_3.jpg</t>
+  </si>
+  <si>
+    <t>fail-still has a smell. Body design is okay, but the neck should be stiffer</t>
+  </si>
+  <si>
+    <t>tip design had previously passed</t>
   </si>
 </sst>
 </file>
@@ -2736,7 +2802,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2765,17 +2831,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="15" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2784,7 +2843,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2797,6 +2855,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3098,7 +3177,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3109,10 +3188,10 @@
   <dimension ref="A1:AB1026"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G206" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G209" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomRight" activeCell="J216" sqref="J216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -3250,7 +3329,7 @@
       <c r="D3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="12" t="s">
         <v>376</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -3273,7 +3352,7 @@
       </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
-      <c r="N3" s="22" t="s">
+      <c r="N3" s="18" t="s">
         <v>740</v>
       </c>
       <c r="O3" s="8"/>
@@ -3302,7 +3381,7 @@
       <c r="D4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="12" t="s">
         <v>377</v>
       </c>
       <c r="F4" s="6" t="s">
@@ -3325,7 +3404,7 @@
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
-      <c r="N4" s="22" t="s">
+      <c r="N4" s="18" t="s">
         <v>740</v>
       </c>
       <c r="O4" s="8"/>
@@ -3354,7 +3433,7 @@
       <c r="D5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="12" t="s">
         <v>378</v>
       </c>
       <c r="F5" s="6"/>
@@ -3377,7 +3456,7 @@
         <v>29</v>
       </c>
       <c r="M5" s="6"/>
-      <c r="N5" s="22" t="s">
+      <c r="N5" s="18" t="s">
         <v>741</v>
       </c>
       <c r="O5" s="8"/>
@@ -3406,7 +3485,7 @@
       <c r="D6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="12" t="s">
         <v>379</v>
       </c>
       <c r="F6" s="6"/>
@@ -3454,7 +3533,7 @@
       <c r="D7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="6"/>
@@ -3500,7 +3579,7 @@
       <c r="D8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="8" t="s">
         <v>33</v>
       </c>
       <c r="F8" s="6"/>
@@ -3521,7 +3600,7 @@
         <v>29</v>
       </c>
       <c r="M8" s="6"/>
-      <c r="N8" s="22" t="s">
+      <c r="N8" s="18" t="s">
         <v>742</v>
       </c>
       <c r="O8" s="8"/>
@@ -3550,7 +3629,7 @@
       <c r="D9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="8" t="s">
         <v>64</v>
       </c>
       <c r="F9" s="6"/>
@@ -3594,7 +3673,7 @@
       <c r="D10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="8" t="s">
         <v>64</v>
       </c>
       <c r="F10" s="6" t="s">
@@ -3642,7 +3721,7 @@
       <c r="D11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="6" t="s">
         <v>71</v>
       </c>
@@ -3673,7 +3752,7 @@
       <c r="AA11" s="6"/>
       <c r="AB11" s="6"/>
     </row>
-    <row r="12" spans="1:28" ht="27" thickBot="1">
+    <row r="12" spans="1:28" ht="48" thickBot="1">
       <c r="A12" s="6" t="s">
         <v>73</v>
       </c>
@@ -3684,7 +3763,7 @@
       <c r="D12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>380</v>
       </c>
       <c r="F12" s="6"/>
@@ -3703,7 +3782,7 @@
         <v>29</v>
       </c>
       <c r="M12" s="6"/>
-      <c r="N12" s="22" t="s">
+      <c r="N12" s="18" t="s">
         <v>743</v>
       </c>
       <c r="O12" s="8"/>
@@ -3721,7 +3800,7 @@
       <c r="AA12" s="6"/>
       <c r="AB12" s="6"/>
     </row>
-    <row r="13" spans="1:28" ht="39.75" thickBot="1">
+    <row r="13" spans="1:28" ht="39" thickBot="1">
       <c r="A13" s="6" t="s">
         <v>74</v>
       </c>
@@ -3732,7 +3811,7 @@
       <c r="D13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="21" t="s">
         <v>381</v>
       </c>
       <c r="F13" s="6"/>
@@ -3751,7 +3830,7 @@
         <v>29</v>
       </c>
       <c r="M13" s="6"/>
-      <c r="N13" s="22" t="s">
+      <c r="N13" s="18" t="s">
         <v>743</v>
       </c>
       <c r="O13" s="8"/>
@@ -3780,7 +3859,7 @@
       <c r="D14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="12" t="s">
         <v>382</v>
       </c>
       <c r="F14" s="6"/>
@@ -3799,7 +3878,7 @@
         <v>29</v>
       </c>
       <c r="M14" s="6"/>
-      <c r="N14" s="22" t="s">
+      <c r="N14" s="18" t="s">
         <v>743</v>
       </c>
       <c r="O14" s="8"/>
@@ -3828,7 +3907,7 @@
       <c r="D15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="12" t="s">
         <v>470</v>
       </c>
       <c r="F15" s="6"/>
@@ -3843,7 +3922,7 @@
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
-      <c r="N15" s="22" t="s">
+      <c r="N15" s="18" t="s">
         <v>744</v>
       </c>
       <c r="O15" s="8"/>
@@ -3872,7 +3951,7 @@
       <c r="D16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="12" t="s">
         <v>471</v>
       </c>
       <c r="F16" s="6"/>
@@ -3889,7 +3968,7 @@
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
-      <c r="N16" s="22" t="s">
+      <c r="N16" s="18" t="s">
         <v>744</v>
       </c>
       <c r="O16" s="8"/>
@@ -3918,7 +3997,7 @@
       <c r="D17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="12" t="s">
         <v>472</v>
       </c>
       <c r="F17" s="6"/>
@@ -3933,7 +4012,7 @@
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
-      <c r="N17" s="22" t="s">
+      <c r="N17" s="18" t="s">
         <v>745</v>
       </c>
       <c r="O17" s="8"/>
@@ -3951,7 +4030,7 @@
       <c r="AA17" s="6"/>
       <c r="AB17" s="6"/>
     </row>
-    <row r="18" spans="1:28" ht="256.5" thickBot="1">
+    <row r="18" spans="1:28" ht="255.75" thickBot="1">
       <c r="A18" s="6" t="s">
         <v>79</v>
       </c>
@@ -3962,7 +4041,7 @@
       <c r="D18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="12" t="s">
         <v>473</v>
       </c>
       <c r="F18" s="6"/>
@@ -4010,7 +4089,7 @@
       <c r="D19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="12" t="s">
         <v>474</v>
       </c>
       <c r="F19" s="6"/>
@@ -4025,7 +4104,7 @@
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="22" t="s">
+      <c r="N19" s="18" t="s">
         <v>748</v>
       </c>
       <c r="O19" s="8"/>
@@ -4054,7 +4133,7 @@
       <c r="D20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="12" t="s">
         <v>475</v>
       </c>
       <c r="F20" s="6"/>
@@ -4069,7 +4148,7 @@
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
-      <c r="N20" s="22" t="s">
+      <c r="N20" s="18" t="s">
         <v>749</v>
       </c>
       <c r="O20" s="8"/>
@@ -4098,7 +4177,7 @@
       <c r="D21" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="12" t="s">
         <v>476</v>
       </c>
       <c r="F21" s="6"/>
@@ -4113,7 +4192,7 @@
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
-      <c r="N21" s="22" t="s">
+      <c r="N21" s="18" t="s">
         <v>748</v>
       </c>
       <c r="O21" s="8"/>
@@ -4142,7 +4221,7 @@
       <c r="D22" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="12" t="s">
         <v>474</v>
       </c>
       <c r="F22" s="6"/>
@@ -4157,7 +4236,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
-      <c r="N22" s="22" t="s">
+      <c r="N22" s="18" t="s">
         <v>748</v>
       </c>
       <c r="O22" s="8"/>
@@ -4175,7 +4254,7 @@
       <c r="AA22" s="6"/>
       <c r="AB22" s="6"/>
     </row>
-    <row r="23" spans="1:28" ht="78" thickBot="1">
+    <row r="23" spans="1:28" ht="77.25" thickBot="1">
       <c r="A23" s="6" t="s">
         <v>38</v>
       </c>
@@ -4186,7 +4265,7 @@
       <c r="D23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="12" t="s">
         <v>383</v>
       </c>
       <c r="F23" s="6"/>
@@ -4230,7 +4309,7 @@
         <v>43913</v>
       </c>
       <c r="D24" s="6"/>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="12" t="s">
         <v>477</v>
       </c>
       <c r="F24" s="6"/>
@@ -4245,7 +4324,7 @@
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
-      <c r="N24" s="22" t="s">
+      <c r="N24" s="18" t="s">
         <v>751</v>
       </c>
       <c r="O24" s="8"/>
@@ -4272,7 +4351,7 @@
         <v>43913</v>
       </c>
       <c r="D25" s="6"/>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="22" t="s">
         <v>384</v>
       </c>
       <c r="F25" s="6"/>
@@ -4287,7 +4366,7 @@
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
-      <c r="N25" s="20" t="s">
+      <c r="N25" s="16" t="s">
         <v>752</v>
       </c>
       <c r="O25" s="8"/>
@@ -4314,7 +4393,7 @@
         <v>43913</v>
       </c>
       <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="E26" s="8"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6" t="s">
@@ -4347,7 +4426,7 @@
       <c r="AA26" s="6"/>
       <c r="AB26" s="6"/>
     </row>
-    <row r="27" spans="1:28" ht="52.5" thickBot="1">
+    <row r="27" spans="1:28" ht="51.75" thickBot="1">
       <c r="A27" s="6" t="s">
         <v>41</v>
       </c>
@@ -4358,7 +4437,7 @@
       <c r="D27" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="12" t="s">
         <v>385</v>
       </c>
       <c r="F27" s="6" t="s">
@@ -4395,7 +4474,7 @@
       <c r="AA27" s="6"/>
       <c r="AB27" s="6"/>
     </row>
-    <row r="28" spans="1:28" ht="52.5" thickBot="1">
+    <row r="28" spans="1:28" ht="51.75" thickBot="1">
       <c r="A28" s="6" t="s">
         <v>44</v>
       </c>
@@ -4406,7 +4485,7 @@
       <c r="D28" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="12" t="s">
         <v>386</v>
       </c>
       <c r="F28" s="6" t="s">
@@ -4425,7 +4504,7 @@
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
-      <c r="N28" s="22" t="s">
+      <c r="N28" s="18" t="s">
         <v>753</v>
       </c>
       <c r="O28" s="8"/>
@@ -4443,7 +4522,7 @@
       <c r="AA28" s="6"/>
       <c r="AB28" s="6"/>
     </row>
-    <row r="29" spans="1:28" ht="52.5" thickBot="1">
+    <row r="29" spans="1:28" ht="51.75" thickBot="1">
       <c r="A29" s="6" t="s">
         <v>47</v>
       </c>
@@ -4454,7 +4533,7 @@
       <c r="D29" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="12" t="s">
         <v>387</v>
       </c>
       <c r="F29" s="6" t="s">
@@ -4489,7 +4568,7 @@
       <c r="AA29" s="6"/>
       <c r="AB29" s="6"/>
     </row>
-    <row r="30" spans="1:28" ht="52.5" thickBot="1">
+    <row r="30" spans="1:28" ht="51.75" thickBot="1">
       <c r="A30" s="6" t="s">
         <v>50</v>
       </c>
@@ -4500,7 +4579,7 @@
       <c r="D30" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="12" t="s">
         <v>388</v>
       </c>
       <c r="F30" s="6" t="s">
@@ -4519,7 +4598,7 @@
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
-      <c r="N30" s="22" t="s">
+      <c r="N30" s="18" t="s">
         <v>753</v>
       </c>
       <c r="O30" s="8"/>
@@ -4537,7 +4616,7 @@
       <c r="AA30" s="6"/>
       <c r="AB30" s="6"/>
     </row>
-    <row r="31" spans="1:28" ht="52.5" thickBot="1">
+    <row r="31" spans="1:28" ht="51.75" thickBot="1">
       <c r="A31" s="6" t="s">
         <v>52</v>
       </c>
@@ -4548,7 +4627,7 @@
       <c r="D31" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="12" t="s">
         <v>389</v>
       </c>
       <c r="F31" s="6" t="s">
@@ -4583,7 +4662,7 @@
       <c r="AA31" s="6"/>
       <c r="AB31" s="6"/>
     </row>
-    <row r="32" spans="1:28" ht="52.5" thickBot="1">
+    <row r="32" spans="1:28" ht="51.75" thickBot="1">
       <c r="A32" s="6" t="s">
         <v>54</v>
       </c>
@@ -4594,7 +4673,7 @@
       <c r="D32" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="12" t="s">
         <v>390</v>
       </c>
       <c r="F32" s="6" t="s">
@@ -4629,7 +4708,7 @@
       <c r="AA32" s="6"/>
       <c r="AB32" s="6"/>
     </row>
-    <row r="33" spans="1:28" ht="52.5" thickBot="1">
+    <row r="33" spans="1:28" ht="51.75" thickBot="1">
       <c r="A33" s="6" t="s">
         <v>56</v>
       </c>
@@ -4640,7 +4719,7 @@
       <c r="D33" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="12" t="s">
         <v>391</v>
       </c>
       <c r="F33" s="6" t="s">
@@ -4675,7 +4754,7 @@
       <c r="AA33" s="6"/>
       <c r="AB33" s="6"/>
     </row>
-    <row r="34" spans="1:28" ht="52.5" thickBot="1">
+    <row r="34" spans="1:28" ht="51.75" thickBot="1">
       <c r="A34" s="6" t="s">
         <v>58</v>
       </c>
@@ -4686,7 +4765,7 @@
       <c r="D34" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="12" t="s">
         <v>392</v>
       </c>
       <c r="F34" s="6" t="s">
@@ -4721,7 +4800,7 @@
       <c r="AA34" s="6"/>
       <c r="AB34" s="6"/>
     </row>
-    <row r="35" spans="1:28" ht="65.25" thickBot="1">
+    <row r="35" spans="1:28" ht="64.5" thickBot="1">
       <c r="A35" s="6" t="s">
         <v>59</v>
       </c>
@@ -4732,7 +4811,7 @@
       <c r="D35" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="12" t="s">
         <v>478</v>
       </c>
       <c r="F35" s="6" t="s">
@@ -4753,7 +4832,7 @@
       </c>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
-      <c r="N35" s="22" t="s">
+      <c r="N35" s="18" t="s">
         <v>754</v>
       </c>
       <c r="O35" s="8"/>
@@ -4778,13 +4857,13 @@
       <c r="B36" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="10">
         <v>43913</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="E36" s="12" t="s">
         <v>393</v>
       </c>
       <c r="F36" s="8"/>
@@ -4803,7 +4882,7 @@
         <v>29</v>
       </c>
       <c r="M36" s="8"/>
-      <c r="N36" s="22" t="s">
+      <c r="N36" s="18" t="s">
         <v>755</v>
       </c>
       <c r="O36" s="8"/>
@@ -4821,7 +4900,7 @@
       <c r="AA36" s="6"/>
       <c r="AB36" s="6"/>
     </row>
-    <row r="37" spans="1:28" ht="65.25" thickBot="1">
+    <row r="37" spans="1:28" ht="64.5" thickBot="1">
       <c r="A37" s="8" t="s">
         <v>91</v>
       </c>
@@ -4830,7 +4909,7 @@
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="22" t="s">
         <v>394</v>
       </c>
       <c r="F37" s="8"/>
@@ -4849,7 +4928,7 @@
         <v>443</v>
       </c>
       <c r="M37" s="8"/>
-      <c r="N37" s="22" t="s">
+      <c r="N37" s="18" t="s">
         <v>756</v>
       </c>
       <c r="O37" s="8"/>
@@ -4867,7 +4946,7 @@
       <c r="AA37" s="6"/>
       <c r="AB37" s="6"/>
     </row>
-    <row r="38" spans="1:28" ht="65.25" thickBot="1">
+    <row r="38" spans="1:28" ht="64.5" thickBot="1">
       <c r="A38" s="8" t="s">
         <v>93</v>
       </c>
@@ -4876,7 +4955,7 @@
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="22" t="s">
         <v>479</v>
       </c>
       <c r="F38" s="8"/>
@@ -4895,7 +4974,7 @@
         <v>443</v>
       </c>
       <c r="M38" s="8"/>
-      <c r="N38" s="22" t="s">
+      <c r="N38" s="18" t="s">
         <v>757</v>
       </c>
       <c r="O38" s="8"/>
@@ -4913,7 +4992,7 @@
       <c r="AA38" s="6"/>
       <c r="AB38" s="6"/>
     </row>
-    <row r="39" spans="1:28" ht="65.25" thickBot="1">
+    <row r="39" spans="1:28" ht="64.5" thickBot="1">
       <c r="A39" s="8" t="s">
         <v>95</v>
       </c>
@@ -4922,7 +5001,7 @@
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
-      <c r="E39" s="14" t="s">
+      <c r="E39" s="22" t="s">
         <v>395</v>
       </c>
       <c r="F39" s="8"/>
@@ -4941,7 +5020,7 @@
         <v>443</v>
       </c>
       <c r="M39" s="8"/>
-      <c r="N39" s="22" t="s">
+      <c r="N39" s="18" t="s">
         <v>758</v>
       </c>
       <c r="O39" s="8"/>
@@ -4968,7 +5047,7 @@
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
-      <c r="E40" s="15" t="s">
+      <c r="E40" s="12" t="s">
         <v>480</v>
       </c>
       <c r="F40" s="8"/>
@@ -4987,7 +5066,7 @@
         <v>443</v>
       </c>
       <c r="M40" s="8"/>
-      <c r="N40" s="22" t="s">
+      <c r="N40" s="18" t="s">
         <v>759</v>
       </c>
       <c r="O40" s="8"/>
@@ -5012,11 +5091,11 @@
       <c r="B41" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="10">
         <v>43913</v>
       </c>
       <c r="D41" s="8"/>
-      <c r="E41" s="15" t="s">
+      <c r="E41" s="12" t="s">
         <v>481</v>
       </c>
       <c r="F41" s="8"/>
@@ -5035,7 +5114,7 @@
         <v>443</v>
       </c>
       <c r="M41" s="8"/>
-      <c r="N41" s="22" t="s">
+      <c r="N41" s="18" t="s">
         <v>759</v>
       </c>
       <c r="O41" s="8"/>
@@ -5066,7 +5145,7 @@
       <c r="D42" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="15" t="s">
+      <c r="E42" s="12" t="s">
         <v>482</v>
       </c>
       <c r="F42" s="8"/>
@@ -5108,13 +5187,13 @@
       <c r="B43" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="10">
         <v>43913</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="14" t="s">
+      <c r="E43" s="22" t="s">
         <v>483</v>
       </c>
       <c r="F43" s="8"/>
@@ -5158,13 +5237,13 @@
       <c r="B44" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="10">
         <v>43913</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E44" s="12" t="s">
         <v>484</v>
       </c>
       <c r="F44" s="8"/>
@@ -5183,7 +5262,7 @@
         <v>29</v>
       </c>
       <c r="M44" s="8"/>
-      <c r="N44" s="22" t="s">
+      <c r="N44" s="18" t="s">
         <v>764</v>
       </c>
       <c r="O44" s="8"/>
@@ -5208,13 +5287,13 @@
       <c r="B45" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="10">
         <v>43913</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E45" s="22" t="s">
         <v>396</v>
       </c>
       <c r="F45" s="8"/>
@@ -5231,7 +5310,7 @@
       </c>
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
-      <c r="N45" s="22" t="s">
+      <c r="N45" s="18" t="s">
         <v>765</v>
       </c>
       <c r="O45" s="8"/>
@@ -5256,13 +5335,13 @@
       <c r="B46" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="10">
         <v>43913</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="15" t="s">
+      <c r="E46" s="12" t="s">
         <v>397</v>
       </c>
       <c r="F46" s="8" t="s">
@@ -5306,13 +5385,13 @@
       <c r="B47" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="10">
         <v>43913</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="14" t="s">
+      <c r="E47" s="22" t="s">
         <v>398</v>
       </c>
       <c r="F47" s="8" t="s">
@@ -5331,7 +5410,7 @@
       </c>
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
-      <c r="N47" s="22" t="s">
+      <c r="N47" s="18" t="s">
         <v>767</v>
       </c>
       <c r="O47" s="8"/>
@@ -5356,13 +5435,13 @@
       <c r="B48" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="10">
         <v>43913</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E48" s="14" t="s">
+      <c r="E48" s="22" t="s">
         <v>399</v>
       </c>
       <c r="F48" s="8" t="s">
@@ -5383,7 +5462,7 @@
         <v>29</v>
       </c>
       <c r="M48" s="8"/>
-      <c r="N48" s="22" t="s">
+      <c r="N48" s="18" t="s">
         <v>768</v>
       </c>
       <c r="O48" s="8"/>
@@ -5408,13 +5487,13 @@
       <c r="B49" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C49" s="10">
         <v>43913</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E49" s="14" t="s">
+      <c r="E49" s="22" t="s">
         <v>400</v>
       </c>
       <c r="F49" s="8" t="s">
@@ -5433,7 +5512,7 @@
       </c>
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
-      <c r="N49" s="22" t="s">
+      <c r="N49" s="18" t="s">
         <v>770</v>
       </c>
       <c r="O49" s="8"/>
@@ -5458,13 +5537,13 @@
       <c r="B50" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50" s="10">
         <v>43913</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E50" s="14" t="s">
+      <c r="E50" s="22" t="s">
         <v>401</v>
       </c>
       <c r="F50" s="8" t="s">
@@ -5483,7 +5562,7 @@
       </c>
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
-      <c r="N50" s="22" t="s">
+      <c r="N50" s="18" t="s">
         <v>771</v>
       </c>
       <c r="O50" s="8"/>
@@ -5508,13 +5587,13 @@
       <c r="B51" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C51" s="11">
+      <c r="C51" s="10">
         <v>43913</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E51" s="14" t="s">
+      <c r="E51" s="22" t="s">
         <v>402</v>
       </c>
       <c r="F51" s="8" t="s">
@@ -5533,7 +5612,7 @@
       </c>
       <c r="L51" s="8"/>
       <c r="M51" s="8"/>
-      <c r="N51" s="22" t="s">
+      <c r="N51" s="18" t="s">
         <v>772</v>
       </c>
       <c r="O51" s="8"/>
@@ -5558,13 +5637,13 @@
       <c r="B52" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C52" s="10">
         <v>43913</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E52" s="14" t="s">
+      <c r="E52" s="22" t="s">
         <v>403</v>
       </c>
       <c r="F52" s="8" t="s">
@@ -5583,7 +5662,7 @@
       </c>
       <c r="L52" s="8"/>
       <c r="M52" s="8"/>
-      <c r="N52" s="22" t="s">
+      <c r="N52" s="18" t="s">
         <v>772</v>
       </c>
       <c r="O52" s="8"/>
@@ -5608,13 +5687,13 @@
       <c r="B53" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C53" s="11">
+      <c r="C53" s="10">
         <v>43913</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E53" s="14" t="s">
+      <c r="E53" s="22" t="s">
         <v>404</v>
       </c>
       <c r="F53" s="8" t="s">
@@ -5660,14 +5739,14 @@
       <c r="D54" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E54" s="15" t="s">
+      <c r="E54" s="12" t="s">
         <v>485</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>134</v>
       </c>
       <c r="G54" s="8"/>
-      <c r="H54" s="12" t="s">
+      <c r="H54" s="11" t="s">
         <v>135</v>
       </c>
       <c r="I54" s="8"/>
@@ -5710,7 +5789,7 @@
       <c r="D55" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="15" t="s">
+      <c r="E55" s="12" t="s">
         <v>486</v>
       </c>
       <c r="F55" s="8"/>
@@ -5729,7 +5808,7 @@
         <v>29</v>
       </c>
       <c r="M55" s="8"/>
-      <c r="N55" s="22" t="s">
+      <c r="N55" s="18" t="s">
         <v>773</v>
       </c>
       <c r="O55" s="8"/>
@@ -5747,7 +5826,7 @@
       <c r="AA55" s="6"/>
       <c r="AB55" s="6"/>
     </row>
-    <row r="56" spans="1:28" ht="65.25" thickBot="1">
+    <row r="56" spans="1:28" ht="64.5" thickBot="1">
       <c r="A56" s="8" t="s">
         <v>139</v>
       </c>
@@ -5760,7 +5839,7 @@
       <c r="D56" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E56" s="14" t="s">
+      <c r="E56" s="22" t="s">
         <v>487</v>
       </c>
       <c r="F56" s="8"/>
@@ -5777,7 +5856,7 @@
       </c>
       <c r="L56" s="8"/>
       <c r="M56" s="8"/>
-      <c r="N56" s="22" t="s">
+      <c r="N56" s="18" t="s">
         <v>774</v>
       </c>
       <c r="O56" s="8"/>
@@ -5808,7 +5887,7 @@
       <c r="D57" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E57" s="15" t="s">
+      <c r="E57" s="12" t="s">
         <v>405</v>
       </c>
       <c r="F57" s="8"/>
@@ -5827,7 +5906,7 @@
         <v>29</v>
       </c>
       <c r="M57" s="8"/>
-      <c r="N57" s="22" t="s">
+      <c r="N57" s="18" t="s">
         <v>775</v>
       </c>
       <c r="O57" s="8"/>
@@ -5858,7 +5937,7 @@
       <c r="D58" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E58" s="15" t="s">
+      <c r="E58" s="12" t="s">
         <v>406</v>
       </c>
       <c r="F58" s="8"/>
@@ -5877,7 +5956,7 @@
         <v>29</v>
       </c>
       <c r="M58" s="8"/>
-      <c r="N58" s="22" t="s">
+      <c r="N58" s="18" t="s">
         <v>776</v>
       </c>
       <c r="O58" s="8"/>
@@ -5908,7 +5987,7 @@
       <c r="D59" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="15" t="s">
+      <c r="E59" s="12" t="s">
         <v>407</v>
       </c>
       <c r="F59" s="8"/>
@@ -5925,7 +6004,7 @@
       </c>
       <c r="L59" s="8"/>
       <c r="M59" s="8"/>
-      <c r="N59" s="22" t="s">
+      <c r="N59" s="18" t="s">
         <v>777</v>
       </c>
       <c r="O59" s="8"/>
@@ -5956,7 +6035,7 @@
       <c r="D60" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E60" s="15" t="s">
+      <c r="E60" s="12" t="s">
         <v>488</v>
       </c>
       <c r="F60" s="8"/>
@@ -5973,7 +6052,7 @@
       </c>
       <c r="L60" s="8"/>
       <c r="M60" s="8"/>
-      <c r="N60" s="22" t="s">
+      <c r="N60" s="18" t="s">
         <v>778</v>
       </c>
       <c r="O60" s="8"/>
@@ -6004,7 +6083,7 @@
       <c r="D61" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E61" s="15" t="s">
+      <c r="E61" s="12" t="s">
         <v>408</v>
       </c>
       <c r="F61" s="8"/>
@@ -6021,7 +6100,7 @@
       </c>
       <c r="L61" s="8"/>
       <c r="M61" s="8"/>
-      <c r="N61" s="22" t="s">
+      <c r="N61" s="18" t="s">
         <v>779</v>
       </c>
       <c r="O61" s="8"/>
@@ -6052,7 +6131,7 @@
       <c r="D62" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E62" s="15" t="s">
+      <c r="E62" s="12" t="s">
         <v>409</v>
       </c>
       <c r="F62" s="8"/>
@@ -6069,7 +6148,7 @@
       </c>
       <c r="L62" s="8"/>
       <c r="M62" s="8"/>
-      <c r="N62" s="22" t="s">
+      <c r="N62" s="18" t="s">
         <v>778</v>
       </c>
       <c r="O62" s="8"/>
@@ -6100,7 +6179,7 @@
       <c r="D63" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E63" s="15" t="s">
+      <c r="E63" s="12" t="s">
         <v>410</v>
       </c>
       <c r="F63" s="8"/>
@@ -6144,7 +6223,7 @@
       <c r="D64" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E64" s="15" t="s">
+      <c r="E64" s="12" t="s">
         <v>489</v>
       </c>
       <c r="F64" s="8"/>
@@ -6161,7 +6240,7 @@
       </c>
       <c r="L64" s="8"/>
       <c r="M64" s="8"/>
-      <c r="N64" s="22" t="s">
+      <c r="N64" s="18" t="s">
         <v>780</v>
       </c>
       <c r="O64" s="8"/>
@@ -6192,7 +6271,7 @@
       <c r="D65" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E65" s="15" t="s">
+      <c r="E65" s="12" t="s">
         <v>490</v>
       </c>
       <c r="F65" s="8"/>
@@ -6209,7 +6288,7 @@
       </c>
       <c r="L65" s="8"/>
       <c r="M65" s="8"/>
-      <c r="N65" s="22" t="s">
+      <c r="N65" s="18" t="s">
         <v>780</v>
       </c>
       <c r="O65" s="8"/>
@@ -6240,7 +6319,7 @@
       <c r="D66" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E66" s="15" t="s">
+      <c r="E66" s="12" t="s">
         <v>491</v>
       </c>
       <c r="F66" s="8"/>
@@ -6257,7 +6336,7 @@
       </c>
       <c r="L66" s="8"/>
       <c r="M66" s="8"/>
-      <c r="N66" s="22" t="s">
+      <c r="N66" s="18" t="s">
         <v>780</v>
       </c>
       <c r="O66" s="8"/>
@@ -6288,7 +6367,7 @@
       <c r="D67" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E67" s="15" t="s">
+      <c r="E67" s="12" t="s">
         <v>492</v>
       </c>
       <c r="F67" s="8"/>
@@ -6305,7 +6384,7 @@
       </c>
       <c r="L67" s="8"/>
       <c r="M67" s="8"/>
-      <c r="N67" s="22" t="s">
+      <c r="N67" s="18" t="s">
         <v>781</v>
       </c>
       <c r="O67" s="8"/>
@@ -6736,7 +6815,7 @@
       <c r="D77" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E77" s="15" t="s">
+      <c r="E77" s="12" t="s">
         <v>493</v>
       </c>
       <c r="F77" s="8" t="s">
@@ -6755,7 +6834,7 @@
       </c>
       <c r="L77" s="8"/>
       <c r="M77" s="8"/>
-      <c r="N77" s="22" t="s">
+      <c r="N77" s="18" t="s">
         <v>782</v>
       </c>
       <c r="O77" s="8"/>
@@ -6786,7 +6865,7 @@
       <c r="D78" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E78" s="15" t="s">
+      <c r="E78" s="12" t="s">
         <v>494</v>
       </c>
       <c r="F78" s="8" t="s">
@@ -6805,7 +6884,7 @@
       </c>
       <c r="L78" s="8"/>
       <c r="M78" s="8"/>
-      <c r="N78" s="22" t="s">
+      <c r="N78" s="18" t="s">
         <v>783</v>
       </c>
       <c r="O78" s="8"/>
@@ -6836,7 +6915,7 @@
       <c r="D79" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E79" s="15" t="s">
+      <c r="E79" s="12" t="s">
         <v>495</v>
       </c>
       <c r="F79" s="8" t="s">
@@ -6855,7 +6934,7 @@
       </c>
       <c r="L79" s="8"/>
       <c r="M79" s="8"/>
-      <c r="N79" s="22" t="s">
+      <c r="N79" s="18" t="s">
         <v>784</v>
       </c>
       <c r="O79" s="8"/>
@@ -6886,7 +6965,7 @@
       <c r="D80" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E80" s="15" t="s">
+      <c r="E80" s="12" t="s">
         <v>496</v>
       </c>
       <c r="F80" s="8" t="s">
@@ -6905,7 +6984,7 @@
       </c>
       <c r="L80" s="8"/>
       <c r="M80" s="8"/>
-      <c r="N80" s="22" t="s">
+      <c r="N80" s="18" t="s">
         <v>785</v>
       </c>
       <c r="O80" s="8"/>
@@ -6936,7 +7015,7 @@
       <c r="D81" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E81" s="15" t="s">
+      <c r="E81" s="12" t="s">
         <v>497</v>
       </c>
       <c r="F81" s="8" t="s">
@@ -6955,7 +7034,7 @@
       </c>
       <c r="L81" s="8"/>
       <c r="M81" s="8"/>
-      <c r="N81" s="22" t="s">
+      <c r="N81" s="18" t="s">
         <v>786</v>
       </c>
       <c r="O81" s="8"/>
@@ -6986,7 +7065,7 @@
       <c r="D82" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E82" s="15" t="s">
+      <c r="E82" s="12" t="s">
         <v>498</v>
       </c>
       <c r="F82" s="8" t="s">
@@ -7005,7 +7084,7 @@
       </c>
       <c r="L82" s="8"/>
       <c r="M82" s="8"/>
-      <c r="N82" s="22" t="s">
+      <c r="N82" s="18" t="s">
         <v>787</v>
       </c>
       <c r="O82" s="8"/>
@@ -7036,7 +7115,7 @@
       <c r="D83" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E83" s="15" t="s">
+      <c r="E83" s="12" t="s">
         <v>499</v>
       </c>
       <c r="F83" s="8" t="s">
@@ -7055,7 +7134,7 @@
       </c>
       <c r="L83" s="8"/>
       <c r="M83" s="8"/>
-      <c r="N83" s="22" t="s">
+      <c r="N83" s="18" t="s">
         <v>788</v>
       </c>
       <c r="O83" s="8"/>
@@ -7086,7 +7165,7 @@
       <c r="D84" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E84" s="15" t="s">
+      <c r="E84" s="12" t="s">
         <v>500</v>
       </c>
       <c r="F84" s="8" t="s">
@@ -7105,7 +7184,7 @@
       </c>
       <c r="L84" s="8"/>
       <c r="M84" s="8"/>
-      <c r="N84" s="22" t="s">
+      <c r="N84" s="18" t="s">
         <v>789</v>
       </c>
       <c r="O84" s="8"/>
@@ -7136,7 +7215,7 @@
       <c r="D85" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E85" s="15" t="s">
+      <c r="E85" s="12" t="s">
         <v>501</v>
       </c>
       <c r="F85" s="8" t="s">
@@ -7155,7 +7234,7 @@
       </c>
       <c r="L85" s="8"/>
       <c r="M85" s="8"/>
-      <c r="N85" s="22" t="s">
+      <c r="N85" s="18" t="s">
         <v>790</v>
       </c>
       <c r="O85" s="8"/>
@@ -7186,7 +7265,7 @@
       <c r="D86" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E86" s="15" t="s">
+      <c r="E86" s="12" t="s">
         <v>502</v>
       </c>
       <c r="F86" s="8" t="s">
@@ -7236,7 +7315,7 @@
       <c r="D87" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E87" s="15" t="s">
+      <c r="E87" s="12" t="s">
         <v>503</v>
       </c>
       <c r="F87" s="8" t="s">
@@ -7255,7 +7334,7 @@
       </c>
       <c r="L87" s="8"/>
       <c r="M87" s="8"/>
-      <c r="N87" s="22" t="s">
+      <c r="N87" s="18" t="s">
         <v>792</v>
       </c>
       <c r="O87" s="8"/>
@@ -7286,7 +7365,7 @@
       <c r="D88" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E88" s="15" t="s">
+      <c r="E88" s="12" t="s">
         <v>504</v>
       </c>
       <c r="F88" s="8" t="s">
@@ -7307,7 +7386,7 @@
         <v>29</v>
       </c>
       <c r="M88" s="8"/>
-      <c r="N88" s="22" t="s">
+      <c r="N88" s="18" t="s">
         <v>793</v>
       </c>
       <c r="O88" s="8"/>
@@ -7334,14 +7413,14 @@
       </c>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
-      <c r="E89" s="10" t="s">
+      <c r="E89" s="12" t="s">
         <v>411</v>
       </c>
       <c r="F89" s="8" t="s">
         <v>245</v>
       </c>
       <c r="G89" s="8"/>
-      <c r="H89" s="16" t="s">
+      <c r="H89" s="13" t="s">
         <v>241</v>
       </c>
       <c r="I89" s="8"/>
@@ -7382,7 +7461,7 @@
       <c r="D90" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E90" s="15" t="s">
+      <c r="E90" s="12" t="s">
         <v>505</v>
       </c>
       <c r="F90" s="8" t="s">
@@ -7405,7 +7484,7 @@
         <v>252</v>
       </c>
       <c r="M90" s="8"/>
-      <c r="N90" s="22" t="s">
+      <c r="N90" s="18" t="s">
         <v>794</v>
       </c>
       <c r="O90" s="8"/>
@@ -7436,7 +7515,7 @@
       <c r="D91" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E91" s="15" t="s">
+      <c r="E91" s="12" t="s">
         <v>506</v>
       </c>
       <c r="F91" s="8" t="s">
@@ -7459,7 +7538,7 @@
         <v>252</v>
       </c>
       <c r="M91" s="8"/>
-      <c r="N91" s="22" t="s">
+      <c r="N91" s="18" t="s">
         <v>795</v>
       </c>
       <c r="O91" s="8"/>
@@ -7490,7 +7569,7 @@
       <c r="D92" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E92" s="15" t="s">
+      <c r="E92" s="12" t="s">
         <v>507</v>
       </c>
       <c r="F92" s="8" t="s">
@@ -7513,7 +7592,7 @@
         <v>252</v>
       </c>
       <c r="M92" s="8"/>
-      <c r="N92" s="22" t="s">
+      <c r="N92" s="18" t="s">
         <v>796</v>
       </c>
       <c r="O92" s="8"/>
@@ -7544,7 +7623,7 @@
       <c r="D93" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E93" s="15" t="s">
+      <c r="E93" s="12" t="s">
         <v>508</v>
       </c>
       <c r="F93" s="8" t="s">
@@ -7598,7 +7677,7 @@
       <c r="D94" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E94" s="15" t="s">
+      <c r="E94" s="12" t="s">
         <v>509</v>
       </c>
       <c r="F94" s="8" t="s">
@@ -7621,7 +7700,7 @@
         <v>252</v>
       </c>
       <c r="M94" s="8"/>
-      <c r="N94" s="22" t="s">
+      <c r="N94" s="18" t="s">
         <v>798</v>
       </c>
       <c r="O94" s="8"/>
@@ -7652,7 +7731,7 @@
       <c r="D95" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E95" s="15" t="s">
+      <c r="E95" s="12" t="s">
         <v>510</v>
       </c>
       <c r="F95" s="8" t="s">
@@ -7673,7 +7752,7 @@
       </c>
       <c r="L95" s="8"/>
       <c r="M95" s="8"/>
-      <c r="N95" s="20" t="s">
+      <c r="N95" s="16" t="s">
         <v>799</v>
       </c>
       <c r="O95" s="8"/>
@@ -7704,7 +7783,7 @@
       <c r="D96" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E96" s="15" t="s">
+      <c r="E96" s="12" t="s">
         <v>511</v>
       </c>
       <c r="F96" s="8" t="s">
@@ -7725,7 +7804,7 @@
       </c>
       <c r="L96" s="8"/>
       <c r="M96" s="8"/>
-      <c r="N96" s="20" t="s">
+      <c r="N96" s="16" t="s">
         <v>799</v>
       </c>
       <c r="O96" s="8"/>
@@ -7756,7 +7835,7 @@
       <c r="D97" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E97" s="15" t="s">
+      <c r="E97" s="12" t="s">
         <v>512</v>
       </c>
       <c r="F97" s="8" t="s">
@@ -7806,7 +7885,7 @@
       <c r="D98" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E98" s="15" t="s">
+      <c r="E98" s="12" t="s">
         <v>513</v>
       </c>
       <c r="F98" s="8" t="s">
@@ -7860,7 +7939,7 @@
       <c r="D99" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E99" s="15" t="s">
+      <c r="E99" s="12" t="s">
         <v>514</v>
       </c>
       <c r="F99" s="8" t="s">
@@ -7881,7 +7960,7 @@
       </c>
       <c r="L99" s="8"/>
       <c r="M99" s="8"/>
-      <c r="N99" s="22" t="s">
+      <c r="N99" s="18" t="s">
         <v>802</v>
       </c>
       <c r="O99" s="8"/>
@@ -7912,7 +7991,7 @@
       <c r="D100" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E100" s="15" t="s">
+      <c r="E100" s="12" t="s">
         <v>515</v>
       </c>
       <c r="F100" s="8" t="s">
@@ -7933,7 +8012,7 @@
       </c>
       <c r="L100" s="8"/>
       <c r="M100" s="8"/>
-      <c r="N100" s="22" t="s">
+      <c r="N100" s="18" t="s">
         <v>803</v>
       </c>
       <c r="O100" s="8"/>
@@ -7964,7 +8043,7 @@
       <c r="D101" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E101" s="15" t="s">
+      <c r="E101" s="12" t="s">
         <v>412</v>
       </c>
       <c r="F101" s="8"/>
@@ -7979,7 +8058,7 @@
       <c r="K101" s="8"/>
       <c r="L101" s="8"/>
       <c r="M101" s="8"/>
-      <c r="N101" s="20" t="s">
+      <c r="N101" s="16" t="s">
         <v>804</v>
       </c>
       <c r="O101" s="8"/>
@@ -8010,7 +8089,7 @@
       <c r="D102" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E102" s="15" t="s">
+      <c r="E102" s="12" t="s">
         <v>413</v>
       </c>
       <c r="F102" s="8" t="s">
@@ -8027,7 +8106,7 @@
       <c r="K102" s="8"/>
       <c r="L102" s="8"/>
       <c r="M102" s="8"/>
-      <c r="N102" s="22" t="s">
+      <c r="N102" s="18" t="s">
         <v>805</v>
       </c>
       <c r="O102" s="8"/>
@@ -8058,7 +8137,7 @@
       <c r="D103" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E103" s="15" t="s">
+      <c r="E103" s="12" t="s">
         <v>414</v>
       </c>
       <c r="F103" s="8" t="s">
@@ -8075,7 +8154,7 @@
       <c r="K103" s="8"/>
       <c r="L103" s="8"/>
       <c r="M103" s="8"/>
-      <c r="N103" s="22" t="s">
+      <c r="N103" s="18" t="s">
         <v>805</v>
       </c>
       <c r="O103" s="8"/>
@@ -8106,7 +8185,7 @@
       <c r="D104" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E104" s="15" t="s">
+      <c r="E104" s="12" t="s">
         <v>415</v>
       </c>
       <c r="F104" s="8" t="s">
@@ -8125,7 +8204,7 @@
         <v>29</v>
       </c>
       <c r="M104" s="8"/>
-      <c r="N104" s="22" t="s">
+      <c r="N104" s="18" t="s">
         <v>806</v>
       </c>
       <c r="O104" s="8"/>
@@ -8156,7 +8235,7 @@
       <c r="D105" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E105" s="15" t="s">
+      <c r="E105" s="12" t="s">
         <v>416</v>
       </c>
       <c r="F105" s="8" t="s">
@@ -8173,7 +8252,7 @@
       <c r="K105" s="8"/>
       <c r="L105" s="8"/>
       <c r="M105" s="8"/>
-      <c r="N105" s="22" t="s">
+      <c r="N105" s="18" t="s">
         <v>806</v>
       </c>
       <c r="O105" s="8"/>
@@ -8204,7 +8283,7 @@
       <c r="D106" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E106" s="15" t="s">
+      <c r="E106" s="12" t="s">
         <v>417</v>
       </c>
       <c r="F106" s="8" t="s">
@@ -8223,7 +8302,7 @@
       </c>
       <c r="L106" s="8"/>
       <c r="M106" s="8"/>
-      <c r="N106" s="22" t="s">
+      <c r="N106" s="18" t="s">
         <v>806</v>
       </c>
       <c r="O106" s="8"/>
@@ -8254,7 +8333,7 @@
       <c r="D107" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E107" s="15" t="s">
+      <c r="E107" s="12" t="s">
         <v>418</v>
       </c>
       <c r="F107" s="8" t="s">
@@ -8273,7 +8352,7 @@
       </c>
       <c r="L107" s="8"/>
       <c r="M107" s="8"/>
-      <c r="N107" s="22" t="s">
+      <c r="N107" s="18" t="s">
         <v>806</v>
       </c>
       <c r="O107" s="8"/>
@@ -8304,7 +8383,7 @@
       <c r="D108" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E108" s="15" t="s">
+      <c r="E108" s="12" t="s">
         <v>419</v>
       </c>
       <c r="F108" s="8" t="s">
@@ -8325,7 +8404,7 @@
         <v>29</v>
       </c>
       <c r="M108" s="8"/>
-      <c r="N108" s="22" t="s">
+      <c r="N108" s="18" t="s">
         <v>806</v>
       </c>
       <c r="O108" s="8"/>
@@ -8356,7 +8435,7 @@
       <c r="D109" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E109" s="15" t="s">
+      <c r="E109" s="12" t="s">
         <v>420</v>
       </c>
       <c r="F109" s="8" t="s">
@@ -8375,7 +8454,7 @@
         <v>29</v>
       </c>
       <c r="M109" s="8"/>
-      <c r="N109" s="22" t="s">
+      <c r="N109" s="18" t="s">
         <v>806</v>
       </c>
       <c r="O109" s="8"/>
@@ -8406,7 +8485,7 @@
       <c r="D110" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E110" s="15" t="s">
+      <c r="E110" s="12" t="s">
         <v>516</v>
       </c>
       <c r="F110" s="8" t="s">
@@ -8415,7 +8494,7 @@
       <c r="G110" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="H110" s="16" t="s">
+      <c r="H110" s="13" t="s">
         <v>241</v>
       </c>
       <c r="I110" s="8"/>
@@ -8456,7 +8535,7 @@
       <c r="D111" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E111" s="14" t="s">
+      <c r="E111" s="22" t="s">
         <v>421</v>
       </c>
       <c r="F111" s="8" t="s">
@@ -8465,7 +8544,7 @@
       <c r="G111" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="H111" s="16" t="s">
+      <c r="H111" s="13" t="s">
         <v>241</v>
       </c>
       <c r="I111" s="8"/>
@@ -8477,7 +8556,7 @@
       </c>
       <c r="L111" s="8"/>
       <c r="M111" s="8"/>
-      <c r="N111" s="22" t="s">
+      <c r="N111" s="18" t="s">
         <v>808</v>
       </c>
       <c r="O111" s="8"/>
@@ -8508,7 +8587,7 @@
       <c r="D112" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E112" s="15" t="s">
+      <c r="E112" s="12" t="s">
         <v>517</v>
       </c>
       <c r="F112" s="8" t="s">
@@ -8527,7 +8606,7 @@
       </c>
       <c r="L112" s="8"/>
       <c r="M112" s="8"/>
-      <c r="N112" s="22" t="s">
+      <c r="N112" s="18" t="s">
         <v>809</v>
       </c>
       <c r="O112" s="8"/>
@@ -8558,7 +8637,7 @@
       <c r="D113" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E113" s="15" t="s">
+      <c r="E113" s="12" t="s">
         <v>518</v>
       </c>
       <c r="F113" s="8" t="s">
@@ -8577,7 +8656,7 @@
       </c>
       <c r="L113" s="8"/>
       <c r="M113" s="8"/>
-      <c r="N113" s="22" t="s">
+      <c r="N113" s="18" t="s">
         <v>810</v>
       </c>
       <c r="O113" s="8"/>
@@ -8608,7 +8687,7 @@
       <c r="D114" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E114" s="14" t="s">
+      <c r="E114" s="22" t="s">
         <v>519</v>
       </c>
       <c r="F114" s="8" t="s">
@@ -8627,7 +8706,7 @@
       </c>
       <c r="L114" s="8"/>
       <c r="M114" s="8"/>
-      <c r="N114" s="22" t="s">
+      <c r="N114" s="18" t="s">
         <v>811</v>
       </c>
       <c r="O114" s="8"/>
@@ -8658,7 +8737,7 @@
       <c r="D115" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E115" s="14" t="s">
+      <c r="E115" s="22" t="s">
         <v>520</v>
       </c>
       <c r="F115" s="8" t="s">
@@ -8679,7 +8758,7 @@
         <v>29</v>
       </c>
       <c r="M115" s="8"/>
-      <c r="N115" s="22" t="s">
+      <c r="N115" s="18" t="s">
         <v>812</v>
       </c>
       <c r="O115" s="8"/>
@@ -8710,7 +8789,7 @@
       <c r="D116" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E116" s="15" t="s">
+      <c r="E116" s="12" t="s">
         <v>521</v>
       </c>
       <c r="F116" s="8" t="s">
@@ -8731,7 +8810,7 @@
         <v>29</v>
       </c>
       <c r="M116" s="8"/>
-      <c r="N116" s="22" t="s">
+      <c r="N116" s="18" t="s">
         <v>813</v>
       </c>
       <c r="O116" s="8"/>
@@ -8762,7 +8841,7 @@
       <c r="D117" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E117" s="15" t="s">
+      <c r="E117" s="12" t="s">
         <v>422</v>
       </c>
       <c r="F117" s="8" t="s">
@@ -8781,7 +8860,7 @@
       </c>
       <c r="L117" s="8"/>
       <c r="M117" s="8"/>
-      <c r="N117" s="22" t="s">
+      <c r="N117" s="18" t="s">
         <v>814</v>
       </c>
       <c r="O117" s="8"/>
@@ -8812,7 +8891,7 @@
       <c r="D118" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E118" s="15" t="s">
+      <c r="E118" s="12" t="s">
         <v>423</v>
       </c>
       <c r="F118" s="8" t="s">
@@ -8831,7 +8910,7 @@
       </c>
       <c r="L118" s="8"/>
       <c r="M118" s="8"/>
-      <c r="N118" s="22" t="s">
+      <c r="N118" s="18" t="s">
         <v>814</v>
       </c>
       <c r="O118" s="8"/>
@@ -8862,7 +8941,7 @@
       <c r="D119" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E119" s="15" t="s">
+      <c r="E119" s="12" t="s">
         <v>522</v>
       </c>
       <c r="F119" s="8" t="s">
@@ -8883,7 +8962,7 @@
         <v>319</v>
       </c>
       <c r="M119" s="8"/>
-      <c r="N119" s="22" t="s">
+      <c r="N119" s="18" t="s">
         <v>815</v>
       </c>
       <c r="O119" s="8"/>
@@ -8914,7 +8993,7 @@
       <c r="D120" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E120" s="15" t="s">
+      <c r="E120" s="12" t="s">
         <v>523</v>
       </c>
       <c r="F120" s="8" t="s">
@@ -8933,7 +9012,7 @@
       </c>
       <c r="L120" s="8"/>
       <c r="M120" s="8"/>
-      <c r="N120" s="22" t="s">
+      <c r="N120" s="18" t="s">
         <v>815</v>
       </c>
       <c r="O120" s="8"/>
@@ -8964,7 +9043,7 @@
       <c r="D121" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E121" s="15" t="s">
+      <c r="E121" s="12" t="s">
         <v>524</v>
       </c>
       <c r="F121" s="8" t="s">
@@ -8983,7 +9062,7 @@
       </c>
       <c r="L121" s="8"/>
       <c r="M121" s="8"/>
-      <c r="N121" s="22" t="s">
+      <c r="N121" s="18" t="s">
         <v>815</v>
       </c>
       <c r="O121" s="8"/>
@@ -9014,7 +9093,7 @@
       <c r="D122" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E122" s="15" t="s">
+      <c r="E122" s="12" t="s">
         <v>525</v>
       </c>
       <c r="F122" s="8" t="s">
@@ -9033,7 +9112,7 @@
       </c>
       <c r="L122" s="8"/>
       <c r="M122" s="8"/>
-      <c r="N122" s="22" t="s">
+      <c r="N122" s="18" t="s">
         <v>815</v>
       </c>
       <c r="O122" s="8"/>
@@ -9064,14 +9143,14 @@
       <c r="D123" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E123" s="15" t="s">
+      <c r="E123" s="12" t="s">
         <v>526</v>
       </c>
       <c r="F123" s="8" t="s">
         <v>306</v>
       </c>
       <c r="G123" s="8"/>
-      <c r="H123" s="16" t="s">
+      <c r="H123" s="13" t="s">
         <v>241</v>
       </c>
       <c r="I123" s="8"/>
@@ -9083,7 +9162,7 @@
       </c>
       <c r="L123" s="8"/>
       <c r="M123" s="8"/>
-      <c r="N123" s="22" t="s">
+      <c r="N123" s="18" t="s">
         <v>808</v>
       </c>
       <c r="O123" s="8"/>
@@ -9114,7 +9193,7 @@
       <c r="D124" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E124" s="15" t="s">
+      <c r="E124" s="12" t="s">
         <v>527</v>
       </c>
       <c r="F124" s="8" t="s">
@@ -9133,7 +9212,7 @@
       </c>
       <c r="L124" s="8"/>
       <c r="M124" s="8"/>
-      <c r="N124" s="22" t="s">
+      <c r="N124" s="18" t="s">
         <v>815</v>
       </c>
       <c r="O124" s="8"/>
@@ -9164,7 +9243,7 @@
       <c r="D125" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E125" s="15" t="s">
+      <c r="E125" s="12" t="s">
         <v>528</v>
       </c>
       <c r="F125" s="8" t="s">
@@ -9185,7 +9264,7 @@
         <v>29</v>
       </c>
       <c r="M125" s="8"/>
-      <c r="N125" s="22" t="s">
+      <c r="N125" s="18" t="s">
         <v>816</v>
       </c>
       <c r="O125" s="8"/>
@@ -9216,7 +9295,7 @@
       <c r="D126" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E126" s="15" t="s">
+      <c r="E126" s="12" t="s">
         <v>424</v>
       </c>
       <c r="F126" s="8" t="s">
@@ -9268,7 +9347,7 @@
       <c r="D127" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E127" s="15" t="s">
+      <c r="E127" s="12" t="s">
         <v>425</v>
       </c>
       <c r="F127" s="8" t="s">
@@ -9289,7 +9368,7 @@
         <v>444</v>
       </c>
       <c r="M127" s="8"/>
-      <c r="N127" s="22" t="s">
+      <c r="N127" s="18" t="s">
         <v>818</v>
       </c>
       <c r="O127" s="8"/>
@@ -9320,14 +9399,14 @@
       <c r="D128" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E128" s="15" t="s">
+      <c r="E128" s="12" t="s">
         <v>529</v>
       </c>
       <c r="F128" s="8" t="s">
         <v>360</v>
       </c>
       <c r="G128" s="8"/>
-      <c r="H128" s="12" t="s">
+      <c r="H128" s="11" t="s">
         <v>361</v>
       </c>
       <c r="I128" s="8"/>
@@ -9339,7 +9418,7 @@
       </c>
       <c r="L128" s="8"/>
       <c r="M128" s="8"/>
-      <c r="N128" s="22" t="s">
+      <c r="N128" s="18" t="s">
         <v>819</v>
       </c>
       <c r="O128" s="8"/>
@@ -9364,13 +9443,13 @@
       <c r="B129" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="C129" s="17">
+      <c r="C129" s="14">
         <v>43921</v>
       </c>
       <c r="D129" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E129" s="15" t="s">
+      <c r="E129" s="12" t="s">
         <v>530</v>
       </c>
       <c r="F129" s="8" t="s">
@@ -9389,7 +9468,7 @@
       </c>
       <c r="L129" s="8"/>
       <c r="M129" s="8"/>
-      <c r="N129" s="22" t="s">
+      <c r="N129" s="18" t="s">
         <v>820</v>
       </c>
       <c r="O129" s="8"/>
@@ -9414,13 +9493,13 @@
       <c r="B130" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="C130" s="17">
+      <c r="C130" s="14">
         <v>43921</v>
       </c>
       <c r="D130" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E130" s="15" t="s">
+      <c r="E130" s="12" t="s">
         <v>426</v>
       </c>
       <c r="F130" s="8" t="s">
@@ -9462,13 +9541,13 @@
       <c r="B131" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="C131" s="17">
+      <c r="C131" s="14">
         <v>43921</v>
       </c>
       <c r="D131" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E131" s="15" t="s">
+      <c r="E131" s="12" t="s">
         <v>574</v>
       </c>
       <c r="F131" s="8" t="s">
@@ -9477,7 +9556,7 @@
       <c r="G131" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="H131" s="12" t="s">
+      <c r="H131" s="11" t="s">
         <v>135</v>
       </c>
       <c r="I131" s="8"/>
@@ -9510,13 +9589,13 @@
       <c r="B132" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="C132" s="17">
+      <c r="C132" s="14">
         <v>43921</v>
       </c>
       <c r="D132" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E132" s="15" t="s">
+      <c r="E132" s="12" t="s">
         <v>575</v>
       </c>
       <c r="F132" s="8" t="s">
@@ -9525,7 +9604,7 @@
       <c r="G132" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="H132" s="12" t="s">
+      <c r="H132" s="11" t="s">
         <v>135</v>
       </c>
       <c r="I132" s="8"/>
@@ -9535,7 +9614,7 @@
       <c r="K132" s="8"/>
       <c r="L132" s="8"/>
       <c r="M132" s="8"/>
-      <c r="N132" s="22" t="s">
+      <c r="N132" s="18" t="s">
         <v>821</v>
       </c>
       <c r="O132" s="8"/>
@@ -9560,13 +9639,13 @@
       <c r="B133" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="C133" s="17">
+      <c r="C133" s="14">
         <v>43921</v>
       </c>
       <c r="D133" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E133" s="15" t="s">
+      <c r="E133" s="12" t="s">
         <v>576</v>
       </c>
       <c r="F133" s="8" t="s">
@@ -9575,7 +9654,7 @@
       <c r="G133" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="H133" s="12" t="s">
+      <c r="H133" s="11" t="s">
         <v>135</v>
       </c>
       <c r="I133" s="8"/>
@@ -9585,7 +9664,7 @@
       <c r="K133" s="8"/>
       <c r="L133" s="8"/>
       <c r="M133" s="8"/>
-      <c r="N133" s="22" t="s">
+      <c r="N133" s="18" t="s">
         <v>822</v>
       </c>
       <c r="O133" s="8"/>
@@ -9610,13 +9689,13 @@
       <c r="B134" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="C134" s="17">
+      <c r="C134" s="14">
         <v>43921</v>
       </c>
       <c r="D134" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E134" s="15" t="s">
+      <c r="E134" s="12" t="s">
         <v>577</v>
       </c>
       <c r="F134" s="8" t="s">
@@ -9625,7 +9704,7 @@
       <c r="G134" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="H134" s="12" t="s">
+      <c r="H134" s="11" t="s">
         <v>135</v>
       </c>
       <c r="I134" s="8"/>
@@ -9635,7 +9714,7 @@
       <c r="K134" s="8"/>
       <c r="L134" s="8"/>
       <c r="M134" s="8"/>
-      <c r="N134" s="22" t="s">
+      <c r="N134" s="18" t="s">
         <v>823</v>
       </c>
       <c r="O134" s="8"/>
@@ -9660,13 +9739,13 @@
       <c r="B135" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="C135" s="17">
+      <c r="C135" s="14">
         <v>43922</v>
       </c>
       <c r="D135" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E135" s="15" t="s">
+      <c r="E135" s="12" t="s">
         <v>430</v>
       </c>
       <c r="F135" s="8" t="s">
@@ -9687,7 +9766,7 @@
         <v>445</v>
       </c>
       <c r="M135" s="8"/>
-      <c r="N135" s="22" t="s">
+      <c r="N135" s="18" t="s">
         <v>824</v>
       </c>
       <c r="O135" s="8"/>
@@ -9712,13 +9791,13 @@
       <c r="B136" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="C136" s="17">
+      <c r="C136" s="14">
         <v>43922</v>
       </c>
       <c r="D136" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E136" s="15" t="s">
+      <c r="E136" s="12" t="s">
         <v>578</v>
       </c>
       <c r="F136" s="8" t="s">
@@ -9739,7 +9818,7 @@
         <v>445</v>
       </c>
       <c r="M136" s="8"/>
-      <c r="N136" s="22" t="s">
+      <c r="N136" s="18" t="s">
         <v>824</v>
       </c>
       <c r="O136" s="8"/>
@@ -9764,13 +9843,13 @@
       <c r="B137" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="C137" s="17">
+      <c r="C137" s="14">
         <v>43922</v>
       </c>
       <c r="D137" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E137" s="15" t="s">
+      <c r="E137" s="12" t="s">
         <v>579</v>
       </c>
       <c r="F137" s="8" t="s">
@@ -9816,13 +9895,13 @@
       <c r="B138" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="C138" s="17">
+      <c r="C138" s="14">
         <v>43922</v>
       </c>
       <c r="D138" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E138" s="15" t="s">
+      <c r="E138" s="12" t="s">
         <v>580</v>
       </c>
       <c r="F138" s="8" t="s">
@@ -9868,13 +9947,13 @@
       <c r="B139" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="C139" s="17">
+      <c r="C139" s="14">
         <v>43922</v>
       </c>
       <c r="D139" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E139" s="14" t="s">
+      <c r="E139" s="22" t="s">
         <v>516</v>
       </c>
       <c r="F139" s="8" t="s">
@@ -9914,13 +9993,13 @@
       <c r="B140" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="C140" s="17">
+      <c r="C140" s="14">
         <v>43922</v>
       </c>
       <c r="D140" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E140" s="14" t="s">
+      <c r="E140" s="22" t="s">
         <v>424</v>
       </c>
       <c r="F140" s="8" t="s">
@@ -9960,13 +10039,13 @@
       <c r="B141" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="C141" s="17">
+      <c r="C141" s="14">
         <v>43922</v>
       </c>
       <c r="D141" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E141" s="14" t="s">
+      <c r="E141" s="22" t="s">
         <v>426</v>
       </c>
       <c r="F141" s="8" t="s">
@@ -10006,13 +10085,13 @@
       <c r="B142" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="C142" s="17">
+      <c r="C142" s="14">
         <v>43922</v>
       </c>
       <c r="D142" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E142" s="14" t="s">
+      <c r="E142" s="22" t="s">
         <v>513</v>
       </c>
       <c r="F142" s="8" t="s">
@@ -10054,13 +10133,13 @@
       <c r="B143" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="C143" s="17">
+      <c r="C143" s="14">
         <v>43923</v>
       </c>
       <c r="D143" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E143" s="14" t="s">
+      <c r="E143" s="22" t="s">
         <v>581</v>
       </c>
       <c r="F143" s="8" t="s">
@@ -10098,13 +10177,13 @@
       <c r="B144" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="C144" s="17">
+      <c r="C144" s="14">
         <v>43923</v>
       </c>
       <c r="D144" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E144" s="14" t="s">
+      <c r="E144" s="22" t="s">
         <v>582</v>
       </c>
       <c r="F144" s="8" t="s">
@@ -10142,13 +10221,13 @@
       <c r="B145" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="C145" s="17">
+      <c r="C145" s="14">
         <v>43923</v>
       </c>
       <c r="D145" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E145" s="15" t="s">
+      <c r="E145" s="12" t="s">
         <v>531</v>
       </c>
       <c r="F145" s="8" t="s">
@@ -10188,13 +10267,13 @@
       <c r="B146" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="C146" s="17">
+      <c r="C146" s="14">
         <v>43923</v>
       </c>
       <c r="D146" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E146" s="14" t="s">
+      <c r="E146" s="22" t="s">
         <v>583</v>
       </c>
       <c r="F146" s="8" t="s">
@@ -10212,7 +10291,7 @@
         <v>460</v>
       </c>
       <c r="L146" s="8"/>
-      <c r="M146" s="22" t="s">
+      <c r="M146" s="18" t="s">
         <v>825</v>
       </c>
       <c r="N146" s="8"/>
@@ -10238,13 +10317,13 @@
       <c r="B147" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="C147" s="17">
+      <c r="C147" s="14">
         <v>43923</v>
       </c>
       <c r="D147" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E147" s="15" t="s">
+      <c r="E147" s="12" t="s">
         <v>584</v>
       </c>
       <c r="F147" s="8" t="s">
@@ -10262,7 +10341,7 @@
         <v>461</v>
       </c>
       <c r="L147" s="8"/>
-      <c r="M147" s="22" t="s">
+      <c r="M147" s="18" t="s">
         <v>826</v>
       </c>
       <c r="N147" s="8"/>
@@ -10288,13 +10367,13 @@
       <c r="B148" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="C148" s="17">
+      <c r="C148" s="14">
         <v>43924</v>
       </c>
       <c r="D148" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E148" s="15" t="s">
+      <c r="E148" s="12" t="s">
         <v>532</v>
       </c>
       <c r="F148" s="8" t="s">
@@ -10336,13 +10415,13 @@
       <c r="B149" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="C149" s="17">
+      <c r="C149" s="14">
         <v>43924</v>
       </c>
       <c r="D149" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E149" s="14" t="s">
+      <c r="E149" s="22" t="s">
         <v>532</v>
       </c>
       <c r="F149" s="8" t="s">
@@ -10386,13 +10465,13 @@
       <c r="B150" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="C150" s="17">
+      <c r="C150" s="14">
         <v>43924</v>
       </c>
       <c r="D150" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E150" s="14" t="s">
+      <c r="E150" s="22" t="s">
         <v>585</v>
       </c>
       <c r="F150" s="8" t="s">
@@ -10412,7 +10491,7 @@
         <v>29</v>
       </c>
       <c r="L150" s="8"/>
-      <c r="M150" s="22" t="s">
+      <c r="M150" s="18" t="s">
         <v>827</v>
       </c>
       <c r="N150" s="8"/>
@@ -10438,13 +10517,13 @@
       <c r="B151" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="C151" s="17">
+      <c r="C151" s="14">
         <v>43926</v>
       </c>
       <c r="D151" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E151" s="14" t="s">
+      <c r="E151" s="22" t="s">
         <v>526</v>
       </c>
       <c r="F151" s="8" t="s">
@@ -10486,13 +10565,13 @@
       <c r="B152" s="8" t="s">
         <v>536</v>
       </c>
-      <c r="C152" s="17">
+      <c r="C152" s="14">
         <v>43927</v>
       </c>
       <c r="D152" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E152" s="14" t="s">
+      <c r="E152" s="22" t="s">
         <v>586</v>
       </c>
       <c r="F152" s="8" t="s">
@@ -10512,7 +10591,7 @@
         <v>310</v>
       </c>
       <c r="L152" s="8"/>
-      <c r="M152" s="22" t="s">
+      <c r="M152" s="18" t="s">
         <v>828</v>
       </c>
       <c r="N152" s="8"/>
@@ -10538,13 +10617,13 @@
       <c r="B153" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="C153" s="17">
+      <c r="C153" s="14">
         <v>43927</v>
       </c>
       <c r="D153" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E153" s="14" t="s">
+      <c r="E153" s="22" t="s">
         <v>587</v>
       </c>
       <c r="F153" s="8" t="s">
@@ -10560,7 +10639,7 @@
       </c>
       <c r="K153" s="8"/>
       <c r="L153" s="8"/>
-      <c r="M153" s="22" t="s">
+      <c r="M153" s="18" t="s">
         <v>829</v>
       </c>
       <c r="N153" s="8"/>
@@ -10586,13 +10665,13 @@
       <c r="B154" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="C154" s="17">
+      <c r="C154" s="14">
         <v>43928</v>
       </c>
       <c r="D154" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E154" s="14" t="s">
+      <c r="E154" s="22" t="s">
         <v>588</v>
       </c>
       <c r="F154" s="8" t="s">
@@ -10636,13 +10715,13 @@
       <c r="B155" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="C155" s="17">
+      <c r="C155" s="14">
         <v>43929</v>
       </c>
       <c r="D155" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E155" s="14" t="s">
+      <c r="E155" s="22" t="s">
         <v>545</v>
       </c>
       <c r="F155" s="8" t="s">
@@ -10688,24 +10767,24 @@
       <c r="B156" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="C156" s="17">
+      <c r="C156" s="14">
         <v>43929</v>
       </c>
       <c r="D156" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E156" s="14" t="s">
+      <c r="E156" s="22" t="s">
         <v>550</v>
       </c>
       <c r="F156" s="8" t="s">
         <v>551</v>
       </c>
       <c r="G156" s="8"/>
-      <c r="H156" s="18" t="s">
+      <c r="H156" s="15" t="s">
         <v>552</v>
       </c>
       <c r="I156" s="8"/>
-      <c r="J156" s="23" t="s">
+      <c r="J156" s="19" t="s">
         <v>310</v>
       </c>
       <c r="K156" s="8" t="s">
@@ -10740,24 +10819,24 @@
       <c r="B157" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="C157" s="17">
+      <c r="C157" s="14">
         <v>43929</v>
       </c>
       <c r="D157" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E157" s="14" t="s">
+      <c r="E157" s="22" t="s">
         <v>554</v>
       </c>
       <c r="F157" s="8" t="s">
         <v>555</v>
       </c>
       <c r="G157" s="8"/>
-      <c r="H157" s="18" t="s">
+      <c r="H157" s="15" t="s">
         <v>552</v>
       </c>
       <c r="I157" s="8"/>
-      <c r="J157" s="23" t="s">
+      <c r="J157" s="19" t="s">
         <v>310</v>
       </c>
       <c r="K157" s="8" t="s">
@@ -10792,13 +10871,13 @@
       <c r="B158" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="C158" s="17">
+      <c r="C158" s="14">
         <v>43929</v>
       </c>
       <c r="D158" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E158" s="14" t="s">
+      <c r="E158" s="22" t="s">
         <v>558</v>
       </c>
       <c r="F158" s="8" t="s">
@@ -10811,7 +10890,7 @@
         <v>302</v>
       </c>
       <c r="I158" s="8"/>
-      <c r="J158" s="23" t="s">
+      <c r="J158" s="19" t="s">
         <v>310</v>
       </c>
       <c r="K158" s="8"/>
@@ -10835,7 +10914,7 @@
       <c r="AA158" s="6"/>
       <c r="AB158" s="6"/>
     </row>
-    <row r="159" spans="1:28" ht="26.25" thickBot="1">
+    <row r="159" spans="1:28" ht="48" thickBot="1">
       <c r="A159" s="8" t="s">
         <v>560</v>
       </c>
@@ -10844,14 +10923,14 @@
       </c>
       <c r="C159" s="8"/>
       <c r="D159" s="8"/>
-      <c r="E159" s="19" t="s">
+      <c r="E159" s="22" t="s">
         <v>589</v>
       </c>
       <c r="F159" s="8"/>
       <c r="G159" s="8"/>
       <c r="H159" s="8"/>
       <c r="I159" s="8"/>
-      <c r="J159" s="23" t="s">
+      <c r="J159" s="19" t="s">
         <v>310</v>
       </c>
       <c r="K159" s="8"/>
@@ -10880,13 +10959,13 @@
       <c r="B160" s="8" t="s">
         <v>563</v>
       </c>
-      <c r="C160" s="17">
+      <c r="C160" s="14">
         <v>43934</v>
       </c>
       <c r="D160" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E160" s="14" t="s">
+      <c r="E160" s="22" t="s">
         <v>590</v>
       </c>
       <c r="F160" s="8"/>
@@ -10919,7 +10998,7 @@
       <c r="AA160" s="6"/>
       <c r="AB160" s="6"/>
     </row>
-    <row r="161" spans="1:28" ht="26.25" thickBot="1">
+    <row r="161" spans="1:28" ht="48" thickBot="1">
       <c r="A161" s="8" t="s">
         <v>564</v>
       </c>
@@ -10928,14 +11007,14 @@
       </c>
       <c r="C161" s="8"/>
       <c r="D161" s="8"/>
-      <c r="E161" s="19" t="s">
+      <c r="E161" s="22" t="s">
         <v>591</v>
       </c>
       <c r="F161" s="8"/>
       <c r="G161" s="8"/>
       <c r="H161" s="8"/>
       <c r="I161" s="8"/>
-      <c r="J161" s="24" t="s">
+      <c r="J161" s="20" t="s">
         <v>310</v>
       </c>
       <c r="K161" s="8"/>
@@ -10964,13 +11043,13 @@
       <c r="B162" s="8" t="s">
         <v>567</v>
       </c>
-      <c r="C162" s="17">
+      <c r="C162" s="14">
         <v>43934</v>
       </c>
       <c r="D162" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E162" s="14" t="s">
+      <c r="E162" s="22" t="s">
         <v>592</v>
       </c>
       <c r="F162" s="8"/>
@@ -11010,13 +11089,13 @@
       <c r="B163" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="C163" s="17">
+      <c r="C163" s="14">
         <v>43934</v>
       </c>
       <c r="D163" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E163" s="14" t="s">
+      <c r="E163" s="22" t="s">
         <v>593</v>
       </c>
       <c r="F163" s="8" t="s">
@@ -11034,7 +11113,7 @@
       </c>
       <c r="K163" s="8"/>
       <c r="L163" s="8"/>
-      <c r="M163" s="22" t="s">
+      <c r="M163" s="18" t="s">
         <v>831</v>
       </c>
       <c r="N163" s="8"/>
@@ -11060,13 +11139,13 @@
       <c r="B164" s="8" t="s">
         <v>571</v>
       </c>
-      <c r="C164" s="17">
+      <c r="C164" s="14">
         <v>43934</v>
       </c>
       <c r="D164" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E164" s="14" t="s">
+      <c r="E164" s="22" t="s">
         <v>594</v>
       </c>
       <c r="F164" s="8" t="s">
@@ -11084,7 +11163,7 @@
       </c>
       <c r="K164" s="8"/>
       <c r="L164" s="8"/>
-      <c r="M164" s="22" t="s">
+      <c r="M164" s="18" t="s">
         <v>831</v>
       </c>
       <c r="N164" s="8"/>
@@ -11110,13 +11189,13 @@
       <c r="B165" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="C165" s="17">
+      <c r="C165" s="14">
         <v>43934</v>
       </c>
       <c r="D165" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E165" s="14" t="s">
+      <c r="E165" s="22" t="s">
         <v>595</v>
       </c>
       <c r="F165" s="8" t="s">
@@ -11134,7 +11213,7 @@
       </c>
       <c r="K165" s="8"/>
       <c r="L165" s="8"/>
-      <c r="M165" s="22" t="s">
+      <c r="M165" s="18" t="s">
         <v>831</v>
       </c>
       <c r="N165" s="8"/>
@@ -11160,13 +11239,13 @@
       <c r="B166" s="8" t="s">
         <v>598</v>
       </c>
-      <c r="C166" s="17">
+      <c r="C166" s="14">
         <v>43937</v>
       </c>
       <c r="D166" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E166" s="15" t="s">
+      <c r="E166" s="12" t="s">
         <v>599</v>
       </c>
       <c r="F166" s="8" t="s">
@@ -11184,7 +11263,7 @@
       <c r="L166" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="M166" s="22" t="s">
+      <c r="M166" s="18" t="s">
         <v>833</v>
       </c>
       <c r="N166" s="8"/>
@@ -11210,13 +11289,13 @@
       <c r="B167" s="8" t="s">
         <v>598</v>
       </c>
-      <c r="C167" s="17">
+      <c r="C167" s="14">
         <v>43937</v>
       </c>
       <c r="D167" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E167" s="14" t="s">
+      <c r="E167" s="22" t="s">
         <v>604</v>
       </c>
       <c r="F167" s="8" t="s">
@@ -11234,7 +11313,7 @@
         <v>639</v>
       </c>
       <c r="L167" s="8"/>
-      <c r="M167" s="22" t="s">
+      <c r="M167" s="18" t="s">
         <v>833</v>
       </c>
       <c r="N167" s="8"/>
@@ -11260,13 +11339,13 @@
       <c r="B168" s="8" t="s">
         <v>598</v>
       </c>
-      <c r="C168" s="17">
+      <c r="C168" s="14">
         <v>43937</v>
       </c>
       <c r="D168" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E168" s="14" t="s">
+      <c r="E168" s="22" t="s">
         <v>606</v>
       </c>
       <c r="F168" s="8" t="s">
@@ -11308,13 +11387,13 @@
       <c r="B169" s="8" t="s">
         <v>598</v>
       </c>
-      <c r="C169" s="17">
+      <c r="C169" s="14">
         <v>43937</v>
       </c>
       <c r="D169" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E169" s="14" t="s">
+      <c r="E169" s="22" t="s">
         <v>608</v>
       </c>
       <c r="F169" s="8" t="s">
@@ -11356,13 +11435,13 @@
       <c r="B170" s="8" t="s">
         <v>598</v>
       </c>
-      <c r="C170" s="17">
+      <c r="C170" s="14">
         <v>43937</v>
       </c>
       <c r="D170" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E170" s="14" t="s">
+      <c r="E170" s="22" t="s">
         <v>610</v>
       </c>
       <c r="F170" s="8" t="s">
@@ -11404,13 +11483,13 @@
       <c r="B171" s="8" t="s">
         <v>612</v>
       </c>
-      <c r="C171" s="17">
+      <c r="C171" s="14">
         <v>43937</v>
       </c>
       <c r="D171" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E171" s="14" t="s">
+      <c r="E171" s="22" t="s">
         <v>613</v>
       </c>
       <c r="F171" s="8" t="s">
@@ -11454,13 +11533,13 @@
       <c r="B172" s="8" t="s">
         <v>617</v>
       </c>
-      <c r="C172" s="17">
+      <c r="C172" s="14">
         <v>43937</v>
       </c>
       <c r="D172" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E172" s="14" t="s">
+      <c r="E172" s="22" t="s">
         <v>618</v>
       </c>
       <c r="F172" s="8" t="s">
@@ -11502,13 +11581,13 @@
       <c r="B173" s="8" t="s">
         <v>621</v>
       </c>
-      <c r="C173" s="17">
+      <c r="C173" s="14">
         <v>43937</v>
       </c>
       <c r="D173" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E173" s="15" t="s">
+      <c r="E173" s="12" t="s">
         <v>622</v>
       </c>
       <c r="F173" s="8" t="s">
@@ -11550,13 +11629,13 @@
       <c r="B174" s="8" t="s">
         <v>612</v>
       </c>
-      <c r="C174" s="17">
+      <c r="C174" s="14">
         <v>43937</v>
       </c>
       <c r="D174" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E174" s="14" t="s">
+      <c r="E174" s="22" t="s">
         <v>625</v>
       </c>
       <c r="F174" s="8" t="s">
@@ -11598,13 +11677,13 @@
       <c r="B175" s="8" t="s">
         <v>628</v>
       </c>
-      <c r="C175" s="17">
+      <c r="C175" s="14">
         <v>43938</v>
       </c>
       <c r="D175" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E175" s="14" t="s">
+      <c r="E175" s="22" t="s">
         <v>629</v>
       </c>
       <c r="F175" s="8" t="s">
@@ -11648,13 +11727,13 @@
       <c r="B176" s="8" t="s">
         <v>633</v>
       </c>
-      <c r="C176" s="17">
+      <c r="C176" s="14">
         <v>43938</v>
       </c>
       <c r="D176" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E176" s="14" t="s">
+      <c r="E176" s="22" t="s">
         <v>634</v>
       </c>
       <c r="F176" s="8" t="s">
@@ -11696,13 +11775,13 @@
       <c r="B177" s="8" t="s">
         <v>636</v>
       </c>
-      <c r="C177" s="17">
+      <c r="C177" s="14">
         <v>43938</v>
       </c>
       <c r="D177" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E177" s="14" t="s">
+      <c r="E177" s="22" t="s">
         <v>637</v>
       </c>
       <c r="F177" s="8" t="s">
@@ -11744,13 +11823,13 @@
       <c r="B178" s="8" t="s">
         <v>645</v>
       </c>
-      <c r="C178" s="17">
+      <c r="C178" s="14">
         <v>43941</v>
       </c>
       <c r="D178" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E178" s="14" t="s">
+      <c r="E178" s="22" t="s">
         <v>683</v>
       </c>
       <c r="F178" s="8" t="s">
@@ -11792,13 +11871,13 @@
       <c r="B179" s="8" t="s">
         <v>649</v>
       </c>
-      <c r="C179" s="17">
+      <c r="C179" s="14">
         <v>43941</v>
       </c>
       <c r="D179" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E179" s="14" t="s">
+      <c r="E179" s="22" t="s">
         <v>684</v>
       </c>
       <c r="F179" s="8" t="s">
@@ -11840,13 +11919,13 @@
       <c r="B180" s="8" t="s">
         <v>652</v>
       </c>
-      <c r="C180" s="17">
+      <c r="C180" s="14">
         <v>43941</v>
       </c>
       <c r="D180" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E180" s="14" t="s">
+      <c r="E180" s="22" t="s">
         <v>685</v>
       </c>
       <c r="F180" s="8" t="s">
@@ -11888,13 +11967,13 @@
       <c r="B181" s="8" t="s">
         <v>655</v>
       </c>
-      <c r="C181" s="17">
+      <c r="C181" s="14">
         <v>43941</v>
       </c>
       <c r="D181" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E181" s="14" t="s">
+      <c r="E181" s="22" t="s">
         <v>686</v>
       </c>
       <c r="F181" s="8" t="s">
@@ -11936,13 +12015,13 @@
       <c r="B182" s="8" t="s">
         <v>658</v>
       </c>
-      <c r="C182" s="17">
+      <c r="C182" s="14">
         <v>43941</v>
       </c>
       <c r="D182" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E182" s="14" t="s">
+      <c r="E182" s="22" t="s">
         <v>687</v>
       </c>
       <c r="F182" s="8" t="s">
@@ -11982,13 +12061,13 @@
       <c r="B183" s="8" t="s">
         <v>661</v>
       </c>
-      <c r="C183" s="17">
+      <c r="C183" s="14">
         <v>43941</v>
       </c>
       <c r="D183" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E183" s="14" t="s">
+      <c r="E183" s="22" t="s">
         <v>689</v>
       </c>
       <c r="F183" s="8" t="s">
@@ -12028,13 +12107,13 @@
       <c r="B184" s="8" t="s">
         <v>664</v>
       </c>
-      <c r="C184" s="17">
+      <c r="C184" s="14">
         <v>43941</v>
       </c>
       <c r="D184" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E184" s="14" t="s">
+      <c r="E184" s="22" t="s">
         <v>690</v>
       </c>
       <c r="F184" s="8" t="s">
@@ -12074,13 +12153,13 @@
       <c r="B185" s="8" t="s">
         <v>667</v>
       </c>
-      <c r="C185" s="17">
+      <c r="C185" s="14">
         <v>43942</v>
       </c>
       <c r="D185" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E185" s="20" t="s">
+      <c r="E185" s="23" t="s">
         <v>691</v>
       </c>
       <c r="F185" s="8" t="s">
@@ -12122,13 +12201,13 @@
       <c r="B186" s="8" t="s">
         <v>667</v>
       </c>
-      <c r="C186" s="17">
+      <c r="C186" s="14">
         <v>43942</v>
       </c>
       <c r="D186" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E186" s="20" t="s">
+      <c r="E186" s="23" t="s">
         <v>693</v>
       </c>
       <c r="F186" s="8" t="s">
@@ -12170,13 +12249,13 @@
       <c r="B187" s="8" t="s">
         <v>672</v>
       </c>
-      <c r="C187" s="17">
+      <c r="C187" s="14">
         <v>43942</v>
       </c>
       <c r="D187" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E187" s="20" t="s">
+      <c r="E187" s="23" t="s">
         <v>691</v>
       </c>
       <c r="F187" s="8" t="s">
@@ -12218,13 +12297,13 @@
       <c r="B188" s="8" t="s">
         <v>674</v>
       </c>
-      <c r="C188" s="17">
+      <c r="C188" s="14">
         <v>43942</v>
       </c>
       <c r="D188" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E188" s="20" t="s">
+      <c r="E188" s="23" t="s">
         <v>694</v>
       </c>
       <c r="F188" s="8" t="s">
@@ -12266,13 +12345,13 @@
       <c r="B189" s="8" t="s">
         <v>701</v>
       </c>
-      <c r="C189" s="17">
+      <c r="C189" s="14">
         <v>43942</v>
       </c>
       <c r="D189" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E189" s="14" t="s">
+      <c r="E189" s="22" t="s">
         <v>695</v>
       </c>
       <c r="F189" s="8" t="s">
@@ -12314,13 +12393,13 @@
       <c r="B190" s="8" t="s">
         <v>678</v>
       </c>
-      <c r="C190" s="17">
+      <c r="C190" s="14">
         <v>43943</v>
       </c>
       <c r="D190" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E190" s="14" t="s">
+      <c r="E190" s="22" t="s">
         <v>697</v>
       </c>
       <c r="F190" s="8" t="s">
@@ -12362,13 +12441,13 @@
       <c r="B191" s="8" t="s">
         <v>681</v>
       </c>
-      <c r="C191" s="17">
+      <c r="C191" s="14">
         <v>43943</v>
       </c>
       <c r="D191" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E191" s="14" t="s">
+      <c r="E191" s="22" t="s">
         <v>699</v>
       </c>
       <c r="F191" s="8" t="s">
@@ -12410,13 +12489,13 @@
       <c r="B192" s="8" t="s">
         <v>703</v>
       </c>
-      <c r="C192" s="17">
+      <c r="C192" s="14">
         <v>43944</v>
       </c>
       <c r="D192" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E192" s="14" t="s">
+      <c r="E192" s="22" t="s">
         <v>704</v>
       </c>
       <c r="F192" s="8" t="s">
@@ -12458,13 +12537,13 @@
       <c r="B193" s="8" t="s">
         <v>708</v>
       </c>
-      <c r="C193" s="17">
+      <c r="C193" s="14">
         <v>43944</v>
       </c>
       <c r="D193" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E193" s="20" t="s">
+      <c r="E193" s="23" t="s">
         <v>709</v>
       </c>
       <c r="F193" s="8" t="s">
@@ -12506,13 +12585,13 @@
       <c r="B194" s="8" t="s">
         <v>713</v>
       </c>
-      <c r="C194" s="17">
+      <c r="C194" s="14">
         <v>43944</v>
       </c>
       <c r="D194" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E194" s="20" t="s">
+      <c r="E194" s="23" t="s">
         <v>714</v>
       </c>
       <c r="F194" s="8" t="s">
@@ -12552,13 +12631,13 @@
       <c r="B195" s="8" t="s">
         <v>713</v>
       </c>
-      <c r="C195" s="17">
+      <c r="C195" s="14">
         <v>43944</v>
       </c>
       <c r="D195" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E195" s="20" t="s">
+      <c r="E195" s="23" t="s">
         <v>716</v>
       </c>
       <c r="F195" s="8" t="s">
@@ -12598,7 +12677,7 @@
       <c r="B196" s="8" t="s">
         <v>713</v>
       </c>
-      <c r="C196" s="17">
+      <c r="C196" s="14">
         <v>43944</v>
       </c>
       <c r="D196" s="8" t="s">
@@ -12646,13 +12725,13 @@
       <c r="B197" s="8" t="s">
         <v>720</v>
       </c>
-      <c r="C197" s="17">
+      <c r="C197" s="14">
         <v>43945</v>
       </c>
       <c r="D197" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E197" s="20" t="s">
+      <c r="E197" s="23" t="s">
         <v>856</v>
       </c>
       <c r="F197" s="8" t="s">
@@ -12694,7 +12773,7 @@
       <c r="B198" s="8" t="s">
         <v>733</v>
       </c>
-      <c r="C198" s="17">
+      <c r="C198" s="14">
         <v>43945</v>
       </c>
       <c r="D198" s="8" t="s">
@@ -12740,13 +12819,15 @@
       <c r="B199" s="8" t="s">
         <v>652</v>
       </c>
-      <c r="C199" s="21">
+      <c r="C199" s="17">
         <v>43948</v>
       </c>
       <c r="D199" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E199" s="8"/>
+      <c r="E199" s="8" t="s">
+        <v>864</v>
+      </c>
       <c r="F199" s="8" t="s">
         <v>249</v>
       </c>
@@ -12786,18 +12867,20 @@
       <c r="B200" s="8" t="s">
         <v>725</v>
       </c>
-      <c r="C200" s="17">
+      <c r="C200" s="14">
         <v>43949</v>
       </c>
       <c r="D200" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E200" s="8"/>
+      <c r="E200" s="23" t="s">
+        <v>865</v>
+      </c>
       <c r="F200" s="8" t="s">
         <v>726</v>
       </c>
       <c r="G200" s="8"/>
-      <c r="H200" s="12" t="s">
+      <c r="H200" s="11" t="s">
         <v>727</v>
       </c>
       <c r="I200" s="8"/>
@@ -12834,7 +12917,7 @@
       <c r="B201" s="8" t="s">
         <v>730</v>
       </c>
-      <c r="C201" s="17">
+      <c r="C201" s="14">
         <v>43950</v>
       </c>
       <c r="D201" s="8" t="s">
@@ -12876,13 +12959,15 @@
         <v>735</v>
       </c>
       <c r="B202" s="8"/>
-      <c r="C202" s="17">
+      <c r="C202" s="14">
         <v>43952</v>
       </c>
       <c r="D202" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E202" s="8"/>
+      <c r="E202" s="24" t="s">
+        <v>866</v>
+      </c>
       <c r="F202" s="8"/>
       <c r="G202" s="8"/>
       <c r="H202" s="8" t="s">
@@ -12920,13 +13005,15 @@
         <v>738</v>
       </c>
       <c r="B203" s="8"/>
-      <c r="C203" s="17">
+      <c r="C203" s="14">
         <v>43952</v>
       </c>
       <c r="D203" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E203" s="8"/>
+      <c r="E203" s="23" t="s">
+        <v>856</v>
+      </c>
       <c r="F203" s="8"/>
       <c r="G203" s="8"/>
       <c r="H203" s="8" t="s">
@@ -12966,13 +13053,15 @@
       <c r="B204" s="8" t="s">
         <v>836</v>
       </c>
-      <c r="C204" s="17">
+      <c r="C204" s="14">
         <v>43956</v>
       </c>
       <c r="D204" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E204" s="8"/>
+      <c r="E204" s="25" t="s">
+        <v>867</v>
+      </c>
       <c r="F204" s="8" t="s">
         <v>330</v>
       </c>
@@ -13012,13 +13101,15 @@
       <c r="B205" s="8" t="s">
         <v>840</v>
       </c>
-      <c r="C205" s="17">
+      <c r="C205" s="14">
         <v>43957</v>
       </c>
       <c r="D205" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E205" s="8"/>
+      <c r="E205" s="26" t="s">
+        <v>868</v>
+      </c>
       <c r="F205" s="8"/>
       <c r="G205" s="8"/>
       <c r="H205" s="8" t="s">
@@ -13056,13 +13147,15 @@
       <c r="B206" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="C206" s="17">
+      <c r="C206" s="14">
         <v>43957</v>
       </c>
       <c r="D206" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E206" s="8"/>
+      <c r="E206" s="27" t="s">
+        <v>869</v>
+      </c>
       <c r="F206" s="8"/>
       <c r="G206" s="8"/>
       <c r="H206" s="8" t="s">
@@ -13102,13 +13195,15 @@
       <c r="B207" s="8" t="s">
         <v>848</v>
       </c>
-      <c r="C207" s="17">
+      <c r="C207" s="14">
         <v>43957</v>
       </c>
       <c r="D207" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E207" s="8"/>
+      <c r="E207" s="12" t="s">
+        <v>870</v>
+      </c>
       <c r="F207" s="8"/>
       <c r="G207" s="8"/>
       <c r="H207" s="8" t="s">
@@ -13148,13 +13243,15 @@
       <c r="B208" s="8" t="s">
         <v>851</v>
       </c>
-      <c r="C208" s="17">
+      <c r="C208" s="14">
         <v>43957</v>
       </c>
       <c r="D208" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E208" s="8"/>
+      <c r="E208" s="22" t="s">
+        <v>871</v>
+      </c>
       <c r="F208" s="8"/>
       <c r="G208" s="8"/>
       <c r="H208" s="8" t="s">
@@ -13187,7 +13284,7 @@
       <c r="AA208" s="6"/>
       <c r="AB208" s="6"/>
     </row>
-    <row r="209" spans="1:28" ht="51.75" thickBot="1">
+    <row r="209" spans="1:28" ht="64.5" thickBot="1">
       <c r="A209" s="8" t="s">
         <v>853</v>
       </c>
@@ -13196,7 +13293,9 @@
       </c>
       <c r="C209" s="8"/>
       <c r="D209" s="8"/>
-      <c r="E209" s="8"/>
+      <c r="E209" s="12" t="s">
+        <v>872</v>
+      </c>
       <c r="F209" s="8"/>
       <c r="G209" s="8"/>
       <c r="H209" s="8"/>
@@ -13208,7 +13307,7 @@
         <v>310</v>
       </c>
       <c r="L209" s="8" t="s">
-        <v>857</v>
+        <v>873</v>
       </c>
       <c r="M209" s="8"/>
       <c r="N209" s="8" t="s">
@@ -13236,13 +13335,15 @@
       <c r="B210" s="8" t="s">
         <v>859</v>
       </c>
-      <c r="C210" s="17">
+      <c r="C210" s="14">
         <v>43958</v>
       </c>
       <c r="D210" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E210" s="8"/>
+      <c r="E210" s="23" t="s">
+        <v>874</v>
+      </c>
       <c r="F210" s="8" t="s">
         <v>330</v>
       </c>
@@ -13275,21 +13376,25 @@
       <c r="AA210" s="6"/>
       <c r="AB210" s="6"/>
     </row>
-    <row r="211" spans="1:28" ht="39" thickBot="1">
+    <row r="211" spans="1:28" ht="48" thickBot="1">
       <c r="A211" s="8" t="s">
         <v>862</v>
       </c>
       <c r="B211" s="8" t="s">
         <v>863</v>
       </c>
-      <c r="C211" s="17">
+      <c r="C211" s="14">
         <v>43959</v>
       </c>
       <c r="D211" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E211" s="8"/>
-      <c r="F211" s="8"/>
+      <c r="E211" s="22" t="s">
+        <v>875</v>
+      </c>
+      <c r="F211" s="8" t="s">
+        <v>330</v>
+      </c>
       <c r="G211" s="8"/>
       <c r="H211" s="8" t="s">
         <v>34</v>
@@ -13317,19 +13422,35 @@
       <c r="AA211" s="6"/>
       <c r="AB211" s="6"/>
     </row>
-    <row r="212" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A212" s="8"/>
-      <c r="B212" s="8"/>
-      <c r="C212" s="8"/>
-      <c r="D212" s="8"/>
+    <row r="212" spans="1:28" ht="39" thickBot="1">
+      <c r="A212" s="8" t="s">
+        <v>876</v>
+      </c>
+      <c r="B212" s="8" t="s">
+        <v>877</v>
+      </c>
+      <c r="C212" s="14">
+        <v>43962</v>
+      </c>
+      <c r="D212" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E212" s="8"/>
       <c r="F212" s="8"/>
       <c r="G212" s="8"/>
-      <c r="H212" s="8"/>
+      <c r="H212" s="8" t="s">
+        <v>878</v>
+      </c>
       <c r="I212" s="8"/>
-      <c r="J212" s="8"/>
-      <c r="K212" s="8"/>
-      <c r="L212" s="8"/>
+      <c r="J212" s="8" t="s">
+        <v>879</v>
+      </c>
+      <c r="K212" s="8" t="s">
+        <v>885</v>
+      </c>
+      <c r="L212" s="8" t="s">
+        <v>880</v>
+      </c>
       <c r="M212" s="8"/>
       <c r="N212" s="8"/>
       <c r="O212" s="8"/>
@@ -13347,19 +13468,37 @@
       <c r="AA212" s="6"/>
       <c r="AB212" s="6"/>
     </row>
-    <row r="213" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A213" s="8"/>
-      <c r="B213" s="8"/>
-      <c r="C213" s="8"/>
-      <c r="D213" s="8"/>
-      <c r="E213" s="8"/>
-      <c r="F213" s="8"/>
+    <row r="213" spans="1:28" ht="39" thickBot="1">
+      <c r="A213" s="8" t="s">
+        <v>881</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="C213" s="14">
+        <v>43962</v>
+      </c>
+      <c r="D213" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E213" s="23" t="s">
+        <v>883</v>
+      </c>
+      <c r="F213" s="8" t="s">
+        <v>330</v>
+      </c>
       <c r="G213" s="8"/>
-      <c r="H213" s="8"/>
+      <c r="H213" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="I213" s="8"/>
-      <c r="J213" s="8"/>
+      <c r="J213" s="8" t="s">
+        <v>884</v>
+      </c>
       <c r="K213" s="8"/>
-      <c r="L213" s="8"/>
+      <c r="L213" s="8" t="s">
+        <v>880</v>
+      </c>
       <c r="M213" s="8"/>
       <c r="N213" s="8"/>
       <c r="O213" s="8"/>
@@ -37940,8 +38079,13 @@
     <hyperlink ref="E190" r:id="rId169"/>
     <hyperlink ref="E191" r:id="rId170"/>
     <hyperlink ref="E192" r:id="rId171"/>
+    <hyperlink ref="E206" r:id="rId172" display="https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/FormLabs/FL_LT_Form2_hex_mtx.jpg"/>
+    <hyperlink ref="E207" r:id="rId173"/>
+    <hyperlink ref="E208" r:id="rId174"/>
+    <hyperlink ref="E209" r:id="rId175"/>
+    <hyperlink ref="E211" r:id="rId176"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId172"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId177"/>
 </worksheet>
 </file>
--- a/BIDMC/np_swab_results.xlsx
+++ b/BIDMC/np_swab_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccall\Documents\GitHub\Covidswab\BIDMC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B4F4665-FD8A-4405-84AC-5606FB69767F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E512E7-C697-45C4-8EF7-2A087144278C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="922">
   <si>
     <t>ID</t>
   </si>
@@ -2772,6 +2772,24 @@
   </si>
   <si>
     <t>Smelly (volatile material?). Good breakpoint</t>
+  </si>
+  <si>
+    <t>Not tested --odorous</t>
+  </si>
+  <si>
+    <t>INT_4_1</t>
+  </si>
+  <si>
+    <t>Bulbed_helix_Swab. Clear</t>
+  </si>
+  <si>
+    <t>INT_4_2</t>
+  </si>
+  <si>
+    <t>Bulbed_helix_swab, opaque</t>
+  </si>
+  <si>
+    <t>pass-better than INT_4_1</t>
   </si>
 </sst>
 </file>
@@ -3143,10 +3161,10 @@
   <dimension ref="A1:AB949"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C211" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H214" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D214" sqref="D214"/>
+      <selection pane="bottomRight" activeCell="C160" sqref="C160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13706,8 +13724,12 @@
         <v>910</v>
       </c>
       <c r="I218" s="4"/>
-      <c r="J218" s="4"/>
-      <c r="K218" s="4"/>
+      <c r="J218" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="K218" s="4" t="s">
+        <v>416</v>
+      </c>
       <c r="L218" s="4" t="s">
         <v>416</v>
       </c>
@@ -13752,8 +13774,12 @@
         <v>914</v>
       </c>
       <c r="I219" s="4"/>
-      <c r="J219" s="4"/>
-      <c r="K219" s="4"/>
+      <c r="J219" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="K219" s="4" t="s">
+        <v>916</v>
+      </c>
       <c r="L219" s="4" t="s">
         <v>416</v>
       </c>
@@ -13777,18 +13803,34 @@
       <c r="AB219" s="4"/>
     </row>
     <row r="220" spans="1:28" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="4"/>
-      <c r="B220" s="4"/>
-      <c r="C220" s="4"/>
-      <c r="D220" s="4"/>
+      <c r="A220" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="C220" s="12">
+        <v>44011</v>
+      </c>
+      <c r="D220" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="E220" s="4"/>
       <c r="F220" s="4"/>
       <c r="G220" s="4"/>
-      <c r="H220" s="4"/>
+      <c r="H220" s="4" t="s">
+        <v>726</v>
+      </c>
       <c r="I220" s="4"/>
-      <c r="J220" s="4"/>
-      <c r="K220" s="4"/>
-      <c r="L220" s="4"/>
+      <c r="J220" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="K220" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="L220" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="M220" s="4"/>
       <c r="N220" s="4"/>
       <c r="O220" s="4"/>
@@ -13806,19 +13848,35 @@
       <c r="AA220" s="4"/>
       <c r="AB220" s="4"/>
     </row>
-    <row r="221" spans="1:28" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="4"/>
-      <c r="B221" s="4"/>
-      <c r="C221" s="4"/>
-      <c r="D221" s="4"/>
+    <row r="221" spans="1:28" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="C221" s="12">
+        <v>44011</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="E221" s="4"/>
       <c r="F221" s="4"/>
       <c r="G221" s="4"/>
-      <c r="H221" s="4"/>
+      <c r="H221" s="4" t="s">
+        <v>726</v>
+      </c>
       <c r="I221" s="4"/>
-      <c r="J221" s="4"/>
-      <c r="K221" s="4"/>
-      <c r="L221" s="4"/>
+      <c r="J221" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="K221" s="4" t="s">
+        <v>921</v>
+      </c>
+      <c r="L221" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="M221" s="4"/>
       <c r="N221" s="4"/>
       <c r="O221" s="4"/>
@@ -35678,191 +35736,191 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{8E0B6F76-FBE3-4A90-90AB-B0FF69F9C349}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{1ADBE137-9EB4-413E-86B5-8BA89FA466BB}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{633C8C05-05D7-4C63-833C-54EAE333AC4E}"/>
-    <hyperlink ref="E6" r:id="rId4" xr:uid="{71446878-3E77-4941-874D-5063F2DD265C}"/>
-    <hyperlink ref="E12" r:id="rId5" xr:uid="{A080FEB4-8CCB-4AC0-8013-BF81909F5477}"/>
-    <hyperlink ref="E13" r:id="rId6" xr:uid="{DAE9EE6E-7683-4509-B81B-B79009FF72F4}"/>
-    <hyperlink ref="E14" r:id="rId7" xr:uid="{C942E3D0-FEC1-45EA-ADE3-7FDBC013B9A8}"/>
-    <hyperlink ref="E15" r:id="rId8" xr:uid="{027E568D-36E2-4477-816E-EA9F439DEA50}"/>
-    <hyperlink ref="E16" r:id="rId9" xr:uid="{6AB1E873-9215-499F-B49B-BAD274FD5C58}"/>
-    <hyperlink ref="E17" r:id="rId10" xr:uid="{AAA08BD4-387B-44E5-902A-5120B0136BE5}"/>
-    <hyperlink ref="E18" r:id="rId11" xr:uid="{3FB55C28-0214-4BF4-992F-EF5166D66F60}"/>
-    <hyperlink ref="E19" r:id="rId12" xr:uid="{D30E2F40-2BB5-4A1F-8F21-3C84903A60AA}"/>
-    <hyperlink ref="E20" r:id="rId13" xr:uid="{A08DBF42-69E1-4966-B695-64712CD25314}"/>
-    <hyperlink ref="E21" r:id="rId14" xr:uid="{BFF6245F-2137-4760-9D44-D92DA2BE407D}"/>
-    <hyperlink ref="E22" r:id="rId15" xr:uid="{E0A8BBCD-1344-4B40-8A01-408335AA1E04}"/>
-    <hyperlink ref="E23" r:id="rId16" xr:uid="{1D071E57-8EC2-46B3-9B1D-5D775F2F2A17}"/>
-    <hyperlink ref="E24" r:id="rId17" xr:uid="{56E62B63-6DBB-4F0B-AC8D-3F27D2508E97}"/>
-    <hyperlink ref="E25" r:id="rId18" xr:uid="{39C389DE-AB47-4016-A9AA-E24481D81116}"/>
-    <hyperlink ref="E27" r:id="rId19" xr:uid="{23A83DB0-D699-4B32-A05E-8D8D9FEA654C}"/>
-    <hyperlink ref="E28" r:id="rId20" xr:uid="{4CD09741-249B-4A91-9E1C-D9714703FF5F}"/>
-    <hyperlink ref="E29" r:id="rId21" xr:uid="{88F50562-A8C1-472F-A555-F940FD464C7B}"/>
-    <hyperlink ref="E30" r:id="rId22" xr:uid="{A6E66803-C80F-4D8C-B376-D020549FF3D9}"/>
-    <hyperlink ref="E31" r:id="rId23" xr:uid="{87655520-2D54-4BB4-822C-F7C57F3935DB}"/>
-    <hyperlink ref="E32" r:id="rId24" xr:uid="{37094DBA-79A6-4131-8737-2983982BB2CC}"/>
-    <hyperlink ref="E33" r:id="rId25" xr:uid="{B65C6ABC-A9AD-4915-89CA-490D6216CFC7}"/>
-    <hyperlink ref="E34" r:id="rId26" xr:uid="{31063241-D6B7-403D-8C38-B4CBA15CCF0E}"/>
-    <hyperlink ref="E35" r:id="rId27" xr:uid="{997D0BB4-D4F8-49F7-8300-02087DEFB166}"/>
-    <hyperlink ref="E36" r:id="rId28" xr:uid="{00C9D069-2A85-4778-A810-8D70DC7D8F3D}"/>
-    <hyperlink ref="E37" r:id="rId29" xr:uid="{20070493-E959-4A68-AC4D-57C9ABEF1D55}"/>
-    <hyperlink ref="E38" r:id="rId30" xr:uid="{7EF39F30-CA58-4629-AE18-B2D809FE34B3}"/>
-    <hyperlink ref="E39" r:id="rId31" xr:uid="{28F976A2-7C19-4008-904C-C58A2692FCDA}"/>
-    <hyperlink ref="E40" r:id="rId32" xr:uid="{B78F1D6E-6FFD-4FF4-8039-4E446E8034DD}"/>
-    <hyperlink ref="E41" r:id="rId33" xr:uid="{BD1380E1-B13C-454D-B710-6C5D69517A8E}"/>
-    <hyperlink ref="E42" r:id="rId34" xr:uid="{6D522CEC-04B8-4062-8821-3D9B9B82C7AB}"/>
-    <hyperlink ref="E43" r:id="rId35" xr:uid="{0FBC7812-8E70-4124-9C8A-3FA14B93B10F}"/>
-    <hyperlink ref="E44" r:id="rId36" xr:uid="{8927F44F-68AD-42FF-B3E1-1920F6005139}"/>
-    <hyperlink ref="E45" r:id="rId37" xr:uid="{2029077E-3685-40AB-98DE-42DEBE40C4D6}"/>
-    <hyperlink ref="E46" r:id="rId38" xr:uid="{458BDFD0-B411-49A4-BC97-2285AC01702D}"/>
-    <hyperlink ref="E47" r:id="rId39" xr:uid="{CFE3F641-78BA-47FE-9BA6-E2B11BE7B9EF}"/>
-    <hyperlink ref="E48" r:id="rId40" xr:uid="{32D9501B-A43A-4E23-9A06-AA33D1F02799}"/>
-    <hyperlink ref="E49" r:id="rId41" xr:uid="{95E8C416-AEBD-4233-B3F3-41788388C0E8}"/>
-    <hyperlink ref="E50" r:id="rId42" xr:uid="{ACA2487B-2B01-4BCD-B1F7-8113C023D766}"/>
-    <hyperlink ref="E51" r:id="rId43" xr:uid="{5B92C383-9498-4F48-B6D5-D2C63368C40B}"/>
-    <hyperlink ref="E52" r:id="rId44" xr:uid="{2B2A0E13-092B-42AA-9E98-8815E3399ABE}"/>
-    <hyperlink ref="E53" r:id="rId45" xr:uid="{ADD8A11A-D64A-42C4-8536-B5CF29A64128}"/>
-    <hyperlink ref="E54" r:id="rId46" xr:uid="{422271B5-914A-4F3B-95D1-76A61982C44D}"/>
-    <hyperlink ref="E55" r:id="rId47" xr:uid="{7C0FC373-CE6C-43B6-A369-858039D5FFA3}"/>
-    <hyperlink ref="E56" r:id="rId48" xr:uid="{B3F2D46A-0FE7-4ADE-8791-536F4D2F1DEA}"/>
-    <hyperlink ref="E57" r:id="rId49" xr:uid="{A5065268-1748-4337-BDAD-1ED582E63CD8}"/>
-    <hyperlink ref="E58" r:id="rId50" xr:uid="{DEF1818E-4A0E-4C83-B5CC-65B0AEC53F56}"/>
-    <hyperlink ref="E59" r:id="rId51" xr:uid="{8CBFEFA6-37D0-4678-870D-271F29F4E8BD}"/>
-    <hyperlink ref="E60" r:id="rId52" xr:uid="{EB12D715-EEC0-4D3F-BD0E-759D5D6EA896}"/>
-    <hyperlink ref="E61" r:id="rId53" xr:uid="{43F6C044-2E94-498C-A525-19C4FC447AA7}"/>
-    <hyperlink ref="E62" r:id="rId54" xr:uid="{F7A894B2-E5A6-4E8C-A45D-49FF792E1916}"/>
-    <hyperlink ref="E63" r:id="rId55" xr:uid="{314835A2-8257-41E1-82AC-752D265F3D61}"/>
-    <hyperlink ref="E64" r:id="rId56" xr:uid="{8EDE50E7-3ECE-4754-AD98-15C1AC9F4C6A}"/>
-    <hyperlink ref="E65" r:id="rId57" xr:uid="{BFB1E69A-357C-46A2-A978-38D45FE40982}"/>
-    <hyperlink ref="E66" r:id="rId58" xr:uid="{6BCE1B88-514F-47D0-9BC4-D3E61760DE9E}"/>
-    <hyperlink ref="E67" r:id="rId59" display="https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Foamtec/FT_4.JPG" xr:uid="{E7EEE1E3-34F6-4A25-90BD-12C4715956D3}"/>
-    <hyperlink ref="E77" r:id="rId60" xr:uid="{AC8923D7-0445-4FB1-B977-490C30BFFB94}"/>
-    <hyperlink ref="E78" r:id="rId61" xr:uid="{87218C9F-7E71-4E19-9235-1C3AD7029A9C}"/>
-    <hyperlink ref="E79" r:id="rId62" xr:uid="{996DA984-9F86-4E3B-BA99-13201126E8C5}"/>
-    <hyperlink ref="E80" r:id="rId63" xr:uid="{55FE1056-A937-4EB3-900E-360AE9243B58}"/>
-    <hyperlink ref="E81" r:id="rId64" xr:uid="{79A55C00-AC40-4D71-B88A-2265ECDFB915}"/>
-    <hyperlink ref="E82" r:id="rId65" xr:uid="{1C2C577C-0C3B-4720-918E-F95AA1645740}"/>
-    <hyperlink ref="E83" r:id="rId66" xr:uid="{2BB62AC5-283D-4119-B48B-FEF5C1225196}"/>
-    <hyperlink ref="E84" r:id="rId67" xr:uid="{D5CCAE8C-8C3B-4DC5-96F1-95D0D5506A46}"/>
-    <hyperlink ref="E85" r:id="rId68" xr:uid="{9EADD339-9EBF-48E1-A8D7-CB4DCBD1DD74}"/>
-    <hyperlink ref="E86" r:id="rId69" xr:uid="{6426C700-E365-469A-89C5-4924BC187CE1}"/>
-    <hyperlink ref="E87" r:id="rId70" xr:uid="{4F13D56A-2F36-4506-BE17-2191BED8E416}"/>
-    <hyperlink ref="E88" r:id="rId71" xr:uid="{3D983386-D6AA-428C-BD12-4EC274B2ABD2}"/>
-    <hyperlink ref="E89" r:id="rId72" xr:uid="{78E3FB2B-90F2-4612-88EC-6D578E9F7321}"/>
-    <hyperlink ref="E90" r:id="rId73" xr:uid="{3919FFE0-B83E-4018-9246-B830923B690A}"/>
-    <hyperlink ref="E91" r:id="rId74" xr:uid="{FD54D515-2AF1-4B82-B6A7-D6812DA5128E}"/>
-    <hyperlink ref="E92" r:id="rId75" xr:uid="{9C8A0473-4AA0-44DC-A3E9-B2C8C7067E06}"/>
-    <hyperlink ref="E93" r:id="rId76" xr:uid="{D9AC559B-F2A8-4E9B-A99E-25741741BD56}"/>
-    <hyperlink ref="E94" r:id="rId77" xr:uid="{1F0207C7-9793-4CE9-AC8C-A86CB4A50DE3}"/>
-    <hyperlink ref="E95" r:id="rId78" xr:uid="{89BF00DC-B2E7-43BD-A60B-C0B28C68EFF3}"/>
-    <hyperlink ref="E96" r:id="rId79" xr:uid="{2ACAE81C-0A0E-4943-B618-44E4FCD1537C}"/>
-    <hyperlink ref="E97" r:id="rId80" xr:uid="{4FED6040-0ED8-43EF-85FF-26A8678617C9}"/>
-    <hyperlink ref="E98" r:id="rId81" xr:uid="{28996941-3D25-442C-8E9C-877B0CC3D58F}"/>
-    <hyperlink ref="E99" r:id="rId82" xr:uid="{8B21EAC3-AE53-4887-996C-B2BA66F1C259}"/>
-    <hyperlink ref="E100" r:id="rId83" xr:uid="{FA934447-6A46-4A73-AAC3-F8AFF6CFC7A3}"/>
-    <hyperlink ref="E101" r:id="rId84" xr:uid="{3C27B567-B08B-4E79-97B8-085C101792FE}"/>
-    <hyperlink ref="E102" r:id="rId85" xr:uid="{EE93B2A5-7512-416D-AD2A-9BCEE4102CC6}"/>
-    <hyperlink ref="E103" r:id="rId86" xr:uid="{262EE8B4-6C7C-479B-A060-F23E8678268D}"/>
-    <hyperlink ref="E104" r:id="rId87" xr:uid="{22017CAA-8BA0-4C5A-8247-1BCE79FF142C}"/>
-    <hyperlink ref="E105" r:id="rId88" xr:uid="{DBA36BC3-7FEB-461B-808F-A8C45B3FDB7F}"/>
-    <hyperlink ref="E106" r:id="rId89" xr:uid="{404B6A44-8BB6-48B9-A5A0-C08C8BD26BD2}"/>
-    <hyperlink ref="E107" r:id="rId90" xr:uid="{C76BC4C2-FBA4-4F78-BF87-9823A227A690}"/>
-    <hyperlink ref="E108" r:id="rId91" xr:uid="{8440C7C4-29E6-4119-A577-4737D69EFCE5}"/>
-    <hyperlink ref="E109" r:id="rId92" xr:uid="{0F06DA90-EE12-4850-9DC6-C6CADF631D5B}"/>
-    <hyperlink ref="E110" r:id="rId93" xr:uid="{5EC571BA-D57E-4BE2-931B-2F003F433C7E}"/>
-    <hyperlink ref="E111" r:id="rId94" xr:uid="{B360F099-1593-4604-9ECA-8AE2F89B4E82}"/>
-    <hyperlink ref="E112" r:id="rId95" xr:uid="{6C4DD131-B3B0-48B3-8554-CBB6E4B8368D}"/>
-    <hyperlink ref="E113" r:id="rId96" xr:uid="{80D28DB3-5931-4118-9476-DCBC01E5D372}"/>
-    <hyperlink ref="E114" r:id="rId97" xr:uid="{FAA1708D-5E25-4D77-8C80-AF7D0CE99B7B}"/>
-    <hyperlink ref="E115" r:id="rId98" xr:uid="{E001E47B-17EB-46DF-A746-9541DD155B62}"/>
-    <hyperlink ref="E116" r:id="rId99" display="https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Markforged/MF_2.jpg" xr:uid="{81651296-F01C-4ACE-851C-AC1B690A83AF}"/>
-    <hyperlink ref="E117" r:id="rId100" xr:uid="{93FFCBBB-2F79-43EA-B94F-1879A0E7BEB9}"/>
-    <hyperlink ref="E118" r:id="rId101" xr:uid="{EEC5E9C0-818F-4751-B0B1-27321651A334}"/>
-    <hyperlink ref="E119" r:id="rId102" xr:uid="{88D4257E-80CE-4946-BAF1-7E6849127DA4}"/>
-    <hyperlink ref="E120" r:id="rId103" xr:uid="{2932F429-0069-44E7-8EE3-43C3A95E9F37}"/>
-    <hyperlink ref="E121" r:id="rId104" xr:uid="{938222BA-44D6-4E59-8A1A-D2293612E0C8}"/>
-    <hyperlink ref="E122" r:id="rId105" xr:uid="{B4653908-7331-4F5E-87B8-2354CD3D88AA}"/>
-    <hyperlink ref="E123" r:id="rId106" xr:uid="{B0910F82-5649-42FD-A577-53F3548080D1}"/>
-    <hyperlink ref="E124" r:id="rId107" xr:uid="{FE7DF4A0-DB06-40C0-84CA-5D151C31D74F}"/>
-    <hyperlink ref="E125" r:id="rId108" xr:uid="{415EDE3C-1BCB-4915-9E37-4B756D43EA46}"/>
-    <hyperlink ref="E126" r:id="rId109" xr:uid="{D0F11DB0-813C-48A3-ABA3-29A50204CED4}"/>
-    <hyperlink ref="E127" r:id="rId110" xr:uid="{09A66294-5BD6-488B-9793-055AC6FBFA68}"/>
-    <hyperlink ref="E128" r:id="rId111" xr:uid="{0607339F-B25C-4640-97F9-614449464D84}"/>
-    <hyperlink ref="E129" r:id="rId112" xr:uid="{E142C890-8479-43BD-B846-F94F5457FA55}"/>
-    <hyperlink ref="E130" r:id="rId113" xr:uid="{21F40A59-2366-445B-B47E-5669E993C116}"/>
-    <hyperlink ref="E131" r:id="rId114" xr:uid="{39AE4023-BFCA-42E1-B5F9-B3C9DA57D390}"/>
-    <hyperlink ref="E132" r:id="rId115" xr:uid="{0D191BA0-A274-48E2-A61B-0ACE3DDFA9D6}"/>
-    <hyperlink ref="E133" r:id="rId116" xr:uid="{A8794384-71FC-4BE6-9F41-42B473C853FE}"/>
-    <hyperlink ref="E134" r:id="rId117" xr:uid="{425160A6-E04A-45A5-9680-E01C8AC19087}"/>
-    <hyperlink ref="E135" r:id="rId118" xr:uid="{A18DB3B8-9F62-4F44-9B5F-F7864D129C2A}"/>
-    <hyperlink ref="E136" r:id="rId119" xr:uid="{7C5883C7-0D05-46EE-9C1F-3ED19527F64B}"/>
-    <hyperlink ref="E137" r:id="rId120" xr:uid="{5066DDAE-381D-49CF-933A-7C15174F8DBE}"/>
-    <hyperlink ref="E138" r:id="rId121" xr:uid="{1BA141B5-1BB1-416B-B9E6-ECB9041888F1}"/>
-    <hyperlink ref="E139" r:id="rId122" xr:uid="{BBA19C38-7FA0-4F4A-B8F7-6F08D61CB87E}"/>
-    <hyperlink ref="E140" r:id="rId123" xr:uid="{B7CCE7BF-683B-4692-8B5F-E7B82A3AF8DC}"/>
-    <hyperlink ref="E141" r:id="rId124" xr:uid="{EC581D01-D81D-4C76-8CEE-ABC687AE444B}"/>
-    <hyperlink ref="E142" r:id="rId125" xr:uid="{42CE3E24-E0D5-4F2B-BE99-018C2ED10370}"/>
-    <hyperlink ref="E143" r:id="rId126" xr:uid="{0FB0B94C-CA4A-4516-8459-36D688A25A14}"/>
-    <hyperlink ref="E144" r:id="rId127" xr:uid="{1C575FDF-6AB0-472E-9494-DCEBA3BAC728}"/>
-    <hyperlink ref="E145" r:id="rId128" xr:uid="{34AA1AF9-0772-4808-9C84-1A3C7706D090}"/>
-    <hyperlink ref="E146" r:id="rId129" xr:uid="{E085FFB1-05D9-44F9-9FFB-CBE7A5526F0E}"/>
-    <hyperlink ref="E147" r:id="rId130" xr:uid="{80AF8191-6994-4BFA-A44E-87E87E7DA59F}"/>
-    <hyperlink ref="E148" r:id="rId131" xr:uid="{582FF7B0-FC61-443C-8AB0-6A4002FDE4BD}"/>
-    <hyperlink ref="E149" r:id="rId132" xr:uid="{FCBFF1F1-3DD9-4876-9BB5-DD209772F973}"/>
-    <hyperlink ref="E150" r:id="rId133" xr:uid="{D75C4898-F5E5-48EE-BCD2-B817AF56C7AA}"/>
-    <hyperlink ref="E151" r:id="rId134" xr:uid="{73B805FB-5B58-4F18-AE4B-E8F70A37CC5A}"/>
-    <hyperlink ref="E152" r:id="rId135" xr:uid="{7AD1FECC-56C7-4C6A-8FF9-F94002654A3D}"/>
-    <hyperlink ref="E153" r:id="rId136" xr:uid="{AD9E24AB-1746-4460-9418-2473B83D3523}"/>
-    <hyperlink ref="E154" r:id="rId137" xr:uid="{1C305051-48A0-4467-AA60-EE5F42592B13}"/>
-    <hyperlink ref="E155" r:id="rId138" xr:uid="{645198CC-0F67-4195-81B7-9BA452DA2E7C}"/>
-    <hyperlink ref="E156" r:id="rId139" xr:uid="{D003731C-9933-4F6B-83CD-5F85415151C0}"/>
-    <hyperlink ref="E157" r:id="rId140" xr:uid="{0175DA41-594A-4AA4-A56B-8E7BBCD63D46}"/>
-    <hyperlink ref="E158" r:id="rId141" xr:uid="{D9CC8A19-54B6-402F-B1C5-48AD57A88D3A}"/>
-    <hyperlink ref="E159" r:id="rId142" xr:uid="{D4931B64-91F8-42F6-B5B1-81DA82C962E8}"/>
-    <hyperlink ref="E160" r:id="rId143" xr:uid="{D82C2FB0-AAA7-456E-9778-7B429C0FE4C5}"/>
-    <hyperlink ref="E161" r:id="rId144" xr:uid="{1F176FF2-8ABC-4D63-92C2-E4D3AD7123FD}"/>
-    <hyperlink ref="E162" r:id="rId145" xr:uid="{89426ABB-3746-4C14-8BC2-FB4B46E43B96}"/>
-    <hyperlink ref="E163" r:id="rId146" xr:uid="{95D8E421-4ECA-4D8D-860A-D8A73BC9E839}"/>
-    <hyperlink ref="E164" r:id="rId147" xr:uid="{7FD33974-8DD0-420C-B82F-3333586991FD}"/>
-    <hyperlink ref="E165" r:id="rId148" xr:uid="{A17660EC-D6DB-4D53-B608-96922725EA63}"/>
-    <hyperlink ref="E166" r:id="rId149" xr:uid="{3EF61592-88A8-47AA-A60E-3B2CD06F9B42}"/>
-    <hyperlink ref="E167" r:id="rId150" xr:uid="{C2D6DF97-6E71-4EDC-9BA2-2138C8DE8184}"/>
-    <hyperlink ref="E168" r:id="rId151" xr:uid="{CA534189-4B85-4F5E-A6D8-10C4C6DE4226}"/>
-    <hyperlink ref="E169" r:id="rId152" xr:uid="{98625AFF-B286-42F5-A045-359393057095}"/>
-    <hyperlink ref="E170" r:id="rId153" xr:uid="{742A5567-40D8-44AC-BCAB-9FD7849C28B1}"/>
-    <hyperlink ref="E171" r:id="rId154" xr:uid="{4046EF3C-6DCF-44DD-9190-A4CBBA1F8FE3}"/>
-    <hyperlink ref="E172" r:id="rId155" xr:uid="{C443C119-04D2-474E-A941-C4F2C46A3DE9}"/>
-    <hyperlink ref="E173" r:id="rId156" xr:uid="{111D6C69-6796-4905-AC6A-C7023210A9AD}"/>
-    <hyperlink ref="E174" r:id="rId157" xr:uid="{092DA502-2199-4177-AE22-4B1E99057EAA}"/>
-    <hyperlink ref="E175" r:id="rId158" xr:uid="{FE7B6A0C-5FB4-4EFE-B41B-F7A605CC178C}"/>
-    <hyperlink ref="E176" r:id="rId159" xr:uid="{75F32457-144C-4C7B-904E-731BE259A6BB}"/>
-    <hyperlink ref="E177" r:id="rId160" xr:uid="{CB9B6480-F7CA-48BA-8C4A-D9FBEBB71400}"/>
-    <hyperlink ref="E178" r:id="rId161" xr:uid="{47EF8CAF-A06D-42C7-9281-772D5BCFE62C}"/>
-    <hyperlink ref="E179" r:id="rId162" xr:uid="{54515755-3555-43BA-AB8D-A39AC5D88E1F}"/>
-    <hyperlink ref="E180" r:id="rId163" xr:uid="{A9C902C6-4722-4B67-B5D9-4F4D72F3040C}"/>
-    <hyperlink ref="E181" r:id="rId164" xr:uid="{86C3171C-5780-4985-A841-97A5B13C4D49}"/>
-    <hyperlink ref="E182" r:id="rId165" xr:uid="{F055ACB4-9482-4F3F-A501-B242E53E96E2}"/>
-    <hyperlink ref="E183" r:id="rId166" xr:uid="{F15D9981-0543-437F-B5C4-23296D821207}"/>
-    <hyperlink ref="E184" r:id="rId167" xr:uid="{C0994287-4E35-4F5B-8F09-90AF19ED5E2A}"/>
-    <hyperlink ref="E189" r:id="rId168" xr:uid="{C19640AB-FD71-4B2F-A09F-F7D78279EFAF}"/>
-    <hyperlink ref="E190" r:id="rId169" xr:uid="{2793CC82-B37D-4445-BEE8-1548B1DC58D8}"/>
-    <hyperlink ref="E191" r:id="rId170" xr:uid="{640E3309-0150-469C-A067-62306B9AA446}"/>
-    <hyperlink ref="E192" r:id="rId171" xr:uid="{66E6BA63-B678-43BF-94E2-5A37255C69D8}"/>
-    <hyperlink ref="E201" r:id="rId172" xr:uid="{CB812501-72A9-4632-B283-37376A73783E}"/>
-    <hyperlink ref="E206" r:id="rId173" display="https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/FormLabs/FL_LT_Form2_hex_mtx.jpg" xr:uid="{B86126BC-917E-4E3A-9E76-7867195DB28D}"/>
-    <hyperlink ref="E207" r:id="rId174" xr:uid="{013C29EE-EADF-479B-B502-937CCAF664DE}"/>
-    <hyperlink ref="E208" r:id="rId175" xr:uid="{C1D28543-8A7A-407F-99BC-0ED4257D15B0}"/>
-    <hyperlink ref="E209" r:id="rId176" xr:uid="{036B5E3A-6BA0-461C-97AB-87ED635158D5}"/>
-    <hyperlink ref="E210" r:id="rId177" xr:uid="{3F974929-6B62-4613-9EAD-A7AA819C0E3E}"/>
-    <hyperlink ref="E211" r:id="rId178" xr:uid="{B425FCF0-E9BF-4E2E-9939-43675CCE676A}"/>
-    <hyperlink ref="E212" r:id="rId179" xr:uid="{21BC2335-6E45-4161-AAC4-DE3BBE380587}"/>
-    <hyperlink ref="E213" r:id="rId180" xr:uid="{8E24043C-FDE1-42CC-B413-4A356B3475DF}"/>
-    <hyperlink ref="E214" r:id="rId181" xr:uid="{B692E472-EE01-4793-BF9A-9132D0EA4821}"/>
-    <hyperlink ref="E215" r:id="rId182" xr:uid="{B0D699A0-6B77-47FA-9E81-96A21DD62428}"/>
-    <hyperlink ref="E217" r:id="rId183" xr:uid="{8C33FEC7-C4F7-4375-A8CF-337FECF0B2C9}"/>
-    <hyperlink ref="E218" r:id="rId184" xr:uid="{48536585-C56E-4C9D-B9E3-14DBBB4F26EA}"/>
-    <hyperlink ref="E219" r:id="rId185" xr:uid="{BEAA3835-0BB4-48BE-84E3-4748F4BBD132}"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{97385A87-FD28-42DB-87B5-2E7D23720C48}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{946F577A-DC60-480D-8B3D-8D78C124C1AC}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{D6CA56A5-5C08-46C0-B41F-5462EBC707E4}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{DC3E31D4-0496-47A6-8C63-D42B1BAEF2F0}"/>
+    <hyperlink ref="E12" r:id="rId5" xr:uid="{EBE64FA2-94AE-406D-BDBE-085DD90C84BC}"/>
+    <hyperlink ref="E13" r:id="rId6" xr:uid="{860D32FC-E417-4F55-9BA4-805A3DA12A54}"/>
+    <hyperlink ref="E14" r:id="rId7" xr:uid="{400C8681-44A0-4636-8ACC-728E1E466596}"/>
+    <hyperlink ref="E15" r:id="rId8" xr:uid="{297B440F-B637-4F71-8F75-4811441B9022}"/>
+    <hyperlink ref="E16" r:id="rId9" xr:uid="{E5BF3DC1-D1EA-4D02-8D84-13E25FE34544}"/>
+    <hyperlink ref="E17" r:id="rId10" xr:uid="{AAE9C9DF-5D6C-44DD-AEAD-1BFB6CA4D14A}"/>
+    <hyperlink ref="E18" r:id="rId11" xr:uid="{42DB8FC5-32C6-4634-98E1-2501C370065D}"/>
+    <hyperlink ref="E19" r:id="rId12" xr:uid="{1B568739-08DD-4241-AE83-7729D37024DF}"/>
+    <hyperlink ref="E20" r:id="rId13" xr:uid="{8853382B-FB61-4BE6-A22F-192A372513A2}"/>
+    <hyperlink ref="E21" r:id="rId14" xr:uid="{EE9D7E33-E792-45C2-8414-BB3C9E1C74D4}"/>
+    <hyperlink ref="E22" r:id="rId15" xr:uid="{D719FA01-A41C-4B2E-9A99-B9D3C1CAFF33}"/>
+    <hyperlink ref="E23" r:id="rId16" xr:uid="{3F39F1C9-D988-4F9E-902D-4959C0749D7F}"/>
+    <hyperlink ref="E24" r:id="rId17" xr:uid="{13684346-BF95-4E7B-8BAA-D2D9E4E6E438}"/>
+    <hyperlink ref="E25" r:id="rId18" xr:uid="{84BB38CB-76C9-4E72-8410-DA3DCF6791E5}"/>
+    <hyperlink ref="E27" r:id="rId19" xr:uid="{B69EE1A8-D77A-437D-A325-074EC938B309}"/>
+    <hyperlink ref="E28" r:id="rId20" xr:uid="{F7F30B32-5A34-45BD-A570-D7EB8AB8A0BA}"/>
+    <hyperlink ref="E29" r:id="rId21" xr:uid="{874E9593-D257-4F56-A841-526478838F34}"/>
+    <hyperlink ref="E30" r:id="rId22" xr:uid="{AB474F16-0E32-4C03-89A4-4B4ACC50B67E}"/>
+    <hyperlink ref="E31" r:id="rId23" xr:uid="{EB853787-CAF3-4ADA-BBFB-ADBAE5EB680C}"/>
+    <hyperlink ref="E32" r:id="rId24" xr:uid="{C66C7B6F-2972-4FD7-B447-C2960FED0E2D}"/>
+    <hyperlink ref="E33" r:id="rId25" xr:uid="{25B4E916-93A3-4DBC-97BD-B105BA3C8EF1}"/>
+    <hyperlink ref="E34" r:id="rId26" xr:uid="{2F66A0AA-A358-4788-9146-E356B39F5839}"/>
+    <hyperlink ref="E35" r:id="rId27" xr:uid="{ED956A72-EEA1-4A3E-B5CF-F35296FF1D1B}"/>
+    <hyperlink ref="E36" r:id="rId28" xr:uid="{29468F01-5669-4C50-84EC-5A53EF8511E9}"/>
+    <hyperlink ref="E37" r:id="rId29" xr:uid="{2B772D4D-BC6F-47B4-A6A2-1774295C5D7F}"/>
+    <hyperlink ref="E38" r:id="rId30" xr:uid="{8F3ACE9F-3A1D-43C3-B260-0EC80DE3AE88}"/>
+    <hyperlink ref="E39" r:id="rId31" xr:uid="{7886E5BA-777A-4DAB-AD3A-50D215E2AD9C}"/>
+    <hyperlink ref="E40" r:id="rId32" xr:uid="{6F01AE15-BDC8-43C2-8F07-8CDD6D46B9C1}"/>
+    <hyperlink ref="E41" r:id="rId33" xr:uid="{5E5D27B2-2BD5-406A-ACE1-38871AF1D4EB}"/>
+    <hyperlink ref="E42" r:id="rId34" xr:uid="{2F6868A6-9943-422E-A964-D017217CCE9D}"/>
+    <hyperlink ref="E43" r:id="rId35" xr:uid="{C5ACEE62-28FE-44EE-AA38-3153F4A9896A}"/>
+    <hyperlink ref="E44" r:id="rId36" xr:uid="{E7546FA8-2B76-4622-BC8E-38D2DAC8A687}"/>
+    <hyperlink ref="E45" r:id="rId37" xr:uid="{29277AE8-0EA0-49B3-BDF6-391A4C22B73C}"/>
+    <hyperlink ref="E46" r:id="rId38" xr:uid="{85D321EA-B49B-4C71-BB65-7F1A59D5D98A}"/>
+    <hyperlink ref="E47" r:id="rId39" xr:uid="{A32EC89E-90BA-4573-92B7-1AA69E2C0503}"/>
+    <hyperlink ref="E48" r:id="rId40" xr:uid="{D95A5725-C433-4304-9DD1-DB3515D5291F}"/>
+    <hyperlink ref="E49" r:id="rId41" xr:uid="{FB506973-E2E9-4AC2-920A-F1E8C48A2BB6}"/>
+    <hyperlink ref="E50" r:id="rId42" xr:uid="{1957E0C8-973A-41D5-8FF5-EFB2603088C5}"/>
+    <hyperlink ref="E51" r:id="rId43" xr:uid="{074B0D45-7372-4CEF-A054-D327882240C6}"/>
+    <hyperlink ref="E52" r:id="rId44" xr:uid="{9224BB16-B984-4324-BC48-68C801124C6F}"/>
+    <hyperlink ref="E53" r:id="rId45" xr:uid="{14166129-DAA8-4932-B4A1-17DD51CB9975}"/>
+    <hyperlink ref="E54" r:id="rId46" xr:uid="{671F326E-F090-4296-BD74-B178D2AAC6F1}"/>
+    <hyperlink ref="E55" r:id="rId47" xr:uid="{C8B8427C-01DF-48CC-A06E-3D40C572721A}"/>
+    <hyperlink ref="E56" r:id="rId48" xr:uid="{9F1EB537-E2FF-4672-9AE4-623F5317E6CF}"/>
+    <hyperlink ref="E57" r:id="rId49" xr:uid="{15F1A1DB-93E2-47F3-94B9-480193505E2C}"/>
+    <hyperlink ref="E58" r:id="rId50" xr:uid="{12794F8A-A7AD-4EFD-AB51-1F97CBF85DD3}"/>
+    <hyperlink ref="E59" r:id="rId51" xr:uid="{B1CD481F-E149-4725-B3C0-7637925B3243}"/>
+    <hyperlink ref="E60" r:id="rId52" xr:uid="{00F76BD0-F98A-4F7E-975F-28F3D876992B}"/>
+    <hyperlink ref="E61" r:id="rId53" xr:uid="{A829AF30-8F54-4418-9C23-0BB3F41D17B5}"/>
+    <hyperlink ref="E62" r:id="rId54" xr:uid="{A6D1861B-9130-4B85-B56D-1A6DE1EFD49D}"/>
+    <hyperlink ref="E63" r:id="rId55" xr:uid="{09D6C075-6DFB-4F43-B347-ECAC7BF20937}"/>
+    <hyperlink ref="E64" r:id="rId56" xr:uid="{CD759C56-B1D6-4EEF-A502-9F33124DD5A9}"/>
+    <hyperlink ref="E65" r:id="rId57" xr:uid="{0F6758BB-CC8F-403A-A10D-8F54F82410CE}"/>
+    <hyperlink ref="E66" r:id="rId58" xr:uid="{56645CF6-FBFA-4796-A3DB-20D4A3E9BEA7}"/>
+    <hyperlink ref="E67" r:id="rId59" display="https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Foamtec/FT_4.JPG" xr:uid="{CAF3DE01-D39D-4D7F-A0BB-F880E8D94E08}"/>
+    <hyperlink ref="E77" r:id="rId60" xr:uid="{14CCF112-3F3F-459C-AD0B-6AEA5466C7A6}"/>
+    <hyperlink ref="E78" r:id="rId61" xr:uid="{0A6D99C0-96CF-4CED-A98C-1FEFAC07ED31}"/>
+    <hyperlink ref="E79" r:id="rId62" xr:uid="{C3B2272C-D055-4B60-9B26-BA0F9A1F82FD}"/>
+    <hyperlink ref="E80" r:id="rId63" xr:uid="{C2509409-106A-4A1A-AD66-74AC49CED460}"/>
+    <hyperlink ref="E81" r:id="rId64" xr:uid="{E59D3D7E-4798-4DC2-AFA6-4C20263C73EE}"/>
+    <hyperlink ref="E82" r:id="rId65" xr:uid="{93526730-2E82-43AD-8A6B-B5523EC311BB}"/>
+    <hyperlink ref="E83" r:id="rId66" xr:uid="{D6637AD3-B537-4B9F-BEAE-936C9D6773D5}"/>
+    <hyperlink ref="E84" r:id="rId67" xr:uid="{3AEC944B-8D7A-4605-B3AA-A730ED829EA1}"/>
+    <hyperlink ref="E85" r:id="rId68" xr:uid="{29F28787-3011-41E4-AA0D-53661F7FEBDD}"/>
+    <hyperlink ref="E86" r:id="rId69" xr:uid="{A274EDEB-25A8-4EAC-8CFC-C93BC1F0A0CF}"/>
+    <hyperlink ref="E87" r:id="rId70" xr:uid="{E2B16451-E837-4AD1-89C2-F2BA2B1BA1BA}"/>
+    <hyperlink ref="E88" r:id="rId71" xr:uid="{9793F17A-42FB-47AD-842F-B40711735AA5}"/>
+    <hyperlink ref="E89" r:id="rId72" xr:uid="{C8504A3D-F5E8-47E5-A0AD-29A89849FA53}"/>
+    <hyperlink ref="E90" r:id="rId73" xr:uid="{737A0DE6-5735-43D8-A24A-DCD432658518}"/>
+    <hyperlink ref="E91" r:id="rId74" xr:uid="{B4164AE7-0013-45FC-B35A-BB44CAA6FA13}"/>
+    <hyperlink ref="E92" r:id="rId75" xr:uid="{77DF3F9C-A501-49BD-8F30-1B4F4E5E58B4}"/>
+    <hyperlink ref="E93" r:id="rId76" xr:uid="{761EB273-181C-45A5-AAB6-BE468C4E4C50}"/>
+    <hyperlink ref="E94" r:id="rId77" xr:uid="{4C474661-2C62-431A-B764-09D80D27AD19}"/>
+    <hyperlink ref="E95" r:id="rId78" xr:uid="{CA879D31-1176-4B0E-8916-992E177E5BBE}"/>
+    <hyperlink ref="E96" r:id="rId79" xr:uid="{CE0CEECC-6186-4EDE-B6F2-589DD7063410}"/>
+    <hyperlink ref="E97" r:id="rId80" xr:uid="{C2840800-EB29-4169-BC8A-08E62DFF7444}"/>
+    <hyperlink ref="E98" r:id="rId81" xr:uid="{39B5B43D-9324-4299-91FB-8952A6F050B3}"/>
+    <hyperlink ref="E99" r:id="rId82" xr:uid="{F04AB481-05A7-495B-9D7F-555632ABC2F1}"/>
+    <hyperlink ref="E100" r:id="rId83" xr:uid="{2FEB63B0-15CA-40CC-BB7E-FB6CA4FA3A13}"/>
+    <hyperlink ref="E101" r:id="rId84" xr:uid="{5AB8D582-A05C-460C-B474-FD462A2A5533}"/>
+    <hyperlink ref="E102" r:id="rId85" xr:uid="{19755251-3982-454D-AFC3-112377C246EA}"/>
+    <hyperlink ref="E103" r:id="rId86" xr:uid="{CC4A82DC-039D-420A-969E-80F42FE58598}"/>
+    <hyperlink ref="E104" r:id="rId87" xr:uid="{B6D15D5D-FA94-4225-9B99-2F914BD1B2A2}"/>
+    <hyperlink ref="E105" r:id="rId88" xr:uid="{1A08198B-89D6-427B-8FEB-F54516009958}"/>
+    <hyperlink ref="E106" r:id="rId89" xr:uid="{D1317811-D313-4508-8D61-2B93F58F8187}"/>
+    <hyperlink ref="E107" r:id="rId90" xr:uid="{B512917F-97B3-4387-B0EF-9B8343E88D6C}"/>
+    <hyperlink ref="E108" r:id="rId91" xr:uid="{4A358447-5932-4224-AFD8-C60FF0E9CB68}"/>
+    <hyperlink ref="E109" r:id="rId92" xr:uid="{5B7C8981-EBDD-4C48-BAC5-D3972DCE5C34}"/>
+    <hyperlink ref="E110" r:id="rId93" xr:uid="{C23C3407-0341-4109-8700-8F173A8B6187}"/>
+    <hyperlink ref="E111" r:id="rId94" xr:uid="{7A336A65-6EBC-41C8-8CAE-9670E2E3D377}"/>
+    <hyperlink ref="E112" r:id="rId95" xr:uid="{57B3FF44-94FE-4C95-90D7-EC55E57837FE}"/>
+    <hyperlink ref="E113" r:id="rId96" xr:uid="{4AAF8BE2-B3AA-4492-8D09-CF931D1FA33F}"/>
+    <hyperlink ref="E114" r:id="rId97" xr:uid="{9544B1E0-F3A2-4B94-824A-F8573034E184}"/>
+    <hyperlink ref="E115" r:id="rId98" xr:uid="{DE2D53BD-5C63-4E6E-8261-D9A5005BD981}"/>
+    <hyperlink ref="E116" r:id="rId99" display="https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Markforged/MF_2.jpg" xr:uid="{89FF459B-0229-4E7E-882B-8B6CB19F873C}"/>
+    <hyperlink ref="E117" r:id="rId100" xr:uid="{84BB9D74-726D-4898-AC7A-8EF15F601CB4}"/>
+    <hyperlink ref="E118" r:id="rId101" xr:uid="{00046B45-124C-41B3-95E2-B2181A592C06}"/>
+    <hyperlink ref="E119" r:id="rId102" xr:uid="{CE353BAD-C4FE-42D7-AA75-A5BA70E0603A}"/>
+    <hyperlink ref="E120" r:id="rId103" xr:uid="{04DFC4FE-D420-4C56-B65A-701AE1CD5167}"/>
+    <hyperlink ref="E121" r:id="rId104" xr:uid="{5C69C368-4F56-4B03-B485-871476715336}"/>
+    <hyperlink ref="E122" r:id="rId105" xr:uid="{C4EFD151-A1AF-4553-9086-64620C21AE89}"/>
+    <hyperlink ref="E123" r:id="rId106" xr:uid="{2E3D55B9-FF62-479F-A32A-584C93FEEA4B}"/>
+    <hyperlink ref="E124" r:id="rId107" xr:uid="{B6146E37-9C2E-46FA-9774-B0F91D252B65}"/>
+    <hyperlink ref="E125" r:id="rId108" xr:uid="{6B9DD87E-D254-422A-98C5-87BFFF7C3D02}"/>
+    <hyperlink ref="E126" r:id="rId109" xr:uid="{D0C725FC-7074-41F3-AA14-D14D540716F6}"/>
+    <hyperlink ref="E127" r:id="rId110" xr:uid="{66AC358F-624A-4145-AFF8-1A8CC4E87F5F}"/>
+    <hyperlink ref="E128" r:id="rId111" xr:uid="{43F6FAE1-C36F-455F-832B-699E6933D603}"/>
+    <hyperlink ref="E129" r:id="rId112" xr:uid="{7B0B2ADA-1AA9-40A5-B9F5-C447EBBA544A}"/>
+    <hyperlink ref="E130" r:id="rId113" xr:uid="{D21A07DE-B152-4F05-BD03-2E4D619602B1}"/>
+    <hyperlink ref="E131" r:id="rId114" xr:uid="{39160932-C5D5-455D-8E28-1B9856D12D40}"/>
+    <hyperlink ref="E132" r:id="rId115" xr:uid="{6FE2D030-F008-4448-814D-6D4BC99D2DE7}"/>
+    <hyperlink ref="E133" r:id="rId116" xr:uid="{486B7757-84E6-484D-B4EC-1E3A164D3A67}"/>
+    <hyperlink ref="E134" r:id="rId117" xr:uid="{109FBD26-97A6-447B-9F12-3DF9362E5353}"/>
+    <hyperlink ref="E135" r:id="rId118" xr:uid="{083E769E-E4CA-4D2F-B402-81DD6099AAAD}"/>
+    <hyperlink ref="E136" r:id="rId119" xr:uid="{C2AEE8FF-6837-496A-9414-CB6C06986824}"/>
+    <hyperlink ref="E137" r:id="rId120" xr:uid="{060BD30A-7088-48CE-A2D3-09D3909E3272}"/>
+    <hyperlink ref="E138" r:id="rId121" xr:uid="{2A545423-C63B-4A9B-A410-A61B7AB1F098}"/>
+    <hyperlink ref="E139" r:id="rId122" xr:uid="{101EC2A7-B87C-483A-A461-E14BAC1696BB}"/>
+    <hyperlink ref="E140" r:id="rId123" xr:uid="{4239890B-65D4-4A3C-BAF0-0673D0E802ED}"/>
+    <hyperlink ref="E141" r:id="rId124" xr:uid="{9DE1ECC9-FF03-4E17-B2B4-692E4D0B7092}"/>
+    <hyperlink ref="E142" r:id="rId125" xr:uid="{B5E8379E-28C2-471B-B642-3CC86C3CB78A}"/>
+    <hyperlink ref="E143" r:id="rId126" xr:uid="{0502C488-26E3-4B03-BDB2-7592091356A4}"/>
+    <hyperlink ref="E144" r:id="rId127" xr:uid="{1947F572-2CD3-4B62-B5F5-ABE7D45BAB76}"/>
+    <hyperlink ref="E145" r:id="rId128" xr:uid="{56E20B6D-91E9-4677-A0F2-7FCB12E3BA49}"/>
+    <hyperlink ref="E146" r:id="rId129" xr:uid="{0F9F73A5-707B-4A1C-BA3D-6F79163C49EA}"/>
+    <hyperlink ref="E147" r:id="rId130" xr:uid="{79D86D41-36C8-42CE-B6A7-CC0121D3544B}"/>
+    <hyperlink ref="E148" r:id="rId131" xr:uid="{9379BF9D-342D-4B88-8099-C9F7BEB4C93B}"/>
+    <hyperlink ref="E149" r:id="rId132" xr:uid="{2DC4A80A-053A-4F88-BE12-94ACF17E223E}"/>
+    <hyperlink ref="E150" r:id="rId133" xr:uid="{62E5AD91-E263-4B3D-A715-4A29152F54A0}"/>
+    <hyperlink ref="E151" r:id="rId134" xr:uid="{A0AF3BFF-CF94-4EBD-9349-CC01C6FDABE7}"/>
+    <hyperlink ref="E152" r:id="rId135" xr:uid="{6E7AB10F-08CF-45D4-919C-B9F93F274694}"/>
+    <hyperlink ref="E153" r:id="rId136" xr:uid="{12992739-B687-41E2-9267-F7E49A0FDC46}"/>
+    <hyperlink ref="E154" r:id="rId137" xr:uid="{BCA6D9D7-17D0-469F-B37E-C3558CD41ED1}"/>
+    <hyperlink ref="E155" r:id="rId138" xr:uid="{82BA0D39-75B4-4786-8CB2-19B3D9B32175}"/>
+    <hyperlink ref="E156" r:id="rId139" xr:uid="{7A7D313A-C972-4341-99E3-E62A925BFCF9}"/>
+    <hyperlink ref="E157" r:id="rId140" xr:uid="{A1F02D2B-2C32-42DC-A583-FFE6007D452D}"/>
+    <hyperlink ref="E158" r:id="rId141" xr:uid="{C229A311-8BB7-47CF-9360-A8D08635A587}"/>
+    <hyperlink ref="E159" r:id="rId142" xr:uid="{85FD10A3-8E0C-42B2-A0F2-FA08E8BED939}"/>
+    <hyperlink ref="E160" r:id="rId143" xr:uid="{421656A2-6D45-409D-8404-C931F7DCACE7}"/>
+    <hyperlink ref="E161" r:id="rId144" xr:uid="{65C48EE4-02D7-4D37-821B-3A368227D4D5}"/>
+    <hyperlink ref="E162" r:id="rId145" xr:uid="{7FD15EAB-F258-4DE9-909F-51DBB0CD4FC4}"/>
+    <hyperlink ref="E163" r:id="rId146" xr:uid="{94D405A9-A7D3-4FF9-A547-FA96E0BA285E}"/>
+    <hyperlink ref="E164" r:id="rId147" xr:uid="{5825E8F4-153B-4F39-85E0-B15EA1D49C0C}"/>
+    <hyperlink ref="E165" r:id="rId148" xr:uid="{3E6C04BD-21DE-4B6C-A808-EA1E316E1799}"/>
+    <hyperlink ref="E166" r:id="rId149" xr:uid="{2AC5AF31-0946-4B90-860A-6D6ED038A9BB}"/>
+    <hyperlink ref="E167" r:id="rId150" xr:uid="{DCCDAE1E-26D6-4154-B080-6FE927087126}"/>
+    <hyperlink ref="E168" r:id="rId151" xr:uid="{1406A756-61B0-4ABC-9597-E3BA23A359A9}"/>
+    <hyperlink ref="E169" r:id="rId152" xr:uid="{5B0DCEB2-FB4D-434A-9F57-79679C3605D6}"/>
+    <hyperlink ref="E170" r:id="rId153" xr:uid="{8FD63986-CD02-42A0-81DF-1464BA410ACA}"/>
+    <hyperlink ref="E171" r:id="rId154" xr:uid="{FE95225D-836D-495B-8172-FF19E3181BBF}"/>
+    <hyperlink ref="E172" r:id="rId155" xr:uid="{1F2DA637-C3C6-4C2C-A965-70E9137773FD}"/>
+    <hyperlink ref="E173" r:id="rId156" xr:uid="{07C22F0A-7F7F-410B-B9C0-DEE7AC382EFE}"/>
+    <hyperlink ref="E174" r:id="rId157" xr:uid="{08E04909-964D-4317-9F7C-409AF5DD1735}"/>
+    <hyperlink ref="E175" r:id="rId158" xr:uid="{58029723-4D14-49F3-89D1-199A64B07219}"/>
+    <hyperlink ref="E176" r:id="rId159" xr:uid="{F42BDE05-A488-4870-AB6E-BC5CF7FBDF11}"/>
+    <hyperlink ref="E177" r:id="rId160" xr:uid="{3D04E09D-DC64-4A91-998A-E941532E8E76}"/>
+    <hyperlink ref="E178" r:id="rId161" xr:uid="{F69E3334-F167-4F44-96B1-2E618FBE04B9}"/>
+    <hyperlink ref="E179" r:id="rId162" xr:uid="{2E6361DD-7AFC-4338-A733-8494AD156FE0}"/>
+    <hyperlink ref="E180" r:id="rId163" xr:uid="{298EE9D4-C3F1-4909-9161-108D8ED87350}"/>
+    <hyperlink ref="E181" r:id="rId164" xr:uid="{2A911CA9-9D71-40E2-9A87-773935363019}"/>
+    <hyperlink ref="E182" r:id="rId165" xr:uid="{27DF6597-D656-4891-BB0F-8F86F928C14B}"/>
+    <hyperlink ref="E183" r:id="rId166" xr:uid="{E74DDAA0-F9A8-4B47-AA13-A1A16AD5E48F}"/>
+    <hyperlink ref="E184" r:id="rId167" xr:uid="{548AC3D6-634A-47EB-AF85-63932844E348}"/>
+    <hyperlink ref="E189" r:id="rId168" xr:uid="{511D2F3A-3F86-4904-BCFB-919FBAC448B7}"/>
+    <hyperlink ref="E190" r:id="rId169" xr:uid="{A561C701-EB2F-415D-BA4E-FEC8B179C3C3}"/>
+    <hyperlink ref="E191" r:id="rId170" xr:uid="{C906DA4B-2992-42EB-813E-4D1F4501D049}"/>
+    <hyperlink ref="E192" r:id="rId171" xr:uid="{182A186A-974A-45D3-AAA9-B9EED3C81647}"/>
+    <hyperlink ref="E201" r:id="rId172" xr:uid="{4E1EE2BE-30AC-49F8-BB98-25E054E2F593}"/>
+    <hyperlink ref="E206" r:id="rId173" display="https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/FormLabs/FL_LT_Form2_hex_mtx.jpg" xr:uid="{791105AE-4AE6-47D6-8D89-E8A2560ABB9E}"/>
+    <hyperlink ref="E207" r:id="rId174" xr:uid="{8F88E7D8-B7C3-4F26-8294-113DC1642E8C}"/>
+    <hyperlink ref="E208" r:id="rId175" xr:uid="{159E215C-4245-49A7-95EC-4C3ACACBC514}"/>
+    <hyperlink ref="E209" r:id="rId176" xr:uid="{6C4CAF86-25EC-4217-8741-66E68CE0676B}"/>
+    <hyperlink ref="E210" r:id="rId177" xr:uid="{1DB2D982-D89B-4814-BC13-6C76F7512A98}"/>
+    <hyperlink ref="E211" r:id="rId178" xr:uid="{564F4322-277F-4794-9B0B-F96871117033}"/>
+    <hyperlink ref="E212" r:id="rId179" xr:uid="{F407938B-001C-4022-B366-87C64910F2EC}"/>
+    <hyperlink ref="E213" r:id="rId180" xr:uid="{92F9BC7F-0D00-41EF-95C2-7C0042D28FD2}"/>
+    <hyperlink ref="E214" r:id="rId181" xr:uid="{432C9ADB-94BC-4B13-8A6A-9102DC8ED8AD}"/>
+    <hyperlink ref="E215" r:id="rId182" xr:uid="{15213BA4-1D3F-453D-9028-06AAEB2A2E76}"/>
+    <hyperlink ref="E217" r:id="rId183" xr:uid="{D59930AF-A22B-4618-99B7-5CF0D4DF79FE}"/>
+    <hyperlink ref="E218" r:id="rId184" xr:uid="{67753658-16F3-4A28-BADA-2A1E07D00536}"/>
+    <hyperlink ref="E219" r:id="rId185" xr:uid="{B1D641CD-F517-4384-8E72-7627B21898BE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId186"/>

--- a/BIDMC/np_swab_results.xlsx
+++ b/BIDMC/np_swab_results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccall\Documents\GitHub\Covidswab\BIDMC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E512E7-C697-45C4-8EF7-2A087144278C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8950ADE4-A1DA-4607-8899-D75E1871DF46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="925">
   <si>
     <t>ID</t>
   </si>
@@ -2790,6 +2790,15 @@
   </si>
   <si>
     <t>pass-better than INT_4_1</t>
+  </si>
+  <si>
+    <t>PP_02</t>
+  </si>
+  <si>
+    <t>Injection moldable swab. Different post processing from PP_01</t>
+  </si>
+  <si>
+    <t>In progress</t>
   </si>
 </sst>
 </file>
@@ -3164,7 +3173,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="H214" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C160" sqref="C160"/>
+      <selection pane="bottomRight" activeCell="I218" sqref="I218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13894,19 +13903,35 @@
       <c r="AA221" s="4"/>
       <c r="AB221" s="4"/>
     </row>
-    <row r="222" spans="1:28" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="4"/>
-      <c r="B222" s="4"/>
-      <c r="C222" s="4"/>
-      <c r="D222" s="4"/>
+    <row r="222" spans="1:28" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="C222" s="12">
+        <v>44026</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="E222" s="4"/>
       <c r="F222" s="4"/>
       <c r="G222" s="4"/>
-      <c r="H222" s="4"/>
+      <c r="H222" s="4" t="s">
+        <v>914</v>
+      </c>
       <c r="I222" s="4"/>
-      <c r="J222" s="4"/>
-      <c r="K222" s="4"/>
-      <c r="L222" s="4"/>
+      <c r="J222" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="K222" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="L222" s="4" t="s">
+        <v>924</v>
+      </c>
       <c r="M222" s="4"/>
       <c r="N222" s="4"/>
       <c r="O222" s="4"/>
@@ -35736,191 +35761,191 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{97385A87-FD28-42DB-87B5-2E7D23720C48}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{946F577A-DC60-480D-8B3D-8D78C124C1AC}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{D6CA56A5-5C08-46C0-B41F-5462EBC707E4}"/>
-    <hyperlink ref="E6" r:id="rId4" xr:uid="{DC3E31D4-0496-47A6-8C63-D42B1BAEF2F0}"/>
-    <hyperlink ref="E12" r:id="rId5" xr:uid="{EBE64FA2-94AE-406D-BDBE-085DD90C84BC}"/>
-    <hyperlink ref="E13" r:id="rId6" xr:uid="{860D32FC-E417-4F55-9BA4-805A3DA12A54}"/>
-    <hyperlink ref="E14" r:id="rId7" xr:uid="{400C8681-44A0-4636-8ACC-728E1E466596}"/>
-    <hyperlink ref="E15" r:id="rId8" xr:uid="{297B440F-B637-4F71-8F75-4811441B9022}"/>
-    <hyperlink ref="E16" r:id="rId9" xr:uid="{E5BF3DC1-D1EA-4D02-8D84-13E25FE34544}"/>
-    <hyperlink ref="E17" r:id="rId10" xr:uid="{AAE9C9DF-5D6C-44DD-AEAD-1BFB6CA4D14A}"/>
-    <hyperlink ref="E18" r:id="rId11" xr:uid="{42DB8FC5-32C6-4634-98E1-2501C370065D}"/>
-    <hyperlink ref="E19" r:id="rId12" xr:uid="{1B568739-08DD-4241-AE83-7729D37024DF}"/>
-    <hyperlink ref="E20" r:id="rId13" xr:uid="{8853382B-FB61-4BE6-A22F-192A372513A2}"/>
-    <hyperlink ref="E21" r:id="rId14" xr:uid="{EE9D7E33-E792-45C2-8414-BB3C9E1C74D4}"/>
-    <hyperlink ref="E22" r:id="rId15" xr:uid="{D719FA01-A41C-4B2E-9A99-B9D3C1CAFF33}"/>
-    <hyperlink ref="E23" r:id="rId16" xr:uid="{3F39F1C9-D988-4F9E-902D-4959C0749D7F}"/>
-    <hyperlink ref="E24" r:id="rId17" xr:uid="{13684346-BF95-4E7B-8BAA-D2D9E4E6E438}"/>
-    <hyperlink ref="E25" r:id="rId18" xr:uid="{84BB38CB-76C9-4E72-8410-DA3DCF6791E5}"/>
-    <hyperlink ref="E27" r:id="rId19" xr:uid="{B69EE1A8-D77A-437D-A325-074EC938B309}"/>
-    <hyperlink ref="E28" r:id="rId20" xr:uid="{F7F30B32-5A34-45BD-A570-D7EB8AB8A0BA}"/>
-    <hyperlink ref="E29" r:id="rId21" xr:uid="{874E9593-D257-4F56-A841-526478838F34}"/>
-    <hyperlink ref="E30" r:id="rId22" xr:uid="{AB474F16-0E32-4C03-89A4-4B4ACC50B67E}"/>
-    <hyperlink ref="E31" r:id="rId23" xr:uid="{EB853787-CAF3-4ADA-BBFB-ADBAE5EB680C}"/>
-    <hyperlink ref="E32" r:id="rId24" xr:uid="{C66C7B6F-2972-4FD7-B447-C2960FED0E2D}"/>
-    <hyperlink ref="E33" r:id="rId25" xr:uid="{25B4E916-93A3-4DBC-97BD-B105BA3C8EF1}"/>
-    <hyperlink ref="E34" r:id="rId26" xr:uid="{2F66A0AA-A358-4788-9146-E356B39F5839}"/>
-    <hyperlink ref="E35" r:id="rId27" xr:uid="{ED956A72-EEA1-4A3E-B5CF-F35296FF1D1B}"/>
-    <hyperlink ref="E36" r:id="rId28" xr:uid="{29468F01-5669-4C50-84EC-5A53EF8511E9}"/>
-    <hyperlink ref="E37" r:id="rId29" xr:uid="{2B772D4D-BC6F-47B4-A6A2-1774295C5D7F}"/>
-    <hyperlink ref="E38" r:id="rId30" xr:uid="{8F3ACE9F-3A1D-43C3-B260-0EC80DE3AE88}"/>
-    <hyperlink ref="E39" r:id="rId31" xr:uid="{7886E5BA-777A-4DAB-AD3A-50D215E2AD9C}"/>
-    <hyperlink ref="E40" r:id="rId32" xr:uid="{6F01AE15-BDC8-43C2-8F07-8CDD6D46B9C1}"/>
-    <hyperlink ref="E41" r:id="rId33" xr:uid="{5E5D27B2-2BD5-406A-ACE1-38871AF1D4EB}"/>
-    <hyperlink ref="E42" r:id="rId34" xr:uid="{2F6868A6-9943-422E-A964-D017217CCE9D}"/>
-    <hyperlink ref="E43" r:id="rId35" xr:uid="{C5ACEE62-28FE-44EE-AA38-3153F4A9896A}"/>
-    <hyperlink ref="E44" r:id="rId36" xr:uid="{E7546FA8-2B76-4622-BC8E-38D2DAC8A687}"/>
-    <hyperlink ref="E45" r:id="rId37" xr:uid="{29277AE8-0EA0-49B3-BDF6-391A4C22B73C}"/>
-    <hyperlink ref="E46" r:id="rId38" xr:uid="{85D321EA-B49B-4C71-BB65-7F1A59D5D98A}"/>
-    <hyperlink ref="E47" r:id="rId39" xr:uid="{A32EC89E-90BA-4573-92B7-1AA69E2C0503}"/>
-    <hyperlink ref="E48" r:id="rId40" xr:uid="{D95A5725-C433-4304-9DD1-DB3515D5291F}"/>
-    <hyperlink ref="E49" r:id="rId41" xr:uid="{FB506973-E2E9-4AC2-920A-F1E8C48A2BB6}"/>
-    <hyperlink ref="E50" r:id="rId42" xr:uid="{1957E0C8-973A-41D5-8FF5-EFB2603088C5}"/>
-    <hyperlink ref="E51" r:id="rId43" xr:uid="{074B0D45-7372-4CEF-A054-D327882240C6}"/>
-    <hyperlink ref="E52" r:id="rId44" xr:uid="{9224BB16-B984-4324-BC48-68C801124C6F}"/>
-    <hyperlink ref="E53" r:id="rId45" xr:uid="{14166129-DAA8-4932-B4A1-17DD51CB9975}"/>
-    <hyperlink ref="E54" r:id="rId46" xr:uid="{671F326E-F090-4296-BD74-B178D2AAC6F1}"/>
-    <hyperlink ref="E55" r:id="rId47" xr:uid="{C8B8427C-01DF-48CC-A06E-3D40C572721A}"/>
-    <hyperlink ref="E56" r:id="rId48" xr:uid="{9F1EB537-E2FF-4672-9AE4-623F5317E6CF}"/>
-    <hyperlink ref="E57" r:id="rId49" xr:uid="{15F1A1DB-93E2-47F3-94B9-480193505E2C}"/>
-    <hyperlink ref="E58" r:id="rId50" xr:uid="{12794F8A-A7AD-4EFD-AB51-1F97CBF85DD3}"/>
-    <hyperlink ref="E59" r:id="rId51" xr:uid="{B1CD481F-E149-4725-B3C0-7637925B3243}"/>
-    <hyperlink ref="E60" r:id="rId52" xr:uid="{00F76BD0-F98A-4F7E-975F-28F3D876992B}"/>
-    <hyperlink ref="E61" r:id="rId53" xr:uid="{A829AF30-8F54-4418-9C23-0BB3F41D17B5}"/>
-    <hyperlink ref="E62" r:id="rId54" xr:uid="{A6D1861B-9130-4B85-B56D-1A6DE1EFD49D}"/>
-    <hyperlink ref="E63" r:id="rId55" xr:uid="{09D6C075-6DFB-4F43-B347-ECAC7BF20937}"/>
-    <hyperlink ref="E64" r:id="rId56" xr:uid="{CD759C56-B1D6-4EEF-A502-9F33124DD5A9}"/>
-    <hyperlink ref="E65" r:id="rId57" xr:uid="{0F6758BB-CC8F-403A-A10D-8F54F82410CE}"/>
-    <hyperlink ref="E66" r:id="rId58" xr:uid="{56645CF6-FBFA-4796-A3DB-20D4A3E9BEA7}"/>
-    <hyperlink ref="E67" r:id="rId59" display="https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Foamtec/FT_4.JPG" xr:uid="{CAF3DE01-D39D-4D7F-A0BB-F880E8D94E08}"/>
-    <hyperlink ref="E77" r:id="rId60" xr:uid="{14CCF112-3F3F-459C-AD0B-6AEA5466C7A6}"/>
-    <hyperlink ref="E78" r:id="rId61" xr:uid="{0A6D99C0-96CF-4CED-A98C-1FEFAC07ED31}"/>
-    <hyperlink ref="E79" r:id="rId62" xr:uid="{C3B2272C-D055-4B60-9B26-BA0F9A1F82FD}"/>
-    <hyperlink ref="E80" r:id="rId63" xr:uid="{C2509409-106A-4A1A-AD66-74AC49CED460}"/>
-    <hyperlink ref="E81" r:id="rId64" xr:uid="{E59D3D7E-4798-4DC2-AFA6-4C20263C73EE}"/>
-    <hyperlink ref="E82" r:id="rId65" xr:uid="{93526730-2E82-43AD-8A6B-B5523EC311BB}"/>
-    <hyperlink ref="E83" r:id="rId66" xr:uid="{D6637AD3-B537-4B9F-BEAE-936C9D6773D5}"/>
-    <hyperlink ref="E84" r:id="rId67" xr:uid="{3AEC944B-8D7A-4605-B3AA-A730ED829EA1}"/>
-    <hyperlink ref="E85" r:id="rId68" xr:uid="{29F28787-3011-41E4-AA0D-53661F7FEBDD}"/>
-    <hyperlink ref="E86" r:id="rId69" xr:uid="{A274EDEB-25A8-4EAC-8CFC-C93BC1F0A0CF}"/>
-    <hyperlink ref="E87" r:id="rId70" xr:uid="{E2B16451-E837-4AD1-89C2-F2BA2B1BA1BA}"/>
-    <hyperlink ref="E88" r:id="rId71" xr:uid="{9793F17A-42FB-47AD-842F-B40711735AA5}"/>
-    <hyperlink ref="E89" r:id="rId72" xr:uid="{C8504A3D-F5E8-47E5-A0AD-29A89849FA53}"/>
-    <hyperlink ref="E90" r:id="rId73" xr:uid="{737A0DE6-5735-43D8-A24A-DCD432658518}"/>
-    <hyperlink ref="E91" r:id="rId74" xr:uid="{B4164AE7-0013-45FC-B35A-BB44CAA6FA13}"/>
-    <hyperlink ref="E92" r:id="rId75" xr:uid="{77DF3F9C-A501-49BD-8F30-1B4F4E5E58B4}"/>
-    <hyperlink ref="E93" r:id="rId76" xr:uid="{761EB273-181C-45A5-AAB6-BE468C4E4C50}"/>
-    <hyperlink ref="E94" r:id="rId77" xr:uid="{4C474661-2C62-431A-B764-09D80D27AD19}"/>
-    <hyperlink ref="E95" r:id="rId78" xr:uid="{CA879D31-1176-4B0E-8916-992E177E5BBE}"/>
-    <hyperlink ref="E96" r:id="rId79" xr:uid="{CE0CEECC-6186-4EDE-B6F2-589DD7063410}"/>
-    <hyperlink ref="E97" r:id="rId80" xr:uid="{C2840800-EB29-4169-BC8A-08E62DFF7444}"/>
-    <hyperlink ref="E98" r:id="rId81" xr:uid="{39B5B43D-9324-4299-91FB-8952A6F050B3}"/>
-    <hyperlink ref="E99" r:id="rId82" xr:uid="{F04AB481-05A7-495B-9D7F-555632ABC2F1}"/>
-    <hyperlink ref="E100" r:id="rId83" xr:uid="{2FEB63B0-15CA-40CC-BB7E-FB6CA4FA3A13}"/>
-    <hyperlink ref="E101" r:id="rId84" xr:uid="{5AB8D582-A05C-460C-B474-FD462A2A5533}"/>
-    <hyperlink ref="E102" r:id="rId85" xr:uid="{19755251-3982-454D-AFC3-112377C246EA}"/>
-    <hyperlink ref="E103" r:id="rId86" xr:uid="{CC4A82DC-039D-420A-969E-80F42FE58598}"/>
-    <hyperlink ref="E104" r:id="rId87" xr:uid="{B6D15D5D-FA94-4225-9B99-2F914BD1B2A2}"/>
-    <hyperlink ref="E105" r:id="rId88" xr:uid="{1A08198B-89D6-427B-8FEB-F54516009958}"/>
-    <hyperlink ref="E106" r:id="rId89" xr:uid="{D1317811-D313-4508-8D61-2B93F58F8187}"/>
-    <hyperlink ref="E107" r:id="rId90" xr:uid="{B512917F-97B3-4387-B0EF-9B8343E88D6C}"/>
-    <hyperlink ref="E108" r:id="rId91" xr:uid="{4A358447-5932-4224-AFD8-C60FF0E9CB68}"/>
-    <hyperlink ref="E109" r:id="rId92" xr:uid="{5B7C8981-EBDD-4C48-BAC5-D3972DCE5C34}"/>
-    <hyperlink ref="E110" r:id="rId93" xr:uid="{C23C3407-0341-4109-8700-8F173A8B6187}"/>
-    <hyperlink ref="E111" r:id="rId94" xr:uid="{7A336A65-6EBC-41C8-8CAE-9670E2E3D377}"/>
-    <hyperlink ref="E112" r:id="rId95" xr:uid="{57B3FF44-94FE-4C95-90D7-EC55E57837FE}"/>
-    <hyperlink ref="E113" r:id="rId96" xr:uid="{4AAF8BE2-B3AA-4492-8D09-CF931D1FA33F}"/>
-    <hyperlink ref="E114" r:id="rId97" xr:uid="{9544B1E0-F3A2-4B94-824A-F8573034E184}"/>
-    <hyperlink ref="E115" r:id="rId98" xr:uid="{DE2D53BD-5C63-4E6E-8261-D9A5005BD981}"/>
-    <hyperlink ref="E116" r:id="rId99" display="https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Markforged/MF_2.jpg" xr:uid="{89FF459B-0229-4E7E-882B-8B6CB19F873C}"/>
-    <hyperlink ref="E117" r:id="rId100" xr:uid="{84BB9D74-726D-4898-AC7A-8EF15F601CB4}"/>
-    <hyperlink ref="E118" r:id="rId101" xr:uid="{00046B45-124C-41B3-95E2-B2181A592C06}"/>
-    <hyperlink ref="E119" r:id="rId102" xr:uid="{CE353BAD-C4FE-42D7-AA75-A5BA70E0603A}"/>
-    <hyperlink ref="E120" r:id="rId103" xr:uid="{04DFC4FE-D420-4C56-B65A-701AE1CD5167}"/>
-    <hyperlink ref="E121" r:id="rId104" xr:uid="{5C69C368-4F56-4B03-B485-871476715336}"/>
-    <hyperlink ref="E122" r:id="rId105" xr:uid="{C4EFD151-A1AF-4553-9086-64620C21AE89}"/>
-    <hyperlink ref="E123" r:id="rId106" xr:uid="{2E3D55B9-FF62-479F-A32A-584C93FEEA4B}"/>
-    <hyperlink ref="E124" r:id="rId107" xr:uid="{B6146E37-9C2E-46FA-9774-B0F91D252B65}"/>
-    <hyperlink ref="E125" r:id="rId108" xr:uid="{6B9DD87E-D254-422A-98C5-87BFFF7C3D02}"/>
-    <hyperlink ref="E126" r:id="rId109" xr:uid="{D0C725FC-7074-41F3-AA14-D14D540716F6}"/>
-    <hyperlink ref="E127" r:id="rId110" xr:uid="{66AC358F-624A-4145-AFF8-1A8CC4E87F5F}"/>
-    <hyperlink ref="E128" r:id="rId111" xr:uid="{43F6FAE1-C36F-455F-832B-699E6933D603}"/>
-    <hyperlink ref="E129" r:id="rId112" xr:uid="{7B0B2ADA-1AA9-40A5-B9F5-C447EBBA544A}"/>
-    <hyperlink ref="E130" r:id="rId113" xr:uid="{D21A07DE-B152-4F05-BD03-2E4D619602B1}"/>
-    <hyperlink ref="E131" r:id="rId114" xr:uid="{39160932-C5D5-455D-8E28-1B9856D12D40}"/>
-    <hyperlink ref="E132" r:id="rId115" xr:uid="{6FE2D030-F008-4448-814D-6D4BC99D2DE7}"/>
-    <hyperlink ref="E133" r:id="rId116" xr:uid="{486B7757-84E6-484D-B4EC-1E3A164D3A67}"/>
-    <hyperlink ref="E134" r:id="rId117" xr:uid="{109FBD26-97A6-447B-9F12-3DF9362E5353}"/>
-    <hyperlink ref="E135" r:id="rId118" xr:uid="{083E769E-E4CA-4D2F-B402-81DD6099AAAD}"/>
-    <hyperlink ref="E136" r:id="rId119" xr:uid="{C2AEE8FF-6837-496A-9414-CB6C06986824}"/>
-    <hyperlink ref="E137" r:id="rId120" xr:uid="{060BD30A-7088-48CE-A2D3-09D3909E3272}"/>
-    <hyperlink ref="E138" r:id="rId121" xr:uid="{2A545423-C63B-4A9B-A410-A61B7AB1F098}"/>
-    <hyperlink ref="E139" r:id="rId122" xr:uid="{101EC2A7-B87C-483A-A461-E14BAC1696BB}"/>
-    <hyperlink ref="E140" r:id="rId123" xr:uid="{4239890B-65D4-4A3C-BAF0-0673D0E802ED}"/>
-    <hyperlink ref="E141" r:id="rId124" xr:uid="{9DE1ECC9-FF03-4E17-B2B4-692E4D0B7092}"/>
-    <hyperlink ref="E142" r:id="rId125" xr:uid="{B5E8379E-28C2-471B-B642-3CC86C3CB78A}"/>
-    <hyperlink ref="E143" r:id="rId126" xr:uid="{0502C488-26E3-4B03-BDB2-7592091356A4}"/>
-    <hyperlink ref="E144" r:id="rId127" xr:uid="{1947F572-2CD3-4B62-B5F5-ABE7D45BAB76}"/>
-    <hyperlink ref="E145" r:id="rId128" xr:uid="{56E20B6D-91E9-4677-A0F2-7FCB12E3BA49}"/>
-    <hyperlink ref="E146" r:id="rId129" xr:uid="{0F9F73A5-707B-4A1C-BA3D-6F79163C49EA}"/>
-    <hyperlink ref="E147" r:id="rId130" xr:uid="{79D86D41-36C8-42CE-B6A7-CC0121D3544B}"/>
-    <hyperlink ref="E148" r:id="rId131" xr:uid="{9379BF9D-342D-4B88-8099-C9F7BEB4C93B}"/>
-    <hyperlink ref="E149" r:id="rId132" xr:uid="{2DC4A80A-053A-4F88-BE12-94ACF17E223E}"/>
-    <hyperlink ref="E150" r:id="rId133" xr:uid="{62E5AD91-E263-4B3D-A715-4A29152F54A0}"/>
-    <hyperlink ref="E151" r:id="rId134" xr:uid="{A0AF3BFF-CF94-4EBD-9349-CC01C6FDABE7}"/>
-    <hyperlink ref="E152" r:id="rId135" xr:uid="{6E7AB10F-08CF-45D4-919C-B9F93F274694}"/>
-    <hyperlink ref="E153" r:id="rId136" xr:uid="{12992739-B687-41E2-9267-F7E49A0FDC46}"/>
-    <hyperlink ref="E154" r:id="rId137" xr:uid="{BCA6D9D7-17D0-469F-B37E-C3558CD41ED1}"/>
-    <hyperlink ref="E155" r:id="rId138" xr:uid="{82BA0D39-75B4-4786-8CB2-19B3D9B32175}"/>
-    <hyperlink ref="E156" r:id="rId139" xr:uid="{7A7D313A-C972-4341-99E3-E62A925BFCF9}"/>
-    <hyperlink ref="E157" r:id="rId140" xr:uid="{A1F02D2B-2C32-42DC-A583-FFE6007D452D}"/>
-    <hyperlink ref="E158" r:id="rId141" xr:uid="{C229A311-8BB7-47CF-9360-A8D08635A587}"/>
-    <hyperlink ref="E159" r:id="rId142" xr:uid="{85FD10A3-8E0C-42B2-A0F2-FA08E8BED939}"/>
-    <hyperlink ref="E160" r:id="rId143" xr:uid="{421656A2-6D45-409D-8404-C931F7DCACE7}"/>
-    <hyperlink ref="E161" r:id="rId144" xr:uid="{65C48EE4-02D7-4D37-821B-3A368227D4D5}"/>
-    <hyperlink ref="E162" r:id="rId145" xr:uid="{7FD15EAB-F258-4DE9-909F-51DBB0CD4FC4}"/>
-    <hyperlink ref="E163" r:id="rId146" xr:uid="{94D405A9-A7D3-4FF9-A547-FA96E0BA285E}"/>
-    <hyperlink ref="E164" r:id="rId147" xr:uid="{5825E8F4-153B-4F39-85E0-B15EA1D49C0C}"/>
-    <hyperlink ref="E165" r:id="rId148" xr:uid="{3E6C04BD-21DE-4B6C-A808-EA1E316E1799}"/>
-    <hyperlink ref="E166" r:id="rId149" xr:uid="{2AC5AF31-0946-4B90-860A-6D6ED038A9BB}"/>
-    <hyperlink ref="E167" r:id="rId150" xr:uid="{DCCDAE1E-26D6-4154-B080-6FE927087126}"/>
-    <hyperlink ref="E168" r:id="rId151" xr:uid="{1406A756-61B0-4ABC-9597-E3BA23A359A9}"/>
-    <hyperlink ref="E169" r:id="rId152" xr:uid="{5B0DCEB2-FB4D-434A-9F57-79679C3605D6}"/>
-    <hyperlink ref="E170" r:id="rId153" xr:uid="{8FD63986-CD02-42A0-81DF-1464BA410ACA}"/>
-    <hyperlink ref="E171" r:id="rId154" xr:uid="{FE95225D-836D-495B-8172-FF19E3181BBF}"/>
-    <hyperlink ref="E172" r:id="rId155" xr:uid="{1F2DA637-C3C6-4C2C-A965-70E9137773FD}"/>
-    <hyperlink ref="E173" r:id="rId156" xr:uid="{07C22F0A-7F7F-410B-B9C0-DEE7AC382EFE}"/>
-    <hyperlink ref="E174" r:id="rId157" xr:uid="{08E04909-964D-4317-9F7C-409AF5DD1735}"/>
-    <hyperlink ref="E175" r:id="rId158" xr:uid="{58029723-4D14-49F3-89D1-199A64B07219}"/>
-    <hyperlink ref="E176" r:id="rId159" xr:uid="{F42BDE05-A488-4870-AB6E-BC5CF7FBDF11}"/>
-    <hyperlink ref="E177" r:id="rId160" xr:uid="{3D04E09D-DC64-4A91-998A-E941532E8E76}"/>
-    <hyperlink ref="E178" r:id="rId161" xr:uid="{F69E3334-F167-4F44-96B1-2E618FBE04B9}"/>
-    <hyperlink ref="E179" r:id="rId162" xr:uid="{2E6361DD-7AFC-4338-A733-8494AD156FE0}"/>
-    <hyperlink ref="E180" r:id="rId163" xr:uid="{298EE9D4-C3F1-4909-9161-108D8ED87350}"/>
-    <hyperlink ref="E181" r:id="rId164" xr:uid="{2A911CA9-9D71-40E2-9A87-773935363019}"/>
-    <hyperlink ref="E182" r:id="rId165" xr:uid="{27DF6597-D656-4891-BB0F-8F86F928C14B}"/>
-    <hyperlink ref="E183" r:id="rId166" xr:uid="{E74DDAA0-F9A8-4B47-AA13-A1A16AD5E48F}"/>
-    <hyperlink ref="E184" r:id="rId167" xr:uid="{548AC3D6-634A-47EB-AF85-63932844E348}"/>
-    <hyperlink ref="E189" r:id="rId168" xr:uid="{511D2F3A-3F86-4904-BCFB-919FBAC448B7}"/>
-    <hyperlink ref="E190" r:id="rId169" xr:uid="{A561C701-EB2F-415D-BA4E-FEC8B179C3C3}"/>
-    <hyperlink ref="E191" r:id="rId170" xr:uid="{C906DA4B-2992-42EB-813E-4D1F4501D049}"/>
-    <hyperlink ref="E192" r:id="rId171" xr:uid="{182A186A-974A-45D3-AAA9-B9EED3C81647}"/>
-    <hyperlink ref="E201" r:id="rId172" xr:uid="{4E1EE2BE-30AC-49F8-BB98-25E054E2F593}"/>
-    <hyperlink ref="E206" r:id="rId173" display="https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/FormLabs/FL_LT_Form2_hex_mtx.jpg" xr:uid="{791105AE-4AE6-47D6-8D89-E8A2560ABB9E}"/>
-    <hyperlink ref="E207" r:id="rId174" xr:uid="{8F88E7D8-B7C3-4F26-8294-113DC1642E8C}"/>
-    <hyperlink ref="E208" r:id="rId175" xr:uid="{159E215C-4245-49A7-95EC-4C3ACACBC514}"/>
-    <hyperlink ref="E209" r:id="rId176" xr:uid="{6C4CAF86-25EC-4217-8741-66E68CE0676B}"/>
-    <hyperlink ref="E210" r:id="rId177" xr:uid="{1DB2D982-D89B-4814-BC13-6C76F7512A98}"/>
-    <hyperlink ref="E211" r:id="rId178" xr:uid="{564F4322-277F-4794-9B0B-F96871117033}"/>
-    <hyperlink ref="E212" r:id="rId179" xr:uid="{F407938B-001C-4022-B366-87C64910F2EC}"/>
-    <hyperlink ref="E213" r:id="rId180" xr:uid="{92F9BC7F-0D00-41EF-95C2-7C0042D28FD2}"/>
-    <hyperlink ref="E214" r:id="rId181" xr:uid="{432C9ADB-94BC-4B13-8A6A-9102DC8ED8AD}"/>
-    <hyperlink ref="E215" r:id="rId182" xr:uid="{15213BA4-1D3F-453D-9028-06AAEB2A2E76}"/>
-    <hyperlink ref="E217" r:id="rId183" xr:uid="{D59930AF-A22B-4618-99B7-5CF0D4DF79FE}"/>
-    <hyperlink ref="E218" r:id="rId184" xr:uid="{67753658-16F3-4A28-BADA-2A1E07D00536}"/>
-    <hyperlink ref="E219" r:id="rId185" xr:uid="{B1D641CD-F517-4384-8E72-7627B21898BE}"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{4CD8384B-8072-451E-9187-D7F5925EF788}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{2BE43C04-0A58-41DB-9742-ECE1EB1CA9DA}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{73F16237-B1F4-49A9-B907-6D13B7C75864}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{A0EC275F-B7CC-4197-8E33-D1F9437BB39C}"/>
+    <hyperlink ref="E12" r:id="rId5" xr:uid="{970E10C2-8F16-468C-9C90-6BE10012FC01}"/>
+    <hyperlink ref="E13" r:id="rId6" xr:uid="{DFA4872E-A855-405E-93C8-A04DFEDB080F}"/>
+    <hyperlink ref="E14" r:id="rId7" xr:uid="{DDA81316-DA95-48D5-8898-E24BDCA57EA7}"/>
+    <hyperlink ref="E15" r:id="rId8" xr:uid="{E7527619-56A7-4714-BAFE-D2E8A8B1A93A}"/>
+    <hyperlink ref="E16" r:id="rId9" xr:uid="{CAF33E4D-230B-4413-8398-E170715301A8}"/>
+    <hyperlink ref="E17" r:id="rId10" xr:uid="{90D314AF-688C-4757-9388-9C257C0742C1}"/>
+    <hyperlink ref="E18" r:id="rId11" xr:uid="{578193CA-1F09-4BE8-B4F4-5CC22196A733}"/>
+    <hyperlink ref="E19" r:id="rId12" xr:uid="{E936D785-7756-498E-8091-46A6DB785B94}"/>
+    <hyperlink ref="E20" r:id="rId13" xr:uid="{5F1E2425-553C-40B2-B2ED-582992CAB570}"/>
+    <hyperlink ref="E21" r:id="rId14" xr:uid="{B1F30700-A98A-4990-8635-B1659E574F46}"/>
+    <hyperlink ref="E22" r:id="rId15" xr:uid="{F1C6A0ED-9C86-4E52-89F8-35AF07E6D453}"/>
+    <hyperlink ref="E23" r:id="rId16" xr:uid="{66AD5501-ED5A-4A36-9B5F-B6C286919026}"/>
+    <hyperlink ref="E24" r:id="rId17" xr:uid="{9CAD8952-2DBF-4966-A9BA-56109247D221}"/>
+    <hyperlink ref="E25" r:id="rId18" xr:uid="{9CB6AE66-5000-473D-BDDE-6801673724DE}"/>
+    <hyperlink ref="E27" r:id="rId19" xr:uid="{FF2F1BC7-32D1-4A2A-BCF8-77487B1D48C6}"/>
+    <hyperlink ref="E28" r:id="rId20" xr:uid="{D8A01025-309B-436E-9127-7A70FBFB9F0E}"/>
+    <hyperlink ref="E29" r:id="rId21" xr:uid="{8C7F2E87-98E0-4F2F-9100-07A0B4B83942}"/>
+    <hyperlink ref="E30" r:id="rId22" xr:uid="{8584686C-B632-40E6-904E-EA9D67C31D68}"/>
+    <hyperlink ref="E31" r:id="rId23" xr:uid="{15999461-739D-4346-8521-7A88D3F0EB25}"/>
+    <hyperlink ref="E32" r:id="rId24" xr:uid="{1456C137-37F8-4193-97CC-B8619E7BC241}"/>
+    <hyperlink ref="E33" r:id="rId25" xr:uid="{3A870DA3-7251-40B5-A01D-D1DADBE7065A}"/>
+    <hyperlink ref="E34" r:id="rId26" xr:uid="{F112E00E-E2F5-48DE-A7BE-F1A2B3E363A3}"/>
+    <hyperlink ref="E35" r:id="rId27" xr:uid="{4F93408F-99B4-4EB0-96B7-81D4C00F5165}"/>
+    <hyperlink ref="E36" r:id="rId28" xr:uid="{360F4A7A-33DE-4625-9244-6F1F19CD557D}"/>
+    <hyperlink ref="E37" r:id="rId29" xr:uid="{8B5701E1-15C9-4900-8067-DFD152A63EA3}"/>
+    <hyperlink ref="E38" r:id="rId30" xr:uid="{16750A7A-7CD9-4A67-A47B-C9C4F8C7AEB2}"/>
+    <hyperlink ref="E39" r:id="rId31" xr:uid="{33E553BB-19B9-4096-9A99-92080653BEFF}"/>
+    <hyperlink ref="E40" r:id="rId32" xr:uid="{99CC3435-390B-4661-8ED7-0BC8CF7DB717}"/>
+    <hyperlink ref="E41" r:id="rId33" xr:uid="{768CE85C-5E94-4E7E-ABFA-E653A456B3FC}"/>
+    <hyperlink ref="E42" r:id="rId34" xr:uid="{6BAF9B97-3C57-40B9-91A1-603BD92538A7}"/>
+    <hyperlink ref="E43" r:id="rId35" xr:uid="{64DF5946-9A4E-47C5-8D13-A81890A29BBF}"/>
+    <hyperlink ref="E44" r:id="rId36" xr:uid="{0FC51670-0A98-4939-B3AC-ED3986AA3278}"/>
+    <hyperlink ref="E45" r:id="rId37" xr:uid="{F80F4F9C-D9AD-4F90-9CEA-2DA8366E8768}"/>
+    <hyperlink ref="E46" r:id="rId38" xr:uid="{9D32499A-490D-462A-B67C-17269A96EA94}"/>
+    <hyperlink ref="E47" r:id="rId39" xr:uid="{CE8C6C5B-2F4D-48E4-94D2-4C951662AD87}"/>
+    <hyperlink ref="E48" r:id="rId40" xr:uid="{84B16942-2AF9-439D-AF7A-AC17A60641A0}"/>
+    <hyperlink ref="E49" r:id="rId41" xr:uid="{BF0AEDF9-EB38-4701-9421-C1B78B7BEF13}"/>
+    <hyperlink ref="E50" r:id="rId42" xr:uid="{A4CDDC7E-93C6-4CED-9328-7386E65C6233}"/>
+    <hyperlink ref="E51" r:id="rId43" xr:uid="{0BA7D3D5-85F5-41F7-A1E8-FB3B0AC58988}"/>
+    <hyperlink ref="E52" r:id="rId44" xr:uid="{8E230497-4C55-45D8-843C-4AF1E5CDA71F}"/>
+    <hyperlink ref="E53" r:id="rId45" xr:uid="{9DBC644B-6CED-4B64-868D-57EE49340F0E}"/>
+    <hyperlink ref="E54" r:id="rId46" xr:uid="{4B3F2701-AC51-4EF9-8D3A-FC7A44005441}"/>
+    <hyperlink ref="E55" r:id="rId47" xr:uid="{F8EA319F-2B7C-48B3-B454-7B6F575DA947}"/>
+    <hyperlink ref="E56" r:id="rId48" xr:uid="{03CF74C4-0E66-4064-B70F-A574C09435F6}"/>
+    <hyperlink ref="E57" r:id="rId49" xr:uid="{FC5A06AA-7838-4DB9-9A00-78EA919E8A3F}"/>
+    <hyperlink ref="E58" r:id="rId50" xr:uid="{7448E3CF-0116-4D0C-B403-71AA7B469369}"/>
+    <hyperlink ref="E59" r:id="rId51" xr:uid="{A4E310F4-008D-43D1-B287-9864A82710D7}"/>
+    <hyperlink ref="E60" r:id="rId52" xr:uid="{7435145F-A299-4C9F-B6C1-3C6B56D5E61D}"/>
+    <hyperlink ref="E61" r:id="rId53" xr:uid="{D636E7A0-1F7A-4BA6-B5B7-5E2768D14B92}"/>
+    <hyperlink ref="E62" r:id="rId54" xr:uid="{86DEE802-C341-4DCC-9F75-29B806BE9884}"/>
+    <hyperlink ref="E63" r:id="rId55" xr:uid="{DA670ECD-7FE5-4306-ADA0-157BB31DAC4E}"/>
+    <hyperlink ref="E64" r:id="rId56" xr:uid="{F6F8214E-137B-4B34-A625-4EF673D0E30B}"/>
+    <hyperlink ref="E65" r:id="rId57" xr:uid="{E2E1517D-48D7-412C-8043-B4C213663D57}"/>
+    <hyperlink ref="E66" r:id="rId58" xr:uid="{C71ED62F-B040-463A-A8D7-4CCC89EBBCD4}"/>
+    <hyperlink ref="E67" r:id="rId59" display="https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Foamtec/FT_4.JPG" xr:uid="{92CA4122-3AD6-4276-A88C-9FF592080D07}"/>
+    <hyperlink ref="E77" r:id="rId60" xr:uid="{F4425FEB-652D-4B93-8BE9-19F7813BD2F4}"/>
+    <hyperlink ref="E78" r:id="rId61" xr:uid="{E67D56A3-9EB7-4AA3-A45F-793B18947E76}"/>
+    <hyperlink ref="E79" r:id="rId62" xr:uid="{EAFBB7F0-C717-40CC-A561-96873B924AAF}"/>
+    <hyperlink ref="E80" r:id="rId63" xr:uid="{36736FCA-B9D1-4343-8D51-DD43A45649A0}"/>
+    <hyperlink ref="E81" r:id="rId64" xr:uid="{72527B64-00EA-4A45-976B-FE1F0499DA49}"/>
+    <hyperlink ref="E82" r:id="rId65" xr:uid="{F0364502-9ED5-44B4-A891-B7F735581FA4}"/>
+    <hyperlink ref="E83" r:id="rId66" xr:uid="{1FA73CF3-12CF-4F11-9FCE-FA2BD2BC7082}"/>
+    <hyperlink ref="E84" r:id="rId67" xr:uid="{909A0248-1C0E-4FA3-99FC-313C75835031}"/>
+    <hyperlink ref="E85" r:id="rId68" xr:uid="{80CF188F-9D8A-4BAA-908E-01029A0A845C}"/>
+    <hyperlink ref="E86" r:id="rId69" xr:uid="{4FCEB42E-E85E-482E-9BE7-7B4087F2668B}"/>
+    <hyperlink ref="E87" r:id="rId70" xr:uid="{69434C9C-5FBD-4025-A1B3-1A2940822A6A}"/>
+    <hyperlink ref="E88" r:id="rId71" xr:uid="{CCA177CC-9980-4376-817A-FE4770E73D72}"/>
+    <hyperlink ref="E89" r:id="rId72" xr:uid="{BFAF2D8D-6FE0-4AE2-8DA6-CE9637919383}"/>
+    <hyperlink ref="E90" r:id="rId73" xr:uid="{31DA0976-A735-4855-833B-85D6530A7FFC}"/>
+    <hyperlink ref="E91" r:id="rId74" xr:uid="{B03B3D9B-1D4A-47F6-8B7F-A7B6DAC8888D}"/>
+    <hyperlink ref="E92" r:id="rId75" xr:uid="{1B552DE9-DA29-475F-910A-EDB534E6AFA5}"/>
+    <hyperlink ref="E93" r:id="rId76" xr:uid="{5C0F2434-4E97-4ED5-AE66-D1C00678FF6C}"/>
+    <hyperlink ref="E94" r:id="rId77" xr:uid="{C1A9D2A7-6638-40D7-8449-829259E9F784}"/>
+    <hyperlink ref="E95" r:id="rId78" xr:uid="{4636720B-2E9A-4FA7-B0D7-E2DEAE71C083}"/>
+    <hyperlink ref="E96" r:id="rId79" xr:uid="{81DFC7DA-A6E7-4BEB-A4A4-DF2AAAEBF8D5}"/>
+    <hyperlink ref="E97" r:id="rId80" xr:uid="{A29DCA18-4D2D-4404-ADCA-E7EA3239520C}"/>
+    <hyperlink ref="E98" r:id="rId81" xr:uid="{92DC4A25-9AC2-4C33-AB8C-E12D5995133B}"/>
+    <hyperlink ref="E99" r:id="rId82" xr:uid="{8BDFA9E2-719E-4AAB-9325-C5DF1737184D}"/>
+    <hyperlink ref="E100" r:id="rId83" xr:uid="{2DE19D15-1B4C-41A0-8F51-0812982B8FFD}"/>
+    <hyperlink ref="E101" r:id="rId84" xr:uid="{97934865-FFF4-4CA2-B790-F02650A6DA78}"/>
+    <hyperlink ref="E102" r:id="rId85" xr:uid="{E0DD55CF-10E0-4EDF-8F02-BFFC8BB9370D}"/>
+    <hyperlink ref="E103" r:id="rId86" xr:uid="{7BAC577F-9102-4574-8911-B76FCB65942F}"/>
+    <hyperlink ref="E104" r:id="rId87" xr:uid="{8F468E12-A9BA-4DD5-89A4-5E343F1BEC65}"/>
+    <hyperlink ref="E105" r:id="rId88" xr:uid="{D6AE4097-E7E6-4708-862A-4212FEB4F9AB}"/>
+    <hyperlink ref="E106" r:id="rId89" xr:uid="{6D439C4F-CF2F-420B-920F-A92AC1F3526F}"/>
+    <hyperlink ref="E107" r:id="rId90" xr:uid="{599673A2-5312-4584-AED7-9EA89AC0DDC2}"/>
+    <hyperlink ref="E108" r:id="rId91" xr:uid="{E27516CC-06AB-47B4-85F5-3A9A0A3D6490}"/>
+    <hyperlink ref="E109" r:id="rId92" xr:uid="{524657CC-B70B-4DDC-829F-B4A0BAF57E5A}"/>
+    <hyperlink ref="E110" r:id="rId93" xr:uid="{D860FE86-5CA1-4C21-ADE8-E6B133A91724}"/>
+    <hyperlink ref="E111" r:id="rId94" xr:uid="{12065E17-9182-489B-B027-8EB116A3F05A}"/>
+    <hyperlink ref="E112" r:id="rId95" xr:uid="{A748F442-3C73-4482-B9D8-9EC40BE9C62D}"/>
+    <hyperlink ref="E113" r:id="rId96" xr:uid="{D7B6CF44-9A40-4EF8-AAB5-D1B54193C91B}"/>
+    <hyperlink ref="E114" r:id="rId97" xr:uid="{799B9A5F-3DA2-4A02-B5AE-10450F148E94}"/>
+    <hyperlink ref="E115" r:id="rId98" xr:uid="{DD3299C0-4BD3-4552-9D1B-75F0ABF6611A}"/>
+    <hyperlink ref="E116" r:id="rId99" display="https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Markforged/MF_2.jpg" xr:uid="{421EC289-1789-4F6E-B8E4-A3682CC0E52E}"/>
+    <hyperlink ref="E117" r:id="rId100" xr:uid="{F0A66CBD-C945-4B2C-85C1-92CEBF4673DA}"/>
+    <hyperlink ref="E118" r:id="rId101" xr:uid="{B99DB082-86D8-42B7-9D4A-E4D926C156EE}"/>
+    <hyperlink ref="E119" r:id="rId102" xr:uid="{D2A51E99-974E-4FAA-B32D-4DF30C48020E}"/>
+    <hyperlink ref="E120" r:id="rId103" xr:uid="{71506834-CC27-4340-89EA-E2093A335C78}"/>
+    <hyperlink ref="E121" r:id="rId104" xr:uid="{1B973ECA-8B8F-439D-8F65-CEE4E167469B}"/>
+    <hyperlink ref="E122" r:id="rId105" xr:uid="{C0A6A972-68E2-4B10-A589-3E9B3C61BD95}"/>
+    <hyperlink ref="E123" r:id="rId106" xr:uid="{A875D2B3-7DC7-4D9F-814F-60AF23C50711}"/>
+    <hyperlink ref="E124" r:id="rId107" xr:uid="{523DC73B-2363-4478-BE78-A0A6CA2C0E6B}"/>
+    <hyperlink ref="E125" r:id="rId108" xr:uid="{59B33D6C-50C3-41B4-BEA0-79B13ACDE685}"/>
+    <hyperlink ref="E126" r:id="rId109" xr:uid="{C48AC968-BAAF-48A6-AE71-1AF7348D12C2}"/>
+    <hyperlink ref="E127" r:id="rId110" xr:uid="{3520D293-391E-4098-B7EB-75696B178D45}"/>
+    <hyperlink ref="E128" r:id="rId111" xr:uid="{498B0847-4576-4220-BB30-62B6C94B8997}"/>
+    <hyperlink ref="E129" r:id="rId112" xr:uid="{A312BFBF-DA9D-49AA-81B6-547B0660E170}"/>
+    <hyperlink ref="E130" r:id="rId113" xr:uid="{AD54FDA5-3970-4445-BACA-D7FE2B2C02F9}"/>
+    <hyperlink ref="E131" r:id="rId114" xr:uid="{6A925941-8F22-4BAD-A582-81FBFBBAE675}"/>
+    <hyperlink ref="E132" r:id="rId115" xr:uid="{6829DF4A-7EE7-4AF1-94F7-30DFEA11461E}"/>
+    <hyperlink ref="E133" r:id="rId116" xr:uid="{1ED18EB1-19E6-4CD3-82A8-B0DEE62B65C2}"/>
+    <hyperlink ref="E134" r:id="rId117" xr:uid="{B487753D-5E74-4BA5-8CC5-8F7E61D0DD29}"/>
+    <hyperlink ref="E135" r:id="rId118" xr:uid="{4EEAAEDE-62B5-4023-BB3E-39281C23B55D}"/>
+    <hyperlink ref="E136" r:id="rId119" xr:uid="{AFA77CC4-7B67-4229-9182-AF532EECE20E}"/>
+    <hyperlink ref="E137" r:id="rId120" xr:uid="{DE12AF44-FAED-4267-A372-8135F969B75A}"/>
+    <hyperlink ref="E138" r:id="rId121" xr:uid="{BA5CD9F9-4E43-44AA-8D6D-A56C9BE11134}"/>
+    <hyperlink ref="E139" r:id="rId122" xr:uid="{9A07647F-38B6-4808-A424-595EB8F0DD49}"/>
+    <hyperlink ref="E140" r:id="rId123" xr:uid="{AEB8010F-A178-426F-850A-552B828F3410}"/>
+    <hyperlink ref="E141" r:id="rId124" xr:uid="{C5F12CB9-83FA-46CC-89EC-60BC672E54E1}"/>
+    <hyperlink ref="E142" r:id="rId125" xr:uid="{EC770740-F09D-4BA8-B292-0EF210847BAA}"/>
+    <hyperlink ref="E143" r:id="rId126" xr:uid="{1CD497BF-F516-4661-BC90-0548B1B05F48}"/>
+    <hyperlink ref="E144" r:id="rId127" xr:uid="{808F64C4-CAD7-4513-A900-9ED77D981D98}"/>
+    <hyperlink ref="E145" r:id="rId128" xr:uid="{D41236EE-AC12-4FDA-B110-6CFDF8421586}"/>
+    <hyperlink ref="E146" r:id="rId129" xr:uid="{3FB7C13D-2C7D-4A90-9107-0C8A67F141E6}"/>
+    <hyperlink ref="E147" r:id="rId130" xr:uid="{3C52199C-AF18-49CA-842E-8C9FCBA38E7A}"/>
+    <hyperlink ref="E148" r:id="rId131" xr:uid="{03B70305-6F45-4A14-B3BE-2749981005D9}"/>
+    <hyperlink ref="E149" r:id="rId132" xr:uid="{E44C18AA-9E66-432C-81F4-1E2FBC70BFD6}"/>
+    <hyperlink ref="E150" r:id="rId133" xr:uid="{7D117AB9-4A15-4AD6-A352-476342EDE8EB}"/>
+    <hyperlink ref="E151" r:id="rId134" xr:uid="{6D91DEEA-2388-459E-A247-156EFECF7523}"/>
+    <hyperlink ref="E152" r:id="rId135" xr:uid="{30280906-D345-45FB-8406-55BE3C23D379}"/>
+    <hyperlink ref="E153" r:id="rId136" xr:uid="{4392890D-5E8D-48EE-82AA-DFB1A757D669}"/>
+    <hyperlink ref="E154" r:id="rId137" xr:uid="{2DF56C82-7B70-4E86-8A61-1EEAC7592C31}"/>
+    <hyperlink ref="E155" r:id="rId138" xr:uid="{C15D4B7E-BFC6-4FEB-BD08-42F814C5A180}"/>
+    <hyperlink ref="E156" r:id="rId139" xr:uid="{5B2EAE59-04B9-462D-8A52-9D7C0701CFF8}"/>
+    <hyperlink ref="E157" r:id="rId140" xr:uid="{97EC0A89-12D6-4FB3-89DD-2F1141977960}"/>
+    <hyperlink ref="E158" r:id="rId141" xr:uid="{FCDC0403-0E56-4D43-99B5-1D9ECD64C48A}"/>
+    <hyperlink ref="E159" r:id="rId142" xr:uid="{E8C80CD5-8A8B-42ED-9327-E849CD7A83C9}"/>
+    <hyperlink ref="E160" r:id="rId143" xr:uid="{CB1A20D6-B583-46E9-86BC-E5BD42293D01}"/>
+    <hyperlink ref="E161" r:id="rId144" xr:uid="{DB816E67-29C5-42F4-86EB-2BBC249BFE3A}"/>
+    <hyperlink ref="E162" r:id="rId145" xr:uid="{D5273143-0852-4EA1-AEAE-856E712F4158}"/>
+    <hyperlink ref="E163" r:id="rId146" xr:uid="{29B4FA94-F0A5-43B9-8C92-2CE1BC6C733C}"/>
+    <hyperlink ref="E164" r:id="rId147" xr:uid="{578F7BF0-F0C5-4AE0-82BD-844FECDCE052}"/>
+    <hyperlink ref="E165" r:id="rId148" xr:uid="{66336C54-2638-44FC-8AC9-090960FD2177}"/>
+    <hyperlink ref="E166" r:id="rId149" xr:uid="{B50A7DFE-29FA-4852-9616-AB9E87127AF1}"/>
+    <hyperlink ref="E167" r:id="rId150" xr:uid="{3D393EF2-5836-4577-8351-A3CD9279CFDC}"/>
+    <hyperlink ref="E168" r:id="rId151" xr:uid="{F056C4EA-A48E-428D-ACE2-9B168556AA06}"/>
+    <hyperlink ref="E169" r:id="rId152" xr:uid="{0D992313-C95B-4C98-9250-90184961A199}"/>
+    <hyperlink ref="E170" r:id="rId153" xr:uid="{6682A3BF-B13F-4625-943A-6C234BF339F5}"/>
+    <hyperlink ref="E171" r:id="rId154" xr:uid="{109B9B30-6CF4-46B8-B6C9-12C31B423DC2}"/>
+    <hyperlink ref="E172" r:id="rId155" xr:uid="{F60F5A3F-756B-447A-A88C-A5B4774B697D}"/>
+    <hyperlink ref="E173" r:id="rId156" xr:uid="{1E195118-1646-4FEC-9BEF-3802BBB23969}"/>
+    <hyperlink ref="E174" r:id="rId157" xr:uid="{7FD377A8-26B6-499F-8AF0-D68664459468}"/>
+    <hyperlink ref="E175" r:id="rId158" xr:uid="{4C91937F-CE21-4054-B61B-4311F1113E2B}"/>
+    <hyperlink ref="E176" r:id="rId159" xr:uid="{C1EE4B36-365F-461D-A3ED-C03FB5D8E859}"/>
+    <hyperlink ref="E177" r:id="rId160" xr:uid="{DF79C6F0-3EC8-4909-8C1F-FB2E3F51A0B6}"/>
+    <hyperlink ref="E178" r:id="rId161" xr:uid="{D8B5E4BA-8048-44BB-91F0-79FE1434850E}"/>
+    <hyperlink ref="E179" r:id="rId162" xr:uid="{AFDB9780-21CF-4475-9B16-F4E6D22F94A4}"/>
+    <hyperlink ref="E180" r:id="rId163" xr:uid="{374FDDA8-BB46-446F-B0BA-9775C137468D}"/>
+    <hyperlink ref="E181" r:id="rId164" xr:uid="{A3E161A9-0A0D-444C-9D1E-8F3399D9112A}"/>
+    <hyperlink ref="E182" r:id="rId165" xr:uid="{9623893C-874A-43D7-874D-57A0FCAF6074}"/>
+    <hyperlink ref="E183" r:id="rId166" xr:uid="{FFDA6E50-4D57-434B-87E2-5F9C28CFCE3A}"/>
+    <hyperlink ref="E184" r:id="rId167" xr:uid="{DAA53B45-9478-41F3-94EE-219393FB234C}"/>
+    <hyperlink ref="E189" r:id="rId168" xr:uid="{4DD312A4-1927-4B7F-8B93-4188DECD374E}"/>
+    <hyperlink ref="E190" r:id="rId169" xr:uid="{D36D4291-6A61-4881-8591-678119599262}"/>
+    <hyperlink ref="E191" r:id="rId170" xr:uid="{94D0372E-231A-4D10-BF67-9D8EA2C32B10}"/>
+    <hyperlink ref="E192" r:id="rId171" xr:uid="{1FF041AE-92F6-4CC8-9EF1-2EC345666838}"/>
+    <hyperlink ref="E201" r:id="rId172" xr:uid="{74F97598-1553-4A3A-8D8D-6747256845FE}"/>
+    <hyperlink ref="E206" r:id="rId173" display="https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/FormLabs/FL_LT_Form2_hex_mtx.jpg" xr:uid="{C667EC6E-FDA3-40D1-A570-61769C2CA216}"/>
+    <hyperlink ref="E207" r:id="rId174" xr:uid="{13352429-967B-48E6-AB1B-FE0B6D9A1140}"/>
+    <hyperlink ref="E208" r:id="rId175" xr:uid="{9185E571-6D69-458C-9C98-2B8E43D954AA}"/>
+    <hyperlink ref="E209" r:id="rId176" xr:uid="{4D307013-9CAF-48EB-AD59-ECEE9A69E8A8}"/>
+    <hyperlink ref="E210" r:id="rId177" xr:uid="{9DAE6E9B-5DAC-4B3A-9B2C-45999D3E51BD}"/>
+    <hyperlink ref="E211" r:id="rId178" xr:uid="{0918DB94-CFE1-4D25-A377-DA7FF342B793}"/>
+    <hyperlink ref="E212" r:id="rId179" xr:uid="{4C4DC8FA-ADAE-4078-88AC-687D71AE42D5}"/>
+    <hyperlink ref="E213" r:id="rId180" xr:uid="{E53AFFE7-C159-41C6-BF3D-6687CA46AB19}"/>
+    <hyperlink ref="E214" r:id="rId181" xr:uid="{007EE583-7381-422D-9A80-2BA43A402B06}"/>
+    <hyperlink ref="E215" r:id="rId182" xr:uid="{907C177B-B688-4892-BC60-976503CB6F8A}"/>
+    <hyperlink ref="E217" r:id="rId183" xr:uid="{4CB994E0-8834-4CA5-9B4E-D29B912BA071}"/>
+    <hyperlink ref="E218" r:id="rId184" xr:uid="{8D4B31CC-0901-4615-B0B5-6E8A66E56F8C}"/>
+    <hyperlink ref="E219" r:id="rId185" xr:uid="{80744BCC-344D-4B31-BD5F-978E18745004}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId186"/>

--- a/BIDMC/np_swab_results.xlsx
+++ b/BIDMC/np_swab_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccall\Documents\GitHub\Covidswab\BIDMC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8950ADE4-A1DA-4607-8899-D75E1871DF46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F876C68C-FF48-446A-A73B-7F1266691CEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="924">
   <si>
     <t>ID</t>
   </si>
@@ -2796,9 +2796,6 @@
   </si>
   <si>
     <t>Injection moldable swab. Different post processing from PP_01</t>
-  </si>
-  <si>
-    <t>In progress</t>
   </si>
 </sst>
 </file>
@@ -3173,7 +3170,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="H214" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I218" sqref="I218"/>
+      <selection pane="bottomRight" activeCell="B217" sqref="B217:B218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13930,7 +13927,7 @@
         <v>416</v>
       </c>
       <c r="L222" s="4" t="s">
-        <v>924</v>
+        <v>416</v>
       </c>
       <c r="M222" s="4"/>
       <c r="N222" s="4"/>
@@ -35761,191 +35758,191 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{4CD8384B-8072-451E-9187-D7F5925EF788}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{2BE43C04-0A58-41DB-9742-ECE1EB1CA9DA}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{73F16237-B1F4-49A9-B907-6D13B7C75864}"/>
-    <hyperlink ref="E6" r:id="rId4" xr:uid="{A0EC275F-B7CC-4197-8E33-D1F9437BB39C}"/>
-    <hyperlink ref="E12" r:id="rId5" xr:uid="{970E10C2-8F16-468C-9C90-6BE10012FC01}"/>
-    <hyperlink ref="E13" r:id="rId6" xr:uid="{DFA4872E-A855-405E-93C8-A04DFEDB080F}"/>
-    <hyperlink ref="E14" r:id="rId7" xr:uid="{DDA81316-DA95-48D5-8898-E24BDCA57EA7}"/>
-    <hyperlink ref="E15" r:id="rId8" xr:uid="{E7527619-56A7-4714-BAFE-D2E8A8B1A93A}"/>
-    <hyperlink ref="E16" r:id="rId9" xr:uid="{CAF33E4D-230B-4413-8398-E170715301A8}"/>
-    <hyperlink ref="E17" r:id="rId10" xr:uid="{90D314AF-688C-4757-9388-9C257C0742C1}"/>
-    <hyperlink ref="E18" r:id="rId11" xr:uid="{578193CA-1F09-4BE8-B4F4-5CC22196A733}"/>
-    <hyperlink ref="E19" r:id="rId12" xr:uid="{E936D785-7756-498E-8091-46A6DB785B94}"/>
-    <hyperlink ref="E20" r:id="rId13" xr:uid="{5F1E2425-553C-40B2-B2ED-582992CAB570}"/>
-    <hyperlink ref="E21" r:id="rId14" xr:uid="{B1F30700-A98A-4990-8635-B1659E574F46}"/>
-    <hyperlink ref="E22" r:id="rId15" xr:uid="{F1C6A0ED-9C86-4E52-89F8-35AF07E6D453}"/>
-    <hyperlink ref="E23" r:id="rId16" xr:uid="{66AD5501-ED5A-4A36-9B5F-B6C286919026}"/>
-    <hyperlink ref="E24" r:id="rId17" xr:uid="{9CAD8952-2DBF-4966-A9BA-56109247D221}"/>
-    <hyperlink ref="E25" r:id="rId18" xr:uid="{9CB6AE66-5000-473D-BDDE-6801673724DE}"/>
-    <hyperlink ref="E27" r:id="rId19" xr:uid="{FF2F1BC7-32D1-4A2A-BCF8-77487B1D48C6}"/>
-    <hyperlink ref="E28" r:id="rId20" xr:uid="{D8A01025-309B-436E-9127-7A70FBFB9F0E}"/>
-    <hyperlink ref="E29" r:id="rId21" xr:uid="{8C7F2E87-98E0-4F2F-9100-07A0B4B83942}"/>
-    <hyperlink ref="E30" r:id="rId22" xr:uid="{8584686C-B632-40E6-904E-EA9D67C31D68}"/>
-    <hyperlink ref="E31" r:id="rId23" xr:uid="{15999461-739D-4346-8521-7A88D3F0EB25}"/>
-    <hyperlink ref="E32" r:id="rId24" xr:uid="{1456C137-37F8-4193-97CC-B8619E7BC241}"/>
-    <hyperlink ref="E33" r:id="rId25" xr:uid="{3A870DA3-7251-40B5-A01D-D1DADBE7065A}"/>
-    <hyperlink ref="E34" r:id="rId26" xr:uid="{F112E00E-E2F5-48DE-A7BE-F1A2B3E363A3}"/>
-    <hyperlink ref="E35" r:id="rId27" xr:uid="{4F93408F-99B4-4EB0-96B7-81D4C00F5165}"/>
-    <hyperlink ref="E36" r:id="rId28" xr:uid="{360F4A7A-33DE-4625-9244-6F1F19CD557D}"/>
-    <hyperlink ref="E37" r:id="rId29" xr:uid="{8B5701E1-15C9-4900-8067-DFD152A63EA3}"/>
-    <hyperlink ref="E38" r:id="rId30" xr:uid="{16750A7A-7CD9-4A67-A47B-C9C4F8C7AEB2}"/>
-    <hyperlink ref="E39" r:id="rId31" xr:uid="{33E553BB-19B9-4096-9A99-92080653BEFF}"/>
-    <hyperlink ref="E40" r:id="rId32" xr:uid="{99CC3435-390B-4661-8ED7-0BC8CF7DB717}"/>
-    <hyperlink ref="E41" r:id="rId33" xr:uid="{768CE85C-5E94-4E7E-ABFA-E653A456B3FC}"/>
-    <hyperlink ref="E42" r:id="rId34" xr:uid="{6BAF9B97-3C57-40B9-91A1-603BD92538A7}"/>
-    <hyperlink ref="E43" r:id="rId35" xr:uid="{64DF5946-9A4E-47C5-8D13-A81890A29BBF}"/>
-    <hyperlink ref="E44" r:id="rId36" xr:uid="{0FC51670-0A98-4939-B3AC-ED3986AA3278}"/>
-    <hyperlink ref="E45" r:id="rId37" xr:uid="{F80F4F9C-D9AD-4F90-9CEA-2DA8366E8768}"/>
-    <hyperlink ref="E46" r:id="rId38" xr:uid="{9D32499A-490D-462A-B67C-17269A96EA94}"/>
-    <hyperlink ref="E47" r:id="rId39" xr:uid="{CE8C6C5B-2F4D-48E4-94D2-4C951662AD87}"/>
-    <hyperlink ref="E48" r:id="rId40" xr:uid="{84B16942-2AF9-439D-AF7A-AC17A60641A0}"/>
-    <hyperlink ref="E49" r:id="rId41" xr:uid="{BF0AEDF9-EB38-4701-9421-C1B78B7BEF13}"/>
-    <hyperlink ref="E50" r:id="rId42" xr:uid="{A4CDDC7E-93C6-4CED-9328-7386E65C6233}"/>
-    <hyperlink ref="E51" r:id="rId43" xr:uid="{0BA7D3D5-85F5-41F7-A1E8-FB3B0AC58988}"/>
-    <hyperlink ref="E52" r:id="rId44" xr:uid="{8E230497-4C55-45D8-843C-4AF1E5CDA71F}"/>
-    <hyperlink ref="E53" r:id="rId45" xr:uid="{9DBC644B-6CED-4B64-868D-57EE49340F0E}"/>
-    <hyperlink ref="E54" r:id="rId46" xr:uid="{4B3F2701-AC51-4EF9-8D3A-FC7A44005441}"/>
-    <hyperlink ref="E55" r:id="rId47" xr:uid="{F8EA319F-2B7C-48B3-B454-7B6F575DA947}"/>
-    <hyperlink ref="E56" r:id="rId48" xr:uid="{03CF74C4-0E66-4064-B70F-A574C09435F6}"/>
-    <hyperlink ref="E57" r:id="rId49" xr:uid="{FC5A06AA-7838-4DB9-9A00-78EA919E8A3F}"/>
-    <hyperlink ref="E58" r:id="rId50" xr:uid="{7448E3CF-0116-4D0C-B403-71AA7B469369}"/>
-    <hyperlink ref="E59" r:id="rId51" xr:uid="{A4E310F4-008D-43D1-B287-9864A82710D7}"/>
-    <hyperlink ref="E60" r:id="rId52" xr:uid="{7435145F-A299-4C9F-B6C1-3C6B56D5E61D}"/>
-    <hyperlink ref="E61" r:id="rId53" xr:uid="{D636E7A0-1F7A-4BA6-B5B7-5E2768D14B92}"/>
-    <hyperlink ref="E62" r:id="rId54" xr:uid="{86DEE802-C341-4DCC-9F75-29B806BE9884}"/>
-    <hyperlink ref="E63" r:id="rId55" xr:uid="{DA670ECD-7FE5-4306-ADA0-157BB31DAC4E}"/>
-    <hyperlink ref="E64" r:id="rId56" xr:uid="{F6F8214E-137B-4B34-A625-4EF673D0E30B}"/>
-    <hyperlink ref="E65" r:id="rId57" xr:uid="{E2E1517D-48D7-412C-8043-B4C213663D57}"/>
-    <hyperlink ref="E66" r:id="rId58" xr:uid="{C71ED62F-B040-463A-A8D7-4CCC89EBBCD4}"/>
-    <hyperlink ref="E67" r:id="rId59" display="https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Foamtec/FT_4.JPG" xr:uid="{92CA4122-3AD6-4276-A88C-9FF592080D07}"/>
-    <hyperlink ref="E77" r:id="rId60" xr:uid="{F4425FEB-652D-4B93-8BE9-19F7813BD2F4}"/>
-    <hyperlink ref="E78" r:id="rId61" xr:uid="{E67D56A3-9EB7-4AA3-A45F-793B18947E76}"/>
-    <hyperlink ref="E79" r:id="rId62" xr:uid="{EAFBB7F0-C717-40CC-A561-96873B924AAF}"/>
-    <hyperlink ref="E80" r:id="rId63" xr:uid="{36736FCA-B9D1-4343-8D51-DD43A45649A0}"/>
-    <hyperlink ref="E81" r:id="rId64" xr:uid="{72527B64-00EA-4A45-976B-FE1F0499DA49}"/>
-    <hyperlink ref="E82" r:id="rId65" xr:uid="{F0364502-9ED5-44B4-A891-B7F735581FA4}"/>
-    <hyperlink ref="E83" r:id="rId66" xr:uid="{1FA73CF3-12CF-4F11-9FCE-FA2BD2BC7082}"/>
-    <hyperlink ref="E84" r:id="rId67" xr:uid="{909A0248-1C0E-4FA3-99FC-313C75835031}"/>
-    <hyperlink ref="E85" r:id="rId68" xr:uid="{80CF188F-9D8A-4BAA-908E-01029A0A845C}"/>
-    <hyperlink ref="E86" r:id="rId69" xr:uid="{4FCEB42E-E85E-482E-9BE7-7B4087F2668B}"/>
-    <hyperlink ref="E87" r:id="rId70" xr:uid="{69434C9C-5FBD-4025-A1B3-1A2940822A6A}"/>
-    <hyperlink ref="E88" r:id="rId71" xr:uid="{CCA177CC-9980-4376-817A-FE4770E73D72}"/>
-    <hyperlink ref="E89" r:id="rId72" xr:uid="{BFAF2D8D-6FE0-4AE2-8DA6-CE9637919383}"/>
-    <hyperlink ref="E90" r:id="rId73" xr:uid="{31DA0976-A735-4855-833B-85D6530A7FFC}"/>
-    <hyperlink ref="E91" r:id="rId74" xr:uid="{B03B3D9B-1D4A-47F6-8B7F-A7B6DAC8888D}"/>
-    <hyperlink ref="E92" r:id="rId75" xr:uid="{1B552DE9-DA29-475F-910A-EDB534E6AFA5}"/>
-    <hyperlink ref="E93" r:id="rId76" xr:uid="{5C0F2434-4E97-4ED5-AE66-D1C00678FF6C}"/>
-    <hyperlink ref="E94" r:id="rId77" xr:uid="{C1A9D2A7-6638-40D7-8449-829259E9F784}"/>
-    <hyperlink ref="E95" r:id="rId78" xr:uid="{4636720B-2E9A-4FA7-B0D7-E2DEAE71C083}"/>
-    <hyperlink ref="E96" r:id="rId79" xr:uid="{81DFC7DA-A6E7-4BEB-A4A4-DF2AAAEBF8D5}"/>
-    <hyperlink ref="E97" r:id="rId80" xr:uid="{A29DCA18-4D2D-4404-ADCA-E7EA3239520C}"/>
-    <hyperlink ref="E98" r:id="rId81" xr:uid="{92DC4A25-9AC2-4C33-AB8C-E12D5995133B}"/>
-    <hyperlink ref="E99" r:id="rId82" xr:uid="{8BDFA9E2-719E-4AAB-9325-C5DF1737184D}"/>
-    <hyperlink ref="E100" r:id="rId83" xr:uid="{2DE19D15-1B4C-41A0-8F51-0812982B8FFD}"/>
-    <hyperlink ref="E101" r:id="rId84" xr:uid="{97934865-FFF4-4CA2-B790-F02650A6DA78}"/>
-    <hyperlink ref="E102" r:id="rId85" xr:uid="{E0DD55CF-10E0-4EDF-8F02-BFFC8BB9370D}"/>
-    <hyperlink ref="E103" r:id="rId86" xr:uid="{7BAC577F-9102-4574-8911-B76FCB65942F}"/>
-    <hyperlink ref="E104" r:id="rId87" xr:uid="{8F468E12-A9BA-4DD5-89A4-5E343F1BEC65}"/>
-    <hyperlink ref="E105" r:id="rId88" xr:uid="{D6AE4097-E7E6-4708-862A-4212FEB4F9AB}"/>
-    <hyperlink ref="E106" r:id="rId89" xr:uid="{6D439C4F-CF2F-420B-920F-A92AC1F3526F}"/>
-    <hyperlink ref="E107" r:id="rId90" xr:uid="{599673A2-5312-4584-AED7-9EA89AC0DDC2}"/>
-    <hyperlink ref="E108" r:id="rId91" xr:uid="{E27516CC-06AB-47B4-85F5-3A9A0A3D6490}"/>
-    <hyperlink ref="E109" r:id="rId92" xr:uid="{524657CC-B70B-4DDC-829F-B4A0BAF57E5A}"/>
-    <hyperlink ref="E110" r:id="rId93" xr:uid="{D860FE86-5CA1-4C21-ADE8-E6B133A91724}"/>
-    <hyperlink ref="E111" r:id="rId94" xr:uid="{12065E17-9182-489B-B027-8EB116A3F05A}"/>
-    <hyperlink ref="E112" r:id="rId95" xr:uid="{A748F442-3C73-4482-B9D8-9EC40BE9C62D}"/>
-    <hyperlink ref="E113" r:id="rId96" xr:uid="{D7B6CF44-9A40-4EF8-AAB5-D1B54193C91B}"/>
-    <hyperlink ref="E114" r:id="rId97" xr:uid="{799B9A5F-3DA2-4A02-B5AE-10450F148E94}"/>
-    <hyperlink ref="E115" r:id="rId98" xr:uid="{DD3299C0-4BD3-4552-9D1B-75F0ABF6611A}"/>
-    <hyperlink ref="E116" r:id="rId99" display="https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Markforged/MF_2.jpg" xr:uid="{421EC289-1789-4F6E-B8E4-A3682CC0E52E}"/>
-    <hyperlink ref="E117" r:id="rId100" xr:uid="{F0A66CBD-C945-4B2C-85C1-92CEBF4673DA}"/>
-    <hyperlink ref="E118" r:id="rId101" xr:uid="{B99DB082-86D8-42B7-9D4A-E4D926C156EE}"/>
-    <hyperlink ref="E119" r:id="rId102" xr:uid="{D2A51E99-974E-4FAA-B32D-4DF30C48020E}"/>
-    <hyperlink ref="E120" r:id="rId103" xr:uid="{71506834-CC27-4340-89EA-E2093A335C78}"/>
-    <hyperlink ref="E121" r:id="rId104" xr:uid="{1B973ECA-8B8F-439D-8F65-CEE4E167469B}"/>
-    <hyperlink ref="E122" r:id="rId105" xr:uid="{C0A6A972-68E2-4B10-A589-3E9B3C61BD95}"/>
-    <hyperlink ref="E123" r:id="rId106" xr:uid="{A875D2B3-7DC7-4D9F-814F-60AF23C50711}"/>
-    <hyperlink ref="E124" r:id="rId107" xr:uid="{523DC73B-2363-4478-BE78-A0A6CA2C0E6B}"/>
-    <hyperlink ref="E125" r:id="rId108" xr:uid="{59B33D6C-50C3-41B4-BEA0-79B13ACDE685}"/>
-    <hyperlink ref="E126" r:id="rId109" xr:uid="{C48AC968-BAAF-48A6-AE71-1AF7348D12C2}"/>
-    <hyperlink ref="E127" r:id="rId110" xr:uid="{3520D293-391E-4098-B7EB-75696B178D45}"/>
-    <hyperlink ref="E128" r:id="rId111" xr:uid="{498B0847-4576-4220-BB30-62B6C94B8997}"/>
-    <hyperlink ref="E129" r:id="rId112" xr:uid="{A312BFBF-DA9D-49AA-81B6-547B0660E170}"/>
-    <hyperlink ref="E130" r:id="rId113" xr:uid="{AD54FDA5-3970-4445-BACA-D7FE2B2C02F9}"/>
-    <hyperlink ref="E131" r:id="rId114" xr:uid="{6A925941-8F22-4BAD-A582-81FBFBBAE675}"/>
-    <hyperlink ref="E132" r:id="rId115" xr:uid="{6829DF4A-7EE7-4AF1-94F7-30DFEA11461E}"/>
-    <hyperlink ref="E133" r:id="rId116" xr:uid="{1ED18EB1-19E6-4CD3-82A8-B0DEE62B65C2}"/>
-    <hyperlink ref="E134" r:id="rId117" xr:uid="{B487753D-5E74-4BA5-8CC5-8F7E61D0DD29}"/>
-    <hyperlink ref="E135" r:id="rId118" xr:uid="{4EEAAEDE-62B5-4023-BB3E-39281C23B55D}"/>
-    <hyperlink ref="E136" r:id="rId119" xr:uid="{AFA77CC4-7B67-4229-9182-AF532EECE20E}"/>
-    <hyperlink ref="E137" r:id="rId120" xr:uid="{DE12AF44-FAED-4267-A372-8135F969B75A}"/>
-    <hyperlink ref="E138" r:id="rId121" xr:uid="{BA5CD9F9-4E43-44AA-8D6D-A56C9BE11134}"/>
-    <hyperlink ref="E139" r:id="rId122" xr:uid="{9A07647F-38B6-4808-A424-595EB8F0DD49}"/>
-    <hyperlink ref="E140" r:id="rId123" xr:uid="{AEB8010F-A178-426F-850A-552B828F3410}"/>
-    <hyperlink ref="E141" r:id="rId124" xr:uid="{C5F12CB9-83FA-46CC-89EC-60BC672E54E1}"/>
-    <hyperlink ref="E142" r:id="rId125" xr:uid="{EC770740-F09D-4BA8-B292-0EF210847BAA}"/>
-    <hyperlink ref="E143" r:id="rId126" xr:uid="{1CD497BF-F516-4661-BC90-0548B1B05F48}"/>
-    <hyperlink ref="E144" r:id="rId127" xr:uid="{808F64C4-CAD7-4513-A900-9ED77D981D98}"/>
-    <hyperlink ref="E145" r:id="rId128" xr:uid="{D41236EE-AC12-4FDA-B110-6CFDF8421586}"/>
-    <hyperlink ref="E146" r:id="rId129" xr:uid="{3FB7C13D-2C7D-4A90-9107-0C8A67F141E6}"/>
-    <hyperlink ref="E147" r:id="rId130" xr:uid="{3C52199C-AF18-49CA-842E-8C9FCBA38E7A}"/>
-    <hyperlink ref="E148" r:id="rId131" xr:uid="{03B70305-6F45-4A14-B3BE-2749981005D9}"/>
-    <hyperlink ref="E149" r:id="rId132" xr:uid="{E44C18AA-9E66-432C-81F4-1E2FBC70BFD6}"/>
-    <hyperlink ref="E150" r:id="rId133" xr:uid="{7D117AB9-4A15-4AD6-A352-476342EDE8EB}"/>
-    <hyperlink ref="E151" r:id="rId134" xr:uid="{6D91DEEA-2388-459E-A247-156EFECF7523}"/>
-    <hyperlink ref="E152" r:id="rId135" xr:uid="{30280906-D345-45FB-8406-55BE3C23D379}"/>
-    <hyperlink ref="E153" r:id="rId136" xr:uid="{4392890D-5E8D-48EE-82AA-DFB1A757D669}"/>
-    <hyperlink ref="E154" r:id="rId137" xr:uid="{2DF56C82-7B70-4E86-8A61-1EEAC7592C31}"/>
-    <hyperlink ref="E155" r:id="rId138" xr:uid="{C15D4B7E-BFC6-4FEB-BD08-42F814C5A180}"/>
-    <hyperlink ref="E156" r:id="rId139" xr:uid="{5B2EAE59-04B9-462D-8A52-9D7C0701CFF8}"/>
-    <hyperlink ref="E157" r:id="rId140" xr:uid="{97EC0A89-12D6-4FB3-89DD-2F1141977960}"/>
-    <hyperlink ref="E158" r:id="rId141" xr:uid="{FCDC0403-0E56-4D43-99B5-1D9ECD64C48A}"/>
-    <hyperlink ref="E159" r:id="rId142" xr:uid="{E8C80CD5-8A8B-42ED-9327-E849CD7A83C9}"/>
-    <hyperlink ref="E160" r:id="rId143" xr:uid="{CB1A20D6-B583-46E9-86BC-E5BD42293D01}"/>
-    <hyperlink ref="E161" r:id="rId144" xr:uid="{DB816E67-29C5-42F4-86EB-2BBC249BFE3A}"/>
-    <hyperlink ref="E162" r:id="rId145" xr:uid="{D5273143-0852-4EA1-AEAE-856E712F4158}"/>
-    <hyperlink ref="E163" r:id="rId146" xr:uid="{29B4FA94-F0A5-43B9-8C92-2CE1BC6C733C}"/>
-    <hyperlink ref="E164" r:id="rId147" xr:uid="{578F7BF0-F0C5-4AE0-82BD-844FECDCE052}"/>
-    <hyperlink ref="E165" r:id="rId148" xr:uid="{66336C54-2638-44FC-8AC9-090960FD2177}"/>
-    <hyperlink ref="E166" r:id="rId149" xr:uid="{B50A7DFE-29FA-4852-9616-AB9E87127AF1}"/>
-    <hyperlink ref="E167" r:id="rId150" xr:uid="{3D393EF2-5836-4577-8351-A3CD9279CFDC}"/>
-    <hyperlink ref="E168" r:id="rId151" xr:uid="{F056C4EA-A48E-428D-ACE2-9B168556AA06}"/>
-    <hyperlink ref="E169" r:id="rId152" xr:uid="{0D992313-C95B-4C98-9250-90184961A199}"/>
-    <hyperlink ref="E170" r:id="rId153" xr:uid="{6682A3BF-B13F-4625-943A-6C234BF339F5}"/>
-    <hyperlink ref="E171" r:id="rId154" xr:uid="{109B9B30-6CF4-46B8-B6C9-12C31B423DC2}"/>
-    <hyperlink ref="E172" r:id="rId155" xr:uid="{F60F5A3F-756B-447A-A88C-A5B4774B697D}"/>
-    <hyperlink ref="E173" r:id="rId156" xr:uid="{1E195118-1646-4FEC-9BEF-3802BBB23969}"/>
-    <hyperlink ref="E174" r:id="rId157" xr:uid="{7FD377A8-26B6-499F-8AF0-D68664459468}"/>
-    <hyperlink ref="E175" r:id="rId158" xr:uid="{4C91937F-CE21-4054-B61B-4311F1113E2B}"/>
-    <hyperlink ref="E176" r:id="rId159" xr:uid="{C1EE4B36-365F-461D-A3ED-C03FB5D8E859}"/>
-    <hyperlink ref="E177" r:id="rId160" xr:uid="{DF79C6F0-3EC8-4909-8C1F-FB2E3F51A0B6}"/>
-    <hyperlink ref="E178" r:id="rId161" xr:uid="{D8B5E4BA-8048-44BB-91F0-79FE1434850E}"/>
-    <hyperlink ref="E179" r:id="rId162" xr:uid="{AFDB9780-21CF-4475-9B16-F4E6D22F94A4}"/>
-    <hyperlink ref="E180" r:id="rId163" xr:uid="{374FDDA8-BB46-446F-B0BA-9775C137468D}"/>
-    <hyperlink ref="E181" r:id="rId164" xr:uid="{A3E161A9-0A0D-444C-9D1E-8F3399D9112A}"/>
-    <hyperlink ref="E182" r:id="rId165" xr:uid="{9623893C-874A-43D7-874D-57A0FCAF6074}"/>
-    <hyperlink ref="E183" r:id="rId166" xr:uid="{FFDA6E50-4D57-434B-87E2-5F9C28CFCE3A}"/>
-    <hyperlink ref="E184" r:id="rId167" xr:uid="{DAA53B45-9478-41F3-94EE-219393FB234C}"/>
-    <hyperlink ref="E189" r:id="rId168" xr:uid="{4DD312A4-1927-4B7F-8B93-4188DECD374E}"/>
-    <hyperlink ref="E190" r:id="rId169" xr:uid="{D36D4291-6A61-4881-8591-678119599262}"/>
-    <hyperlink ref="E191" r:id="rId170" xr:uid="{94D0372E-231A-4D10-BF67-9D8EA2C32B10}"/>
-    <hyperlink ref="E192" r:id="rId171" xr:uid="{1FF041AE-92F6-4CC8-9EF1-2EC345666838}"/>
-    <hyperlink ref="E201" r:id="rId172" xr:uid="{74F97598-1553-4A3A-8D8D-6747256845FE}"/>
-    <hyperlink ref="E206" r:id="rId173" display="https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/FormLabs/FL_LT_Form2_hex_mtx.jpg" xr:uid="{C667EC6E-FDA3-40D1-A570-61769C2CA216}"/>
-    <hyperlink ref="E207" r:id="rId174" xr:uid="{13352429-967B-48E6-AB1B-FE0B6D9A1140}"/>
-    <hyperlink ref="E208" r:id="rId175" xr:uid="{9185E571-6D69-458C-9C98-2B8E43D954AA}"/>
-    <hyperlink ref="E209" r:id="rId176" xr:uid="{4D307013-9CAF-48EB-AD59-ECEE9A69E8A8}"/>
-    <hyperlink ref="E210" r:id="rId177" xr:uid="{9DAE6E9B-5DAC-4B3A-9B2C-45999D3E51BD}"/>
-    <hyperlink ref="E211" r:id="rId178" xr:uid="{0918DB94-CFE1-4D25-A377-DA7FF342B793}"/>
-    <hyperlink ref="E212" r:id="rId179" xr:uid="{4C4DC8FA-ADAE-4078-88AC-687D71AE42D5}"/>
-    <hyperlink ref="E213" r:id="rId180" xr:uid="{E53AFFE7-C159-41C6-BF3D-6687CA46AB19}"/>
-    <hyperlink ref="E214" r:id="rId181" xr:uid="{007EE583-7381-422D-9A80-2BA43A402B06}"/>
-    <hyperlink ref="E215" r:id="rId182" xr:uid="{907C177B-B688-4892-BC60-976503CB6F8A}"/>
-    <hyperlink ref="E217" r:id="rId183" xr:uid="{4CB994E0-8834-4CA5-9B4E-D29B912BA071}"/>
-    <hyperlink ref="E218" r:id="rId184" xr:uid="{8D4B31CC-0901-4615-B0B5-6E8A66E56F8C}"/>
-    <hyperlink ref="E219" r:id="rId185" xr:uid="{80744BCC-344D-4B31-BD5F-978E18745004}"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{D611D9C5-B2F5-43AD-AE90-69A179D1AD7E}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{7B03DC7E-90C7-4E08-AAD9-F95095D580AF}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{D88D875B-F9BE-4A52-A2CA-2308AE0F3C11}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{094AEECE-47B9-4420-B8CB-071E19D1B5E2}"/>
+    <hyperlink ref="E12" r:id="rId5" xr:uid="{A2A6459B-2F87-480D-8CA5-F3A51C4F31DC}"/>
+    <hyperlink ref="E13" r:id="rId6" xr:uid="{AC27D184-39E5-4FA8-BF66-C0296F096482}"/>
+    <hyperlink ref="E14" r:id="rId7" xr:uid="{2A8798AC-C58C-4585-935D-557DEC0EE55F}"/>
+    <hyperlink ref="E15" r:id="rId8" xr:uid="{B1AD09E1-D0C7-4A62-8F37-266291801B9E}"/>
+    <hyperlink ref="E16" r:id="rId9" xr:uid="{18DD64DD-CCDD-443E-9139-F018CB084852}"/>
+    <hyperlink ref="E17" r:id="rId10" xr:uid="{71B71090-8EFC-499F-AE98-055065D6B0F3}"/>
+    <hyperlink ref="E18" r:id="rId11" xr:uid="{A98291A1-6DB1-43BC-B754-BA33FC92EAE0}"/>
+    <hyperlink ref="E19" r:id="rId12" xr:uid="{06ACAD12-9D48-40FD-AAA5-3AEE286C8945}"/>
+    <hyperlink ref="E20" r:id="rId13" xr:uid="{744FCD17-2817-405E-9BE5-49EA9DA51B09}"/>
+    <hyperlink ref="E21" r:id="rId14" xr:uid="{5E4057ED-3919-4F17-AB3E-21BC1BD15D2F}"/>
+    <hyperlink ref="E22" r:id="rId15" xr:uid="{AA042DE1-EC91-459F-9C6E-B0367855E063}"/>
+    <hyperlink ref="E23" r:id="rId16" xr:uid="{F2911C09-F115-4DE8-8D3F-957DD491FDA5}"/>
+    <hyperlink ref="E24" r:id="rId17" xr:uid="{75F239A9-3185-45FA-ADAC-BEEEA785578A}"/>
+    <hyperlink ref="E25" r:id="rId18" xr:uid="{D6C79046-966B-4747-89D1-926B5569D39C}"/>
+    <hyperlink ref="E27" r:id="rId19" xr:uid="{3A720B59-578A-437C-A531-3CEC34E0D138}"/>
+    <hyperlink ref="E28" r:id="rId20" xr:uid="{31BCB55D-8533-47E8-9091-0D1361447580}"/>
+    <hyperlink ref="E29" r:id="rId21" xr:uid="{578240DA-5E91-410A-926C-28C4087CB80E}"/>
+    <hyperlink ref="E30" r:id="rId22" xr:uid="{58179D7D-B758-4F94-A2E1-93B3C9521252}"/>
+    <hyperlink ref="E31" r:id="rId23" xr:uid="{7A0519A0-AFA1-4DD8-967C-31D3E601B194}"/>
+    <hyperlink ref="E32" r:id="rId24" xr:uid="{D52C3E62-A5DA-4B30-B958-08B68D4C119D}"/>
+    <hyperlink ref="E33" r:id="rId25" xr:uid="{BCCC84B6-3746-47DC-8CD6-327736306D47}"/>
+    <hyperlink ref="E34" r:id="rId26" xr:uid="{CE8360CD-79DB-4B7C-BAEF-837D8C8C61CC}"/>
+    <hyperlink ref="E35" r:id="rId27" xr:uid="{46A28F22-1AAF-40C6-9605-79F33DC4D2D0}"/>
+    <hyperlink ref="E36" r:id="rId28" xr:uid="{1E1365BB-32A5-401E-B96B-2CDFEB85B9DC}"/>
+    <hyperlink ref="E37" r:id="rId29" xr:uid="{472717CC-ECF2-454B-981F-A72C5416BB47}"/>
+    <hyperlink ref="E38" r:id="rId30" xr:uid="{08FA11D3-4596-4F79-AD56-1CBC60D3E5BA}"/>
+    <hyperlink ref="E39" r:id="rId31" xr:uid="{9B02DBA8-44A4-4772-880C-F5818D767BA3}"/>
+    <hyperlink ref="E40" r:id="rId32" xr:uid="{CC4292DE-22BE-40F2-8EC7-15246EF2198E}"/>
+    <hyperlink ref="E41" r:id="rId33" xr:uid="{FC645F3A-FD21-4111-907B-437A12BE58BF}"/>
+    <hyperlink ref="E42" r:id="rId34" xr:uid="{7D8C2B8D-145E-455D-A5A8-3F99706517A6}"/>
+    <hyperlink ref="E43" r:id="rId35" xr:uid="{8DBAFF29-E6BB-4BAB-AC18-962E2F7E866E}"/>
+    <hyperlink ref="E44" r:id="rId36" xr:uid="{45617C4E-260C-400C-8D19-1CCD1172330B}"/>
+    <hyperlink ref="E45" r:id="rId37" xr:uid="{46C3AD23-412D-4D51-ABC3-0D1AB3E50F2D}"/>
+    <hyperlink ref="E46" r:id="rId38" xr:uid="{31831B76-669F-4D26-BC7A-1347BF6782D7}"/>
+    <hyperlink ref="E47" r:id="rId39" xr:uid="{7E57ECA6-9799-4D89-9B87-1A60F8CD4D85}"/>
+    <hyperlink ref="E48" r:id="rId40" xr:uid="{A477BDB1-D383-42BF-B7DF-3F3C97478C7A}"/>
+    <hyperlink ref="E49" r:id="rId41" xr:uid="{15D95BD0-28B0-4713-BE2E-D7CDE9260172}"/>
+    <hyperlink ref="E50" r:id="rId42" xr:uid="{F482BB7F-A023-4711-9604-D2C7BC534B6F}"/>
+    <hyperlink ref="E51" r:id="rId43" xr:uid="{EFF9B8EC-7F1B-4BF9-8156-7D1F6170C0E6}"/>
+    <hyperlink ref="E52" r:id="rId44" xr:uid="{8C655689-B6CC-4A74-9761-FF8AB4AAFCBF}"/>
+    <hyperlink ref="E53" r:id="rId45" xr:uid="{D5101FCC-69A2-4A54-9A7B-52EB696BDD47}"/>
+    <hyperlink ref="E54" r:id="rId46" xr:uid="{F7FA6719-BE81-43DD-9B61-1A4A5EFA6A39}"/>
+    <hyperlink ref="E55" r:id="rId47" xr:uid="{824AF15D-5153-4715-A12F-A6C83AE8D228}"/>
+    <hyperlink ref="E56" r:id="rId48" xr:uid="{95C27AE3-7B57-4111-B244-A8379B858B88}"/>
+    <hyperlink ref="E57" r:id="rId49" xr:uid="{A9E260F5-4E6C-4E78-B11A-A25046E7A693}"/>
+    <hyperlink ref="E58" r:id="rId50" xr:uid="{57D9F2E9-29E1-4AAD-8049-EF0AFAB53636}"/>
+    <hyperlink ref="E59" r:id="rId51" xr:uid="{5015FFCE-DC54-4F84-9627-31F63FDBFFDD}"/>
+    <hyperlink ref="E60" r:id="rId52" xr:uid="{BE527D0C-7D45-40CB-9CBC-F8A7E1E375F6}"/>
+    <hyperlink ref="E61" r:id="rId53" xr:uid="{F219EFAF-A3D6-49E8-A14E-C69E5E445FFD}"/>
+    <hyperlink ref="E62" r:id="rId54" xr:uid="{C5DA148B-B318-4209-AB08-6F9FBF6D4DB5}"/>
+    <hyperlink ref="E63" r:id="rId55" xr:uid="{B5F83DF2-EDFD-40DC-9B37-B05B9DA84502}"/>
+    <hyperlink ref="E64" r:id="rId56" xr:uid="{6F196606-355D-4DE7-B5CF-4BD3C56615DC}"/>
+    <hyperlink ref="E65" r:id="rId57" xr:uid="{9D9862D0-DA62-41D1-986B-9C8AB7BF338A}"/>
+    <hyperlink ref="E66" r:id="rId58" xr:uid="{220606E2-03F6-49BF-B452-8288247F31DA}"/>
+    <hyperlink ref="E67" r:id="rId59" display="https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Foamtec/FT_4.JPG" xr:uid="{3ECDE46D-3AD9-46A6-BD2F-CBCBA0419687}"/>
+    <hyperlink ref="E77" r:id="rId60" xr:uid="{C6359FDD-D565-4D8E-A846-BF70D8940F09}"/>
+    <hyperlink ref="E78" r:id="rId61" xr:uid="{79D39D90-CE27-4EB3-B24F-B5564208B0CE}"/>
+    <hyperlink ref="E79" r:id="rId62" xr:uid="{2EDF3319-E777-481B-B363-8E9ACD0C97A4}"/>
+    <hyperlink ref="E80" r:id="rId63" xr:uid="{C09A2EFB-436B-4FB0-8CE1-3098409EC86A}"/>
+    <hyperlink ref="E81" r:id="rId64" xr:uid="{070049E8-8FA4-42EB-8A1D-FCA745E69453}"/>
+    <hyperlink ref="E82" r:id="rId65" xr:uid="{ED113CAF-7EC8-488C-A731-6A13AE958C36}"/>
+    <hyperlink ref="E83" r:id="rId66" xr:uid="{F402EFF5-1234-4C97-A481-3F59C6B05039}"/>
+    <hyperlink ref="E84" r:id="rId67" xr:uid="{AB92E608-B02A-46A9-B846-CB2F4BDCE96F}"/>
+    <hyperlink ref="E85" r:id="rId68" xr:uid="{B0E8D4A5-187D-4631-BB47-18BD2770B756}"/>
+    <hyperlink ref="E86" r:id="rId69" xr:uid="{1A0493DB-48CC-47CF-A9A3-59F5D32FE13E}"/>
+    <hyperlink ref="E87" r:id="rId70" xr:uid="{3B5EA395-EA92-4D69-B7E6-5264D611B098}"/>
+    <hyperlink ref="E88" r:id="rId71" xr:uid="{6F3DFDA3-C525-4154-A95C-562B5BDD218C}"/>
+    <hyperlink ref="E89" r:id="rId72" xr:uid="{D0FB73B2-B2B5-4B7A-A27B-3DD15CBFDC6F}"/>
+    <hyperlink ref="E90" r:id="rId73" xr:uid="{80B16C7F-A928-4B4B-B45C-E665FF347E3B}"/>
+    <hyperlink ref="E91" r:id="rId74" xr:uid="{C6DC676B-01E7-4D6A-AA1E-E5B8D9311909}"/>
+    <hyperlink ref="E92" r:id="rId75" xr:uid="{6C5F92EE-DEAB-47A4-A812-3227F7271542}"/>
+    <hyperlink ref="E93" r:id="rId76" xr:uid="{9FC58291-53C3-40C7-85F4-87F5266A189B}"/>
+    <hyperlink ref="E94" r:id="rId77" xr:uid="{1DEF3A39-DF39-4998-9143-6549A9BD79E1}"/>
+    <hyperlink ref="E95" r:id="rId78" xr:uid="{F1A9EB58-AE60-4483-839D-7797FCAD8544}"/>
+    <hyperlink ref="E96" r:id="rId79" xr:uid="{3BBC1204-443E-42E3-B24C-CC3D4D77CE54}"/>
+    <hyperlink ref="E97" r:id="rId80" xr:uid="{D1438105-D132-41BE-B923-2D579E6CDD59}"/>
+    <hyperlink ref="E98" r:id="rId81" xr:uid="{848CE225-DB19-4085-AF4C-B8C91047F921}"/>
+    <hyperlink ref="E99" r:id="rId82" xr:uid="{B50AD20E-CF70-4FF1-BCDD-B4670C4415B3}"/>
+    <hyperlink ref="E100" r:id="rId83" xr:uid="{18B9CCCD-8714-4459-96E0-6A182B5CDFA4}"/>
+    <hyperlink ref="E101" r:id="rId84" xr:uid="{AC7F6404-CBE0-4FEE-8580-BDC4F78EE695}"/>
+    <hyperlink ref="E102" r:id="rId85" xr:uid="{9BE62865-B3E7-48A1-8C13-8FEDBF711467}"/>
+    <hyperlink ref="E103" r:id="rId86" xr:uid="{6F422574-E2F5-4D5F-B56E-21B939EEA9F4}"/>
+    <hyperlink ref="E104" r:id="rId87" xr:uid="{C2BE384A-BD72-4A14-813F-DB8A54C2CAC8}"/>
+    <hyperlink ref="E105" r:id="rId88" xr:uid="{D5D6C985-CA08-45F2-BEA3-BCF63E225C6A}"/>
+    <hyperlink ref="E106" r:id="rId89" xr:uid="{693F3107-1BE9-41A6-A1C4-E1E0413F2E0C}"/>
+    <hyperlink ref="E107" r:id="rId90" xr:uid="{8E6D9160-21EE-4AB1-9D11-AE2D85EC27C2}"/>
+    <hyperlink ref="E108" r:id="rId91" xr:uid="{E084FBE6-93A6-47E6-BD91-289F178EFFB9}"/>
+    <hyperlink ref="E109" r:id="rId92" xr:uid="{632E9CC1-E3BD-453C-B1C0-B1CA3C99F8F5}"/>
+    <hyperlink ref="E110" r:id="rId93" xr:uid="{75FF1256-873C-411A-8BDC-867BF958E233}"/>
+    <hyperlink ref="E111" r:id="rId94" xr:uid="{F56D5776-6509-4261-BA03-47A4CA01AAE3}"/>
+    <hyperlink ref="E112" r:id="rId95" xr:uid="{92E43617-2A49-47D2-A46C-6F49562BF4F8}"/>
+    <hyperlink ref="E113" r:id="rId96" xr:uid="{BF52B024-3558-4747-8791-8EAD8A1F68CA}"/>
+    <hyperlink ref="E114" r:id="rId97" xr:uid="{1F73101E-9314-4ECC-AB7F-5AEA1D61E864}"/>
+    <hyperlink ref="E115" r:id="rId98" xr:uid="{8940A1D8-25C4-485F-86CB-79C47C068D6E}"/>
+    <hyperlink ref="E116" r:id="rId99" display="https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/Markforged/MF_2.jpg" xr:uid="{B46D8117-0F97-4BF6-9B59-62E2056C5A06}"/>
+    <hyperlink ref="E117" r:id="rId100" xr:uid="{22125BD2-9F23-4813-B1AD-B6A87D8AFA1B}"/>
+    <hyperlink ref="E118" r:id="rId101" xr:uid="{FB530605-8EB9-481D-92E9-3BB954A8ABDF}"/>
+    <hyperlink ref="E119" r:id="rId102" xr:uid="{DB5302FE-97F8-4C9C-932C-508A4842A3E2}"/>
+    <hyperlink ref="E120" r:id="rId103" xr:uid="{8B667B9F-84E0-4B54-9676-200A3F3767DE}"/>
+    <hyperlink ref="E121" r:id="rId104" xr:uid="{EA8D018C-E500-4DF4-897F-E6BC4CAD9A65}"/>
+    <hyperlink ref="E122" r:id="rId105" xr:uid="{7A8C9D49-6B6B-48E5-9F30-62A6E3E143DF}"/>
+    <hyperlink ref="E123" r:id="rId106" xr:uid="{7432BE51-1221-4CA1-A75D-6D31CD6B0D36}"/>
+    <hyperlink ref="E124" r:id="rId107" xr:uid="{52E223A1-0022-45A7-9F13-3BE196001424}"/>
+    <hyperlink ref="E125" r:id="rId108" xr:uid="{F20B8530-13EA-4F25-AEFE-B9926F35B4A6}"/>
+    <hyperlink ref="E126" r:id="rId109" xr:uid="{BC9D32A2-B1A2-44E5-AE10-E34EFBFA7356}"/>
+    <hyperlink ref="E127" r:id="rId110" xr:uid="{5A7F0D7F-299F-4DEC-8DCF-852E8F55BF0A}"/>
+    <hyperlink ref="E128" r:id="rId111" xr:uid="{208FA242-8EAC-46B3-9AE2-DD517C7904C8}"/>
+    <hyperlink ref="E129" r:id="rId112" xr:uid="{3568BB7C-AE59-4BF8-B818-AE0F9D29D319}"/>
+    <hyperlink ref="E130" r:id="rId113" xr:uid="{6C018B25-1C7B-4F75-8A53-8F8F0FED6190}"/>
+    <hyperlink ref="E131" r:id="rId114" xr:uid="{0769A475-6EAA-446F-AAE3-4728507E571B}"/>
+    <hyperlink ref="E132" r:id="rId115" xr:uid="{DB7BA901-A350-4FEA-B79C-BAD265DC6690}"/>
+    <hyperlink ref="E133" r:id="rId116" xr:uid="{37546013-B8F1-4000-BAF4-BFFCE3689443}"/>
+    <hyperlink ref="E134" r:id="rId117" xr:uid="{95164AB5-EEEE-4DB3-A20B-FEB44B246E19}"/>
+    <hyperlink ref="E135" r:id="rId118" xr:uid="{FBB25F68-91AA-4EEE-B626-BD4D40D30E30}"/>
+    <hyperlink ref="E136" r:id="rId119" xr:uid="{6B67DFD3-F729-4CB4-973D-7F442E8C7061}"/>
+    <hyperlink ref="E137" r:id="rId120" xr:uid="{D84F47F2-C460-43CA-BDA7-FEE468ED0C66}"/>
+    <hyperlink ref="E138" r:id="rId121" xr:uid="{D05C766A-AEBE-40C0-9D3D-9E9264FCC87A}"/>
+    <hyperlink ref="E139" r:id="rId122" xr:uid="{9DE77D0D-CE5E-48AC-8156-8FD71ECD4D64}"/>
+    <hyperlink ref="E140" r:id="rId123" xr:uid="{BEA6385B-3DE5-4619-A4B1-F4E9F599B05A}"/>
+    <hyperlink ref="E141" r:id="rId124" xr:uid="{7A9A6F7A-7CE7-4930-8BAD-4FCA926E338D}"/>
+    <hyperlink ref="E142" r:id="rId125" xr:uid="{1A2A2EF8-DCA2-47F3-8B77-53357FBFA29A}"/>
+    <hyperlink ref="E143" r:id="rId126" xr:uid="{520C05CF-79F1-4141-B145-DC9BBDA6D5F1}"/>
+    <hyperlink ref="E144" r:id="rId127" xr:uid="{B8259558-461A-4F6B-BD87-DC9B002B59CE}"/>
+    <hyperlink ref="E145" r:id="rId128" xr:uid="{8D9FE110-8F6E-491D-8182-F3ABFC567EED}"/>
+    <hyperlink ref="E146" r:id="rId129" xr:uid="{2B140C14-381A-4A28-93ED-69E1158849DE}"/>
+    <hyperlink ref="E147" r:id="rId130" xr:uid="{DA1C4913-EEA5-4F37-ABF7-1AFA2FA5FC80}"/>
+    <hyperlink ref="E148" r:id="rId131" xr:uid="{8390D33F-5F6A-4E10-940A-19276CF5B5E1}"/>
+    <hyperlink ref="E149" r:id="rId132" xr:uid="{EC3C691E-BA75-4699-ADAF-64F809AE46A6}"/>
+    <hyperlink ref="E150" r:id="rId133" xr:uid="{86250660-B3AA-4D22-AE6F-67020D0EF2CF}"/>
+    <hyperlink ref="E151" r:id="rId134" xr:uid="{5446D63D-252B-462A-B669-D49E408700B4}"/>
+    <hyperlink ref="E152" r:id="rId135" xr:uid="{BB502D3F-94F4-4A77-931B-7BCDA11FC029}"/>
+    <hyperlink ref="E153" r:id="rId136" xr:uid="{71831FC8-722F-4E90-A96A-04534D70DDCB}"/>
+    <hyperlink ref="E154" r:id="rId137" xr:uid="{2FC9A796-CC2D-4725-A80E-F3E0D9BF9FCC}"/>
+    <hyperlink ref="E155" r:id="rId138" xr:uid="{39727558-45C6-42DC-AB99-5D715257B9D1}"/>
+    <hyperlink ref="E156" r:id="rId139" xr:uid="{0202220A-B53E-47D9-8837-8DC6A7748F36}"/>
+    <hyperlink ref="E157" r:id="rId140" xr:uid="{4E72B63F-D8BE-4B20-84FD-ACE9A0B77723}"/>
+    <hyperlink ref="E158" r:id="rId141" xr:uid="{331336CB-9CF0-472E-952E-8C88D3A890B4}"/>
+    <hyperlink ref="E159" r:id="rId142" xr:uid="{68704476-5E38-4A86-8F5C-E780D52948F1}"/>
+    <hyperlink ref="E160" r:id="rId143" xr:uid="{4259273B-465E-4C9F-BD08-B0354AC1F4C9}"/>
+    <hyperlink ref="E161" r:id="rId144" xr:uid="{A2A10792-3096-493D-94D8-2F1F3465A0FF}"/>
+    <hyperlink ref="E162" r:id="rId145" xr:uid="{75F2CF5C-6D3F-478D-97E5-DC7764008916}"/>
+    <hyperlink ref="E163" r:id="rId146" xr:uid="{ADB8D562-D342-4140-B9E2-AA547AECEB67}"/>
+    <hyperlink ref="E164" r:id="rId147" xr:uid="{6E9CDE76-426A-4A42-9C51-139B81574113}"/>
+    <hyperlink ref="E165" r:id="rId148" xr:uid="{A4BA1E85-F53E-4BA5-AD72-8A1BEB97228C}"/>
+    <hyperlink ref="E166" r:id="rId149" xr:uid="{9FDA2622-8F2A-46CF-AA2E-F846CC766630}"/>
+    <hyperlink ref="E167" r:id="rId150" xr:uid="{19F14581-858F-40E6-9EDC-B4A64121339B}"/>
+    <hyperlink ref="E168" r:id="rId151" xr:uid="{4FD27628-2BA0-40A7-87DC-66A161762E1E}"/>
+    <hyperlink ref="E169" r:id="rId152" xr:uid="{FD7161EA-74E8-48CE-88C2-2BE0D6CBFE4D}"/>
+    <hyperlink ref="E170" r:id="rId153" xr:uid="{5C75FC4C-AEB4-48BB-9568-08480642B172}"/>
+    <hyperlink ref="E171" r:id="rId154" xr:uid="{43FDB7BE-0ED9-4E1B-BB1A-EBBF8C6AAB43}"/>
+    <hyperlink ref="E172" r:id="rId155" xr:uid="{7FCCA35B-6A3C-4A66-880B-C0CCC0EC5658}"/>
+    <hyperlink ref="E173" r:id="rId156" xr:uid="{BA44C9AB-A9B8-41A2-B74F-11F8190A1EED}"/>
+    <hyperlink ref="E174" r:id="rId157" xr:uid="{D57D3537-8329-4AA6-9BB4-24599049D48D}"/>
+    <hyperlink ref="E175" r:id="rId158" xr:uid="{416452F5-B174-48FC-95B6-7C4A50F26FC3}"/>
+    <hyperlink ref="E176" r:id="rId159" xr:uid="{B551BB44-70D1-4264-9E07-B89B4B29A933}"/>
+    <hyperlink ref="E177" r:id="rId160" xr:uid="{D7888A02-1106-43E3-A7C0-1DBE8CA2C25B}"/>
+    <hyperlink ref="E178" r:id="rId161" xr:uid="{05345891-C38F-4916-999F-44E4F68601E7}"/>
+    <hyperlink ref="E179" r:id="rId162" xr:uid="{F48F130D-BBDB-49BC-9B80-AEE1B1E5A187}"/>
+    <hyperlink ref="E180" r:id="rId163" xr:uid="{11C6CFCD-B96C-49CA-889E-3B844D5D7AD1}"/>
+    <hyperlink ref="E181" r:id="rId164" xr:uid="{84A5A337-B723-482D-98BB-90DC63CA3BCD}"/>
+    <hyperlink ref="E182" r:id="rId165" xr:uid="{840EA76C-B4FB-4B27-BF06-C2700D6B201D}"/>
+    <hyperlink ref="E183" r:id="rId166" xr:uid="{DEE2AB3D-E477-4FFE-9B5C-6DE180837996}"/>
+    <hyperlink ref="E184" r:id="rId167" xr:uid="{54809EA0-E676-40B0-9285-F05BAB753AFB}"/>
+    <hyperlink ref="E189" r:id="rId168" xr:uid="{F585CF0C-1B2F-4CAF-B546-43D9DA317BFF}"/>
+    <hyperlink ref="E190" r:id="rId169" xr:uid="{23826EE9-AC83-42AC-8B21-688C6DD7D273}"/>
+    <hyperlink ref="E191" r:id="rId170" xr:uid="{8C584230-EEB8-4D70-AE61-4C92ED93905D}"/>
+    <hyperlink ref="E192" r:id="rId171" xr:uid="{2DF2E2B1-7E8B-4D3F-B4C9-52519675B89C}"/>
+    <hyperlink ref="E201" r:id="rId172" xr:uid="{EACBDD6C-89C4-480A-893B-A4F99CEC0D55}"/>
+    <hyperlink ref="E206" r:id="rId173" display="https://github.com/rarnaout/Covidswab/tree/master/BIDMC/img/FormLabs/FL_LT_Form2_hex_mtx.jpg" xr:uid="{1DAC9F1D-1277-4943-91A6-FD73512BC949}"/>
+    <hyperlink ref="E207" r:id="rId174" xr:uid="{2849448D-2029-430B-91FA-ED28F5CF8395}"/>
+    <hyperlink ref="E208" r:id="rId175" xr:uid="{8E95FF65-1DBE-4FA3-A45C-3E2415EC1D82}"/>
+    <hyperlink ref="E209" r:id="rId176" xr:uid="{6DE1CA8E-F4C0-4EAF-8F7E-4F32C0525354}"/>
+    <hyperlink ref="E210" r:id="rId177" xr:uid="{9A3A3BA8-51EA-4DE9-BFDA-4A5637F89E39}"/>
+    <hyperlink ref="E211" r:id="rId178" xr:uid="{152493D2-8312-4A06-BE46-C95BFFF86F22}"/>
+    <hyperlink ref="E212" r:id="rId179" xr:uid="{E5B1AD0F-1AA9-4ED7-8B9E-F1792D74296E}"/>
+    <hyperlink ref="E213" r:id="rId180" xr:uid="{097F8AEF-877A-4C94-8341-0CB7C8026530}"/>
+    <hyperlink ref="E214" r:id="rId181" xr:uid="{FF93691B-3D45-45D5-8167-3E997106BE05}"/>
+    <hyperlink ref="E215" r:id="rId182" xr:uid="{0AF1C437-DBA2-4A6A-8B29-C3FC53D25AB7}"/>
+    <hyperlink ref="E217" r:id="rId183" xr:uid="{55A4DD32-D7EE-4BA9-B27F-D6F451EA51F6}"/>
+    <hyperlink ref="E218" r:id="rId184" xr:uid="{CD299819-69A0-4374-841C-E8658D36F57A}"/>
+    <hyperlink ref="E219" r:id="rId185" xr:uid="{46B227B7-38E9-4035-BB8D-558E1B9D9F26}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId186"/>
